--- a/Data/FiMs Associate.xlsx
+++ b/Data/FiMs Associate.xlsx
@@ -157,87 +157,87 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A7">
+    <comment authorId="0" ref="A8">
       <text>
         <t xml:space="preserve">WARNING : Should be the same as the spreadsheet name with account data historic</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A8">
+    <comment authorId="0" ref="A9">
       <text>
         <t xml:space="preserve">Set a value if the movement is recurrent (happening every month), can only be negative (withdraw)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A12">
+    <comment authorId="0" ref="A13">
       <text>
         <t xml:space="preserve">Money donated to charity</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A13">
+    <comment authorId="0" ref="A14">
       <text>
         <t xml:space="preserve">Number of financed projects</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A14">
+    <comment authorId="0" ref="A15">
       <text>
         <t xml:space="preserve">Time since first investment</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A32">
+    <comment authorId="0" ref="A33">
       <text>
         <t xml:space="preserve">Amount not added because the money has not been invested</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A33">
+    <comment authorId="0" ref="A34">
       <text>
         <t xml:space="preserve">Money really invested (movement - rejected)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A34">
+    <comment authorId="0" ref="A35">
       <text>
         <t xml:space="preserve">Cumulated amount without interest</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A35">
+    <comment authorId="0" ref="A36">
       <text>
         <t xml:space="preserve">The monthly rate from which calculate interests</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A36">
+    <comment authorId="0" ref="A37">
       <text>
         <t xml:space="preserve">The cumulated rate since the beginning of savings</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A37">
+    <comment authorId="0" ref="A38">
       <text>
         <t xml:space="preserve">The cumulated rate adjusted to one year</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A38">
+    <comment authorId="0" ref="A39">
       <text>
         <t xml:space="preserve">Current gain (= Current Value * Rate / 12)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A39">
+    <comment authorId="0" ref="A40">
       <text>
         <t xml:space="preserve">Cumulated gain since the beginning of saving</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A40">
+    <comment authorId="0" ref="A41">
       <text>
         <t xml:space="preserve">Money collected for charity</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A41">
+    <comment authorId="0" ref="A42">
       <text>
         <t xml:space="preserve">Minimum guaranteed in case of negative rate</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A42">
+    <comment authorId="0" ref="A43">
       <text>
         <t xml:space="preserve">Total of value and gain cumulated</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A43">
+    <comment authorId="0" ref="A44">
       <text>
         <t xml:space="preserve">Total amount saved</t>
       </text>
@@ -547,7 +547,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="370">
   <si>
     <t>DateTime</t>
   </si>
@@ -816,6 +816,24 @@
     <t>https://www.petitsprinces.com/je-fais-un-don</t>
   </si>
   <si>
+    <t>Flodef</t>
+  </si>
+  <si>
+    <t>fdefroco@gmail.com</t>
+  </si>
+  <si>
+    <t>Flo</t>
+  </si>
+  <si>
+    <t>De Frocourt</t>
+  </si>
+  <si>
+    <t>Toulouse (31)</t>
+  </si>
+  <si>
+    <t>L'esprit des pics</t>
+  </si>
+  <si>
     <t>Operation date</t>
   </si>
   <si>
@@ -834,7 +852,7 @@
     <t>Pending ...</t>
   </si>
   <si>
-    <t>Don</t>
+    <t>Donation</t>
   </si>
   <si>
     <t>Question</t>
@@ -1189,6 +1207,9 @@
   </si>
   <si>
     <t>En attente de transfert ...</t>
+  </si>
+  <si>
+    <t>Don à une association</t>
   </si>
   <si>
     <t>Completed !</t>
@@ -1730,10 +1751,10 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font/>
     <font>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <sz val="10.0"/>
     </font>
@@ -1805,7 +1826,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1892,11 +1913,14 @@
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="172" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="172" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -1946,8 +1970,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -2246,7 +2273,7 @@
       </c>
       <c r="B1" s="2">
         <f>NOW()</f>
-        <v>44162.92309</v>
+        <v>44162.98511</v>
       </c>
     </row>
     <row r="2">
@@ -2264,7 +2291,7 @@
       </c>
       <c r="B3" s="4">
         <f>TIMEVALUE($B$1)</f>
-        <v>0.9230902778</v>
+        <v>0.9851041667</v>
       </c>
     </row>
     <row r="4">
@@ -2377,764 +2404,764 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="H1" s="65" t="s">
+      <c r="B1" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="N1" s="65" t="s">
+      <c r="L1" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" s="67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="66">
+      <c r="A2" s="68">
         <f>EOMONTH(DateTime!$B$1-(365.25/12*(ROW()-2))-TIME(3,0,0),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B2" s="67">
-        <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"",AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"&lt;&gt;Don",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
+      <c r="B2" s="69">
+        <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"",AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"&lt;&gt;Donation",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>200</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="69">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>200</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="69">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="69">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>300</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="70">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="70">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.460666483</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="70">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A17)*12,0)</f>
         <v>0.3685331864</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="69">
         <f>MAX($L2,$M2)-$E2-SUM($I3:$I17)</f>
         <v>-5.503327796</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <f>$N2-$E2</f>
         <v>27.77827925</v>
       </c>
-      <c r="K2" s="67">
-        <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME())-SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"Don")</f>
+      <c r="K2" s="69">
+        <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME())-SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"Donation")</f>
         <v>-1.616725247</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="69">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>302.5</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="69">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>329.3950045</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="71">
         <f>MAX($M2,$L2)+$K2</f>
         <v>327.7782792</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="66">
+      <c r="A3" s="68">
         <v>44105.0</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="69">
         <v>100.0</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="69">
         <v>0.0</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="69">
         <v>100.0</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="69">
         <v>300.0</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="70">
         <v>-0.0030358834822477613</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="70">
         <v>0.4770993142594863</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="70">
         <v>0.33677598653610796</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="69">
         <v>-0.715295520858632</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="69">
         <v>32.978924012537504</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="69">
         <v>-1.9194082758619726</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="69">
         <v>302.18750000000006</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="69">
         <v>334.8983322883995</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="71">
         <v>332.9789240125375</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="66">
+      <c r="A4" s="68">
         <v>44075.0</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="69">
         <v>0.0</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="69">
         <v>0.0</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="69">
         <v>0.0</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="69">
         <v>200.0</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="70">
         <v>0.0695011442271417</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="70">
         <v>0.4801351977417341</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="70">
         <v>0.36010139830630056</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="69">
         <v>15.311266207279061</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="69">
         <v>33.65487827974894</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="69">
         <v>-1.9587495295091975</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="69">
         <v>201.97916666666674</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="69">
         <v>235.61362780925813</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="71">
         <v>233.65487827974894</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="66">
+      <c r="A5" s="68">
         <v>44044.0</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="69">
         <v>0.0</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="69">
         <v>0.0</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="69">
         <v>0.0</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="69">
         <v>200.0</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="70">
         <v>-0.0011851593150153932</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="70">
         <v>0.41063405351459237</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="70">
         <v>0.3285072428116739</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="69">
         <v>-0.2614032004104274</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="69">
         <v>19.18573171387021</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="69">
         <v>-1.116629888108849</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="69">
         <v>201.7708333333334</v>
       </c>
-      <c r="M5" s="67">
+      <c r="M5" s="69">
         <v>220.30236160197907</v>
       </c>
-      <c r="N5" s="69">
+      <c r="N5" s="71">
         <v>219.1857317138702</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="66">
+      <c r="A6" s="68">
         <v>44013.0</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="69">
         <v>0.0</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="69">
         <v>0.0</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="69">
         <v>0.0</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="69">
         <v>200.0</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="70">
         <v>0.01670595001387467</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="70">
         <v>0.41181921282960776</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="70">
         <v>0.3529878967110924</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="69">
         <v>3.624181829181225</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="69">
         <v>19.43275773825809</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="69">
         <v>-1.1310070641314225</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="69">
         <v>201.56250000000006</v>
       </c>
-      <c r="M6" s="67">
+      <c r="M6" s="69">
         <v>220.5637648023895</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="71">
         <v>219.4327577382581</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="66">
+      <c r="A7" s="68">
         <v>43983.0</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="69">
         <v>0.0</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="69">
         <v>0.0</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="69">
         <v>0.0</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="69">
         <v>200.0</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="70">
         <v>-0.00659387295460559</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="70">
         <v>0.3951132628157331</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="70">
         <v>0.3647199349068306</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="69">
         <v>-1.4399670084630714</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="69">
         <v>16.007905909681824</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="69">
         <v>-0.9316770635264551</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="69">
         <v>201.3541666666667</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="69">
         <v>216.93958297320827</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="71">
         <v>216.00790590968182</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="66">
+      <c r="A8" s="68">
         <v>43952.0</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="69">
         <v>0.0</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="69">
         <v>0.0</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="69">
         <v>0.0</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="69">
         <v>200.0</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="70">
         <v>0.17167870410952307</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="70">
         <v>0.40170713577033873</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="70">
         <v>0.4017071357703388</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="69">
         <v>17.442049981671317</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="69">
         <v>17.36867473267941</v>
       </c>
-      <c r="K8" s="67">
+      <c r="K8" s="69">
         <v>-1.010875248991924</v>
       </c>
-      <c r="L8" s="67">
+      <c r="L8" s="69">
         <v>201.14583333333337</v>
       </c>
-      <c r="M8" s="67">
+      <c r="M8" s="69">
         <v>218.37954998167135</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="71">
         <v>217.3686747326794</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="66">
+      <c r="A9" s="68">
         <v>43922.0</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="69">
         <v>0.0</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="69">
         <v>0.0</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="69">
         <v>0.0</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="69">
         <v>200.0</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="70">
         <v>-0.09031985768405248</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="70">
         <v>0.23002843166081566</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="70">
         <v>0.25094010726634436</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="69">
         <v>-3.949647338966855</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="69">
         <v>0.8859375000000398</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="69">
         <v>-0.051562500000001565</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="69">
         <v>200.93750000000003</v>
       </c>
-      <c r="M9" s="67">
+      <c r="M9" s="69">
         <v>186.3817693500199</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="71">
         <v>200.88593750000004</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="66">
+      <c r="A10" s="68">
         <v>43891.0</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="69">
         <v>100.0</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="69">
         <v>0.0</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="69">
         <v>100.0</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="69">
         <v>200.0</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="70">
         <v>-6.988944889106389E-4</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="70">
         <v>0.32034828934486814</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="70">
         <v>0.3844179472138418</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="69">
         <v>-0.07335631755881877</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="69">
         <v>4.618354235323693</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="69">
         <v>-0.2687931036431786</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="69">
         <v>200.72916666666669</v>
       </c>
-      <c r="M10" s="67">
+      <c r="M10" s="69">
         <v>204.88714733896688</v>
       </c>
-      <c r="N10" s="69">
+      <c r="N10" s="71">
         <v>204.6183542353237</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="66">
+      <c r="A11" s="68">
         <v>43862.0</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="69">
         <v>0.0</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="69">
         <v>0.0</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="69">
         <v>0.0</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="69">
         <v>100.0</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="70">
         <v>-0.013571483773815925</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="70">
         <v>0.3210471838337788</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="70">
         <v>0.42806291177837175</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="69">
         <v>-1.4440679165640233</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="69">
         <v>4.687675955416793</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="69">
         <v>-0.27282770110891363</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="69">
         <v>100.62500000000003</v>
       </c>
-      <c r="M11" s="67">
+      <c r="M11" s="69">
         <v>104.9605036565257</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="71">
         <v>104.6876759554168</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="66">
+      <c r="A12" s="68">
         <v>43831.0</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="69">
         <v>0.0</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="69">
         <v>0.0</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="69">
         <v>0.0</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="69">
         <v>100.0</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="70">
         <v>0.06953970791992178</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="70">
         <v>0.33461866760759473</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="70">
         <v>0.501928001411392</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="69">
         <v>5.98790490642304</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="69">
         <v>6.05232013656979</v>
       </c>
-      <c r="K12" s="67">
+      <c r="K12" s="69">
         <v>-0.3522514365199349</v>
       </c>
-      <c r="L12" s="67">
+      <c r="L12" s="69">
         <v>100.52083333333336</v>
       </c>
-      <c r="M12" s="67">
+      <c r="M12" s="69">
         <v>106.40457157308973</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="71">
         <v>106.05232013656979</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="66">
+      <c r="A13" s="68">
         <v>43800.0</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="69">
         <v>0.0</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="69">
         <v>0.0</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="69">
         <v>0.0</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="69">
         <v>100.0</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="70">
         <v>0.02764486097227171</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="70">
         <v>0.2650789596876729</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="70">
         <v>0.4544210737502965</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="69">
         <v>0.1041666666666714</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="69">
         <v>0.39375000000001137</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="69">
         <v>-0.02291666666666771</v>
       </c>
-      <c r="L13" s="67">
+      <c r="L13" s="69">
         <v>100.41666666666669</v>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="69">
         <v>99.48632181223927</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="71">
         <v>100.39375000000001</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="66">
+      <c r="A14" s="68">
         <v>43770.0</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="69">
         <v>0.0</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="69">
         <v>0.0</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="69">
         <v>0.0</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="69">
         <v>100.0</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="70">
         <v>-0.031204251937763165</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="70">
         <v>0.23743409871540122</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="70">
         <v>0.47486819743080244</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="69">
         <v>0.1041666666666714</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="69">
         <v>0.2953125000000085</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="69">
         <v>-0.017187500000000782</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="69">
         <v>100.31250000000001</v>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="69">
         <v>96.81002220758796</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="71">
         <v>100.29531250000001</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="66">
+      <c r="A15" s="68">
         <v>43739.0</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="69">
         <v>0.0</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="69">
         <v>0.0</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="69">
         <v>0.0</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="69">
         <v>100.0</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="70">
         <v>-0.0017577640676155197</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="70">
         <v>0.2686383506531644</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="70">
         <v>0.6447320415675946</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="69">
         <v>0.1041666666666714</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="69">
         <v>0.19687500000000568</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="69">
         <v>-0.011458333333333855</v>
       </c>
-      <c r="L15" s="67">
+      <c r="L15" s="69">
         <v>100.20833333333334</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="69">
         <v>99.9282071594814</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="71">
         <v>100.196875</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="66">
+      <c r="A16" s="68">
         <v>43709.0</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="69">
         <v>100.0</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="69">
         <v>0.0</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="69">
         <v>100.0</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="69">
         <v>100.0</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="70">
         <v>0.09663855056374034</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="70">
         <v>0.2703961147207799</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="70">
         <v>0.8111883441623398</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="69">
         <v>0.1041666666666714</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="69">
         <v>0.09843750000000284</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="69">
         <v>-0.005729166666666927</v>
       </c>
-      <c r="L16" s="67">
+      <c r="L16" s="69">
         <v>100.10416666666667</v>
       </c>
-      <c r="M16" s="67">
+      <c r="M16" s="69">
         <v>100.10416666666667</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="71">
         <v>100.0984375</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="66">
+      <c r="A17" s="68">
         <v>43678.0</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17" s="69">
         <v>100.0</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="69">
         <v>100.0</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="69">
         <v>0.0</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="69">
         <v>0.0</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="70">
         <v>0.07804921004485675</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="70">
         <v>0.17375756415703958</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="70">
         <v>0.6950302566281583</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="69">
         <v>0.0</v>
       </c>
-      <c r="J17" s="67">
+      <c r="J17" s="69">
         <v>0.0</v>
       </c>
-      <c r="K17" s="67">
+      <c r="K17" s="69">
         <v>0.0</v>
       </c>
-      <c r="L17" s="67">
+      <c r="L17" s="69">
         <v>0.0</v>
       </c>
-      <c r="M17" s="67">
+      <c r="M17" s="69">
         <v>0.0</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="71">
         <v>0.0</v>
       </c>
     </row>
@@ -3161,148 +3188,148 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="H1" s="65" t="s">
+      <c r="B1" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="N1" s="65" t="s">
+      <c r="L1" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" s="67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="66">
+      <c r="A2" s="68">
         <f>EOMONTH(DateTime!$B$1-(365.25/12*(ROW()-2))-TIME(3,0,0),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B2" s="67">
-        <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"",AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"&lt;&gt;Don",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
+      <c r="B2" s="69">
+        <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"",AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"&lt;&gt;Donation",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>30442</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="69">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="69">
         <f>$B2-$C2</f>
         <v>30442</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="69">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>40000</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="70">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="70">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="70">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3)*12,0)</f>
         <v>-0.1971939755</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="69">
         <f>MAX($L2,$M2)-$E2-SUM($I3)</f>
         <v>41.66666667</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <f>$N2-$E2</f>
         <v>39.375</v>
       </c>
-      <c r="K2" s="67">
-        <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME())-SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"Don")</f>
+      <c r="K2" s="69">
+        <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME())-SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"Donation")</f>
         <v>-2.291666667</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="69">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>40041.66667</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="69">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>39874.64542</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="71">
         <f>MAX($M2,$L2)+$K2</f>
         <v>40039.375</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="66">
+      <c r="A3" s="68">
         <v>44105.0</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="69">
         <v>40000.0</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="69">
         <v>30442.0</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="69">
         <v>9558.0</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="69">
         <v>9558.0</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="70">
         <v>0.0</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="70">
         <v>0.0</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="70">
         <v>0.0</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="69">
         <v>0.0</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="69">
         <v>0.0</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="69">
         <v>0.0</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="69">
         <v>9558.0</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="69">
         <v>9558.0</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="71">
         <v>9558.0</v>
       </c>
     </row>
@@ -3326,103 +3353,103 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="H1" s="65" t="s">
+      <c r="B1" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="N1" s="65" t="s">
+      <c r="L1" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" s="67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="66">
+      <c r="A2" s="68">
         <f>EOMONTH(DateTime!$B$1-(365.25/12*(ROW()-2))-TIME(3,0,0),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B2" s="67">
-        <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"",AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"&lt;&gt;Don",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
+      <c r="B2" s="69">
+        <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"",AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"&lt;&gt;Donation",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="69">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="69">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="69">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="70">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="70">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="70">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="69">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="67">
-        <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME())-SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"Don")</f>
+      <c r="K2" s="69">
+        <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME())-SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"Donation")</f>
         <v>0</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="69">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="69">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="71">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
@@ -4150,8 +4177,8 @@
         <v>Last updated</v>
       </c>
       <c r="B71" s="23">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.1719424305629218)</f>
-        <v>0.1719424306</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.2346500115818344)</f>
+        <v>0.2346500116</v>
       </c>
     </row>
     <row r="72">
@@ -34871,7 +34898,7 @@
     </row>
     <row r="2">
       <c r="A2" s="33">
-        <f t="shared" ref="A2:A6" si="1">ROW()-2</f>
+        <f t="shared" ref="A2:A7" si="1">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -34881,11 +34908,11 @@
         <v>-1000.0</v>
       </c>
       <c r="D2" s="34">
-        <f t="shared" ref="D2:D6" si="2">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!$K$2"),0)</f>
+        <f t="shared" ref="D2:D7" si="2">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!$K$2"),0)</f>
         <v>-208.4342689</v>
       </c>
       <c r="E2" s="34">
-        <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B2,AssociateHistoric!$E:$E,"Don")</f>
+        <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B2,AssociateHistoric!$E:$E,"Donation")</f>
         <v>-434.68</v>
       </c>
       <c r="F2" s="35">
@@ -34897,7 +34924,7 @@
         <v>0.03872525113</v>
       </c>
       <c r="H2" s="34">
-        <f t="shared" ref="H2:H6" si="3">$G2*$N2</f>
+        <f t="shared" ref="H2:H7" si="3">$G2*$N2</f>
         <v>694.5200472</v>
       </c>
       <c r="I2" s="34" t="str">
@@ -34913,15 +34940,15 @@
         <v>-13984.68</v>
       </c>
       <c r="L2" s="34">
-        <f t="shared" ref="L2:L6" si="4">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!J2"),)</f>
+        <f t="shared" ref="L2:L7" si="4">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!J2"),)</f>
         <v>11484.55244</v>
       </c>
       <c r="M2" s="36">
-        <f t="shared" ref="M2:M6" si="5">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!H2"),)</f>
+        <f t="shared" ref="M2:M7" si="5">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!H2"),)</f>
         <v>0.2410898049</v>
       </c>
       <c r="N2" s="37">
-        <f t="shared" ref="N2:N6" si="6">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!N2")+INDIRECT($B2&amp;"!C2"),)</f>
+        <f t="shared" ref="N2:N7" si="6">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!N2")+INDIRECT($B2&amp;"!C2"),)</f>
         <v>17934.55244</v>
       </c>
       <c r="O2" s="38" t="s">
@@ -34978,7 +35005,7 @@
         <v>-1.616725247</v>
       </c>
       <c r="E3" s="34">
-        <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B3,AssociateHistoric!$E:$E,"Don")</f>
+        <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B3,AssociateHistoric!$E:$E,"Donation")</f>
         <v>0</v>
       </c>
       <c r="F3" s="35">
@@ -34986,7 +35013,7 @@
         <v>112</v>
       </c>
       <c r="G3" s="36">
-        <f t="shared" ref="G3:G6" si="7">IF(ROW()=2,MAX(Dashboard!$B$26,Dashboard!$B$57/12),$G2)</f>
+        <f t="shared" ref="G3:G7" si="7">IF(ROW()=2,MAX(Dashboard!$B$26,Dashboard!$B$57/12),$G2)</f>
         <v>0.03872525113</v>
       </c>
       <c r="H3" s="34">
@@ -35061,7 +35088,7 @@
         <v>-2.291666667</v>
       </c>
       <c r="E4" s="34">
-        <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B4,AssociateHistoric!$E:$E,"Don")</f>
+        <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B4,AssociateHistoric!$E:$E,"Donation")</f>
         <v>0</v>
       </c>
       <c r="F4" s="35">
@@ -35152,7 +35179,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="34">
-        <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B5,AssociateHistoric!$E:$E,"Don")</f>
+        <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B5,AssociateHistoric!$E:$E,"Donation")</f>
         <v>0</v>
       </c>
       <c r="F5" s="35">
@@ -35243,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="34">
-        <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B6,AssociateHistoric!$E:$E,"Don")</f>
+        <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B6,AssociateHistoric!$E:$E,"Donation")</f>
         <v>0</v>
       </c>
       <c r="F6" s="35">
@@ -35320,9 +35347,98 @@
       </c>
       <c r="AA6" s="33"/>
     </row>
+    <row r="7">
+      <c r="A7" s="33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="34">
+        <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B7,AssociateHistoric!$E:$E,"Donation")</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="35">
+        <f>COUNTIFS(Historic!$A:$A,"&gt;="&amp;MIN(INDIRECT($B7&amp;"!$A:$A")),Historic!$D:$D,"BUY")</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="36">
+        <f t="shared" si="7"/>
+        <v>0.03872525113</v>
+      </c>
+      <c r="H7" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="34" t="str">
+        <f>IF(ISREF(INDIRECT($B7&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B7&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B7&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
+        <v/>
+      </c>
+      <c r="J7" s="34">
+        <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B7,AssociateHistoric!$C:$C,"&gt;0",AssociateHistoric!$E:$E,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="34">
+        <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B7,AssociateHistoric!$C:$C,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M7" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N7" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="44">
+        <v>30047.0</v>
+      </c>
+      <c r="S7" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="42">
+        <v>29550.0</v>
+      </c>
+      <c r="V7" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="The recurrent amount can only be negative (withdraw)" sqref="C2:C6">
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="The recurrent amount can only be negative (withdraw)" sqref="C2:C7">
       <formula1>0.0</formula1>
     </dataValidation>
   </dataValidations>
@@ -35361,36 +35477,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="42">
+      <c r="A2" s="44">
         <v>44162.0</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="45">
         <v>4999.0</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="45">
         <v>0.0</v>
       </c>
-      <c r="E2" s="45" t="s">
-        <v>94</v>
+      <c r="E2" s="46" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35406,7 +35522,7 @@
       <c r="D3" s="34">
         <v>0.0</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4">
       <c r="A4" s="39">
@@ -35421,7 +35537,7 @@
       <c r="D4" s="34">
         <v>0.0</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5">
       <c r="A5" s="39">
@@ -35436,7 +35552,7 @@
       <c r="D5" s="34">
         <v>0.0</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6">
       <c r="A6" s="39">
@@ -35451,7 +35567,7 @@
       <c r="D6" s="34">
         <v>0.0</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7">
       <c r="A7" s="39">
@@ -35466,7 +35582,7 @@
       <c r="D7" s="34">
         <v>0.0</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8">
       <c r="A8" s="39">
@@ -35481,7 +35597,7 @@
       <c r="D8" s="34">
         <v>0.0</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9">
       <c r="A9" s="39">
@@ -35496,7 +35612,7 @@
       <c r="D9" s="34">
         <v>0.0</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10">
       <c r="A10" s="39">
@@ -35511,7 +35627,7 @@
       <c r="D10" s="34">
         <v>0.0</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11">
       <c r="A11" s="39">
@@ -35526,10 +35642,10 @@
       <c r="D11" s="34">
         <v>0.0</v>
       </c>
-      <c r="E11" s="46"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12">
-      <c r="A12" s="47">
+      <c r="A12" s="48">
         <v>44048.0</v>
       </c>
       <c r="B12" s="33" t="s">
@@ -35541,10 +35657,10 @@
       <c r="D12" s="34">
         <v>0.0</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13">
-      <c r="A13" s="47">
+      <c r="A13" s="48">
         <v>44046.0</v>
       </c>
       <c r="B13" s="33" t="s">
@@ -35556,10 +35672,10 @@
       <c r="D13" s="34">
         <v>0.0</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14">
-      <c r="A14" s="47">
+      <c r="A14" s="48">
         <v>44035.0</v>
       </c>
       <c r="B14" s="33" t="s">
@@ -35571,10 +35687,10 @@
       <c r="D14" s="34">
         <v>0.0</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15">
-      <c r="A15" s="47">
+      <c r="A15" s="48">
         <v>44029.0</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -35586,7 +35702,7 @@
       <c r="D15" s="34">
         <v>0.0</v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16">
       <c r="A16" s="39">
@@ -35601,7 +35717,7 @@
       <c r="D16" s="34">
         <v>0.0</v>
       </c>
-      <c r="E16" s="46"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17">
       <c r="A17" s="39">
@@ -35616,7 +35732,7 @@
       <c r="D17" s="34">
         <v>0.0</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="E17" s="47"/>
     </row>
     <row r="18">
       <c r="A18" s="39">
@@ -35631,7 +35747,7 @@
       <c r="D18" s="34">
         <v>0.0</v>
       </c>
-      <c r="E18" s="46"/>
+      <c r="E18" s="47"/>
     </row>
     <row r="19">
       <c r="A19" s="39">
@@ -35646,7 +35762,7 @@
       <c r="D19" s="34">
         <v>0.0</v>
       </c>
-      <c r="E19" s="46"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20">
       <c r="A20" s="39">
@@ -35661,7 +35777,7 @@
       <c r="D20" s="34">
         <v>0.0</v>
       </c>
-      <c r="E20" s="46"/>
+      <c r="E20" s="47"/>
     </row>
     <row r="21">
       <c r="A21" s="39">
@@ -35676,7 +35792,7 @@
       <c r="D21" s="34">
         <v>0.0</v>
       </c>
-      <c r="E21" s="46"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22">
       <c r="A22" s="39">
@@ -35691,7 +35807,7 @@
       <c r="D22" s="34">
         <v>0.0</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23">
       <c r="A23" s="39">
@@ -35706,7 +35822,7 @@
       <c r="D23" s="34">
         <v>0.0</v>
       </c>
-      <c r="E23" s="46"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24">
       <c r="A24" s="39">
@@ -35722,7 +35838,7 @@
         <v>0.0</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -35738,7 +35854,7 @@
       <c r="D25" s="34">
         <v>0.0</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="47"/>
     </row>
     <row r="26">
       <c r="A26" s="39">
@@ -35753,10 +35869,10 @@
       <c r="D26" s="34">
         <v>0.0</v>
       </c>
-      <c r="E26" s="46"/>
+      <c r="E26" s="47"/>
     </row>
     <row r="27">
-      <c r="A27" s="47">
+      <c r="A27" s="48">
         <v>43756.0</v>
       </c>
       <c r="B27" s="33" t="s">
@@ -35768,7 +35884,7 @@
       <c r="D27" s="34">
         <v>0.0</v>
       </c>
-      <c r="E27" s="46"/>
+      <c r="E27" s="47"/>
     </row>
     <row r="28">
       <c r="A28" s="39">
@@ -35783,7 +35899,7 @@
       <c r="D28" s="34">
         <v>0.0</v>
       </c>
-      <c r="E28" s="46"/>
+      <c r="E28" s="47"/>
     </row>
     <row r="29">
       <c r="A29" s="39">
@@ -35798,7 +35914,7 @@
       <c r="D29" s="34">
         <v>0.0</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="E29" s="47"/>
     </row>
     <row r="30">
       <c r="A30" s="39">
@@ -35813,7 +35929,7 @@
       <c r="D30" s="34">
         <v>0.0</v>
       </c>
-      <c r="E30" s="46"/>
+      <c r="E30" s="47"/>
     </row>
     <row r="31">
       <c r="A31" s="39">
@@ -35828,7 +35944,7 @@
       <c r="D31" s="34">
         <v>0.0</v>
       </c>
-      <c r="E31" s="46"/>
+      <c r="E31" s="47"/>
     </row>
     <row r="32">
       <c r="A32" s="39">
@@ -35843,7 +35959,7 @@
       <c r="D32" s="34">
         <v>0.0</v>
       </c>
-      <c r="E32" s="46"/>
+      <c r="E32" s="47"/>
     </row>
     <row r="33">
       <c r="A33" s="39">
@@ -35858,7 +35974,7 @@
       <c r="D33" s="34">
         <v>0.0</v>
       </c>
-      <c r="E33" s="46"/>
+      <c r="E33" s="47"/>
     </row>
     <row r="34">
       <c r="A34" s="39">
@@ -35873,7 +35989,7 @@
       <c r="D34" s="34">
         <v>0.0</v>
       </c>
-      <c r="E34" s="46"/>
+      <c r="E34" s="47"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -35900,389 +36016,389 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>97</v>
+      <c r="A1" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>99</v>
+      <c r="A2" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>101</v>
+      <c r="A3" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>103</v>
+      <c r="A4" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>105</v>
+      <c r="A5" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>107</v>
+      <c r="A6" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>109</v>
+      <c r="A7" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>111</v>
+      <c r="A8" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>113</v>
+      <c r="A9" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>115</v>
+      <c r="A10" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>117</v>
+      <c r="A11" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>119</v>
+      <c r="A12" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="51" t="str">
+      <c r="A13" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""Au "" &amp; TO_TEXT(AllocationHistoric!A2) &amp; "", la capitalisation de l'entreprise est de "" &amp; TO_TEXT(AllocationHistoric!F2) &amp; "". J'en suis propriétaire de "" &amp; ROUNDUP(AllocationHistoric!B2/AllocationHistoric!F2*100,1) &amp; ""%, soit "" &amp; TO_TEXT(Allocation"&amp;"Historic!B2) &amp; "" dont "" &amp; TO_TEXT(-Dashboard!B30) &amp; "" de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ..."""),"Au 01/11/2020, la capitalisation de l'entreprise est de 1,276,567.77 €. J'en suis propriétaire de 29.3%, soit 372,882.66 € dont 72,876.26 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entrepr"&amp;"ises du CAC40, mais on s'en emproche ...")</f>
         <v>Au 01/11/2020, la capitalisation de l'entreprise est de 1,276,567.77 €. J'en suis propriétaire de 29.3%, soit 372,882.66 € dont 72,876.26 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ...</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>122</v>
+      <c r="A14" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>124</v>
+      <c r="A15" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>126</v>
+      <c r="A16" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>128</v>
+      <c r="A17" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>130</v>
+      <c r="A18" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>132</v>
+      <c r="A19" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>134</v>
+      <c r="A20" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>136</v>
+      <c r="A21" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>138</v>
+      <c r="A22" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>140</v>
+      <c r="A23" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>142</v>
+      <c r="A24" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>144</v>
+      <c r="A25" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""En date du "" &amp; TO_TEXT(DateTime!$B$6)&amp;""/""&amp;TO_TEXT(DateTime!$B$5)&amp;""/""&amp;TO_TEXT(DateTime!$B$4) &amp; "", "" &amp; ROWS(Associate!$A:$A)-1 &amp; "" personnes. Plus moi, "" &amp; ROWS(Associate!$A:$A) &amp; "" :-)"""),"En date du 27/11/2020, 5 personnes. Plus moi, 6 :-)")</f>
+      <c r="A26" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""En date du "" &amp; TO_TEXT(DateTime!$B$6)&amp;""/""&amp;TO_TEXT(DateTime!$B$5)&amp;""/""&amp;TO_TEXT(DateTime!$B$4) &amp; "", "" &amp; COUNT(Associate!$A:$A)-1 &amp; "" personnes. Plus moi, "" &amp; COUNT(Associate!$A:$A) &amp; "" :-)"""),"En date du 27/11/2020, 5 personnes. Plus moi, 6 :-)")</f>
         <v>En date du 27/11/2020, 5 personnes. Plus moi, 6 :-)</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>147</v>
+      <c r="A27" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>149</v>
+      <c r="A28" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>151</v>
+      <c r="A29" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>153</v>
+      <c r="A30" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="51" t="s">
-        <v>155</v>
+      <c r="A31" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>157</v>
+      <c r="A32" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>159</v>
+      <c r="A33" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>161</v>
+      <c r="A34" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>163</v>
+      <c r="A35" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>165</v>
+      <c r="A36" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>167</v>
+      <c r="A37" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>169</v>
+      <c r="A38" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>171</v>
+      <c r="A39" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>173</v>
+      <c r="A40" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>175</v>
+      <c r="A41" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>177</v>
+      <c r="A42" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>179</v>
+      <c r="A43" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="B44" s="54" t="s">
-        <v>181</v>
+      <c r="A44" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45" s="54" t="s">
-        <v>183</v>
+      <c r="A45" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" s="51" t="s">
-        <v>185</v>
+      <c r="A46" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>187</v>
+      <c r="A47" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" s="51" t="s">
-        <v>189</v>
+      <c r="A48" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -36316,866 +36432,876 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>191</v>
+      <c r="A1" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>195</v>
+        <v>200</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>197</v>
+      <c r="A3" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>203</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>200</v>
+      <c r="A4" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>206</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60" t="s">
-        <v>202</v>
+      <c r="A5" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
+        <v>208</v>
       </c>
       <c r="D5" s="33"/>
     </row>
     <row r="6">
-      <c r="A6" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59" t="s">
-        <v>204</v>
+      <c r="A6" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61" t="s">
+        <v>209</v>
       </c>
       <c r="D6" s="33"/>
     </row>
     <row r="7">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="58" t="s">
+      <c r="B8" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>214</v>
+      <c r="B9" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="58" t="s">
+      <c r="B11" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="58" t="s">
+      <c r="B12" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="58" t="s">
+      <c r="B13" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="58" t="s">
+      <c r="B14" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="58" t="s">
+      <c r="B15" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="58" t="s">
+      <c r="B16" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="62" t="s">
+      <c r="B17" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="64" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="58" t="s">
-        <v>28</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="D18" s="33"/>
     </row>
     <row r="19">
-      <c r="A19" s="58" t="s">
-        <v>29</v>
+      <c r="A19" s="59" t="s">
+        <v>28</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="33" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D19" s="33"/>
     </row>
     <row r="20">
-      <c r="A20" s="63" t="s">
-        <v>30</v>
+      <c r="A20" s="59" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D20" s="33"/>
     </row>
     <row r="21">
-      <c r="A21" s="58" t="s">
-        <v>31</v>
+      <c r="A21" s="65" t="s">
+        <v>30</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="D21" s="64"/>
+        <v>245</v>
+      </c>
+      <c r="D21" s="33"/>
     </row>
     <row r="22">
-      <c r="A22" s="58" t="s">
-        <v>32</v>
+      <c r="A22" s="59" t="s">
+        <v>31</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="D22" s="64"/>
+        <v>246</v>
+      </c>
+      <c r="D22" s="66"/>
     </row>
     <row r="23">
-      <c r="A23" s="58" t="s">
-        <v>33</v>
+      <c r="A23" s="59" t="s">
+        <v>32</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23" s="64"/>
+        <v>247</v>
+      </c>
+      <c r="D23" s="66"/>
     </row>
     <row r="24">
-      <c r="A24" s="58" t="s">
-        <v>34</v>
+      <c r="A24" s="59" t="s">
+        <v>33</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="64"/>
+        <v>248</v>
+      </c>
+      <c r="D24" s="66"/>
     </row>
     <row r="25">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="66"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" s="33" t="s">
+      <c r="B26" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="58" t="s">
+      <c r="D26" s="33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="58" t="s">
+      <c r="B27" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" s="33" t="s">
+      <c r="B28" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="57" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="58" t="s">
+      <c r="D28" s="58" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="58" t="s">
+      <c r="B29" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="58" t="s">
+      <c r="B30" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" s="33" t="s">
+      <c r="B31" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>260</v>
+      <c r="D31" s="33" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>264</v>
+        <v>97</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="58" t="s">
-        <v>265</v>
+      <c r="A33" s="59" t="s">
+        <v>268</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="58" t="s">
-        <v>269</v>
+      <c r="A34" s="59" t="s">
+        <v>272</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="58" t="s">
-        <v>273</v>
+      <c r="A35" s="59" t="s">
+        <v>276</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="58" t="s">
-        <v>277</v>
+      <c r="A36" s="59" t="s">
+        <v>280</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="58" t="s">
-        <v>284</v>
-      </c>
       <c r="B38" s="33" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="58" t="s">
+      <c r="B40" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="58" t="s">
-        <v>294</v>
-      </c>
       <c r="B41" s="33" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="58" t="s">
-        <v>298</v>
+      <c r="A42" s="59" t="s">
+        <v>301</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>300</v>
+        <v>303</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" s="58" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="C43" s="33" t="s">
+      <c r="B44" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="33" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="D44" s="33"/>
+      <c r="D44" s="33" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61" t="s">
-        <v>306</v>
+      <c r="A45" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33" t="s">
+        <v>311</v>
       </c>
       <c r="D45" s="33"/>
     </row>
     <row r="46">
-      <c r="A46" s="58" t="s">
-        <v>307</v>
-      </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61" t="s">
-        <v>308</v>
+      <c r="A46" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63" t="s">
+        <v>313</v>
       </c>
       <c r="D46" s="33"/>
     </row>
     <row r="47">
-      <c r="A47" s="58" t="s">
-        <v>309</v>
-      </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33" t="s">
-        <v>310</v>
+      <c r="A47" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63" t="s">
+        <v>315</v>
       </c>
       <c r="D47" s="33"/>
     </row>
     <row r="48">
-      <c r="A48" s="58" t="s">
-        <v>311</v>
+      <c r="A48" s="59" t="s">
+        <v>316</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D48" s="33"/>
     </row>
     <row r="49">
-      <c r="A49" s="58" t="s">
-        <v>313</v>
+      <c r="A49" s="59" t="s">
+        <v>318</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D49" s="33"/>
     </row>
     <row r="50">
-      <c r="A50" s="58" t="s">
-        <v>315</v>
+      <c r="A50" s="59" t="s">
+        <v>320</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D50" s="33"/>
     </row>
     <row r="51">
-      <c r="A51" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="B51" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>319</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>320</v>
-      </c>
+      <c r="A51" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="D51" s="33"/>
     </row>
     <row r="52">
-      <c r="A52" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="B52" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>322</v>
+      <c r="A52" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>326</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="B53" s="58" t="s">
-        <v>318</v>
+      <c r="A53" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>325</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="B54" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="B54" s="33"/>
       <c r="C54" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="D54" s="33"/>
+        <v>331</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="58" t="s">
-        <v>327</v>
+      <c r="A55" s="59" t="s">
+        <v>332</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="33" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D55" s="33"/>
     </row>
     <row r="56">
-      <c r="A56" s="58" t="s">
-        <v>329</v>
+      <c r="A56" s="59" t="s">
+        <v>334</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="33" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D56" s="33"/>
     </row>
     <row r="57">
-      <c r="A57" s="58" t="s">
-        <v>331</v>
+      <c r="A57" s="59" t="s">
+        <v>336</v>
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="33" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D57" s="33"/>
     </row>
     <row r="58">
-      <c r="A58" s="58" t="s">
-        <v>333</v>
+      <c r="A58" s="59" t="s">
+        <v>338</v>
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="33" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D58" s="33"/>
     </row>
     <row r="59">
-      <c r="A59" s="58" t="s">
-        <v>335</v>
+      <c r="A59" s="59" t="s">
+        <v>340</v>
       </c>
       <c r="B59" s="33"/>
       <c r="C59" s="33" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D59" s="33"/>
     </row>
     <row r="60">
-      <c r="A60" s="58" t="s">
-        <v>337</v>
+      <c r="A60" s="59" t="s">
+        <v>342</v>
       </c>
       <c r="B60" s="33"/>
       <c r="C60" s="33" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D60" s="33"/>
     </row>
     <row r="61">
-      <c r="A61" s="58" t="s">
-        <v>339</v>
+      <c r="A61" s="59" t="s">
+        <v>344</v>
       </c>
       <c r="B61" s="33"/>
       <c r="C61" s="33" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D61" s="33"/>
     </row>
     <row r="62">
-      <c r="A62" s="58" t="s">
-        <v>341</v>
+      <c r="A62" s="59" t="s">
+        <v>346</v>
       </c>
       <c r="B62" s="33"/>
       <c r="C62" s="33" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D62" s="33"/>
     </row>
     <row r="63">
-      <c r="A63" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58" t="s">
-        <v>344</v>
+      <c r="A63" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33" t="s">
+        <v>349</v>
       </c>
       <c r="D63" s="33"/>
     </row>
     <row r="64">
       <c r="A64" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58" t="s">
-        <v>346</v>
+        <v>350</v>
+      </c>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59" t="s">
+        <v>351</v>
       </c>
       <c r="D64" s="33"/>
     </row>
     <row r="65">
       <c r="A65" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58" t="s">
-        <v>206</v>
+        <v>352</v>
+      </c>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59" t="s">
+        <v>353</v>
       </c>
       <c r="D65" s="33"/>
     </row>
     <row r="66">
       <c r="A66" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58" t="s">
-        <v>349</v>
+        <v>354</v>
+      </c>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59" t="s">
+        <v>213</v>
       </c>
       <c r="D66" s="33"/>
     </row>
     <row r="67">
       <c r="A67" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58" t="s">
-        <v>351</v>
+        <v>355</v>
+      </c>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59" t="s">
+        <v>356</v>
       </c>
       <c r="D67" s="33"/>
     </row>
     <row r="68">
       <c r="A68" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="B68" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="C68" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>355</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="D68" s="33"/>
     </row>
     <row r="69">
       <c r="A69" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="B69" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="C69" s="58" t="s">
-        <v>352</v>
+        <v>359</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="C69" s="59" t="s">
+        <v>361</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="B70" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="C70" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="D70" s="33"/>
+      <c r="D70" s="33" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58" t="s">
-        <v>362</v>
+        <v>366</v>
+      </c>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59" t="s">
+        <v>367</v>
       </c>
       <c r="D71" s="33"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" s="59"/>
+      <c r="C72" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="D72" s="33"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -37200,1644 +37326,1644 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="H1" s="65" t="s">
+      <c r="B1" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="N1" s="65" t="s">
+      <c r="L1" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" s="67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="66">
+      <c r="A2" s="68">
         <f>EOMONTH(DateTime!$B$1-(365.25/12*(ROW()-2))-TIME(3,0,0),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B2" s="67">
-        <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"",AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"&lt;&gt;Don",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
+      <c r="B2" s="69">
+        <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"",AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"&lt;&gt;Donation",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>-1000</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="69">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="69">
         <f>$B2-$C2</f>
         <v>-1000</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="69">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>6450</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="70">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="70">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.7031785976</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="70">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A37)*12,0)</f>
         <v>0.2410898049</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="69">
         <f>MAX($L2,$M2)-$E2-SUM($I3:$I37)</f>
         <v>-319.8291698</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <f>$N2-$E2</f>
         <v>11484.55244</v>
       </c>
-      <c r="K2" s="67">
-        <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME())-SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"Don")</f>
+      <c r="K2" s="69">
+        <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,SHEETNAME())-SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,SHEETNAME(),AssociateHistoric!$E:$E,"Donation")</f>
         <v>-208.4342689</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="69">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>6879.53125</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="69">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>18142.98671</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="71">
         <f>MAX($M2,$L2)+$K2</f>
         <v>17934.55244</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="66">
+      <c r="A3" s="68">
         <v>44105.0</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="69">
         <v>-300.0</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="69">
         <v>0.0</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="69">
         <v>-300.0</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="69">
         <v>7450.0</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="70">
         <v>-0.0030358834822477613</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="70">
         <v>0.7196114288521067</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="70">
         <v>0.25398050430074354</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="69">
         <v>-60.18030668434949</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="69">
         <v>11786.79100427555</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="69">
         <v>-226.02487326471459</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="69">
         <v>7871.770833333323</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="69">
         <v>19462.815877540266</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="71">
         <v>19236.79100427555</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="66">
+      <c r="A4" s="68">
         <v>44075.0</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="69">
         <v>0.0</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="69">
         <v>0.0</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="69">
         <v>0.0</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="69">
         <v>7750.0</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="70">
         <v>0.0695011442271417</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="70">
         <v>0.7226473123343545</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="70">
         <v>0.2627808408488562</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="69">
         <v>1288.1902223764919</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="69">
         <v>11843.661394092262</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="69">
         <v>-229.33479013235382</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="69">
         <v>8163.697916666656</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="69">
         <v>19822.996184224616</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="71">
         <v>19593.66139409226</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="66">
+      <c r="A5" s="68">
         <v>44044.0</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="69">
         <v>-2400.0</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="69">
         <v>0.0</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="69">
         <v>-2400.0</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="69">
         <v>7750.0</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="70">
         <v>-0.0011851593150153932</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="70">
         <v>0.6531461681072128</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="70">
         <v>0.2449298130402048</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="69">
         <v>-22.85900518998824</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="69">
         <v>10626.321633946478</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="69">
         <v>-158.48432790164676</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="69">
         <v>8155.624999999989</v>
       </c>
-      <c r="M5" s="67">
+      <c r="M5" s="69">
         <v>18534.805961848124</v>
       </c>
-      <c r="N5" s="69">
+      <c r="N5" s="71">
         <v>18376.321633946478</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="66">
+      <c r="A6" s="68">
         <v>44013.0</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="69">
         <v>1900.0</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="69">
         <v>1900.0</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="69">
         <v>0.0</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="69">
         <v>10150.0</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="70">
         <v>0.01670595001387467</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="70">
         <v>0.6543313274222282</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="70">
         <v>0.25328954609892707</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="69">
         <v>344.36476283245065</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="69">
         <v>10647.923393851015</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="69">
         <v>-159.74157318709612</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="69">
         <v>10543.072916666655</v>
       </c>
-      <c r="M6" s="67">
+      <c r="M6" s="69">
         <v>20957.664967038112</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="71">
         <v>20797.923393851015</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="66">
+      <c r="A7" s="68">
         <v>43983.0</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="69">
         <v>-300.0</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="69">
         <v>0.0</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="69">
         <v>-300.0</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="69">
         <v>10150.0</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="70">
         <v>-0.00659387295460559</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="70">
         <v>0.6376253774083536</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="70">
         <v>0.25505015096334144</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="69">
         <v>-138.8149729035831</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="69">
         <v>10322.49869297435</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="69">
         <v>-140.80151123131134</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="69">
         <v>10532.499999999989</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="69">
         <v>20613.30020420566</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="71">
         <v>20472.49869297435</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="66">
+      <c r="A8" s="68">
         <v>43952.0</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="69">
         <v>-300.0</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="69">
         <v>0.0</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="69">
         <v>-300.0</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="69">
         <v>10450.0</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="70">
         <v>0.17167870410952307</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="70">
         <v>0.6442192503629591</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="70">
         <v>0.26657348290881067</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="69">
         <v>3128.591012831741</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="69">
         <v>10453.678842368237</v>
       </c>
-      <c r="K8" s="67">
+      <c r="K8" s="69">
         <v>-148.4363347410084</v>
       </c>
-      <c r="L8" s="67">
+      <c r="L8" s="69">
         <v>10821.614583333323</v>
       </c>
-      <c r="M8" s="67">
+      <c r="M8" s="69">
         <v>21052.115177109245</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="71">
         <v>20903.678842368237</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="66">
+      <c r="A9" s="68">
         <v>43922.0</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="69">
         <v>-300.0</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="69">
         <v>0.0</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="69">
         <v>-300.0</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="69">
         <v>10750.0</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="70">
         <v>-0.09031985768405248</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="70">
         <v>0.4725405462534361</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="70">
         <v>0.20251737696575833</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="69">
         <v>-1839.1542131119495</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="69">
         <v>7497.160335242243</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="69">
         <v>23.63617096473736</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="69">
         <v>11110.416666666657</v>
       </c>
-      <c r="M9" s="67">
+      <c r="M9" s="69">
         <v>18223.524164277504</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="71">
         <v>18247.160335242243</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="66">
+      <c r="A10" s="68">
         <v>43891.0</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="69">
         <v>-300.0</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="69">
         <v>0.0</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="69">
         <v>-300.0</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="69">
         <v>11050.0</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="70">
         <v>-6.988944889106389E-4</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="70">
         <v>0.5628604039374886</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="70">
         <v>0.2501601795277727</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="69">
         <v>-14.451131860507303</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="69">
         <v>9235.161066633034</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="69">
         <v>-77.51731075641986</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="69">
         <v>11398.90624999999</v>
       </c>
-      <c r="M10" s="67">
+      <c r="M10" s="69">
         <v>20362.678377389453</v>
       </c>
-      <c r="N10" s="69">
+      <c r="N10" s="71">
         <v>20285.161066633034</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="66">
+      <c r="A11" s="68">
         <v>43862.0</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="69">
         <v>0.0</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="69">
         <v>0.0</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="69">
         <v>0.0</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="69">
         <v>11350.0</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="70">
         <v>-0.013571483773815925</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="70">
         <v>0.5635592984263992</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="70">
         <v>0.260104291581415</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="69">
         <v>-284.48014529978536</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="69">
         <v>9248.817386241211</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="69">
         <v>-78.31212300874776</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="69">
         <v>11687.083333333325</v>
       </c>
-      <c r="M11" s="67">
+      <c r="M11" s="69">
         <v>20677.12950924996</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="71">
         <v>20598.81738624121</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="66">
+      <c r="A12" s="68">
         <v>43831.0</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="69">
         <v>0.0</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="69">
         <v>11350.0</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="70">
         <v>0.06953970791992178</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="70">
         <v>0.5771307822002151</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="70">
         <v>0.27702277545610327</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="69">
         <v>1427.907640567064</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="69">
         <v>9517.651123549509</v>
       </c>
-      <c r="K12" s="67">
+      <c r="K12" s="69">
         <v>-93.95853100023595</v>
       </c>
-      <c r="L12" s="67">
+      <c r="L12" s="69">
         <v>11675.260416666659</v>
       </c>
-      <c r="M12" s="67">
+      <c r="M12" s="69">
         <v>20961.609654549746</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="71">
         <v>20867.65112354951</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="66">
+      <c r="A13" s="68">
         <v>43800.0</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="69">
         <v>-700.0</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="69">
         <v>0.0</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="69">
         <v>-700.0</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="69">
         <v>12350.0</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="70">
         <v>0.02764486097227171</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="70">
         <v>0.5075910742802933</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="70">
         <v>0.25379553714014663</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="69">
         <v>571.2116728222863</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="69">
         <v>7733.598403213633</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="69">
         <v>-450.10361076904746</v>
       </c>
-      <c r="L13" s="67">
+      <c r="L13" s="69">
         <v>12662.395833333325</v>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="69">
         <v>20533.702013982682</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="71">
         <v>20083.598403213633</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="66">
+      <c r="A14" s="68">
         <v>43770.0</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="69">
         <v>-300.0</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="69">
         <v>0.0</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="69">
         <v>-300.0</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="69">
         <v>13050.0</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="70">
         <v>-0.031204251937763165</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="70">
         <v>0.4799462133080215</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="70">
         <v>0.25040671998679387</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="69">
         <v>-675.1875523368581</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="69">
         <v>7193.803372396575</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="69">
         <v>-418.6869687638217</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="69">
         <v>13348.802083333325</v>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="69">
         <v>20662.490341160395</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="71">
         <v>20243.803372396575</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="66">
+      <c r="A15" s="68">
         <v>43739.0</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="69">
         <v>-150.0</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="69">
         <v>0.0</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="69">
         <v>-150.0</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="69">
         <v>13350.0</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="70">
         <v>-0.0017577640676155197</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="70">
         <v>0.5111504652457847</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="70">
         <v>0.2788093446795189</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="69">
         <v>-38.36503399618232</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="69">
         <v>7831.855609354905</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="69">
         <v>-455.8222841423489</v>
       </c>
-      <c r="L15" s="67">
+      <c r="L15" s="69">
         <v>13634.895833333325</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="69">
         <v>21637.677893497254</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="71">
         <v>21181.855609354905</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="66">
+      <c r="A16" s="68">
         <v>43709.0</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="69">
         <v>0.0</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="69">
         <v>0.0</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="69">
         <v>0.0</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="69">
         <v>13500.0</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="70">
         <v>0.09663855056374034</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="70">
         <v>0.5129082293134002</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="70">
         <v>0.2930904167505144</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="69">
         <v>1923.3658637758672</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="69">
         <v>7868.110566481297</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="69">
         <v>-457.9323610121389</v>
       </c>
-      <c r="L16" s="67">
+      <c r="L16" s="69">
         <v>13770.833333333325</v>
       </c>
-      <c r="M16" s="67">
+      <c r="M16" s="69">
         <v>21826.042927493436</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="71">
         <v>21368.110566481297</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="66">
+      <c r="A17" s="68">
         <v>43678.0</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="69">
         <v>0.0</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="69">
         <v>13500.0</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="70">
         <v>0.07804921004485675</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="70">
         <v>0.4162696787496598</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="70">
         <v>0.2497618072497959</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="69">
         <v>1513.323712354486</v>
       </c>
-      <c r="J17" s="67">
+      <c r="J17" s="69">
         <v>6050.529825213103</v>
       </c>
-      <c r="K17" s="67">
+      <c r="K17" s="69">
         <v>-352.14723850446626</v>
       </c>
-      <c r="L17" s="67">
+      <c r="L17" s="69">
         <v>13756.770833333325</v>
       </c>
-      <c r="M17" s="67">
+      <c r="M17" s="69">
         <v>19902.67706371757</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="71">
         <v>19550.529825213103</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="66">
+      <c r="A18" s="68">
         <v>43647.0</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="69">
         <v>0.0</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="69">
         <v>0.0</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="69">
         <v>0.0</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="69">
         <v>14500.0</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="70">
         <v>0.05571063566313939</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="70">
         <v>0.33822046870480305</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="70">
         <v>0.21361292760303352</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="69">
         <v>1023.1906014882006</v>
       </c>
-      <c r="J18" s="67">
+      <c r="J18" s="69">
         <v>4620.438917038115</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="69">
         <v>-268.91443432496953</v>
       </c>
-      <c r="L18" s="67">
+      <c r="L18" s="69">
         <v>14741.666666666659</v>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="69">
         <v>19389.353351363083</v>
       </c>
-      <c r="N18" s="69">
+      <c r="N18" s="71">
         <v>19120.438917038115</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="66">
+      <c r="A19" s="68">
         <v>43617.0</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="69">
         <v>0.0</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="69">
         <v>0.0</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="69">
         <v>0.0</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="69">
         <v>14500.0</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="70">
         <v>0.03999771844904346</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="70">
         <v>0.28250983304166366</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="70">
         <v>0.18833988869444246</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="69">
         <v>706.3521329203759</v>
       </c>
-      <c r="J19" s="67">
+      <c r="J19" s="69">
         <v>3653.5237986317625</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K19" s="69">
         <v>-212.63895124311853</v>
       </c>
-      <c r="L19" s="67">
+      <c r="L19" s="69">
         <v>14726.562499999993</v>
       </c>
-      <c r="M19" s="67">
+      <c r="M19" s="69">
         <v>18366.162749874882</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="71">
         <v>18153.523798631762</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="66">
+      <c r="A20" s="68">
         <v>43586.0</v>
       </c>
-      <c r="B20" s="67">
+      <c r="B20" s="69">
         <v>-500.0</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="69">
         <v>0.0</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="69">
         <v>-500.0</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="69">
         <v>14500.0</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="70">
         <v>0.026231385182183264</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="70">
         <v>0.24251211459262018</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="70">
         <v>0.17118502206537894</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="69">
         <v>464.18087967975225</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="69">
         <v>2986.021033022007</v>
       </c>
-      <c r="K20" s="67">
+      <c r="K20" s="69">
         <v>-173.78958393249786</v>
       </c>
-      <c r="L20" s="67">
+      <c r="L20" s="69">
         <v>14711.458333333327</v>
       </c>
-      <c r="M20" s="67">
+      <c r="M20" s="69">
         <v>17659.810616954506</v>
       </c>
-      <c r="N20" s="69">
+      <c r="N20" s="71">
         <v>17486.021033022007</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="66">
+      <c r="A21" s="68">
         <v>43556.0</v>
       </c>
-      <c r="B21" s="67">
+      <c r="B21" s="69">
         <v>0.0</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="69">
         <v>0.0</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="69">
         <v>0.0</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="69">
         <v>15000.0</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="70">
         <v>0.10199738482836891</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="70">
         <v>0.2162807294104369</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="70">
         <v>0.16221054705782767</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="69">
         <v>1637.8513968744555</v>
       </c>
-      <c r="J21" s="67">
+      <c r="J21" s="69">
         <v>2547.370101724642</v>
       </c>
-      <c r="K21" s="67">
+      <c r="K21" s="69">
         <v>-148.25963555011148</v>
       </c>
-      <c r="L21" s="67">
+      <c r="L21" s="69">
         <v>15195.833333333327</v>
       </c>
-      <c r="M21" s="67">
+      <c r="M21" s="69">
         <v>17695.629737274754</v>
       </c>
-      <c r="N21" s="69">
+      <c r="N21" s="71">
         <v>17547.370101724642</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="66">
+      <c r="A22" s="68">
         <v>43525.0</v>
       </c>
-      <c r="B22" s="67">
+      <c r="B22" s="69">
         <v>0.0</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="69">
         <v>0.0</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="69">
         <v>0.0</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="69">
         <v>15000.0</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="70">
         <v>0.03449682927674902</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="70">
         <v>0.11428334458206801</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="70">
         <v>0.09142667566565442</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="69">
         <v>535.4704067676521</v>
       </c>
-      <c r="J22" s="67">
+      <c r="J22" s="69">
         <v>999.6005316782812</v>
       </c>
-      <c r="K22" s="67">
+      <c r="K22" s="69">
         <v>-58.17780872201642</v>
       </c>
-      <c r="L22" s="67">
+      <c r="L22" s="69">
         <v>15180.208333333327</v>
       </c>
-      <c r="M22" s="67">
+      <c r="M22" s="69">
         <v>16057.778340400298</v>
       </c>
-      <c r="N22" s="69">
+      <c r="N22" s="71">
         <v>15999.600531678281</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="66">
+      <c r="A23" s="68">
         <v>43497.0</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="69">
         <v>0.0</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="69">
         <v>0.0</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="69">
         <v>0.0</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="69">
         <v>15000.0</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="70">
         <v>0.04107233145116107</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="70">
         <v>0.079786515305319</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="70">
         <v>0.06838844169027342</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="69">
         <v>373.3496002993197</v>
       </c>
-      <c r="J23" s="67">
+      <c r="J23" s="69">
         <v>493.58099728285015</v>
       </c>
-      <c r="K23" s="67">
+      <c r="K23" s="69">
         <v>-28.726936349795555</v>
       </c>
-      <c r="L23" s="67">
+      <c r="L23" s="69">
         <v>15164.583333333327</v>
       </c>
-      <c r="M23" s="67">
+      <c r="M23" s="69">
         <v>15522.307933632646</v>
       </c>
-      <c r="N23" s="69">
+      <c r="N23" s="71">
         <v>15493.58099728285</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="66">
+      <c r="A24" s="68">
         <v>43466.0</v>
       </c>
-      <c r="B24" s="67">
+      <c r="B24" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="69">
         <v>0.0</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="69">
         <v>15000.0</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="70">
         <v>-0.024314741161841652</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="70">
         <v>0.038714183854157924</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="70">
         <v>0.035736169711530395</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="69">
         <v>-157.4504235641234</v>
       </c>
-      <c r="J24" s="67">
+      <c r="J24" s="69">
         <v>140.76562499999454</v>
       </c>
-      <c r="K24" s="67">
+      <c r="K24" s="69">
         <v>-8.19270833333297</v>
       </c>
-      <c r="L24" s="67">
+      <c r="L24" s="69">
         <v>15148.958333333327</v>
       </c>
-      <c r="M24" s="67">
+      <c r="M24" s="69">
         <v>14909.9226486943</v>
       </c>
-      <c r="N24" s="69">
+      <c r="N24" s="71">
         <v>15140.765624999995</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="66">
+      <c r="A25" s="68">
         <v>43435.0</v>
       </c>
-      <c r="B25" s="67">
+      <c r="B25" s="69">
         <v>6000.0</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="69">
         <v>0.0</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="69">
         <v>6000.0</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="69">
         <v>16000.0</v>
       </c>
-      <c r="F25" s="68">
+      <c r="F25" s="70">
         <v>0.059176449934818486</v>
       </c>
-      <c r="G25" s="68">
+      <c r="G25" s="70">
         <v>0.06302892501599958</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="70">
         <v>0.06302892501599958</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="69">
         <v>191.8254235641234</v>
       </c>
-      <c r="J25" s="67">
+      <c r="J25" s="69">
         <v>289.55627526809076</v>
       </c>
-      <c r="K25" s="67">
+      <c r="K25" s="69">
         <v>-16.852481629359758</v>
       </c>
-      <c r="L25" s="67">
+      <c r="L25" s="69">
         <v>16132.29166666666</v>
       </c>
-      <c r="M25" s="67">
+      <c r="M25" s="69">
         <v>16306.40875689745</v>
       </c>
-      <c r="N25" s="69">
+      <c r="N25" s="71">
         <v>16289.55627526809</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="66">
+      <c r="A26" s="68">
         <v>43405.0</v>
       </c>
-      <c r="B26" s="67">
+      <c r="B26" s="69">
         <v>7000.0</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="69">
         <v>7000.0</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="69">
         <v>0.0</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E26" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="70">
         <v>-0.06412073646906129</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="70">
         <v>0.0038524750811810976</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26" s="70">
         <v>0.004202700088561198</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="69">
         <v>-275.32832818211136</v>
       </c>
-      <c r="J26" s="67">
+      <c r="J26" s="69">
         <v>108.28124999999454</v>
       </c>
-      <c r="K26" s="67">
+      <c r="K26" s="69">
         <v>-6.302083333332968</v>
       </c>
-      <c r="L26" s="67">
+      <c r="L26" s="69">
         <v>10114.583333333327</v>
       </c>
-      <c r="M26" s="67">
+      <c r="M26" s="69">
         <v>9723.70287393058</v>
       </c>
-      <c r="N26" s="69">
+      <c r="N26" s="71">
         <v>10108.281249999995</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="66">
+      <c r="A27" s="68">
         <v>43374.0</v>
       </c>
-      <c r="B27" s="67">
+      <c r="B27" s="69">
         <v>0.0</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="69">
         <v>0.0</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="69">
         <v>0.0</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E27" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="70">
         <v>-0.028896114427261484</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="70">
         <v>0.06797321155024239</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="70">
         <v>0.08156785386029086</v>
       </c>
-      <c r="I27" s="67">
+      <c r="I27" s="69">
         <v>-309.16164657627814</v>
       </c>
-      <c r="J27" s="67">
+      <c r="J27" s="69">
         <v>368.4665201320895</v>
       </c>
-      <c r="K27" s="67">
+      <c r="K27" s="69">
         <v>-21.445141383349092</v>
       </c>
-      <c r="L27" s="67">
+      <c r="L27" s="69">
         <v>10104.16666666666</v>
       </c>
-      <c r="M27" s="67">
+      <c r="M27" s="69">
         <v>10389.911661515438</v>
       </c>
-      <c r="N27" s="69">
+      <c r="N27" s="71">
         <v>10368.46652013209</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="66">
+      <c r="A28" s="68">
         <v>43344.0</v>
       </c>
-      <c r="B28" s="67">
+      <c r="B28" s="69">
         <v>0.0</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="69">
         <v>0.0</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="69">
         <v>0.0</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="70">
         <v>0.08865378226331043</v>
       </c>
-      <c r="G28" s="68">
+      <c r="G28" s="70">
         <v>0.09686932597750388</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="70">
         <v>0.1291591013033385</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="69">
         <v>615.7399747583877</v>
       </c>
-      <c r="J28" s="67">
+      <c r="J28" s="69">
         <v>660.624276146671</v>
       </c>
-      <c r="K28" s="67">
+      <c r="K28" s="69">
         <v>-38.44903194504439</v>
       </c>
-      <c r="L28" s="67">
+      <c r="L28" s="69">
         <v>10093.749999999995</v>
       </c>
-      <c r="M28" s="67">
+      <c r="M28" s="69">
         <v>10699.073308091716</v>
       </c>
-      <c r="N28" s="69">
+      <c r="N28" s="71">
         <v>10660.624276146671</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="66">
+      <c r="A29" s="68">
         <v>43313.0</v>
       </c>
-      <c r="B29" s="67">
+      <c r="B29" s="69">
         <v>0.0</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="69">
         <v>0.0</v>
       </c>
-      <c r="D29" s="67">
+      <c r="D29" s="69">
         <v>0.0</v>
       </c>
-      <c r="E29" s="67">
+      <c r="E29" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="70">
         <v>-0.02448824447309521</v>
       </c>
-      <c r="G29" s="68">
+      <c r="G29" s="70">
         <v>0.00821554371419345</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="70">
         <v>0.012323315571290175</v>
       </c>
-      <c r="I29" s="67">
+      <c r="I29" s="69">
         <v>8.824773747366635</v>
       </c>
-      <c r="J29" s="67">
+      <c r="J29" s="69">
         <v>78.74999999999454</v>
       </c>
-      <c r="K29" s="67">
+      <c r="K29" s="69">
         <v>-4.583333333333067</v>
       </c>
-      <c r="L29" s="67">
+      <c r="L29" s="69">
         <v>10083.333333333328</v>
       </c>
-      <c r="M29" s="67">
+      <c r="M29" s="69">
         <v>9827.80153103253</v>
       </c>
-      <c r="N29" s="69">
+      <c r="N29" s="71">
         <v>10078.749999999995</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="66">
+      <c r="A30" s="68">
         <v>43282.0</v>
       </c>
-      <c r="B30" s="67">
+      <c r="B30" s="69">
         <v>0.0</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="69">
         <v>0.0</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="69">
         <v>0.0</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="70">
         <v>0.010858996309905966</v>
       </c>
-      <c r="G30" s="68">
+      <c r="G30" s="70">
         <v>0.03270378818728866</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="70">
         <v>0.056063636892494856</v>
       </c>
-      <c r="I30" s="67">
+      <c r="I30" s="69">
         <v>12.008559585965486</v>
       </c>
-      <c r="J30" s="67">
+      <c r="J30" s="69">
         <v>70.41058880873425</v>
       </c>
-      <c r="K30" s="67">
+      <c r="K30" s="69">
         <v>-4.097970777227902</v>
       </c>
-      <c r="L30" s="67">
+      <c r="L30" s="69">
         <v>10072.916666666662</v>
       </c>
-      <c r="M30" s="67">
+      <c r="M30" s="69">
         <v>10074.508559585962</v>
       </c>
-      <c r="N30" s="69">
+      <c r="N30" s="71">
         <v>10070.410588808734</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="66">
+      <c r="A31" s="68">
         <v>43252.0</v>
       </c>
-      <c r="B31" s="67">
+      <c r="B31" s="69">
         <v>0.0</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="69">
         <v>0.0</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="69">
         <v>0.0</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F31" s="68">
+      <c r="F31" s="70">
         <v>0.12647428034130279</v>
       </c>
-      <c r="G31" s="68">
+      <c r="G31" s="70">
         <v>0.021844791877382697</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="70">
         <v>0.04368958375476539</v>
       </c>
-      <c r="I31" s="67">
+      <c r="I31" s="69">
         <v>10.41666666666606</v>
       </c>
-      <c r="J31" s="67">
+      <c r="J31" s="69">
         <v>59.06249999999636</v>
       </c>
-      <c r="K31" s="67">
+      <c r="K31" s="69">
         <v>-3.4374999999997997</v>
       </c>
-      <c r="L31" s="67">
+      <c r="L31" s="69">
         <v>10062.499999999996</v>
       </c>
-      <c r="M31" s="67">
+      <c r="M31" s="69">
         <v>9966.284710689117</v>
       </c>
-      <c r="N31" s="69">
+      <c r="N31" s="71">
         <v>10059.062499999996</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="66">
+      <c r="A32" s="68">
         <v>43221.0</v>
       </c>
-      <c r="B32" s="67">
+      <c r="B32" s="69">
         <v>0.0</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="69">
         <v>0.0</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D32" s="69">
         <v>0.0</v>
       </c>
-      <c r="E32" s="67">
+      <c r="E32" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F32" s="68">
+      <c r="F32" s="70">
         <v>0.07661146740532812</v>
       </c>
-      <c r="G32" s="68">
+      <c r="G32" s="70">
         <v>-0.10462948846392009</v>
       </c>
-      <c r="H32" s="68">
+      <c r="H32" s="70">
         <v>-0.25111077231340817</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="69">
         <v>10.41666666666606</v>
       </c>
-      <c r="J32" s="67">
+      <c r="J32" s="69">
         <v>49.21874999999636</v>
       </c>
-      <c r="K32" s="67">
+      <c r="K32" s="69">
         <v>-2.8645833333331665</v>
       </c>
-      <c r="L32" s="67">
+      <c r="L32" s="69">
         <v>10052.08333333333</v>
       </c>
-      <c r="M32" s="67">
+      <c r="M32" s="69">
         <v>8847.325575573283</v>
       </c>
-      <c r="N32" s="69">
+      <c r="N32" s="71">
         <v>10049.218749999996</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="66">
+      <c r="A33" s="68">
         <v>43191.0</v>
       </c>
-      <c r="B33" s="67">
+      <c r="B33" s="69">
         <v>0.0</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="69">
         <v>0.0</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D33" s="69">
         <v>0.0</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E33" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F33" s="68">
+      <c r="F33" s="70">
         <v>-0.0394470506102503</v>
       </c>
-      <c r="G33" s="68">
+      <c r="G33" s="70">
         <v>-0.1812409558692482</v>
       </c>
-      <c r="H33" s="68">
+      <c r="H33" s="70">
         <v>-0.5437228676077446</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="69">
         <v>10.41666666666606</v>
       </c>
-      <c r="J33" s="67">
+      <c r="J33" s="69">
         <v>39.37499999999818</v>
       </c>
-      <c r="K33" s="67">
+      <c r="K33" s="69">
         <v>-2.2916666666665333</v>
       </c>
-      <c r="L33" s="67">
+      <c r="L33" s="69">
         <v>10041.666666666664</v>
       </c>
-      <c r="M33" s="67">
+      <c r="M33" s="69">
         <v>8217.751569092656</v>
       </c>
-      <c r="N33" s="69">
+      <c r="N33" s="71">
         <v>10039.374999999998</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="66">
+      <c r="A34" s="68">
         <v>43160.0</v>
       </c>
-      <c r="B34" s="67">
+      <c r="B34" s="69">
         <v>0.0</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="69">
         <v>0.0</v>
       </c>
-      <c r="D34" s="67">
+      <c r="D34" s="69">
         <v>0.0</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F34" s="68">
+      <c r="F34" s="70">
         <v>-0.052153074609364886</v>
       </c>
-      <c r="G34" s="68">
+      <c r="G34" s="70">
         <v>-0.1417939052589979</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H34" s="70">
         <v>-0.5671756210359916</v>
       </c>
-      <c r="I34" s="67">
+      <c r="I34" s="69">
         <v>10.41666666666606</v>
       </c>
-      <c r="J34" s="67">
+      <c r="J34" s="69">
         <v>29.53124999999818</v>
       </c>
-      <c r="K34" s="67">
+      <c r="K34" s="69">
         <v>-1.7187499999999</v>
       </c>
-      <c r="L34" s="67">
+      <c r="L34" s="69">
         <v>10031.249999999998</v>
       </c>
-      <c r="M34" s="67">
+      <c r="M34" s="69">
         <v>8555.230166450989</v>
       </c>
-      <c r="N34" s="69">
+      <c r="N34" s="71">
         <v>10029.531249999998</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="66">
+      <c r="A35" s="68">
         <v>43132.0</v>
       </c>
-      <c r="B35" s="67">
+      <c r="B35" s="69">
         <v>0.0</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="69">
         <v>0.0</v>
       </c>
-      <c r="D35" s="67">
+      <c r="D35" s="69">
         <v>0.0</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E35" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F35" s="68">
+      <c r="F35" s="70">
         <v>-0.09834304329279307</v>
       </c>
-      <c r="G35" s="68">
+      <c r="G35" s="70">
         <v>-0.08964083064963302</v>
       </c>
-      <c r="H35" s="68">
+      <c r="H35" s="70">
         <v>-0.5378449838977981</v>
       </c>
-      <c r="I35" s="67">
+      <c r="I35" s="69">
         <v>10.41666666666606</v>
       </c>
-      <c r="J35" s="67">
+      <c r="J35" s="69">
         <v>19.68749999999818</v>
       </c>
-      <c r="K35" s="67">
+      <c r="K35" s="69">
         <v>-1.1458333333332666</v>
       </c>
-      <c r="L35" s="67">
+      <c r="L35" s="69">
         <v>10020.833333333332</v>
       </c>
-      <c r="M35" s="67">
+      <c r="M35" s="69">
         <v>9025.961827037769</v>
       </c>
-      <c r="N35" s="69">
+      <c r="N35" s="71">
         <v>10019.687499999998</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="66">
+      <c r="A36" s="68">
         <v>43101.0</v>
       </c>
-      <c r="B36" s="67">
+      <c r="B36" s="69">
         <v>10000.0</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="69">
         <v>0.0</v>
       </c>
-      <c r="D36" s="67">
+      <c r="D36" s="69">
         <v>10000.0</v>
       </c>
-      <c r="E36" s="67">
+      <c r="E36" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F36" s="68">
+      <c r="F36" s="70">
         <v>0.008702212643160052</v>
       </c>
-      <c r="G36" s="68">
+      <c r="G36" s="70">
         <v>0.008702212643160052</v>
       </c>
-      <c r="H36" s="68">
+      <c r="H36" s="70">
         <v>0.10442655171792062</v>
       </c>
-      <c r="I36" s="67">
+      <c r="I36" s="69">
         <v>10.41666666666606</v>
       </c>
-      <c r="J36" s="67">
+      <c r="J36" s="69">
         <v>9.84375</v>
       </c>
-      <c r="K36" s="67">
+      <c r="K36" s="69">
         <v>-0.5729166666666333</v>
       </c>
-      <c r="L36" s="67">
+      <c r="L36" s="69">
         <v>10010.416666666666</v>
       </c>
-      <c r="M36" s="67">
+      <c r="M36" s="69">
         <v>10010.416666666666</v>
       </c>
-      <c r="N36" s="69">
+      <c r="N36" s="71">
         <v>10009.84375</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="66">
+      <c r="A37" s="68">
         <v>43070.0</v>
       </c>
-      <c r="B37" s="67">
+      <c r="B37" s="69">
         <v>10000.0</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="69">
         <v>10000.0</v>
       </c>
-      <c r="D37" s="67">
+      <c r="D37" s="69">
         <v>0.0</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="69">
         <v>0.0</v>
       </c>
-      <c r="F37" s="68">
+      <c r="F37" s="70">
         <v>0.0</v>
       </c>
-      <c r="G37" s="68">
+      <c r="G37" s="70">
         <v>0.0</v>
       </c>
-      <c r="H37" s="68">
+      <c r="H37" s="70">
         <v>0.0</v>
       </c>
-      <c r="I37" s="67">
+      <c r="I37" s="69">
         <v>0.0</v>
       </c>
-      <c r="J37" s="67">
+      <c r="J37" s="69">
         <v>0.0</v>
       </c>
-      <c r="K37" s="67">
+      <c r="K37" s="69">
         <v>0.0</v>
       </c>
-      <c r="L37" s="67">
+      <c r="L37" s="69">
         <v>0.0</v>
       </c>
-      <c r="M37" s="67">
+      <c r="M37" s="69">
         <v>0.0</v>
       </c>
-      <c r="N37" s="69">
+      <c r="N37" s="71">
         <v>0.0</v>
       </c>
     </row>

--- a/Data/FiMs Associate.xlsx
+++ b/Data/FiMs Associate.xlsx
@@ -200,32 +200,32 @@
         <t xml:space="preserve">Cost if money is taken before the end of the month (4% / year)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C13">
+    <comment authorId="0" ref="C14">
       <text>
         <t xml:space="preserve">Chèque Robot</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C14">
+    <comment authorId="0" ref="C15">
       <text>
         <t xml:space="preserve">Inclus dans -1000 car 700 de crédit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C18">
+    <comment authorId="0" ref="C19">
       <text>
         <t xml:space="preserve">Inclus dans -1000 car 700 de crédit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C27">
+    <comment authorId="0" ref="C28">
       <text>
         <t xml:space="preserve">2020 donation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C28">
+    <comment authorId="0" ref="C29">
       <text>
         <t xml:space="preserve">Non paiement du crédit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C29">
+    <comment authorId="0" ref="C30">
       <text>
         <t xml:space="preserve">Inclus dans -13600</t>
       </text>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="387">
   <si>
     <t>DateTime</t>
   </si>
@@ -878,7 +878,7 @@
     <t>Birth city</t>
   </si>
   <si>
-    <t>Adress</t>
+    <t>Address</t>
   </si>
   <si>
     <t>Postal Code</t>
@@ -1571,19 +1571,19 @@
     <t>Ville</t>
   </si>
   <si>
-    <t>IBAN on which to put the withdraw</t>
+    <t>IBAN on which to execute money transfer</t>
   </si>
   <si>
-    <t>L'IBAN du compte sur lequel effectuer les retraits</t>
+    <t>L'IBAN du compte sur lequel effectuer les virements</t>
   </si>
   <si>
-    <t>Bank name on which to put the withdraw</t>
+    <t>Bank name on which to execute money transfer</t>
   </si>
   <si>
     <t>Banque</t>
   </si>
   <si>
-    <t>Le nom de la banque du compte sur lequel effectuer les retraits</t>
+    <t>Le nom de la banque du compte sur lequel effectuer les virements</t>
   </si>
   <si>
     <t>Choosen association for charity</t>
@@ -1853,7 +1853,7 @@
     <t>Bénéficiaire</t>
   </si>
   <si>
-    <t>Banque Adress</t>
+    <t>Bank Address</t>
   </si>
   <si>
     <t>Adresse de la Banque</t>
@@ -1931,6 +1931,53 @@
     <t>sur</t>
   </si>
   <si>
+    <t>Deposit confirmation</t>
+  </si>
+  <si>
+    <t>Confirmation de Versement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tu vas ensuite voir s'afficher une icône &lt;Pending&gt; indiquant que l'argent n'est pas encore arrivé sur mon compte.&lt;br&gt;&lt;br&gt;
+Dès que c'est fait, une icône &lt;Completed&gt; t'indiquera que c'est bon : tu n'as plus rien à faire !&lt;br&gt;&lt;br&gt;
+Si tu ne sais plus comment ou quoi faire, surtout, &lt;b&gt;pas de panique&lt;/b&gt; : un &lt;u&gt;mail récaptilatif&lt;/u&gt; vient de t'être envoyé pendant que
+  tu étais gentiment en train de lire ceci ;-)</t>
+  </si>
+  <si>
+    <t>New deposit</t>
+  </si>
+  <si>
+    <t>Nouveau versement</t>
+  </si>
+  <si>
+    <t>Wahou, ça y est, voici ton premier versement !! Yippy, merci de ta confiance :-D&lt;br&gt;&lt;br&gt;
+Tout n'est pas fini. Lis bien la suite pour savoir comment ça se passe ...&lt;br&gt;
+Pour que le versement soit réellement effectif, il faut maintenant que tu contactes ta banque avec mes informations bancaires (RIB) et que tu leur demandes d'effectuer un virement bancaire de ton compte vers mon compte.</t>
+  </si>
+  <si>
+    <t>Next deposit</t>
+  </si>
+  <si>
+    <t>Versement ultérieur</t>
+  </si>
+  <si>
+    <t>J'ai bien reçu ta demande de versement, et j'en suis honoré. Merci merci merci.</t>
+  </si>
+  <si>
+    <t>Deposit mail</t>
+  </si>
+  <si>
+    <t>Mail de Versement</t>
+  </si>
+  <si>
+    <t>Je te prie de trouver ci-dessous toutes les informations qui te permettront de faire le virement</t>
+  </si>
+  <si>
+    <t>Withdraw confirmation</t>
+  </si>
+  <si>
+    <t>Confirmation de Retrait</t>
+  </si>
+  <si>
     <t>SheetName</t>
   </si>
 </sst>
@@ -1950,7 +1997,7 @@
     <numFmt numFmtId="172" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="173" formatCode="#,##0.00##\ [$€-1]"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1969,6 +2016,10 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -1990,9 +2041,6 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
@@ -2006,6 +2054,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <color theme="1"/>
@@ -2060,7 +2109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2117,19 +2166,22 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2138,14 +2190,11 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="172" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="172" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -2169,31 +2218,49 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -2207,10 +2274,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2495,7 +2562,7 @@
       </c>
       <c r="B1" s="2">
         <f>NOW()</f>
-        <v>44166.9352</v>
+        <v>44167.13226</v>
       </c>
     </row>
     <row r="2">
@@ -2504,7 +2571,7 @@
       </c>
       <c r="B2" s="3">
         <f>DATEVALUE($B$1)</f>
-        <v>44166</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="3">
@@ -2513,7 +2580,7 @@
       </c>
       <c r="B3" s="4">
         <f>TIMEVALUE($B$1)</f>
-        <v>0.9351967593</v>
+        <v>0.1322569444</v>
       </c>
     </row>
     <row r="4">
@@ -2540,7 +2607,7 @@
       </c>
       <c r="B6" s="5">
         <f>DAY($B$1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2549,7 +2616,7 @@
       </c>
       <c r="B7" s="5">
         <f>WEEKDAY($B$1,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2627,1102 +2694,1102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="58" t="s">
-        <v>372</v>
+      <c r="O1" s="64" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="59">
+      <c r="A2" s="65">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="66">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>300</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="66">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="66">
         <f t="shared" ref="D2:D18" si="1">$B2-$C2</f>
         <v>300</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="66">
         <f t="shared" ref="E2:E18" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>600</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="67">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="67">
         <f t="shared" ref="G2:G18" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.319813211</v>
       </c>
-      <c r="H2" s="61">
+      <c r="H2" s="67">
         <f t="shared" ref="H2:H18" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A18)*12,0)</f>
         <v>0.2398599083</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="66">
         <f t="shared" ref="I2:I18" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I18)</f>
         <v>11.04684281</v>
       </c>
-      <c r="J2" s="60">
+      <c r="J2" s="66">
         <f t="shared" ref="J2:J18" si="6">$N2-$E2</f>
         <v>38.2175457</v>
       </c>
-      <c r="K2" s="60">
+      <c r="K2" s="66">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.224301602</v>
       </c>
-      <c r="L2" s="60">
+      <c r="L2" s="66">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>603.0208333</v>
       </c>
-      <c r="M2" s="60">
+      <c r="M2" s="66">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>640.4418473</v>
       </c>
-      <c r="N2" s="62">
+      <c r="N2" s="68">
         <f t="shared" ref="N2:N18" si="7">MAX($M2,$L2)+$K2</f>
         <v>638.2175457</v>
       </c>
-      <c r="O2" s="63" t="str">
+      <c r="O2" s="69" t="str">
         <f t="shared" ref="O2:O18" si="8">IF(ROW()=2,"Paclone",INDEX(O:O,ROW()-1))</f>
         <v>Paclone</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="59">
+      <c r="A3" s="65">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="66">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>200</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="66">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>200</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="66">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="67">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="67">
         <f t="shared" si="3"/>
         <v>0.2869089188</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="67">
         <f t="shared" si="4"/>
         <v>0.229527135</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="66">
         <f t="shared" si="5"/>
         <v>-5.503327796</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="66">
         <f t="shared" si="6"/>
         <v>27.77827925</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="66">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.616725247</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="66">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>302.5</v>
       </c>
-      <c r="M3" s="60">
+      <c r="M3" s="66">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>329.3950045</v>
       </c>
-      <c r="N3" s="62">
+      <c r="N3" s="68">
         <f t="shared" si="7"/>
         <v>327.7782792</v>
       </c>
-      <c r="O3" s="63" t="str">
+      <c r="O3" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="59">
+      <c r="A4" s="65">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="66">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="66">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="66">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="66">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="67">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>-0.003035883482</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="67">
         <f t="shared" si="3"/>
         <v>0.3033417501</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="67">
         <f t="shared" si="4"/>
         <v>0.2600072144</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="66">
         <f t="shared" si="5"/>
         <v>-0.7152955209</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="66">
         <f t="shared" si="6"/>
         <v>32.97892401</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="66">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.919408276</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="66">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>302.1875</v>
       </c>
-      <c r="M4" s="60">
+      <c r="M4" s="66">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>334.8983323</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="68">
         <f t="shared" si="7"/>
         <v>332.978924</v>
       </c>
-      <c r="O4" s="63" t="str">
+      <c r="O4" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="59">
+      <c r="A5" s="65">
         <f t="array" ref="A5">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44075</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="66">
         <f t="array" ref="B5">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A5,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A5,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="66">
         <f>MAX($B5+IF($B5&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A5,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A5),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="66">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="67">
         <f t="array" ref="F5">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A5),0)</f>
         <v>0.06950114423</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="67">
         <f t="shared" si="3"/>
         <v>0.3063776336</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="67">
         <f t="shared" si="4"/>
         <v>0.2828101233</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="66">
         <f t="shared" si="5"/>
         <v>15.31126621</v>
       </c>
-      <c r="J5" s="60">
+      <c r="J5" s="66">
         <f t="shared" si="6"/>
         <v>33.65487828</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="66">
         <f t="array" ref="K5">-$I5*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.95874953</v>
       </c>
-      <c r="L5" s="60">
+      <c r="L5" s="66">
         <f t="array" ref="L5">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D5+INDEX($L:$L,ROW()+1)</f>
         <v>201.9791667</v>
       </c>
-      <c r="M5" s="60">
+      <c r="M5" s="66">
         <f t="array" ref="M5">INDEX($M:$M,ROW()+1)+$D5+INDEX($M:$M,ROW()+1)*$F5+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>235.6136278</v>
       </c>
-      <c r="N5" s="62">
+      <c r="N5" s="68">
         <f t="shared" si="7"/>
         <v>233.6548783</v>
       </c>
-      <c r="O5" s="63" t="str">
+      <c r="O5" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="59">
+      <c r="A6" s="65">
         <f t="array" ref="A6">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44044</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="66">
         <f t="array" ref="B6">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A6,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A6,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="66">
         <f>MAX($B6+IF($B6&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A6,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A6),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="66">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="67">
         <f t="array" ref="F6">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A6),0)</f>
         <v>-0.001185159315</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="67">
         <f t="shared" si="3"/>
         <v>0.2368764894</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="67">
         <f t="shared" si="4"/>
         <v>0.2368764894</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="66">
         <f t="shared" si="5"/>
         <v>-0.2614032004</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="66">
         <f t="shared" si="6"/>
         <v>19.18573171</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="66">
         <f t="array" ref="K6">-$I6*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.116629888</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="66">
         <f t="array" ref="L6">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D6+INDEX($L:$L,ROW()+1)</f>
         <v>201.7708333</v>
       </c>
-      <c r="M6" s="60">
+      <c r="M6" s="66">
         <f t="array" ref="M6">INDEX($M:$M,ROW()+1)+$D6+INDEX($M:$M,ROW()+1)*$F6+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.3023616</v>
       </c>
-      <c r="N6" s="62">
+      <c r="N6" s="68">
         <f t="shared" si="7"/>
         <v>219.1857317</v>
       </c>
-      <c r="O6" s="63" t="str">
+      <c r="O6" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="59">
+      <c r="A7" s="65">
         <f t="array" ref="A7">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44013</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="66">
         <f t="array" ref="B7">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A7,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A7,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="66">
         <f>MAX($B7+IF($B7&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A7,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A7),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="66">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="67">
         <f t="array" ref="F7">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A7),0)</f>
         <v>0.01670595001</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="67">
         <f t="shared" si="3"/>
         <v>0.2380616487</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="67">
         <f t="shared" si="4"/>
         <v>0.2597036167</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="66">
         <f t="shared" si="5"/>
         <v>3.624181829</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="66">
         <f t="shared" si="6"/>
         <v>19.43275774</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="66">
         <f t="array" ref="K7">-$I7*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.131007064</v>
       </c>
-      <c r="L7" s="60">
+      <c r="L7" s="66">
         <f t="array" ref="L7">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D7+INDEX($L:$L,ROW()+1)</f>
         <v>201.5625</v>
       </c>
-      <c r="M7" s="60">
+      <c r="M7" s="66">
         <f t="array" ref="M7">INDEX($M:$M,ROW()+1)+$D7+INDEX($M:$M,ROW()+1)*$F7+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.5637648</v>
       </c>
-      <c r="N7" s="62">
+      <c r="N7" s="68">
         <f t="shared" si="7"/>
         <v>219.4327577</v>
       </c>
-      <c r="O7" s="63" t="str">
+      <c r="O7" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="59">
+      <c r="A8" s="65">
         <f t="array" ref="A8">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43983</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="66">
         <f t="array" ref="B8">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A8,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A8,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="66">
         <f>MAX($B8+IF($B8&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A8,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A8),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="66">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="67">
         <f t="array" ref="F8">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A8),0)</f>
         <v>-0.006593872955</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="67">
         <f t="shared" si="3"/>
         <v>0.2213556987</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="67">
         <f t="shared" si="4"/>
         <v>0.2656268384</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="66">
         <f t="shared" si="5"/>
         <v>-1.439967008</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="66">
         <f t="shared" si="6"/>
         <v>16.00790591</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="66">
         <f t="array" ref="K8">-$I8*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.9316770635</v>
       </c>
-      <c r="L8" s="60">
+      <c r="L8" s="66">
         <f t="array" ref="L8">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D8+INDEX($L:$L,ROW()+1)</f>
         <v>201.3541667</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="66">
         <f t="array" ref="M8">INDEX($M:$M,ROW()+1)+$D8+INDEX($M:$M,ROW()+1)*$F8+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>216.939583</v>
       </c>
-      <c r="N8" s="62">
+      <c r="N8" s="68">
         <f t="shared" si="7"/>
         <v>216.0079059</v>
       </c>
-      <c r="O8" s="63" t="str">
+      <c r="O8" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="59">
+      <c r="A9" s="65">
         <f t="array" ref="A9">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43952</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="66">
         <f t="array" ref="B9">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A9,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A9,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="66">
         <f>MAX($B9+IF($B9&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A9,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A9),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="66">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="67">
         <f t="array" ref="F9">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A9),0)</f>
         <v>0.1716787041</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="67">
         <f t="shared" si="3"/>
         <v>0.2279495716</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="67">
         <f t="shared" si="4"/>
         <v>0.3039327622</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="66">
         <f t="shared" si="5"/>
         <v>17.44204998</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="66">
         <f t="shared" si="6"/>
         <v>17.36867473</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="66">
         <f t="array" ref="K9">-$I9*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.010875249</v>
       </c>
-      <c r="L9" s="60">
+      <c r="L9" s="66">
         <f t="array" ref="L9">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D9+INDEX($L:$L,ROW()+1)</f>
         <v>201.1458333</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="66">
         <f t="array" ref="M9">INDEX($M:$M,ROW()+1)+$D9+INDEX($M:$M,ROW()+1)*$F9+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>218.37955</v>
       </c>
-      <c r="N9" s="62">
+      <c r="N9" s="68">
         <f t="shared" si="7"/>
         <v>217.3686747</v>
       </c>
-      <c r="O9" s="63" t="str">
+      <c r="O9" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="59">
+      <c r="A10" s="65">
         <f t="array" ref="A10">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43922</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="66">
         <f t="array" ref="B10">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A10,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A10,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="66">
         <f>MAX($B10+IF($B10&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A10,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A10),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="66">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="67">
         <f t="array" ref="F10">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A10),0)</f>
         <v>-0.09031985768</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="67">
         <f t="shared" si="3"/>
         <v>0.0562708675</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="67">
         <f t="shared" si="4"/>
         <v>0.08440630126</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="66">
         <f t="shared" si="5"/>
         <v>-3.949647339</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="66">
         <f t="shared" si="6"/>
         <v>0.8859375</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="66">
         <f t="array" ref="K10">-$I10*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0515625</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L10" s="66">
         <f t="array" ref="L10">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D10+INDEX($L:$L,ROW()+1)</f>
         <v>200.9375</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="66">
         <f t="array" ref="M10">INDEX($M:$M,ROW()+1)+$D10+INDEX($M:$M,ROW()+1)*$F10+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>186.3817694</v>
       </c>
-      <c r="N10" s="62">
+      <c r="N10" s="68">
         <f t="shared" si="7"/>
         <v>200.8859375</v>
       </c>
-      <c r="O10" s="63" t="str">
+      <c r="O10" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="59">
+      <c r="A11" s="65">
         <f t="array" ref="A11">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43891</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="66">
         <f t="array" ref="B11">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A11,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A11,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="66">
         <f>MAX($B11+IF($B11&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A11,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A11),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="66">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="66">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="67">
         <f t="array" ref="F11">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A11),0)</f>
         <v>-0.0006988944889</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="67">
         <f t="shared" si="3"/>
         <v>0.1465907252</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="67">
         <f t="shared" si="4"/>
         <v>0.251298386</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="66">
         <f t="shared" si="5"/>
         <v>-0.07335631756</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="66">
         <f t="shared" si="6"/>
         <v>4.618354235</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="66">
         <f t="array" ref="K11">-$I11*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2687931036</v>
       </c>
-      <c r="L11" s="60">
+      <c r="L11" s="66">
         <f t="array" ref="L11">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D11+INDEX($L:$L,ROW()+1)</f>
         <v>200.7291667</v>
       </c>
-      <c r="M11" s="60">
+      <c r="M11" s="66">
         <f t="array" ref="M11">INDEX($M:$M,ROW()+1)+$D11+INDEX($M:$M,ROW()+1)*$F11+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>204.8871473</v>
       </c>
-      <c r="N11" s="62">
+      <c r="N11" s="68">
         <f t="shared" si="7"/>
         <v>204.6183542</v>
       </c>
-      <c r="O11" s="63" t="str">
+      <c r="O11" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="59">
+      <c r="A12" s="65">
         <f t="array" ref="A12">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43862</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="66">
         <f t="array" ref="B12">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A12,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A12,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="66">
         <f>MAX($B12+IF($B12&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A12,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A12),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="66">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="67">
         <f t="array" ref="F12">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A12),0)</f>
         <v>-0.01357148377</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="67">
         <f t="shared" si="3"/>
         <v>0.1472896197</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="67">
         <f t="shared" si="4"/>
         <v>0.2945792394</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="66">
         <f t="shared" si="5"/>
         <v>-1.444067917</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="66">
         <f t="shared" si="6"/>
         <v>4.687675955</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="66">
         <f t="array" ref="K12">-$I12*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2728277011</v>
       </c>
-      <c r="L12" s="60">
+      <c r="L12" s="66">
         <f t="array" ref="L12">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D12+INDEX($L:$L,ROW()+1)</f>
         <v>100.625</v>
       </c>
-      <c r="M12" s="60">
+      <c r="M12" s="66">
         <f t="array" ref="M12">INDEX($M:$M,ROW()+1)+$D12+INDEX($M:$M,ROW()+1)*$F12+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>104.9605037</v>
       </c>
-      <c r="N12" s="62">
+      <c r="N12" s="68">
         <f t="shared" si="7"/>
         <v>104.687676</v>
       </c>
-      <c r="O12" s="63" t="str">
+      <c r="O12" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="59">
+      <c r="A13" s="65">
         <f t="array" ref="A13">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43831</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="66">
         <f t="array" ref="B13">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A13,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A13,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="66">
         <f>MAX($B13+IF($B13&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A13,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A13),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="66">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="67">
         <f t="array" ref="F13">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A13),0)</f>
         <v>0.06953970792</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="67">
         <f t="shared" si="3"/>
         <v>0.1608611035</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="67">
         <f t="shared" si="4"/>
         <v>0.3860666483</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="66">
         <f t="shared" si="5"/>
         <v>5.987904906</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="66">
         <f t="shared" si="6"/>
         <v>6.052320137</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="66">
         <f t="array" ref="K13">-$I13*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.3522514365</v>
       </c>
-      <c r="L13" s="60">
+      <c r="L13" s="66">
         <f t="array" ref="L13">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D13+INDEX($L:$L,ROW()+1)</f>
         <v>100.5208333</v>
       </c>
-      <c r="M13" s="60">
+      <c r="M13" s="66">
         <f t="array" ref="M13">INDEX($M:$M,ROW()+1)+$D13+INDEX($M:$M,ROW()+1)*$F13+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>106.4045716</v>
       </c>
-      <c r="N13" s="62">
+      <c r="N13" s="68">
         <f t="shared" si="7"/>
         <v>106.0523201</v>
       </c>
-      <c r="O13" s="63" t="str">
+      <c r="O13" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="59">
+      <c r="A14" s="65">
         <f t="array" ref="A14">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43800</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="66">
         <f t="array" ref="B14">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A14,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A14,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="66">
         <f>MAX($B14+IF($B14&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A14,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A14),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="66">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="67">
         <f t="array" ref="F14">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A14),0)</f>
         <v>0.02764486097</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="67">
         <f t="shared" si="3"/>
         <v>0.09132139553</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="67">
         <f t="shared" si="4"/>
         <v>0.2739641866</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="66">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="66">
         <f t="shared" si="6"/>
         <v>0.39375</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="66">
         <f t="array" ref="K14">-$I14*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.02291666667</v>
       </c>
-      <c r="L14" s="60">
+      <c r="L14" s="66">
         <f t="array" ref="L14">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D14+INDEX($L:$L,ROW()+1)</f>
         <v>100.4166667</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="66">
         <f t="array" ref="M14">INDEX($M:$M,ROW()+1)+$D14+INDEX($M:$M,ROW()+1)*$F14+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.48632181</v>
       </c>
-      <c r="N14" s="62">
+      <c r="N14" s="68">
         <f t="shared" si="7"/>
         <v>100.39375</v>
       </c>
-      <c r="O14" s="63" t="str">
+      <c r="O14" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="59">
+      <c r="A15" s="65">
         <f t="array" ref="A15">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43770</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="66">
         <f t="array" ref="B15">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A15,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A15,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="66">
         <f>MAX($B15+IF($B15&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A15,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A15),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="66">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="67">
         <f t="array" ref="F15">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A15),0)</f>
         <v>-0.03120425194</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="67">
         <f t="shared" si="3"/>
         <v>0.06367653456</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="67">
         <f t="shared" si="4"/>
         <v>0.2547061382</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="66">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="66">
         <f t="shared" si="6"/>
         <v>0.2953125</v>
       </c>
-      <c r="K15" s="60">
+      <c r="K15" s="66">
         <f t="array" ref="K15">-$I15*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0171875</v>
       </c>
-      <c r="L15" s="60">
+      <c r="L15" s="66">
         <f t="array" ref="L15">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D15+INDEX($L:$L,ROW()+1)</f>
         <v>100.3125</v>
       </c>
-      <c r="M15" s="60">
+      <c r="M15" s="66">
         <f t="array" ref="M15">INDEX($M:$M,ROW()+1)+$D15+INDEX($M:$M,ROW()+1)*$F15+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>96.81002221</v>
       </c>
-      <c r="N15" s="62">
+      <c r="N15" s="68">
         <f t="shared" si="7"/>
         <v>100.2953125</v>
       </c>
-      <c r="O15" s="63" t="str">
+      <c r="O15" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="59">
+      <c r="A16" s="65">
         <f t="array" ref="A16">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43739</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="66">
         <f t="array" ref="B16">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A16,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A16,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="66">
         <f>MAX($B16+IF($B16&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A16,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A16),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="66">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="67">
         <f t="array" ref="F16">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A16),0)</f>
         <v>-0.001757764068</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="67">
         <f t="shared" si="3"/>
         <v>0.0948807865</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="67">
         <f t="shared" si="4"/>
         <v>0.569284719</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="66">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="66">
         <f t="shared" si="6"/>
         <v>0.196875</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="66">
         <f t="array" ref="K16">-$I16*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.01145833333</v>
       </c>
-      <c r="L16" s="60">
+      <c r="L16" s="66">
         <f t="array" ref="L16">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D16+INDEX($L:$L,ROW()+1)</f>
         <v>100.2083333</v>
       </c>
-      <c r="M16" s="60">
+      <c r="M16" s="66">
         <f t="array" ref="M16">INDEX($M:$M,ROW()+1)+$D16+INDEX($M:$M,ROW()+1)*$F16+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.92820716</v>
       </c>
-      <c r="N16" s="62">
+      <c r="N16" s="68">
         <f t="shared" si="7"/>
         <v>100.196875</v>
       </c>
-      <c r="O16" s="63" t="str">
+      <c r="O16" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="59">
+      <c r="A17" s="65">
         <f t="array" ref="A17">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43709</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="66">
         <f t="array" ref="B17">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A17,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A17,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="66">
         <f>MAX($B17+IF($B17&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A17,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A17),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="66">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="66">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="67">
         <f t="array" ref="F17">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A17),0)</f>
         <v>0.09663855056</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="67">
         <f t="shared" si="3"/>
         <v>0.09663855056</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="67">
         <f t="shared" si="4"/>
         <v>1.159662607</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="66">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="66">
         <f t="shared" si="6"/>
         <v>0.0984375</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="66">
         <f t="array" ref="K17">-$I17*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.005729166667</v>
       </c>
-      <c r="L17" s="60">
+      <c r="L17" s="66">
         <f t="array" ref="L17">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D17+INDEX($L:$L,ROW()+1)</f>
         <v>100.1041667</v>
       </c>
-      <c r="M17" s="60">
+      <c r="M17" s="66">
         <f t="array" ref="M17">INDEX($M:$M,ROW()+1)+$D17+INDEX($M:$M,ROW()+1)*$F17+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>100.1041667</v>
       </c>
-      <c r="N17" s="62">
+      <c r="N17" s="68">
         <f t="shared" si="7"/>
         <v>100.0984375</v>
       </c>
-      <c r="O17" s="63" t="str">
+      <c r="O17" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="59">
+      <c r="A18" s="65">
         <f t="array" ref="A18">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43678</v>
       </c>
-      <c r="B18" s="60">
+      <c r="B18" s="66">
         <f t="array" ref="B18">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A18,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A18,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="66">
         <f>MAX($B18+IF($B18&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A18,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A18),0),0)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="67">
         <f t="array" ref="F18">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A18),0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K18" s="60">
+      <c r="K18" s="66">
         <f t="array" ref="K18">-$I18*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="60">
+      <c r="L18" s="66">
         <f t="array" ref="L18">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D18+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="60">
+      <c r="M18" s="66">
         <f t="array" ref="M18">INDEX($M:$M,ROW()+1)+$D18+INDEX($M:$M,ROW()+1)*$F18+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N18" s="62">
+      <c r="N18" s="68">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O18" s="63" t="str">
+      <c r="O18" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
@@ -3751,234 +3818,234 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="58" t="s">
-        <v>372</v>
+      <c r="O1" s="64" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="59">
+      <c r="A2" s="65">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="66">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="66">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="66">
         <f t="shared" ref="D2:D4" si="1">$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="66">
         <f t="shared" ref="E2:E4" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>40000</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="67">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="67">
         <f t="shared" ref="G2:G4" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.0164714609</v>
       </c>
-      <c r="H2" s="61">
+      <c r="H2" s="67">
         <f t="shared" ref="H2:H4" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A4)*12,0)</f>
         <v>0.09882876541</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="66">
         <f t="shared" ref="I2:I4" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I4)</f>
         <v>1145.025732</v>
       </c>
-      <c r="J2" s="60">
+      <c r="J2" s="66">
         <f t="shared" ref="J2:J4" si="6">$N2-$E2</f>
         <v>1121.424317</v>
       </c>
-      <c r="K2" s="60">
+      <c r="K2" s="66">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-65.26808195</v>
       </c>
-      <c r="L2" s="60">
+      <c r="L2" s="66">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>40083.33333</v>
       </c>
-      <c r="M2" s="60">
+      <c r="M2" s="66">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>41186.6924</v>
       </c>
-      <c r="N2" s="62">
+      <c r="N2" s="68">
         <f t="shared" ref="N2:N4" si="7">MAX($M2,$L2)+$K2</f>
         <v>41121.42432</v>
       </c>
-      <c r="O2" s="63" t="str">
+      <c r="O2" s="69" t="str">
         <f t="shared" ref="O2:O4" si="8">IF(ROW()=2,"Philo",INDEX(O:O,ROW()-1))</f>
         <v>Philo</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="59">
+      <c r="A3" s="65">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="66">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>30442</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="66">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="66">
         <f t="shared" si="1"/>
         <v>30442</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="66">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="67">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="67">
         <f t="shared" si="3"/>
         <v>-0.0164328313</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="67">
         <f t="shared" si="4"/>
         <v>-0.1971939755</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="66">
         <f t="shared" si="5"/>
         <v>41.66666667</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="66">
         <f t="shared" si="6"/>
         <v>39.375</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="66">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.291666667</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="66">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>40041.66667</v>
       </c>
-      <c r="M3" s="60">
+      <c r="M3" s="66">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>39874.64542</v>
       </c>
-      <c r="N3" s="62">
+      <c r="N3" s="68">
         <f t="shared" si="7"/>
         <v>40039.375</v>
       </c>
-      <c r="O3" s="63" t="str">
+      <c r="O3" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="59">
+      <c r="A4" s="65">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="66">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>40000</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="66">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>30442</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="66">
         <f t="shared" si="1"/>
         <v>9558</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="66">
         <f t="shared" si="2"/>
         <v>9558</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="67">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="66">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="66">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>9558</v>
       </c>
-      <c r="M4" s="60">
+      <c r="M4" s="66">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>9558</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="68">
         <f t="shared" si="7"/>
         <v>9558</v>
       </c>
-      <c r="O4" s="63" t="str">
+      <c r="O4" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
@@ -4007,110 +4074,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="58" t="s">
-        <v>372</v>
+      <c r="O1" s="64" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="59">
+      <c r="A2" s="65">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="66">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="66">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="66">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="66">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="67">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="67">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="61">
+      <c r="H2" s="67">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="66">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="60">
+      <c r="J2" s="66">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="60">
+      <c r="K2" s="66">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="60">
+      <c r="L2" s="66">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="60">
+      <c r="M2" s="66">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="62">
+      <c r="N2" s="68">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="63" t="str">
+      <c r="O2" s="69" t="str">
         <f>IF(ROW()=2,"Tester",ROW()-1)</f>
         <v>Tester</v>
       </c>
@@ -4139,110 +4206,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="58" t="s">
-        <v>372</v>
+      <c r="O1" s="64" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="59">
+      <c r="A2" s="65">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="66">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="66">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="66">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="66">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="67">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="67">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="61">
+      <c r="H2" s="67">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="66">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="60">
+      <c r="J2" s="66">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="60">
+      <c r="K2" s="66">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="60">
+      <c r="L2" s="66">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="60">
+      <c r="M2" s="66">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="62">
+      <c r="N2" s="68">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="63" t="str">
+      <c r="O2" s="69" t="str">
         <f>IF(ROW()=2,"Lizzz",ROW()-1)</f>
         <v>Lizzz</v>
       </c>
@@ -4271,110 +4338,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="58" t="s">
-        <v>372</v>
+      <c r="O1" s="64" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="59">
+      <c r="A2" s="65">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="66">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="66">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="66">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="66">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="67">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="67">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="61">
+      <c r="H2" s="67">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="66">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="60">
+      <c r="J2" s="66">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="60">
+      <c r="K2" s="66">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="60">
+      <c r="L2" s="66">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="60">
+      <c r="M2" s="66">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="62">
+      <c r="N2" s="68">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="63" t="str">
+      <c r="O2" s="69" t="str">
         <f>IF(ROW()=2,"Joséd",ROW()-1)</f>
         <v>Joséd</v>
       </c>
@@ -4400,110 +4467,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="58" t="s">
-        <v>372</v>
+      <c r="O1" s="64" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="59">
+      <c r="A2" s="65">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="66">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="66">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="66">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="66">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="67">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="67">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="61">
+      <c r="H2" s="67">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="66">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="60">
+      <c r="J2" s="66">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="60">
+      <c r="K2" s="66">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="60">
+      <c r="L2" s="66">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="60">
+      <c r="M2" s="66">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="62">
+      <c r="N2" s="68">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="63" t="str">
+      <c r="O2" s="69" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"SheetName",INDEX(O:O,ROW()-1))</f>
         <v>SheetName</v>
       </c>
@@ -4534,8 +4601,8 @@
         <v>Cumulated saving</v>
       </c>
       <c r="B1" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298924.8915798419)</f>
-        <v>298924.8916</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300424.8915798419)</f>
+        <v>300424.8916</v>
       </c>
     </row>
     <row r="2">
@@ -4544,8 +4611,8 @@
         <v>Cumulated profit total rate</v>
       </c>
       <c r="B2" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0493971467622076)</f>
-        <v>1.049397147</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0485342031698142)</f>
+        <v>1.048534203</v>
       </c>
     </row>
     <row r="3">
@@ -4564,8 +4631,8 @@
         <v>Cumulated profit rate</v>
       </c>
       <c r="B4" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.1086737476197608)</f>
-        <v>0.1086737476</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.10855360479245313)</f>
+        <v>0.1085536048</v>
       </c>
     </row>
     <row r="5">
@@ -4584,8 +4651,8 @@
         <v>Cumulated dividend rate</v>
       </c>
       <c r="B6" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.023425893153824925)</f>
-        <v>0.02342589315</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.023399994966844615)</f>
+        <v>0.02339999497</v>
       </c>
     </row>
     <row r="7">
@@ -4594,8 +4661,8 @@
         <v>Average investment</v>
       </c>
       <c r="B7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178041.7209790042)</f>
-        <v>178041.721</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178188.24930572262)</f>
+        <v>178188.2493</v>
       </c>
     </row>
     <row r="8">
@@ -4604,8 +4671,8 @@
         <v>Saving duration</v>
       </c>
       <c r="B8" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.656399726214921)</f>
-        <v>9.656399726</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.659137577002053)</f>
+        <v>9.659137577</v>
       </c>
     </row>
     <row r="9">
@@ -4624,8 +4691,8 @@
         <v>Working free duration</v>
       </c>
       <c r="B10" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"244 months (20.3 years)")</f>
-        <v>244 months (20.3 years)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"245 months (20.5 years)")</f>
+        <v>245 months (20.5 years)</v>
       </c>
     </row>
     <row r="11">
@@ -4634,8 +4701,8 @@
         <v>Since Independance duration</v>
       </c>
       <c r="B11" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1269 months (105.8 years)")</f>
-        <v>1269 months (105.8 years)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1331 months (110.9 years)")</f>
+        <v>1331 months (110.9 years)</v>
       </c>
     </row>
     <row r="12">
@@ -4644,8 +4711,8 @@
         <v>Since Independance gap</v>
       </c>
       <c r="B12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-329686.42504170403)</f>
-        <v>-329686.425</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-328882.14713219466)</f>
+        <v>-328882.1471</v>
       </c>
     </row>
     <row r="13">
@@ -4654,8 +4721,8 @@
         <v>Monthly income</v>
       </c>
       <c r="B13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),967.3068358623298)</f>
-        <v>967.3068359</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),979.9737698657702)</f>
+        <v>979.9737699</v>
       </c>
     </row>
     <row r="14">
@@ -4674,8 +4741,8 @@
         <v>Income use</v>
       </c>
       <c r="B15" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2686237872437758)</f>
-        <v>1.268623787</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2522258240713404)</f>
+        <v>1.252225824</v>
       </c>
     </row>
     <row r="16">
@@ -4824,8 +4891,8 @@
         <v>Debt</v>
       </c>
       <c r="B30" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-70632.89242015811)</f>
-        <v>-70632.89242</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-69132.89242015811)</f>
+        <v>-69132.89242</v>
       </c>
     </row>
     <row r="31">
@@ -4854,8 +4921,8 @@
         <v>Client</v>
       </c>
       <c r="B33" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-56258.34242015811)</f>
-        <v>-56258.34242</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-54758.34242015811)</f>
+        <v>-54758.34242</v>
       </c>
     </row>
     <row r="34">
@@ -4864,8 +4931,8 @@
         <v>Current portfolio duration</v>
       </c>
       <c r="B34" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.100616016427105)</f>
-        <v>5.100616016</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.103353867214237)</f>
+        <v>5.103353867</v>
       </c>
     </row>
     <row r="35">
@@ -4924,8 +4991,8 @@
         <v>Current portfolio total profit rate</v>
       </c>
       <c r="B40" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.21844312208086755)</f>
-        <v>0.2184431221</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.2181463970917436)</f>
+        <v>0.2181463971</v>
       </c>
     </row>
     <row r="41">
@@ -4944,8 +5011,8 @@
         <v>Current portfolio profit rate</v>
       </c>
       <c r="B42" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.19850802420075267)</f>
-        <v>0.1985080242</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.1982383783050116)</f>
+        <v>0.1982383783</v>
       </c>
     </row>
     <row r="43">
@@ -4964,8 +5031,8 @@
         <v>Current portfolio dividend rate</v>
       </c>
       <c r="B44" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0406032136449303)</f>
-        <v>0.04060321364</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.04054805975401161)</f>
+        <v>0.04054805975</v>
       </c>
     </row>
     <row r="45">
@@ -4984,8 +5051,8 @@
         <v>Current portfolio cost rate</v>
       </c>
       <c r="B46" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.02066811576481546)</f>
-        <v>-0.02066811576</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.020640040967279574)</f>
+        <v>-0.02064004097</v>
       </c>
     </row>
     <row r="47">
@@ -5054,8 +5121,8 @@
         <v>Next Allocation</v>
       </c>
       <c r="B53" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),810000.0)</f>
-        <v>810000</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),807000.0)</f>
+        <v>807000</v>
       </c>
     </row>
     <row r="54">
@@ -5081,8 +5148,8 @@
         <v>EONIA</v>
       </c>
       <c r="B56" s="19">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.00471)</f>
-        <v>-0.00471</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.00472)</f>
+        <v>-0.00472</v>
       </c>
     </row>
     <row r="57">
@@ -5111,8 +5178,8 @@
         <v>Investment provision</v>
       </c>
       <c r="B59" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-57106.68541191309)</f>
-        <v>-57106.68541</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-58536.454339126125)</f>
+        <v>-58536.45434</v>
       </c>
     </row>
     <row r="60">
@@ -5121,8 +5188,8 @@
         <v>Today's result</v>
       </c>
       <c r="B60" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-12897.650000000014)</f>
-        <v>-12897.65</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5131,8 +5198,8 @@
         <v>Last year daily average progress</v>
       </c>
       <c r="B61" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),547.602604227617)</f>
-        <v>547.6026042</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),547.0574002655184)</f>
+        <v>547.0574003</v>
       </c>
     </row>
     <row r="62">
@@ -5141,8 +5208,8 @@
         <v>Transaction per month</v>
       </c>
       <c r="B62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.717622293504412)</f>
-        <v>13.71762229</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.70663060897436)</f>
+        <v>13.70663061</v>
       </c>
     </row>
     <row r="63">
@@ -5151,8 +5218,8 @@
         <v>Average profit per transaction</v>
       </c>
       <c r="B63" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),356.8758298727942)</f>
-        <v>356.8758299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),356.6574070022195)</f>
+        <v>356.657407</v>
       </c>
     </row>
     <row r="64">
@@ -5161,8 +5228,8 @@
         <v>Average profit per month</v>
       </c>
       <c r="B64" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4895.48783987593)</f>
-        <v>4895.48784</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4888.571331734048)</f>
+        <v>4888.571332</v>
       </c>
     </row>
     <row r="65">
@@ -5171,8 +5238,8 @@
         <v>Total profit per month</v>
       </c>
       <c r="B65" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5333.629081951628)</f>
-        <v>5333.629082</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5326.712573809746)</f>
+        <v>5326.712574</v>
       </c>
     </row>
     <row r="66">
@@ -5181,8 +5248,8 @@
         <v>Instant profit per trading day</v>
       </c>
       <c r="B66" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.15250881226052)</f>
-        <v>147.1525088</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.03983460949462)</f>
+        <v>147.0398346</v>
       </c>
     </row>
     <row r="67">
@@ -5201,8 +5268,8 @@
         <v>Instant profit per month</v>
       </c>
       <c r="B68" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4122.457290663163)</f>
-        <v>4122.457291</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4119.1540396289765)</f>
+        <v>4119.15404</v>
       </c>
     </row>
     <row r="69">
@@ -5211,8 +5278,8 @@
         <v>Last month stock average progress</v>
       </c>
       <c r="B69" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0030784917754572644)</f>
-        <v>0.003078491775</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0028029168012850504)</f>
+        <v>0.002802916801</v>
       </c>
     </row>
     <row r="70">
@@ -5221,8 +5288,8 @@
         <v>Last negative average profit in days</v>
       </c>
       <c r="B70" s="21" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"224d (7.5m)")</f>
-        <v>224d (7.5m)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"225d (7.5m)")</f>
+        <v>225d (7.5m)</v>
       </c>
     </row>
     <row r="71">
@@ -5231,8 +5298,8 @@
         <v>Last updated</v>
       </c>
       <c r="B71" s="22">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.18530184027622454)</f>
-        <v>0.1853018403</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.3823034837987507)</f>
+        <v>0.3823034838</v>
       </c>
     </row>
     <row r="72">
@@ -36071,7 +36138,7 @@
       <c r="S1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="32" t="s">
         <v>32</v>
       </c>
       <c r="U1" s="30" t="s">
@@ -36097,544 +36164,544 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="32">
+      <c r="A2" s="33">
         <f t="shared" ref="A2:A7" si="1">ROW()-2</f>
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <f t="shared" ref="D2:D7" si="2">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!$K$2"),0) </f>
         <v>0</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B2,AssociateHistoric!$D:$D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="35">
         <f>COUNTIFS(Historic!$A:$A,"&gt;="&amp;MIN(INDIRECT($B2&amp;"!$A:$A")),Historic!$D:$D,"BUY")</f>
         <v>1</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="36">
         <f t="array" ref="G2">IF(ROW()=2,MAX(Dashboard!$B$26,Dashboard!$B$57/12),INDEX(G:G,ROW()-1))</f>
         <v>0.001041666667</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="34">
         <f t="shared" ref="H2:H7" si="3">$G2*$N2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="33" t="str">
+      <c r="I2" s="34" t="str">
         <f>IF(ISREF(INDIRECT($B2&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B2&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B2&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
-        <v>0 months (0 years)</v>
-      </c>
-      <c r="J2" s="33">
+        <v>1 months (0.1 years)</v>
+      </c>
+      <c r="J2" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&lt;&gt;",AssociateHistoric!$B:$B,$B2,AssociateHistoric!$C:$C,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B2,AssociateHistoric!$C:$C,"&lt;0",AssociateHistoric!$D:$D,"&lt;=0")</f>
         <v>0</v>
       </c>
-      <c r="L2" s="33" t="str">
+      <c r="L2" s="34" t="str">
         <f t="shared" ref="L2:L7" si="4">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!J2"),)</f>
         <v/>
       </c>
-      <c r="M2" s="35" t="str">
+      <c r="M2" s="36" t="str">
         <f t="shared" ref="M2:M7" si="5">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!H2"),)</f>
         <v/>
       </c>
-      <c r="N2" s="36" t="str">
+      <c r="N2" s="37" t="str">
         <f t="shared" ref="N2:N7" si="6">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!N2")+INDIRECT($B2&amp;"!C2"),)</f>
         <v/>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="38">
+      <c r="R2" s="39">
         <v>30047.0</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="32">
+      <c r="U2" s="33">
         <v>29550.0</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
     </row>
     <row r="3">
-      <c r="A3" s="32">
+      <c r="A3" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="34">
         <v>-1000.0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="34">
         <f t="shared" si="2"/>
         <v>-241.2682864</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B3,AssociateHistoric!$D:$D,"&gt;0")</f>
         <v>-434.68</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="35">
         <f>COUNTIFS(Historic!$A:$A,"&gt;="&amp;MIN(INDIRECT($B3&amp;"!$A:$A")),Historic!$D:$D,"BUY")</f>
         <v>205</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="36">
         <f t="array" ref="G3">IF(ROW()=2,MAX(Dashboard!$B$26,Dashboard!$B$57/12),INDEX(G:G,ROW()-1))</f>
         <v>0.001041666667</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="34">
         <f t="shared" si="3"/>
-        <v>15.10281308</v>
-      </c>
-      <c r="I3" s="33" t="str">
+        <v>13.54031308</v>
+      </c>
+      <c r="I3" s="34" t="str">
         <f>IF(ISREF(INDIRECT($B3&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B3&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B3&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
         <v>37 months (3.1 years)</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&lt;&gt;",AssociateHistoric!$B:$B,$B3,AssociateHistoric!$C:$C,"&gt;0")</f>
         <v>20000</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B3,AssociateHistoric!$C:$C,"&lt;0",AssociateHistoric!$D:$D,"&lt;=0")</f>
-        <v>-17550</v>
-      </c>
-      <c r="L3" s="33">
+        <v>-19050</v>
+      </c>
+      <c r="L3" s="34">
         <f t="shared" si="4"/>
         <v>12048.70056</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="36">
         <f t="shared" si="5"/>
         <v>0.2453609633</v>
       </c>
-      <c r="N3" s="36">
+      <c r="N3" s="37">
         <f t="shared" si="6"/>
-        <v>14498.70056</v>
-      </c>
-      <c r="O3" s="37" t="s">
+        <v>12998.70056</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="38">
+      <c r="R3" s="39">
         <v>26764.0</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="32">
+      <c r="U3" s="33">
         <v>29550.0</v>
       </c>
-      <c r="V3" s="32" t="s">
+      <c r="V3" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="32" t="s">
+      <c r="Y3" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="39" t="s">
+      <c r="Z3" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="39" t="s">
+      <c r="AA3" s="40" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="32">
+      <c r="A4" s="33">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34">
         <f t="shared" si="2"/>
         <v>-2.224301602</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B4,AssociateHistoric!$D:$D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="35">
         <f>COUNTIFS(Historic!$A:$A,"&gt;="&amp;MIN(INDIRECT($B4&amp;"!$A:$A")),Historic!$D:$D,"BUY")</f>
         <v>113</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="36">
         <f t="array" ref="G4">IF(ROW()=2,MAX(Dashboard!$B$26,Dashboard!$B$57/12),INDEX(G:G,ROW()-1))</f>
         <v>0.001041666667</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="34">
         <f t="shared" si="3"/>
         <v>0.6648099434</v>
       </c>
-      <c r="I4" s="33" t="str">
+      <c r="I4" s="34" t="str">
         <f>IF(ISREF(INDIRECT($B4&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B4&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B4&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
         <v>17 months (1.4 years)</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&lt;&gt;",AssociateHistoric!$B:$B,$B4,AssociateHistoric!$C:$C,"&gt;0")</f>
         <v>600</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B4,AssociateHistoric!$C:$C,"&lt;0",AssociateHistoric!$D:$D,"&lt;=0")</f>
         <v>0</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="34">
         <f t="shared" si="4"/>
         <v>38.2175457</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="36">
         <f t="shared" si="5"/>
         <v>0.2398599083</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="37">
         <f t="shared" si="6"/>
         <v>638.2175457</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="38">
+      <c r="R4" s="39">
         <v>20148.0</v>
       </c>
-      <c r="S4" s="32" t="s">
+      <c r="S4" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U4" s="32">
+      <c r="U4" s="33">
         <v>88600.0</v>
       </c>
-      <c r="V4" s="40" t="s">
+      <c r="V4" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
     </row>
     <row r="5">
-      <c r="A5" s="32">
+      <c r="A5" s="33">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34">
         <f t="shared" si="2"/>
         <v>-65.26808195</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B5,AssociateHistoric!$D:$D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="35">
         <f>COUNTIFS(Historic!$A:$A,"&gt;="&amp;MIN(INDIRECT($B5&amp;"!$A:$A")),Historic!$D:$D,"BUY")</f>
         <v>26</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="36">
         <f t="array" ref="G5">IF(ROW()=2,MAX(Dashboard!$B$26,Dashboard!$B$57/12),INDEX(G:G,ROW()-1))</f>
         <v>0.001041666667</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="34">
         <f t="shared" si="3"/>
         <v>42.834817</v>
       </c>
-      <c r="I5" s="33" t="str">
+      <c r="I5" s="34" t="str">
         <f>IF(ISREF(INDIRECT($B5&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B5&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B5&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
         <v>3 months (0.2 years)</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&lt;&gt;",AssociateHistoric!$B:$B,$B5,AssociateHistoric!$C:$C,"&gt;0")</f>
         <v>40000</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B5,AssociateHistoric!$C:$C,"&lt;0",AssociateHistoric!$D:$D,"&lt;=0")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="34">
         <f t="shared" si="4"/>
         <v>1121.424317</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="36">
         <f t="shared" si="5"/>
         <v>0.09882876541</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="37">
         <f t="shared" si="6"/>
         <v>41121.42432</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="39">
         <v>25023.0</v>
       </c>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32" t="s">
+      <c r="S5" s="33"/>
+      <c r="T5" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="32">
+      <c r="U5" s="33">
         <v>91470.0</v>
       </c>
-      <c r="V5" s="32" t="s">
+      <c r="V5" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="32" t="s">
+      <c r="W5" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="X5" s="32" t="s">
+      <c r="X5" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="39" t="s">
+      <c r="Z5" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="AA5" s="39" t="s">
+      <c r="AA5" s="40" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="32">
+      <c r="A6" s="33">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B6,AssociateHistoric!$D:$D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="35">
         <f>COUNTIFS(Historic!$A:$A,"&gt;="&amp;MIN(INDIRECT($B6&amp;"!$A:$A")),Historic!$D:$D,"BUY")</f>
         <v>1</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="36">
         <f t="array" ref="G6">IF(ROW()=2,MAX(Dashboard!$B$26,Dashboard!$B$57/12),INDEX(G:G,ROW()-1))</f>
         <v>0.001041666667</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I6" s="33" t="str">
+      <c r="I6" s="34" t="str">
         <f>IF(ISREF(INDIRECT($B6&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B6&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B6&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
-        <v>0 months (0 years)</v>
-      </c>
-      <c r="J6" s="33">
+        <v>1 months (0.1 years)</v>
+      </c>
+      <c r="J6" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&lt;&gt;",AssociateHistoric!$B:$B,$B6,AssociateHistoric!$C:$C,"&gt;0")</f>
         <v>4999</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B6,AssociateHistoric!$C:$C,"&lt;0",AssociateHistoric!$D:$D,"&lt;=0")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="33" t="str">
+      <c r="L6" s="34" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M6" s="35" t="str">
+      <c r="M6" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N6" s="36" t="str">
+      <c r="N6" s="37" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6" s="39">
         <v>28694.0</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="S6" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="T6" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="U6" s="32">
+      <c r="U6" s="33">
         <v>78570.0</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="V6" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="32" t="s">
+      <c r="W6" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="32" t="s">
+      <c r="X6" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" s="32" t="s">
+      <c r="Y6" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="Z6" s="39" t="s">
+      <c r="Z6" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" s="32"/>
+      <c r="AA6" s="33"/>
     </row>
     <row r="7">
-      <c r="A7" s="32">
+      <c r="A7" s="33">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B7,AssociateHistoric!$D:$D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="35">
         <f>COUNTIFS(Historic!$A:$A,"&gt;="&amp;MIN(INDIRECT($B7&amp;"!$A:$A")),Historic!$D:$D,"BUY")</f>
         <v>1</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="36">
         <f t="array" ref="G7">IF(ROW()=2,MAX(Dashboard!$B$26,Dashboard!$B$57/12),INDEX(G:G,ROW()-1))</f>
         <v>0.001041666667</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I7" s="33" t="str">
+      <c r="I7" s="34" t="str">
         <f>IF(ISREF(INDIRECT($B7&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B7&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B7&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
-        <v>0 months (0 years)</v>
-      </c>
-      <c r="J7" s="33">
+        <v>1 months (0.1 years)</v>
+      </c>
+      <c r="J7" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&lt;&gt;",AssociateHistoric!$B:$B,$B7,AssociateHistoric!$C:$C,"&gt;0")</f>
         <v>4999</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="34">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B7,AssociateHistoric!$C:$C,"&lt;0",AssociateHistoric!$D:$D,"&lt;=0")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="33" t="str">
+      <c r="L7" s="34" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M7" s="35" t="str">
+      <c r="M7" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N7" s="36" t="str">
+      <c r="N7" s="37" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="39">
         <v>28781.0</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="S7" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="32" t="s">
+      <c r="T7" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="U7" s="32">
+      <c r="U7" s="33">
         <v>78570.0</v>
       </c>
-      <c r="V7" s="32" t="s">
+      <c r="V7" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="W7" s="32" t="s">
+      <c r="W7" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="X7" s="32" t="s">
+      <c r="X7" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="Y7" s="32" t="s">
+      <c r="Y7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="Z7" s="39" t="s">
+      <c r="Z7" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AA7" s="32"/>
+      <c r="AA7" s="33"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -36689,506 +36756,520 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="41">
+      <c r="A2" s="39">
+        <v>44166.0</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="34">
+        <v>-1500.0</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="39">
         <v>44170.0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C3" s="34">
         <v>-1000.0</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D3" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="38">
+    <row r="4">
+      <c r="A4" s="39">
         <v>44166.0</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C4" s="34">
         <v>-3000.0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D4" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="38">
+    <row r="5">
+      <c r="A5" s="39">
         <v>44162.0</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C5" s="34">
         <v>4999.0</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D5" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="38">
+    <row r="6">
+      <c r="A6" s="39">
         <v>44162.0</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C6" s="34">
         <v>4999.0</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D6" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="38">
+    <row r="7">
+      <c r="A7" s="39">
         <v>44158.0</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C7" s="34">
         <v>100.0</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D7" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="41">
+    <row r="8">
+      <c r="A8" s="39">
         <v>44140.0</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C8" s="34">
         <v>-1000.0</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D8" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="38">
+    <row r="9">
+      <c r="A9" s="39">
         <v>44131.0</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C9" s="34">
         <v>100.0</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D9" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="38">
+    <row r="10">
+      <c r="A10" s="39">
         <v>44116.0</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C10" s="34">
         <v>100.0</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D10" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="38">
+    <row r="11">
+      <c r="A11" s="39">
         <v>44115.0</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C11" s="34">
         <v>-300.0</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D11" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="38">
+    <row r="12">
+      <c r="A12" s="39">
         <v>44092.0</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C12" s="34">
         <v>40000.0</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D12" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="38">
+    <row r="13">
+      <c r="A13" s="39">
         <v>44091.0</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C13" s="34">
         <v>100.0</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D13" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="38">
+    <row r="14">
+      <c r="A14" s="39">
         <v>44054.0</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C14" s="34">
         <v>-300.0</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D14" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="38">
+    <row r="15">
+      <c r="A15" s="39">
         <v>44053.0</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C15" s="34">
         <v>-300.0</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D15" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="38">
+    <row r="16">
+      <c r="A16" s="39">
         <v>44048.0</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C16" s="34">
         <v>-1500.0</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D16" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="38">
+    <row r="17">
+      <c r="A17" s="39">
         <v>44046.0</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C17" s="34">
         <v>-2200.0</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D17" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="38">
+    <row r="18">
+      <c r="A18" s="39">
         <v>44035.0</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C18" s="34">
         <v>-500.0</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D18" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="38">
+    <row r="19">
+      <c r="A19" s="39">
         <v>44029.0</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C19" s="34">
         <v>-300.0</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D19" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="38">
+    <row r="20">
+      <c r="A20" s="39">
         <v>44014.0</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B20" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C20" s="34">
         <v>-300.0</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D20" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="38">
+    <row r="21">
+      <c r="A21" s="39">
         <v>44008.0</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B21" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C21" s="34">
         <v>3000.0</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D21" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="38">
+    <row r="22">
+      <c r="A22" s="39">
         <v>43990.0</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C22" s="34">
         <v>-300.0</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D22" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="38">
+    <row r="23">
+      <c r="A23" s="39">
         <v>43959.0</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B23" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C23" s="34">
         <v>-300.0</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D23" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="38">
+    <row r="24">
+      <c r="A24" s="39">
         <v>43935.0</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B24" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C24" s="34">
         <v>-300.0</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D24" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="38">
+    <row r="25">
+      <c r="A25" s="39">
         <v>43899.0</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B25" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C25" s="34">
         <v>-300.0</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D25" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="38">
+    <row r="26">
+      <c r="A26" s="39">
         <v>43871.0</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C26" s="34">
         <v>100.0</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D26" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="38">
+    <row r="27">
+      <c r="A27" s="39">
         <v>43850.0</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B27" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C27" s="34">
         <v>-1000.0</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D27" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="38">
+    <row r="28">
+      <c r="A28" s="39">
         <v>43844.0</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C28" s="34">
         <v>-434.68</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D28" s="34">
         <v>434.68</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="38">
+    <row r="29">
+      <c r="A29" s="39">
         <v>43804.0</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B29" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C29" s="34">
         <v>-700.0</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D29" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="38">
+    <row r="30">
+      <c r="A30" s="39">
         <v>43775.0</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C30" s="34">
         <v>-300.0</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D30" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="38">
+    <row r="31">
+      <c r="A31" s="39">
         <v>43756.0</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B31" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C31" s="34">
         <v>-150.0</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D31" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="38">
+    <row r="32">
+      <c r="A32" s="39">
         <v>43706.0</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B32" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C32" s="34">
         <v>-1000.0</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D32" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="38">
+    <row r="33">
+      <c r="A33" s="39">
         <v>43675.0</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B33" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C33" s="34">
         <v>100.0</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D33" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="38">
+    <row r="34">
+      <c r="A34" s="39">
         <v>43601.0</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B34" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C34" s="34">
         <v>-500.0</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D34" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="38">
+    <row r="35">
+      <c r="A35" s="39">
         <v>43474.0</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B35" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C35" s="34">
         <v>-1000.0</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D35" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="38">
+    <row r="36">
+      <c r="A36" s="39">
         <v>43444.0</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B36" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C36" s="34">
         <v>-1000.0</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D36" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="38">
+    <row r="37">
+      <c r="A37" s="39">
         <v>43395.0</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B37" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C37" s="34">
         <v>7000.0</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D37" s="34">
         <v>0.0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="38">
+    <row r="38">
+      <c r="A38" s="39">
         <v>43068.0</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C38" s="34">
         <v>10000.0</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D38" s="34">
         <v>0.0</v>
       </c>
     </row>
@@ -37317,8 +37398,8 @@
         <v>123</v>
       </c>
       <c r="B13" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""Au "" &amp; TO_TEXT(AllocationHistoric!A2) &amp; "", la capitalisation de l'entreprise est de "" &amp; TO_TEXT(AllocationHistoric!F2) &amp; "". J'en suis propriétaire de "" &amp; ROUNDUP(AllocationHistoric!B2/AllocationHistoric!F2*100,1) &amp; ""%, soit "" &amp; TO_TEXT(Allocation"&amp;"Historic!B2) &amp; "" dont "" &amp; TO_TEXT(-Dashboard!B30) &amp; "" de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ..."""),"Au 01/12/2020, la capitalisation de l'entreprise est de 1,282,377.52 €. J'en suis propriétaire de 29.9%, soit 383,352.10 € dont 70,632.89 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entrepr"&amp;"ises du CAC40, mais on s'en emproche ...")</f>
-        <v>Au 01/12/2020, la capitalisation de l'entreprise est de 1,282,377.52 €. J'en suis propriétaire de 29.9%, soit 383,352.10 € dont 70,632.89 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""Au "" &amp; TO_TEXT(AllocationHistoric!A2) &amp; "", la capitalisation de l'entreprise est de "" &amp; TO_TEXT(AllocationHistoric!F2) &amp; "". J'en suis propriétaire de "" &amp; ROUNDUP(AllocationHistoric!B2/AllocationHistoric!F2*100,1) &amp; ""%, soit "" &amp; TO_TEXT(Allocation"&amp;"Historic!B2) &amp; "" dont "" &amp; TO_TEXT(-Dashboard!B30) &amp; "" de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ..."""),"Au 01/12/2020, la capitalisation de l'entreprise est de 1,282,377.52 €. J'en suis propriétaire de 29.9%, soit 383,352.10 € dont 69,132.89 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entrepr"&amp;"ises du CAC40, mais on s'en emproche ...")</f>
+        <v>Au 01/12/2020, la capitalisation de l'entreprise est de 1,282,377.52 €. J'en suis propriétaire de 29.9%, soit 383,352.10 € dont 69,132.89 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ...</v>
       </c>
     </row>
     <row r="14">
@@ -37422,8 +37503,8 @@
         <v>148</v>
       </c>
       <c r="B26" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""En date du "" &amp; TO_TEXT(DateTime!$B$6)&amp;""/""&amp;TO_TEXT(DateTime!$B$5)&amp;""/""&amp;TO_TEXT(DateTime!$B$4) &amp; "", "" &amp; COUNT(Associate!$A:$A)-1 &amp; "" personnes. Plus moi, "" &amp; COUNT(Associate!$A:$A) &amp; "" :-)"""),"En date du 1/12/2020, 5 personnes. Plus moi, 6 :-)")</f>
-        <v>En date du 1/12/2020, 5 personnes. Plus moi, 6 :-)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""En date du "" &amp; TO_TEXT(DateTime!$B$6)&amp;""/""&amp;TO_TEXT(DateTime!$B$5)&amp;""/""&amp;TO_TEXT(DateTime!$B$4) &amp; "", "" &amp; COUNT(Associate!$A:$A)-1 &amp; "" personnes. Plus moi, "" &amp; COUNT(Associate!$A:$A) &amp; "" :-)"""),"En date du 2/12/2020, 5 personnes. Plus moi, 6 :-)")</f>
+        <v>En date du 2/12/2020, 5 personnes. Plus moi, 6 :-)</v>
       </c>
     </row>
     <row r="27">
@@ -37647,23 +37728,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51" t="s">
         <v>197</v>
       </c>
       <c r="D2" s="51"/>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="51" t="s">
         <v>199</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -37680,7 +37761,7 @@
       <c r="C4" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="51" t="s">
         <v>203</v>
       </c>
     </row>
@@ -37694,7 +37775,7 @@
       <c r="C5" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="51" t="s">
         <v>207</v>
       </c>
     </row>
@@ -37706,7 +37787,7 @@
       <c r="C6" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="51"/>
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
@@ -37716,7 +37797,7 @@
       <c r="C7" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="51"/>
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
@@ -37726,7 +37807,7 @@
       <c r="C8" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="51"/>
     </row>
     <row r="9">
       <c r="A9" s="52" t="s">
@@ -37738,7 +37819,7 @@
       <c r="C9" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="51" t="s">
         <v>216</v>
       </c>
     </row>
@@ -37774,13 +37855,13 @@
       <c r="A12" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="51" t="s">
         <v>226</v>
       </c>
     </row>
@@ -37788,13 +37869,13 @@
       <c r="A13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="51" t="s">
         <v>229</v>
       </c>
     </row>
@@ -37802,13 +37883,13 @@
       <c r="A14" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="51" t="s">
         <v>232</v>
       </c>
     </row>
@@ -37816,13 +37897,13 @@
       <c r="A15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="51" t="s">
         <v>235</v>
       </c>
     </row>
@@ -37830,13 +37911,13 @@
       <c r="A16" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="51" t="s">
         <v>238</v>
       </c>
     </row>
@@ -37844,13 +37925,13 @@
       <c r="A17" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="51" t="s">
         <v>241</v>
       </c>
     </row>
@@ -37858,10 +37939,10 @@
       <c r="A18" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="51" t="s">
         <v>243</v>
       </c>
       <c r="D18" s="54" t="s">
@@ -37872,58 +37953,58 @@
       <c r="A19" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="51"/>
     </row>
     <row r="20">
       <c r="A20" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="51"/>
     </row>
     <row r="21">
       <c r="A21" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="51"/>
     </row>
     <row r="22">
       <c r="A22" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="D22" s="32"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23">
       <c r="A23" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51" t="s">
         <v>248</v>
       </c>
       <c r="D23" s="57"/>
     </row>
     <row r="24">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51" t="s">
         <v>249</v>
       </c>
       <c r="D24" s="57"/>
@@ -37932,8 +38013,8 @@
       <c r="A25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51" t="s">
         <v>250</v>
       </c>
       <c r="D25" s="57"/>
@@ -37942,8 +38023,8 @@
       <c r="A26" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51" t="s">
         <v>251</v>
       </c>
       <c r="D26" s="57"/>
@@ -37952,13 +38033,13 @@
       <c r="A27" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="59" t="s">
         <v>253</v>
       </c>
     </row>
@@ -37966,13 +38047,13 @@
       <c r="A28" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="59" t="s">
         <v>256</v>
       </c>
     </row>
@@ -37980,10 +38061,10 @@
       <c r="A29" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="51" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="51" t="s">
@@ -38008,13 +38089,13 @@
       <c r="A31" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="51" t="s">
         <v>264</v>
       </c>
     </row>
@@ -38022,13 +38103,13 @@
       <c r="A32" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="51" t="s">
         <v>266</v>
       </c>
     </row>
@@ -38050,13 +38131,13 @@
       <c r="A34" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="51" t="s">
         <v>273</v>
       </c>
     </row>
@@ -38064,13 +38145,13 @@
       <c r="A35" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="51" t="s">
         <v>277</v>
       </c>
     </row>
@@ -38078,13 +38159,13 @@
       <c r="A36" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="51" t="s">
         <v>281</v>
       </c>
     </row>
@@ -38092,13 +38173,13 @@
       <c r="A37" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="51" t="s">
         <v>285</v>
       </c>
     </row>
@@ -38106,13 +38187,13 @@
       <c r="A38" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="51" t="s">
         <v>289</v>
       </c>
     </row>
@@ -38120,13 +38201,13 @@
       <c r="A39" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="51" t="s">
         <v>292</v>
       </c>
     </row>
@@ -38134,13 +38215,13 @@
       <c r="A40" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="51" t="s">
         <v>296</v>
       </c>
     </row>
@@ -38148,13 +38229,13 @@
       <c r="A41" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="51" t="s">
         <v>299</v>
       </c>
     </row>
@@ -38162,13 +38243,13 @@
       <c r="A42" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="51" t="s">
         <v>302</v>
       </c>
     </row>
@@ -38176,13 +38257,13 @@
       <c r="A43" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="51" t="s">
         <v>306</v>
       </c>
     </row>
@@ -38190,10 +38271,10 @@
       <c r="A44" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="51" t="s">
         <v>307</v>
       </c>
       <c r="D44" s="51" t="s">
@@ -38204,13 +38285,13 @@
       <c r="A45" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="51" t="s">
         <v>311</v>
       </c>
     </row>
@@ -38218,11 +38299,11 @@
       <c r="A46" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32" t="s">
+      <c r="B46" s="51"/>
+      <c r="C46" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="D46" s="32"/>
+      <c r="D46" s="51"/>
     </row>
     <row r="47">
       <c r="A47" s="52" t="s">
@@ -38232,7 +38313,7 @@
       <c r="C47" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="D47" s="32"/>
+      <c r="D47" s="51"/>
     </row>
     <row r="48">
       <c r="A48" s="52" t="s">
@@ -38242,50 +38323,50 @@
       <c r="C48" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="51"/>
     </row>
     <row r="49">
       <c r="A49" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32" t="s">
+      <c r="B49" s="51"/>
+      <c r="C49" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="51"/>
     </row>
     <row r="50">
       <c r="A50" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32" t="s">
+      <c r="B50" s="51"/>
+      <c r="C50" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="D50" s="32"/>
+      <c r="D50" s="51"/>
     </row>
     <row r="51">
       <c r="A51" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32" t="s">
+      <c r="B51" s="51"/>
+      <c r="C51" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="D51" s="32"/>
+      <c r="D51" s="51"/>
     </row>
     <row r="52">
       <c r="A52" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32" t="s">
+      <c r="B52" s="51"/>
+      <c r="C52" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="D52" s="32"/>
+      <c r="D52" s="51"/>
     </row>
     <row r="53">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="51" t="s">
         <v>326</v>
       </c>
       <c r="B53" s="52" t="s">
@@ -38294,7 +38375,7 @@
       <c r="C53" s="52" t="s">
         <v>328</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="51" t="s">
         <v>329</v>
       </c>
     </row>
@@ -38305,10 +38386,10 @@
       <c r="B54" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="51" t="s">
         <v>329</v>
       </c>
     </row>
@@ -38319,10 +38400,10 @@
       <c r="B55" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="51" t="s">
         <v>329</v>
       </c>
     </row>
@@ -38330,144 +38411,144 @@
       <c r="A56" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32" t="s">
+      <c r="B56" s="51"/>
+      <c r="C56" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="D56" s="32"/>
+      <c r="D56" s="51"/>
     </row>
     <row r="57">
       <c r="A57" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32" t="s">
+      <c r="B57" s="51"/>
+      <c r="C57" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="D57" s="32"/>
+      <c r="D57" s="51"/>
     </row>
     <row r="58">
       <c r="A58" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32" t="s">
+      <c r="B58" s="51"/>
+      <c r="C58" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="D58" s="32"/>
+      <c r="D58" s="51"/>
     </row>
     <row r="59">
       <c r="A59" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32" t="s">
+      <c r="B59" s="51"/>
+      <c r="C59" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="D59" s="32"/>
+      <c r="D59" s="51"/>
     </row>
     <row r="60">
       <c r="A60" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32" t="s">
+      <c r="B60" s="51"/>
+      <c r="C60" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="D60" s="32"/>
+      <c r="D60" s="51"/>
     </row>
     <row r="61">
       <c r="A61" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32" t="s">
+      <c r="B61" s="51"/>
+      <c r="C61" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="D61" s="32"/>
+      <c r="D61" s="51"/>
     </row>
     <row r="62">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32" t="s">
+      <c r="B62" s="51"/>
+      <c r="C62" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="D62" s="32"/>
+      <c r="D62" s="51"/>
     </row>
     <row r="63">
       <c r="A63" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32" t="s">
+      <c r="B63" s="51"/>
+      <c r="C63" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="D63" s="32"/>
+      <c r="D63" s="51"/>
     </row>
     <row r="64">
       <c r="A64" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32" t="s">
+      <c r="B64" s="51"/>
+      <c r="C64" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="D64" s="32"/>
+      <c r="D64" s="51"/>
     </row>
     <row r="65">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="51" t="s">
         <v>352</v>
       </c>
       <c r="B65" s="52"/>
       <c r="C65" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="D65" s="32"/>
+      <c r="D65" s="51"/>
     </row>
     <row r="66">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="51" t="s">
         <v>354</v>
       </c>
       <c r="B66" s="52"/>
       <c r="C66" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="D66" s="32"/>
+      <c r="D66" s="51"/>
     </row>
     <row r="67">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="51" t="s">
         <v>356</v>
       </c>
       <c r="B67" s="52"/>
       <c r="C67" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="D67" s="32"/>
+      <c r="D67" s="51"/>
     </row>
     <row r="68">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="51" t="s">
         <v>357</v>
       </c>
       <c r="B68" s="52"/>
       <c r="C68" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="D68" s="32"/>
+      <c r="D68" s="51"/>
     </row>
     <row r="69">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="51" t="s">
         <v>359</v>
       </c>
       <c r="B69" s="52"/>
       <c r="C69" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="D69" s="32"/>
+      <c r="D69" s="51"/>
     </row>
     <row r="70">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="51" t="s">
         <v>361</v>
       </c>
       <c r="B70" s="52" t="s">
@@ -38476,12 +38557,12 @@
       <c r="C70" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" s="51" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="51" t="s">
         <v>365</v>
       </c>
       <c r="B71" s="52" t="s">
@@ -38490,29 +38571,87 @@
       <c r="C71" s="52" t="s">
         <v>361</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="51" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="51" t="s">
         <v>368</v>
       </c>
       <c r="B72" s="52"/>
       <c r="C72" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="D72" s="32"/>
+      <c r="D72" s="51"/>
     </row>
     <row r="73">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="51" t="s">
         <v>370</v>
       </c>
       <c r="B73" s="52"/>
       <c r="C73" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="D73" s="32"/>
+      <c r="D73" s="51"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="B74" s="52"/>
+      <c r="C74" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="D74" s="59" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D75" s="59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="D76" s="51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="61" t="s">
+        <v>381</v>
+      </c>
+      <c r="B77" s="52"/>
+      <c r="C77" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" s="62" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="B78" s="52"/>
+      <c r="C78" s="51" t="s">
+        <v>385</v>
+      </c>
+      <c r="D78" s="63"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -38538,1803 +38677,1803 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="58" t="s">
-        <v>372</v>
+      <c r="O1" s="64" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="59">
+      <c r="A2" s="65">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="66">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
-        <v>-4000</v>
-      </c>
-      <c r="C2" s="60">
+        <v>-5500</v>
+      </c>
+      <c r="C2" s="66">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="66">
         <f>$B2-$C2</f>
-        <v>-4000</v>
-      </c>
-      <c r="E2" s="60">
+        <v>-5500</v>
+      </c>
+      <c r="E2" s="66">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
-        <v>2450</v>
-      </c>
-      <c r="F2" s="61">
+        <v>950</v>
+      </c>
+      <c r="F2" s="67">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="67">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.7360828898</v>
       </c>
-      <c r="H2" s="61">
+      <c r="H2" s="67">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A38)*12,0)</f>
         <v>0.2453609633</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="66">
         <f>MAX($L2,$M2)-$E2-SUM($I3:$I38)</f>
         <v>596.982136</v>
       </c>
-      <c r="J2" s="60">
+      <c r="J2" s="66">
         <f>$N2-$E2</f>
         <v>12048.70056</v>
       </c>
-      <c r="K2" s="60">
+      <c r="K2" s="66">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-241.2682864</v>
       </c>
-      <c r="L2" s="60">
+      <c r="L2" s="66">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
-        <v>2886.25</v>
-      </c>
-      <c r="M2" s="60">
+        <v>1386.25</v>
+      </c>
+      <c r="M2" s="66">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
-        <v>14739.96884</v>
-      </c>
-      <c r="N2" s="62">
+        <v>13239.96884</v>
+      </c>
+      <c r="N2" s="68">
         <f>MAX($M2,$L2)+$K2</f>
-        <v>14498.70056</v>
-      </c>
-      <c r="O2" s="63" t="str">
+        <v>12998.70056</v>
+      </c>
+      <c r="O2" s="69" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"Bloopsy",INDEX(O:O,ROW()-1))</f>
         <v>Bloopsy</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="59">
+      <c r="A3" s="65">
         <v>44136.0</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="66">
         <v>-1000.0</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="66">
         <v>0.0</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="66">
         <v>-1000.0</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="66">
         <v>6450.0</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="67">
         <v>-0.016432831295333683</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="67">
         <v>0.703178597556773</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="67">
         <v>0.24108980487660792</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="66">
         <v>-319.8291698477624</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="66">
         <v>11484.552438769417</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="66">
         <v>-208.4342689230876</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="66">
         <v>6879.53124999999</v>
       </c>
-      <c r="M3" s="60">
+      <c r="M3" s="66">
         <v>18142.986707692504</v>
       </c>
-      <c r="N3" s="62">
+      <c r="N3" s="68">
         <v>17934.552438769417</v>
       </c>
-      <c r="O3" s="63" t="s">
+      <c r="O3" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="59">
+      <c r="A4" s="65">
         <v>44105.0</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="66">
         <v>-300.0</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="66">
         <v>0.0</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="66">
         <v>-300.0</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="66">
         <v>7450.0</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="67">
         <v>-0.0030358834822477613</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="67">
         <v>0.7196114288521067</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="67">
         <v>0.25398050430074354</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="66">
         <v>-60.18030668434949</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="66">
         <v>11786.79100427555</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="66">
         <v>-226.02487326471453</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="66">
         <v>7871.770833333323</v>
       </c>
-      <c r="M4" s="60">
+      <c r="M4" s="66">
         <v>19462.815877540266</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="68">
         <v>19236.79100427555</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="59">
+      <c r="A5" s="65">
         <v>44075.0</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="66">
         <v>0.0</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="66">
         <v>0.0</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="66">
         <v>0.0</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="66">
         <v>7750.0</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="67">
         <v>0.0695011442271417</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="67">
         <v>0.7226473123343545</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="67">
         <v>0.2627808408488562</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="66">
         <v>1288.1902223764919</v>
       </c>
-      <c r="J5" s="60">
+      <c r="J5" s="66">
         <v>11843.661394092262</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="66">
         <v>-229.33479013235376</v>
       </c>
-      <c r="L5" s="60">
+      <c r="L5" s="66">
         <v>8163.697916666656</v>
       </c>
-      <c r="M5" s="60">
+      <c r="M5" s="66">
         <v>19822.996184224616</v>
       </c>
-      <c r="N5" s="62">
+      <c r="N5" s="68">
         <v>19593.66139409226</v>
       </c>
-      <c r="O5" s="63" t="s">
+      <c r="O5" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="59">
+      <c r="A6" s="65">
         <v>44044.0</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="66">
         <v>-2400.0</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="66">
         <v>0.0</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="66">
         <v>-2400.0</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="66">
         <v>7750.0</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="67">
         <v>-0.0011851593150153932</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="67">
         <v>0.6531461681072128</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="67">
         <v>0.2449298130402048</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="66">
         <v>-22.85900518998824</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="66">
         <v>10626.321633946478</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="66">
         <v>-158.4843279016467</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="66">
         <v>8155.624999999989</v>
       </c>
-      <c r="M6" s="60">
+      <c r="M6" s="66">
         <v>18534.805961848124</v>
       </c>
-      <c r="N6" s="62">
+      <c r="N6" s="68">
         <v>18376.321633946478</v>
       </c>
-      <c r="O6" s="63" t="s">
+      <c r="O6" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="59">
+      <c r="A7" s="65">
         <v>44013.0</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="66">
         <v>1900.0</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="66">
         <v>1900.0</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="66">
         <v>0.0</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="66">
         <v>10150.0</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="67">
         <v>0.01670595001387467</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="67">
         <v>0.6543313274222282</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="67">
         <v>0.25328954609892707</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="66">
         <v>344.36476283245065</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="66">
         <v>10647.923393851015</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="66">
         <v>-159.74157318709607</v>
       </c>
-      <c r="L7" s="60">
+      <c r="L7" s="66">
         <v>10543.072916666655</v>
       </c>
-      <c r="M7" s="60">
+      <c r="M7" s="66">
         <v>20957.664967038112</v>
       </c>
-      <c r="N7" s="62">
+      <c r="N7" s="68">
         <v>20797.923393851015</v>
       </c>
-      <c r="O7" s="63" t="s">
+      <c r="O7" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="59">
+      <c r="A8" s="65">
         <v>43983.0</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="66">
         <v>-300.0</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="66">
         <v>0.0</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="66">
         <v>-300.0</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="66">
         <v>10150.0</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="67">
         <v>-0.00659387295460559</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="67">
         <v>0.6376253774083536</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="67">
         <v>0.25505015096334144</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="66">
         <v>-138.8149729035831</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="66">
         <v>10322.49869297435</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="66">
         <v>-140.80151123131128</v>
       </c>
-      <c r="L8" s="60">
+      <c r="L8" s="66">
         <v>10532.499999999989</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="66">
         <v>20613.30020420566</v>
       </c>
-      <c r="N8" s="62">
+      <c r="N8" s="68">
         <v>20472.49869297435</v>
       </c>
-      <c r="O8" s="63" t="s">
+      <c r="O8" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="59">
+      <c r="A9" s="65">
         <v>43952.0</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="66">
         <v>-300.0</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="66">
         <v>0.0</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="66">
         <v>-300.0</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="66">
         <v>10450.0</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="67">
         <v>0.17167870410952307</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="67">
         <v>0.6442192503629591</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="67">
         <v>0.26657348290881067</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="66">
         <v>3128.591012831741</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="66">
         <v>10453.678842368237</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="66">
         <v>-148.43633474100835</v>
       </c>
-      <c r="L9" s="60">
+      <c r="L9" s="66">
         <v>10821.614583333323</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="66">
         <v>21052.115177109245</v>
       </c>
-      <c r="N9" s="62">
+      <c r="N9" s="68">
         <v>20903.678842368237</v>
       </c>
-      <c r="O9" s="63" t="s">
+      <c r="O9" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="59">
+      <c r="A10" s="65">
         <v>43922.0</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="66">
         <v>-300.0</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="66">
         <v>0.0</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="66">
         <v>-300.0</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="66">
         <v>10750.0</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="67">
         <v>-0.09031985768405248</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="67">
         <v>0.4725405462534361</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="67">
         <v>0.20251737696575833</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="66">
         <v>-1839.1542131119495</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="66">
         <v>7497.160335242243</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="66">
         <v>23.63617096473739</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L10" s="66">
         <v>11110.416666666657</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="66">
         <v>18223.524164277504</v>
       </c>
-      <c r="N10" s="62">
+      <c r="N10" s="68">
         <v>18247.160335242243</v>
       </c>
-      <c r="O10" s="63" t="s">
+      <c r="O10" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="59">
+      <c r="A11" s="65">
         <v>43891.0</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="66">
         <v>-300.0</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="66">
         <v>0.0</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="66">
         <v>-300.0</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="66">
         <v>11050.0</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="67">
         <v>-6.988944889106389E-4</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="67">
         <v>0.5628604039374886</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="67">
         <v>0.2501601795277727</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="66">
         <v>-14.451131860507303</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="66">
         <v>9235.161066633034</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="66">
         <v>-77.51731075641983</v>
       </c>
-      <c r="L11" s="60">
+      <c r="L11" s="66">
         <v>11398.90624999999</v>
       </c>
-      <c r="M11" s="60">
+      <c r="M11" s="66">
         <v>20362.678377389453</v>
       </c>
-      <c r="N11" s="62">
+      <c r="N11" s="68">
         <v>20285.161066633034</v>
       </c>
-      <c r="O11" s="63" t="s">
+      <c r="O11" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="59">
+      <c r="A12" s="65">
         <v>43862.0</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="66">
         <v>0.0</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="66">
         <v>0.0</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="66">
         <v>0.0</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="66">
         <v>11350.0</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="67">
         <v>-0.013571483773815925</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="67">
         <v>0.5635592984263992</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="67">
         <v>0.260104291581415</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="66">
         <v>-284.48014529978536</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="66">
         <v>9248.817386241211</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="66">
         <v>-78.31212300874773</v>
       </c>
-      <c r="L12" s="60">
+      <c r="L12" s="66">
         <v>11687.083333333325</v>
       </c>
-      <c r="M12" s="60">
+      <c r="M12" s="66">
         <v>20677.12950924996</v>
       </c>
-      <c r="N12" s="62">
+      <c r="N12" s="68">
         <v>20598.81738624121</v>
       </c>
-      <c r="O12" s="63" t="s">
+      <c r="O12" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="59">
+      <c r="A13" s="65">
         <v>43831.0</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="66">
         <v>-1000.0</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="66">
         <v>0.0</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="66">
         <v>-1000.0</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="66">
         <v>11350.0</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="67">
         <v>0.06953970791992178</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="67">
         <v>0.5771307822002151</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="67">
         <v>0.27702277545610327</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="66">
         <v>1427.907640567064</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="66">
         <v>9082.971123549509</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="66">
         <v>-528.638531000236</v>
       </c>
-      <c r="L13" s="60">
+      <c r="L13" s="66">
         <v>11675.260416666659</v>
       </c>
-      <c r="M13" s="60">
+      <c r="M13" s="66">
         <v>20961.609654549746</v>
       </c>
-      <c r="N13" s="62">
+      <c r="N13" s="68">
         <v>20432.97112354951</v>
       </c>
-      <c r="O13" s="63" t="s">
+      <c r="O13" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="59">
+      <c r="A14" s="65">
         <v>43800.0</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="66">
         <v>-700.0</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="66">
         <v>0.0</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="66">
         <v>-700.0</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="66">
         <v>12350.0</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="67">
         <v>0.02764486097227171</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="67">
         <v>0.5075910742802933</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="67">
         <v>0.25379553714014663</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="66">
         <v>571.2116728222863</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="66">
         <v>7733.598403213633</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="66">
         <v>-450.10361076904746</v>
       </c>
-      <c r="L14" s="60">
+      <c r="L14" s="66">
         <v>12662.395833333325</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="66">
         <v>20533.702013982682</v>
       </c>
-      <c r="N14" s="62">
+      <c r="N14" s="68">
         <v>20083.598403213633</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="O14" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="59">
+      <c r="A15" s="65">
         <v>43770.0</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="66">
         <v>-300.0</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="66">
         <v>0.0</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="66">
         <v>-300.0</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="66">
         <v>13050.0</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="67">
         <v>-0.031204251937763165</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="67">
         <v>0.4799462133080215</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="67">
         <v>0.25040671998679387</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="66">
         <v>-675.1875523368581</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="66">
         <v>7193.803372396575</v>
       </c>
-      <c r="K15" s="60">
+      <c r="K15" s="66">
         <v>-418.6869687638217</v>
       </c>
-      <c r="L15" s="60">
+      <c r="L15" s="66">
         <v>13348.802083333325</v>
       </c>
-      <c r="M15" s="60">
+      <c r="M15" s="66">
         <v>20662.490341160395</v>
       </c>
-      <c r="N15" s="62">
+      <c r="N15" s="68">
         <v>20243.803372396575</v>
       </c>
-      <c r="O15" s="63" t="s">
+      <c r="O15" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="59">
+      <c r="A16" s="65">
         <v>43739.0</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="66">
         <v>-150.0</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="66">
         <v>0.0</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="66">
         <v>-150.0</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="66">
         <v>13350.0</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="67">
         <v>-0.0017577640676155197</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="67">
         <v>0.5111504652457847</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="67">
         <v>0.2788093446795189</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="66">
         <v>-38.36503399618232</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="66">
         <v>7831.855609354905</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="66">
         <v>-455.8222841423489</v>
       </c>
-      <c r="L16" s="60">
+      <c r="L16" s="66">
         <v>13634.895833333325</v>
       </c>
-      <c r="M16" s="60">
+      <c r="M16" s="66">
         <v>21637.677893497254</v>
       </c>
-      <c r="N16" s="62">
+      <c r="N16" s="68">
         <v>21181.855609354905</v>
       </c>
-      <c r="O16" s="63" t="s">
+      <c r="O16" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="59">
+      <c r="A17" s="65">
         <v>43709.0</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="66">
         <v>0.0</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="66">
         <v>0.0</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="66">
         <v>0.0</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="66">
         <v>13500.0</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="67">
         <v>0.09663855056374034</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="67">
         <v>0.5129082293134002</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="67">
         <v>0.2930904167505144</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="66">
         <v>1923.3658637758672</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="66">
         <v>7868.110566481297</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="66">
         <v>-457.9323610121389</v>
       </c>
-      <c r="L17" s="60">
+      <c r="L17" s="66">
         <v>13770.833333333325</v>
       </c>
-      <c r="M17" s="60">
+      <c r="M17" s="66">
         <v>21826.042927493436</v>
       </c>
-      <c r="N17" s="62">
+      <c r="N17" s="68">
         <v>21368.110566481297</v>
       </c>
-      <c r="O17" s="63" t="s">
+      <c r="O17" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="59">
+      <c r="A18" s="65">
         <v>43678.0</v>
       </c>
-      <c r="B18" s="60">
+      <c r="B18" s="66">
         <v>-1000.0</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="66">
         <v>0.0</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="66">
         <v>-1000.0</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="66">
         <v>13500.0</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="67">
         <v>0.07804921004485675</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="67">
         <v>0.4162696787496598</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="67">
         <v>0.2497618072497959</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="66">
         <v>1513.323712354486</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="66">
         <v>6050.529825213103</v>
       </c>
-      <c r="K18" s="60">
+      <c r="K18" s="66">
         <v>-352.14723850446626</v>
       </c>
-      <c r="L18" s="60">
+      <c r="L18" s="66">
         <v>13756.770833333325</v>
       </c>
-      <c r="M18" s="60">
+      <c r="M18" s="66">
         <v>19902.67706371757</v>
       </c>
-      <c r="N18" s="62">
+      <c r="N18" s="68">
         <v>19550.529825213103</v>
       </c>
-      <c r="O18" s="63" t="s">
+      <c r="O18" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="59">
+      <c r="A19" s="65">
         <v>43647.0</v>
       </c>
-      <c r="B19" s="60">
+      <c r="B19" s="66">
         <v>0.0</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="66">
         <v>0.0</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="66">
         <v>0.0</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="66">
         <v>14500.0</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="67">
         <v>0.05571063566313939</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="67">
         <v>0.33822046870480305</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="67">
         <v>0.21361292760303352</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="66">
         <v>1023.1906014882006</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="66">
         <v>4620.438917038115</v>
       </c>
-      <c r="K19" s="60">
+      <c r="K19" s="66">
         <v>-268.91443432496953</v>
       </c>
-      <c r="L19" s="60">
+      <c r="L19" s="66">
         <v>14741.666666666659</v>
       </c>
-      <c r="M19" s="60">
+      <c r="M19" s="66">
         <v>19389.353351363083</v>
       </c>
-      <c r="N19" s="62">
+      <c r="N19" s="68">
         <v>19120.438917038115</v>
       </c>
-      <c r="O19" s="63" t="s">
+      <c r="O19" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="59">
+      <c r="A20" s="65">
         <v>43617.0</v>
       </c>
-      <c r="B20" s="60">
+      <c r="B20" s="66">
         <v>0.0</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="66">
         <v>0.0</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="66">
         <v>0.0</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="66">
         <v>14500.0</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="67">
         <v>0.03999771844904346</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="67">
         <v>0.28250983304166366</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="67">
         <v>0.18833988869444246</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="66">
         <v>706.3521329203759</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="66">
         <v>3653.5237986317625</v>
       </c>
-      <c r="K20" s="60">
+      <c r="K20" s="66">
         <v>-212.63895124311853</v>
       </c>
-      <c r="L20" s="60">
+      <c r="L20" s="66">
         <v>14726.562499999993</v>
       </c>
-      <c r="M20" s="60">
+      <c r="M20" s="66">
         <v>18366.162749874882</v>
       </c>
-      <c r="N20" s="62">
+      <c r="N20" s="68">
         <v>18153.523798631762</v>
       </c>
-      <c r="O20" s="63" t="s">
+      <c r="O20" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="59">
+      <c r="A21" s="65">
         <v>43586.0</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="66">
         <v>-500.0</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="66">
         <v>0.0</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="66">
         <v>-500.0</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="66">
         <v>14500.0</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="67">
         <v>0.026231385182183264</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="67">
         <v>0.24251211459262018</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="67">
         <v>0.17118502206537894</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="66">
         <v>464.18087967975225</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="66">
         <v>2986.021033022007</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="66">
         <v>-173.78958393249786</v>
       </c>
-      <c r="L21" s="60">
+      <c r="L21" s="66">
         <v>14711.458333333327</v>
       </c>
-      <c r="M21" s="60">
+      <c r="M21" s="66">
         <v>17659.810616954506</v>
       </c>
-      <c r="N21" s="62">
+      <c r="N21" s="68">
         <v>17486.021033022007</v>
       </c>
-      <c r="O21" s="63" t="s">
+      <c r="O21" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="59">
+      <c r="A22" s="65">
         <v>43556.0</v>
       </c>
-      <c r="B22" s="60">
+      <c r="B22" s="66">
         <v>0.0</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="66">
         <v>0.0</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="66">
         <v>0.0</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="66">
         <v>15000.0</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="67">
         <v>0.10199738482836891</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="67">
         <v>0.2162807294104369</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="67">
         <v>0.16221054705782767</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="66">
         <v>1637.8513968744555</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="66">
         <v>2547.370101724642</v>
       </c>
-      <c r="K22" s="60">
+      <c r="K22" s="66">
         <v>-148.25963555011148</v>
       </c>
-      <c r="L22" s="60">
+      <c r="L22" s="66">
         <v>15195.833333333327</v>
       </c>
-      <c r="M22" s="60">
+      <c r="M22" s="66">
         <v>17695.629737274754</v>
       </c>
-      <c r="N22" s="62">
+      <c r="N22" s="68">
         <v>17547.370101724642</v>
       </c>
-      <c r="O22" s="63" t="s">
+      <c r="O22" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="59">
+      <c r="A23" s="65">
         <v>43525.0</v>
       </c>
-      <c r="B23" s="60">
+      <c r="B23" s="66">
         <v>0.0</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="66">
         <v>0.0</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="66">
         <v>0.0</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="66">
         <v>15000.0</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="67">
         <v>0.03449682927674902</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="67">
         <v>0.11428334458206801</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="67">
         <v>0.09142667566565442</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="66">
         <v>535.4704067676521</v>
       </c>
-      <c r="J23" s="60">
+      <c r="J23" s="66">
         <v>999.6005316782812</v>
       </c>
-      <c r="K23" s="60">
+      <c r="K23" s="66">
         <v>-58.17780872201642</v>
       </c>
-      <c r="L23" s="60">
+      <c r="L23" s="66">
         <v>15180.208333333327</v>
       </c>
-      <c r="M23" s="60">
+      <c r="M23" s="66">
         <v>16057.778340400298</v>
       </c>
-      <c r="N23" s="62">
+      <c r="N23" s="68">
         <v>15999.600531678281</v>
       </c>
-      <c r="O23" s="63" t="s">
+      <c r="O23" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="59">
+      <c r="A24" s="65">
         <v>43497.0</v>
       </c>
-      <c r="B24" s="60">
+      <c r="B24" s="66">
         <v>0.0</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="66">
         <v>0.0</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="66">
         <v>0.0</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="66">
         <v>15000.0</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="67">
         <v>0.04107233145116107</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24" s="67">
         <v>0.079786515305319</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H24" s="67">
         <v>0.06838844169027342</v>
       </c>
-      <c r="I24" s="60">
+      <c r="I24" s="66">
         <v>373.3496002993197</v>
       </c>
-      <c r="J24" s="60">
+      <c r="J24" s="66">
         <v>493.58099728285015</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K24" s="66">
         <v>-28.726936349795555</v>
       </c>
-      <c r="L24" s="60">
+      <c r="L24" s="66">
         <v>15164.583333333327</v>
       </c>
-      <c r="M24" s="60">
+      <c r="M24" s="66">
         <v>15522.307933632646</v>
       </c>
-      <c r="N24" s="62">
+      <c r="N24" s="68">
         <v>15493.58099728285</v>
       </c>
-      <c r="O24" s="63" t="s">
+      <c r="O24" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="59">
+      <c r="A25" s="65">
         <v>43466.0</v>
       </c>
-      <c r="B25" s="60">
+      <c r="B25" s="66">
         <v>-1000.0</v>
       </c>
-      <c r="C25" s="60">
+      <c r="C25" s="66">
         <v>0.0</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="66">
         <v>-1000.0</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="66">
         <v>15000.0</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="67">
         <v>-0.024314741161841652</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="67">
         <v>0.038714183854157924</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="67">
         <v>0.035736169711530395</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="66">
         <v>-157.4504235641234</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="66">
         <v>140.76562499999454</v>
       </c>
-      <c r="K25" s="60">
+      <c r="K25" s="66">
         <v>-8.19270833333297</v>
       </c>
-      <c r="L25" s="60">
+      <c r="L25" s="66">
         <v>15148.958333333327</v>
       </c>
-      <c r="M25" s="60">
+      <c r="M25" s="66">
         <v>14909.9226486943</v>
       </c>
-      <c r="N25" s="62">
+      <c r="N25" s="68">
         <v>15140.765624999995</v>
       </c>
-      <c r="O25" s="63" t="s">
+      <c r="O25" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="59">
+      <c r="A26" s="65">
         <v>43435.0</v>
       </c>
-      <c r="B26" s="60">
+      <c r="B26" s="66">
         <v>6000.0</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="66">
         <v>0.0</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="66">
         <v>6000.0</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="66">
         <v>16000.0</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="67">
         <v>0.059176449934818486</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="67">
         <v>0.06302892501599958</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="67">
         <v>0.06302892501599958</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="66">
         <v>191.8254235641234</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="66">
         <v>289.55627526809076</v>
       </c>
-      <c r="K26" s="60">
+      <c r="K26" s="66">
         <v>-16.852481629359758</v>
       </c>
-      <c r="L26" s="60">
+      <c r="L26" s="66">
         <v>16132.29166666666</v>
       </c>
-      <c r="M26" s="60">
+      <c r="M26" s="66">
         <v>16306.40875689745</v>
       </c>
-      <c r="N26" s="62">
+      <c r="N26" s="68">
         <v>16289.55627526809</v>
       </c>
-      <c r="O26" s="63" t="s">
+      <c r="O26" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="59">
+      <c r="A27" s="65">
         <v>43405.0</v>
       </c>
-      <c r="B27" s="60">
+      <c r="B27" s="66">
         <v>7000.0</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="66">
         <v>7000.0</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="66">
         <v>0.0</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="66">
         <v>10000.0</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="67">
         <v>-0.06412073646906129</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="67">
         <v>0.0038524750811810976</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="67">
         <v>0.004202700088561198</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="66">
         <v>-275.32832818211136</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="66">
         <v>108.28124999999454</v>
       </c>
-      <c r="K27" s="60">
+      <c r="K27" s="66">
         <v>-6.302083333332968</v>
       </c>
-      <c r="L27" s="60">
+      <c r="L27" s="66">
         <v>10114.583333333327</v>
       </c>
-      <c r="M27" s="60">
+      <c r="M27" s="66">
         <v>9723.70287393058</v>
       </c>
-      <c r="N27" s="62">
+      <c r="N27" s="68">
         <v>10108.281249999995</v>
       </c>
-      <c r="O27" s="63" t="s">
+      <c r="O27" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="59">
+      <c r="A28" s="65">
         <v>43374.0</v>
       </c>
-      <c r="B28" s="60">
+      <c r="B28" s="66">
         <v>0.0</v>
       </c>
-      <c r="C28" s="60">
+      <c r="C28" s="66">
         <v>0.0</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="66">
         <v>0.0</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="66">
         <v>10000.0</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="67">
         <v>-0.028896114427261484</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="67">
         <v>0.06797321155024239</v>
       </c>
-      <c r="H28" s="61">
+      <c r="H28" s="67">
         <v>0.08156785386029086</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="66">
         <v>-309.16164657627814</v>
       </c>
-      <c r="J28" s="60">
+      <c r="J28" s="66">
         <v>368.4665201320895</v>
       </c>
-      <c r="K28" s="60">
+      <c r="K28" s="66">
         <v>-21.445141383349092</v>
       </c>
-      <c r="L28" s="60">
+      <c r="L28" s="66">
         <v>10104.16666666666</v>
       </c>
-      <c r="M28" s="60">
+      <c r="M28" s="66">
         <v>10389.911661515438</v>
       </c>
-      <c r="N28" s="62">
+      <c r="N28" s="68">
         <v>10368.46652013209</v>
       </c>
-      <c r="O28" s="63" t="s">
+      <c r="O28" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="59">
+      <c r="A29" s="65">
         <v>43344.0</v>
       </c>
-      <c r="B29" s="60">
+      <c r="B29" s="66">
         <v>0.0</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="66">
         <v>0.0</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="66">
         <v>0.0</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="66">
         <v>10000.0</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="67">
         <v>0.08865378226331043</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G29" s="67">
         <v>0.09686932597750388</v>
       </c>
-      <c r="H29" s="61">
+      <c r="H29" s="67">
         <v>0.1291591013033385</v>
       </c>
-      <c r="I29" s="60">
+      <c r="I29" s="66">
         <v>615.7399747583877</v>
       </c>
-      <c r="J29" s="60">
+      <c r="J29" s="66">
         <v>660.624276146671</v>
       </c>
-      <c r="K29" s="60">
+      <c r="K29" s="66">
         <v>-38.44903194504439</v>
       </c>
-      <c r="L29" s="60">
+      <c r="L29" s="66">
         <v>10093.749999999995</v>
       </c>
-      <c r="M29" s="60">
+      <c r="M29" s="66">
         <v>10699.073308091716</v>
       </c>
-      <c r="N29" s="62">
+      <c r="N29" s="68">
         <v>10660.624276146671</v>
       </c>
-      <c r="O29" s="63" t="s">
+      <c r="O29" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="59">
+      <c r="A30" s="65">
         <v>43313.0</v>
       </c>
-      <c r="B30" s="60">
+      <c r="B30" s="66">
         <v>0.0</v>
       </c>
-      <c r="C30" s="60">
+      <c r="C30" s="66">
         <v>0.0</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="66">
         <v>0.0</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="66">
         <v>10000.0</v>
       </c>
-      <c r="F30" s="61">
+      <c r="F30" s="67">
         <v>-0.02448824447309521</v>
       </c>
-      <c r="G30" s="61">
+      <c r="G30" s="67">
         <v>0.00821554371419345</v>
       </c>
-      <c r="H30" s="61">
+      <c r="H30" s="67">
         <v>0.012323315571290175</v>
       </c>
-      <c r="I30" s="60">
+      <c r="I30" s="66">
         <v>8.824773747366635</v>
       </c>
-      <c r="J30" s="60">
+      <c r="J30" s="66">
         <v>78.74999999999454</v>
       </c>
-      <c r="K30" s="60">
+      <c r="K30" s="66">
         <v>-4.583333333333067</v>
       </c>
-      <c r="L30" s="60">
+      <c r="L30" s="66">
         <v>10083.333333333328</v>
       </c>
-      <c r="M30" s="60">
+      <c r="M30" s="66">
         <v>9827.80153103253</v>
       </c>
-      <c r="N30" s="62">
+      <c r="N30" s="68">
         <v>10078.749999999995</v>
       </c>
-      <c r="O30" s="63" t="s">
+      <c r="O30" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="59">
+      <c r="A31" s="65">
         <v>43282.0</v>
       </c>
-      <c r="B31" s="60">
+      <c r="B31" s="66">
         <v>0.0</v>
       </c>
-      <c r="C31" s="60">
+      <c r="C31" s="66">
         <v>0.0</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="66">
         <v>0.0</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="66">
         <v>10000.0</v>
       </c>
-      <c r="F31" s="61">
+      <c r="F31" s="67">
         <v>0.010858996309905966</v>
       </c>
-      <c r="G31" s="61">
+      <c r="G31" s="67">
         <v>0.03270378818728866</v>
       </c>
-      <c r="H31" s="61">
+      <c r="H31" s="67">
         <v>0.056063636892494856</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="66">
         <v>12.008559585965486</v>
       </c>
-      <c r="J31" s="60">
+      <c r="J31" s="66">
         <v>70.41058880873425</v>
       </c>
-      <c r="K31" s="60">
+      <c r="K31" s="66">
         <v>-4.097970777227902</v>
       </c>
-      <c r="L31" s="60">
+      <c r="L31" s="66">
         <v>10072.916666666662</v>
       </c>
-      <c r="M31" s="60">
+      <c r="M31" s="66">
         <v>10074.508559585962</v>
       </c>
-      <c r="N31" s="62">
+      <c r="N31" s="68">
         <v>10070.410588808734</v>
       </c>
-      <c r="O31" s="63" t="s">
+      <c r="O31" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="59">
+      <c r="A32" s="65">
         <v>43252.0</v>
       </c>
-      <c r="B32" s="60">
+      <c r="B32" s="66">
         <v>0.0</v>
       </c>
-      <c r="C32" s="60">
+      <c r="C32" s="66">
         <v>0.0</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="66">
         <v>0.0</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="66">
         <v>10000.0</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32" s="67">
         <v>0.12647428034130279</v>
       </c>
-      <c r="G32" s="61">
+      <c r="G32" s="67">
         <v>0.021844791877382697</v>
       </c>
-      <c r="H32" s="61">
+      <c r="H32" s="67">
         <v>0.04368958375476539</v>
       </c>
-      <c r="I32" s="60">
+      <c r="I32" s="66">
         <v>10.41666666666606</v>
       </c>
-      <c r="J32" s="60">
+      <c r="J32" s="66">
         <v>59.06249999999636</v>
       </c>
-      <c r="K32" s="60">
+      <c r="K32" s="66">
         <v>-3.4374999999997997</v>
       </c>
-      <c r="L32" s="60">
+      <c r="L32" s="66">
         <v>10062.499999999996</v>
       </c>
-      <c r="M32" s="60">
+      <c r="M32" s="66">
         <v>9966.284710689117</v>
       </c>
-      <c r="N32" s="62">
+      <c r="N32" s="68">
         <v>10059.062499999996</v>
       </c>
-      <c r="O32" s="63" t="s">
+      <c r="O32" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="59">
+      <c r="A33" s="65">
         <v>43221.0</v>
       </c>
-      <c r="B33" s="60">
+      <c r="B33" s="66">
         <v>0.0</v>
       </c>
-      <c r="C33" s="60">
+      <c r="C33" s="66">
         <v>0.0</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="66">
         <v>0.0</v>
       </c>
-      <c r="E33" s="60">
+      <c r="E33" s="66">
         <v>10000.0</v>
       </c>
-      <c r="F33" s="61">
+      <c r="F33" s="67">
         <v>0.07661146740532812</v>
       </c>
-      <c r="G33" s="61">
+      <c r="G33" s="67">
         <v>-0.10462948846392009</v>
       </c>
-      <c r="H33" s="61">
+      <c r="H33" s="67">
         <v>-0.25111077231340817</v>
       </c>
-      <c r="I33" s="60">
+      <c r="I33" s="66">
         <v>10.41666666666606</v>
       </c>
-      <c r="J33" s="60">
+      <c r="J33" s="66">
         <v>49.21874999999636</v>
       </c>
-      <c r="K33" s="60">
+      <c r="K33" s="66">
         <v>-2.8645833333331665</v>
       </c>
-      <c r="L33" s="60">
+      <c r="L33" s="66">
         <v>10052.08333333333</v>
       </c>
-      <c r="M33" s="60">
+      <c r="M33" s="66">
         <v>8847.325575573283</v>
       </c>
-      <c r="N33" s="62">
+      <c r="N33" s="68">
         <v>10049.218749999996</v>
       </c>
-      <c r="O33" s="63" t="s">
+      <c r="O33" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="59">
+      <c r="A34" s="65">
         <v>43191.0</v>
       </c>
-      <c r="B34" s="60">
+      <c r="B34" s="66">
         <v>0.0</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="66">
         <v>0.0</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="66">
         <v>0.0</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="66">
         <v>10000.0</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="67">
         <v>-0.0394470506102503</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="67">
         <v>-0.1812409558692482</v>
       </c>
-      <c r="H34" s="61">
+      <c r="H34" s="67">
         <v>-0.5437228676077446</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="66">
         <v>10.41666666666606</v>
       </c>
-      <c r="J34" s="60">
+      <c r="J34" s="66">
         <v>39.37499999999818</v>
       </c>
-      <c r="K34" s="60">
+      <c r="K34" s="66">
         <v>-2.2916666666665333</v>
       </c>
-      <c r="L34" s="60">
+      <c r="L34" s="66">
         <v>10041.666666666664</v>
       </c>
-      <c r="M34" s="60">
+      <c r="M34" s="66">
         <v>8217.751569092656</v>
       </c>
-      <c r="N34" s="62">
+      <c r="N34" s="68">
         <v>10039.374999999998</v>
       </c>
-      <c r="O34" s="63" t="s">
+      <c r="O34" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="59">
+      <c r="A35" s="65">
         <v>43160.0</v>
       </c>
-      <c r="B35" s="60">
+      <c r="B35" s="66">
         <v>0.0</v>
       </c>
-      <c r="C35" s="60">
+      <c r="C35" s="66">
         <v>0.0</v>
       </c>
-      <c r="D35" s="60">
+      <c r="D35" s="66">
         <v>0.0</v>
       </c>
-      <c r="E35" s="60">
+      <c r="E35" s="66">
         <v>10000.0</v>
       </c>
-      <c r="F35" s="61">
+      <c r="F35" s="67">
         <v>-0.052153074609364886</v>
       </c>
-      <c r="G35" s="61">
+      <c r="G35" s="67">
         <v>-0.1417939052589979</v>
       </c>
-      <c r="H35" s="61">
+      <c r="H35" s="67">
         <v>-0.5671756210359916</v>
       </c>
-      <c r="I35" s="60">
+      <c r="I35" s="66">
         <v>10.41666666666606</v>
       </c>
-      <c r="J35" s="60">
+      <c r="J35" s="66">
         <v>29.53124999999818</v>
       </c>
-      <c r="K35" s="60">
+      <c r="K35" s="66">
         <v>-1.7187499999999</v>
       </c>
-      <c r="L35" s="60">
+      <c r="L35" s="66">
         <v>10031.249999999998</v>
       </c>
-      <c r="M35" s="60">
+      <c r="M35" s="66">
         <v>8555.230166450989</v>
       </c>
-      <c r="N35" s="62">
+      <c r="N35" s="68">
         <v>10029.531249999998</v>
       </c>
-      <c r="O35" s="63" t="s">
+      <c r="O35" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="59">
+      <c r="A36" s="65">
         <v>43132.0</v>
       </c>
-      <c r="B36" s="60">
+      <c r="B36" s="66">
         <v>0.0</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="66">
         <v>0.0</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="66">
         <v>0.0</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="66">
         <v>10000.0</v>
       </c>
-      <c r="F36" s="61">
+      <c r="F36" s="67">
         <v>-0.09834304329279307</v>
       </c>
-      <c r="G36" s="61">
+      <c r="G36" s="67">
         <v>-0.08964083064963302</v>
       </c>
-      <c r="H36" s="61">
+      <c r="H36" s="67">
         <v>-0.5378449838977981</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="66">
         <v>10.41666666666606</v>
       </c>
-      <c r="J36" s="60">
+      <c r="J36" s="66">
         <v>19.68749999999818</v>
       </c>
-      <c r="K36" s="60">
+      <c r="K36" s="66">
         <v>-1.1458333333332666</v>
       </c>
-      <c r="L36" s="60">
+      <c r="L36" s="66">
         <v>10020.833333333332</v>
       </c>
-      <c r="M36" s="60">
+      <c r="M36" s="66">
         <v>9025.961827037769</v>
       </c>
-      <c r="N36" s="62">
+      <c r="N36" s="68">
         <v>10019.687499999998</v>
       </c>
-      <c r="O36" s="63" t="s">
+      <c r="O36" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="59">
+      <c r="A37" s="65">
         <v>43101.0</v>
       </c>
-      <c r="B37" s="60">
+      <c r="B37" s="66">
         <v>10000.0</v>
       </c>
-      <c r="C37" s="60">
+      <c r="C37" s="66">
         <v>0.0</v>
       </c>
-      <c r="D37" s="60">
+      <c r="D37" s="66">
         <v>10000.0</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="66">
         <v>10000.0</v>
       </c>
-      <c r="F37" s="61">
+      <c r="F37" s="67">
         <v>0.008702212643160052</v>
       </c>
-      <c r="G37" s="61">
+      <c r="G37" s="67">
         <v>0.008702212643160052</v>
       </c>
-      <c r="H37" s="61">
+      <c r="H37" s="67">
         <v>0.10442655171792062</v>
       </c>
-      <c r="I37" s="60">
+      <c r="I37" s="66">
         <v>10.41666666666606</v>
       </c>
-      <c r="J37" s="60">
+      <c r="J37" s="66">
         <v>9.84375</v>
       </c>
-      <c r="K37" s="60">
+      <c r="K37" s="66">
         <v>-0.5729166666666333</v>
       </c>
-      <c r="L37" s="60">
+      <c r="L37" s="66">
         <v>10010.416666666666</v>
       </c>
-      <c r="M37" s="60">
+      <c r="M37" s="66">
         <v>10010.416666666666</v>
       </c>
-      <c r="N37" s="62">
+      <c r="N37" s="68">
         <v>10009.84375</v>
       </c>
-      <c r="O37" s="63" t="s">
+      <c r="O37" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="59">
+      <c r="A38" s="65">
         <v>43070.0</v>
       </c>
-      <c r="B38" s="60">
+      <c r="B38" s="66">
         <v>10000.0</v>
       </c>
-      <c r="C38" s="60">
+      <c r="C38" s="66">
         <v>10000.0</v>
       </c>
-      <c r="D38" s="60">
+      <c r="D38" s="66">
         <v>0.0</v>
       </c>
-      <c r="E38" s="60">
+      <c r="E38" s="66">
         <v>0.0</v>
       </c>
-      <c r="F38" s="61">
+      <c r="F38" s="67">
         <v>0.0</v>
       </c>
-      <c r="G38" s="61">
+      <c r="G38" s="67">
         <v>0.0</v>
       </c>
-      <c r="H38" s="61">
+      <c r="H38" s="67">
         <v>0.0</v>
       </c>
-      <c r="I38" s="60">
+      <c r="I38" s="66">
         <v>0.0</v>
       </c>
-      <c r="J38" s="60">
+      <c r="J38" s="66">
         <v>0.0</v>
       </c>
-      <c r="K38" s="60">
+      <c r="K38" s="66">
         <v>0.0</v>
       </c>
-      <c r="L38" s="60">
+      <c r="L38" s="66">
         <v>0.0</v>
       </c>
-      <c r="M38" s="60">
+      <c r="M38" s="66">
         <v>0.0</v>
       </c>
-      <c r="N38" s="62">
+      <c r="N38" s="68">
         <v>0.0</v>
       </c>
-      <c r="O38" s="63" t="s">
+      <c r="O38" s="69" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Data/FiMs Associate.xlsx
+++ b/Data/FiMs Associate.xlsx
@@ -240,87 +240,87 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A9">
+    <comment authorId="0" ref="A10">
       <text>
         <t xml:space="preserve">WARNING : Should be the same as the spreadsheet name with account data historic</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A10">
+    <comment authorId="0" ref="A11">
       <text>
         <t xml:space="preserve">Set a value if the movement is recurrent (happening every month), can only be negative (withdraw)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A14">
+    <comment authorId="0" ref="A15">
       <text>
         <t xml:space="preserve">Money donated to charity</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A15">
+    <comment authorId="0" ref="A16">
       <text>
         <t xml:space="preserve">Number of financed projects</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A16">
+    <comment authorId="0" ref="A17">
       <text>
         <t xml:space="preserve">Time since first investment</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A34">
+    <comment authorId="0" ref="A35">
       <text>
         <t xml:space="preserve">Amount not added because the money has not been invested</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A35">
+    <comment authorId="0" ref="A36">
       <text>
         <t xml:space="preserve">Money really invested (movement - rejected)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A36">
+    <comment authorId="0" ref="A37">
       <text>
         <t xml:space="preserve">Cumulated amount without interest</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A37">
+    <comment authorId="0" ref="A38">
       <text>
         <t xml:space="preserve">The monthly rate from which calculate interests</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A38">
+    <comment authorId="0" ref="A39">
       <text>
         <t xml:space="preserve">The cumulated rate since the beginning of savings</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A39">
+    <comment authorId="0" ref="A40">
       <text>
         <t xml:space="preserve">The cumulated rate adjusted to one year</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A40">
+    <comment authorId="0" ref="A41">
       <text>
         <t xml:space="preserve">Current gain (= Current Value * Rate / 12)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A41">
+    <comment authorId="0" ref="A42">
       <text>
         <t xml:space="preserve">Cumulated gain since the beginning of saving</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A42">
+    <comment authorId="0" ref="A43">
       <text>
         <t xml:space="preserve">Money collected for charity</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A43">
+    <comment authorId="0" ref="A44">
       <text>
         <t xml:space="preserve">Minimum guaranteed in case of negative rate</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A44">
+    <comment authorId="0" ref="A45">
       <text>
         <t xml:space="preserve">Total of value and gain cumulated</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A45">
+    <comment authorId="0" ref="A46">
       <text>
         <t xml:space="preserve">Total amount saved</t>
       </text>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="399">
   <si>
     <t>DateTime</t>
   </si>
@@ -1427,6 +1427,18 @@
     <t>Coût si un retrait est effectué avant la fin du mois</t>
   </si>
   <si>
+    <t>Current reccurent amount</t>
+  </si>
+  <si>
+    <t>Current reccurent withdraw amount (will be replaced by the new value)</t>
+  </si>
+  <si>
+    <t>Retrait récurrent actuel</t>
+  </si>
+  <si>
+    <t>Montant du retrait récurrent actuel (sera remplacé par le nouveau)</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -1475,10 +1487,10 @@
     <t>Retrait récurrent (chaque mois)</t>
   </si>
   <si>
-    <t>Periodic</t>
+    <t>Unique</t>
   </si>
   <si>
-    <t>Periodic withdraw (happen only once)</t>
+    <t>Unique withdraw (happen only once)</t>
   </si>
   <si>
     <t>Exceptionnel</t>
@@ -1990,9 +2002,9 @@
     <t>Confirmation de Retrait</t>
   </si>
   <si>
-    <t>J'ai bien reçu ta demande de retrait. Elle sera effective 5 jours après ta demande.&lt;br&gt;
-Pourquoi ce délai ? Pour avoir le temps de m'enfuir aux Bahamas bien sûr. &lt;br&gt;
-C'est également le temps moyen que prend la banque pour faire un virement de compte à compte !&lt;br&gt;&lt;br&gt;
+    <t>J'ai bien reçu ta demande de retrait. Elle sera effective &lt;b&gt;5 jours après la date demandée&lt;/b&gt;.&lt;br&gt;
+&lt;i&gt;Pourquoi ce délai ?&lt;/i&gt; Pour avoir le temps de m'enfuir aux Bahamas bien sûr !! &lt;br&gt;
+Sinon, c'est aussi le temps moyen que prend la banque pour faire un virement de compte à compte.&lt;br&gt;&lt;br&gt;
 Tu vas ensuite voir s'afficher une icône &lt;Pending&gt; indiquant que l'argent n'est pas encore arrivé sur ton compte.&lt;br&gt;&lt;br&gt;
 Dès que c'est fait, une icône &lt;Completed&gt; t'indiquera que c'est bon : tu as bien récupéré ton argent !&lt;br&gt;&lt;br&gt;
 Un &lt;u&gt;mail de confirmation&lt;/u&gt; vient de t'être envoyé électro magiquement pour que tu puisses soit conserver toutes les infos nécessaires (si tu es du genre à tout archiver), soit remplir un peu plus ta boîte à spam ;-)</t>
@@ -2075,12 +2087,12 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
     <font>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -2137,7 +2149,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2257,7 +2269,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2272,25 +2293,22 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -2593,7 +2611,7 @@
       </c>
       <c r="B1" s="2">
         <f>NOW()</f>
-        <v>44174.84821</v>
+        <v>44174.94513</v>
       </c>
     </row>
     <row r="2">
@@ -2611,7 +2629,7 @@
       </c>
       <c r="B3" s="4">
         <f>TIMEVALUE($B$1)</f>
-        <v>0.8482060185</v>
+        <v>0.9451273148</v>
       </c>
     </row>
     <row r="4">
@@ -2725,1102 +2743,1102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="E1" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="J1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="65" t="s">
+      <c r="L1" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="M1" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="N1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="65" t="s">
-        <v>394</v>
+      <c r="O1" s="67" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="66">
+      <c r="A2" s="68">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="69">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>300</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="69">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="69">
         <f t="shared" ref="D2:D18" si="1">$B2-$C2</f>
         <v>300</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="69">
         <f t="shared" ref="E2:E18" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>600</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="70">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="70">
         <f t="shared" ref="G2:G18" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.319813211</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="70">
         <f t="shared" ref="H2:H18" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A18)*12,0)</f>
         <v>0.2398599083</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="69">
         <f t="shared" ref="I2:I18" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I18)</f>
         <v>11.04684281</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <f t="shared" ref="J2:J18" si="6">$N2-$E2</f>
         <v>38.2175457</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="69">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.224301602</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="69">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>603.0208333</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="69">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>640.4418473</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="71">
         <f t="shared" ref="N2:N18" si="7">MAX($M2,$L2)+$K2</f>
         <v>638.2175457</v>
       </c>
-      <c r="O2" s="70" t="str">
+      <c r="O2" s="72" t="str">
         <f t="shared" ref="O2:O18" si="8">IF(ROW()=2,"Paclone",INDEX(O:O,ROW()-1))</f>
         <v>Paclone</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="66">
+      <c r="A3" s="68">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="69">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>200</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="69">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>200</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="69">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="70">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="70">
         <f t="shared" si="3"/>
         <v>0.2869089188</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="70">
         <f t="shared" si="4"/>
         <v>0.229527135</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="69">
         <f t="shared" si="5"/>
         <v>-5.503327796</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="69">
         <f t="shared" si="6"/>
         <v>27.77827925</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="69">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.616725247</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="69">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>302.5</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="69">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>329.3950045</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="71">
         <f t="shared" si="7"/>
         <v>327.7782792</v>
       </c>
-      <c r="O3" s="70" t="str">
+      <c r="O3" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="66">
+      <c r="A4" s="68">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="69">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="69">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="69">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="69">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="70">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>-0.003035883482</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="70">
         <f t="shared" si="3"/>
         <v>0.3033417501</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="70">
         <f t="shared" si="4"/>
         <v>0.2600072144</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="69">
         <f t="shared" si="5"/>
         <v>-0.7152955209</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="69">
         <f t="shared" si="6"/>
         <v>32.97892401</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="69">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.919408276</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="69">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>302.1875</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="69">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>334.8983323</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="71">
         <f t="shared" si="7"/>
         <v>332.978924</v>
       </c>
-      <c r="O4" s="70" t="str">
+      <c r="O4" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="66">
+      <c r="A5" s="68">
         <f t="array" ref="A5">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44075</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="69">
         <f t="array" ref="B5">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A5,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A5,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="69">
         <f>MAX($B5+IF($B5&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A5,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A5),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="69">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="70">
         <f t="array" ref="F5">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A5),0)</f>
         <v>0.06950114423</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="70">
         <f t="shared" si="3"/>
         <v>0.3063776336</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="70">
         <f t="shared" si="4"/>
         <v>0.2828101233</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="69">
         <f t="shared" si="5"/>
         <v>15.31126621</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="69">
         <f t="shared" si="6"/>
         <v>33.65487828</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="69">
         <f t="array" ref="K5">-$I5*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.95874953</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="69">
         <f t="array" ref="L5">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D5+INDEX($L:$L,ROW()+1)</f>
         <v>201.9791667</v>
       </c>
-      <c r="M5" s="67">
+      <c r="M5" s="69">
         <f t="array" ref="M5">INDEX($M:$M,ROW()+1)+$D5+INDEX($M:$M,ROW()+1)*$F5+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>235.6136278</v>
       </c>
-      <c r="N5" s="69">
+      <c r="N5" s="71">
         <f t="shared" si="7"/>
         <v>233.6548783</v>
       </c>
-      <c r="O5" s="70" t="str">
+      <c r="O5" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="66">
+      <c r="A6" s="68">
         <f t="array" ref="A6">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44044</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="69">
         <f t="array" ref="B6">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A6,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A6,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="69">
         <f>MAX($B6+IF($B6&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A6,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A6),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="69">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="70">
         <f t="array" ref="F6">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A6),0)</f>
         <v>-0.001185159315</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="70">
         <f t="shared" si="3"/>
         <v>0.2368764894</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="70">
         <f t="shared" si="4"/>
         <v>0.2368764894</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="69">
         <f t="shared" si="5"/>
         <v>-0.2614032004</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="69">
         <f t="shared" si="6"/>
         <v>19.18573171</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="69">
         <f t="array" ref="K6">-$I6*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.116629888</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="69">
         <f t="array" ref="L6">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D6+INDEX($L:$L,ROW()+1)</f>
         <v>201.7708333</v>
       </c>
-      <c r="M6" s="67">
+      <c r="M6" s="69">
         <f t="array" ref="M6">INDEX($M:$M,ROW()+1)+$D6+INDEX($M:$M,ROW()+1)*$F6+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.3023616</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="71">
         <f t="shared" si="7"/>
         <v>219.1857317</v>
       </c>
-      <c r="O6" s="70" t="str">
+      <c r="O6" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="66">
+      <c r="A7" s="68">
         <f t="array" ref="A7">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44013</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="69">
         <f t="array" ref="B7">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A7,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A7,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="69">
         <f>MAX($B7+IF($B7&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A7,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A7),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="69">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="70">
         <f t="array" ref="F7">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A7),0)</f>
         <v>0.01670595001</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="70">
         <f t="shared" si="3"/>
         <v>0.2380616487</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="70">
         <f t="shared" si="4"/>
         <v>0.2597036167</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="69">
         <f t="shared" si="5"/>
         <v>3.624181829</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="69">
         <f t="shared" si="6"/>
         <v>19.43275774</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="69">
         <f t="array" ref="K7">-$I7*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.131007064</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="69">
         <f t="array" ref="L7">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D7+INDEX($L:$L,ROW()+1)</f>
         <v>201.5625</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="69">
         <f t="array" ref="M7">INDEX($M:$M,ROW()+1)+$D7+INDEX($M:$M,ROW()+1)*$F7+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.5637648</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="71">
         <f t="shared" si="7"/>
         <v>219.4327577</v>
       </c>
-      <c r="O7" s="70" t="str">
+      <c r="O7" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="66">
+      <c r="A8" s="68">
         <f t="array" ref="A8">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43983</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="69">
         <f t="array" ref="B8">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A8,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A8,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="69">
         <f>MAX($B8+IF($B8&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A8,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A8),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="69">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="70">
         <f t="array" ref="F8">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A8),0)</f>
         <v>-0.006593872955</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="70">
         <f t="shared" si="3"/>
         <v>0.2213556987</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="70">
         <f t="shared" si="4"/>
         <v>0.2656268384</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="69">
         <f t="shared" si="5"/>
         <v>-1.439967008</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="69">
         <f t="shared" si="6"/>
         <v>16.00790591</v>
       </c>
-      <c r="K8" s="67">
+      <c r="K8" s="69">
         <f t="array" ref="K8">-$I8*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.9316770635</v>
       </c>
-      <c r="L8" s="67">
+      <c r="L8" s="69">
         <f t="array" ref="L8">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D8+INDEX($L:$L,ROW()+1)</f>
         <v>201.3541667</v>
       </c>
-      <c r="M8" s="67">
+      <c r="M8" s="69">
         <f t="array" ref="M8">INDEX($M:$M,ROW()+1)+$D8+INDEX($M:$M,ROW()+1)*$F8+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>216.939583</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="71">
         <f t="shared" si="7"/>
         <v>216.0079059</v>
       </c>
-      <c r="O8" s="70" t="str">
+      <c r="O8" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="66">
+      <c r="A9" s="68">
         <f t="array" ref="A9">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43952</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="69">
         <f t="array" ref="B9">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A9,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A9,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="69">
         <f>MAX($B9+IF($B9&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A9,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A9),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="69">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="70">
         <f t="array" ref="F9">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A9),0)</f>
         <v>0.1716787041</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="70">
         <f t="shared" si="3"/>
         <v>0.2279495716</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="70">
         <f t="shared" si="4"/>
         <v>0.3039327622</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="69">
         <f t="shared" si="5"/>
         <v>17.44204998</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="69">
         <f t="shared" si="6"/>
         <v>17.36867473</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="69">
         <f t="array" ref="K9">-$I9*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.010875249</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="69">
         <f t="array" ref="L9">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D9+INDEX($L:$L,ROW()+1)</f>
         <v>201.1458333</v>
       </c>
-      <c r="M9" s="67">
+      <c r="M9" s="69">
         <f t="array" ref="M9">INDEX($M:$M,ROW()+1)+$D9+INDEX($M:$M,ROW()+1)*$F9+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>218.37955</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="71">
         <f t="shared" si="7"/>
         <v>217.3686747</v>
       </c>
-      <c r="O9" s="70" t="str">
+      <c r="O9" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="66">
+      <c r="A10" s="68">
         <f t="array" ref="A10">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43922</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="69">
         <f t="array" ref="B10">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A10,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A10,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="69">
         <f>MAX($B10+IF($B10&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A10,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A10),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="69">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="70">
         <f t="array" ref="F10">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A10),0)</f>
         <v>-0.09031985768</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="70">
         <f t="shared" si="3"/>
         <v>0.0562708675</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="70">
         <f t="shared" si="4"/>
         <v>0.08440630126</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="69">
         <f t="shared" si="5"/>
         <v>-3.949647339</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="69">
         <f t="shared" si="6"/>
         <v>0.8859375</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="69">
         <f t="array" ref="K10">-$I10*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0515625</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="69">
         <f t="array" ref="L10">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D10+INDEX($L:$L,ROW()+1)</f>
         <v>200.9375</v>
       </c>
-      <c r="M10" s="67">
+      <c r="M10" s="69">
         <f t="array" ref="M10">INDEX($M:$M,ROW()+1)+$D10+INDEX($M:$M,ROW()+1)*$F10+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>186.3817694</v>
       </c>
-      <c r="N10" s="69">
+      <c r="N10" s="71">
         <f t="shared" si="7"/>
         <v>200.8859375</v>
       </c>
-      <c r="O10" s="70" t="str">
+      <c r="O10" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="66">
+      <c r="A11" s="68">
         <f t="array" ref="A11">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43891</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="69">
         <f t="array" ref="B11">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A11,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A11,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="69">
         <f>MAX($B11+IF($B11&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A11,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A11),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="69">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="69">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="70">
         <f t="array" ref="F11">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A11),0)</f>
         <v>-0.0006988944889</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="70">
         <f t="shared" si="3"/>
         <v>0.1465907252</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="70">
         <f t="shared" si="4"/>
         <v>0.251298386</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="69">
         <f t="shared" si="5"/>
         <v>-0.07335631756</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="69">
         <f t="shared" si="6"/>
         <v>4.618354235</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="69">
         <f t="array" ref="K11">-$I11*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2687931036</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="69">
         <f t="array" ref="L11">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D11+INDEX($L:$L,ROW()+1)</f>
         <v>200.7291667</v>
       </c>
-      <c r="M11" s="67">
+      <c r="M11" s="69">
         <f t="array" ref="M11">INDEX($M:$M,ROW()+1)+$D11+INDEX($M:$M,ROW()+1)*$F11+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>204.8871473</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="71">
         <f t="shared" si="7"/>
         <v>204.6183542</v>
       </c>
-      <c r="O11" s="70" t="str">
+      <c r="O11" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="66">
+      <c r="A12" s="68">
         <f t="array" ref="A12">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43862</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="69">
         <f t="array" ref="B12">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A12,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A12,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="69">
         <f>MAX($B12+IF($B12&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A12,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A12),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="69">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="70">
         <f t="array" ref="F12">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A12),0)</f>
         <v>-0.01357148377</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="70">
         <f t="shared" si="3"/>
         <v>0.1472896197</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="70">
         <f t="shared" si="4"/>
         <v>0.2945792394</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="69">
         <f t="shared" si="5"/>
         <v>-1.444067917</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="69">
         <f t="shared" si="6"/>
         <v>4.687675955</v>
       </c>
-      <c r="K12" s="67">
+      <c r="K12" s="69">
         <f t="array" ref="K12">-$I12*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2728277011</v>
       </c>
-      <c r="L12" s="67">
+      <c r="L12" s="69">
         <f t="array" ref="L12">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D12+INDEX($L:$L,ROW()+1)</f>
         <v>100.625</v>
       </c>
-      <c r="M12" s="67">
+      <c r="M12" s="69">
         <f t="array" ref="M12">INDEX($M:$M,ROW()+1)+$D12+INDEX($M:$M,ROW()+1)*$F12+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>104.9605037</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="71">
         <f t="shared" si="7"/>
         <v>104.687676</v>
       </c>
-      <c r="O12" s="70" t="str">
+      <c r="O12" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="66">
+      <c r="A13" s="68">
         <f t="array" ref="A13">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43831</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="69">
         <f t="array" ref="B13">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A13,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A13,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="69">
         <f>MAX($B13+IF($B13&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A13,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A13),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="69">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="70">
         <f t="array" ref="F13">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A13),0)</f>
         <v>0.06953970792</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="70">
         <f t="shared" si="3"/>
         <v>0.1608611035</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="70">
         <f t="shared" si="4"/>
         <v>0.3860666483</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="69">
         <f t="shared" si="5"/>
         <v>5.987904906</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="69">
         <f t="shared" si="6"/>
         <v>6.052320137</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="69">
         <f t="array" ref="K13">-$I13*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.3522514365</v>
       </c>
-      <c r="L13" s="67">
+      <c r="L13" s="69">
         <f t="array" ref="L13">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D13+INDEX($L:$L,ROW()+1)</f>
         <v>100.5208333</v>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="69">
         <f t="array" ref="M13">INDEX($M:$M,ROW()+1)+$D13+INDEX($M:$M,ROW()+1)*$F13+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>106.4045716</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="71">
         <f t="shared" si="7"/>
         <v>106.0523201</v>
       </c>
-      <c r="O13" s="70" t="str">
+      <c r="O13" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="66">
+      <c r="A14" s="68">
         <f t="array" ref="A14">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43800</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="69">
         <f t="array" ref="B14">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A14,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A14,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="69">
         <f>MAX($B14+IF($B14&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A14,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A14),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="69">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="70">
         <f t="array" ref="F14">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A14),0)</f>
         <v>0.02764486097</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="70">
         <f t="shared" si="3"/>
         <v>0.09132139553</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="70">
         <f t="shared" si="4"/>
         <v>0.2739641866</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="69">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="69">
         <f t="shared" si="6"/>
         <v>0.39375</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="69">
         <f t="array" ref="K14">-$I14*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.02291666667</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="69">
         <f t="array" ref="L14">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D14+INDEX($L:$L,ROW()+1)</f>
         <v>100.4166667</v>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="69">
         <f t="array" ref="M14">INDEX($M:$M,ROW()+1)+$D14+INDEX($M:$M,ROW()+1)*$F14+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.48632181</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="71">
         <f t="shared" si="7"/>
         <v>100.39375</v>
       </c>
-      <c r="O14" s="70" t="str">
+      <c r="O14" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="66">
+      <c r="A15" s="68">
         <f t="array" ref="A15">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43770</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="69">
         <f t="array" ref="B15">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A15,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A15,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="69">
         <f>MAX($B15+IF($B15&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A15,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A15),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="69">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="70">
         <f t="array" ref="F15">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A15),0)</f>
         <v>-0.03120425194</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="70">
         <f t="shared" si="3"/>
         <v>0.06367653456</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="70">
         <f t="shared" si="4"/>
         <v>0.2547061382</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="69">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="69">
         <f t="shared" si="6"/>
         <v>0.2953125</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="69">
         <f t="array" ref="K15">-$I15*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0171875</v>
       </c>
-      <c r="L15" s="67">
+      <c r="L15" s="69">
         <f t="array" ref="L15">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D15+INDEX($L:$L,ROW()+1)</f>
         <v>100.3125</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="69">
         <f t="array" ref="M15">INDEX($M:$M,ROW()+1)+$D15+INDEX($M:$M,ROW()+1)*$F15+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>96.81002221</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="71">
         <f t="shared" si="7"/>
         <v>100.2953125</v>
       </c>
-      <c r="O15" s="70" t="str">
+      <c r="O15" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="66">
+      <c r="A16" s="68">
         <f t="array" ref="A16">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43739</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="69">
         <f t="array" ref="B16">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A16,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A16,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="69">
         <f>MAX($B16+IF($B16&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A16,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A16),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="69">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="70">
         <f t="array" ref="F16">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A16),0)</f>
         <v>-0.001757764068</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="70">
         <f t="shared" si="3"/>
         <v>0.0948807865</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="70">
         <f t="shared" si="4"/>
         <v>0.569284719</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="69">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="69">
         <f t="shared" si="6"/>
         <v>0.196875</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="69">
         <f t="array" ref="K16">-$I16*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.01145833333</v>
       </c>
-      <c r="L16" s="67">
+      <c r="L16" s="69">
         <f t="array" ref="L16">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D16+INDEX($L:$L,ROW()+1)</f>
         <v>100.2083333</v>
       </c>
-      <c r="M16" s="67">
+      <c r="M16" s="69">
         <f t="array" ref="M16">INDEX($M:$M,ROW()+1)+$D16+INDEX($M:$M,ROW()+1)*$F16+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.92820716</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="71">
         <f t="shared" si="7"/>
         <v>100.196875</v>
       </c>
-      <c r="O16" s="70" t="str">
+      <c r="O16" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="66">
+      <c r="A17" s="68">
         <f t="array" ref="A17">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43709</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17" s="69">
         <f t="array" ref="B17">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A17,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A17,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="69">
         <f>MAX($B17+IF($B17&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A17,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A17),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="69">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="69">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="70">
         <f t="array" ref="F17">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A17),0)</f>
         <v>0.09663855056</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="70">
         <f t="shared" si="3"/>
         <v>0.09663855056</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="70">
         <f t="shared" si="4"/>
         <v>1.159662607</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="69">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J17" s="67">
+      <c r="J17" s="69">
         <f t="shared" si="6"/>
         <v>0.0984375</v>
       </c>
-      <c r="K17" s="67">
+      <c r="K17" s="69">
         <f t="array" ref="K17">-$I17*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.005729166667</v>
       </c>
-      <c r="L17" s="67">
+      <c r="L17" s="69">
         <f t="array" ref="L17">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D17+INDEX($L:$L,ROW()+1)</f>
         <v>100.1041667</v>
       </c>
-      <c r="M17" s="67">
+      <c r="M17" s="69">
         <f t="array" ref="M17">INDEX($M:$M,ROW()+1)+$D17+INDEX($M:$M,ROW()+1)*$F17+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>100.1041667</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="71">
         <f t="shared" si="7"/>
         <v>100.0984375</v>
       </c>
-      <c r="O17" s="70" t="str">
+      <c r="O17" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="66">
+      <c r="A18" s="68">
         <f t="array" ref="A18">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43678</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="69">
         <f t="array" ref="B18">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A18,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A18,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="69">
         <f>MAX($B18+IF($B18&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A18,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A18),0),0)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="70">
         <f t="array" ref="F18">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A18),0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="69">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="67">
+      <c r="J18" s="69">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="69">
         <f t="array" ref="K18">-$I18*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="67">
+      <c r="L18" s="69">
         <f t="array" ref="L18">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D18+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="69">
         <f t="array" ref="M18">INDEX($M:$M,ROW()+1)+$D18+INDEX($M:$M,ROW()+1)*$F18+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N18" s="69">
+      <c r="N18" s="71">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O18" s="70" t="str">
+      <c r="O18" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
@@ -3849,234 +3867,234 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="E1" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="J1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="65" t="s">
+      <c r="L1" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="M1" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="N1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="65" t="s">
-        <v>394</v>
+      <c r="O1" s="67" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="66">
+      <c r="A2" s="68">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="69">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="69">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="69">
         <f t="shared" ref="D2:D4" si="1">$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="69">
         <f t="shared" ref="E2:E4" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>40000</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="70">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="70">
         <f t="shared" ref="G2:G4" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.0164714609</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="70">
         <f t="shared" ref="H2:H4" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A4)*12,0)</f>
         <v>0.09882876541</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="69">
         <f t="shared" ref="I2:I4" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I4)</f>
         <v>1145.025732</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <f t="shared" ref="J2:J4" si="6">$N2-$E2</f>
         <v>1121.424317</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="69">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-65.26808195</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="69">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>40083.33333</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="69">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>41186.6924</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="71">
         <f t="shared" ref="N2:N4" si="7">MAX($M2,$L2)+$K2</f>
         <v>41121.42432</v>
       </c>
-      <c r="O2" s="70" t="str">
+      <c r="O2" s="72" t="str">
         <f t="shared" ref="O2:O4" si="8">IF(ROW()=2,"Philo",INDEX(O:O,ROW()-1))</f>
         <v>Philo</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="66">
+      <c r="A3" s="68">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="69">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>30442</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="69">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="69">
         <f t="shared" si="1"/>
         <v>30442</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="69">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="70">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="70">
         <f t="shared" si="3"/>
         <v>-0.0164328313</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="70">
         <f t="shared" si="4"/>
         <v>-0.1971939755</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="69">
         <f t="shared" si="5"/>
         <v>41.66666667</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="69">
         <f t="shared" si="6"/>
         <v>39.375</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="69">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.291666667</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="69">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>40041.66667</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="69">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>39874.64542</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="71">
         <f t="shared" si="7"/>
         <v>40039.375</v>
       </c>
-      <c r="O3" s="70" t="str">
+      <c r="O3" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="66">
+      <c r="A4" s="68">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="69">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>40000</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="69">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>30442</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="69">
         <f t="shared" si="1"/>
         <v>9558</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="69">
         <f t="shared" si="2"/>
         <v>9558</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="70">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="69">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="69">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="69">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="69">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>9558</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="69">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>9558</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="71">
         <f t="shared" si="7"/>
         <v>9558</v>
       </c>
-      <c r="O4" s="70" t="str">
+      <c r="O4" s="72" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
@@ -4105,110 +4123,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="E1" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="J1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="65" t="s">
+      <c r="L1" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="M1" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="N1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="65" t="s">
-        <v>394</v>
+      <c r="O1" s="67" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="66">
+      <c r="A2" s="68">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="69">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="69">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="69">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="69">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="70">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="70">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="70">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="69">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="69">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="69">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="69">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="71">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="70" t="str">
+      <c r="O2" s="72" t="str">
         <f>IF(ROW()=2,"Tester",ROW()-1)</f>
         <v>Tester</v>
       </c>
@@ -4237,110 +4255,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="E1" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="J1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="65" t="s">
+      <c r="L1" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="M1" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="N1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="65" t="s">
-        <v>394</v>
+      <c r="O1" s="67" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="66">
+      <c r="A2" s="68">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="69">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="69">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="69">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="69">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="70">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="70">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="70">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="69">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="69">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="69">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="69">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="71">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="70" t="str">
+      <c r="O2" s="72" t="str">
         <f>IF(ROW()=2,"Lizzz",ROW()-1)</f>
         <v>Lizzz</v>
       </c>
@@ -4369,110 +4387,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="E1" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="J1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="65" t="s">
+      <c r="L1" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="M1" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="N1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="65" t="s">
-        <v>394</v>
+      <c r="O1" s="67" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="66">
+      <c r="A2" s="68">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="69">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="69">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="69">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="69">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="70">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="70">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="70">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="69">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="69">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="69">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="69">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="71">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="70" t="str">
+      <c r="O2" s="72" t="str">
         <f>IF(ROW()=2,"Joséd",ROW()-1)</f>
         <v>Joséd</v>
       </c>
@@ -4498,110 +4516,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="E1" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="J1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="65" t="s">
+      <c r="L1" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="M1" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="N1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="65" t="s">
-        <v>394</v>
+      <c r="O1" s="67" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="66">
+      <c r="A2" s="68">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="69">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="69">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="69">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="69">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="70">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="70">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="70">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="69">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="69">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="69">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="69">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="71">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="70" t="str">
+      <c r="O2" s="72" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"SheetName",INDEX(O:O,ROW()-1))</f>
         <v>SheetName</v>
       </c>
@@ -5329,8 +5347,8 @@
         <v>Last updated</v>
       </c>
       <c r="B71" s="22">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.09769396991032409)</f>
-        <v>0.09769396991</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.19490995370870223)</f>
+        <v>0.1949099537</v>
       </c>
     </row>
     <row r="72">
@@ -38187,16 +38205,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="55" t="s">
         <v>207</v>
       </c>
     </row>
@@ -38204,63 +38222,63 @@
       <c r="A6" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="52" t="s">
+        <v>209</v>
+      </c>
       <c r="C6" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="50"/>
+        <v>210</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="52" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D7" s="50"/>
     </row>
     <row r="8">
       <c r="A8" s="51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B8" s="52"/>
       <c r="C8" s="52" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D8" s="50"/>
     </row>
     <row r="9">
       <c r="A9" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>214</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B9" s="52"/>
       <c r="C9" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>216</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D9" s="50"/>
     </row>
     <row r="10">
       <c r="A10" s="51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="52" t="s">
         <v>219</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="51" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="B11" s="52" t="s">
         <v>221</v>
@@ -38273,292 +38291,292 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="B12" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="52" t="s">
         <v>226</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="54" t="s">
+      <c r="B19" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="57" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="50"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="51" t="s">
-        <v>28</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="50" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="D20" s="50"/>
     </row>
     <row r="21">
       <c r="A21" s="51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="50" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D21" s="50"/>
     </row>
     <row r="22">
-      <c r="A22" s="55" t="s">
-        <v>30</v>
+      <c r="A22" s="51" t="s">
+        <v>29</v>
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D22" s="50"/>
     </row>
     <row r="23">
-      <c r="A23" s="51" t="s">
-        <v>31</v>
+      <c r="A23" s="58" t="s">
+        <v>30</v>
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" s="56"/>
+        <v>251</v>
+      </c>
+      <c r="D23" s="50"/>
     </row>
     <row r="24">
       <c r="A24" s="51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" s="56"/>
+        <v>252</v>
+      </c>
+      <c r="D24" s="59"/>
     </row>
     <row r="25">
       <c r="A25" s="51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="D25" s="56"/>
+        <v>253</v>
+      </c>
+      <c r="D25" s="59"/>
     </row>
     <row r="26">
       <c r="A26" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D26" s="56"/>
+        <v>254</v>
+      </c>
+      <c r="D26" s="59"/>
     </row>
     <row r="27">
       <c r="A27" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>252</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B27" s="50"/>
       <c r="C27" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>253</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D27" s="59"/>
     </row>
     <row r="28">
       <c r="A28" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D31" s="50" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" s="50" t="s">
+      <c r="B33" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="50" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="50" t="s">
+      <c r="D33" s="50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="51" t="s">
         <v>273</v>
       </c>
     </row>
@@ -38620,21 +38638,21 @@
     </row>
     <row r="39">
       <c r="A39" s="51" t="s">
-        <v>25</v>
+        <v>290</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D39" s="50" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="51" t="s">
-        <v>293</v>
+        <v>25</v>
       </c>
       <c r="B40" s="50" t="s">
         <v>294</v>
@@ -38648,35 +38666,35 @@
     </row>
     <row r="41">
       <c r="A41" s="51" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D41" s="50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="51" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D42" s="50" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="51" t="s">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="B43" s="50" t="s">
         <v>304</v>
@@ -38696,171 +38714,171 @@
         <v>308</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="51" t="s">
-        <v>26</v>
+        <v>311</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>26</v>
+        <v>311</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="B46" s="50"/>
+        <v>26</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>314</v>
+      </c>
       <c r="C46" s="50" t="s">
-        <v>313</v>
-      </c>
-      <c r="D46" s="50"/>
+        <v>26</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50" t="s">
+        <v>317</v>
       </c>
       <c r="D47" s="50"/>
     </row>
     <row r="48">
       <c r="A48" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53" t="s">
-        <v>317</v>
+        <v>318</v>
+      </c>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56" t="s">
+        <v>319</v>
       </c>
       <c r="D48" s="50"/>
     </row>
     <row r="49">
       <c r="A49" s="51" t="s">
-        <v>318</v>
-      </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50" t="s">
-        <v>319</v>
+        <v>320</v>
+      </c>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56" t="s">
+        <v>321</v>
       </c>
       <c r="D49" s="50"/>
     </row>
     <row r="50">
       <c r="A50" s="51" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B50" s="50"/>
       <c r="C50" s="50" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D50" s="50"/>
     </row>
     <row r="51">
       <c r="A51" s="51" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B51" s="50"/>
       <c r="C51" s="50" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D51" s="50"/>
     </row>
     <row r="52">
       <c r="A52" s="51" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B52" s="50"/>
       <c r="C52" s="50" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D52" s="50"/>
     </row>
     <row r="53">
-      <c r="A53" s="50" t="s">
-        <v>326</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="C53" s="51" t="s">
+      <c r="A53" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="B53" s="50"/>
+      <c r="C53" s="50" t="s">
         <v>329</v>
       </c>
+      <c r="D53" s="50"/>
     </row>
     <row r="54">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="50" t="s">
         <v>330</v>
       </c>
       <c r="B54" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="C54" s="50" t="s">
         <v>331</v>
       </c>
+      <c r="C54" s="51" t="s">
+        <v>332</v>
+      </c>
       <c r="D54" s="50" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="51" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C55" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="D55" s="50" t="s">
         <v>333</v>
-      </c>
-      <c r="D55" s="50" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="B56" s="50"/>
+        <v>336</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>331</v>
+      </c>
       <c r="C56" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="D56" s="50"/>
+        <v>337</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="51" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B57" s="50"/>
       <c r="C57" s="50" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D57" s="50"/>
     </row>
     <row r="58">
       <c r="A58" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>339</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B58" s="50"/>
       <c r="C58" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="D58" s="50" t="s">
         <v>341</v>
       </c>
+      <c r="D58" s="50"/>
     </row>
     <row r="59">
       <c r="A59" s="51" t="s">
@@ -38880,115 +38898,115 @@
       <c r="A60" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="B60" s="50"/>
+      <c r="B60" s="50" t="s">
+        <v>347</v>
+      </c>
       <c r="C60" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="D60" s="50"/>
+        <v>348</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="51" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B61" s="50"/>
       <c r="C61" s="50" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D61" s="50"/>
     </row>
     <row r="62">
       <c r="A62" s="51" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B62" s="50"/>
       <c r="C62" s="50" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D62" s="50"/>
     </row>
     <row r="63">
       <c r="A63" s="51" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B63" s="50"/>
       <c r="C63" s="50" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D63" s="50"/>
     </row>
     <row r="64">
       <c r="A64" s="51" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B64" s="50"/>
       <c r="C64" s="50" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D64" s="50"/>
     </row>
     <row r="65">
-      <c r="A65" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51" t="s">
-        <v>357</v>
+      <c r="A65" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50" t="s">
+        <v>359</v>
       </c>
       <c r="D65" s="50"/>
     </row>
     <row r="66">
       <c r="A66" s="50" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B66" s="51"/>
       <c r="C66" s="51" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D66" s="50"/>
     </row>
     <row r="67">
       <c r="A67" s="50" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B67" s="51"/>
       <c r="C67" s="51" t="s">
-        <v>215</v>
+        <v>363</v>
       </c>
       <c r="D67" s="50"/>
     </row>
     <row r="68">
       <c r="A68" s="50" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B68" s="51"/>
       <c r="C68" s="51" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="D68" s="50"/>
     </row>
     <row r="69">
       <c r="A69" s="50" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B69" s="51"/>
       <c r="C69" s="51" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D69" s="50"/>
     </row>
     <row r="70">
       <c r="A70" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="B70" s="51" t="s">
-        <v>366</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="B70" s="51"/>
       <c r="C70" s="51" t="s">
-        <v>367</v>
-      </c>
-      <c r="D70" s="50" t="s">
         <v>368</v>
       </c>
+      <c r="D70" s="50"/>
     </row>
     <row r="71">
       <c r="A71" s="50" t="s">
@@ -38998,102 +39016,116 @@
         <v>370</v>
       </c>
       <c r="C71" s="51" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D71" s="50" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="50" t="s">
-        <v>372</v>
-      </c>
-      <c r="B72" s="51"/>
+        <v>373</v>
+      </c>
+      <c r="B72" s="51" t="s">
+        <v>374</v>
+      </c>
       <c r="C72" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="D72" s="50"/>
+        <v>369</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="50" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B73" s="51"/>
       <c r="C73" s="51" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D73" s="50"/>
     </row>
     <row r="74">
-      <c r="A74" s="57" t="s">
-        <v>376</v>
+      <c r="A74" s="50" t="s">
+        <v>378</v>
       </c>
       <c r="B74" s="51"/>
-      <c r="C74" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="D74" s="58" t="s">
-        <v>378</v>
-      </c>
+      <c r="C74" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="D74" s="50"/>
     </row>
     <row r="75">
-      <c r="A75" s="50" t="s">
-        <v>379</v>
+      <c r="A75" s="60" t="s">
+        <v>380</v>
       </c>
       <c r="B75" s="51"/>
-      <c r="C75" s="51" t="s">
-        <v>380</v>
-      </c>
-      <c r="D75" s="50" t="s">
+      <c r="C75" s="50" t="s">
         <v>381</v>
+      </c>
+      <c r="D75" s="55" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="50" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B76" s="51"/>
       <c r="C76" s="51" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D76" s="50" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="57" t="s">
-        <v>385</v>
+      <c r="A77" s="50" t="s">
+        <v>386</v>
       </c>
       <c r="B77" s="51"/>
-      <c r="C77" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="D77" s="59" t="s">
+      <c r="C77" s="51" t="s">
         <v>387</v>
       </c>
+      <c r="D77" s="50" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="57" t="s">
-        <v>388</v>
+      <c r="A78" s="60" t="s">
+        <v>389</v>
       </c>
       <c r="B78" s="51"/>
       <c r="C78" s="50" t="s">
-        <v>389</v>
-      </c>
-      <c r="D78" s="60" t="s">
         <v>390</v>
       </c>
+      <c r="D78" s="61" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="61" t="s">
-        <v>391</v>
-      </c>
-      <c r="B79" s="62"/>
-      <c r="C79" s="63" t="s">
+      <c r="A79" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="D79" s="64" t="s">
+      <c r="B79" s="51"/>
+      <c r="C79" s="50" t="s">
         <v>393</v>
+      </c>
+      <c r="D79" s="62" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="B80" s="64"/>
+      <c r="C80" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="D80" s="66" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -39120,1803 +39152,1803 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="E1" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="J1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="65" t="s">
+      <c r="L1" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="M1" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="N1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="65" t="s">
-        <v>394</v>
+      <c r="O1" s="67" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="66">
+      <c r="A2" s="68">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="69">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>-5500</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="69">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="69">
         <f>$B2-$C2</f>
         <v>-5500</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="69">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>950</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="70">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="70">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.7360828898</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="70">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A38)*12,0)</f>
         <v>0.2453609633</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="69">
         <f>MAX($L2,$M2)-$E2-SUM($I3:$I38)</f>
         <v>596.982136</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <f>$N2-$E2</f>
         <v>12048.70056</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="69">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-241.2682864</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="69">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>1386.25</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="69">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>13239.96884</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="71">
         <f>MAX($M2,$L2)+$K2</f>
         <v>12998.70056</v>
       </c>
-      <c r="O2" s="70" t="str">
+      <c r="O2" s="72" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"Bloopsy",INDEX(O:O,ROW()-1))</f>
         <v>Bloopsy</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="66">
+      <c r="A3" s="68">
         <v>44136.0</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="69">
         <v>0.0</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="69">
         <v>6450.0</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="70">
         <v>-0.016432831295333683</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="70">
         <v>0.703178597556773</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="70">
         <v>0.24108980487660792</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="69">
         <v>-319.8291698477624</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="69">
         <v>11484.552438769417</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="69">
         <v>-208.4342689230876</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="69">
         <v>6879.53124999999</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="69">
         <v>18142.986707692504</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="71">
         <v>17934.552438769417</v>
       </c>
-      <c r="O3" s="70" t="s">
+      <c r="O3" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="66">
+      <c r="A4" s="68">
         <v>44105.0</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="69">
         <v>-300.0</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="69">
         <v>0.0</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="69">
         <v>-300.0</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="69">
         <v>7450.0</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="70">
         <v>-0.0030358834822477613</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="70">
         <v>0.7196114288521067</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="70">
         <v>0.25398050430074354</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="69">
         <v>-60.18030668434949</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="69">
         <v>11786.79100427555</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="69">
         <v>-226.02487326471453</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="69">
         <v>7871.770833333323</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="69">
         <v>19462.815877540266</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="71">
         <v>19236.79100427555</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="66">
+      <c r="A5" s="68">
         <v>44075.0</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="69">
         <v>0.0</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="69">
         <v>0.0</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="69">
         <v>0.0</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="69">
         <v>7750.0</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="70">
         <v>0.0695011442271417</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="70">
         <v>0.7226473123343545</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="70">
         <v>0.2627808408488562</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="69">
         <v>1288.1902223764919</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="69">
         <v>11843.661394092262</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="69">
         <v>-229.33479013235376</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="69">
         <v>8163.697916666656</v>
       </c>
-      <c r="M5" s="67">
+      <c r="M5" s="69">
         <v>19822.996184224616</v>
       </c>
-      <c r="N5" s="69">
+      <c r="N5" s="71">
         <v>19593.66139409226</v>
       </c>
-      <c r="O5" s="70" t="s">
+      <c r="O5" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="66">
+      <c r="A6" s="68">
         <v>44044.0</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="69">
         <v>-2400.0</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="69">
         <v>0.0</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="69">
         <v>-2400.0</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="69">
         <v>7750.0</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="70">
         <v>-0.0011851593150153932</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="70">
         <v>0.6531461681072128</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="70">
         <v>0.2449298130402048</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="69">
         <v>-22.85900518998824</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="69">
         <v>10626.321633946478</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="69">
         <v>-158.4843279016467</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="69">
         <v>8155.624999999989</v>
       </c>
-      <c r="M6" s="67">
+      <c r="M6" s="69">
         <v>18534.805961848124</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="71">
         <v>18376.321633946478</v>
       </c>
-      <c r="O6" s="70" t="s">
+      <c r="O6" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="66">
+      <c r="A7" s="68">
         <v>44013.0</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="69">
         <v>1900.0</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="69">
         <v>1900.0</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="69">
         <v>0.0</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="69">
         <v>10150.0</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="70">
         <v>0.01670595001387467</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="70">
         <v>0.6543313274222282</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="70">
         <v>0.25328954609892707</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="69">
         <v>344.36476283245065</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="69">
         <v>10647.923393851015</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="69">
         <v>-159.74157318709607</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="69">
         <v>10543.072916666655</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="69">
         <v>20957.664967038112</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="71">
         <v>20797.923393851015</v>
       </c>
-      <c r="O7" s="70" t="s">
+      <c r="O7" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="66">
+      <c r="A8" s="68">
         <v>43983.0</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="69">
         <v>-300.0</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="69">
         <v>0.0</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="69">
         <v>-300.0</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="69">
         <v>10150.0</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="70">
         <v>-0.00659387295460559</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="70">
         <v>0.6376253774083536</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="70">
         <v>0.25505015096334144</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="69">
         <v>-138.8149729035831</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="69">
         <v>10322.49869297435</v>
       </c>
-      <c r="K8" s="67">
+      <c r="K8" s="69">
         <v>-140.80151123131128</v>
       </c>
-      <c r="L8" s="67">
+      <c r="L8" s="69">
         <v>10532.499999999989</v>
       </c>
-      <c r="M8" s="67">
+      <c r="M8" s="69">
         <v>20613.30020420566</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="71">
         <v>20472.49869297435</v>
       </c>
-      <c r="O8" s="70" t="s">
+      <c r="O8" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="66">
+      <c r="A9" s="68">
         <v>43952.0</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="69">
         <v>-300.0</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="69">
         <v>0.0</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="69">
         <v>-300.0</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="69">
         <v>10450.0</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="70">
         <v>0.17167870410952307</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="70">
         <v>0.6442192503629591</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="70">
         <v>0.26657348290881067</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="69">
         <v>3128.591012831741</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="69">
         <v>10453.678842368237</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="69">
         <v>-148.43633474100835</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="69">
         <v>10821.614583333323</v>
       </c>
-      <c r="M9" s="67">
+      <c r="M9" s="69">
         <v>21052.115177109245</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="71">
         <v>20903.678842368237</v>
       </c>
-      <c r="O9" s="70" t="s">
+      <c r="O9" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="66">
+      <c r="A10" s="68">
         <v>43922.0</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="69">
         <v>-300.0</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="69">
         <v>0.0</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="69">
         <v>-300.0</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="69">
         <v>10750.0</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="70">
         <v>-0.09031985768405248</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="70">
         <v>0.4725405462534361</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="70">
         <v>0.20251737696575833</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="69">
         <v>-1839.1542131119495</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="69">
         <v>7497.160335242243</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="69">
         <v>23.63617096473739</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="69">
         <v>11110.416666666657</v>
       </c>
-      <c r="M10" s="67">
+      <c r="M10" s="69">
         <v>18223.524164277504</v>
       </c>
-      <c r="N10" s="69">
+      <c r="N10" s="71">
         <v>18247.160335242243</v>
       </c>
-      <c r="O10" s="70" t="s">
+      <c r="O10" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="66">
+      <c r="A11" s="68">
         <v>43891.0</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="69">
         <v>-300.0</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="69">
         <v>0.0</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="69">
         <v>-300.0</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="69">
         <v>11050.0</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="70">
         <v>-6.988944889106389E-4</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="70">
         <v>0.5628604039374886</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="70">
         <v>0.2501601795277727</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="69">
         <v>-14.451131860507303</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="69">
         <v>9235.161066633034</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="69">
         <v>-77.51731075641983</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="69">
         <v>11398.90624999999</v>
       </c>
-      <c r="M11" s="67">
+      <c r="M11" s="69">
         <v>20362.678377389453</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="71">
         <v>20285.161066633034</v>
       </c>
-      <c r="O11" s="70" t="s">
+      <c r="O11" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="66">
+      <c r="A12" s="68">
         <v>43862.0</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="69">
         <v>0.0</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="69">
         <v>0.0</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="69">
         <v>0.0</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="69">
         <v>11350.0</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="70">
         <v>-0.013571483773815925</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="70">
         <v>0.5635592984263992</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="70">
         <v>0.260104291581415</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="69">
         <v>-284.48014529978536</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="69">
         <v>9248.817386241211</v>
       </c>
-      <c r="K12" s="67">
+      <c r="K12" s="69">
         <v>-78.31212300874773</v>
       </c>
-      <c r="L12" s="67">
+      <c r="L12" s="69">
         <v>11687.083333333325</v>
       </c>
-      <c r="M12" s="67">
+      <c r="M12" s="69">
         <v>20677.12950924996</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="71">
         <v>20598.81738624121</v>
       </c>
-      <c r="O12" s="70" t="s">
+      <c r="O12" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="66">
+      <c r="A13" s="68">
         <v>43831.0</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="69">
         <v>0.0</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="69">
         <v>11350.0</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="70">
         <v>0.06953970791992178</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="70">
         <v>0.5771307822002151</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="70">
         <v>0.27702277545610327</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="69">
         <v>1427.907640567064</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="69">
         <v>9082.971123549509</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="69">
         <v>-528.638531000236</v>
       </c>
-      <c r="L13" s="67">
+      <c r="L13" s="69">
         <v>11675.260416666659</v>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="69">
         <v>20961.609654549746</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="71">
         <v>20432.97112354951</v>
       </c>
-      <c r="O13" s="70" t="s">
+      <c r="O13" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="66">
+      <c r="A14" s="68">
         <v>43800.0</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="69">
         <v>-700.0</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="69">
         <v>0.0</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="69">
         <v>-700.0</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="69">
         <v>12350.0</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="70">
         <v>0.02764486097227171</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="70">
         <v>0.5075910742802933</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="70">
         <v>0.25379553714014663</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="69">
         <v>571.2116728222863</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="69">
         <v>7733.598403213633</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="69">
         <v>-450.10361076904746</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="69">
         <v>12662.395833333325</v>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="69">
         <v>20533.702013982682</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="71">
         <v>20083.598403213633</v>
       </c>
-      <c r="O14" s="70" t="s">
+      <c r="O14" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="66">
+      <c r="A15" s="68">
         <v>43770.0</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="69">
         <v>-300.0</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="69">
         <v>0.0</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="69">
         <v>-300.0</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="69">
         <v>13050.0</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="70">
         <v>-0.031204251937763165</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="70">
         <v>0.4799462133080215</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="70">
         <v>0.25040671998679387</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="69">
         <v>-675.1875523368581</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="69">
         <v>7193.803372396575</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="69">
         <v>-418.6869687638217</v>
       </c>
-      <c r="L15" s="67">
+      <c r="L15" s="69">
         <v>13348.802083333325</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="69">
         <v>20662.490341160395</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="71">
         <v>20243.803372396575</v>
       </c>
-      <c r="O15" s="70" t="s">
+      <c r="O15" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="66">
+      <c r="A16" s="68">
         <v>43739.0</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="69">
         <v>-150.0</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="69">
         <v>0.0</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="69">
         <v>-150.0</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="69">
         <v>13350.0</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="70">
         <v>-0.0017577640676155197</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="70">
         <v>0.5111504652457847</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="70">
         <v>0.2788093446795189</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="69">
         <v>-38.36503399618232</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="69">
         <v>7831.855609354905</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="69">
         <v>-455.8222841423489</v>
       </c>
-      <c r="L16" s="67">
+      <c r="L16" s="69">
         <v>13634.895833333325</v>
       </c>
-      <c r="M16" s="67">
+      <c r="M16" s="69">
         <v>21637.677893497254</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="71">
         <v>21181.855609354905</v>
       </c>
-      <c r="O16" s="70" t="s">
+      <c r="O16" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="66">
+      <c r="A17" s="68">
         <v>43709.0</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17" s="69">
         <v>0.0</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="69">
         <v>0.0</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="69">
         <v>0.0</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="69">
         <v>13500.0</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="70">
         <v>0.09663855056374034</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="70">
         <v>0.5129082293134002</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="70">
         <v>0.2930904167505144</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="69">
         <v>1923.3658637758672</v>
       </c>
-      <c r="J17" s="67">
+      <c r="J17" s="69">
         <v>7868.110566481297</v>
       </c>
-      <c r="K17" s="67">
+      <c r="K17" s="69">
         <v>-457.9323610121389</v>
       </c>
-      <c r="L17" s="67">
+      <c r="L17" s="69">
         <v>13770.833333333325</v>
       </c>
-      <c r="M17" s="67">
+      <c r="M17" s="69">
         <v>21826.042927493436</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="71">
         <v>21368.110566481297</v>
       </c>
-      <c r="O17" s="70" t="s">
+      <c r="O17" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="66">
+      <c r="A18" s="68">
         <v>43678.0</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="69">
         <v>0.0</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="69">
         <v>13500.0</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="70">
         <v>0.07804921004485675</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="70">
         <v>0.4162696787496598</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="70">
         <v>0.2497618072497959</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="69">
         <v>1513.323712354486</v>
       </c>
-      <c r="J18" s="67">
+      <c r="J18" s="69">
         <v>6050.529825213103</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="69">
         <v>-352.14723850446626</v>
       </c>
-      <c r="L18" s="67">
+      <c r="L18" s="69">
         <v>13756.770833333325</v>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="69">
         <v>19902.67706371757</v>
       </c>
-      <c r="N18" s="69">
+      <c r="N18" s="71">
         <v>19550.529825213103</v>
       </c>
-      <c r="O18" s="70" t="s">
+      <c r="O18" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="66">
+      <c r="A19" s="68">
         <v>43647.0</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="69">
         <v>0.0</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="69">
         <v>0.0</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="69">
         <v>0.0</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="69">
         <v>14500.0</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="70">
         <v>0.05571063566313939</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="70">
         <v>0.33822046870480305</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="70">
         <v>0.21361292760303352</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="69">
         <v>1023.1906014882006</v>
       </c>
-      <c r="J19" s="67">
+      <c r="J19" s="69">
         <v>4620.438917038115</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K19" s="69">
         <v>-268.91443432496953</v>
       </c>
-      <c r="L19" s="67">
+      <c r="L19" s="69">
         <v>14741.666666666659</v>
       </c>
-      <c r="M19" s="67">
+      <c r="M19" s="69">
         <v>19389.353351363083</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="71">
         <v>19120.438917038115</v>
       </c>
-      <c r="O19" s="70" t="s">
+      <c r="O19" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="66">
+      <c r="A20" s="68">
         <v>43617.0</v>
       </c>
-      <c r="B20" s="67">
+      <c r="B20" s="69">
         <v>0.0</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="69">
         <v>0.0</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="69">
         <v>0.0</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="69">
         <v>14500.0</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="70">
         <v>0.03999771844904346</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="70">
         <v>0.28250983304166366</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="70">
         <v>0.18833988869444246</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="69">
         <v>706.3521329203759</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="69">
         <v>3653.5237986317625</v>
       </c>
-      <c r="K20" s="67">
+      <c r="K20" s="69">
         <v>-212.63895124311853</v>
       </c>
-      <c r="L20" s="67">
+      <c r="L20" s="69">
         <v>14726.562499999993</v>
       </c>
-      <c r="M20" s="67">
+      <c r="M20" s="69">
         <v>18366.162749874882</v>
       </c>
-      <c r="N20" s="69">
+      <c r="N20" s="71">
         <v>18153.523798631762</v>
       </c>
-      <c r="O20" s="70" t="s">
+      <c r="O20" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="66">
+      <c r="A21" s="68">
         <v>43586.0</v>
       </c>
-      <c r="B21" s="67">
+      <c r="B21" s="69">
         <v>-500.0</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="69">
         <v>0.0</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="69">
         <v>-500.0</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="69">
         <v>14500.0</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="70">
         <v>0.026231385182183264</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="70">
         <v>0.24251211459262018</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="70">
         <v>0.17118502206537894</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="69">
         <v>464.18087967975225</v>
       </c>
-      <c r="J21" s="67">
+      <c r="J21" s="69">
         <v>2986.021033022007</v>
       </c>
-      <c r="K21" s="67">
+      <c r="K21" s="69">
         <v>-173.78958393249786</v>
       </c>
-      <c r="L21" s="67">
+      <c r="L21" s="69">
         <v>14711.458333333327</v>
       </c>
-      <c r="M21" s="67">
+      <c r="M21" s="69">
         <v>17659.810616954506</v>
       </c>
-      <c r="N21" s="69">
+      <c r="N21" s="71">
         <v>17486.021033022007</v>
       </c>
-      <c r="O21" s="70" t="s">
+      <c r="O21" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="66">
+      <c r="A22" s="68">
         <v>43556.0</v>
       </c>
-      <c r="B22" s="67">
+      <c r="B22" s="69">
         <v>0.0</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="69">
         <v>0.0</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="69">
         <v>0.0</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="69">
         <v>15000.0</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="70">
         <v>0.10199738482836891</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="70">
         <v>0.2162807294104369</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="70">
         <v>0.16221054705782767</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="69">
         <v>1637.8513968744555</v>
       </c>
-      <c r="J22" s="67">
+      <c r="J22" s="69">
         <v>2547.370101724642</v>
       </c>
-      <c r="K22" s="67">
+      <c r="K22" s="69">
         <v>-148.25963555011148</v>
       </c>
-      <c r="L22" s="67">
+      <c r="L22" s="69">
         <v>15195.833333333327</v>
       </c>
-      <c r="M22" s="67">
+      <c r="M22" s="69">
         <v>17695.629737274754</v>
       </c>
-      <c r="N22" s="69">
+      <c r="N22" s="71">
         <v>17547.370101724642</v>
       </c>
-      <c r="O22" s="70" t="s">
+      <c r="O22" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="66">
+      <c r="A23" s="68">
         <v>43525.0</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="69">
         <v>0.0</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="69">
         <v>0.0</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="69">
         <v>0.0</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="69">
         <v>15000.0</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="70">
         <v>0.03449682927674902</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="70">
         <v>0.11428334458206801</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="70">
         <v>0.09142667566565442</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="69">
         <v>535.4704067676521</v>
       </c>
-      <c r="J23" s="67">
+      <c r="J23" s="69">
         <v>999.6005316782812</v>
       </c>
-      <c r="K23" s="67">
+      <c r="K23" s="69">
         <v>-58.17780872201642</v>
       </c>
-      <c r="L23" s="67">
+      <c r="L23" s="69">
         <v>15180.208333333327</v>
       </c>
-      <c r="M23" s="67">
+      <c r="M23" s="69">
         <v>16057.778340400298</v>
       </c>
-      <c r="N23" s="69">
+      <c r="N23" s="71">
         <v>15999.600531678281</v>
       </c>
-      <c r="O23" s="70" t="s">
+      <c r="O23" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="66">
+      <c r="A24" s="68">
         <v>43497.0</v>
       </c>
-      <c r="B24" s="67">
+      <c r="B24" s="69">
         <v>0.0</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="69">
         <v>0.0</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="69">
         <v>0.0</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="69">
         <v>15000.0</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="70">
         <v>0.04107233145116107</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="70">
         <v>0.079786515305319</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="70">
         <v>0.06838844169027342</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="69">
         <v>373.3496002993197</v>
       </c>
-      <c r="J24" s="67">
+      <c r="J24" s="69">
         <v>493.58099728285015</v>
       </c>
-      <c r="K24" s="67">
+      <c r="K24" s="69">
         <v>-28.726936349795555</v>
       </c>
-      <c r="L24" s="67">
+      <c r="L24" s="69">
         <v>15164.583333333327</v>
       </c>
-      <c r="M24" s="67">
+      <c r="M24" s="69">
         <v>15522.307933632646</v>
       </c>
-      <c r="N24" s="69">
+      <c r="N24" s="71">
         <v>15493.58099728285</v>
       </c>
-      <c r="O24" s="70" t="s">
+      <c r="O24" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="66">
+      <c r="A25" s="68">
         <v>43466.0</v>
       </c>
-      <c r="B25" s="67">
+      <c r="B25" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="69">
         <v>0.0</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="69">
         <v>-1000.0</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="69">
         <v>15000.0</v>
       </c>
-      <c r="F25" s="68">
+      <c r="F25" s="70">
         <v>-0.024314741161841652</v>
       </c>
-      <c r="G25" s="68">
+      <c r="G25" s="70">
         <v>0.038714183854157924</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="70">
         <v>0.035736169711530395</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="69">
         <v>-157.4504235641234</v>
       </c>
-      <c r="J25" s="67">
+      <c r="J25" s="69">
         <v>140.76562499999454</v>
       </c>
-      <c r="K25" s="67">
+      <c r="K25" s="69">
         <v>-8.19270833333297</v>
       </c>
-      <c r="L25" s="67">
+      <c r="L25" s="69">
         <v>15148.958333333327</v>
       </c>
-      <c r="M25" s="67">
+      <c r="M25" s="69">
         <v>14909.9226486943</v>
       </c>
-      <c r="N25" s="69">
+      <c r="N25" s="71">
         <v>15140.765624999995</v>
       </c>
-      <c r="O25" s="70" t="s">
+      <c r="O25" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="66">
+      <c r="A26" s="68">
         <v>43435.0</v>
       </c>
-      <c r="B26" s="67">
+      <c r="B26" s="69">
         <v>6000.0</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="69">
         <v>0.0</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="69">
         <v>6000.0</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E26" s="69">
         <v>16000.0</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="70">
         <v>0.059176449934818486</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="70">
         <v>0.06302892501599958</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26" s="70">
         <v>0.06302892501599958</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="69">
         <v>191.8254235641234</v>
       </c>
-      <c r="J26" s="67">
+      <c r="J26" s="69">
         <v>289.55627526809076</v>
       </c>
-      <c r="K26" s="67">
+      <c r="K26" s="69">
         <v>-16.852481629359758</v>
       </c>
-      <c r="L26" s="67">
+      <c r="L26" s="69">
         <v>16132.29166666666</v>
       </c>
-      <c r="M26" s="67">
+      <c r="M26" s="69">
         <v>16306.40875689745</v>
       </c>
-      <c r="N26" s="69">
+      <c r="N26" s="71">
         <v>16289.55627526809</v>
       </c>
-      <c r="O26" s="70" t="s">
+      <c r="O26" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="66">
+      <c r="A27" s="68">
         <v>43405.0</v>
       </c>
-      <c r="B27" s="67">
+      <c r="B27" s="69">
         <v>7000.0</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="69">
         <v>7000.0</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="69">
         <v>0.0</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E27" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="70">
         <v>-0.06412073646906129</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="70">
         <v>0.0038524750811810976</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="70">
         <v>0.004202700088561198</v>
       </c>
-      <c r="I27" s="67">
+      <c r="I27" s="69">
         <v>-275.32832818211136</v>
       </c>
-      <c r="J27" s="67">
+      <c r="J27" s="69">
         <v>108.28124999999454</v>
       </c>
-      <c r="K27" s="67">
+      <c r="K27" s="69">
         <v>-6.302083333332968</v>
       </c>
-      <c r="L27" s="67">
+      <c r="L27" s="69">
         <v>10114.583333333327</v>
       </c>
-      <c r="M27" s="67">
+      <c r="M27" s="69">
         <v>9723.70287393058</v>
       </c>
-      <c r="N27" s="69">
+      <c r="N27" s="71">
         <v>10108.281249999995</v>
       </c>
-      <c r="O27" s="70" t="s">
+      <c r="O27" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="66">
+      <c r="A28" s="68">
         <v>43374.0</v>
       </c>
-      <c r="B28" s="67">
+      <c r="B28" s="69">
         <v>0.0</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="69">
         <v>0.0</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="69">
         <v>0.0</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="70">
         <v>-0.028896114427261484</v>
       </c>
-      <c r="G28" s="68">
+      <c r="G28" s="70">
         <v>0.06797321155024239</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="70">
         <v>0.08156785386029086</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="69">
         <v>-309.16164657627814</v>
       </c>
-      <c r="J28" s="67">
+      <c r="J28" s="69">
         <v>368.4665201320895</v>
       </c>
-      <c r="K28" s="67">
+      <c r="K28" s="69">
         <v>-21.445141383349092</v>
       </c>
-      <c r="L28" s="67">
+      <c r="L28" s="69">
         <v>10104.16666666666</v>
       </c>
-      <c r="M28" s="67">
+      <c r="M28" s="69">
         <v>10389.911661515438</v>
       </c>
-      <c r="N28" s="69">
+      <c r="N28" s="71">
         <v>10368.46652013209</v>
       </c>
-      <c r="O28" s="70" t="s">
+      <c r="O28" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="66">
+      <c r="A29" s="68">
         <v>43344.0</v>
       </c>
-      <c r="B29" s="67">
+      <c r="B29" s="69">
         <v>0.0</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="69">
         <v>0.0</v>
       </c>
-      <c r="D29" s="67">
+      <c r="D29" s="69">
         <v>0.0</v>
       </c>
-      <c r="E29" s="67">
+      <c r="E29" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="70">
         <v>0.08865378226331043</v>
       </c>
-      <c r="G29" s="68">
+      <c r="G29" s="70">
         <v>0.09686932597750388</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="70">
         <v>0.1291591013033385</v>
       </c>
-      <c r="I29" s="67">
+      <c r="I29" s="69">
         <v>615.7399747583877</v>
       </c>
-      <c r="J29" s="67">
+      <c r="J29" s="69">
         <v>660.624276146671</v>
       </c>
-      <c r="K29" s="67">
+      <c r="K29" s="69">
         <v>-38.44903194504439</v>
       </c>
-      <c r="L29" s="67">
+      <c r="L29" s="69">
         <v>10093.749999999995</v>
       </c>
-      <c r="M29" s="67">
+      <c r="M29" s="69">
         <v>10699.073308091716</v>
       </c>
-      <c r="N29" s="69">
+      <c r="N29" s="71">
         <v>10660.624276146671</v>
       </c>
-      <c r="O29" s="70" t="s">
+      <c r="O29" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="66">
+      <c r="A30" s="68">
         <v>43313.0</v>
       </c>
-      <c r="B30" s="67">
+      <c r="B30" s="69">
         <v>0.0</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="69">
         <v>0.0</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="69">
         <v>0.0</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="70">
         <v>-0.02448824447309521</v>
       </c>
-      <c r="G30" s="68">
+      <c r="G30" s="70">
         <v>0.00821554371419345</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="70">
         <v>0.012323315571290175</v>
       </c>
-      <c r="I30" s="67">
+      <c r="I30" s="69">
         <v>8.824773747366635</v>
       </c>
-      <c r="J30" s="67">
+      <c r="J30" s="69">
         <v>78.74999999999454</v>
       </c>
-      <c r="K30" s="67">
+      <c r="K30" s="69">
         <v>-4.583333333333067</v>
       </c>
-      <c r="L30" s="67">
+      <c r="L30" s="69">
         <v>10083.333333333328</v>
       </c>
-      <c r="M30" s="67">
+      <c r="M30" s="69">
         <v>9827.80153103253</v>
       </c>
-      <c r="N30" s="69">
+      <c r="N30" s="71">
         <v>10078.749999999995</v>
       </c>
-      <c r="O30" s="70" t="s">
+      <c r="O30" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="66">
+      <c r="A31" s="68">
         <v>43282.0</v>
       </c>
-      <c r="B31" s="67">
+      <c r="B31" s="69">
         <v>0.0</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="69">
         <v>0.0</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="69">
         <v>0.0</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F31" s="68">
+      <c r="F31" s="70">
         <v>0.010858996309905966</v>
       </c>
-      <c r="G31" s="68">
+      <c r="G31" s="70">
         <v>0.03270378818728866</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="70">
         <v>0.056063636892494856</v>
       </c>
-      <c r="I31" s="67">
+      <c r="I31" s="69">
         <v>12.008559585965486</v>
       </c>
-      <c r="J31" s="67">
+      <c r="J31" s="69">
         <v>70.41058880873425</v>
       </c>
-      <c r="K31" s="67">
+      <c r="K31" s="69">
         <v>-4.097970777227902</v>
       </c>
-      <c r="L31" s="67">
+      <c r="L31" s="69">
         <v>10072.916666666662</v>
       </c>
-      <c r="M31" s="67">
+      <c r="M31" s="69">
         <v>10074.508559585962</v>
       </c>
-      <c r="N31" s="69">
+      <c r="N31" s="71">
         <v>10070.410588808734</v>
       </c>
-      <c r="O31" s="70" t="s">
+      <c r="O31" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="66">
+      <c r="A32" s="68">
         <v>43252.0</v>
       </c>
-      <c r="B32" s="67">
+      <c r="B32" s="69">
         <v>0.0</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="69">
         <v>0.0</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D32" s="69">
         <v>0.0</v>
       </c>
-      <c r="E32" s="67">
+      <c r="E32" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F32" s="68">
+      <c r="F32" s="70">
         <v>0.12647428034130279</v>
       </c>
-      <c r="G32" s="68">
+      <c r="G32" s="70">
         <v>0.021844791877382697</v>
       </c>
-      <c r="H32" s="68">
+      <c r="H32" s="70">
         <v>0.04368958375476539</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="69">
         <v>10.41666666666606</v>
       </c>
-      <c r="J32" s="67">
+      <c r="J32" s="69">
         <v>59.06249999999636</v>
       </c>
-      <c r="K32" s="67">
+      <c r="K32" s="69">
         <v>-3.4374999999997997</v>
       </c>
-      <c r="L32" s="67">
+      <c r="L32" s="69">
         <v>10062.499999999996</v>
       </c>
-      <c r="M32" s="67">
+      <c r="M32" s="69">
         <v>9966.284710689117</v>
       </c>
-      <c r="N32" s="69">
+      <c r="N32" s="71">
         <v>10059.062499999996</v>
       </c>
-      <c r="O32" s="70" t="s">
+      <c r="O32" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="66">
+      <c r="A33" s="68">
         <v>43221.0</v>
       </c>
-      <c r="B33" s="67">
+      <c r="B33" s="69">
         <v>0.0</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="69">
         <v>0.0</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D33" s="69">
         <v>0.0</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E33" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F33" s="68">
+      <c r="F33" s="70">
         <v>0.07661146740532812</v>
       </c>
-      <c r="G33" s="68">
+      <c r="G33" s="70">
         <v>-0.10462948846392009</v>
       </c>
-      <c r="H33" s="68">
+      <c r="H33" s="70">
         <v>-0.25111077231340817</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="69">
         <v>10.41666666666606</v>
       </c>
-      <c r="J33" s="67">
+      <c r="J33" s="69">
         <v>49.21874999999636</v>
       </c>
-      <c r="K33" s="67">
+      <c r="K33" s="69">
         <v>-2.8645833333331665</v>
       </c>
-      <c r="L33" s="67">
+      <c r="L33" s="69">
         <v>10052.08333333333</v>
       </c>
-      <c r="M33" s="67">
+      <c r="M33" s="69">
         <v>8847.325575573283</v>
       </c>
-      <c r="N33" s="69">
+      <c r="N33" s="71">
         <v>10049.218749999996</v>
       </c>
-      <c r="O33" s="70" t="s">
+      <c r="O33" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="66">
+      <c r="A34" s="68">
         <v>43191.0</v>
       </c>
-      <c r="B34" s="67">
+      <c r="B34" s="69">
         <v>0.0</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="69">
         <v>0.0</v>
       </c>
-      <c r="D34" s="67">
+      <c r="D34" s="69">
         <v>0.0</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F34" s="68">
+      <c r="F34" s="70">
         <v>-0.0394470506102503</v>
       </c>
-      <c r="G34" s="68">
+      <c r="G34" s="70">
         <v>-0.1812409558692482</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H34" s="70">
         <v>-0.5437228676077446</v>
       </c>
-      <c r="I34" s="67">
+      <c r="I34" s="69">
         <v>10.41666666666606</v>
       </c>
-      <c r="J34" s="67">
+      <c r="J34" s="69">
         <v>39.37499999999818</v>
       </c>
-      <c r="K34" s="67">
+      <c r="K34" s="69">
         <v>-2.2916666666665333</v>
       </c>
-      <c r="L34" s="67">
+      <c r="L34" s="69">
         <v>10041.666666666664</v>
       </c>
-      <c r="M34" s="67">
+      <c r="M34" s="69">
         <v>8217.751569092656</v>
       </c>
-      <c r="N34" s="69">
+      <c r="N34" s="71">
         <v>10039.374999999998</v>
       </c>
-      <c r="O34" s="70" t="s">
+      <c r="O34" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="66">
+      <c r="A35" s="68">
         <v>43160.0</v>
       </c>
-      <c r="B35" s="67">
+      <c r="B35" s="69">
         <v>0.0</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="69">
         <v>0.0</v>
       </c>
-      <c r="D35" s="67">
+      <c r="D35" s="69">
         <v>0.0</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E35" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F35" s="68">
+      <c r="F35" s="70">
         <v>-0.052153074609364886</v>
       </c>
-      <c r="G35" s="68">
+      <c r="G35" s="70">
         <v>-0.1417939052589979</v>
       </c>
-      <c r="H35" s="68">
+      <c r="H35" s="70">
         <v>-0.5671756210359916</v>
       </c>
-      <c r="I35" s="67">
+      <c r="I35" s="69">
         <v>10.41666666666606</v>
       </c>
-      <c r="J35" s="67">
+      <c r="J35" s="69">
         <v>29.53124999999818</v>
       </c>
-      <c r="K35" s="67">
+      <c r="K35" s="69">
         <v>-1.7187499999999</v>
       </c>
-      <c r="L35" s="67">
+      <c r="L35" s="69">
         <v>10031.249999999998</v>
       </c>
-      <c r="M35" s="67">
+      <c r="M35" s="69">
         <v>8555.230166450989</v>
       </c>
-      <c r="N35" s="69">
+      <c r="N35" s="71">
         <v>10029.531249999998</v>
       </c>
-      <c r="O35" s="70" t="s">
+      <c r="O35" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="66">
+      <c r="A36" s="68">
         <v>43132.0</v>
       </c>
-      <c r="B36" s="67">
+      <c r="B36" s="69">
         <v>0.0</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="69">
         <v>0.0</v>
       </c>
-      <c r="D36" s="67">
+      <c r="D36" s="69">
         <v>0.0</v>
       </c>
-      <c r="E36" s="67">
+      <c r="E36" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F36" s="68">
+      <c r="F36" s="70">
         <v>-0.09834304329279307</v>
       </c>
-      <c r="G36" s="68">
+      <c r="G36" s="70">
         <v>-0.08964083064963302</v>
       </c>
-      <c r="H36" s="68">
+      <c r="H36" s="70">
         <v>-0.5378449838977981</v>
       </c>
-      <c r="I36" s="67">
+      <c r="I36" s="69">
         <v>10.41666666666606</v>
       </c>
-      <c r="J36" s="67">
+      <c r="J36" s="69">
         <v>19.68749999999818</v>
       </c>
-      <c r="K36" s="67">
+      <c r="K36" s="69">
         <v>-1.1458333333332666</v>
       </c>
-      <c r="L36" s="67">
+      <c r="L36" s="69">
         <v>10020.833333333332</v>
       </c>
-      <c r="M36" s="67">
+      <c r="M36" s="69">
         <v>9025.961827037769</v>
       </c>
-      <c r="N36" s="69">
+      <c r="N36" s="71">
         <v>10019.687499999998</v>
       </c>
-      <c r="O36" s="70" t="s">
+      <c r="O36" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="66">
+      <c r="A37" s="68">
         <v>43101.0</v>
       </c>
-      <c r="B37" s="67">
+      <c r="B37" s="69">
         <v>10000.0</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="69">
         <v>0.0</v>
       </c>
-      <c r="D37" s="67">
+      <c r="D37" s="69">
         <v>10000.0</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="69">
         <v>10000.0</v>
       </c>
-      <c r="F37" s="68">
+      <c r="F37" s="70">
         <v>0.008702212643160052</v>
       </c>
-      <c r="G37" s="68">
+      <c r="G37" s="70">
         <v>0.008702212643160052</v>
       </c>
-      <c r="H37" s="68">
+      <c r="H37" s="70">
         <v>0.10442655171792062</v>
       </c>
-      <c r="I37" s="67">
+      <c r="I37" s="69">
         <v>10.41666666666606</v>
       </c>
-      <c r="J37" s="67">
+      <c r="J37" s="69">
         <v>9.84375</v>
       </c>
-      <c r="K37" s="67">
+      <c r="K37" s="69">
         <v>-0.5729166666666333</v>
       </c>
-      <c r="L37" s="67">
+      <c r="L37" s="69">
         <v>10010.416666666666</v>
       </c>
-      <c r="M37" s="67">
+      <c r="M37" s="69">
         <v>10010.416666666666</v>
       </c>
-      <c r="N37" s="69">
+      <c r="N37" s="71">
         <v>10009.84375</v>
       </c>
-      <c r="O37" s="70" t="s">
+      <c r="O37" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="66">
+      <c r="A38" s="68">
         <v>43070.0</v>
       </c>
-      <c r="B38" s="67">
+      <c r="B38" s="69">
         <v>10000.0</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="69">
         <v>10000.0</v>
       </c>
-      <c r="D38" s="67">
+      <c r="D38" s="69">
         <v>0.0</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="69">
         <v>0.0</v>
       </c>
-      <c r="F38" s="68">
+      <c r="F38" s="70">
         <v>0.0</v>
       </c>
-      <c r="G38" s="68">
+      <c r="G38" s="70">
         <v>0.0</v>
       </c>
-      <c r="H38" s="68">
+      <c r="H38" s="70">
         <v>0.0</v>
       </c>
-      <c r="I38" s="67">
+      <c r="I38" s="69">
         <v>0.0</v>
       </c>
-      <c r="J38" s="67">
+      <c r="J38" s="69">
         <v>0.0</v>
       </c>
-      <c r="K38" s="67">
+      <c r="K38" s="69">
         <v>0.0</v>
       </c>
-      <c r="L38" s="67">
+      <c r="L38" s="69">
         <v>0.0</v>
       </c>
-      <c r="M38" s="67">
+      <c r="M38" s="69">
         <v>0.0</v>
       </c>
-      <c r="N38" s="69">
+      <c r="N38" s="71">
         <v>0.0</v>
       </c>
-      <c r="O38" s="70" t="s">
+      <c r="O38" s="72" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Data/FiMs Associate.xlsx
+++ b/Data/FiMs Associate.xlsx
@@ -32,7 +32,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">WARNING : Mandatory to know which row to Update when modifying user data</t>
+        <t xml:space="preserve">WARNING : Mandatory to know which row to Update when modifying user data =&gt; SHOULD BE EQUAL TO ROW NUMBER</t>
       </text>
     </comment>
     <comment authorId="0" ref="B1">
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="401">
   <si>
     <t>DateTime</t>
   </si>
@@ -1427,10 +1427,10 @@
     <t>Coût si un retrait est effectué avant la fin du mois</t>
   </si>
   <si>
-    <t>Current reccurent amount</t>
+    <t>Current recurrent amount</t>
   </si>
   <si>
-    <t>Current reccurent withdraw amount (will be replaced by the new value)</t>
+    <t>Current recurrent withdraw amount (will be replaced by the new value)</t>
   </si>
   <si>
     <t>Retrait récurrent actuel</t>
@@ -1793,16 +1793,22 @@
     <t>La valeur a été mise à jour !</t>
   </si>
   <si>
-    <t>Value should be at least *</t>
+    <t>Value should be at least * !</t>
   </si>
   <si>
-    <t>La valeur doit être au moins *</t>
+    <t>La valeur doit être au moins * !</t>
   </si>
   <si>
     <t>Value should have at least * character(s) !</t>
   </si>
   <si>
     <t>La valeur doit comporter au moins * caractères</t>
+  </si>
+  <si>
+    <t>The asked recurrent withdraw amount is the same as the current one !</t>
+  </si>
+  <si>
+    <t>Le montant du retrait récurrent demandé est identique à celui en cours</t>
   </si>
   <si>
     <t>Enter your user id</t>
@@ -2611,7 +2617,7 @@
       </c>
       <c r="B1" s="2">
         <f>NOW()</f>
-        <v>44174.94513</v>
+        <v>44175.05717</v>
       </c>
     </row>
     <row r="2">
@@ -2620,7 +2626,7 @@
       </c>
       <c r="B2" s="3">
         <f>DATEVALUE($B$1)</f>
-        <v>44174</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="3">
@@ -2629,7 +2635,7 @@
       </c>
       <c r="B3" s="4">
         <f>TIMEVALUE($B$1)</f>
-        <v>0.9451273148</v>
+        <v>0.05716435185</v>
       </c>
     </row>
     <row r="4">
@@ -2656,7 +2662,7 @@
       </c>
       <c r="B6" s="5">
         <f>DAY($B$1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2665,7 +2671,7 @@
       </c>
       <c r="B7" s="5">
         <f>WEEKDAY($B$1,2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2786,7 +2792,7 @@
         <v>26</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
@@ -3910,7 +3916,7 @@
         <v>26</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
@@ -4166,7 +4172,7 @@
         <v>26</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
@@ -4298,7 +4304,7 @@
         <v>26</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
@@ -4430,7 +4436,7 @@
         <v>26</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
@@ -4559,7 +4565,7 @@
         <v>26</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
@@ -4680,8 +4686,8 @@
         <v>Cumulated profit rate</v>
       </c>
       <c r="B4" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.10534831443011654)</f>
-        <v>0.1053483144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.10531852135476864)</f>
+        <v>0.1053185214</v>
       </c>
     </row>
     <row r="5">
@@ -4700,8 +4706,8 @@
         <v>Cumulated dividend rate</v>
       </c>
       <c r="B6" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.02327811811279844)</f>
-        <v>0.02327811811</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.02327153493459912)</f>
+        <v>0.02327153493</v>
       </c>
     </row>
     <row r="7">
@@ -4720,8 +4726,8 @@
         <v>Saving duration</v>
       </c>
       <c r="B8" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.678302532511978)</f>
-        <v>9.678302533</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.681040383299111)</f>
+        <v>9.681040383</v>
       </c>
     </row>
     <row r="9">
@@ -4750,8 +4756,8 @@
         <v>Since Independance duration</v>
       </c>
       <c r="B11" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1621 months (135.1 years)")</f>
-        <v>1621 months (135.1 years)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1619 months (134.9 years)")</f>
+        <v>1619 months (134.9 years)</v>
       </c>
     </row>
     <row r="12">
@@ -4760,8 +4766,8 @@
         <v>Since Independance gap</v>
       </c>
       <c r="B12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-331998.8550947573)</f>
-        <v>-331998.8551</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-332177.9915764191)</f>
+        <v>-332177.9916</v>
       </c>
     </row>
     <row r="13">
@@ -4770,8 +4776,8 @@
         <v>Monthly income</v>
       </c>
       <c r="B13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1023.4688812125707)</f>
-        <v>1023.468881</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1023.1794386556667)</f>
+        <v>1023.179439</v>
       </c>
     </row>
     <row r="14">
@@ -4790,8 +4796,8 @@
         <v>Income use</v>
       </c>
       <c r="B15" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2002326517005606)</f>
-        <v>1.200232652</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2005721800320177)</f>
+        <v>1.20057218</v>
       </c>
     </row>
     <row r="16">
@@ -4980,8 +4986,8 @@
         <v>Current portfolio duration</v>
       </c>
       <c r="B34" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.122518822724161)</f>
-        <v>5.122518823</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.125256673511293)</f>
+        <v>5.125256674</v>
       </c>
     </row>
     <row r="35">
@@ -5040,8 +5046,8 @@
         <v>Current portfolio total profit rate</v>
       </c>
       <c r="B40" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.211620486229803)</f>
-        <v>0.2116204862</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.21150744109827)</f>
+        <v>0.2115074411</v>
       </c>
     </row>
     <row r="41">
@@ -5060,8 +5066,8 @@
         <v>Current portfolio profit rate</v>
       </c>
       <c r="B42" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.19184032104989987)</f>
-        <v>0.191840321</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.19173784224592022)</f>
+        <v>0.1917378422</v>
       </c>
     </row>
     <row r="43">
@@ -5080,8 +5086,8 @@
         <v>Current portfolio dividend rate</v>
       </c>
       <c r="B44" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.040268017527322)</f>
-        <v>0.04026801753</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.040246506834198434)</f>
+        <v>0.04024650683</v>
       </c>
     </row>
     <row r="45">
@@ -5100,8 +5106,8 @@
         <v>Current portfolio cost rate</v>
       </c>
       <c r="B46" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.020487852347418904)</f>
-        <v>-0.02048785235</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.020476907981848702)</f>
+        <v>-0.02047690798</v>
       </c>
     </row>
     <row r="47">
@@ -5227,8 +5233,8 @@
         <v>Investment provision</v>
       </c>
       <c r="B59" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-2160.1694938912988)</f>
-        <v>-2160.169494</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-1964.0223599879537)</f>
+        <v>-1964.02236</v>
       </c>
     </row>
     <row r="60">
@@ -5237,8 +5243,8 @@
         <v>Today's result</v>
       </c>
       <c r="B60" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-286.41639999995266)</f>
-        <v>-286.4164</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-321.2499999999517)</f>
+        <v>-321.25</v>
       </c>
     </row>
     <row r="61">
@@ -5247,8 +5253,8 @@
         <v>Last year daily average progress</v>
       </c>
       <c r="B61" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),574.4176617875029)</f>
-        <v>574.4176618</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),575.8965525593978)</f>
+        <v>575.8965526</v>
       </c>
     </row>
     <row r="62">
@@ -5257,8 +5263,8 @@
         <v>Transaction per month</v>
       </c>
       <c r="B62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.89696215139442)</f>
-        <v>13.89696215</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.885897691082802)</f>
+        <v>13.88589769</v>
       </c>
     </row>
     <row r="63">
@@ -5267,8 +5273,8 @@
         <v>Average profit per transaction</v>
       </c>
       <c r="B63" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),363.83804097113097)</f>
-        <v>363.838041</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.2301530937424)</f>
+        <v>364.2301531</v>
       </c>
     </row>
     <row r="64">
@@ -5277,8 +5283,8 @@
         <v>Average profit per month</v>
       </c>
       <c r="B64" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5056.243484613299)</f>
-        <v>5056.243485</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5057.662641867133)</f>
+        <v>5057.662642</v>
       </c>
     </row>
     <row r="65">
@@ -5287,8 +5293,8 @@
         <v>Total profit per month</v>
       </c>
       <c r="B65" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5458.936680333081)</f>
-        <v>5458.93668</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5460.355837586915)</f>
+        <v>5460.355838</v>
       </c>
     </row>
     <row r="66">
@@ -5317,8 +5323,8 @@
         <v>Instant profit per month</v>
       </c>
       <c r="B68" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3997.4954789668045)</f>
-        <v>3997.495479</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3994.312759636417)</f>
+        <v>3994.31276</v>
       </c>
     </row>
     <row r="69">
@@ -5327,8 +5333,8 @@
         <v>Last month stock average progress</v>
       </c>
       <c r="B69" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0016280316010208714)</f>
-        <v>0.001628031601</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0019004604927007913)</f>
+        <v>0.001900460493</v>
       </c>
     </row>
     <row r="70">
@@ -5337,8 +5343,8 @@
         <v>Last negative average profit in days</v>
       </c>
       <c r="B70" s="21" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"7d (0.2m)")</f>
-        <v>7d (0.2m)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"8d (0.3m)")</f>
+        <v>8d (0.3m)</v>
       </c>
     </row>
     <row r="71">
@@ -5347,8 +5353,8 @@
         <v>Last updated</v>
       </c>
       <c r="B71" s="22">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.19490995370870223)</f>
-        <v>0.1949099537</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.3073569444459281)</f>
+        <v>0.3073569444</v>
       </c>
     </row>
     <row r="72">
@@ -36592,8 +36598,8 @@
     </row>
     <row r="2">
       <c r="A2" s="32">
-        <f t="shared" ref="A2:A7" si="1">ROW()-2</f>
-        <v>0</v>
+        <f t="shared" ref="A2:A7" si="1">ROW()</f>
+        <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>40</v>
@@ -36682,7 +36688,7 @@
     <row r="3">
       <c r="A3" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>50</v>
@@ -36777,7 +36783,7 @@
     <row r="4">
       <c r="A4" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>58</v>
@@ -36860,7 +36866,7 @@
     <row r="5">
       <c r="A5" s="32">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>65</v>
@@ -36951,7 +36957,7 @@
     <row r="6">
       <c r="A6" s="32">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>76</v>
@@ -37042,7 +37048,7 @@
     <row r="7">
       <c r="A7" s="32">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>87</v>
@@ -37942,8 +37948,8 @@
         <v>148</v>
       </c>
       <c r="B26" s="44" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""En date du "" &amp; TO_TEXT(DateTime!$B$6)&amp;""/""&amp;TO_TEXT(DateTime!$B$5)&amp;""/""&amp;TO_TEXT(DateTime!$B$4) &amp; "", "" &amp; COUNT(Associate!$A:$A)-1 &amp; "" personnes. Plus moi, "" &amp; COUNT(Associate!$A:$A) &amp; "" :-)"""),"En date du 9/12/2020, 5 personnes. Plus moi, 6 :-)")</f>
-        <v>En date du 9/12/2020, 5 personnes. Plus moi, 6 :-)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""En date du "" &amp; TO_TEXT(DateTime!$B$6)&amp;""/""&amp;TO_TEXT(DateTime!$B$5)&amp;""/""&amp;TO_TEXT(DateTime!$B$4) &amp; "", "" &amp; COUNT(Associate!$A:$A)-1 &amp; "" personnes. Plus moi, "" &amp; COUNT(Associate!$A:$A) &amp; "" :-)"""),"En date du 10/12/2020, 5 personnes. Plus moi, 6 :-)")</f>
+        <v>En date du 10/12/2020, 5 personnes. Plus moi, 6 :-)</v>
       </c>
     </row>
     <row r="27">
@@ -38799,11 +38805,11 @@
       <c r="D51" s="50"/>
     </row>
     <row r="52">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="53" t="s">
         <v>326</v>
       </c>
       <c r="B52" s="50"/>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="55" t="s">
         <v>327</v>
       </c>
       <c r="D52" s="50"/>
@@ -38819,31 +38825,27 @@
       <c r="D53" s="50"/>
     </row>
     <row r="54">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="51"/>
+      <c r="C54" s="53" t="s">
         <v>331</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="D54" s="50"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="B55" s="51" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="51" t="s">
+      <c r="C55" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="B55" s="51" t="s">
-        <v>331</v>
-      </c>
-      <c r="C55" s="50" t="s">
+      <c r="D55" s="50" t="s">
         <v>335</v>
-      </c>
-      <c r="D55" s="50" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="56">
@@ -38851,24 +38853,28 @@
         <v>336</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C56" s="50" t="s">
         <v>337</v>
       </c>
       <c r="D56" s="50" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="B57" s="50"/>
+      <c r="B57" s="51" t="s">
+        <v>333</v>
+      </c>
       <c r="C57" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="D57" s="50"/>
+      <c r="D57" s="50" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="51" t="s">
@@ -38884,39 +38890,39 @@
       <c r="A59" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="50"/>
+      <c r="C59" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="C59" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="D59" s="50" t="s">
-        <v>345</v>
-      </c>
+      <c r="D59" s="50"/>
     </row>
     <row r="60">
       <c r="A60" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="C60" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="D60" s="50" t="s">
         <v>347</v>
-      </c>
-      <c r="C60" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="D60" s="50" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="C61" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50" t="s">
+      <c r="D61" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="D61" s="50"/>
     </row>
     <row r="62">
       <c r="A62" s="51" t="s">
@@ -38959,11 +38965,11 @@
       <c r="D65" s="50"/>
     </row>
     <row r="66">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51" t="s">
+      <c r="B66" s="50"/>
+      <c r="C66" s="50" t="s">
         <v>361</v>
       </c>
       <c r="D66" s="50"/>
@@ -38984,17 +38990,17 @@
       </c>
       <c r="B68" s="51"/>
       <c r="C68" s="51" t="s">
-        <v>219</v>
+        <v>365</v>
       </c>
       <c r="D68" s="50"/>
     </row>
     <row r="69">
       <c r="A69" s="50" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B69" s="51"/>
       <c r="C69" s="51" t="s">
-        <v>366</v>
+        <v>219</v>
       </c>
       <c r="D69" s="50"/>
     </row>
@@ -39012,39 +39018,39 @@
       <c r="A71" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="51"/>
+      <c r="C71" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="C71" s="51" t="s">
-        <v>371</v>
-      </c>
-      <c r="D71" s="50" t="s">
-        <v>372</v>
-      </c>
+      <c r="D71" s="50"/>
     </row>
     <row r="72">
       <c r="A72" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="B72" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C72" s="51" t="s">
         <v>373</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="D72" s="50" t="s">
         <v>374</v>
-      </c>
-      <c r="C72" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="D72" s="50" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="50" t="s">
+        <v>375</v>
+      </c>
+      <c r="B73" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="B73" s="51"/>
       <c r="C73" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="D73" s="50" t="s">
         <v>377</v>
       </c>
-      <c r="D73" s="50"/>
     </row>
     <row r="74">
       <c r="A74" s="50" t="s">
@@ -39057,75 +39063,85 @@
       <c r="D74" s="50"/>
     </row>
     <row r="75">
-      <c r="A75" s="60" t="s">
+      <c r="A75" s="50" t="s">
         <v>380</v>
       </c>
       <c r="B75" s="51"/>
-      <c r="C75" s="50" t="s">
+      <c r="C75" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="D75" s="55" t="s">
+      <c r="D75" s="50"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="60" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="50" t="s">
+      <c r="B76" s="51"/>
+      <c r="C76" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51" t="s">
+      <c r="D76" s="55" t="s">
         <v>384</v>
-      </c>
-      <c r="D76" s="50" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B77" s="51"/>
       <c r="C77" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="D77" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="D77" s="50" t="s">
+    </row>
+    <row r="78">
+      <c r="A78" s="50" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="60" t="s">
+      <c r="B78" s="51"/>
+      <c r="C78" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="B78" s="51"/>
-      <c r="C78" s="50" t="s">
+      <c r="D78" s="50" t="s">
         <v>390</v>
-      </c>
-      <c r="D78" s="61" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B79" s="51"/>
       <c r="C79" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="D79" s="61" t="s">
         <v>393</v>
       </c>
-      <c r="D79" s="62" t="s">
+    </row>
+    <row r="80">
+      <c r="A80" s="60" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="63" t="s">
+      <c r="B80" s="51"/>
+      <c r="C80" s="50" t="s">
         <v>395</v>
       </c>
-      <c r="B80" s="64"/>
-      <c r="C80" s="65" t="s">
+      <c r="D80" s="62" t="s">
         <v>396</v>
       </c>
-      <c r="D80" s="66" t="s">
+    </row>
+    <row r="81">
+      <c r="A81" s="63" t="s">
         <v>397</v>
+      </c>
+      <c r="B81" s="64"/>
+      <c r="C81" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="D81" s="66" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -39195,7 +39211,7 @@
         <v>26</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">

--- a/Data/FiMs Associate.xlsx
+++ b/Data/FiMs Associate.xlsx
@@ -2084,6 +2084,9 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
@@ -2094,9 +2097,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <name val="Arial"/>
-    </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2155,7 +2155,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2239,6 +2239,9 @@
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="172" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -2251,10 +2254,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2275,13 +2278,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2302,19 +2305,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -2617,7 +2620,7 @@
       </c>
       <c r="B1" s="2">
         <f>NOW()</f>
-        <v>44175.05717</v>
+        <v>44175.1044</v>
       </c>
     </row>
     <row r="2">
@@ -2635,7 +2638,7 @@
       </c>
       <c r="B3" s="4">
         <f>TIMEVALUE($B$1)</f>
-        <v>0.05716435185</v>
+        <v>0.1044097222</v>
       </c>
     </row>
     <row r="4">
@@ -2749,1102 +2752,1102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="68" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68">
+      <c r="A2" s="69">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="70">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>300</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="70">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="70">
         <f t="shared" ref="D2:D18" si="1">$B2-$C2</f>
         <v>300</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="70">
         <f t="shared" ref="E2:E18" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>600</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="71">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="71">
         <f t="shared" ref="G2:G18" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.319813211</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="71">
         <f t="shared" ref="H2:H18" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A18)*12,0)</f>
         <v>0.2398599083</v>
       </c>
-      <c r="I2" s="69">
+      <c r="I2" s="70">
         <f t="shared" ref="I2:I18" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I18)</f>
         <v>11.04684281</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="70">
         <f t="shared" ref="J2:J18" si="6">$N2-$E2</f>
         <v>38.2175457</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="70">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.224301602</v>
       </c>
-      <c r="L2" s="69">
+      <c r="L2" s="70">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>603.0208333</v>
       </c>
-      <c r="M2" s="69">
+      <c r="M2" s="70">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>640.4418473</v>
       </c>
-      <c r="N2" s="71">
+      <c r="N2" s="72">
         <f t="shared" ref="N2:N18" si="7">MAX($M2,$L2)+$K2</f>
         <v>638.2175457</v>
       </c>
-      <c r="O2" s="72" t="str">
+      <c r="O2" s="73" t="str">
         <f t="shared" ref="O2:O18" si="8">IF(ROW()=2,"Paclone",INDEX(O:O,ROW()-1))</f>
         <v>Paclone</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="68">
+      <c r="A3" s="69">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="70">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>200</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="70">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>200</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="70">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="71">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="71">
         <f t="shared" si="3"/>
         <v>0.2869089188</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="71">
         <f t="shared" si="4"/>
         <v>0.229527135</v>
       </c>
-      <c r="I3" s="69">
+      <c r="I3" s="70">
         <f t="shared" si="5"/>
         <v>-5.503327796</v>
       </c>
-      <c r="J3" s="69">
+      <c r="J3" s="70">
         <f t="shared" si="6"/>
         <v>27.77827925</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="70">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.616725247</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="70">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>302.5</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="70">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>329.3950045</v>
       </c>
-      <c r="N3" s="71">
+      <c r="N3" s="72">
         <f t="shared" si="7"/>
         <v>327.7782792</v>
       </c>
-      <c r="O3" s="72" t="str">
+      <c r="O3" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="68">
+      <c r="A4" s="69">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="70">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="70">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="70">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="70">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="71">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>-0.003035883482</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="71">
         <f t="shared" si="3"/>
         <v>0.3033417501</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="71">
         <f t="shared" si="4"/>
         <v>0.2600072144</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="70">
         <f t="shared" si="5"/>
         <v>-0.7152955209</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="70">
         <f t="shared" si="6"/>
         <v>32.97892401</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="70">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.919408276</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="70">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>302.1875</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="70">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>334.8983323</v>
       </c>
-      <c r="N4" s="71">
+      <c r="N4" s="72">
         <f t="shared" si="7"/>
         <v>332.978924</v>
       </c>
-      <c r="O4" s="72" t="str">
+      <c r="O4" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="68">
+      <c r="A5" s="69">
         <f t="array" ref="A5">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44075</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="70">
         <f t="array" ref="B5">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A5,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A5,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="70">
         <f>MAX($B5+IF($B5&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A5,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A5),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="70">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="71">
         <f t="array" ref="F5">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A5),0)</f>
         <v>0.06950114423</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="71">
         <f t="shared" si="3"/>
         <v>0.3063776336</v>
       </c>
-      <c r="H5" s="70">
+      <c r="H5" s="71">
         <f t="shared" si="4"/>
         <v>0.2828101233</v>
       </c>
-      <c r="I5" s="69">
+      <c r="I5" s="70">
         <f t="shared" si="5"/>
         <v>15.31126621</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="70">
         <f t="shared" si="6"/>
         <v>33.65487828</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="70">
         <f t="array" ref="K5">-$I5*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.95874953</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="70">
         <f t="array" ref="L5">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D5+INDEX($L:$L,ROW()+1)</f>
         <v>201.9791667</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="70">
         <f t="array" ref="M5">INDEX($M:$M,ROW()+1)+$D5+INDEX($M:$M,ROW()+1)*$F5+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>235.6136278</v>
       </c>
-      <c r="N5" s="71">
+      <c r="N5" s="72">
         <f t="shared" si="7"/>
         <v>233.6548783</v>
       </c>
-      <c r="O5" s="72" t="str">
+      <c r="O5" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="68">
+      <c r="A6" s="69">
         <f t="array" ref="A6">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44044</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="70">
         <f t="array" ref="B6">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A6,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A6,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="70">
         <f>MAX($B6+IF($B6&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A6,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A6),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="70">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="71">
         <f t="array" ref="F6">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A6),0)</f>
         <v>-0.001185159315</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="71">
         <f t="shared" si="3"/>
         <v>0.2368764894</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="71">
         <f t="shared" si="4"/>
         <v>0.2368764894</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="70">
         <f t="shared" si="5"/>
         <v>-0.2614032004</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="70">
         <f t="shared" si="6"/>
         <v>19.18573171</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="70">
         <f t="array" ref="K6">-$I6*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.116629888</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="70">
         <f t="array" ref="L6">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D6+INDEX($L:$L,ROW()+1)</f>
         <v>201.7708333</v>
       </c>
-      <c r="M6" s="69">
+      <c r="M6" s="70">
         <f t="array" ref="M6">INDEX($M:$M,ROW()+1)+$D6+INDEX($M:$M,ROW()+1)*$F6+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.3023616</v>
       </c>
-      <c r="N6" s="71">
+      <c r="N6" s="72">
         <f t="shared" si="7"/>
         <v>219.1857317</v>
       </c>
-      <c r="O6" s="72" t="str">
+      <c r="O6" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="68">
+      <c r="A7" s="69">
         <f t="array" ref="A7">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44013</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="70">
         <f t="array" ref="B7">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A7,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A7,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="70">
         <f>MAX($B7+IF($B7&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A7,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A7),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="70">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="71">
         <f t="array" ref="F7">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A7),0)</f>
         <v>0.01670595001</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="71">
         <f t="shared" si="3"/>
         <v>0.2380616487</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="71">
         <f t="shared" si="4"/>
         <v>0.2597036167</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="70">
         <f t="shared" si="5"/>
         <v>3.624181829</v>
       </c>
-      <c r="J7" s="69">
+      <c r="J7" s="70">
         <f t="shared" si="6"/>
         <v>19.43275774</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="70">
         <f t="array" ref="K7">-$I7*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.131007064</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="70">
         <f t="array" ref="L7">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D7+INDEX($L:$L,ROW()+1)</f>
         <v>201.5625</v>
       </c>
-      <c r="M7" s="69">
+      <c r="M7" s="70">
         <f t="array" ref="M7">INDEX($M:$M,ROW()+1)+$D7+INDEX($M:$M,ROW()+1)*$F7+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.5637648</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="72">
         <f t="shared" si="7"/>
         <v>219.4327577</v>
       </c>
-      <c r="O7" s="72" t="str">
+      <c r="O7" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="68">
+      <c r="A8" s="69">
         <f t="array" ref="A8">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43983</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="70">
         <f t="array" ref="B8">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A8,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A8,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="70">
         <f>MAX($B8+IF($B8&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A8,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A8),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="70">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="71">
         <f t="array" ref="F8">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A8),0)</f>
         <v>-0.006593872955</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="71">
         <f t="shared" si="3"/>
         <v>0.2213556987</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="71">
         <f t="shared" si="4"/>
         <v>0.2656268384</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="70">
         <f t="shared" si="5"/>
         <v>-1.439967008</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="70">
         <f t="shared" si="6"/>
         <v>16.00790591</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="70">
         <f t="array" ref="K8">-$I8*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.9316770635</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="70">
         <f t="array" ref="L8">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D8+INDEX($L:$L,ROW()+1)</f>
         <v>201.3541667</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="70">
         <f t="array" ref="M8">INDEX($M:$M,ROW()+1)+$D8+INDEX($M:$M,ROW()+1)*$F8+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>216.939583</v>
       </c>
-      <c r="N8" s="71">
+      <c r="N8" s="72">
         <f t="shared" si="7"/>
         <v>216.0079059</v>
       </c>
-      <c r="O8" s="72" t="str">
+      <c r="O8" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="68">
+      <c r="A9" s="69">
         <f t="array" ref="A9">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43952</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="70">
         <f t="array" ref="B9">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A9,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A9,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="70">
         <f>MAX($B9+IF($B9&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A9,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A9),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="70">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="71">
         <f t="array" ref="F9">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A9),0)</f>
         <v>0.1716787041</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="71">
         <f t="shared" si="3"/>
         <v>0.2279495716</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="71">
         <f t="shared" si="4"/>
         <v>0.3039327622</v>
       </c>
-      <c r="I9" s="69">
+      <c r="I9" s="70">
         <f t="shared" si="5"/>
         <v>17.44204998</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="70">
         <f t="shared" si="6"/>
         <v>17.36867473</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="70">
         <f t="array" ref="K9">-$I9*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.010875249</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="70">
         <f t="array" ref="L9">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D9+INDEX($L:$L,ROW()+1)</f>
         <v>201.1458333</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="70">
         <f t="array" ref="M9">INDEX($M:$M,ROW()+1)+$D9+INDEX($M:$M,ROW()+1)*$F9+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>218.37955</v>
       </c>
-      <c r="N9" s="71">
+      <c r="N9" s="72">
         <f t="shared" si="7"/>
         <v>217.3686747</v>
       </c>
-      <c r="O9" s="72" t="str">
+      <c r="O9" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="68">
+      <c r="A10" s="69">
         <f t="array" ref="A10">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43922</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="70">
         <f t="array" ref="B10">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A10,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A10,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="70">
         <f>MAX($B10+IF($B10&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A10,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A10),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="70">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="71">
         <f t="array" ref="F10">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A10),0)</f>
         <v>-0.09031985768</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="71">
         <f t="shared" si="3"/>
         <v>0.0562708675</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="71">
         <f t="shared" si="4"/>
         <v>0.08440630126</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I10" s="70">
         <f t="shared" si="5"/>
         <v>-3.949647339</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="70">
         <f t="shared" si="6"/>
         <v>0.8859375</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="70">
         <f t="array" ref="K10">-$I10*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0515625</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="70">
         <f t="array" ref="L10">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D10+INDEX($L:$L,ROW()+1)</f>
         <v>200.9375</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="70">
         <f t="array" ref="M10">INDEX($M:$M,ROW()+1)+$D10+INDEX($M:$M,ROW()+1)*$F10+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>186.3817694</v>
       </c>
-      <c r="N10" s="71">
+      <c r="N10" s="72">
         <f t="shared" si="7"/>
         <v>200.8859375</v>
       </c>
-      <c r="O10" s="72" t="str">
+      <c r="O10" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="68">
+      <c r="A11" s="69">
         <f t="array" ref="A11">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43891</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="70">
         <f t="array" ref="B11">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A11,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A11,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="70">
         <f>MAX($B11+IF($B11&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A11,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A11),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="70">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="70">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="71">
         <f t="array" ref="F11">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A11),0)</f>
         <v>-0.0006988944889</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="71">
         <f t="shared" si="3"/>
         <v>0.1465907252</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="71">
         <f t="shared" si="4"/>
         <v>0.251298386</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="70">
         <f t="shared" si="5"/>
         <v>-0.07335631756</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="70">
         <f t="shared" si="6"/>
         <v>4.618354235</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="70">
         <f t="array" ref="K11">-$I11*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2687931036</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="70">
         <f t="array" ref="L11">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D11+INDEX($L:$L,ROW()+1)</f>
         <v>200.7291667</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="70">
         <f t="array" ref="M11">INDEX($M:$M,ROW()+1)+$D11+INDEX($M:$M,ROW()+1)*$F11+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>204.8871473</v>
       </c>
-      <c r="N11" s="71">
+      <c r="N11" s="72">
         <f t="shared" si="7"/>
         <v>204.6183542</v>
       </c>
-      <c r="O11" s="72" t="str">
+      <c r="O11" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="68">
+      <c r="A12" s="69">
         <f t="array" ref="A12">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43862</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="70">
         <f t="array" ref="B12">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A12,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A12,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="70">
         <f>MAX($B12+IF($B12&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A12,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A12),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="70">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="71">
         <f t="array" ref="F12">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A12),0)</f>
         <v>-0.01357148377</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12" s="71">
         <f t="shared" si="3"/>
         <v>0.1472896197</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="71">
         <f t="shared" si="4"/>
         <v>0.2945792394</v>
       </c>
-      <c r="I12" s="69">
+      <c r="I12" s="70">
         <f t="shared" si="5"/>
         <v>-1.444067917</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="70">
         <f t="shared" si="6"/>
         <v>4.687675955</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="70">
         <f t="array" ref="K12">-$I12*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2728277011</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="70">
         <f t="array" ref="L12">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D12+INDEX($L:$L,ROW()+1)</f>
         <v>100.625</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="70">
         <f t="array" ref="M12">INDEX($M:$M,ROW()+1)+$D12+INDEX($M:$M,ROW()+1)*$F12+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>104.9605037</v>
       </c>
-      <c r="N12" s="71">
+      <c r="N12" s="72">
         <f t="shared" si="7"/>
         <v>104.687676</v>
       </c>
-      <c r="O12" s="72" t="str">
+      <c r="O12" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="68">
+      <c r="A13" s="69">
         <f t="array" ref="A13">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43831</v>
       </c>
-      <c r="B13" s="69">
+      <c r="B13" s="70">
         <f t="array" ref="B13">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A13,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A13,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="70">
         <f>MAX($B13+IF($B13&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A13,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A13),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="70">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="71">
         <f t="array" ref="F13">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A13),0)</f>
         <v>0.06953970792</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="71">
         <f t="shared" si="3"/>
         <v>0.1608611035</v>
       </c>
-      <c r="H13" s="70">
+      <c r="H13" s="71">
         <f t="shared" si="4"/>
         <v>0.3860666483</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="70">
         <f t="shared" si="5"/>
         <v>5.987904906</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="70">
         <f t="shared" si="6"/>
         <v>6.052320137</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="70">
         <f t="array" ref="K13">-$I13*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.3522514365</v>
       </c>
-      <c r="L13" s="69">
+      <c r="L13" s="70">
         <f t="array" ref="L13">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D13+INDEX($L:$L,ROW()+1)</f>
         <v>100.5208333</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="70">
         <f t="array" ref="M13">INDEX($M:$M,ROW()+1)+$D13+INDEX($M:$M,ROW()+1)*$F13+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>106.4045716</v>
       </c>
-      <c r="N13" s="71">
+      <c r="N13" s="72">
         <f t="shared" si="7"/>
         <v>106.0523201</v>
       </c>
-      <c r="O13" s="72" t="str">
+      <c r="O13" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="68">
+      <c r="A14" s="69">
         <f t="array" ref="A14">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43800</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="70">
         <f t="array" ref="B14">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A14,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A14,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="70">
         <f>MAX($B14+IF($B14&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A14,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A14),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="70">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="71">
         <f t="array" ref="F14">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A14),0)</f>
         <v>0.02764486097</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="71">
         <f t="shared" si="3"/>
         <v>0.09132139553</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="71">
         <f t="shared" si="4"/>
         <v>0.2739641866</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="70">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="70">
         <f t="shared" si="6"/>
         <v>0.39375</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="70">
         <f t="array" ref="K14">-$I14*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.02291666667</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="70">
         <f t="array" ref="L14">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D14+INDEX($L:$L,ROW()+1)</f>
         <v>100.4166667</v>
       </c>
-      <c r="M14" s="69">
+      <c r="M14" s="70">
         <f t="array" ref="M14">INDEX($M:$M,ROW()+1)+$D14+INDEX($M:$M,ROW()+1)*$F14+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.48632181</v>
       </c>
-      <c r="N14" s="71">
+      <c r="N14" s="72">
         <f t="shared" si="7"/>
         <v>100.39375</v>
       </c>
-      <c r="O14" s="72" t="str">
+      <c r="O14" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="68">
+      <c r="A15" s="69">
         <f t="array" ref="A15">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43770</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="70">
         <f t="array" ref="B15">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A15,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A15,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="70">
         <f>MAX($B15+IF($B15&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A15,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A15),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="70">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="71">
         <f t="array" ref="F15">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A15),0)</f>
         <v>-0.03120425194</v>
       </c>
-      <c r="G15" s="70">
+      <c r="G15" s="71">
         <f t="shared" si="3"/>
         <v>0.06367653456</v>
       </c>
-      <c r="H15" s="70">
+      <c r="H15" s="71">
         <f t="shared" si="4"/>
         <v>0.2547061382</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="70">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="70">
         <f t="shared" si="6"/>
         <v>0.2953125</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="70">
         <f t="array" ref="K15">-$I15*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0171875</v>
       </c>
-      <c r="L15" s="69">
+      <c r="L15" s="70">
         <f t="array" ref="L15">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D15+INDEX($L:$L,ROW()+1)</f>
         <v>100.3125</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="70">
         <f t="array" ref="M15">INDEX($M:$M,ROW()+1)+$D15+INDEX($M:$M,ROW()+1)*$F15+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>96.81002221</v>
       </c>
-      <c r="N15" s="71">
+      <c r="N15" s="72">
         <f t="shared" si="7"/>
         <v>100.2953125</v>
       </c>
-      <c r="O15" s="72" t="str">
+      <c r="O15" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="68">
+      <c r="A16" s="69">
         <f t="array" ref="A16">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43739</v>
       </c>
-      <c r="B16" s="69">
+      <c r="B16" s="70">
         <f t="array" ref="B16">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A16,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A16,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="70">
         <f>MAX($B16+IF($B16&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A16,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A16),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="70">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="71">
         <f t="array" ref="F16">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A16),0)</f>
         <v>-0.001757764068</v>
       </c>
-      <c r="G16" s="70">
+      <c r="G16" s="71">
         <f t="shared" si="3"/>
         <v>0.0948807865</v>
       </c>
-      <c r="H16" s="70">
+      <c r="H16" s="71">
         <f t="shared" si="4"/>
         <v>0.569284719</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="70">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="70">
         <f t="shared" si="6"/>
         <v>0.196875</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="70">
         <f t="array" ref="K16">-$I16*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.01145833333</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="70">
         <f t="array" ref="L16">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D16+INDEX($L:$L,ROW()+1)</f>
         <v>100.2083333</v>
       </c>
-      <c r="M16" s="69">
+      <c r="M16" s="70">
         <f t="array" ref="M16">INDEX($M:$M,ROW()+1)+$D16+INDEX($M:$M,ROW()+1)*$F16+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.92820716</v>
       </c>
-      <c r="N16" s="71">
+      <c r="N16" s="72">
         <f t="shared" si="7"/>
         <v>100.196875</v>
       </c>
-      <c r="O16" s="72" t="str">
+      <c r="O16" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="68">
+      <c r="A17" s="69">
         <f t="array" ref="A17">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43709</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="70">
         <f t="array" ref="B17">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A17,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A17,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="70">
         <f>MAX($B17+IF($B17&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A17,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A17),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="70">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="70">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="71">
         <f t="array" ref="F17">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A17),0)</f>
         <v>0.09663855056</v>
       </c>
-      <c r="G17" s="70">
+      <c r="G17" s="71">
         <f t="shared" si="3"/>
         <v>0.09663855056</v>
       </c>
-      <c r="H17" s="70">
+      <c r="H17" s="71">
         <f t="shared" si="4"/>
         <v>1.159662607</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="70">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="70">
         <f t="shared" si="6"/>
         <v>0.0984375</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="70">
         <f t="array" ref="K17">-$I17*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.005729166667</v>
       </c>
-      <c r="L17" s="69">
+      <c r="L17" s="70">
         <f t="array" ref="L17">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D17+INDEX($L:$L,ROW()+1)</f>
         <v>100.1041667</v>
       </c>
-      <c r="M17" s="69">
+      <c r="M17" s="70">
         <f t="array" ref="M17">INDEX($M:$M,ROW()+1)+$D17+INDEX($M:$M,ROW()+1)*$F17+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>100.1041667</v>
       </c>
-      <c r="N17" s="71">
+      <c r="N17" s="72">
         <f t="shared" si="7"/>
         <v>100.0984375</v>
       </c>
-      <c r="O17" s="72" t="str">
+      <c r="O17" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="68">
+      <c r="A18" s="69">
         <f t="array" ref="A18">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43678</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="70">
         <f t="array" ref="B18">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A18,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A18,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="70">
         <f>MAX($B18+IF($B18&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A18,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A18),0),0)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="71">
         <f t="array" ref="F18">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A18),0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="70">
+      <c r="G18" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H18" s="70">
+      <c r="H18" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="70">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="70">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="70">
         <f t="array" ref="K18">-$I18*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="69">
+      <c r="L18" s="70">
         <f t="array" ref="L18">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D18+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="69">
+      <c r="M18" s="70">
         <f t="array" ref="M18">INDEX($M:$M,ROW()+1)+$D18+INDEX($M:$M,ROW()+1)*$F18+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N18" s="71">
+      <c r="N18" s="72">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O18" s="72" t="str">
+      <c r="O18" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
@@ -3873,234 +3876,234 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="68" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68">
+      <c r="A2" s="69">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="70">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="70">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="70">
         <f t="shared" ref="D2:D4" si="1">$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="70">
         <f t="shared" ref="E2:E4" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>40000</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="71">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="71">
         <f t="shared" ref="G2:G4" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.0164714609</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="71">
         <f t="shared" ref="H2:H4" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A4)*12,0)</f>
         <v>0.09882876541</v>
       </c>
-      <c r="I2" s="69">
+      <c r="I2" s="70">
         <f t="shared" ref="I2:I4" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I4)</f>
         <v>1145.025732</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="70">
         <f t="shared" ref="J2:J4" si="6">$N2-$E2</f>
         <v>1121.424317</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="70">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-65.26808195</v>
       </c>
-      <c r="L2" s="69">
+      <c r="L2" s="70">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>40083.33333</v>
       </c>
-      <c r="M2" s="69">
+      <c r="M2" s="70">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>41186.6924</v>
       </c>
-      <c r="N2" s="71">
+      <c r="N2" s="72">
         <f t="shared" ref="N2:N4" si="7">MAX($M2,$L2)+$K2</f>
         <v>41121.42432</v>
       </c>
-      <c r="O2" s="72" t="str">
+      <c r="O2" s="73" t="str">
         <f t="shared" ref="O2:O4" si="8">IF(ROW()=2,"Philo",INDEX(O:O,ROW()-1))</f>
         <v>Philo</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="68">
+      <c r="A3" s="69">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="70">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>30442</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="70">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="70">
         <f t="shared" si="1"/>
         <v>30442</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="70">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="71">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="71">
         <f t="shared" si="3"/>
         <v>-0.0164328313</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="71">
         <f t="shared" si="4"/>
         <v>-0.1971939755</v>
       </c>
-      <c r="I3" s="69">
+      <c r="I3" s="70">
         <f t="shared" si="5"/>
         <v>41.66666667</v>
       </c>
-      <c r="J3" s="69">
+      <c r="J3" s="70">
         <f t="shared" si="6"/>
         <v>39.375</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="70">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.291666667</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="70">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>40041.66667</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="70">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>39874.64542</v>
       </c>
-      <c r="N3" s="71">
+      <c r="N3" s="72">
         <f t="shared" si="7"/>
         <v>40039.375</v>
       </c>
-      <c r="O3" s="72" t="str">
+      <c r="O3" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="68">
+      <c r="A4" s="69">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="70">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>40000</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="70">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>30442</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="70">
         <f t="shared" si="1"/>
         <v>9558</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="70">
         <f t="shared" si="2"/>
         <v>9558</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="71">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="70">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="70">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="70">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="70">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>9558</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="70">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>9558</v>
       </c>
-      <c r="N4" s="71">
+      <c r="N4" s="72">
         <f t="shared" si="7"/>
         <v>9558</v>
       </c>
-      <c r="O4" s="72" t="str">
+      <c r="O4" s="73" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
@@ -4129,112 +4132,173 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="68" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68">
+      <c r="A2" s="69">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="70">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="69">
+        <v>555</v>
+      </c>
+      <c r="C2" s="70">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="69">
-        <f>$B2-$C2</f>
+      <c r="D2" s="70">
+        <f t="shared" ref="D2:D3" si="1">$B2-$C2</f>
+        <v>555</v>
+      </c>
+      <c r="E2" s="70">
+        <f t="shared" ref="E2:E3" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
+        <v>555</v>
+      </c>
+      <c r="F2" s="71">
+        <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
+        <v>0.0329042922</v>
+      </c>
+      <c r="G2" s="71">
+        <f t="shared" ref="G2:G3" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
+        <v>0.0329042922</v>
+      </c>
+      <c r="H2" s="71">
+        <f t="shared" ref="H2:H3" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3)*12,0)</f>
+        <v>0.3948515064</v>
+      </c>
+      <c r="I2" s="70">
+        <f t="shared" ref="I2:I3" si="5">MAX($L2,$M2)-$E2-SUM($I3)</f>
+        <v>0.578125</v>
+      </c>
+      <c r="J2" s="70">
+        <f t="shared" ref="J2:J3" si="6">$N2-$E2</f>
+        <v>0.546328125</v>
+      </c>
+      <c r="K2" s="70">
+        <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
+        <v>-0.031796875</v>
+      </c>
+      <c r="L2" s="70">
+        <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
+        <v>555.578125</v>
+      </c>
+      <c r="M2" s="70">
+        <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
+        <v>555.578125</v>
+      </c>
+      <c r="N2" s="72">
+        <f t="shared" ref="N2:N3" si="7">MAX($M2,$L2)+$K2</f>
+        <v>555.5463281</v>
+      </c>
+      <c r="O2" s="73" t="str">
+        <f t="shared" ref="O2:O3" si="8">IF(ROW()=2,"Tester",ROW()-1)</f>
+        <v>Tester</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="69">
+        <v>44136.0</v>
+      </c>
+      <c r="B3" s="70">
+        <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
+        <v>555</v>
+      </c>
+      <c r="C3" s="70">
+        <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
+        <v>555</v>
+      </c>
+      <c r="D3" s="70">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E2" s="69">
-        <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
+      <c r="E3" s="70">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F2" s="70">
-        <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
+      <c r="F3" s="71">
+        <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="70">
-        <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
+      <c r="G3" s="71">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H2" s="70">
-        <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
+      <c r="H3" s="71">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I2" s="69">
-        <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
+      <c r="I3" s="70">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J2" s="69">
-        <f>$N2-$E2</f>
+      <c r="J3" s="70">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K2" s="69">
-        <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
+      <c r="K3" s="70">
+        <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="69">
-        <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
+      <c r="L3" s="70">
+        <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="69">
-        <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
+      <c r="M3" s="70">
+        <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="71">
-        <f>MAX($M2,$L2)+$K2</f>
+      <c r="N3" s="72">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O2" s="72" t="str">
-        <f>IF(ROW()=2,"Tester",ROW()-1)</f>
-        <v>Tester</v>
+      <c r="O3" s="73">
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4261,110 +4325,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="68" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68">
+      <c r="A2" s="69">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="70">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="70">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="70">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="70">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="71">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="71">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="71">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="69">
+      <c r="I2" s="70">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="70">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="70">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="69">
+      <c r="L2" s="70">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="69">
+      <c r="M2" s="70">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="71">
+      <c r="N2" s="72">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="72" t="str">
+      <c r="O2" s="73" t="str">
         <f>IF(ROW()=2,"Lizzz",ROW()-1)</f>
         <v>Lizzz</v>
       </c>
@@ -4393,110 +4457,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="68" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68">
+      <c r="A2" s="69">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="70">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="70">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="70">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="70">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="71">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="71">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="71">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="69">
+      <c r="I2" s="70">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="70">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="70">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="69">
+      <c r="L2" s="70">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="69">
+      <c r="M2" s="70">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="71">
+      <c r="N2" s="72">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="72" t="str">
+      <c r="O2" s="73" t="str">
         <f>IF(ROW()=2,"Joséd",ROW()-1)</f>
         <v>Joséd</v>
       </c>
@@ -4522,110 +4586,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="68" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68">
+      <c r="A2" s="69">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="70">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="70">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="70">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="70">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="71">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="71">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="71">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="69">
+      <c r="I2" s="70">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="70">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="70">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="69">
+      <c r="L2" s="70">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="69">
+      <c r="M2" s="70">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="71">
+      <c r="N2" s="72">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="72" t="str">
+      <c r="O2" s="73" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"SheetName",INDEX(O:O,ROW()-1))</f>
         <v>SheetName</v>
       </c>
@@ -4656,8 +4720,8 @@
         <v>Cumulated saving</v>
       </c>
       <c r="B1" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301248.60757984174)</f>
-        <v>301248.6076</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290695.0612517168)</f>
+        <v>290695.0613</v>
       </c>
     </row>
     <row r="2">
@@ -4666,8 +4730,8 @@
         <v>Cumulated profit total rate</v>
       </c>
       <c r="B2" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.019592858344865)</f>
-        <v>1.019592858</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0187700482025641)</f>
+        <v>1.018770048</v>
       </c>
     </row>
     <row r="3">
@@ -4686,8 +4750,8 @@
         <v>Cumulated profit rate</v>
       </c>
       <c r="B4" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.10531852135476864)</f>
-        <v>0.1053185214</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.10523352944173826)</f>
+        <v>0.1052335294</v>
       </c>
     </row>
     <row r="5">
@@ -4706,8 +4770,8 @@
         <v>Cumulated dividend rate</v>
       </c>
       <c r="B6" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.02327153493459912)</f>
-        <v>0.02327153493</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.023252754835450345)</f>
+        <v>0.02325275484</v>
       </c>
     </row>
     <row r="7">
@@ -4716,8 +4780,8 @@
         <v>Average investment</v>
       </c>
       <c r="B7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178878.56756477093)</f>
-        <v>178878.5676</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179023.0389299158)</f>
+        <v>179023.0389</v>
       </c>
     </row>
     <row r="8">
@@ -4746,8 +4810,8 @@
         <v>Working free duration</v>
       </c>
       <c r="B10" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"246 months (20.5 years)")</f>
-        <v>246 months (20.5 years)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"237 months (19.8 years)")</f>
+        <v>237 months (19.8 years)</v>
       </c>
     </row>
     <row r="11">
@@ -4756,8 +4820,8 @@
         <v>Since Independance duration</v>
       </c>
       <c r="B11" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1619 months (134.9 years)")</f>
-        <v>1619 months (134.9 years)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1160 months (96.7 years)")</f>
+        <v>1160 months (96.7 years)</v>
       </c>
     </row>
     <row r="12">
@@ -4766,8 +4830,8 @@
         <v>Since Independance gap</v>
       </c>
       <c r="B12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-332177.9915764191)</f>
-        <v>-332177.9916</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-343243.12521623285)</f>
+        <v>-343243.1252</v>
       </c>
     </row>
     <row r="13">
@@ -4776,8 +4840,8 @@
         <v>Monthly income</v>
       </c>
       <c r="B13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1023.1794386556667)</f>
-        <v>1023.179439</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),932.3356698880466)</f>
+        <v>932.3356699</v>
       </c>
     </row>
     <row r="14">
@@ -4796,8 +4860,8 @@
         <v>Income use</v>
       </c>
       <c r="B15" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2005721800320177)</f>
-        <v>1.20057218</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3175520457972763)</f>
+        <v>1.317552046</v>
       </c>
     </row>
     <row r="16">
@@ -4946,8 +5010,8 @@
         <v>Debt</v>
       </c>
       <c r="B30" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-69232.89242015811)</f>
-        <v>-69232.89242</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-79786.43874828311)</f>
+        <v>-79786.43875</v>
       </c>
     </row>
     <row r="31">
@@ -4976,8 +5040,8 @@
         <v>Client</v>
       </c>
       <c r="B33" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-54758.34242015811)</f>
-        <v>-54758.34242</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-65311.888748283105)</f>
+        <v>-65311.88875</v>
       </c>
     </row>
     <row r="34">
@@ -5046,8 +5110,8 @@
         <v>Current portfolio total profit rate</v>
       </c>
       <c r="B40" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.21150744109827)</f>
-        <v>0.2115074411</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.2113367548618145)</f>
+        <v>0.2113367549</v>
       </c>
     </row>
     <row r="41">
@@ -5066,8 +5130,8 @@
         <v>Current portfolio profit rate</v>
       </c>
       <c r="B42" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.19173784224592022)</f>
-        <v>0.1917378422</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.1915831100506409)</f>
+        <v>0.1915831101</v>
       </c>
     </row>
     <row r="43">
@@ -5086,8 +5150,8 @@
         <v>Current portfolio dividend rate</v>
       </c>
       <c r="B44" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.040246506834198434)</f>
-        <v>0.04024650683</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.04021402795427658)</f>
+        <v>0.04021402795</v>
       </c>
     </row>
     <row r="45">
@@ -5106,8 +5170,8 @@
         <v>Current portfolio cost rate</v>
       </c>
       <c r="B46" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.020476907981848702)</f>
-        <v>-0.02047690798</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.02046038314310299)</f>
+        <v>-0.02046038314</v>
       </c>
     </row>
     <row r="47">
@@ -5233,8 +5297,8 @@
         <v>Investment provision</v>
       </c>
       <c r="B59" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-1964.0223599879537)</f>
-        <v>-1964.02236</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-3410.11087884428)</f>
+        <v>-3410.110879</v>
       </c>
     </row>
     <row r="60">
@@ -5243,8 +5307,8 @@
         <v>Today's result</v>
       </c>
       <c r="B60" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-321.2499999999517)</f>
-        <v>-321.25</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5253,8 +5317,8 @@
         <v>Last year daily average progress</v>
       </c>
       <c r="B61" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),575.8965525593978)</f>
-        <v>575.8965526</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),575.1406076433202)</f>
+        <v>575.1406076</v>
       </c>
     </row>
     <row r="62">
@@ -5273,8 +5337,8 @@
         <v>Average profit per transaction</v>
       </c>
       <c r="B63" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.2301530937424)</f>
-        <v>364.2301531</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),363.9333403659573)</f>
+        <v>363.9333404</v>
       </c>
     </row>
     <row r="64">
@@ -5283,8 +5347,8 @@
         <v>Average profit per month</v>
       </c>
       <c r="B64" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5057.662641867133)</f>
-        <v>5057.662642</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5053.541130695698)</f>
+        <v>5053.541131</v>
       </c>
     </row>
     <row r="65">
@@ -5293,8 +5357,8 @@
         <v>Total profit per month</v>
       </c>
       <c r="B65" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5460.355837586915)</f>
-        <v>5460.355838</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5456.23432641548)</f>
+        <v>5456.234326</v>
       </c>
     </row>
     <row r="66">
@@ -5303,8 +5367,8 @@
         <v>Instant profit per trading day</v>
       </c>
       <c r="B66" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.05828375286052)</f>
-        <v>143.0582838</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.94924542682938)</f>
+        <v>142.9492454</v>
       </c>
     </row>
     <row r="67">
@@ -5333,8 +5397,8 @@
         <v>Last month stock average progress</v>
       </c>
       <c r="B69" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0019004604927007913)</f>
-        <v>0.001900460493</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0017553686264385141)</f>
+        <v>0.001755368626</v>
       </c>
     </row>
     <row r="70">
@@ -5353,8 +5417,8 @@
         <v>Last updated</v>
       </c>
       <c r="B71" s="22">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.3073569444459281)</f>
-        <v>0.3073569444</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.35459453703515464)</f>
+        <v>0.354594537</v>
       </c>
     </row>
     <row r="72">
@@ -36615,7 +36679,7 @@
       </c>
       <c r="F2" s="34">
         <f>COUNTIFS(Historic!$A:$A,"&gt;="&amp;MIN(INDIRECT($B2&amp;"!$A:$A")),Historic!$D:$D,"BUY")</f>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G2" s="35">
         <f t="array" ref="G2">IF(ROW()=2,MAX(Dashboard!$B$26,Dashboard!$B$57/12),INDEX(G:G,ROW()-1))</f>
@@ -36623,31 +36687,31 @@
       </c>
       <c r="H2" s="33">
         <f t="shared" ref="H2:H7" si="3">$G2*$N2</f>
-        <v>0</v>
+        <v>0.5786940918</v>
       </c>
       <c r="I2" s="33" t="str">
         <f>IF(ISREF(INDIRECT($B2&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B2&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B2&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
-        <v>1 months (0.1 years)</v>
+        <v>2 months (0.2 years)</v>
       </c>
       <c r="J2" s="33">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&lt;&gt;",AssociateHistoric!$B:$B,$B2,AssociateHistoric!$C:$C,"&gt;0")</f>
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="K2" s="33">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B2,AssociateHistoric!$C:$C,"&lt;0",AssociateHistoric!$D:$D,"&lt;=0")</f>
         <v>0</v>
       </c>
-      <c r="L2" s="33" t="str">
-        <f t="shared" ref="L2:L7" si="4">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!J2"),)</f>
-        <v/>
-      </c>
-      <c r="M2" s="35" t="str">
-        <f t="shared" ref="M2:M7" si="5">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!H2"),)</f>
-        <v/>
-      </c>
-      <c r="N2" s="36" t="str">
-        <f t="shared" ref="N2:N7" si="6">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!N2")+INDIRECT($B2&amp;"!C2"),)</f>
-        <v/>
+      <c r="L2" s="33">
+        <f t="shared" ref="L2:L7" si="4">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!J2"),) </f>
+        <v>0.546328125</v>
+      </c>
+      <c r="M2" s="35">
+        <f t="shared" ref="M2:M7" si="5">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!H2"),) </f>
+        <v>0.3948515064</v>
+      </c>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2:N7" si="6">SUM(J2,K2,L2)</f>
+        <v>555.5463281</v>
       </c>
       <c r="O2" s="37" t="s">
         <v>41</v>
@@ -36981,7 +37045,7 @@
       </c>
       <c r="H6" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.207291667</v>
       </c>
       <c r="I6" s="33" t="str">
         <f>IF(ISREF(INDIRECT($B6&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B6&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B6&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
@@ -36995,17 +37059,17 @@
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B6,AssociateHistoric!$C:$C,"&lt;0",AssociateHistoric!$D:$D,"&lt;=0")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="33" t="str">
+      <c r="L6" s="33">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M6" s="35" t="str">
+        <v>0</v>
+      </c>
+      <c r="M6" s="35">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N6" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N6" s="36">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4999</v>
       </c>
       <c r="O6" s="37" t="s">
         <v>77</v>
@@ -37072,7 +37136,7 @@
       </c>
       <c r="H7" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.207291667</v>
       </c>
       <c r="I7" s="33" t="str">
         <f>IF(ISREF(INDIRECT($B7&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B7&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B7&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
@@ -37086,17 +37150,17 @@
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B7,AssociateHistoric!$C:$C,"&lt;0",AssociateHistoric!$D:$D,"&lt;=0")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="33" t="str">
+      <c r="L7" s="33">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M7" s="35" t="str">
+        <v>0</v>
+      </c>
+      <c r="M7" s="35">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N7" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N7" s="36">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4999</v>
       </c>
       <c r="O7" s="37" t="s">
         <v>88</v>
@@ -37189,7 +37253,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="38"/>
+      <c r="A2" s="41">
+        <v>44131.0</v>
+      </c>
       <c r="B2" s="32" t="s">
         <v>40</v>
       </c>
@@ -37743,388 +37809,388 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="45" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="44" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""Au "" &amp; TO_TEXT(AllocationHistoric!A2) &amp; "", la capitalisation de l'entreprise est de "" &amp; TO_TEXT(AllocationHistoric!F2) &amp; "". J'en suis propriétaire de "" &amp; ROUNDUP(AllocationHistoric!B2/AllocationHistoric!F2*100,1) &amp; ""%, soit "" &amp; TO_TEXT(Allocation"&amp;"Historic!B2) &amp; "" dont "" &amp; TO_TEXT(-Dashboard!B30) &amp; "" de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ..."""),"Au 01/12/2020, la capitalisation de l'entreprise est de 1,218,600.00 €. J'en suis propriétaire de 31.5%, soit 383,352.10 € dont 69,232.89 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entrepr"&amp;"ises du CAC40, mais on s'en emproche ...")</f>
-        <v>Au 01/12/2020, la capitalisation de l'entreprise est de 1,218,600.00 €. J'en suis propriétaire de 31.5%, soit 383,352.10 € dont 69,232.89 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ...</v>
+      <c r="B13" s="45" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""Au "" &amp; TO_TEXT(AllocationHistoric!A2) &amp; "", la capitalisation de l'entreprise est de "" &amp; TO_TEXT(AllocationHistoric!F2) &amp; "". J'en suis propriétaire de "" &amp; ROUNDUP(AllocationHistoric!B2/AllocationHistoric!F2*100,1) &amp; ""%, soit "" &amp; TO_TEXT(Allocation"&amp;"Historic!B2) &amp; "" dont "" &amp; TO_TEXT(-Dashboard!B30) &amp; "" de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ..."""),"Au 01/12/2020, la capitalisation de l'entreprise est de 1,218,600.00 €. J'en suis propriétaire de 31.5%, soit 383,352.10 € dont 79,786.44 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entrepr"&amp;"ises du CAC40, mais on s'en emproche ...")</f>
+        <v>Au 01/12/2020, la capitalisation de l'entreprise est de 1,218,600.00 €. J'en suis propriétaire de 31.5%, soit 383,352.10 € dont 79,786.44 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ...</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="45" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="45" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="45" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="45" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="45" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="45" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="45" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="45" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="45" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="44" t="str">
+      <c r="B26" s="45" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""En date du "" &amp; TO_TEXT(DateTime!$B$6)&amp;""/""&amp;TO_TEXT(DateTime!$B$5)&amp;""/""&amp;TO_TEXT(DateTime!$B$4) &amp; "", "" &amp; COUNT(Associate!$A:$A)-1 &amp; "" personnes. Plus moi, "" &amp; COUNT(Associate!$A:$A) &amp; "" :-)"""),"En date du 10/12/2020, 5 personnes. Plus moi, 6 :-)")</f>
         <v>En date du 10/12/2020, 5 personnes. Plus moi, 6 :-)</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="45" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="45" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="45" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="45" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="45" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="45" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="46" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="45" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="45" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="45" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="45" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="45" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="45" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="45" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="47" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="47" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="48" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="48" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="45" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="45" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="45" t="s">
         <v>192</v>
       </c>
     </row>
@@ -38159,988 +38225,988 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="50" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="51" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="56" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="51" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="50"/>
+      <c r="D7" s="51"/>
     </row>
     <row r="8">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="51"/>
     </row>
     <row r="9">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="50"/>
+      <c r="D9" s="51"/>
     </row>
     <row r="10">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="51" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="53" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="51" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="51" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="51" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="51" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="51" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="51" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="57" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="50"/>
+      <c r="D20" s="51"/>
     </row>
     <row r="21">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="51"/>
     </row>
     <row r="22">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="51"/>
     </row>
     <row r="24">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="60"/>
     </row>
     <row r="25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="D25" s="59"/>
+      <c r="D25" s="60"/>
     </row>
     <row r="26">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="60"/>
     </row>
     <row r="27">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50" t="s">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D27" s="59"/>
+      <c r="D27" s="60"/>
     </row>
     <row r="28">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="51" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="51" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="51" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="51" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="51" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="51" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="52" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="51" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="51" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="51" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="51" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="51" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="51" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="51" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="51" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="51" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="51" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="51" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50" t="s">
+      <c r="B47" s="51"/>
+      <c r="C47" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="D47" s="50"/>
+      <c r="D47" s="51"/>
     </row>
     <row r="48">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56" t="s">
+      <c r="B48" s="57"/>
+      <c r="C48" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="D48" s="50"/>
+      <c r="D48" s="51"/>
     </row>
     <row r="49">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56" t="s">
+      <c r="B49" s="57"/>
+      <c r="C49" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="D49" s="50"/>
+      <c r="D49" s="51"/>
     </row>
     <row r="50">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50" t="s">
+      <c r="B50" s="51"/>
+      <c r="C50" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="D50" s="50"/>
+      <c r="D50" s="51"/>
     </row>
     <row r="51">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50" t="s">
+      <c r="B51" s="51"/>
+      <c r="C51" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="D51" s="50"/>
+      <c r="D51" s="51"/>
     </row>
     <row r="52">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="55" t="s">
+      <c r="B52" s="51"/>
+      <c r="C52" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="D52" s="50"/>
+      <c r="D52" s="51"/>
     </row>
     <row r="53">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="52" t="s">
         <v>328</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50" t="s">
+      <c r="B53" s="51"/>
+      <c r="C53" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="D53" s="50"/>
+      <c r="D53" s="51"/>
     </row>
     <row r="54">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="53" t="s">
+      <c r="B54" s="52"/>
+      <c r="C54" s="54" t="s">
         <v>331</v>
       </c>
-      <c r="D54" s="50"/>
+      <c r="D54" s="51"/>
     </row>
     <row r="55">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="51" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="D56" s="50" t="s">
+      <c r="D56" s="51" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="51" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="51" t="s">
+      <c r="A58" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50" t="s">
+      <c r="B58" s="51"/>
+      <c r="C58" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="D58" s="50"/>
+      <c r="D58" s="51"/>
     </row>
     <row r="59">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50" t="s">
+      <c r="B59" s="51"/>
+      <c r="C59" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="D59" s="50"/>
+      <c r="D59" s="51"/>
     </row>
     <row r="60">
-      <c r="A60" s="51" t="s">
+      <c r="A60" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="51" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="51" t="s">
+      <c r="A61" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="51" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50" t="s">
+      <c r="B62" s="51"/>
+      <c r="C62" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="D62" s="50"/>
+      <c r="D62" s="51"/>
     </row>
     <row r="63">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50" t="s">
+      <c r="B63" s="51"/>
+      <c r="C63" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="D63" s="50"/>
+      <c r="D63" s="51"/>
     </row>
     <row r="64">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50" t="s">
+      <c r="B64" s="51"/>
+      <c r="C64" s="51" t="s">
         <v>357</v>
       </c>
-      <c r="D64" s="50"/>
+      <c r="D64" s="51"/>
     </row>
     <row r="65">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50" t="s">
+      <c r="B65" s="51"/>
+      <c r="C65" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="D65" s="50"/>
+      <c r="D65" s="51"/>
     </row>
     <row r="66">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50" t="s">
+      <c r="B66" s="51"/>
+      <c r="C66" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="D66" s="50"/>
+      <c r="D66" s="51"/>
     </row>
     <row r="67">
-      <c r="A67" s="50" t="s">
+      <c r="A67" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51" t="s">
+      <c r="B67" s="52"/>
+      <c r="C67" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="D67" s="50"/>
+      <c r="D67" s="51"/>
     </row>
     <row r="68">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51" t="s">
+      <c r="B68" s="52"/>
+      <c r="C68" s="52" t="s">
         <v>365</v>
       </c>
-      <c r="D68" s="50"/>
+      <c r="D68" s="51"/>
     </row>
     <row r="69">
-      <c r="A69" s="50" t="s">
+      <c r="A69" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51" t="s">
+      <c r="B69" s="52"/>
+      <c r="C69" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D69" s="50"/>
+      <c r="D69" s="51"/>
     </row>
     <row r="70">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51" t="s">
+      <c r="B70" s="52"/>
+      <c r="C70" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="D70" s="50"/>
+      <c r="D70" s="51"/>
     </row>
     <row r="71">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51" t="s">
+      <c r="B71" s="52"/>
+      <c r="C71" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="D71" s="50"/>
+      <c r="D71" s="51"/>
     </row>
     <row r="72">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="D72" s="50" t="s">
+      <c r="D72" s="51" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="52" t="s">
         <v>376</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="D73" s="50" t="s">
+      <c r="D73" s="51" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51" t="s">
+      <c r="B74" s="52"/>
+      <c r="C74" s="52" t="s">
         <v>379</v>
       </c>
-      <c r="D74" s="50"/>
+      <c r="D74" s="51"/>
     </row>
     <row r="75">
-      <c r="A75" s="50" t="s">
+      <c r="A75" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51" t="s">
+      <c r="B75" s="52"/>
+      <c r="C75" s="52" t="s">
         <v>381</v>
       </c>
-      <c r="D75" s="50"/>
+      <c r="D75" s="51"/>
     </row>
     <row r="76">
-      <c r="A76" s="60" t="s">
+      <c r="A76" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="B76" s="51"/>
-      <c r="C76" s="50" t="s">
+      <c r="B76" s="52"/>
+      <c r="C76" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="D76" s="55" t="s">
+      <c r="D76" s="56" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51" t="s">
+      <c r="B77" s="52"/>
+      <c r="C77" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="51" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51" t="s">
+      <c r="B78" s="52"/>
+      <c r="C78" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D78" s="51" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="60" t="s">
+      <c r="A79" s="61" t="s">
         <v>391</v>
       </c>
-      <c r="B79" s="51"/>
-      <c r="C79" s="50" t="s">
+      <c r="B79" s="52"/>
+      <c r="C79" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="D79" s="61" t="s">
+      <c r="D79" s="62" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="60" t="s">
+      <c r="A80" s="61" t="s">
         <v>394</v>
       </c>
-      <c r="B80" s="51"/>
-      <c r="C80" s="50" t="s">
+      <c r="B80" s="52"/>
+      <c r="C80" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="D80" s="62" t="s">
+      <c r="D80" s="63" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="63" t="s">
+      <c r="A81" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="B81" s="64"/>
-      <c r="C81" s="65" t="s">
+      <c r="B81" s="65"/>
+      <c r="C81" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="D81" s="66" t="s">
+      <c r="D81" s="67" t="s">
         <v>399</v>
       </c>
     </row>
@@ -39168,1803 +39234,1803 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="68" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68">
+      <c r="A2" s="69">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="70">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>-5500</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="70">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="70">
         <f>$B2-$C2</f>
         <v>-5500</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="70">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>950</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="71">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="71">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.7360828898</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="71">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A38)*12,0)</f>
         <v>0.2453609633</v>
       </c>
-      <c r="I2" s="69">
+      <c r="I2" s="70">
         <f>MAX($L2,$M2)-$E2-SUM($I3:$I38)</f>
         <v>596.982136</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="70">
         <f>$N2-$E2</f>
         <v>12048.70056</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="70">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-241.2682864</v>
       </c>
-      <c r="L2" s="69">
+      <c r="L2" s="70">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>1386.25</v>
       </c>
-      <c r="M2" s="69">
+      <c r="M2" s="70">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>13239.96884</v>
       </c>
-      <c r="N2" s="71">
+      <c r="N2" s="72">
         <f>MAX($M2,$L2)+$K2</f>
         <v>12998.70056</v>
       </c>
-      <c r="O2" s="72" t="str">
+      <c r="O2" s="73" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"Bloopsy",INDEX(O:O,ROW()-1))</f>
         <v>Bloopsy</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="68">
+      <c r="A3" s="69">
         <v>44136.0</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="70">
         <v>-1000.0</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="70">
         <v>0.0</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="70">
         <v>-1000.0</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="70">
         <v>6450.0</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="71">
         <v>-0.016432831295333683</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="71">
         <v>0.703178597556773</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="71">
         <v>0.24108980487660792</v>
       </c>
-      <c r="I3" s="69">
+      <c r="I3" s="70">
         <v>-319.8291698477624</v>
       </c>
-      <c r="J3" s="69">
+      <c r="J3" s="70">
         <v>11484.552438769417</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="70">
         <v>-208.4342689230876</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="70">
         <v>6879.53124999999</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="70">
         <v>18142.986707692504</v>
       </c>
-      <c r="N3" s="71">
+      <c r="N3" s="72">
         <v>17934.552438769417</v>
       </c>
-      <c r="O3" s="72" t="s">
+      <c r="O3" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="68">
+      <c r="A4" s="69">
         <v>44105.0</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="70">
         <v>-300.0</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="70">
         <v>0.0</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="70">
         <v>-300.0</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="70">
         <v>7450.0</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="71">
         <v>-0.0030358834822477613</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="71">
         <v>0.7196114288521067</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="71">
         <v>0.25398050430074354</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="70">
         <v>-60.18030668434949</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="70">
         <v>11786.79100427555</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="70">
         <v>-226.02487326471453</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="70">
         <v>7871.770833333323</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="70">
         <v>19462.815877540266</v>
       </c>
-      <c r="N4" s="71">
+      <c r="N4" s="72">
         <v>19236.79100427555</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="68">
+      <c r="A5" s="69">
         <v>44075.0</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="70">
         <v>0.0</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="70">
         <v>0.0</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="70">
         <v>0.0</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="70">
         <v>7750.0</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="71">
         <v>0.0695011442271417</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="71">
         <v>0.7226473123343545</v>
       </c>
-      <c r="H5" s="70">
+      <c r="H5" s="71">
         <v>0.2627808408488562</v>
       </c>
-      <c r="I5" s="69">
+      <c r="I5" s="70">
         <v>1288.1902223764919</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="70">
         <v>11843.661394092262</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="70">
         <v>-229.33479013235376</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="70">
         <v>8163.697916666656</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="70">
         <v>19822.996184224616</v>
       </c>
-      <c r="N5" s="71">
+      <c r="N5" s="72">
         <v>19593.66139409226</v>
       </c>
-      <c r="O5" s="72" t="s">
+      <c r="O5" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="68">
+      <c r="A6" s="69">
         <v>44044.0</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="70">
         <v>-2400.0</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="70">
         <v>0.0</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="70">
         <v>-2400.0</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="70">
         <v>7750.0</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="71">
         <v>-0.0011851593150153932</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="71">
         <v>0.6531461681072128</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="71">
         <v>0.2449298130402048</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="70">
         <v>-22.85900518998824</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="70">
         <v>10626.321633946478</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="70">
         <v>-158.4843279016467</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="70">
         <v>8155.624999999989</v>
       </c>
-      <c r="M6" s="69">
+      <c r="M6" s="70">
         <v>18534.805961848124</v>
       </c>
-      <c r="N6" s="71">
+      <c r="N6" s="72">
         <v>18376.321633946478</v>
       </c>
-      <c r="O6" s="72" t="s">
+      <c r="O6" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="68">
+      <c r="A7" s="69">
         <v>44013.0</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="70">
         <v>1900.0</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="70">
         <v>1900.0</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="70">
         <v>0.0</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="70">
         <v>10150.0</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="71">
         <v>0.01670595001387467</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="71">
         <v>0.6543313274222282</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="71">
         <v>0.25328954609892707</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="70">
         <v>344.36476283245065</v>
       </c>
-      <c r="J7" s="69">
+      <c r="J7" s="70">
         <v>10647.923393851015</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="70">
         <v>-159.74157318709607</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="70">
         <v>10543.072916666655</v>
       </c>
-      <c r="M7" s="69">
+      <c r="M7" s="70">
         <v>20957.664967038112</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="72">
         <v>20797.923393851015</v>
       </c>
-      <c r="O7" s="72" t="s">
+      <c r="O7" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="68">
+      <c r="A8" s="69">
         <v>43983.0</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="70">
         <v>-300.0</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="70">
         <v>0.0</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="70">
         <v>-300.0</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="70">
         <v>10150.0</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="71">
         <v>-0.00659387295460559</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="71">
         <v>0.6376253774083536</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="71">
         <v>0.25505015096334144</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="70">
         <v>-138.8149729035831</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="70">
         <v>10322.49869297435</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="70">
         <v>-140.80151123131128</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="70">
         <v>10532.499999999989</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="70">
         <v>20613.30020420566</v>
       </c>
-      <c r="N8" s="71">
+      <c r="N8" s="72">
         <v>20472.49869297435</v>
       </c>
-      <c r="O8" s="72" t="s">
+      <c r="O8" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="68">
+      <c r="A9" s="69">
         <v>43952.0</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="70">
         <v>-300.0</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="70">
         <v>0.0</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="70">
         <v>-300.0</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="70">
         <v>10450.0</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="71">
         <v>0.17167870410952307</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="71">
         <v>0.6442192503629591</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="71">
         <v>0.26657348290881067</v>
       </c>
-      <c r="I9" s="69">
+      <c r="I9" s="70">
         <v>3128.591012831741</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="70">
         <v>10453.678842368237</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="70">
         <v>-148.43633474100835</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="70">
         <v>10821.614583333323</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="70">
         <v>21052.115177109245</v>
       </c>
-      <c r="N9" s="71">
+      <c r="N9" s="72">
         <v>20903.678842368237</v>
       </c>
-      <c r="O9" s="72" t="s">
+      <c r="O9" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="68">
+      <c r="A10" s="69">
         <v>43922.0</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="70">
         <v>-300.0</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="70">
         <v>0.0</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="70">
         <v>-300.0</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="70">
         <v>10750.0</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="71">
         <v>-0.09031985768405248</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="71">
         <v>0.4725405462534361</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="71">
         <v>0.20251737696575833</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I10" s="70">
         <v>-1839.1542131119495</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="70">
         <v>7497.160335242243</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="70">
         <v>23.63617096473739</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="70">
         <v>11110.416666666657</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="70">
         <v>18223.524164277504</v>
       </c>
-      <c r="N10" s="71">
+      <c r="N10" s="72">
         <v>18247.160335242243</v>
       </c>
-      <c r="O10" s="72" t="s">
+      <c r="O10" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="68">
+      <c r="A11" s="69">
         <v>43891.0</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="70">
         <v>-300.0</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="70">
         <v>0.0</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="70">
         <v>-300.0</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="70">
         <v>11050.0</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="71">
         <v>-6.988944889106389E-4</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="71">
         <v>0.5628604039374886</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="71">
         <v>0.2501601795277727</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="70">
         <v>-14.451131860507303</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="70">
         <v>9235.161066633034</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="70">
         <v>-77.51731075641983</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="70">
         <v>11398.90624999999</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="70">
         <v>20362.678377389453</v>
       </c>
-      <c r="N11" s="71">
+      <c r="N11" s="72">
         <v>20285.161066633034</v>
       </c>
-      <c r="O11" s="72" t="s">
+      <c r="O11" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="68">
+      <c r="A12" s="69">
         <v>43862.0</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="70">
         <v>0.0</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="70">
         <v>0.0</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="70">
         <v>0.0</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="70">
         <v>11350.0</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="71">
         <v>-0.013571483773815925</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12" s="71">
         <v>0.5635592984263992</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="71">
         <v>0.260104291581415</v>
       </c>
-      <c r="I12" s="69">
+      <c r="I12" s="70">
         <v>-284.48014529978536</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="70">
         <v>9248.817386241211</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="70">
         <v>-78.31212300874773</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="70">
         <v>11687.083333333325</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="70">
         <v>20677.12950924996</v>
       </c>
-      <c r="N12" s="71">
+      <c r="N12" s="72">
         <v>20598.81738624121</v>
       </c>
-      <c r="O12" s="72" t="s">
+      <c r="O12" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="68">
+      <c r="A13" s="69">
         <v>43831.0</v>
       </c>
-      <c r="B13" s="69">
+      <c r="B13" s="70">
         <v>-1000.0</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="70">
         <v>0.0</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="70">
         <v>-1000.0</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="70">
         <v>11350.0</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="71">
         <v>0.06953970791992178</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="71">
         <v>0.5771307822002151</v>
       </c>
-      <c r="H13" s="70">
+      <c r="H13" s="71">
         <v>0.27702277545610327</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="70">
         <v>1427.907640567064</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="70">
         <v>9082.971123549509</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="70">
         <v>-528.638531000236</v>
       </c>
-      <c r="L13" s="69">
+      <c r="L13" s="70">
         <v>11675.260416666659</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="70">
         <v>20961.609654549746</v>
       </c>
-      <c r="N13" s="71">
+      <c r="N13" s="72">
         <v>20432.97112354951</v>
       </c>
-      <c r="O13" s="72" t="s">
+      <c r="O13" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="68">
+      <c r="A14" s="69">
         <v>43800.0</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="70">
         <v>-700.0</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="70">
         <v>0.0</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="70">
         <v>-700.0</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="70">
         <v>12350.0</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="71">
         <v>0.02764486097227171</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="71">
         <v>0.5075910742802933</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="71">
         <v>0.25379553714014663</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="70">
         <v>571.2116728222863</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="70">
         <v>7733.598403213633</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="70">
         <v>-450.10361076904746</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="70">
         <v>12662.395833333325</v>
       </c>
-      <c r="M14" s="69">
+      <c r="M14" s="70">
         <v>20533.702013982682</v>
       </c>
-      <c r="N14" s="71">
+      <c r="N14" s="72">
         <v>20083.598403213633</v>
       </c>
-      <c r="O14" s="72" t="s">
+      <c r="O14" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="68">
+      <c r="A15" s="69">
         <v>43770.0</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="70">
         <v>-300.0</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="70">
         <v>0.0</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="70">
         <v>-300.0</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="70">
         <v>13050.0</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="71">
         <v>-0.031204251937763165</v>
       </c>
-      <c r="G15" s="70">
+      <c r="G15" s="71">
         <v>0.4799462133080215</v>
       </c>
-      <c r="H15" s="70">
+      <c r="H15" s="71">
         <v>0.25040671998679387</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="70">
         <v>-675.1875523368581</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="70">
         <v>7193.803372396575</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="70">
         <v>-418.6869687638217</v>
       </c>
-      <c r="L15" s="69">
+      <c r="L15" s="70">
         <v>13348.802083333325</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="70">
         <v>20662.490341160395</v>
       </c>
-      <c r="N15" s="71">
+      <c r="N15" s="72">
         <v>20243.803372396575</v>
       </c>
-      <c r="O15" s="72" t="s">
+      <c r="O15" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="68">
+      <c r="A16" s="69">
         <v>43739.0</v>
       </c>
-      <c r="B16" s="69">
+      <c r="B16" s="70">
         <v>-150.0</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="70">
         <v>0.0</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="70">
         <v>-150.0</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="70">
         <v>13350.0</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="71">
         <v>-0.0017577640676155197</v>
       </c>
-      <c r="G16" s="70">
+      <c r="G16" s="71">
         <v>0.5111504652457847</v>
       </c>
-      <c r="H16" s="70">
+      <c r="H16" s="71">
         <v>0.2788093446795189</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="70">
         <v>-38.36503399618232</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="70">
         <v>7831.855609354905</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="70">
         <v>-455.8222841423489</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="70">
         <v>13634.895833333325</v>
       </c>
-      <c r="M16" s="69">
+      <c r="M16" s="70">
         <v>21637.677893497254</v>
       </c>
-      <c r="N16" s="71">
+      <c r="N16" s="72">
         <v>21181.855609354905</v>
       </c>
-      <c r="O16" s="72" t="s">
+      <c r="O16" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="68">
+      <c r="A17" s="69">
         <v>43709.0</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="70">
         <v>0.0</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="70">
         <v>0.0</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="70">
         <v>0.0</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="70">
         <v>13500.0</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="71">
         <v>0.09663855056374034</v>
       </c>
-      <c r="G17" s="70">
+      <c r="G17" s="71">
         <v>0.5129082293134002</v>
       </c>
-      <c r="H17" s="70">
+      <c r="H17" s="71">
         <v>0.2930904167505144</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="70">
         <v>1923.3658637758672</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="70">
         <v>7868.110566481297</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="70">
         <v>-457.9323610121389</v>
       </c>
-      <c r="L17" s="69">
+      <c r="L17" s="70">
         <v>13770.833333333325</v>
       </c>
-      <c r="M17" s="69">
+      <c r="M17" s="70">
         <v>21826.042927493436</v>
       </c>
-      <c r="N17" s="71">
+      <c r="N17" s="72">
         <v>21368.110566481297</v>
       </c>
-      <c r="O17" s="72" t="s">
+      <c r="O17" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="68">
+      <c r="A18" s="69">
         <v>43678.0</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="70">
         <v>-1000.0</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="70">
         <v>0.0</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="70">
         <v>-1000.0</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="70">
         <v>13500.0</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="71">
         <v>0.07804921004485675</v>
       </c>
-      <c r="G18" s="70">
+      <c r="G18" s="71">
         <v>0.4162696787496598</v>
       </c>
-      <c r="H18" s="70">
+      <c r="H18" s="71">
         <v>0.2497618072497959</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="70">
         <v>1513.323712354486</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="70">
         <v>6050.529825213103</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="70">
         <v>-352.14723850446626</v>
       </c>
-      <c r="L18" s="69">
+      <c r="L18" s="70">
         <v>13756.770833333325</v>
       </c>
-      <c r="M18" s="69">
+      <c r="M18" s="70">
         <v>19902.67706371757</v>
       </c>
-      <c r="N18" s="71">
+      <c r="N18" s="72">
         <v>19550.529825213103</v>
       </c>
-      <c r="O18" s="72" t="s">
+      <c r="O18" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="68">
+      <c r="A19" s="69">
         <v>43647.0</v>
       </c>
-      <c r="B19" s="69">
+      <c r="B19" s="70">
         <v>0.0</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="70">
         <v>0.0</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D19" s="70">
         <v>0.0</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="70">
         <v>14500.0</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="71">
         <v>0.05571063566313939</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="71">
         <v>0.33822046870480305</v>
       </c>
-      <c r="H19" s="70">
+      <c r="H19" s="71">
         <v>0.21361292760303352</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="70">
         <v>1023.1906014882006</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J19" s="70">
         <v>4620.438917038115</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="70">
         <v>-268.91443432496953</v>
       </c>
-      <c r="L19" s="69">
+      <c r="L19" s="70">
         <v>14741.666666666659</v>
       </c>
-      <c r="M19" s="69">
+      <c r="M19" s="70">
         <v>19389.353351363083</v>
       </c>
-      <c r="N19" s="71">
+      <c r="N19" s="72">
         <v>19120.438917038115</v>
       </c>
-      <c r="O19" s="72" t="s">
+      <c r="O19" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="68">
+      <c r="A20" s="69">
         <v>43617.0</v>
       </c>
-      <c r="B20" s="69">
+      <c r="B20" s="70">
         <v>0.0</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="70">
         <v>0.0</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="70">
         <v>0.0</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="70">
         <v>14500.0</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="71">
         <v>0.03999771844904346</v>
       </c>
-      <c r="G20" s="70">
+      <c r="G20" s="71">
         <v>0.28250983304166366</v>
       </c>
-      <c r="H20" s="70">
+      <c r="H20" s="71">
         <v>0.18833988869444246</v>
       </c>
-      <c r="I20" s="69">
+      <c r="I20" s="70">
         <v>706.3521329203759</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="70">
         <v>3653.5237986317625</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="70">
         <v>-212.63895124311853</v>
       </c>
-      <c r="L20" s="69">
+      <c r="L20" s="70">
         <v>14726.562499999993</v>
       </c>
-      <c r="M20" s="69">
+      <c r="M20" s="70">
         <v>18366.162749874882</v>
       </c>
-      <c r="N20" s="71">
+      <c r="N20" s="72">
         <v>18153.523798631762</v>
       </c>
-      <c r="O20" s="72" t="s">
+      <c r="O20" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="68">
+      <c r="A21" s="69">
         <v>43586.0</v>
       </c>
-      <c r="B21" s="69">
+      <c r="B21" s="70">
         <v>-500.0</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="70">
         <v>0.0</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="70">
         <v>-500.0</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="70">
         <v>14500.0</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="71">
         <v>0.026231385182183264</v>
       </c>
-      <c r="G21" s="70">
+      <c r="G21" s="71">
         <v>0.24251211459262018</v>
       </c>
-      <c r="H21" s="70">
+      <c r="H21" s="71">
         <v>0.17118502206537894</v>
       </c>
-      <c r="I21" s="69">
+      <c r="I21" s="70">
         <v>464.18087967975225</v>
       </c>
-      <c r="J21" s="69">
+      <c r="J21" s="70">
         <v>2986.021033022007</v>
       </c>
-      <c r="K21" s="69">
+      <c r="K21" s="70">
         <v>-173.78958393249786</v>
       </c>
-      <c r="L21" s="69">
+      <c r="L21" s="70">
         <v>14711.458333333327</v>
       </c>
-      <c r="M21" s="69">
+      <c r="M21" s="70">
         <v>17659.810616954506</v>
       </c>
-      <c r="N21" s="71">
+      <c r="N21" s="72">
         <v>17486.021033022007</v>
       </c>
-      <c r="O21" s="72" t="s">
+      <c r="O21" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="68">
+      <c r="A22" s="69">
         <v>43556.0</v>
       </c>
-      <c r="B22" s="69">
+      <c r="B22" s="70">
         <v>0.0</v>
       </c>
-      <c r="C22" s="69">
+      <c r="C22" s="70">
         <v>0.0</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="70">
         <v>0.0</v>
       </c>
-      <c r="E22" s="69">
+      <c r="E22" s="70">
         <v>15000.0</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="71">
         <v>0.10199738482836891</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="71">
         <v>0.2162807294104369</v>
       </c>
-      <c r="H22" s="70">
+      <c r="H22" s="71">
         <v>0.16221054705782767</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="70">
         <v>1637.8513968744555</v>
       </c>
-      <c r="J22" s="69">
+      <c r="J22" s="70">
         <v>2547.370101724642</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K22" s="70">
         <v>-148.25963555011148</v>
       </c>
-      <c r="L22" s="69">
+      <c r="L22" s="70">
         <v>15195.833333333327</v>
       </c>
-      <c r="M22" s="69">
+      <c r="M22" s="70">
         <v>17695.629737274754</v>
       </c>
-      <c r="N22" s="71">
+      <c r="N22" s="72">
         <v>17547.370101724642</v>
       </c>
-      <c r="O22" s="72" t="s">
+      <c r="O22" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="68">
+      <c r="A23" s="69">
         <v>43525.0</v>
       </c>
-      <c r="B23" s="69">
+      <c r="B23" s="70">
         <v>0.0</v>
       </c>
-      <c r="C23" s="69">
+      <c r="C23" s="70">
         <v>0.0</v>
       </c>
-      <c r="D23" s="69">
+      <c r="D23" s="70">
         <v>0.0</v>
       </c>
-      <c r="E23" s="69">
+      <c r="E23" s="70">
         <v>15000.0</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="71">
         <v>0.03449682927674902</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="71">
         <v>0.11428334458206801</v>
       </c>
-      <c r="H23" s="70">
+      <c r="H23" s="71">
         <v>0.09142667566565442</v>
       </c>
-      <c r="I23" s="69">
+      <c r="I23" s="70">
         <v>535.4704067676521</v>
       </c>
-      <c r="J23" s="69">
+      <c r="J23" s="70">
         <v>999.6005316782812</v>
       </c>
-      <c r="K23" s="69">
+      <c r="K23" s="70">
         <v>-58.17780872201642</v>
       </c>
-      <c r="L23" s="69">
+      <c r="L23" s="70">
         <v>15180.208333333327</v>
       </c>
-      <c r="M23" s="69">
+      <c r="M23" s="70">
         <v>16057.778340400298</v>
       </c>
-      <c r="N23" s="71">
+      <c r="N23" s="72">
         <v>15999.600531678281</v>
       </c>
-      <c r="O23" s="72" t="s">
+      <c r="O23" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="68">
+      <c r="A24" s="69">
         <v>43497.0</v>
       </c>
-      <c r="B24" s="69">
+      <c r="B24" s="70">
         <v>0.0</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="70">
         <v>0.0</v>
       </c>
-      <c r="D24" s="69">
+      <c r="D24" s="70">
         <v>0.0</v>
       </c>
-      <c r="E24" s="69">
+      <c r="E24" s="70">
         <v>15000.0</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="71">
         <v>0.04107233145116107</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="71">
         <v>0.079786515305319</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="71">
         <v>0.06838844169027342</v>
       </c>
-      <c r="I24" s="69">
+      <c r="I24" s="70">
         <v>373.3496002993197</v>
       </c>
-      <c r="J24" s="69">
+      <c r="J24" s="70">
         <v>493.58099728285015</v>
       </c>
-      <c r="K24" s="69">
+      <c r="K24" s="70">
         <v>-28.726936349795555</v>
       </c>
-      <c r="L24" s="69">
+      <c r="L24" s="70">
         <v>15164.583333333327</v>
       </c>
-      <c r="M24" s="69">
+      <c r="M24" s="70">
         <v>15522.307933632646</v>
       </c>
-      <c r="N24" s="71">
+      <c r="N24" s="72">
         <v>15493.58099728285</v>
       </c>
-      <c r="O24" s="72" t="s">
+      <c r="O24" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="68">
+      <c r="A25" s="69">
         <v>43466.0</v>
       </c>
-      <c r="B25" s="69">
+      <c r="B25" s="70">
         <v>-1000.0</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="70">
         <v>0.0</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="70">
         <v>-1000.0</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="70">
         <v>15000.0</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="71">
         <v>-0.024314741161841652</v>
       </c>
-      <c r="G25" s="70">
+      <c r="G25" s="71">
         <v>0.038714183854157924</v>
       </c>
-      <c r="H25" s="70">
+      <c r="H25" s="71">
         <v>0.035736169711530395</v>
       </c>
-      <c r="I25" s="69">
+      <c r="I25" s="70">
         <v>-157.4504235641234</v>
       </c>
-      <c r="J25" s="69">
+      <c r="J25" s="70">
         <v>140.76562499999454</v>
       </c>
-      <c r="K25" s="69">
+      <c r="K25" s="70">
         <v>-8.19270833333297</v>
       </c>
-      <c r="L25" s="69">
+      <c r="L25" s="70">
         <v>15148.958333333327</v>
       </c>
-      <c r="M25" s="69">
+      <c r="M25" s="70">
         <v>14909.9226486943</v>
       </c>
-      <c r="N25" s="71">
+      <c r="N25" s="72">
         <v>15140.765624999995</v>
       </c>
-      <c r="O25" s="72" t="s">
+      <c r="O25" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="68">
+      <c r="A26" s="69">
         <v>43435.0</v>
       </c>
-      <c r="B26" s="69">
+      <c r="B26" s="70">
         <v>6000.0</v>
       </c>
-      <c r="C26" s="69">
+      <c r="C26" s="70">
         <v>0.0</v>
       </c>
-      <c r="D26" s="69">
+      <c r="D26" s="70">
         <v>6000.0</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="70">
         <v>16000.0</v>
       </c>
-      <c r="F26" s="70">
+      <c r="F26" s="71">
         <v>0.059176449934818486</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="71">
         <v>0.06302892501599958</v>
       </c>
-      <c r="H26" s="70">
+      <c r="H26" s="71">
         <v>0.06302892501599958</v>
       </c>
-      <c r="I26" s="69">
+      <c r="I26" s="70">
         <v>191.8254235641234</v>
       </c>
-      <c r="J26" s="69">
+      <c r="J26" s="70">
         <v>289.55627526809076</v>
       </c>
-      <c r="K26" s="69">
+      <c r="K26" s="70">
         <v>-16.852481629359758</v>
       </c>
-      <c r="L26" s="69">
+      <c r="L26" s="70">
         <v>16132.29166666666</v>
       </c>
-      <c r="M26" s="69">
+      <c r="M26" s="70">
         <v>16306.40875689745</v>
       </c>
-      <c r="N26" s="71">
+      <c r="N26" s="72">
         <v>16289.55627526809</v>
       </c>
-      <c r="O26" s="72" t="s">
+      <c r="O26" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="68">
+      <c r="A27" s="69">
         <v>43405.0</v>
       </c>
-      <c r="B27" s="69">
+      <c r="B27" s="70">
         <v>7000.0</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="70">
         <v>7000.0</v>
       </c>
-      <c r="D27" s="69">
+      <c r="D27" s="70">
         <v>0.0</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="70">
         <v>10000.0</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="71">
         <v>-0.06412073646906129</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="71">
         <v>0.0038524750811810976</v>
       </c>
-      <c r="H27" s="70">
+      <c r="H27" s="71">
         <v>0.004202700088561198</v>
       </c>
-      <c r="I27" s="69">
+      <c r="I27" s="70">
         <v>-275.32832818211136</v>
       </c>
-      <c r="J27" s="69">
+      <c r="J27" s="70">
         <v>108.28124999999454</v>
       </c>
-      <c r="K27" s="69">
+      <c r="K27" s="70">
         <v>-6.302083333332968</v>
       </c>
-      <c r="L27" s="69">
+      <c r="L27" s="70">
         <v>10114.583333333327</v>
       </c>
-      <c r="M27" s="69">
+      <c r="M27" s="70">
         <v>9723.70287393058</v>
       </c>
-      <c r="N27" s="71">
+      <c r="N27" s="72">
         <v>10108.281249999995</v>
       </c>
-      <c r="O27" s="72" t="s">
+      <c r="O27" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="68">
+      <c r="A28" s="69">
         <v>43374.0</v>
       </c>
-      <c r="B28" s="69">
+      <c r="B28" s="70">
         <v>0.0</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="70">
         <v>0.0</v>
       </c>
-      <c r="D28" s="69">
+      <c r="D28" s="70">
         <v>0.0</v>
       </c>
-      <c r="E28" s="69">
+      <c r="E28" s="70">
         <v>10000.0</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F28" s="71">
         <v>-0.028896114427261484</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="71">
         <v>0.06797321155024239</v>
       </c>
-      <c r="H28" s="70">
+      <c r="H28" s="71">
         <v>0.08156785386029086</v>
       </c>
-      <c r="I28" s="69">
+      <c r="I28" s="70">
         <v>-309.16164657627814</v>
       </c>
-      <c r="J28" s="69">
+      <c r="J28" s="70">
         <v>368.4665201320895</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="70">
         <v>-21.445141383349092</v>
       </c>
-      <c r="L28" s="69">
+      <c r="L28" s="70">
         <v>10104.16666666666</v>
       </c>
-      <c r="M28" s="69">
+      <c r="M28" s="70">
         <v>10389.911661515438</v>
       </c>
-      <c r="N28" s="71">
+      <c r="N28" s="72">
         <v>10368.46652013209</v>
       </c>
-      <c r="O28" s="72" t="s">
+      <c r="O28" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="68">
+      <c r="A29" s="69">
         <v>43344.0</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <v>0.0</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="70">
         <v>0.0</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="70">
         <v>0.0</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="70">
         <v>10000.0</v>
       </c>
-      <c r="F29" s="70">
+      <c r="F29" s="71">
         <v>0.08865378226331043</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="71">
         <v>0.09686932597750388</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="71">
         <v>0.1291591013033385</v>
       </c>
-      <c r="I29" s="69">
+      <c r="I29" s="70">
         <v>615.7399747583877</v>
       </c>
-      <c r="J29" s="69">
+      <c r="J29" s="70">
         <v>660.624276146671</v>
       </c>
-      <c r="K29" s="69">
+      <c r="K29" s="70">
         <v>-38.44903194504439</v>
       </c>
-      <c r="L29" s="69">
+      <c r="L29" s="70">
         <v>10093.749999999995</v>
       </c>
-      <c r="M29" s="69">
+      <c r="M29" s="70">
         <v>10699.073308091716</v>
       </c>
-      <c r="N29" s="71">
+      <c r="N29" s="72">
         <v>10660.624276146671</v>
       </c>
-      <c r="O29" s="72" t="s">
+      <c r="O29" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="68">
+      <c r="A30" s="69">
         <v>43313.0</v>
       </c>
-      <c r="B30" s="69">
+      <c r="B30" s="70">
         <v>0.0</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="70">
         <v>0.0</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="70">
         <v>0.0</v>
       </c>
-      <c r="E30" s="69">
+      <c r="E30" s="70">
         <v>10000.0</v>
       </c>
-      <c r="F30" s="70">
+      <c r="F30" s="71">
         <v>-0.02448824447309521</v>
       </c>
-      <c r="G30" s="70">
+      <c r="G30" s="71">
         <v>0.00821554371419345</v>
       </c>
-      <c r="H30" s="70">
+      <c r="H30" s="71">
         <v>0.012323315571290175</v>
       </c>
-      <c r="I30" s="69">
+      <c r="I30" s="70">
         <v>8.824773747366635</v>
       </c>
-      <c r="J30" s="69">
+      <c r="J30" s="70">
         <v>78.74999999999454</v>
       </c>
-      <c r="K30" s="69">
+      <c r="K30" s="70">
         <v>-4.583333333333067</v>
       </c>
-      <c r="L30" s="69">
+      <c r="L30" s="70">
         <v>10083.333333333328</v>
       </c>
-      <c r="M30" s="69">
+      <c r="M30" s="70">
         <v>9827.80153103253</v>
       </c>
-      <c r="N30" s="71">
+      <c r="N30" s="72">
         <v>10078.749999999995</v>
       </c>
-      <c r="O30" s="72" t="s">
+      <c r="O30" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="68">
+      <c r="A31" s="69">
         <v>43282.0</v>
       </c>
-      <c r="B31" s="69">
+      <c r="B31" s="70">
         <v>0.0</v>
       </c>
-      <c r="C31" s="69">
+      <c r="C31" s="70">
         <v>0.0</v>
       </c>
-      <c r="D31" s="69">
+      <c r="D31" s="70">
         <v>0.0</v>
       </c>
-      <c r="E31" s="69">
+      <c r="E31" s="70">
         <v>10000.0</v>
       </c>
-      <c r="F31" s="70">
+      <c r="F31" s="71">
         <v>0.010858996309905966</v>
       </c>
-      <c r="G31" s="70">
+      <c r="G31" s="71">
         <v>0.03270378818728866</v>
       </c>
-      <c r="H31" s="70">
+      <c r="H31" s="71">
         <v>0.056063636892494856</v>
       </c>
-      <c r="I31" s="69">
+      <c r="I31" s="70">
         <v>12.008559585965486</v>
       </c>
-      <c r="J31" s="69">
+      <c r="J31" s="70">
         <v>70.41058880873425</v>
       </c>
-      <c r="K31" s="69">
+      <c r="K31" s="70">
         <v>-4.097970777227902</v>
       </c>
-      <c r="L31" s="69">
+      <c r="L31" s="70">
         <v>10072.916666666662</v>
       </c>
-      <c r="M31" s="69">
+      <c r="M31" s="70">
         <v>10074.508559585962</v>
       </c>
-      <c r="N31" s="71">
+      <c r="N31" s="72">
         <v>10070.410588808734</v>
       </c>
-      <c r="O31" s="72" t="s">
+      <c r="O31" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="68">
+      <c r="A32" s="69">
         <v>43252.0</v>
       </c>
-      <c r="B32" s="69">
+      <c r="B32" s="70">
         <v>0.0</v>
       </c>
-      <c r="C32" s="69">
+      <c r="C32" s="70">
         <v>0.0</v>
       </c>
-      <c r="D32" s="69">
+      <c r="D32" s="70">
         <v>0.0</v>
       </c>
-      <c r="E32" s="69">
+      <c r="E32" s="70">
         <v>10000.0</v>
       </c>
-      <c r="F32" s="70">
+      <c r="F32" s="71">
         <v>0.12647428034130279</v>
       </c>
-      <c r="G32" s="70">
+      <c r="G32" s="71">
         <v>0.021844791877382697</v>
       </c>
-      <c r="H32" s="70">
+      <c r="H32" s="71">
         <v>0.04368958375476539</v>
       </c>
-      <c r="I32" s="69">
+      <c r="I32" s="70">
         <v>10.41666666666606</v>
       </c>
-      <c r="J32" s="69">
+      <c r="J32" s="70">
         <v>59.06249999999636</v>
       </c>
-      <c r="K32" s="69">
+      <c r="K32" s="70">
         <v>-3.4374999999997997</v>
       </c>
-      <c r="L32" s="69">
+      <c r="L32" s="70">
         <v>10062.499999999996</v>
       </c>
-      <c r="M32" s="69">
+      <c r="M32" s="70">
         <v>9966.284710689117</v>
       </c>
-      <c r="N32" s="71">
+      <c r="N32" s="72">
         <v>10059.062499999996</v>
       </c>
-      <c r="O32" s="72" t="s">
+      <c r="O32" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="68">
+      <c r="A33" s="69">
         <v>43221.0</v>
       </c>
-      <c r="B33" s="69">
+      <c r="B33" s="70">
         <v>0.0</v>
       </c>
-      <c r="C33" s="69">
+      <c r="C33" s="70">
         <v>0.0</v>
       </c>
-      <c r="D33" s="69">
+      <c r="D33" s="70">
         <v>0.0</v>
       </c>
-      <c r="E33" s="69">
+      <c r="E33" s="70">
         <v>10000.0</v>
       </c>
-      <c r="F33" s="70">
+      <c r="F33" s="71">
         <v>0.07661146740532812</v>
       </c>
-      <c r="G33" s="70">
+      <c r="G33" s="71">
         <v>-0.10462948846392009</v>
       </c>
-      <c r="H33" s="70">
+      <c r="H33" s="71">
         <v>-0.25111077231340817</v>
       </c>
-      <c r="I33" s="69">
+      <c r="I33" s="70">
         <v>10.41666666666606</v>
       </c>
-      <c r="J33" s="69">
+      <c r="J33" s="70">
         <v>49.21874999999636</v>
       </c>
-      <c r="K33" s="69">
+      <c r="K33" s="70">
         <v>-2.8645833333331665</v>
       </c>
-      <c r="L33" s="69">
+      <c r="L33" s="70">
         <v>10052.08333333333</v>
       </c>
-      <c r="M33" s="69">
+      <c r="M33" s="70">
         <v>8847.325575573283</v>
       </c>
-      <c r="N33" s="71">
+      <c r="N33" s="72">
         <v>10049.218749999996</v>
       </c>
-      <c r="O33" s="72" t="s">
+      <c r="O33" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="68">
+      <c r="A34" s="69">
         <v>43191.0</v>
       </c>
-      <c r="B34" s="69">
+      <c r="B34" s="70">
         <v>0.0</v>
       </c>
-      <c r="C34" s="69">
+      <c r="C34" s="70">
         <v>0.0</v>
       </c>
-      <c r="D34" s="69">
+      <c r="D34" s="70">
         <v>0.0</v>
       </c>
-      <c r="E34" s="69">
+      <c r="E34" s="70">
         <v>10000.0</v>
       </c>
-      <c r="F34" s="70">
+      <c r="F34" s="71">
         <v>-0.0394470506102503</v>
       </c>
-      <c r="G34" s="70">
+      <c r="G34" s="71">
         <v>-0.1812409558692482</v>
       </c>
-      <c r="H34" s="70">
+      <c r="H34" s="71">
         <v>-0.5437228676077446</v>
       </c>
-      <c r="I34" s="69">
+      <c r="I34" s="70">
         <v>10.41666666666606</v>
       </c>
-      <c r="J34" s="69">
+      <c r="J34" s="70">
         <v>39.37499999999818</v>
       </c>
-      <c r="K34" s="69">
+      <c r="K34" s="70">
         <v>-2.2916666666665333</v>
       </c>
-      <c r="L34" s="69">
+      <c r="L34" s="70">
         <v>10041.666666666664</v>
       </c>
-      <c r="M34" s="69">
+      <c r="M34" s="70">
         <v>8217.751569092656</v>
       </c>
-      <c r="N34" s="71">
+      <c r="N34" s="72">
         <v>10039.374999999998</v>
       </c>
-      <c r="O34" s="72" t="s">
+      <c r="O34" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="68">
+      <c r="A35" s="69">
         <v>43160.0</v>
       </c>
-      <c r="B35" s="69">
+      <c r="B35" s="70">
         <v>0.0</v>
       </c>
-      <c r="C35" s="69">
+      <c r="C35" s="70">
         <v>0.0</v>
       </c>
-      <c r="D35" s="69">
+      <c r="D35" s="70">
         <v>0.0</v>
       </c>
-      <c r="E35" s="69">
+      <c r="E35" s="70">
         <v>10000.0</v>
       </c>
-      <c r="F35" s="70">
+      <c r="F35" s="71">
         <v>-0.052153074609364886</v>
       </c>
-      <c r="G35" s="70">
+      <c r="G35" s="71">
         <v>-0.1417939052589979</v>
       </c>
-      <c r="H35" s="70">
+      <c r="H35" s="71">
         <v>-0.5671756210359916</v>
       </c>
-      <c r="I35" s="69">
+      <c r="I35" s="70">
         <v>10.41666666666606</v>
       </c>
-      <c r="J35" s="69">
+      <c r="J35" s="70">
         <v>29.53124999999818</v>
       </c>
-      <c r="K35" s="69">
+      <c r="K35" s="70">
         <v>-1.7187499999999</v>
       </c>
-      <c r="L35" s="69">
+      <c r="L35" s="70">
         <v>10031.249999999998</v>
       </c>
-      <c r="M35" s="69">
+      <c r="M35" s="70">
         <v>8555.230166450989</v>
       </c>
-      <c r="N35" s="71">
+      <c r="N35" s="72">
         <v>10029.531249999998</v>
       </c>
-      <c r="O35" s="72" t="s">
+      <c r="O35" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="68">
+      <c r="A36" s="69">
         <v>43132.0</v>
       </c>
-      <c r="B36" s="69">
+      <c r="B36" s="70">
         <v>0.0</v>
       </c>
-      <c r="C36" s="69">
+      <c r="C36" s="70">
         <v>0.0</v>
       </c>
-      <c r="D36" s="69">
+      <c r="D36" s="70">
         <v>0.0</v>
       </c>
-      <c r="E36" s="69">
+      <c r="E36" s="70">
         <v>10000.0</v>
       </c>
-      <c r="F36" s="70">
+      <c r="F36" s="71">
         <v>-0.09834304329279307</v>
       </c>
-      <c r="G36" s="70">
+      <c r="G36" s="71">
         <v>-0.08964083064963302</v>
       </c>
-      <c r="H36" s="70">
+      <c r="H36" s="71">
         <v>-0.5378449838977981</v>
       </c>
-      <c r="I36" s="69">
+      <c r="I36" s="70">
         <v>10.41666666666606</v>
       </c>
-      <c r="J36" s="69">
+      <c r="J36" s="70">
         <v>19.68749999999818</v>
       </c>
-      <c r="K36" s="69">
+      <c r="K36" s="70">
         <v>-1.1458333333332666</v>
       </c>
-      <c r="L36" s="69">
+      <c r="L36" s="70">
         <v>10020.833333333332</v>
       </c>
-      <c r="M36" s="69">
+      <c r="M36" s="70">
         <v>9025.961827037769</v>
       </c>
-      <c r="N36" s="71">
+      <c r="N36" s="72">
         <v>10019.687499999998</v>
       </c>
-      <c r="O36" s="72" t="s">
+      <c r="O36" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="68">
+      <c r="A37" s="69">
         <v>43101.0</v>
       </c>
-      <c r="B37" s="69">
+      <c r="B37" s="70">
         <v>10000.0</v>
       </c>
-      <c r="C37" s="69">
+      <c r="C37" s="70">
         <v>0.0</v>
       </c>
-      <c r="D37" s="69">
+      <c r="D37" s="70">
         <v>10000.0</v>
       </c>
-      <c r="E37" s="69">
+      <c r="E37" s="70">
         <v>10000.0</v>
       </c>
-      <c r="F37" s="70">
+      <c r="F37" s="71">
         <v>0.008702212643160052</v>
       </c>
-      <c r="G37" s="70">
+      <c r="G37" s="71">
         <v>0.008702212643160052</v>
       </c>
-      <c r="H37" s="70">
+      <c r="H37" s="71">
         <v>0.10442655171792062</v>
       </c>
-      <c r="I37" s="69">
+      <c r="I37" s="70">
         <v>10.41666666666606</v>
       </c>
-      <c r="J37" s="69">
+      <c r="J37" s="70">
         <v>9.84375</v>
       </c>
-      <c r="K37" s="69">
+      <c r="K37" s="70">
         <v>-0.5729166666666333</v>
       </c>
-      <c r="L37" s="69">
+      <c r="L37" s="70">
         <v>10010.416666666666</v>
       </c>
-      <c r="M37" s="69">
+      <c r="M37" s="70">
         <v>10010.416666666666</v>
       </c>
-      <c r="N37" s="71">
+      <c r="N37" s="72">
         <v>10009.84375</v>
       </c>
-      <c r="O37" s="72" t="s">
+      <c r="O37" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="68">
+      <c r="A38" s="69">
         <v>43070.0</v>
       </c>
-      <c r="B38" s="69">
+      <c r="B38" s="70">
         <v>10000.0</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="70">
         <v>10000.0</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D38" s="70">
         <v>0.0</v>
       </c>
-      <c r="E38" s="69">
+      <c r="E38" s="70">
         <v>0.0</v>
       </c>
-      <c r="F38" s="70">
+      <c r="F38" s="71">
         <v>0.0</v>
       </c>
-      <c r="G38" s="70">
+      <c r="G38" s="71">
         <v>0.0</v>
       </c>
-      <c r="H38" s="70">
+      <c r="H38" s="71">
         <v>0.0</v>
       </c>
-      <c r="I38" s="69">
+      <c r="I38" s="70">
         <v>0.0</v>
       </c>
-      <c r="J38" s="69">
+      <c r="J38" s="70">
         <v>0.0</v>
       </c>
-      <c r="K38" s="69">
+      <c r="K38" s="70">
         <v>0.0</v>
       </c>
-      <c r="L38" s="69">
+      <c r="L38" s="70">
         <v>0.0</v>
       </c>
-      <c r="M38" s="69">
+      <c r="M38" s="70">
         <v>0.0</v>
       </c>
-      <c r="N38" s="71">
+      <c r="N38" s="72">
         <v>0.0</v>
       </c>
-      <c r="O38" s="72" t="s">
+      <c r="O38" s="73" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Data/FiMs Associate.xlsx
+++ b/Data/FiMs Associate.xlsx
@@ -200,32 +200,32 @@
         <t xml:space="preserve">Cost if money is taken before the end of the month (4% / year)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C15">
+    <comment authorId="0" ref="C16">
       <text>
         <t xml:space="preserve">Chèque Robot</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C16">
+    <comment authorId="0" ref="C17">
       <text>
         <t xml:space="preserve">Inclus dans -1000 car 700 de crédit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C20">
+    <comment authorId="0" ref="C21">
       <text>
         <t xml:space="preserve">Inclus dans -1000 car 700 de crédit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C29">
+    <comment authorId="0" ref="C30">
       <text>
         <t xml:space="preserve">2020 donation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C30">
+    <comment authorId="0" ref="C31">
       <text>
         <t xml:space="preserve">Non paiement du crédit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C31">
+    <comment authorId="0" ref="C32">
       <text>
         <t xml:space="preserve">Inclus dans -13600</t>
       </text>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="401">
   <si>
     <t>DateTime</t>
   </si>
@@ -2044,7 +2044,7 @@
     <numFmt numFmtId="172" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="173" formatCode="#,##0.00##\ [$€-1]"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2084,9 +2084,6 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
@@ -2096,7 +2093,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2155,7 +2151,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2239,9 +2235,6 @@
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="172" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -2254,10 +2247,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2278,16 +2271,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2305,19 +2289,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -2332,10 +2307,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2620,7 +2595,7 @@
       </c>
       <c r="B1" s="2">
         <f>NOW()</f>
-        <v>44175.1044</v>
+        <v>44176.87753</v>
       </c>
     </row>
     <row r="2">
@@ -2629,7 +2604,7 @@
       </c>
       <c r="B2" s="3">
         <f>DATEVALUE($B$1)</f>
-        <v>44175</v>
+        <v>44176</v>
       </c>
     </row>
     <row r="3">
@@ -2638,7 +2613,7 @@
       </c>
       <c r="B3" s="4">
         <f>TIMEVALUE($B$1)</f>
-        <v>0.1044097222</v>
+        <v>0.8775231481</v>
       </c>
     </row>
     <row r="4">
@@ -2665,7 +2640,7 @@
       </c>
       <c r="B6" s="5">
         <f>DAY($B$1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -2674,7 +2649,7 @@
       </c>
       <c r="B7" s="5">
         <f>WEEKDAY($B$1,2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2752,1102 +2727,1102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="61" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="69">
+      <c r="A2" s="62">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="63">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>300</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="63">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="63">
         <f t="shared" ref="D2:D18" si="1">$B2-$C2</f>
         <v>300</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="63">
         <f t="shared" ref="E2:E18" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>600</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="64">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="64">
         <f t="shared" ref="G2:G18" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.319813211</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="64">
         <f t="shared" ref="H2:H18" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A18)*12,0)</f>
         <v>0.2398599083</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="63">
         <f t="shared" ref="I2:I18" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I18)</f>
         <v>11.04684281</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J2" s="63">
         <f t="shared" ref="J2:J18" si="6">$N2-$E2</f>
         <v>38.2175457</v>
       </c>
-      <c r="K2" s="70">
+      <c r="K2" s="63">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.224301602</v>
       </c>
-      <c r="L2" s="70">
+      <c r="L2" s="63">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>603.0208333</v>
       </c>
-      <c r="M2" s="70">
+      <c r="M2" s="63">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>640.4418473</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="65">
         <f t="shared" ref="N2:N18" si="7">MAX($M2,$L2)+$K2</f>
         <v>638.2175457</v>
       </c>
-      <c r="O2" s="73" t="str">
+      <c r="O2" s="66" t="str">
         <f t="shared" ref="O2:O18" si="8">IF(ROW()=2,"Paclone",INDEX(O:O,ROW()-1))</f>
         <v>Paclone</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="69">
+      <c r="A3" s="62">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="63">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>200</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="63">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>200</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="63">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="64">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="64">
         <f t="shared" si="3"/>
         <v>0.2869089188</v>
       </c>
-      <c r="H3" s="71">
+      <c r="H3" s="64">
         <f t="shared" si="4"/>
         <v>0.229527135</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="63">
         <f t="shared" si="5"/>
         <v>-5.503327796</v>
       </c>
-      <c r="J3" s="70">
+      <c r="J3" s="63">
         <f t="shared" si="6"/>
         <v>27.77827925</v>
       </c>
-      <c r="K3" s="70">
+      <c r="K3" s="63">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.616725247</v>
       </c>
-      <c r="L3" s="70">
+      <c r="L3" s="63">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>302.5</v>
       </c>
-      <c r="M3" s="70">
+      <c r="M3" s="63">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>329.3950045</v>
       </c>
-      <c r="N3" s="72">
+      <c r="N3" s="65">
         <f t="shared" si="7"/>
         <v>327.7782792</v>
       </c>
-      <c r="O3" s="73" t="str">
+      <c r="O3" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="69">
+      <c r="A4" s="62">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="63">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="63">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="63">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="63">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="64">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>-0.003035883482</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="64">
         <f t="shared" si="3"/>
         <v>0.3033417501</v>
       </c>
-      <c r="H4" s="71">
+      <c r="H4" s="64">
         <f t="shared" si="4"/>
         <v>0.2600072144</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="63">
         <f t="shared" si="5"/>
         <v>-0.7152955209</v>
       </c>
-      <c r="J4" s="70">
+      <c r="J4" s="63">
         <f t="shared" si="6"/>
         <v>32.97892401</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="63">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.919408276</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="63">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>302.1875</v>
       </c>
-      <c r="M4" s="70">
+      <c r="M4" s="63">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>334.8983323</v>
       </c>
-      <c r="N4" s="72">
+      <c r="N4" s="65">
         <f t="shared" si="7"/>
         <v>332.978924</v>
       </c>
-      <c r="O4" s="73" t="str">
+      <c r="O4" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="69">
+      <c r="A5" s="62">
         <f t="array" ref="A5">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44075</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="63">
         <f t="array" ref="B5">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A5,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A5,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="63">
         <f>MAX($B5+IF($B5&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A5,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A5),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="63">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="64">
         <f t="array" ref="F5">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A5),0)</f>
         <v>0.06950114423</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="64">
         <f t="shared" si="3"/>
         <v>0.3063776336</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="64">
         <f t="shared" si="4"/>
         <v>0.2828101233</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="63">
         <f t="shared" si="5"/>
         <v>15.31126621</v>
       </c>
-      <c r="J5" s="70">
+      <c r="J5" s="63">
         <f t="shared" si="6"/>
         <v>33.65487828</v>
       </c>
-      <c r="K5" s="70">
+      <c r="K5" s="63">
         <f t="array" ref="K5">-$I5*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.95874953</v>
       </c>
-      <c r="L5" s="70">
+      <c r="L5" s="63">
         <f t="array" ref="L5">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D5+INDEX($L:$L,ROW()+1)</f>
         <v>201.9791667</v>
       </c>
-      <c r="M5" s="70">
+      <c r="M5" s="63">
         <f t="array" ref="M5">INDEX($M:$M,ROW()+1)+$D5+INDEX($M:$M,ROW()+1)*$F5+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>235.6136278</v>
       </c>
-      <c r="N5" s="72">
+      <c r="N5" s="65">
         <f t="shared" si="7"/>
         <v>233.6548783</v>
       </c>
-      <c r="O5" s="73" t="str">
+      <c r="O5" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="69">
+      <c r="A6" s="62">
         <f t="array" ref="A6">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44044</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="63">
         <f t="array" ref="B6">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A6,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A6,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="63">
         <f>MAX($B6+IF($B6&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A6,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A6),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="63">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="64">
         <f t="array" ref="F6">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A6),0)</f>
         <v>-0.001185159315</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="64">
         <f t="shared" si="3"/>
         <v>0.2368764894</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="64">
         <f t="shared" si="4"/>
         <v>0.2368764894</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="63">
         <f t="shared" si="5"/>
         <v>-0.2614032004</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="63">
         <f t="shared" si="6"/>
         <v>19.18573171</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="63">
         <f t="array" ref="K6">-$I6*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.116629888</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="63">
         <f t="array" ref="L6">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D6+INDEX($L:$L,ROW()+1)</f>
         <v>201.7708333</v>
       </c>
-      <c r="M6" s="70">
+      <c r="M6" s="63">
         <f t="array" ref="M6">INDEX($M:$M,ROW()+1)+$D6+INDEX($M:$M,ROW()+1)*$F6+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.3023616</v>
       </c>
-      <c r="N6" s="72">
+      <c r="N6" s="65">
         <f t="shared" si="7"/>
         <v>219.1857317</v>
       </c>
-      <c r="O6" s="73" t="str">
+      <c r="O6" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="69">
+      <c r="A7" s="62">
         <f t="array" ref="A7">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44013</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="63">
         <f t="array" ref="B7">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A7,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A7,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="63">
         <f>MAX($B7+IF($B7&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A7,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A7),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="63">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="64">
         <f t="array" ref="F7">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A7),0)</f>
         <v>0.01670595001</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="64">
         <f t="shared" si="3"/>
         <v>0.2380616487</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="64">
         <f t="shared" si="4"/>
         <v>0.2597036167</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="63">
         <f t="shared" si="5"/>
         <v>3.624181829</v>
       </c>
-      <c r="J7" s="70">
+      <c r="J7" s="63">
         <f t="shared" si="6"/>
         <v>19.43275774</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="63">
         <f t="array" ref="K7">-$I7*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.131007064</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="63">
         <f t="array" ref="L7">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D7+INDEX($L:$L,ROW()+1)</f>
         <v>201.5625</v>
       </c>
-      <c r="M7" s="70">
+      <c r="M7" s="63">
         <f t="array" ref="M7">INDEX($M:$M,ROW()+1)+$D7+INDEX($M:$M,ROW()+1)*$F7+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.5637648</v>
       </c>
-      <c r="N7" s="72">
+      <c r="N7" s="65">
         <f t="shared" si="7"/>
         <v>219.4327577</v>
       </c>
-      <c r="O7" s="73" t="str">
+      <c r="O7" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="69">
+      <c r="A8" s="62">
         <f t="array" ref="A8">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43983</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="63">
         <f t="array" ref="B8">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A8,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A8,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="63">
         <f>MAX($B8+IF($B8&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A8,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A8),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="63">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="64">
         <f t="array" ref="F8">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A8),0)</f>
         <v>-0.006593872955</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="64">
         <f t="shared" si="3"/>
         <v>0.2213556987</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="64">
         <f t="shared" si="4"/>
         <v>0.2656268384</v>
       </c>
-      <c r="I8" s="70">
+      <c r="I8" s="63">
         <f t="shared" si="5"/>
         <v>-1.439967008</v>
       </c>
-      <c r="J8" s="70">
+      <c r="J8" s="63">
         <f t="shared" si="6"/>
         <v>16.00790591</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="63">
         <f t="array" ref="K8">-$I8*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.9316770635</v>
       </c>
-      <c r="L8" s="70">
+      <c r="L8" s="63">
         <f t="array" ref="L8">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D8+INDEX($L:$L,ROW()+1)</f>
         <v>201.3541667</v>
       </c>
-      <c r="M8" s="70">
+      <c r="M8" s="63">
         <f t="array" ref="M8">INDEX($M:$M,ROW()+1)+$D8+INDEX($M:$M,ROW()+1)*$F8+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>216.939583</v>
       </c>
-      <c r="N8" s="72">
+      <c r="N8" s="65">
         <f t="shared" si="7"/>
         <v>216.0079059</v>
       </c>
-      <c r="O8" s="73" t="str">
+      <c r="O8" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="69">
+      <c r="A9" s="62">
         <f t="array" ref="A9">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43952</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="63">
         <f t="array" ref="B9">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A9,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A9,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="63">
         <f>MAX($B9+IF($B9&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A9,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A9),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="63">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="64">
         <f t="array" ref="F9">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A9),0)</f>
         <v>0.1716787041</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="64">
         <f t="shared" si="3"/>
         <v>0.2279495716</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="64">
         <f t="shared" si="4"/>
         <v>0.3039327622</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="63">
         <f t="shared" si="5"/>
         <v>17.44204998</v>
       </c>
-      <c r="J9" s="70">
+      <c r="J9" s="63">
         <f t="shared" si="6"/>
         <v>17.36867473</v>
       </c>
-      <c r="K9" s="70">
+      <c r="K9" s="63">
         <f t="array" ref="K9">-$I9*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.010875249</v>
       </c>
-      <c r="L9" s="70">
+      <c r="L9" s="63">
         <f t="array" ref="L9">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D9+INDEX($L:$L,ROW()+1)</f>
         <v>201.1458333</v>
       </c>
-      <c r="M9" s="70">
+      <c r="M9" s="63">
         <f t="array" ref="M9">INDEX($M:$M,ROW()+1)+$D9+INDEX($M:$M,ROW()+1)*$F9+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>218.37955</v>
       </c>
-      <c r="N9" s="72">
+      <c r="N9" s="65">
         <f t="shared" si="7"/>
         <v>217.3686747</v>
       </c>
-      <c r="O9" s="73" t="str">
+      <c r="O9" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="69">
+      <c r="A10" s="62">
         <f t="array" ref="A10">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43922</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="63">
         <f t="array" ref="B10">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A10,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A10,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="63">
         <f>MAX($B10+IF($B10&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A10,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A10),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="63">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="64">
         <f t="array" ref="F10">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A10),0)</f>
         <v>-0.09031985768</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="64">
         <f t="shared" si="3"/>
         <v>0.0562708675</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="64">
         <f t="shared" si="4"/>
         <v>0.08440630126</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="63">
         <f t="shared" si="5"/>
         <v>-3.949647339</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="63">
         <f t="shared" si="6"/>
         <v>0.8859375</v>
       </c>
-      <c r="K10" s="70">
+      <c r="K10" s="63">
         <f t="array" ref="K10">-$I10*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0515625</v>
       </c>
-      <c r="L10" s="70">
+      <c r="L10" s="63">
         <f t="array" ref="L10">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D10+INDEX($L:$L,ROW()+1)</f>
         <v>200.9375</v>
       </c>
-      <c r="M10" s="70">
+      <c r="M10" s="63">
         <f t="array" ref="M10">INDEX($M:$M,ROW()+1)+$D10+INDEX($M:$M,ROW()+1)*$F10+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>186.3817694</v>
       </c>
-      <c r="N10" s="72">
+      <c r="N10" s="65">
         <f t="shared" si="7"/>
         <v>200.8859375</v>
       </c>
-      <c r="O10" s="73" t="str">
+      <c r="O10" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="69">
+      <c r="A11" s="62">
         <f t="array" ref="A11">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43891</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="63">
         <f t="array" ref="B11">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A11,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A11,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="63">
         <f>MAX($B11+IF($B11&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A11,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A11),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="63">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="63">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="64">
         <f t="array" ref="F11">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A11),0)</f>
         <v>-0.0006988944889</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="64">
         <f t="shared" si="3"/>
         <v>0.1465907252</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="64">
         <f t="shared" si="4"/>
         <v>0.251298386</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="63">
         <f t="shared" si="5"/>
         <v>-0.07335631756</v>
       </c>
-      <c r="J11" s="70">
+      <c r="J11" s="63">
         <f t="shared" si="6"/>
         <v>4.618354235</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="63">
         <f t="array" ref="K11">-$I11*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2687931036</v>
       </c>
-      <c r="L11" s="70">
+      <c r="L11" s="63">
         <f t="array" ref="L11">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D11+INDEX($L:$L,ROW()+1)</f>
         <v>200.7291667</v>
       </c>
-      <c r="M11" s="70">
+      <c r="M11" s="63">
         <f t="array" ref="M11">INDEX($M:$M,ROW()+1)+$D11+INDEX($M:$M,ROW()+1)*$F11+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>204.8871473</v>
       </c>
-      <c r="N11" s="72">
+      <c r="N11" s="65">
         <f t="shared" si="7"/>
         <v>204.6183542</v>
       </c>
-      <c r="O11" s="73" t="str">
+      <c r="O11" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="69">
+      <c r="A12" s="62">
         <f t="array" ref="A12">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43862</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B12" s="63">
         <f t="array" ref="B12">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A12,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A12,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="63">
         <f>MAX($B12+IF($B12&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A12,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A12),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="63">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="64">
         <f t="array" ref="F12">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A12),0)</f>
         <v>-0.01357148377</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="64">
         <f t="shared" si="3"/>
         <v>0.1472896197</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="64">
         <f t="shared" si="4"/>
         <v>0.2945792394</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="63">
         <f t="shared" si="5"/>
         <v>-1.444067917</v>
       </c>
-      <c r="J12" s="70">
+      <c r="J12" s="63">
         <f t="shared" si="6"/>
         <v>4.687675955</v>
       </c>
-      <c r="K12" s="70">
+      <c r="K12" s="63">
         <f t="array" ref="K12">-$I12*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2728277011</v>
       </c>
-      <c r="L12" s="70">
+      <c r="L12" s="63">
         <f t="array" ref="L12">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D12+INDEX($L:$L,ROW()+1)</f>
         <v>100.625</v>
       </c>
-      <c r="M12" s="70">
+      <c r="M12" s="63">
         <f t="array" ref="M12">INDEX($M:$M,ROW()+1)+$D12+INDEX($M:$M,ROW()+1)*$F12+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>104.9605037</v>
       </c>
-      <c r="N12" s="72">
+      <c r="N12" s="65">
         <f t="shared" si="7"/>
         <v>104.687676</v>
       </c>
-      <c r="O12" s="73" t="str">
+      <c r="O12" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="69">
+      <c r="A13" s="62">
         <f t="array" ref="A13">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43831</v>
       </c>
-      <c r="B13" s="70">
+      <c r="B13" s="63">
         <f t="array" ref="B13">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A13,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A13,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="63">
         <f>MAX($B13+IF($B13&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A13,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A13),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="63">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="64">
         <f t="array" ref="F13">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A13),0)</f>
         <v>0.06953970792</v>
       </c>
-      <c r="G13" s="71">
+      <c r="G13" s="64">
         <f t="shared" si="3"/>
         <v>0.1608611035</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="64">
         <f t="shared" si="4"/>
         <v>0.3860666483</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="63">
         <f t="shared" si="5"/>
         <v>5.987904906</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="63">
         <f t="shared" si="6"/>
         <v>6.052320137</v>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="63">
         <f t="array" ref="K13">-$I13*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.3522514365</v>
       </c>
-      <c r="L13" s="70">
+      <c r="L13" s="63">
         <f t="array" ref="L13">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D13+INDEX($L:$L,ROW()+1)</f>
         <v>100.5208333</v>
       </c>
-      <c r="M13" s="70">
+      <c r="M13" s="63">
         <f t="array" ref="M13">INDEX($M:$M,ROW()+1)+$D13+INDEX($M:$M,ROW()+1)*$F13+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>106.4045716</v>
       </c>
-      <c r="N13" s="72">
+      <c r="N13" s="65">
         <f t="shared" si="7"/>
         <v>106.0523201</v>
       </c>
-      <c r="O13" s="73" t="str">
+      <c r="O13" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="69">
+      <c r="A14" s="62">
         <f t="array" ref="A14">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43800</v>
       </c>
-      <c r="B14" s="70">
+      <c r="B14" s="63">
         <f t="array" ref="B14">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A14,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A14,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="63">
         <f>MAX($B14+IF($B14&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A14,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A14),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="63">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="64">
         <f t="array" ref="F14">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A14),0)</f>
         <v>0.02764486097</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="64">
         <f t="shared" si="3"/>
         <v>0.09132139553</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="64">
         <f t="shared" si="4"/>
         <v>0.2739641866</v>
       </c>
-      <c r="I14" s="70">
+      <c r="I14" s="63">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="63">
         <f t="shared" si="6"/>
         <v>0.39375</v>
       </c>
-      <c r="K14" s="70">
+      <c r="K14" s="63">
         <f t="array" ref="K14">-$I14*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.02291666667</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="63">
         <f t="array" ref="L14">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D14+INDEX($L:$L,ROW()+1)</f>
         <v>100.4166667</v>
       </c>
-      <c r="M14" s="70">
+      <c r="M14" s="63">
         <f t="array" ref="M14">INDEX($M:$M,ROW()+1)+$D14+INDEX($M:$M,ROW()+1)*$F14+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.48632181</v>
       </c>
-      <c r="N14" s="72">
+      <c r="N14" s="65">
         <f t="shared" si="7"/>
         <v>100.39375</v>
       </c>
-      <c r="O14" s="73" t="str">
+      <c r="O14" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="69">
+      <c r="A15" s="62">
         <f t="array" ref="A15">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43770</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="63">
         <f t="array" ref="B15">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A15,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A15,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="63">
         <f>MAX($B15+IF($B15&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A15,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A15),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="63">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="64">
         <f t="array" ref="F15">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A15),0)</f>
         <v>-0.03120425194</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="64">
         <f t="shared" si="3"/>
         <v>0.06367653456</v>
       </c>
-      <c r="H15" s="71">
+      <c r="H15" s="64">
         <f t="shared" si="4"/>
         <v>0.2547061382</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="63">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J15" s="70">
+      <c r="J15" s="63">
         <f t="shared" si="6"/>
         <v>0.2953125</v>
       </c>
-      <c r="K15" s="70">
+      <c r="K15" s="63">
         <f t="array" ref="K15">-$I15*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0171875</v>
       </c>
-      <c r="L15" s="70">
+      <c r="L15" s="63">
         <f t="array" ref="L15">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D15+INDEX($L:$L,ROW()+1)</f>
         <v>100.3125</v>
       </c>
-      <c r="M15" s="70">
+      <c r="M15" s="63">
         <f t="array" ref="M15">INDEX($M:$M,ROW()+1)+$D15+INDEX($M:$M,ROW()+1)*$F15+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>96.81002221</v>
       </c>
-      <c r="N15" s="72">
+      <c r="N15" s="65">
         <f t="shared" si="7"/>
         <v>100.2953125</v>
       </c>
-      <c r="O15" s="73" t="str">
+      <c r="O15" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="69">
+      <c r="A16" s="62">
         <f t="array" ref="A16">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43739</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="63">
         <f t="array" ref="B16">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A16,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A16,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="63">
         <f>MAX($B16+IF($B16&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A16,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A16),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="63">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="64">
         <f t="array" ref="F16">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A16),0)</f>
         <v>-0.001757764068</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="64">
         <f t="shared" si="3"/>
         <v>0.0948807865</v>
       </c>
-      <c r="H16" s="71">
+      <c r="H16" s="64">
         <f t="shared" si="4"/>
         <v>0.569284719</v>
       </c>
-      <c r="I16" s="70">
+      <c r="I16" s="63">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J16" s="70">
+      <c r="J16" s="63">
         <f t="shared" si="6"/>
         <v>0.196875</v>
       </c>
-      <c r="K16" s="70">
+      <c r="K16" s="63">
         <f t="array" ref="K16">-$I16*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.01145833333</v>
       </c>
-      <c r="L16" s="70">
+      <c r="L16" s="63">
         <f t="array" ref="L16">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D16+INDEX($L:$L,ROW()+1)</f>
         <v>100.2083333</v>
       </c>
-      <c r="M16" s="70">
+      <c r="M16" s="63">
         <f t="array" ref="M16">INDEX($M:$M,ROW()+1)+$D16+INDEX($M:$M,ROW()+1)*$F16+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.92820716</v>
       </c>
-      <c r="N16" s="72">
+      <c r="N16" s="65">
         <f t="shared" si="7"/>
         <v>100.196875</v>
       </c>
-      <c r="O16" s="73" t="str">
+      <c r="O16" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="69">
+      <c r="A17" s="62">
         <f t="array" ref="A17">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43709</v>
       </c>
-      <c r="B17" s="70">
+      <c r="B17" s="63">
         <f t="array" ref="B17">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A17,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A17,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C17" s="63">
         <f>MAX($B17+IF($B17&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A17,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A17),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="63">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="63">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="64">
         <f t="array" ref="F17">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A17),0)</f>
         <v>0.09663855056</v>
       </c>
-      <c r="G17" s="71">
+      <c r="G17" s="64">
         <f t="shared" si="3"/>
         <v>0.09663855056</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="64">
         <f t="shared" si="4"/>
         <v>1.159662607</v>
       </c>
-      <c r="I17" s="70">
+      <c r="I17" s="63">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J17" s="70">
+      <c r="J17" s="63">
         <f t="shared" si="6"/>
         <v>0.0984375</v>
       </c>
-      <c r="K17" s="70">
+      <c r="K17" s="63">
         <f t="array" ref="K17">-$I17*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.005729166667</v>
       </c>
-      <c r="L17" s="70">
+      <c r="L17" s="63">
         <f t="array" ref="L17">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D17+INDEX($L:$L,ROW()+1)</f>
         <v>100.1041667</v>
       </c>
-      <c r="M17" s="70">
+      <c r="M17" s="63">
         <f t="array" ref="M17">INDEX($M:$M,ROW()+1)+$D17+INDEX($M:$M,ROW()+1)*$F17+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>100.1041667</v>
       </c>
-      <c r="N17" s="72">
+      <c r="N17" s="65">
         <f t="shared" si="7"/>
         <v>100.0984375</v>
       </c>
-      <c r="O17" s="73" t="str">
+      <c r="O17" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="69">
+      <c r="A18" s="62">
         <f t="array" ref="A18">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43678</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="63">
         <f t="array" ref="B18">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A18,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A18,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="63">
         <f>MAX($B18+IF($B18&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A18,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A18),0),0)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="64">
         <f t="array" ref="F18">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A18),0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="71">
+      <c r="G18" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="64">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="70">
+      <c r="I18" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="63">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K18" s="70">
+      <c r="K18" s="63">
         <f t="array" ref="K18">-$I18*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="70">
+      <c r="L18" s="63">
         <f t="array" ref="L18">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D18+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="70">
+      <c r="M18" s="63">
         <f t="array" ref="M18">INDEX($M:$M,ROW()+1)+$D18+INDEX($M:$M,ROW()+1)*$F18+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N18" s="72">
+      <c r="N18" s="65">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O18" s="73" t="str">
+      <c r="O18" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
@@ -3876,234 +3851,234 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="61" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="69">
+      <c r="A2" s="62">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="63">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="63">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="63">
         <f t="shared" ref="D2:D4" si="1">$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="63">
         <f t="shared" ref="E2:E4" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>40000</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="64">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="64">
         <f t="shared" ref="G2:G4" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.0164714609</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="64">
         <f t="shared" ref="H2:H4" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A4)*12,0)</f>
         <v>0.09882876541</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="63">
         <f t="shared" ref="I2:I4" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I4)</f>
         <v>1145.025732</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J2" s="63">
         <f t="shared" ref="J2:J4" si="6">$N2-$E2</f>
         <v>1121.424317</v>
       </c>
-      <c r="K2" s="70">
+      <c r="K2" s="63">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-65.26808195</v>
       </c>
-      <c r="L2" s="70">
+      <c r="L2" s="63">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>40083.33333</v>
       </c>
-      <c r="M2" s="70">
+      <c r="M2" s="63">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>41186.6924</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="65">
         <f t="shared" ref="N2:N4" si="7">MAX($M2,$L2)+$K2</f>
         <v>41121.42432</v>
       </c>
-      <c r="O2" s="73" t="str">
+      <c r="O2" s="66" t="str">
         <f t="shared" ref="O2:O4" si="8">IF(ROW()=2,"Philo",INDEX(O:O,ROW()-1))</f>
         <v>Philo</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="69">
+      <c r="A3" s="62">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="63">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>30442</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="63">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="63">
         <f t="shared" si="1"/>
         <v>30442</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="63">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="64">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="64">
         <f t="shared" si="3"/>
         <v>-0.0164328313</v>
       </c>
-      <c r="H3" s="71">
+      <c r="H3" s="64">
         <f t="shared" si="4"/>
         <v>-0.1971939755</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="63">
         <f t="shared" si="5"/>
         <v>41.66666667</v>
       </c>
-      <c r="J3" s="70">
+      <c r="J3" s="63">
         <f t="shared" si="6"/>
         <v>39.375</v>
       </c>
-      <c r="K3" s="70">
+      <c r="K3" s="63">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.291666667</v>
       </c>
-      <c r="L3" s="70">
+      <c r="L3" s="63">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>40041.66667</v>
       </c>
-      <c r="M3" s="70">
+      <c r="M3" s="63">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>39874.64542</v>
       </c>
-      <c r="N3" s="72">
+      <c r="N3" s="65">
         <f t="shared" si="7"/>
         <v>40039.375</v>
       </c>
-      <c r="O3" s="73" t="str">
+      <c r="O3" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="69">
+      <c r="A4" s="62">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="63">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>40000</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="63">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>30442</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="63">
         <f t="shared" si="1"/>
         <v>9558</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="63">
         <f t="shared" si="2"/>
         <v>9558</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="64">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H4" s="71">
+      <c r="H4" s="64">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J4" s="70">
+      <c r="J4" s="63">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="63">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="63">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>9558</v>
       </c>
-      <c r="M4" s="70">
+      <c r="M4" s="63">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>9558</v>
       </c>
-      <c r="N4" s="72">
+      <c r="N4" s="65">
         <f t="shared" si="7"/>
         <v>9558</v>
       </c>
-      <c r="O4" s="73" t="str">
+      <c r="O4" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
@@ -4132,171 +4107,171 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="61" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="69">
+      <c r="A2" s="62">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="63">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>555</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="63">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="63">
         <f t="shared" ref="D2:D3" si="1">$B2-$C2</f>
         <v>555</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="63">
         <f t="shared" ref="E2:E3" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>555</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="64">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="64">
         <f t="shared" ref="G2:G3" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="64">
         <f t="shared" ref="H2:H3" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3)*12,0)</f>
         <v>0.3948515064</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="63">
         <f t="shared" ref="I2:I3" si="5">MAX($L2,$M2)-$E2-SUM($I3)</f>
         <v>0.578125</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J2" s="63">
         <f t="shared" ref="J2:J3" si="6">$N2-$E2</f>
         <v>0.546328125</v>
       </c>
-      <c r="K2" s="70">
+      <c r="K2" s="63">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.031796875</v>
       </c>
-      <c r="L2" s="70">
+      <c r="L2" s="63">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>555.578125</v>
       </c>
-      <c r="M2" s="70">
+      <c r="M2" s="63">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>555.578125</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="65">
         <f t="shared" ref="N2:N3" si="7">MAX($M2,$L2)+$K2</f>
         <v>555.5463281</v>
       </c>
-      <c r="O2" s="73" t="str">
+      <c r="O2" s="66" t="str">
         <f t="shared" ref="O2:O3" si="8">IF(ROW()=2,"Tester",ROW()-1)</f>
         <v>Tester</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="69">
+      <c r="A3" s="62">
         <v>44136.0</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="63">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>555</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="63">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>555</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="64">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H3" s="71">
+      <c r="H3" s="64">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J3" s="70">
+      <c r="J3" s="63">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K3" s="70">
+      <c r="K3" s="63">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="70">
+      <c r="L3" s="63">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="70">
+      <c r="M3" s="63">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N3" s="72">
+      <c r="N3" s="65">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O3" s="73">
+      <c r="O3" s="66">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -4325,110 +4300,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="61" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="69">
+      <c r="A2" s="62">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="63">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="63">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="63">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="63">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="64">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="64">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="64">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="63">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J2" s="63">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="70">
+      <c r="K2" s="63">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="70">
+      <c r="L2" s="63">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="70">
+      <c r="M2" s="63">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="65">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="73" t="str">
+      <c r="O2" s="66" t="str">
         <f>IF(ROW()=2,"Lizzz",ROW()-1)</f>
         <v>Lizzz</v>
       </c>
@@ -4457,110 +4432,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="61" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="69">
+      <c r="A2" s="62">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="63">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="63">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="63">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="63">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="64">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="64">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="64">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="63">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J2" s="63">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="70">
+      <c r="K2" s="63">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="70">
+      <c r="L2" s="63">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="70">
+      <c r="M2" s="63">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="65">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="73" t="str">
+      <c r="O2" s="66" t="str">
         <f>IF(ROW()=2,"Joséd",ROW()-1)</f>
         <v>Joséd</v>
       </c>
@@ -4586,110 +4561,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="61" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="69">
+      <c r="A2" s="62">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="63">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="63">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="63">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="63">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="64">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="64">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="64">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="63">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J2" s="63">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="70">
+      <c r="K2" s="63">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="70">
+      <c r="L2" s="63">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="70">
+      <c r="M2" s="63">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="65">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="73" t="str">
+      <c r="O2" s="66" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"SheetName",INDEX(O:O,ROW()-1))</f>
         <v>SheetName</v>
       </c>
@@ -4720,8 +4695,8 @@
         <v>Cumulated saving</v>
       </c>
       <c r="B1" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290695.0612517168)</f>
-        <v>290695.0613</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290268.98125171644)</f>
+        <v>290268.9813</v>
       </c>
     </row>
     <row r="2">
@@ -4730,8 +4705,8 @@
         <v>Cumulated profit total rate</v>
       </c>
       <c r="B2" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0187700482025641)</f>
-        <v>1.018770048</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.02198630603328)</f>
+        <v>1.021986306</v>
       </c>
     </row>
     <row r="3">
@@ -4740,8 +4715,8 @@
         <v>Cumulated profit</v>
       </c>
       <c r="B3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182383.30999999985)</f>
-        <v>182383.31</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183101.6799999995)</f>
+        <v>183101.68</v>
       </c>
     </row>
     <row r="4">
@@ -4750,8 +4725,8 @@
         <v>Cumulated profit rate</v>
       </c>
       <c r="B4" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.10523352944173826)</f>
-        <v>0.1052335294</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.10553590564847483)</f>
+        <v>0.1055359056</v>
       </c>
     </row>
     <row r="5">
@@ -4770,8 +4745,8 @@
         <v>Cumulated dividend rate</v>
       </c>
       <c r="B6" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.023252754835450345)</f>
-        <v>0.02325275484</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.023228078320803598)</f>
+        <v>0.02322807832</v>
       </c>
     </row>
     <row r="7">
@@ -4780,8 +4755,8 @@
         <v>Average investment</v>
       </c>
       <c r="B7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179023.0389299158)</f>
-        <v>179023.0389</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179162.55718796)</f>
+        <v>179162.5572</v>
       </c>
     </row>
     <row r="8">
@@ -4790,8 +4765,8 @@
         <v>Saving duration</v>
       </c>
       <c r="B8" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.681040383299111)</f>
-        <v>9.681040383</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.683778234086242)</f>
+        <v>9.683778234</v>
       </c>
     </row>
     <row r="9">
@@ -4810,8 +4785,8 @@
         <v>Working free duration</v>
       </c>
       <c r="B10" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"237 months (19.8 years)")</f>
-        <v>237 months (19.8 years)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"237 months (19.7 years)")</f>
+        <v>237 months (19.7 years)</v>
       </c>
     </row>
     <row r="11">
@@ -4820,8 +4795,8 @@
         <v>Since Independance duration</v>
       </c>
       <c r="B11" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1160 months (96.7 years)")</f>
-        <v>1160 months (96.7 years)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1125 months (93.8 years)")</f>
+        <v>1125 months (93.8 years)</v>
       </c>
     </row>
     <row r="12">
@@ -4830,8 +4805,8 @@
         <v>Since Independance gap</v>
       </c>
       <c r="B12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-343243.12521623285)</f>
-        <v>-343243.1252</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-344342.67396932835)</f>
+        <v>-344342.674</v>
       </c>
     </row>
     <row r="13">
@@ -4840,8 +4815,8 @@
         <v>Monthly income</v>
       </c>
       <c r="B13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),932.3356698880466)</f>
-        <v>932.3356699</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),922.2235600365092)</f>
+        <v>922.22356</v>
       </c>
     </row>
     <row r="14">
@@ -4860,8 +4835,8 @@
         <v>Income use</v>
       </c>
       <c r="B15" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3175520457972763)</f>
-        <v>1.317552046</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.331998901852106)</f>
+        <v>1.331998902</v>
       </c>
     </row>
     <row r="16">
@@ -4890,8 +4865,8 @@
         <v>Savings available</v>
       </c>
       <c r="B18" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1912.03)</f>
-        <v>1912.03</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.03)</f>
+        <v>212.03</v>
       </c>
     </row>
     <row r="19">
@@ -4910,8 +4885,8 @@
         <v>Monthly payment</v>
       </c>
       <c r="B20" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-3700.0)</f>
-        <v>-3700</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-2000.0)</f>
+        <v>-2000</v>
       </c>
     </row>
     <row r="21">
@@ -4960,8 +4935,8 @@
         <v>Monthly profit</v>
       </c>
       <c r="B25" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-18282.630000000117)</f>
-        <v>-18282.63</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-17564.26000000047)</f>
+        <v>-17564.26</v>
       </c>
     </row>
     <row r="26">
@@ -4970,8 +4945,8 @@
         <v>Monthly profit percentage</v>
       </c>
       <c r="B26" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.047259999364098366)</f>
-        <v>-0.04725999936</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.04540303645760349)</f>
+        <v>-0.04540303646</v>
       </c>
     </row>
     <row r="27">
@@ -4990,8 +4965,8 @@
         <v>Next portfolio objective spread</v>
       </c>
       <c r="B28" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-24567.625000000116)</f>
-        <v>-24567.625</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-23849.25500000047)</f>
+        <v>-23849.255</v>
       </c>
     </row>
     <row r="29">
@@ -5000,8 +4975,8 @@
         <v>Next portfolio objective ratio</v>
       </c>
       <c r="B29" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-2.9089331017765527)</f>
-        <v>-2.908933102</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-2.7946338859458884)</f>
+        <v>-2.794633886</v>
       </c>
     </row>
     <row r="30">
@@ -5010,8 +4985,8 @@
         <v>Debt</v>
       </c>
       <c r="B30" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-79786.43874828311)</f>
-        <v>-79786.43875</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-79230.8887482831)</f>
+        <v>-79230.88875</v>
       </c>
     </row>
     <row r="31">
@@ -5040,8 +5015,8 @@
         <v>Client</v>
       </c>
       <c r="B33" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-65311.888748283105)</f>
-        <v>-65311.88875</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-64756.3387482831)</f>
+        <v>-64756.33875</v>
       </c>
     </row>
     <row r="34">
@@ -5050,8 +5025,8 @@
         <v>Current portfolio duration</v>
       </c>
       <c r="B34" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.125256673511293)</f>
-        <v>5.125256674</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.127994524298426)</f>
+        <v>5.127994524</v>
       </c>
     </row>
     <row r="35">
@@ -5070,8 +5045,8 @@
         <v>Current portfolio stock</v>
       </c>
       <c r="B36" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1203817.37)</f>
-        <v>1203817.37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1204535.7399999998)</f>
+        <v>1204535.74</v>
       </c>
     </row>
     <row r="37">
@@ -5090,8 +5065,8 @@
         <v>Current portfolio value</v>
       </c>
       <c r="B38" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),368569.46999999986)</f>
-        <v>368569.47</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369287.8399999995)</f>
+        <v>369287.84</v>
       </c>
     </row>
     <row r="39">
@@ -5100,8 +5075,8 @@
         <v>Current portfolio total profit</v>
       </c>
       <c r="B39" s="17">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),193909.71999999986)</f>
-        <v>193909.72</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),194628.0899999995)</f>
+        <v>194628.09</v>
       </c>
     </row>
     <row r="40">
@@ -5110,8 +5085,8 @@
         <v>Current portfolio total profit rate</v>
       </c>
       <c r="B40" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.2113367548618145)</f>
-        <v>0.2113367549</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.21184134025002788)</f>
+        <v>0.2118413403</v>
       </c>
     </row>
     <row r="41">
@@ -5120,8 +5095,8 @@
         <v>Current portfolio profit</v>
       </c>
       <c r="B41" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175784.97999999986)</f>
-        <v>175784.98</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176503.3499999995)</f>
+        <v>176503.35</v>
       </c>
     </row>
     <row r="42">
@@ -5130,8 +5105,8 @@
         <v>Current portfolio profit rate</v>
       </c>
       <c r="B42" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.1915831100506409)</f>
-        <v>0.1915831101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.19211361639843327)</f>
+        <v>0.1921136164</v>
       </c>
     </row>
     <row r="43">
@@ -5150,8 +5125,8 @@
         <v>Current portfolio dividend rate</v>
       </c>
       <c r="B44" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.04021402795427658)</f>
-        <v>0.04021402795</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.04016125864496298)</f>
+        <v>0.04016125864</v>
       </c>
     </row>
     <row r="45">
@@ -5170,8 +5145,8 @@
         <v>Current portfolio cost rate</v>
       </c>
       <c r="B46" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.02046038314310299)</f>
-        <v>-0.02046038314</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.020433534793368395)</f>
+        <v>-0.02043353479</v>
       </c>
     </row>
     <row r="47">
@@ -5200,7 +5175,7 @@
         <v>Previous profit</v>
       </c>
       <c r="B49" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-11579.089999999851)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-11579.090000000113)</f>
         <v>-11579.09</v>
       </c>
     </row>
@@ -5220,8 +5195,8 @@
         <v>Current Allocation ratio (instant)</v>
       </c>
       <c r="B51" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"29% (30.6%)")</f>
-        <v>29% (30.6%)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"29% (30.7%)")</f>
+        <v>29% (30.7%)</v>
       </c>
     </row>
     <row r="52">
@@ -5230,8 +5205,8 @@
         <v>Margin</v>
       </c>
       <c r="B52" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7424.0559999997495)</f>
-        <v>7424.056</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7926.914999999455)</f>
+        <v>7926.915</v>
       </c>
     </row>
     <row r="53">
@@ -5240,8 +5215,8 @@
         <v>Next Allocation</v>
       </c>
       <c r="B53" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),835000.0)</f>
-        <v>835000</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),833000.0)</f>
+        <v>833000</v>
       </c>
     </row>
     <row r="54">
@@ -5267,8 +5242,8 @@
         <v>EONIA</v>
       </c>
       <c r="B56" s="19">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.0047)</f>
-        <v>-0.0047</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.00474)</f>
+        <v>-0.00474</v>
       </c>
     </row>
     <row r="57">
@@ -5297,8 +5272,8 @@
         <v>Investment provision</v>
       </c>
       <c r="B59" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-3410.11087884428)</f>
-        <v>-3410.110879</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-3843.208563053282)</f>
+        <v>-3843.208563</v>
       </c>
     </row>
     <row r="60">
@@ -5307,8 +5282,8 @@
         <v>Today's result</v>
       </c>
       <c r="B60" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7656.179999999988)</f>
+        <v>7656.18</v>
       </c>
     </row>
     <row r="61">
@@ -5317,8 +5292,8 @@
         <v>Last year daily average progress</v>
       </c>
       <c r="B61" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),575.1406076433202)</f>
-        <v>575.1406076</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),571.0222165730869)</f>
+        <v>571.0222166</v>
       </c>
     </row>
     <row r="62">
@@ -5327,8 +5302,8 @@
         <v>Transaction per month</v>
       </c>
       <c r="B62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.885897691082802)</f>
-        <v>13.88589769</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.874850835322198)</f>
+        <v>13.87485084</v>
       </c>
     </row>
     <row r="63">
@@ -5337,8 +5312,8 @@
         <v>Average profit per transaction</v>
       </c>
       <c r="B63" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),363.9333403659573)</f>
-        <v>363.9333404</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.01184930089784)</f>
+        <v>364.0118493</v>
       </c>
     </row>
     <row r="64">
@@ -5347,8 +5322,8 @@
         <v>Average profit per month</v>
       </c>
       <c r="B64" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5053.541130695698)</f>
-        <v>5053.541131</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5050.61011133974)</f>
+        <v>5050.610111</v>
       </c>
     </row>
     <row r="65">
@@ -5357,8 +5332,8 @@
         <v>Total profit per month</v>
       </c>
       <c r="B65" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5456.23432641548)</f>
-        <v>5456.234326</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5453.303307059522)</f>
+        <v>5453.303307</v>
       </c>
     </row>
     <row r="66">
@@ -5367,8 +5342,8 @@
         <v>Instant profit per trading day</v>
       </c>
       <c r="B66" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.94924542682938)</f>
-        <v>142.9492454</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.3874942878903)</f>
+        <v>143.3874943</v>
       </c>
     </row>
     <row r="67">
@@ -5377,8 +5352,8 @@
         <v>Instant profit per transaction</v>
       </c>
       <c r="B67" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),287.6524693251536)</f>
-        <v>287.6524693</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.7542638036809)</f>
+        <v>288.7542638</v>
       </c>
     </row>
     <row r="68">
@@ -5387,8 +5362,8 @@
         <v>Instant profit per month</v>
       </c>
       <c r="B68" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3994.312759636417)</f>
-        <v>3994.31276</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4006.422338339348)</f>
+        <v>4006.422338</v>
       </c>
     </row>
     <row r="69">
@@ -5397,8 +5372,8 @@
         <v>Last month stock average progress</v>
       </c>
       <c r="B69" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0017553686264385141)</f>
-        <v>0.001755368626</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0018762593527530146)</f>
+        <v>0.001876259353</v>
       </c>
     </row>
     <row r="70">
@@ -5407,8 +5382,8 @@
         <v>Last negative average profit in days</v>
       </c>
       <c r="B70" s="21" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"8d (0.3m)")</f>
-        <v>8d (0.3m)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"9d (0.3m)")</f>
+        <v>9d (0.3m)</v>
       </c>
     </row>
     <row r="71">
@@ -5417,8 +5392,8 @@
         <v>Last updated</v>
       </c>
       <c r="B71" s="22">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.35459453703515464)</f>
-        <v>0.354594537</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.12654664352157852)</f>
+        <v>0.1265466435</v>
       </c>
     </row>
     <row r="72">
@@ -36687,7 +36662,7 @@
       </c>
       <c r="H2" s="33">
         <f t="shared" ref="H2:H7" si="3">$G2*$N2</f>
-        <v>0.5786940918</v>
+        <v>-0.000003824869792</v>
       </c>
       <c r="I2" s="33" t="str">
         <f>IF(ISREF(INDIRECT($B2&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B2&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B2&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
@@ -36699,19 +36674,19 @@
       </c>
       <c r="K2" s="33">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B2,AssociateHistoric!$C:$C,"&lt;0",AssociateHistoric!$D:$D,"&lt;=0")</f>
-        <v>0</v>
+        <v>-555.55</v>
       </c>
       <c r="L2" s="33">
-        <f t="shared" ref="L2:L7" si="4">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!J2"),) </f>
+        <f t="shared" ref="L2:L7" si="4">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!J2"),)</f>
         <v>0.546328125</v>
       </c>
       <c r="M2" s="35">
-        <f t="shared" ref="M2:M7" si="5">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!H2"),) </f>
+        <f t="shared" ref="M2:M7" si="5">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!H2"),)</f>
         <v>0.3948515064</v>
       </c>
       <c r="N2" s="36">
         <f t="shared" ref="N2:N7" si="6">SUM(J2,K2,L2)</f>
-        <v>555.5463281</v>
+        <v>-0.003671875</v>
       </c>
       <c r="O2" s="37" t="s">
         <v>41</v>
@@ -37253,14 +37228,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="41">
-        <v>44131.0</v>
+      <c r="A2" s="38">
+        <v>44201.0</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="33">
-        <v>555.0</v>
+        <v>-555.55</v>
       </c>
       <c r="D2" s="33">
         <v>0.0</v>
@@ -37268,13 +37243,13 @@
     </row>
     <row r="3">
       <c r="A3" s="38">
-        <v>44170.0</v>
+        <v>44131.0</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C3" s="33">
-        <v>-1500.0</v>
+        <v>555.0</v>
       </c>
       <c r="D3" s="33">
         <v>0.0</v>
@@ -37288,7 +37263,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="33">
-        <v>-1000.0</v>
+        <v>-1500.0</v>
       </c>
       <c r="D4" s="33">
         <v>0.0</v>
@@ -37302,7 +37277,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="33">
-        <v>-3000.0</v>
+        <v>-1000.0</v>
       </c>
       <c r="D5" s="33">
         <v>0.0</v>
@@ -37310,13 +37285,13 @@
     </row>
     <row r="6">
       <c r="A6" s="38">
-        <v>44162.0</v>
+        <v>44170.0</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="C6" s="33">
-        <v>4999.0</v>
+        <v>-3000.0</v>
       </c>
       <c r="D6" s="33">
         <v>0.0</v>
@@ -37327,7 +37302,7 @@
         <v>44162.0</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C7" s="33">
         <v>4999.0</v>
@@ -37338,13 +37313,13 @@
     </row>
     <row r="8">
       <c r="A8" s="38">
-        <v>44158.0</v>
+        <v>44162.0</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C8" s="33">
-        <v>100.0</v>
+        <v>4999.0</v>
       </c>
       <c r="D8" s="33">
         <v>0.0</v>
@@ -37352,13 +37327,13 @@
     </row>
     <row r="9">
       <c r="A9" s="38">
-        <v>44140.0</v>
+        <v>44158.0</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C9" s="33">
-        <v>-1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="D9" s="33">
         <v>0.0</v>
@@ -37366,13 +37341,13 @@
     </row>
     <row r="10">
       <c r="A10" s="38">
-        <v>44131.0</v>
+        <v>44140.0</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C10" s="33">
-        <v>100.0</v>
+        <v>-1000.0</v>
       </c>
       <c r="D10" s="33">
         <v>0.0</v>
@@ -37380,7 +37355,7 @@
     </row>
     <row r="11">
       <c r="A11" s="38">
-        <v>44116.0</v>
+        <v>44131.0</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>58</v>
@@ -37394,13 +37369,13 @@
     </row>
     <row r="12">
       <c r="A12" s="38">
-        <v>44115.0</v>
+        <v>44116.0</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C12" s="33">
-        <v>-300.0</v>
+        <v>100.0</v>
       </c>
       <c r="D12" s="33">
         <v>0.0</v>
@@ -37408,13 +37383,13 @@
     </row>
     <row r="13">
       <c r="A13" s="38">
-        <v>44092.0</v>
+        <v>44115.0</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C13" s="33">
-        <v>40000.0</v>
+        <v>-300.0</v>
       </c>
       <c r="D13" s="33">
         <v>0.0</v>
@@ -37422,13 +37397,13 @@
     </row>
     <row r="14">
       <c r="A14" s="38">
-        <v>44091.0</v>
+        <v>44092.0</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C14" s="33">
-        <v>100.0</v>
+        <v>40000.0</v>
       </c>
       <c r="D14" s="33">
         <v>0.0</v>
@@ -37436,13 +37411,13 @@
     </row>
     <row r="15">
       <c r="A15" s="38">
-        <v>44054.0</v>
+        <v>44091.0</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C15" s="33">
-        <v>-300.0</v>
+        <v>100.0</v>
       </c>
       <c r="D15" s="33">
         <v>0.0</v>
@@ -37450,7 +37425,7 @@
     </row>
     <row r="16">
       <c r="A16" s="38">
-        <v>44053.0</v>
+        <v>44054.0</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>50</v>
@@ -37464,13 +37439,13 @@
     </row>
     <row r="17">
       <c r="A17" s="38">
-        <v>44048.0</v>
+        <v>44053.0</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="33">
-        <v>-1500.0</v>
+        <v>-300.0</v>
       </c>
       <c r="D17" s="33">
         <v>0.0</v>
@@ -37478,13 +37453,13 @@
     </row>
     <row r="18">
       <c r="A18" s="38">
-        <v>44046.0</v>
+        <v>44048.0</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="33">
-        <v>-2200.0</v>
+        <v>-1500.0</v>
       </c>
       <c r="D18" s="33">
         <v>0.0</v>
@@ -37492,13 +37467,13 @@
     </row>
     <row r="19">
       <c r="A19" s="38">
-        <v>44035.0</v>
+        <v>44046.0</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="33">
-        <v>-500.0</v>
+        <v>-2200.0</v>
       </c>
       <c r="D19" s="33">
         <v>0.0</v>
@@ -37506,13 +37481,13 @@
     </row>
     <row r="20">
       <c r="A20" s="38">
-        <v>44029.0</v>
+        <v>44035.0</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="33">
-        <v>-300.0</v>
+        <v>-500.0</v>
       </c>
       <c r="D20" s="33">
         <v>0.0</v>
@@ -37520,7 +37495,7 @@
     </row>
     <row r="21">
       <c r="A21" s="38">
-        <v>44014.0</v>
+        <v>44029.0</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>50</v>
@@ -37534,13 +37509,13 @@
     </row>
     <row r="22">
       <c r="A22" s="38">
-        <v>44008.0</v>
+        <v>44014.0</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="33">
-        <v>3000.0</v>
+        <v>-300.0</v>
       </c>
       <c r="D22" s="33">
         <v>0.0</v>
@@ -37548,13 +37523,13 @@
     </row>
     <row r="23">
       <c r="A23" s="38">
-        <v>43990.0</v>
+        <v>44008.0</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="33">
-        <v>-300.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D23" s="33">
         <v>0.0</v>
@@ -37562,7 +37537,7 @@
     </row>
     <row r="24">
       <c r="A24" s="38">
-        <v>43959.0</v>
+        <v>43990.0</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>50</v>
@@ -37576,7 +37551,7 @@
     </row>
     <row r="25">
       <c r="A25" s="38">
-        <v>43935.0</v>
+        <v>43959.0</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>50</v>
@@ -37590,7 +37565,7 @@
     </row>
     <row r="26">
       <c r="A26" s="38">
-        <v>43899.0</v>
+        <v>43935.0</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>50</v>
@@ -37604,13 +37579,13 @@
     </row>
     <row r="27">
       <c r="A27" s="38">
-        <v>43871.0</v>
+        <v>43899.0</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C27" s="33">
-        <v>100.0</v>
+        <v>-300.0</v>
       </c>
       <c r="D27" s="33">
         <v>0.0</v>
@@ -37618,13 +37593,13 @@
     </row>
     <row r="28">
       <c r="A28" s="38">
-        <v>43850.0</v>
+        <v>43871.0</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C28" s="33">
-        <v>-1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="D28" s="33">
         <v>0.0</v>
@@ -37632,41 +37607,41 @@
     </row>
     <row r="29">
       <c r="A29" s="38">
-        <v>43844.0</v>
+        <v>43850.0</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="33">
-        <v>-434.68</v>
+        <v>-1000.0</v>
       </c>
       <c r="D29" s="33">
-        <v>434.68</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="38">
-        <v>43804.0</v>
+        <v>43844.0</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="33">
-        <v>-700.0</v>
+        <v>-434.68</v>
       </c>
       <c r="D30" s="33">
-        <v>0.0</v>
+        <v>434.68</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="38">
-        <v>43775.0</v>
+        <v>43804.0</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="33">
-        <v>-300.0</v>
+        <v>-700.0</v>
       </c>
       <c r="D31" s="33">
         <v>0.0</v>
@@ -37674,13 +37649,13 @@
     </row>
     <row r="32">
       <c r="A32" s="38">
-        <v>43756.0</v>
+        <v>43775.0</v>
       </c>
       <c r="B32" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="33">
-        <v>-150.0</v>
+        <v>-300.0</v>
       </c>
       <c r="D32" s="33">
         <v>0.0</v>
@@ -37688,13 +37663,13 @@
     </row>
     <row r="33">
       <c r="A33" s="38">
-        <v>43706.0</v>
+        <v>43756.0</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="33">
-        <v>-1000.0</v>
+        <v>-150.0</v>
       </c>
       <c r="D33" s="33">
         <v>0.0</v>
@@ -37702,13 +37677,13 @@
     </row>
     <row r="34">
       <c r="A34" s="38">
-        <v>43675.0</v>
+        <v>43706.0</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C34" s="33">
-        <v>100.0</v>
+        <v>-1000.0</v>
       </c>
       <c r="D34" s="33">
         <v>0.0</v>
@@ -37716,13 +37691,13 @@
     </row>
     <row r="35">
       <c r="A35" s="38">
-        <v>43601.0</v>
+        <v>43675.0</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C35" s="33">
-        <v>-500.0</v>
+        <v>100.0</v>
       </c>
       <c r="D35" s="33">
         <v>0.0</v>
@@ -37730,13 +37705,13 @@
     </row>
     <row r="36">
       <c r="A36" s="38">
-        <v>43474.0</v>
+        <v>43601.0</v>
       </c>
       <c r="B36" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="33">
-        <v>-1000.0</v>
+        <v>-500.0</v>
       </c>
       <c r="D36" s="33">
         <v>0.0</v>
@@ -37744,7 +37719,7 @@
     </row>
     <row r="37">
       <c r="A37" s="38">
-        <v>43444.0</v>
+        <v>43474.0</v>
       </c>
       <c r="B37" s="32" t="s">
         <v>50</v>
@@ -37758,13 +37733,13 @@
     </row>
     <row r="38">
       <c r="A38" s="38">
-        <v>43395.0</v>
+        <v>43444.0</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="33">
-        <v>7000.0</v>
+        <v>-1000.0</v>
       </c>
       <c r="D38" s="33">
         <v>0.0</v>
@@ -37772,15 +37747,29 @@
     </row>
     <row r="39">
       <c r="A39" s="38">
-        <v>43068.0</v>
+        <v>43395.0</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="33">
+        <v>7000.0</v>
+      </c>
+      <c r="D39" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="38">
+        <v>43068.0</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="33">
         <v>10000.0</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D40" s="33">
         <v>0.0</v>
       </c>
     </row>
@@ -37809,388 +37798,388 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""Au "" &amp; TO_TEXT(AllocationHistoric!A2) &amp; "", la capitalisation de l'entreprise est de "" &amp; TO_TEXT(AllocationHistoric!F2) &amp; "". J'en suis propriétaire de "" &amp; ROUNDUP(AllocationHistoric!B2/AllocationHistoric!F2*100,1) &amp; ""%, soit "" &amp; TO_TEXT(Allocation"&amp;"Historic!B2) &amp; "" dont "" &amp; TO_TEXT(-Dashboard!B30) &amp; "" de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ..."""),"Au 01/12/2020, la capitalisation de l'entreprise est de 1,218,600.00 €. J'en suis propriétaire de 31.5%, soit 383,352.10 € dont 79,786.44 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entrepr"&amp;"ises du CAC40, mais on s'en emproche ...")</f>
-        <v>Au 01/12/2020, la capitalisation de l'entreprise est de 1,218,600.00 €. J'en suis propriétaire de 31.5%, soit 383,352.10 € dont 79,786.44 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ...</v>
+      <c r="B13" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""Au "" &amp; TO_TEXT(AllocationHistoric!A2) &amp; "", la capitalisation de l'entreprise est de "" &amp; TO_TEXT(AllocationHistoric!F2) &amp; "". J'en suis propriétaire de "" &amp; ROUNDUP(AllocationHistoric!B2/AllocationHistoric!F2*100,1) &amp; ""%, soit "" &amp; TO_TEXT(Allocation"&amp;"Historic!B2) &amp; "" dont "" &amp; TO_TEXT(-Dashboard!B30) &amp; "" de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ..."""),"Au 01/12/2020, la capitalisation de l'entreprise est de 1,218,600.00 €. J'en suis propriétaire de 31.5%, soit 383,352.10 € dont 79,230.89 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entrepr"&amp;"ises du CAC40, mais on s'en emproche ...")</f>
+        <v>Au 01/12/2020, la capitalisation de l'entreprise est de 1,218,600.00 €. J'en suis propriétaire de 31.5%, soit 383,352.10 € dont 79,230.89 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ...</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="44" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="44" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""En date du "" &amp; TO_TEXT(DateTime!$B$6)&amp;""/""&amp;TO_TEXT(DateTime!$B$5)&amp;""/""&amp;TO_TEXT(DateTime!$B$4) &amp; "", "" &amp; COUNT(Associate!$A:$A)-1 &amp; "" personnes. Plus moi, "" &amp; COUNT(Associate!$A:$A) &amp; "" :-)"""),"En date du 10/12/2020, 5 personnes. Plus moi, 6 :-)")</f>
-        <v>En date du 10/12/2020, 5 personnes. Plus moi, 6 :-)</v>
+      <c r="B26" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""En date du "" &amp; TO_TEXT(DateTime!$B$6)&amp;""/""&amp;TO_TEXT(DateTime!$B$5)&amp;""/""&amp;TO_TEXT(DateTime!$B$4) &amp; "", "" &amp; COUNT(Associate!$A:$A)-1 &amp; "" personnes. Plus moi, "" &amp; COUNT(Associate!$A:$A) &amp; "" :-)"""),"En date du 11/12/2020, 5 personnes. Plus moi, 6 :-)")</f>
+        <v>En date du 11/12/2020, 5 personnes. Plus moi, 6 :-)</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="44" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="44" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="44" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="44" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="44" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="44" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="44" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="44" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="44" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="44" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="46" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="46" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="47" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="47" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="44" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="44" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="44" t="s">
         <v>192</v>
       </c>
     </row>
@@ -38225,988 +38214,988 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="50" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="50"/>
     </row>
     <row r="10">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="50" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="50" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="53" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="50"/>
     </row>
     <row r="21">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="50"/>
     </row>
     <row r="22">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="50"/>
     </row>
     <row r="23">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="50"/>
     </row>
     <row r="24">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="56"/>
     </row>
     <row r="25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="56"/>
     </row>
     <row r="26">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="D26" s="60"/>
+      <c r="D26" s="56"/>
     </row>
     <row r="27">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="D27" s="60"/>
+      <c r="D27" s="56"/>
     </row>
     <row r="28">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="50" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="50" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="50" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="50" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="50" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="50" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="51" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="50" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="50" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="50" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="50" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="50" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="50" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="50" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="50" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="50" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="50" t="s">
         <v>312</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="50" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="50" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51" t="s">
+      <c r="B47" s="50"/>
+      <c r="C47" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="D47" s="51"/>
+      <c r="D47" s="50"/>
     </row>
     <row r="48">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57" t="s">
+      <c r="B48" s="53"/>
+      <c r="C48" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="D48" s="51"/>
+      <c r="D48" s="50"/>
     </row>
     <row r="49">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57" t="s">
+      <c r="B49" s="53"/>
+      <c r="C49" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="D49" s="51"/>
+      <c r="D49" s="50"/>
     </row>
     <row r="50">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51" t="s">
+      <c r="B50" s="50"/>
+      <c r="C50" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="D50" s="51"/>
+      <c r="D50" s="50"/>
     </row>
     <row r="51">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51" t="s">
+      <c r="B51" s="50"/>
+      <c r="C51" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="D51" s="51"/>
+      <c r="D51" s="50"/>
     </row>
     <row r="52">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="56" t="s">
+      <c r="B52" s="50"/>
+      <c r="C52" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="D52" s="51"/>
+      <c r="D52" s="50"/>
     </row>
     <row r="53">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51" t="s">
+      <c r="B53" s="50"/>
+      <c r="C53" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="D53" s="51"/>
+      <c r="D53" s="50"/>
     </row>
     <row r="54">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="54" t="s">
+      <c r="B54" s="51"/>
+      <c r="C54" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="D54" s="51"/>
+      <c r="D54" s="50"/>
     </row>
     <row r="55">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="D55" s="50" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="50" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="50" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51" t="s">
+      <c r="B58" s="50"/>
+      <c r="C58" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="D58" s="51"/>
+      <c r="D58" s="50"/>
     </row>
     <row r="59">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51" t="s">
+      <c r="B59" s="50"/>
+      <c r="C59" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="D59" s="51"/>
+      <c r="D59" s="50"/>
     </row>
     <row r="60">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="50" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="52" t="s">
+      <c r="A61" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="50" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51" t="s">
+      <c r="B62" s="50"/>
+      <c r="C62" s="50" t="s">
         <v>353</v>
       </c>
-      <c r="D62" s="51"/>
+      <c r="D62" s="50"/>
     </row>
     <row r="63">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51" t="s">
+      <c r="B63" s="50"/>
+      <c r="C63" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="D63" s="51"/>
+      <c r="D63" s="50"/>
     </row>
     <row r="64">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51" t="s">
+      <c r="B64" s="50"/>
+      <c r="C64" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="D64" s="51"/>
+      <c r="D64" s="50"/>
     </row>
     <row r="65">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51" t="s">
+      <c r="B65" s="50"/>
+      <c r="C65" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="D65" s="51"/>
+      <c r="D65" s="50"/>
     </row>
     <row r="66">
-      <c r="A66" s="52" t="s">
+      <c r="A66" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51" t="s">
+      <c r="B66" s="50"/>
+      <c r="C66" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="D66" s="51"/>
+      <c r="D66" s="50"/>
     </row>
     <row r="67">
-      <c r="A67" s="51" t="s">
+      <c r="A67" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52" t="s">
+      <c r="B67" s="51"/>
+      <c r="C67" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="D67" s="51"/>
+      <c r="D67" s="50"/>
     </row>
     <row r="68">
-      <c r="A68" s="51" t="s">
+      <c r="A68" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52" t="s">
+      <c r="B68" s="51"/>
+      <c r="C68" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="D68" s="51"/>
+      <c r="D68" s="50"/>
     </row>
     <row r="69">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="50" t="s">
         <v>366</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52" t="s">
+      <c r="B69" s="51"/>
+      <c r="C69" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="D69" s="51"/>
+      <c r="D69" s="50"/>
     </row>
     <row r="70">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52" t="s">
+      <c r="B70" s="51"/>
+      <c r="C70" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="D70" s="51"/>
+      <c r="D70" s="50"/>
     </row>
     <row r="71">
-      <c r="A71" s="51" t="s">
+      <c r="A71" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52" t="s">
+      <c r="B71" s="51"/>
+      <c r="C71" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="D71" s="51"/>
+      <c r="D71" s="50"/>
     </row>
     <row r="72">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="B72" s="52" t="s">
+      <c r="B72" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="51" t="s">
         <v>373</v>
       </c>
-      <c r="D72" s="51" t="s">
+      <c r="D72" s="50" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="51" t="s">
+      <c r="A73" s="50" t="s">
         <v>375</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="50" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="51" t="s">
+      <c r="A74" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="B74" s="52"/>
-      <c r="C74" s="52" t="s">
+      <c r="B74" s="51"/>
+      <c r="C74" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="D74" s="51"/>
+      <c r="D74" s="50"/>
     </row>
     <row r="75">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52" t="s">
+      <c r="B75" s="51"/>
+      <c r="C75" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="D75" s="51"/>
+      <c r="D75" s="50"/>
     </row>
     <row r="76">
-      <c r="A76" s="61" t="s">
+      <c r="A76" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="B76" s="52"/>
-      <c r="C76" s="51" t="s">
+      <c r="B76" s="51"/>
+      <c r="C76" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="D76" s="56" t="s">
+      <c r="D76" s="50" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="51" t="s">
+      <c r="A77" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52" t="s">
+      <c r="B77" s="51"/>
+      <c r="C77" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="50" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="51" t="s">
+      <c r="A78" s="50" t="s">
         <v>388</v>
       </c>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52" t="s">
+      <c r="B78" s="51"/>
+      <c r="C78" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="50" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="61" t="s">
+      <c r="A79" s="57" t="s">
         <v>391</v>
       </c>
-      <c r="B79" s="52"/>
-      <c r="C79" s="51" t="s">
+      <c r="B79" s="51"/>
+      <c r="C79" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="D79" s="62" t="s">
+      <c r="D79" s="58" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="61" t="s">
+      <c r="A80" s="57" t="s">
         <v>394</v>
       </c>
-      <c r="B80" s="52"/>
-      <c r="C80" s="51" t="s">
+      <c r="B80" s="51"/>
+      <c r="C80" s="50" t="s">
         <v>395</v>
       </c>
-      <c r="D80" s="63" t="s">
+      <c r="D80" s="58" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="64" t="s">
+      <c r="A81" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B81" s="65"/>
-      <c r="C81" s="66" t="s">
+      <c r="B81" s="59"/>
+      <c r="C81" s="50" t="s">
         <v>398</v>
       </c>
-      <c r="D81" s="67" t="s">
+      <c r="D81" s="60" t="s">
         <v>399</v>
       </c>
     </row>
@@ -39234,1803 +39223,1803 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="61" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="69">
+      <c r="A2" s="62">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="63">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>-5500</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="63">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="63">
         <f>$B2-$C2</f>
         <v>-5500</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="63">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>950</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="64">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="64">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.7360828898</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="64">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A38)*12,0)</f>
         <v>0.2453609633</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="63">
         <f>MAX($L2,$M2)-$E2-SUM($I3:$I38)</f>
         <v>596.982136</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J2" s="63">
         <f>$N2-$E2</f>
         <v>12048.70056</v>
       </c>
-      <c r="K2" s="70">
+      <c r="K2" s="63">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-241.2682864</v>
       </c>
-      <c r="L2" s="70">
+      <c r="L2" s="63">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>1386.25</v>
       </c>
-      <c r="M2" s="70">
+      <c r="M2" s="63">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>13239.96884</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="65">
         <f>MAX($M2,$L2)+$K2</f>
         <v>12998.70056</v>
       </c>
-      <c r="O2" s="73" t="str">
+      <c r="O2" s="66" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"Bloopsy",INDEX(O:O,ROW()-1))</f>
         <v>Bloopsy</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="69">
+      <c r="A3" s="62">
         <v>44136.0</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="63">
         <v>-1000.0</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="63">
         <v>0.0</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="63">
         <v>-1000.0</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="63">
         <v>6450.0</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="64">
         <v>-0.016432831295333683</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="64">
         <v>0.703178597556773</v>
       </c>
-      <c r="H3" s="71">
+      <c r="H3" s="64">
         <v>0.24108980487660792</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="63">
         <v>-319.8291698477624</v>
       </c>
-      <c r="J3" s="70">
+      <c r="J3" s="63">
         <v>11484.552438769417</v>
       </c>
-      <c r="K3" s="70">
+      <c r="K3" s="63">
         <v>-208.4342689230876</v>
       </c>
-      <c r="L3" s="70">
+      <c r="L3" s="63">
         <v>6879.53124999999</v>
       </c>
-      <c r="M3" s="70">
+      <c r="M3" s="63">
         <v>18142.986707692504</v>
       </c>
-      <c r="N3" s="72">
+      <c r="N3" s="65">
         <v>17934.552438769417</v>
       </c>
-      <c r="O3" s="73" t="s">
+      <c r="O3" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="69">
+      <c r="A4" s="62">
         <v>44105.0</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="63">
         <v>-300.0</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="63">
         <v>0.0</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="63">
         <v>-300.0</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="63">
         <v>7450.0</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="64">
         <v>-0.0030358834822477613</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="64">
         <v>0.7196114288521067</v>
       </c>
-      <c r="H4" s="71">
+      <c r="H4" s="64">
         <v>0.25398050430074354</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="63">
         <v>-60.18030668434949</v>
       </c>
-      <c r="J4" s="70">
+      <c r="J4" s="63">
         <v>11786.79100427555</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="63">
         <v>-226.02487326471453</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="63">
         <v>7871.770833333323</v>
       </c>
-      <c r="M4" s="70">
+      <c r="M4" s="63">
         <v>19462.815877540266</v>
       </c>
-      <c r="N4" s="72">
+      <c r="N4" s="65">
         <v>19236.79100427555</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="69">
+      <c r="A5" s="62">
         <v>44075.0</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="63">
         <v>0.0</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="63">
         <v>0.0</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="63">
         <v>0.0</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="63">
         <v>7750.0</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="64">
         <v>0.0695011442271417</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="64">
         <v>0.7226473123343545</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="64">
         <v>0.2627808408488562</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="63">
         <v>1288.1902223764919</v>
       </c>
-      <c r="J5" s="70">
+      <c r="J5" s="63">
         <v>11843.661394092262</v>
       </c>
-      <c r="K5" s="70">
+      <c r="K5" s="63">
         <v>-229.33479013235376</v>
       </c>
-      <c r="L5" s="70">
+      <c r="L5" s="63">
         <v>8163.697916666656</v>
       </c>
-      <c r="M5" s="70">
+      <c r="M5" s="63">
         <v>19822.996184224616</v>
       </c>
-      <c r="N5" s="72">
+      <c r="N5" s="65">
         <v>19593.66139409226</v>
       </c>
-      <c r="O5" s="73" t="s">
+      <c r="O5" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="69">
+      <c r="A6" s="62">
         <v>44044.0</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="63">
         <v>-2400.0</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="63">
         <v>0.0</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="63">
         <v>-2400.0</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="63">
         <v>7750.0</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="64">
         <v>-0.0011851593150153932</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="64">
         <v>0.6531461681072128</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="64">
         <v>0.2449298130402048</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="63">
         <v>-22.85900518998824</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="63">
         <v>10626.321633946478</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="63">
         <v>-158.4843279016467</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="63">
         <v>8155.624999999989</v>
       </c>
-      <c r="M6" s="70">
+      <c r="M6" s="63">
         <v>18534.805961848124</v>
       </c>
-      <c r="N6" s="72">
+      <c r="N6" s="65">
         <v>18376.321633946478</v>
       </c>
-      <c r="O6" s="73" t="s">
+      <c r="O6" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="69">
+      <c r="A7" s="62">
         <v>44013.0</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="63">
         <v>1900.0</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="63">
         <v>1900.0</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="63">
         <v>0.0</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="63">
         <v>10150.0</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="64">
         <v>0.01670595001387467</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="64">
         <v>0.6543313274222282</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="64">
         <v>0.25328954609892707</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="63">
         <v>344.36476283245065</v>
       </c>
-      <c r="J7" s="70">
+      <c r="J7" s="63">
         <v>10647.923393851015</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="63">
         <v>-159.74157318709607</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="63">
         <v>10543.072916666655</v>
       </c>
-      <c r="M7" s="70">
+      <c r="M7" s="63">
         <v>20957.664967038112</v>
       </c>
-      <c r="N7" s="72">
+      <c r="N7" s="65">
         <v>20797.923393851015</v>
       </c>
-      <c r="O7" s="73" t="s">
+      <c r="O7" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="69">
+      <c r="A8" s="62">
         <v>43983.0</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="63">
         <v>-300.0</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="63">
         <v>0.0</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="63">
         <v>-300.0</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="63">
         <v>10150.0</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="64">
         <v>-0.00659387295460559</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="64">
         <v>0.6376253774083536</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="64">
         <v>0.25505015096334144</v>
       </c>
-      <c r="I8" s="70">
+      <c r="I8" s="63">
         <v>-138.8149729035831</v>
       </c>
-      <c r="J8" s="70">
+      <c r="J8" s="63">
         <v>10322.49869297435</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="63">
         <v>-140.80151123131128</v>
       </c>
-      <c r="L8" s="70">
+      <c r="L8" s="63">
         <v>10532.499999999989</v>
       </c>
-      <c r="M8" s="70">
+      <c r="M8" s="63">
         <v>20613.30020420566</v>
       </c>
-      <c r="N8" s="72">
+      <c r="N8" s="65">
         <v>20472.49869297435</v>
       </c>
-      <c r="O8" s="73" t="s">
+      <c r="O8" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="69">
+      <c r="A9" s="62">
         <v>43952.0</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="63">
         <v>-300.0</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="63">
         <v>0.0</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="63">
         <v>-300.0</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="63">
         <v>10450.0</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="64">
         <v>0.17167870410952307</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="64">
         <v>0.6442192503629591</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="64">
         <v>0.26657348290881067</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="63">
         <v>3128.591012831741</v>
       </c>
-      <c r="J9" s="70">
+      <c r="J9" s="63">
         <v>10453.678842368237</v>
       </c>
-      <c r="K9" s="70">
+      <c r="K9" s="63">
         <v>-148.43633474100835</v>
       </c>
-      <c r="L9" s="70">
+      <c r="L9" s="63">
         <v>10821.614583333323</v>
       </c>
-      <c r="M9" s="70">
+      <c r="M9" s="63">
         <v>21052.115177109245</v>
       </c>
-      <c r="N9" s="72">
+      <c r="N9" s="65">
         <v>20903.678842368237</v>
       </c>
-      <c r="O9" s="73" t="s">
+      <c r="O9" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="69">
+      <c r="A10" s="62">
         <v>43922.0</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="63">
         <v>-300.0</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="63">
         <v>0.0</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="63">
         <v>-300.0</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="63">
         <v>10750.0</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="64">
         <v>-0.09031985768405248</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="64">
         <v>0.4725405462534361</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="64">
         <v>0.20251737696575833</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="63">
         <v>-1839.1542131119495</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="63">
         <v>7497.160335242243</v>
       </c>
-      <c r="K10" s="70">
+      <c r="K10" s="63">
         <v>23.63617096473739</v>
       </c>
-      <c r="L10" s="70">
+      <c r="L10" s="63">
         <v>11110.416666666657</v>
       </c>
-      <c r="M10" s="70">
+      <c r="M10" s="63">
         <v>18223.524164277504</v>
       </c>
-      <c r="N10" s="72">
+      <c r="N10" s="65">
         <v>18247.160335242243</v>
       </c>
-      <c r="O10" s="73" t="s">
+      <c r="O10" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="69">
+      <c r="A11" s="62">
         <v>43891.0</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="63">
         <v>-300.0</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="63">
         <v>0.0</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="63">
         <v>-300.0</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="63">
         <v>11050.0</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="64">
         <v>-6.988944889106389E-4</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="64">
         <v>0.5628604039374886</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="64">
         <v>0.2501601795277727</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="63">
         <v>-14.451131860507303</v>
       </c>
-      <c r="J11" s="70">
+      <c r="J11" s="63">
         <v>9235.161066633034</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="63">
         <v>-77.51731075641983</v>
       </c>
-      <c r="L11" s="70">
+      <c r="L11" s="63">
         <v>11398.90624999999</v>
       </c>
-      <c r="M11" s="70">
+      <c r="M11" s="63">
         <v>20362.678377389453</v>
       </c>
-      <c r="N11" s="72">
+      <c r="N11" s="65">
         <v>20285.161066633034</v>
       </c>
-      <c r="O11" s="73" t="s">
+      <c r="O11" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="69">
+      <c r="A12" s="62">
         <v>43862.0</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B12" s="63">
         <v>0.0</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="63">
         <v>0.0</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="63">
         <v>0.0</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="63">
         <v>11350.0</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="64">
         <v>-0.013571483773815925</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="64">
         <v>0.5635592984263992</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="64">
         <v>0.260104291581415</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="63">
         <v>-284.48014529978536</v>
       </c>
-      <c r="J12" s="70">
+      <c r="J12" s="63">
         <v>9248.817386241211</v>
       </c>
-      <c r="K12" s="70">
+      <c r="K12" s="63">
         <v>-78.31212300874773</v>
       </c>
-      <c r="L12" s="70">
+      <c r="L12" s="63">
         <v>11687.083333333325</v>
       </c>
-      <c r="M12" s="70">
+      <c r="M12" s="63">
         <v>20677.12950924996</v>
       </c>
-      <c r="N12" s="72">
+      <c r="N12" s="65">
         <v>20598.81738624121</v>
       </c>
-      <c r="O12" s="73" t="s">
+      <c r="O12" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="69">
+      <c r="A13" s="62">
         <v>43831.0</v>
       </c>
-      <c r="B13" s="70">
+      <c r="B13" s="63">
         <v>-1000.0</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="63">
         <v>0.0</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="63">
         <v>-1000.0</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="63">
         <v>11350.0</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="64">
         <v>0.06953970791992178</v>
       </c>
-      <c r="G13" s="71">
+      <c r="G13" s="64">
         <v>0.5771307822002151</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="64">
         <v>0.27702277545610327</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="63">
         <v>1427.907640567064</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="63">
         <v>9082.971123549509</v>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="63">
         <v>-528.638531000236</v>
       </c>
-      <c r="L13" s="70">
+      <c r="L13" s="63">
         <v>11675.260416666659</v>
       </c>
-      <c r="M13" s="70">
+      <c r="M13" s="63">
         <v>20961.609654549746</v>
       </c>
-      <c r="N13" s="72">
+      <c r="N13" s="65">
         <v>20432.97112354951</v>
       </c>
-      <c r="O13" s="73" t="s">
+      <c r="O13" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="69">
+      <c r="A14" s="62">
         <v>43800.0</v>
       </c>
-      <c r="B14" s="70">
+      <c r="B14" s="63">
         <v>-700.0</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="63">
         <v>0.0</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="63">
         <v>-700.0</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="63">
         <v>12350.0</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="64">
         <v>0.02764486097227171</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="64">
         <v>0.5075910742802933</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="64">
         <v>0.25379553714014663</v>
       </c>
-      <c r="I14" s="70">
+      <c r="I14" s="63">
         <v>571.2116728222863</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="63">
         <v>7733.598403213633</v>
       </c>
-      <c r="K14" s="70">
+      <c r="K14" s="63">
         <v>-450.10361076904746</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="63">
         <v>12662.395833333325</v>
       </c>
-      <c r="M14" s="70">
+      <c r="M14" s="63">
         <v>20533.702013982682</v>
       </c>
-      <c r="N14" s="72">
+      <c r="N14" s="65">
         <v>20083.598403213633</v>
       </c>
-      <c r="O14" s="73" t="s">
+      <c r="O14" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="69">
+      <c r="A15" s="62">
         <v>43770.0</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="63">
         <v>-300.0</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="63">
         <v>0.0</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="63">
         <v>-300.0</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="63">
         <v>13050.0</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="64">
         <v>-0.031204251937763165</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="64">
         <v>0.4799462133080215</v>
       </c>
-      <c r="H15" s="71">
+      <c r="H15" s="64">
         <v>0.25040671998679387</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="63">
         <v>-675.1875523368581</v>
       </c>
-      <c r="J15" s="70">
+      <c r="J15" s="63">
         <v>7193.803372396575</v>
       </c>
-      <c r="K15" s="70">
+      <c r="K15" s="63">
         <v>-418.6869687638217</v>
       </c>
-      <c r="L15" s="70">
+      <c r="L15" s="63">
         <v>13348.802083333325</v>
       </c>
-      <c r="M15" s="70">
+      <c r="M15" s="63">
         <v>20662.490341160395</v>
       </c>
-      <c r="N15" s="72">
+      <c r="N15" s="65">
         <v>20243.803372396575</v>
       </c>
-      <c r="O15" s="73" t="s">
+      <c r="O15" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="69">
+      <c r="A16" s="62">
         <v>43739.0</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="63">
         <v>-150.0</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="63">
         <v>0.0</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="63">
         <v>-150.0</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="63">
         <v>13350.0</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="64">
         <v>-0.0017577640676155197</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="64">
         <v>0.5111504652457847</v>
       </c>
-      <c r="H16" s="71">
+      <c r="H16" s="64">
         <v>0.2788093446795189</v>
       </c>
-      <c r="I16" s="70">
+      <c r="I16" s="63">
         <v>-38.36503399618232</v>
       </c>
-      <c r="J16" s="70">
+      <c r="J16" s="63">
         <v>7831.855609354905</v>
       </c>
-      <c r="K16" s="70">
+      <c r="K16" s="63">
         <v>-455.8222841423489</v>
       </c>
-      <c r="L16" s="70">
+      <c r="L16" s="63">
         <v>13634.895833333325</v>
       </c>
-      <c r="M16" s="70">
+      <c r="M16" s="63">
         <v>21637.677893497254</v>
       </c>
-      <c r="N16" s="72">
+      <c r="N16" s="65">
         <v>21181.855609354905</v>
       </c>
-      <c r="O16" s="73" t="s">
+      <c r="O16" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="69">
+      <c r="A17" s="62">
         <v>43709.0</v>
       </c>
-      <c r="B17" s="70">
+      <c r="B17" s="63">
         <v>0.0</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C17" s="63">
         <v>0.0</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="63">
         <v>0.0</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="63">
         <v>13500.0</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="64">
         <v>0.09663855056374034</v>
       </c>
-      <c r="G17" s="71">
+      <c r="G17" s="64">
         <v>0.5129082293134002</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="64">
         <v>0.2930904167505144</v>
       </c>
-      <c r="I17" s="70">
+      <c r="I17" s="63">
         <v>1923.3658637758672</v>
       </c>
-      <c r="J17" s="70">
+      <c r="J17" s="63">
         <v>7868.110566481297</v>
       </c>
-      <c r="K17" s="70">
+      <c r="K17" s="63">
         <v>-457.9323610121389</v>
       </c>
-      <c r="L17" s="70">
+      <c r="L17" s="63">
         <v>13770.833333333325</v>
       </c>
-      <c r="M17" s="70">
+      <c r="M17" s="63">
         <v>21826.042927493436</v>
       </c>
-      <c r="N17" s="72">
+      <c r="N17" s="65">
         <v>21368.110566481297</v>
       </c>
-      <c r="O17" s="73" t="s">
+      <c r="O17" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="69">
+      <c r="A18" s="62">
         <v>43678.0</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="63">
         <v>-1000.0</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="63">
         <v>0.0</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="63">
         <v>-1000.0</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="63">
         <v>13500.0</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="64">
         <v>0.07804921004485675</v>
       </c>
-      <c r="G18" s="71">
+      <c r="G18" s="64">
         <v>0.4162696787496598</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="64">
         <v>0.2497618072497959</v>
       </c>
-      <c r="I18" s="70">
+      <c r="I18" s="63">
         <v>1513.323712354486</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="63">
         <v>6050.529825213103</v>
       </c>
-      <c r="K18" s="70">
+      <c r="K18" s="63">
         <v>-352.14723850446626</v>
       </c>
-      <c r="L18" s="70">
+      <c r="L18" s="63">
         <v>13756.770833333325</v>
       </c>
-      <c r="M18" s="70">
+      <c r="M18" s="63">
         <v>19902.67706371757</v>
       </c>
-      <c r="N18" s="72">
+      <c r="N18" s="65">
         <v>19550.529825213103</v>
       </c>
-      <c r="O18" s="73" t="s">
+      <c r="O18" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="69">
+      <c r="A19" s="62">
         <v>43647.0</v>
       </c>
-      <c r="B19" s="70">
+      <c r="B19" s="63">
         <v>0.0</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="63">
         <v>0.0</v>
       </c>
-      <c r="D19" s="70">
+      <c r="D19" s="63">
         <v>0.0</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="63">
         <v>14500.0</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="64">
         <v>0.05571063566313939</v>
       </c>
-      <c r="G19" s="71">
+      <c r="G19" s="64">
         <v>0.33822046870480305</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="64">
         <v>0.21361292760303352</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="63">
         <v>1023.1906014882006</v>
       </c>
-      <c r="J19" s="70">
+      <c r="J19" s="63">
         <v>4620.438917038115</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="63">
         <v>-268.91443432496953</v>
       </c>
-      <c r="L19" s="70">
+      <c r="L19" s="63">
         <v>14741.666666666659</v>
       </c>
-      <c r="M19" s="70">
+      <c r="M19" s="63">
         <v>19389.353351363083</v>
       </c>
-      <c r="N19" s="72">
+      <c r="N19" s="65">
         <v>19120.438917038115</v>
       </c>
-      <c r="O19" s="73" t="s">
+      <c r="O19" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="69">
+      <c r="A20" s="62">
         <v>43617.0</v>
       </c>
-      <c r="B20" s="70">
+      <c r="B20" s="63">
         <v>0.0</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="63">
         <v>0.0</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="63">
         <v>0.0</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="63">
         <v>14500.0</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="64">
         <v>0.03999771844904346</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="64">
         <v>0.28250983304166366</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="64">
         <v>0.18833988869444246</v>
       </c>
-      <c r="I20" s="70">
+      <c r="I20" s="63">
         <v>706.3521329203759</v>
       </c>
-      <c r="J20" s="70">
+      <c r="J20" s="63">
         <v>3653.5237986317625</v>
       </c>
-      <c r="K20" s="70">
+      <c r="K20" s="63">
         <v>-212.63895124311853</v>
       </c>
-      <c r="L20" s="70">
+      <c r="L20" s="63">
         <v>14726.562499999993</v>
       </c>
-      <c r="M20" s="70">
+      <c r="M20" s="63">
         <v>18366.162749874882</v>
       </c>
-      <c r="N20" s="72">
+      <c r="N20" s="65">
         <v>18153.523798631762</v>
       </c>
-      <c r="O20" s="73" t="s">
+      <c r="O20" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="69">
+      <c r="A21" s="62">
         <v>43586.0</v>
       </c>
-      <c r="B21" s="70">
+      <c r="B21" s="63">
         <v>-500.0</v>
       </c>
-      <c r="C21" s="70">
+      <c r="C21" s="63">
         <v>0.0</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="63">
         <v>-500.0</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="63">
         <v>14500.0</v>
       </c>
-      <c r="F21" s="71">
+      <c r="F21" s="64">
         <v>0.026231385182183264</v>
       </c>
-      <c r="G21" s="71">
+      <c r="G21" s="64">
         <v>0.24251211459262018</v>
       </c>
-      <c r="H21" s="71">
+      <c r="H21" s="64">
         <v>0.17118502206537894</v>
       </c>
-      <c r="I21" s="70">
+      <c r="I21" s="63">
         <v>464.18087967975225</v>
       </c>
-      <c r="J21" s="70">
+      <c r="J21" s="63">
         <v>2986.021033022007</v>
       </c>
-      <c r="K21" s="70">
+      <c r="K21" s="63">
         <v>-173.78958393249786</v>
       </c>
-      <c r="L21" s="70">
+      <c r="L21" s="63">
         <v>14711.458333333327</v>
       </c>
-      <c r="M21" s="70">
+      <c r="M21" s="63">
         <v>17659.810616954506</v>
       </c>
-      <c r="N21" s="72">
+      <c r="N21" s="65">
         <v>17486.021033022007</v>
       </c>
-      <c r="O21" s="73" t="s">
+      <c r="O21" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="69">
+      <c r="A22" s="62">
         <v>43556.0</v>
       </c>
-      <c r="B22" s="70">
+      <c r="B22" s="63">
         <v>0.0</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="63">
         <v>0.0</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="63">
         <v>0.0</v>
       </c>
-      <c r="E22" s="70">
+      <c r="E22" s="63">
         <v>15000.0</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="64">
         <v>0.10199738482836891</v>
       </c>
-      <c r="G22" s="71">
+      <c r="G22" s="64">
         <v>0.2162807294104369</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="64">
         <v>0.16221054705782767</v>
       </c>
-      <c r="I22" s="70">
+      <c r="I22" s="63">
         <v>1637.8513968744555</v>
       </c>
-      <c r="J22" s="70">
+      <c r="J22" s="63">
         <v>2547.370101724642</v>
       </c>
-      <c r="K22" s="70">
+      <c r="K22" s="63">
         <v>-148.25963555011148</v>
       </c>
-      <c r="L22" s="70">
+      <c r="L22" s="63">
         <v>15195.833333333327</v>
       </c>
-      <c r="M22" s="70">
+      <c r="M22" s="63">
         <v>17695.629737274754</v>
       </c>
-      <c r="N22" s="72">
+      <c r="N22" s="65">
         <v>17547.370101724642</v>
       </c>
-      <c r="O22" s="73" t="s">
+      <c r="O22" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="69">
+      <c r="A23" s="62">
         <v>43525.0</v>
       </c>
-      <c r="B23" s="70">
+      <c r="B23" s="63">
         <v>0.0</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="63">
         <v>0.0</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="63">
         <v>0.0</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="63">
         <v>15000.0</v>
       </c>
-      <c r="F23" s="71">
+      <c r="F23" s="64">
         <v>0.03449682927674902</v>
       </c>
-      <c r="G23" s="71">
+      <c r="G23" s="64">
         <v>0.11428334458206801</v>
       </c>
-      <c r="H23" s="71">
+      <c r="H23" s="64">
         <v>0.09142667566565442</v>
       </c>
-      <c r="I23" s="70">
+      <c r="I23" s="63">
         <v>535.4704067676521</v>
       </c>
-      <c r="J23" s="70">
+      <c r="J23" s="63">
         <v>999.6005316782812</v>
       </c>
-      <c r="K23" s="70">
+      <c r="K23" s="63">
         <v>-58.17780872201642</v>
       </c>
-      <c r="L23" s="70">
+      <c r="L23" s="63">
         <v>15180.208333333327</v>
       </c>
-      <c r="M23" s="70">
+      <c r="M23" s="63">
         <v>16057.778340400298</v>
       </c>
-      <c r="N23" s="72">
+      <c r="N23" s="65">
         <v>15999.600531678281</v>
       </c>
-      <c r="O23" s="73" t="s">
+      <c r="O23" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="69">
+      <c r="A24" s="62">
         <v>43497.0</v>
       </c>
-      <c r="B24" s="70">
+      <c r="B24" s="63">
         <v>0.0</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="63">
         <v>0.0</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="63">
         <v>0.0</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="63">
         <v>15000.0</v>
       </c>
-      <c r="F24" s="71">
+      <c r="F24" s="64">
         <v>0.04107233145116107</v>
       </c>
-      <c r="G24" s="71">
+      <c r="G24" s="64">
         <v>0.079786515305319</v>
       </c>
-      <c r="H24" s="71">
+      <c r="H24" s="64">
         <v>0.06838844169027342</v>
       </c>
-      <c r="I24" s="70">
+      <c r="I24" s="63">
         <v>373.3496002993197</v>
       </c>
-      <c r="J24" s="70">
+      <c r="J24" s="63">
         <v>493.58099728285015</v>
       </c>
-      <c r="K24" s="70">
+      <c r="K24" s="63">
         <v>-28.726936349795555</v>
       </c>
-      <c r="L24" s="70">
+      <c r="L24" s="63">
         <v>15164.583333333327</v>
       </c>
-      <c r="M24" s="70">
+      <c r="M24" s="63">
         <v>15522.307933632646</v>
       </c>
-      <c r="N24" s="72">
+      <c r="N24" s="65">
         <v>15493.58099728285</v>
       </c>
-      <c r="O24" s="73" t="s">
+      <c r="O24" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="69">
+      <c r="A25" s="62">
         <v>43466.0</v>
       </c>
-      <c r="B25" s="70">
+      <c r="B25" s="63">
         <v>-1000.0</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="63">
         <v>0.0</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="63">
         <v>-1000.0</v>
       </c>
-      <c r="E25" s="70">
+      <c r="E25" s="63">
         <v>15000.0</v>
       </c>
-      <c r="F25" s="71">
+      <c r="F25" s="64">
         <v>-0.024314741161841652</v>
       </c>
-      <c r="G25" s="71">
+      <c r="G25" s="64">
         <v>0.038714183854157924</v>
       </c>
-      <c r="H25" s="71">
+      <c r="H25" s="64">
         <v>0.035736169711530395</v>
       </c>
-      <c r="I25" s="70">
+      <c r="I25" s="63">
         <v>-157.4504235641234</v>
       </c>
-      <c r="J25" s="70">
+      <c r="J25" s="63">
         <v>140.76562499999454</v>
       </c>
-      <c r="K25" s="70">
+      <c r="K25" s="63">
         <v>-8.19270833333297</v>
       </c>
-      <c r="L25" s="70">
+      <c r="L25" s="63">
         <v>15148.958333333327</v>
       </c>
-      <c r="M25" s="70">
+      <c r="M25" s="63">
         <v>14909.9226486943</v>
       </c>
-      <c r="N25" s="72">
+      <c r="N25" s="65">
         <v>15140.765624999995</v>
       </c>
-      <c r="O25" s="73" t="s">
+      <c r="O25" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="69">
+      <c r="A26" s="62">
         <v>43435.0</v>
       </c>
-      <c r="B26" s="70">
+      <c r="B26" s="63">
         <v>6000.0</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="63">
         <v>0.0</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="63">
         <v>6000.0</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="63">
         <v>16000.0</v>
       </c>
-      <c r="F26" s="71">
+      <c r="F26" s="64">
         <v>0.059176449934818486</v>
       </c>
-      <c r="G26" s="71">
+      <c r="G26" s="64">
         <v>0.06302892501599958</v>
       </c>
-      <c r="H26" s="71">
+      <c r="H26" s="64">
         <v>0.06302892501599958</v>
       </c>
-      <c r="I26" s="70">
+      <c r="I26" s="63">
         <v>191.8254235641234</v>
       </c>
-      <c r="J26" s="70">
+      <c r="J26" s="63">
         <v>289.55627526809076</v>
       </c>
-      <c r="K26" s="70">
+      <c r="K26" s="63">
         <v>-16.852481629359758</v>
       </c>
-      <c r="L26" s="70">
+      <c r="L26" s="63">
         <v>16132.29166666666</v>
       </c>
-      <c r="M26" s="70">
+      <c r="M26" s="63">
         <v>16306.40875689745</v>
       </c>
-      <c r="N26" s="72">
+      <c r="N26" s="65">
         <v>16289.55627526809</v>
       </c>
-      <c r="O26" s="73" t="s">
+      <c r="O26" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="69">
+      <c r="A27" s="62">
         <v>43405.0</v>
       </c>
-      <c r="B27" s="70">
+      <c r="B27" s="63">
         <v>7000.0</v>
       </c>
-      <c r="C27" s="70">
+      <c r="C27" s="63">
         <v>7000.0</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D27" s="63">
         <v>0.0</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="63">
         <v>10000.0</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="64">
         <v>-0.06412073646906129</v>
       </c>
-      <c r="G27" s="71">
+      <c r="G27" s="64">
         <v>0.0038524750811810976</v>
       </c>
-      <c r="H27" s="71">
+      <c r="H27" s="64">
         <v>0.004202700088561198</v>
       </c>
-      <c r="I27" s="70">
+      <c r="I27" s="63">
         <v>-275.32832818211136</v>
       </c>
-      <c r="J27" s="70">
+      <c r="J27" s="63">
         <v>108.28124999999454</v>
       </c>
-      <c r="K27" s="70">
+      <c r="K27" s="63">
         <v>-6.302083333332968</v>
       </c>
-      <c r="L27" s="70">
+      <c r="L27" s="63">
         <v>10114.583333333327</v>
       </c>
-      <c r="M27" s="70">
+      <c r="M27" s="63">
         <v>9723.70287393058</v>
       </c>
-      <c r="N27" s="72">
+      <c r="N27" s="65">
         <v>10108.281249999995</v>
       </c>
-      <c r="O27" s="73" t="s">
+      <c r="O27" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="69">
+      <c r="A28" s="62">
         <v>43374.0</v>
       </c>
-      <c r="B28" s="70">
+      <c r="B28" s="63">
         <v>0.0</v>
       </c>
-      <c r="C28" s="70">
+      <c r="C28" s="63">
         <v>0.0</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="63">
         <v>0.0</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="63">
         <v>10000.0</v>
       </c>
-      <c r="F28" s="71">
+      <c r="F28" s="64">
         <v>-0.028896114427261484</v>
       </c>
-      <c r="G28" s="71">
+      <c r="G28" s="64">
         <v>0.06797321155024239</v>
       </c>
-      <c r="H28" s="71">
+      <c r="H28" s="64">
         <v>0.08156785386029086</v>
       </c>
-      <c r="I28" s="70">
+      <c r="I28" s="63">
         <v>-309.16164657627814</v>
       </c>
-      <c r="J28" s="70">
+      <c r="J28" s="63">
         <v>368.4665201320895</v>
       </c>
-      <c r="K28" s="70">
+      <c r="K28" s="63">
         <v>-21.445141383349092</v>
       </c>
-      <c r="L28" s="70">
+      <c r="L28" s="63">
         <v>10104.16666666666</v>
       </c>
-      <c r="M28" s="70">
+      <c r="M28" s="63">
         <v>10389.911661515438</v>
       </c>
-      <c r="N28" s="72">
+      <c r="N28" s="65">
         <v>10368.46652013209</v>
       </c>
-      <c r="O28" s="73" t="s">
+      <c r="O28" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="69">
+      <c r="A29" s="62">
         <v>43344.0</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="63">
         <v>0.0</v>
       </c>
-      <c r="C29" s="70">
+      <c r="C29" s="63">
         <v>0.0</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="63">
         <v>0.0</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="63">
         <v>10000.0</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29" s="64">
         <v>0.08865378226331043</v>
       </c>
-      <c r="G29" s="71">
+      <c r="G29" s="64">
         <v>0.09686932597750388</v>
       </c>
-      <c r="H29" s="71">
+      <c r="H29" s="64">
         <v>0.1291591013033385</v>
       </c>
-      <c r="I29" s="70">
+      <c r="I29" s="63">
         <v>615.7399747583877</v>
       </c>
-      <c r="J29" s="70">
+      <c r="J29" s="63">
         <v>660.624276146671</v>
       </c>
-      <c r="K29" s="70">
+      <c r="K29" s="63">
         <v>-38.44903194504439</v>
       </c>
-      <c r="L29" s="70">
+      <c r="L29" s="63">
         <v>10093.749999999995</v>
       </c>
-      <c r="M29" s="70">
+      <c r="M29" s="63">
         <v>10699.073308091716</v>
       </c>
-      <c r="N29" s="72">
+      <c r="N29" s="65">
         <v>10660.624276146671</v>
       </c>
-      <c r="O29" s="73" t="s">
+      <c r="O29" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="69">
+      <c r="A30" s="62">
         <v>43313.0</v>
       </c>
-      <c r="B30" s="70">
+      <c r="B30" s="63">
         <v>0.0</v>
       </c>
-      <c r="C30" s="70">
+      <c r="C30" s="63">
         <v>0.0</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="63">
         <v>0.0</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="63">
         <v>10000.0</v>
       </c>
-      <c r="F30" s="71">
+      <c r="F30" s="64">
         <v>-0.02448824447309521</v>
       </c>
-      <c r="G30" s="71">
+      <c r="G30" s="64">
         <v>0.00821554371419345</v>
       </c>
-      <c r="H30" s="71">
+      <c r="H30" s="64">
         <v>0.012323315571290175</v>
       </c>
-      <c r="I30" s="70">
+      <c r="I30" s="63">
         <v>8.824773747366635</v>
       </c>
-      <c r="J30" s="70">
+      <c r="J30" s="63">
         <v>78.74999999999454</v>
       </c>
-      <c r="K30" s="70">
+      <c r="K30" s="63">
         <v>-4.583333333333067</v>
       </c>
-      <c r="L30" s="70">
+      <c r="L30" s="63">
         <v>10083.333333333328</v>
       </c>
-      <c r="M30" s="70">
+      <c r="M30" s="63">
         <v>9827.80153103253</v>
       </c>
-      <c r="N30" s="72">
+      <c r="N30" s="65">
         <v>10078.749999999995</v>
       </c>
-      <c r="O30" s="73" t="s">
+      <c r="O30" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="69">
+      <c r="A31" s="62">
         <v>43282.0</v>
       </c>
-      <c r="B31" s="70">
+      <c r="B31" s="63">
         <v>0.0</v>
       </c>
-      <c r="C31" s="70">
+      <c r="C31" s="63">
         <v>0.0</v>
       </c>
-      <c r="D31" s="70">
+      <c r="D31" s="63">
         <v>0.0</v>
       </c>
-      <c r="E31" s="70">
+      <c r="E31" s="63">
         <v>10000.0</v>
       </c>
-      <c r="F31" s="71">
+      <c r="F31" s="64">
         <v>0.010858996309905966</v>
       </c>
-      <c r="G31" s="71">
+      <c r="G31" s="64">
         <v>0.03270378818728866</v>
       </c>
-      <c r="H31" s="71">
+      <c r="H31" s="64">
         <v>0.056063636892494856</v>
       </c>
-      <c r="I31" s="70">
+      <c r="I31" s="63">
         <v>12.008559585965486</v>
       </c>
-      <c r="J31" s="70">
+      <c r="J31" s="63">
         <v>70.41058880873425</v>
       </c>
-      <c r="K31" s="70">
+      <c r="K31" s="63">
         <v>-4.097970777227902</v>
       </c>
-      <c r="L31" s="70">
+      <c r="L31" s="63">
         <v>10072.916666666662</v>
       </c>
-      <c r="M31" s="70">
+      <c r="M31" s="63">
         <v>10074.508559585962</v>
       </c>
-      <c r="N31" s="72">
+      <c r="N31" s="65">
         <v>10070.410588808734</v>
       </c>
-      <c r="O31" s="73" t="s">
+      <c r="O31" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="69">
+      <c r="A32" s="62">
         <v>43252.0</v>
       </c>
-      <c r="B32" s="70">
+      <c r="B32" s="63">
         <v>0.0</v>
       </c>
-      <c r="C32" s="70">
+      <c r="C32" s="63">
         <v>0.0</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="63">
         <v>0.0</v>
       </c>
-      <c r="E32" s="70">
+      <c r="E32" s="63">
         <v>10000.0</v>
       </c>
-      <c r="F32" s="71">
+      <c r="F32" s="64">
         <v>0.12647428034130279</v>
       </c>
-      <c r="G32" s="71">
+      <c r="G32" s="64">
         <v>0.021844791877382697</v>
       </c>
-      <c r="H32" s="71">
+      <c r="H32" s="64">
         <v>0.04368958375476539</v>
       </c>
-      <c r="I32" s="70">
+      <c r="I32" s="63">
         <v>10.41666666666606</v>
       </c>
-      <c r="J32" s="70">
+      <c r="J32" s="63">
         <v>59.06249999999636</v>
       </c>
-      <c r="K32" s="70">
+      <c r="K32" s="63">
         <v>-3.4374999999997997</v>
       </c>
-      <c r="L32" s="70">
+      <c r="L32" s="63">
         <v>10062.499999999996</v>
       </c>
-      <c r="M32" s="70">
+      <c r="M32" s="63">
         <v>9966.284710689117</v>
       </c>
-      <c r="N32" s="72">
+      <c r="N32" s="65">
         <v>10059.062499999996</v>
       </c>
-      <c r="O32" s="73" t="s">
+      <c r="O32" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="69">
+      <c r="A33" s="62">
         <v>43221.0</v>
       </c>
-      <c r="B33" s="70">
+      <c r="B33" s="63">
         <v>0.0</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="63">
         <v>0.0</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="63">
         <v>0.0</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="63">
         <v>10000.0</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33" s="64">
         <v>0.07661146740532812</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="64">
         <v>-0.10462948846392009</v>
       </c>
-      <c r="H33" s="71">
+      <c r="H33" s="64">
         <v>-0.25111077231340817</v>
       </c>
-      <c r="I33" s="70">
+      <c r="I33" s="63">
         <v>10.41666666666606</v>
       </c>
-      <c r="J33" s="70">
+      <c r="J33" s="63">
         <v>49.21874999999636</v>
       </c>
-      <c r="K33" s="70">
+      <c r="K33" s="63">
         <v>-2.8645833333331665</v>
       </c>
-      <c r="L33" s="70">
+      <c r="L33" s="63">
         <v>10052.08333333333</v>
       </c>
-      <c r="M33" s="70">
+      <c r="M33" s="63">
         <v>8847.325575573283</v>
       </c>
-      <c r="N33" s="72">
+      <c r="N33" s="65">
         <v>10049.218749999996</v>
       </c>
-      <c r="O33" s="73" t="s">
+      <c r="O33" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="69">
+      <c r="A34" s="62">
         <v>43191.0</v>
       </c>
-      <c r="B34" s="70">
+      <c r="B34" s="63">
         <v>0.0</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="63">
         <v>0.0</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="63">
         <v>0.0</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="63">
         <v>10000.0</v>
       </c>
-      <c r="F34" s="71">
+      <c r="F34" s="64">
         <v>-0.0394470506102503</v>
       </c>
-      <c r="G34" s="71">
+      <c r="G34" s="64">
         <v>-0.1812409558692482</v>
       </c>
-      <c r="H34" s="71">
+      <c r="H34" s="64">
         <v>-0.5437228676077446</v>
       </c>
-      <c r="I34" s="70">
+      <c r="I34" s="63">
         <v>10.41666666666606</v>
       </c>
-      <c r="J34" s="70">
+      <c r="J34" s="63">
         <v>39.37499999999818</v>
       </c>
-      <c r="K34" s="70">
+      <c r="K34" s="63">
         <v>-2.2916666666665333</v>
       </c>
-      <c r="L34" s="70">
+      <c r="L34" s="63">
         <v>10041.666666666664</v>
       </c>
-      <c r="M34" s="70">
+      <c r="M34" s="63">
         <v>8217.751569092656</v>
       </c>
-      <c r="N34" s="72">
+      <c r="N34" s="65">
         <v>10039.374999999998</v>
       </c>
-      <c r="O34" s="73" t="s">
+      <c r="O34" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="69">
+      <c r="A35" s="62">
         <v>43160.0</v>
       </c>
-      <c r="B35" s="70">
+      <c r="B35" s="63">
         <v>0.0</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="63">
         <v>0.0</v>
       </c>
-      <c r="D35" s="70">
+      <c r="D35" s="63">
         <v>0.0</v>
       </c>
-      <c r="E35" s="70">
+      <c r="E35" s="63">
         <v>10000.0</v>
       </c>
-      <c r="F35" s="71">
+      <c r="F35" s="64">
         <v>-0.052153074609364886</v>
       </c>
-      <c r="G35" s="71">
+      <c r="G35" s="64">
         <v>-0.1417939052589979</v>
       </c>
-      <c r="H35" s="71">
+      <c r="H35" s="64">
         <v>-0.5671756210359916</v>
       </c>
-      <c r="I35" s="70">
+      <c r="I35" s="63">
         <v>10.41666666666606</v>
       </c>
-      <c r="J35" s="70">
+      <c r="J35" s="63">
         <v>29.53124999999818</v>
       </c>
-      <c r="K35" s="70">
+      <c r="K35" s="63">
         <v>-1.7187499999999</v>
       </c>
-      <c r="L35" s="70">
+      <c r="L35" s="63">
         <v>10031.249999999998</v>
       </c>
-      <c r="M35" s="70">
+      <c r="M35" s="63">
         <v>8555.230166450989</v>
       </c>
-      <c r="N35" s="72">
+      <c r="N35" s="65">
         <v>10029.531249999998</v>
       </c>
-      <c r="O35" s="73" t="s">
+      <c r="O35" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="69">
+      <c r="A36" s="62">
         <v>43132.0</v>
       </c>
-      <c r="B36" s="70">
+      <c r="B36" s="63">
         <v>0.0</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="63">
         <v>0.0</v>
       </c>
-      <c r="D36" s="70">
+      <c r="D36" s="63">
         <v>0.0</v>
       </c>
-      <c r="E36" s="70">
+      <c r="E36" s="63">
         <v>10000.0</v>
       </c>
-      <c r="F36" s="71">
+      <c r="F36" s="64">
         <v>-0.09834304329279307</v>
       </c>
-      <c r="G36" s="71">
+      <c r="G36" s="64">
         <v>-0.08964083064963302</v>
       </c>
-      <c r="H36" s="71">
+      <c r="H36" s="64">
         <v>-0.5378449838977981</v>
       </c>
-      <c r="I36" s="70">
+      <c r="I36" s="63">
         <v>10.41666666666606</v>
       </c>
-      <c r="J36" s="70">
+      <c r="J36" s="63">
         <v>19.68749999999818</v>
       </c>
-      <c r="K36" s="70">
+      <c r="K36" s="63">
         <v>-1.1458333333332666</v>
       </c>
-      <c r="L36" s="70">
+      <c r="L36" s="63">
         <v>10020.833333333332</v>
       </c>
-      <c r="M36" s="70">
+      <c r="M36" s="63">
         <v>9025.961827037769</v>
       </c>
-      <c r="N36" s="72">
+      <c r="N36" s="65">
         <v>10019.687499999998</v>
       </c>
-      <c r="O36" s="73" t="s">
+      <c r="O36" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="69">
+      <c r="A37" s="62">
         <v>43101.0</v>
       </c>
-      <c r="B37" s="70">
+      <c r="B37" s="63">
         <v>10000.0</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="63">
         <v>0.0</v>
       </c>
-      <c r="D37" s="70">
+      <c r="D37" s="63">
         <v>10000.0</v>
       </c>
-      <c r="E37" s="70">
+      <c r="E37" s="63">
         <v>10000.0</v>
       </c>
-      <c r="F37" s="71">
+      <c r="F37" s="64">
         <v>0.008702212643160052</v>
       </c>
-      <c r="G37" s="71">
+      <c r="G37" s="64">
         <v>0.008702212643160052</v>
       </c>
-      <c r="H37" s="71">
+      <c r="H37" s="64">
         <v>0.10442655171792062</v>
       </c>
-      <c r="I37" s="70">
+      <c r="I37" s="63">
         <v>10.41666666666606</v>
       </c>
-      <c r="J37" s="70">
+      <c r="J37" s="63">
         <v>9.84375</v>
       </c>
-      <c r="K37" s="70">
+      <c r="K37" s="63">
         <v>-0.5729166666666333</v>
       </c>
-      <c r="L37" s="70">
+      <c r="L37" s="63">
         <v>10010.416666666666</v>
       </c>
-      <c r="M37" s="70">
+      <c r="M37" s="63">
         <v>10010.416666666666</v>
       </c>
-      <c r="N37" s="72">
+      <c r="N37" s="65">
         <v>10009.84375</v>
       </c>
-      <c r="O37" s="73" t="s">
+      <c r="O37" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="69">
+      <c r="A38" s="62">
         <v>43070.0</v>
       </c>
-      <c r="B38" s="70">
+      <c r="B38" s="63">
         <v>10000.0</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="63">
         <v>10000.0</v>
       </c>
-      <c r="D38" s="70">
+      <c r="D38" s="63">
         <v>0.0</v>
       </c>
-      <c r="E38" s="70">
+      <c r="E38" s="63">
         <v>0.0</v>
       </c>
-      <c r="F38" s="71">
+      <c r="F38" s="64">
         <v>0.0</v>
       </c>
-      <c r="G38" s="71">
+      <c r="G38" s="64">
         <v>0.0</v>
       </c>
-      <c r="H38" s="71">
+      <c r="H38" s="64">
         <v>0.0</v>
       </c>
-      <c r="I38" s="70">
+      <c r="I38" s="63">
         <v>0.0</v>
       </c>
-      <c r="J38" s="70">
+      <c r="J38" s="63">
         <v>0.0</v>
       </c>
-      <c r="K38" s="70">
+      <c r="K38" s="63">
         <v>0.0</v>
       </c>
-      <c r="L38" s="70">
+      <c r="L38" s="63">
         <v>0.0</v>
       </c>
-      <c r="M38" s="70">
+      <c r="M38" s="63">
         <v>0.0</v>
       </c>
-      <c r="N38" s="72">
+      <c r="N38" s="65">
         <v>0.0</v>
       </c>
-      <c r="O38" s="73" t="s">
+      <c r="O38" s="66" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Data/FiMs Associate.xlsx
+++ b/Data/FiMs Associate.xlsx
@@ -200,32 +200,32 @@
         <t xml:space="preserve">Cost if money is taken before the end of the month (4% / year)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C16">
+    <comment authorId="0" ref="C15">
       <text>
         <t xml:space="preserve">Chèque Robot</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C17">
+    <comment authorId="0" ref="C16">
       <text>
         <t xml:space="preserve">Inclus dans -1000 car 700 de crédit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C21">
+    <comment authorId="0" ref="C20">
       <text>
         <t xml:space="preserve">Inclus dans -1000 car 700 de crédit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C30">
+    <comment authorId="0" ref="C29">
       <text>
         <t xml:space="preserve">2020 donation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C31">
+    <comment authorId="0" ref="C30">
       <text>
         <t xml:space="preserve">Non paiement du crédit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C32">
+    <comment authorId="0" ref="C31">
       <text>
         <t xml:space="preserve">Inclus dans -13600</t>
       </text>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="408">
   <si>
     <t>DateTime</t>
   </si>
@@ -1371,7 +1371,7 @@
     <t>L'application sera-t-elle mise à jour ?</t>
   </si>
   <si>
-    <t>L'évolution évolue constamment. Pour consulter les différentes notes de mises à jour (en anglais) : https://github.com/flodef/FiMS/commits &lt;br&gt;
+    <t>L'application évolue constamment. Pour consulter les différentes notes de mises à jour (en anglais) : https://github.com/flodef/FiMS/commits &lt;br&gt;
 D'ailleurs, si tu es développeur, tu es le/la bienvenu(e) pour m'aider. Le projet est &lt;b&gt;Open Source&lt;/b&gt; et disponible sur GitHub : https://github.com/flodef/FiMS</t>
   </si>
   <si>
@@ -1823,7 +1823,13 @@
     <t>The asked recurrent withdraw amount is the same as the current one !</t>
   </si>
   <si>
-    <t>Le montant du retrait récurrent demandé est identique à celui en cours</t>
+    <t>Le montant du retrait récurrent demandé est identique à celui en cours !</t>
+  </si>
+  <si>
+    <t>The asked recurrent withdraw amount can't be more than * !</t>
+  </si>
+  <si>
+    <t>Le montant du retrait récurrent demandé ne peut être supérieur à * !</t>
   </si>
   <si>
     <t>Enter your user id</t>
@@ -2059,7 +2065,7 @@
     <numFmt numFmtId="172" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="173" formatCode="#,##0.00##\ [$€-1]"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2112,6 +2118,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <color theme="1"/>
@@ -2166,7 +2173,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2271,13 +2278,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2294,6 +2301,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
@@ -2319,10 +2332,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2607,7 +2620,7 @@
       </c>
       <c r="B1" s="2">
         <f>NOW()</f>
-        <v>44181.79805</v>
+        <v>44181.98974</v>
       </c>
     </row>
     <row r="2">
@@ -2625,7 +2638,7 @@
       </c>
       <c r="B3" s="4">
         <f>TIMEVALUE($B$1)</f>
-        <v>0.7980439815</v>
+        <v>0.9897453704</v>
       </c>
     </row>
     <row r="4">
@@ -2739,1102 +2752,1102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>405</v>
+      <c r="O1" s="62" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>300</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f t="shared" ref="D2:D18" si="1">$B2-$C2</f>
         <v>300</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="shared" ref="E2:E18" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>600</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="shared" ref="G2:G18" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.319813211</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="shared" ref="H2:H18" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A18)*12,0)</f>
         <v>0.2398599083</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f t="shared" ref="I2:I18" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I18)</f>
         <v>11.04684281</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f t="shared" ref="J2:J18" si="6">$N2-$E2</f>
         <v>38.2175457</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.224301602</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>603.0208333</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>640.4418473</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f t="shared" ref="N2:N18" si="7">MAX($M2,$L2)+$K2</f>
         <v>638.2175457</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f t="shared" ref="O2:O18" si="8">IF(ROW()=2,"Paclone",INDEX(O:O,ROW()-1))</f>
         <v>Paclone</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="64">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>200</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="64">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>200</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="64">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="65">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="65">
         <f t="shared" si="3"/>
         <v>0.2869089188</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="65">
         <f t="shared" si="4"/>
         <v>0.229527135</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="64">
         <f t="shared" si="5"/>
         <v>-5.503327796</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="64">
         <f t="shared" si="6"/>
         <v>27.77827925</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="64">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.616725247</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="64">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>302.5</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="64">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>329.3950045</v>
       </c>
-      <c r="N3" s="64">
+      <c r="N3" s="66">
         <f t="shared" si="7"/>
         <v>327.7782792</v>
       </c>
-      <c r="O3" s="65" t="str">
+      <c r="O3" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="61">
+      <c r="A4" s="63">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="64">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="64">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="64">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="64">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="65">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>-0.003035883482</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="65">
         <f t="shared" si="3"/>
         <v>0.3033417501</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="65">
         <f t="shared" si="4"/>
         <v>0.2600072144</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="64">
         <f t="shared" si="5"/>
         <v>-0.7152955209</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="64">
         <f t="shared" si="6"/>
         <v>32.97892401</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="64">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.919408276</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="64">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>302.1875</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="64">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>334.8983323</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="66">
         <f t="shared" si="7"/>
         <v>332.978924</v>
       </c>
-      <c r="O4" s="65" t="str">
+      <c r="O4" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="61">
+      <c r="A5" s="63">
         <f t="array" ref="A5">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44075</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="64">
         <f t="array" ref="B5">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A5,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A5,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="64">
         <f>MAX($B5+IF($B5&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A5,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A5),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="65">
         <f t="array" ref="F5">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A5),0)</f>
         <v>0.06950114423</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="65">
         <f t="shared" si="3"/>
         <v>0.3063776336</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="65">
         <f t="shared" si="4"/>
         <v>0.2828101233</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="64">
         <f t="shared" si="5"/>
         <v>15.31126621</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="64">
         <f t="shared" si="6"/>
         <v>33.65487828</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="64">
         <f t="array" ref="K5">-$I5*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.95874953</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="64">
         <f t="array" ref="L5">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D5+INDEX($L:$L,ROW()+1)</f>
         <v>201.9791667</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="64">
         <f t="array" ref="M5">INDEX($M:$M,ROW()+1)+$D5+INDEX($M:$M,ROW()+1)*$F5+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>235.6136278</v>
       </c>
-      <c r="N5" s="64">
+      <c r="N5" s="66">
         <f t="shared" si="7"/>
         <v>233.6548783</v>
       </c>
-      <c r="O5" s="65" t="str">
+      <c r="O5" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="61">
+      <c r="A6" s="63">
         <f t="array" ref="A6">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44044</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="64">
         <f t="array" ref="B6">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A6,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A6,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="64">
         <f>MAX($B6+IF($B6&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A6,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A6),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="65">
         <f t="array" ref="F6">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A6),0)</f>
         <v>-0.001185159315</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="65">
         <f t="shared" si="3"/>
         <v>0.2368764894</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="65">
         <f t="shared" si="4"/>
         <v>0.2368764894</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="64">
         <f t="shared" si="5"/>
         <v>-0.2614032004</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="64">
         <f t="shared" si="6"/>
         <v>19.18573171</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="64">
         <f t="array" ref="K6">-$I6*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.116629888</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="64">
         <f t="array" ref="L6">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D6+INDEX($L:$L,ROW()+1)</f>
         <v>201.7708333</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="64">
         <f t="array" ref="M6">INDEX($M:$M,ROW()+1)+$D6+INDEX($M:$M,ROW()+1)*$F6+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.3023616</v>
       </c>
-      <c r="N6" s="64">
+      <c r="N6" s="66">
         <f t="shared" si="7"/>
         <v>219.1857317</v>
       </c>
-      <c r="O6" s="65" t="str">
+      <c r="O6" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="61">
+      <c r="A7" s="63">
         <f t="array" ref="A7">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44013</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="64">
         <f t="array" ref="B7">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A7,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A7,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="64">
         <f>MAX($B7+IF($B7&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A7,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A7),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="65">
         <f t="array" ref="F7">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A7),0)</f>
         <v>0.01670595001</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="65">
         <f t="shared" si="3"/>
         <v>0.2380616487</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="65">
         <f t="shared" si="4"/>
         <v>0.2597036167</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="64">
         <f t="shared" si="5"/>
         <v>3.624181829</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="64">
         <f t="shared" si="6"/>
         <v>19.43275774</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" s="64">
         <f t="array" ref="K7">-$I7*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.131007064</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="64">
         <f t="array" ref="L7">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D7+INDEX($L:$L,ROW()+1)</f>
         <v>201.5625</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="64">
         <f t="array" ref="M7">INDEX($M:$M,ROW()+1)+$D7+INDEX($M:$M,ROW()+1)*$F7+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.5637648</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="66">
         <f t="shared" si="7"/>
         <v>219.4327577</v>
       </c>
-      <c r="O7" s="65" t="str">
+      <c r="O7" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="61">
+      <c r="A8" s="63">
         <f t="array" ref="A8">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43983</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="64">
         <f t="array" ref="B8">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A8,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A8,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="64">
         <f>MAX($B8+IF($B8&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A8,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A8),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="65">
         <f t="array" ref="F8">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A8),0)</f>
         <v>-0.006593872955</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="65">
         <f t="shared" si="3"/>
         <v>0.2213556987</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="65">
         <f t="shared" si="4"/>
         <v>0.2656268384</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="64">
         <f t="shared" si="5"/>
         <v>-1.439967008</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="64">
         <f t="shared" si="6"/>
         <v>16.00790591</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="64">
         <f t="array" ref="K8">-$I8*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.9316770635</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L8" s="64">
         <f t="array" ref="L8">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D8+INDEX($L:$L,ROW()+1)</f>
         <v>201.3541667</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="64">
         <f t="array" ref="M8">INDEX($M:$M,ROW()+1)+$D8+INDEX($M:$M,ROW()+1)*$F8+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>216.939583</v>
       </c>
-      <c r="N8" s="64">
+      <c r="N8" s="66">
         <f t="shared" si="7"/>
         <v>216.0079059</v>
       </c>
-      <c r="O8" s="65" t="str">
+      <c r="O8" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="61">
+      <c r="A9" s="63">
         <f t="array" ref="A9">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43952</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="64">
         <f t="array" ref="B9">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A9,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A9,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="64">
         <f>MAX($B9+IF($B9&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A9,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A9),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="65">
         <f t="array" ref="F9">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A9),0)</f>
         <v>0.1716787041</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="65">
         <f t="shared" si="3"/>
         <v>0.2279495716</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="65">
         <f t="shared" si="4"/>
         <v>0.3039327622</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="64">
         <f t="shared" si="5"/>
         <v>17.44204998</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="64">
         <f t="shared" si="6"/>
         <v>17.36867473</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="64">
         <f t="array" ref="K9">-$I9*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.010875249</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="64">
         <f t="array" ref="L9">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D9+INDEX($L:$L,ROW()+1)</f>
         <v>201.1458333</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="64">
         <f t="array" ref="M9">INDEX($M:$M,ROW()+1)+$D9+INDEX($M:$M,ROW()+1)*$F9+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>218.37955</v>
       </c>
-      <c r="N9" s="64">
+      <c r="N9" s="66">
         <f t="shared" si="7"/>
         <v>217.3686747</v>
       </c>
-      <c r="O9" s="65" t="str">
+      <c r="O9" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="61">
+      <c r="A10" s="63">
         <f t="array" ref="A10">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43922</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="64">
         <f t="array" ref="B10">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A10,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A10,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="64">
         <f>MAX($B10+IF($B10&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A10,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A10),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="65">
         <f t="array" ref="F10">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A10),0)</f>
         <v>-0.09031985768</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="65">
         <f t="shared" si="3"/>
         <v>0.0562708675</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="65">
         <f t="shared" si="4"/>
         <v>0.08440630126</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="64">
         <f t="shared" si="5"/>
         <v>-3.949647339</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="64">
         <f t="shared" si="6"/>
         <v>0.8859375</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="64">
         <f t="array" ref="K10">-$I10*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0515625</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="64">
         <f t="array" ref="L10">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D10+INDEX($L:$L,ROW()+1)</f>
         <v>200.9375</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="64">
         <f t="array" ref="M10">INDEX($M:$M,ROW()+1)+$D10+INDEX($M:$M,ROW()+1)*$F10+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>186.3817694</v>
       </c>
-      <c r="N10" s="64">
+      <c r="N10" s="66">
         <f t="shared" si="7"/>
         <v>200.8859375</v>
       </c>
-      <c r="O10" s="65" t="str">
+      <c r="O10" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="61">
+      <c r="A11" s="63">
         <f t="array" ref="A11">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43891</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="64">
         <f t="array" ref="B11">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A11,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A11,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="64">
         <f>MAX($B11+IF($B11&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A11,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A11),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="64">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="65">
         <f t="array" ref="F11">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A11),0)</f>
         <v>-0.0006988944889</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="65">
         <f t="shared" si="3"/>
         <v>0.1465907252</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="65">
         <f t="shared" si="4"/>
         <v>0.251298386</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="64">
         <f t="shared" si="5"/>
         <v>-0.07335631756</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="64">
         <f t="shared" si="6"/>
         <v>4.618354235</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="64">
         <f t="array" ref="K11">-$I11*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2687931036</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="64">
         <f t="array" ref="L11">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D11+INDEX($L:$L,ROW()+1)</f>
         <v>200.7291667</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="64">
         <f t="array" ref="M11">INDEX($M:$M,ROW()+1)+$D11+INDEX($M:$M,ROW()+1)*$F11+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>204.8871473</v>
       </c>
-      <c r="N11" s="64">
+      <c r="N11" s="66">
         <f t="shared" si="7"/>
         <v>204.6183542</v>
       </c>
-      <c r="O11" s="65" t="str">
+      <c r="O11" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="61">
+      <c r="A12" s="63">
         <f t="array" ref="A12">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43862</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="64">
         <f t="array" ref="B12">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A12,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A12,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="64">
         <f>MAX($B12+IF($B12&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A12,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A12),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="64">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="65">
         <f t="array" ref="F12">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A12),0)</f>
         <v>-0.01357148377</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="65">
         <f t="shared" si="3"/>
         <v>0.1472896197</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="65">
         <f t="shared" si="4"/>
         <v>0.2945792394</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="64">
         <f t="shared" si="5"/>
         <v>-1.444067917</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="64">
         <f t="shared" si="6"/>
         <v>4.687675955</v>
       </c>
-      <c r="K12" s="62">
+      <c r="K12" s="64">
         <f t="array" ref="K12">-$I12*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2728277011</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="64">
         <f t="array" ref="L12">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D12+INDEX($L:$L,ROW()+1)</f>
         <v>100.625</v>
       </c>
-      <c r="M12" s="62">
+      <c r="M12" s="64">
         <f t="array" ref="M12">INDEX($M:$M,ROW()+1)+$D12+INDEX($M:$M,ROW()+1)*$F12+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>104.9605037</v>
       </c>
-      <c r="N12" s="64">
+      <c r="N12" s="66">
         <f t="shared" si="7"/>
         <v>104.687676</v>
       </c>
-      <c r="O12" s="65" t="str">
+      <c r="O12" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="61">
+      <c r="A13" s="63">
         <f t="array" ref="A13">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43831</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="64">
         <f t="array" ref="B13">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A13,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A13,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="64">
         <f>MAX($B13+IF($B13&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A13,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A13),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="64">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="65">
         <f t="array" ref="F13">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A13),0)</f>
         <v>0.06953970792</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="65">
         <f t="shared" si="3"/>
         <v>0.1608611035</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="65">
         <f t="shared" si="4"/>
         <v>0.3860666483</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="64">
         <f t="shared" si="5"/>
         <v>5.987904906</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="64">
         <f t="shared" si="6"/>
         <v>6.052320137</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="64">
         <f t="array" ref="K13">-$I13*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.3522514365</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="64">
         <f t="array" ref="L13">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D13+INDEX($L:$L,ROW()+1)</f>
         <v>100.5208333</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="64">
         <f t="array" ref="M13">INDEX($M:$M,ROW()+1)+$D13+INDEX($M:$M,ROW()+1)*$F13+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>106.4045716</v>
       </c>
-      <c r="N13" s="64">
+      <c r="N13" s="66">
         <f t="shared" si="7"/>
         <v>106.0523201</v>
       </c>
-      <c r="O13" s="65" t="str">
+      <c r="O13" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="61">
+      <c r="A14" s="63">
         <f t="array" ref="A14">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43800</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="64">
         <f t="array" ref="B14">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A14,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A14,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="64">
         <f>MAX($B14+IF($B14&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A14,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A14),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="64">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="65">
         <f t="array" ref="F14">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A14),0)</f>
         <v>0.02764486097</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="65">
         <f t="shared" si="3"/>
         <v>0.09132139553</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="65">
         <f t="shared" si="4"/>
         <v>0.2739641866</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="64">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="64">
         <f t="shared" si="6"/>
         <v>0.39375</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="64">
         <f t="array" ref="K14">-$I14*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.02291666667</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="64">
         <f t="array" ref="L14">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D14+INDEX($L:$L,ROW()+1)</f>
         <v>100.4166667</v>
       </c>
-      <c r="M14" s="62">
+      <c r="M14" s="64">
         <f t="array" ref="M14">INDEX($M:$M,ROW()+1)+$D14+INDEX($M:$M,ROW()+1)*$F14+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.48632181</v>
       </c>
-      <c r="N14" s="64">
+      <c r="N14" s="66">
         <f t="shared" si="7"/>
         <v>100.39375</v>
       </c>
-      <c r="O14" s="65" t="str">
+      <c r="O14" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="61">
+      <c r="A15" s="63">
         <f t="array" ref="A15">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43770</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="64">
         <f t="array" ref="B15">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A15,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A15,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="64">
         <f>MAX($B15+IF($B15&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A15,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A15),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="64">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="65">
         <f t="array" ref="F15">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A15),0)</f>
         <v>-0.03120425194</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="65">
         <f t="shared" si="3"/>
         <v>0.06367653456</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="65">
         <f t="shared" si="4"/>
         <v>0.2547061382</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="64">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="64">
         <f t="shared" si="6"/>
         <v>0.2953125</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="64">
         <f t="array" ref="K15">-$I15*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0171875</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="64">
         <f t="array" ref="L15">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D15+INDEX($L:$L,ROW()+1)</f>
         <v>100.3125</v>
       </c>
-      <c r="M15" s="62">
+      <c r="M15" s="64">
         <f t="array" ref="M15">INDEX($M:$M,ROW()+1)+$D15+INDEX($M:$M,ROW()+1)*$F15+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>96.81002221</v>
       </c>
-      <c r="N15" s="64">
+      <c r="N15" s="66">
         <f t="shared" si="7"/>
         <v>100.2953125</v>
       </c>
-      <c r="O15" s="65" t="str">
+      <c r="O15" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="61">
+      <c r="A16" s="63">
         <f t="array" ref="A16">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43739</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="64">
         <f t="array" ref="B16">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A16,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A16,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="64">
         <f>MAX($B16+IF($B16&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A16,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A16),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="64">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="65">
         <f t="array" ref="F16">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A16),0)</f>
         <v>-0.001757764068</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="65">
         <f t="shared" si="3"/>
         <v>0.0948807865</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="65">
         <f t="shared" si="4"/>
         <v>0.569284719</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="64">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="64">
         <f t="shared" si="6"/>
         <v>0.196875</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="64">
         <f t="array" ref="K16">-$I16*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.01145833333</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="64">
         <f t="array" ref="L16">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D16+INDEX($L:$L,ROW()+1)</f>
         <v>100.2083333</v>
       </c>
-      <c r="M16" s="62">
+      <c r="M16" s="64">
         <f t="array" ref="M16">INDEX($M:$M,ROW()+1)+$D16+INDEX($M:$M,ROW()+1)*$F16+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.92820716</v>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="66">
         <f t="shared" si="7"/>
         <v>100.196875</v>
       </c>
-      <c r="O16" s="65" t="str">
+      <c r="O16" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="61">
+      <c r="A17" s="63">
         <f t="array" ref="A17">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43709</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="64">
         <f t="array" ref="B17">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A17,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A17,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="64">
         <f>MAX($B17+IF($B17&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A17,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A17),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="64">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="64">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="65">
         <f t="array" ref="F17">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A17),0)</f>
         <v>0.09663855056</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="65">
         <f t="shared" si="3"/>
         <v>0.09663855056</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="65">
         <f t="shared" si="4"/>
         <v>1.159662607</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="64">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="64">
         <f t="shared" si="6"/>
         <v>0.0984375</v>
       </c>
-      <c r="K17" s="62">
+      <c r="K17" s="64">
         <f t="array" ref="K17">-$I17*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.005729166667</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="64">
         <f t="array" ref="L17">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D17+INDEX($L:$L,ROW()+1)</f>
         <v>100.1041667</v>
       </c>
-      <c r="M17" s="62">
+      <c r="M17" s="64">
         <f t="array" ref="M17">INDEX($M:$M,ROW()+1)+$D17+INDEX($M:$M,ROW()+1)*$F17+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>100.1041667</v>
       </c>
-      <c r="N17" s="64">
+      <c r="N17" s="66">
         <f t="shared" si="7"/>
         <v>100.0984375</v>
       </c>
-      <c r="O17" s="65" t="str">
+      <c r="O17" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="61">
+      <c r="A18" s="63">
         <f t="array" ref="A18">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43678</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="64">
         <f t="array" ref="B18">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A18,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A18,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="64">
         <f>MAX($B18+IF($B18&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A18,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A18),0),0)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="65">
         <f t="array" ref="F18">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A18),0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K18" s="62">
+      <c r="K18" s="64">
         <f t="array" ref="K18">-$I18*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="64">
         <f t="array" ref="L18">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D18+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="62">
+      <c r="M18" s="64">
         <f t="array" ref="M18">INDEX($M:$M,ROW()+1)+$D18+INDEX($M:$M,ROW()+1)*$F18+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N18" s="64">
+      <c r="N18" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O18" s="65" t="str">
+      <c r="O18" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
@@ -3863,234 +3876,234 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>405</v>
+      <c r="O1" s="62" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f t="shared" ref="D2:D4" si="1">$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="shared" ref="E2:E4" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>40000</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="shared" ref="G2:G4" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.0164714609</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="shared" ref="H2:H4" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A4)*12,0)</f>
         <v>0.09882876541</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f t="shared" ref="I2:I4" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I4)</f>
         <v>1145.025732</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f t="shared" ref="J2:J4" si="6">$N2-$E2</f>
         <v>1121.424317</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-65.26808195</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>40083.33333</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>41186.6924</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f t="shared" ref="N2:N4" si="7">MAX($M2,$L2)+$K2</f>
         <v>41121.42432</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f t="shared" ref="O2:O4" si="8">IF(ROW()=2,"Philo",INDEX(O:O,ROW()-1))</f>
         <v>Philo</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="64">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>30442</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="64">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="64">
         <f t="shared" si="1"/>
         <v>30442</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="64">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="65">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="65">
         <f t="shared" si="3"/>
         <v>-0.0164328313</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="65">
         <f t="shared" si="4"/>
         <v>-0.1971939755</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="64">
         <f t="shared" si="5"/>
         <v>41.66666667</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="64">
         <f t="shared" si="6"/>
         <v>39.375</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="64">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.291666667</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="64">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>40041.66667</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="64">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>39874.64542</v>
       </c>
-      <c r="N3" s="64">
+      <c r="N3" s="66">
         <f t="shared" si="7"/>
         <v>40039.375</v>
       </c>
-      <c r="O3" s="65" t="str">
+      <c r="O3" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="61">
+      <c r="A4" s="63">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="64">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>40000</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="64">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>30442</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="64">
         <f t="shared" si="1"/>
         <v>9558</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="64">
         <f t="shared" si="2"/>
         <v>9558</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="65">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="64">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="64">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>9558</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="64">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>9558</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="66">
         <f t="shared" si="7"/>
         <v>9558</v>
       </c>
-      <c r="O4" s="65" t="str">
+      <c r="O4" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
@@ -4119,171 +4132,171 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>405</v>
+      <c r="O1" s="62" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>555</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f t="shared" ref="D2:D3" si="1">$B2-$C2</f>
         <v>555</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="shared" ref="E2:E3" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>555</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="shared" ref="G2:G3" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="shared" ref="H2:H3" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3)*12,0)</f>
         <v>0.3948515064</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f t="shared" ref="I2:I3" si="5">MAX($L2,$M2)-$E2-SUM($I3)</f>
         <v>0.578125</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f t="shared" ref="J2:J3" si="6">$N2-$E2</f>
         <v>0.546328125</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.031796875</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>555.578125</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>555.578125</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f t="shared" ref="N2:N3" si="7">MAX($M2,$L2)+$K2</f>
         <v>555.5463281</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f t="shared" ref="O2:O3" si="8">IF(ROW()=2,"Tester",ROW()-1)</f>
         <v>Tester</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>44136.0</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="64">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>555</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="64">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>555</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="65">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="64">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="64">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="64">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N3" s="64">
+      <c r="N3" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O3" s="65">
+      <c r="O3" s="67">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -4312,110 +4325,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>405</v>
+      <c r="O1" s="62" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f>IF(ROW()=2,"Lizzz",ROW()-1)</f>
         <v>Lizzz</v>
       </c>
@@ -4444,110 +4457,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>405</v>
+      <c r="O1" s="62" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f>IF(ROW()=2,"Joséd",ROW()-1)</f>
         <v>Joséd</v>
       </c>
@@ -4573,110 +4586,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>405</v>
+      <c r="O1" s="62" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"SheetName",INDEX(O:O,ROW()-1))</f>
         <v>SheetName</v>
       </c>
@@ -4707,8 +4720,8 @@
         <v>Cumulated saving</v>
       </c>
       <c r="B1" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282408.7292517166)</f>
-        <v>282408.7293</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281853.1792517166)</f>
+        <v>281853.1793</v>
       </c>
     </row>
     <row r="2">
@@ -4807,8 +4820,8 @@
         <v>Since Independance duration</v>
       </c>
       <c r="B11" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1154 months (96.2 years)")</f>
-        <v>1154 months (96.2 years)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1138 months (94.9 years)")</f>
+        <v>1138 months (94.9 years)</v>
       </c>
     </row>
     <row r="12">
@@ -4817,8 +4830,8 @@
         <v>Since Independance gap</v>
       </c>
       <c r="B12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-354588.22498764325)</f>
-        <v>-354588.225</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-355143.77498764324)</f>
+        <v>-355143.775</v>
       </c>
     </row>
     <row r="13">
@@ -4827,8 +4840,8 @@
         <v>Monthly income</v>
       </c>
       <c r="B13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),920.9943333495576)</f>
-        <v>920.9943333</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),916.2203206095801)</f>
+        <v>916.2203206</v>
       </c>
     </row>
     <row r="14">
@@ -4847,8 +4860,8 @@
         <v>Income use</v>
       </c>
       <c r="B15" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3337766854256399)</f>
-        <v>1.333776685</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.340726396914543)</f>
+        <v>1.340726397</v>
       </c>
     </row>
     <row r="16">
@@ -4997,8 +5010,8 @@
         <v>Debt</v>
       </c>
       <c r="B30" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-79230.8887482831)</f>
-        <v>-79230.88875</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-79786.43874828311)</f>
+        <v>-79786.43875</v>
       </c>
     </row>
     <row r="31">
@@ -5027,8 +5040,8 @@
         <v>Client</v>
       </c>
       <c r="B33" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-64756.3387482831)</f>
-        <v>-64756.33875</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-65311.888748283105)</f>
+        <v>-65311.88875</v>
       </c>
     </row>
     <row r="34">
@@ -5404,8 +5417,8 @@
         <v>Last updated</v>
       </c>
       <c r="B71" s="22">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.04819574073917465)</f>
-        <v>0.04819574074</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.23904065971873933)</f>
+        <v>0.2390406597</v>
       </c>
     </row>
     <row r="72">
@@ -36820,7 +36833,7 @@
       </c>
       <c r="H2" s="33">
         <f t="shared" ref="H2:H7" si="3">$G2*$N2</f>
-        <v>-0.000003824869792</v>
+        <v>0.5786940918</v>
       </c>
       <c r="I2" s="33" t="str">
         <f>IF(ISREF(INDIRECT($B2&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B2&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B2&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
@@ -36832,7 +36845,7 @@
       </c>
       <c r="K2" s="33">
         <f>SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$B:$B,$B2,AssociateHistoric!$C:$C,"&lt;0",AssociateHistoric!$D:$D,"&lt;=0")</f>
-        <v>-555.55</v>
+        <v>0</v>
       </c>
       <c r="L2" s="33">
         <f t="shared" ref="L2:L7" si="4">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!J2"),)</f>
@@ -36844,7 +36857,7 @@
       </c>
       <c r="N2" s="36">
         <f t="shared" ref="N2:N7" si="6">SUM(J2,K2,L2)</f>
-        <v>-0.003671875</v>
+        <v>555.5463281</v>
       </c>
       <c r="O2" s="37" t="s">
         <v>41</v>
@@ -37395,13 +37408,13 @@
     </row>
     <row r="2">
       <c r="A2" s="38">
-        <v>44201.0</v>
+        <v>44131.0</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="33">
-        <v>-555.55</v>
+        <v>555.0</v>
       </c>
       <c r="D2" s="33">
         <v>0.0</v>
@@ -37409,13 +37422,13 @@
     </row>
     <row r="3">
       <c r="A3" s="38">
-        <v>44131.0</v>
+        <v>44170.0</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C3" s="33">
-        <v>555.0</v>
+        <v>-1500.0</v>
       </c>
       <c r="D3" s="33">
         <v>0.0</v>
@@ -37429,7 +37442,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="33">
-        <v>-1500.0</v>
+        <v>-1000.0</v>
       </c>
       <c r="D4" s="33">
         <v>0.0</v>
@@ -37443,7 +37456,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="33">
-        <v>-1000.0</v>
+        <v>-3000.0</v>
       </c>
       <c r="D5" s="33">
         <v>0.0</v>
@@ -37451,13 +37464,13 @@
     </row>
     <row r="6">
       <c r="A6" s="38">
-        <v>44170.0</v>
+        <v>44162.0</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C6" s="33">
-        <v>-3000.0</v>
+        <v>4999.0</v>
       </c>
       <c r="D6" s="33">
         <v>0.0</v>
@@ -37468,7 +37481,7 @@
         <v>44162.0</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C7" s="33">
         <v>4999.0</v>
@@ -37479,13 +37492,13 @@
     </row>
     <row r="8">
       <c r="A8" s="38">
-        <v>44162.0</v>
+        <v>44158.0</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C8" s="33">
-        <v>4999.0</v>
+        <v>100.0</v>
       </c>
       <c r="D8" s="33">
         <v>0.0</v>
@@ -37493,13 +37506,13 @@
     </row>
     <row r="9">
       <c r="A9" s="38">
-        <v>44158.0</v>
+        <v>44140.0</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C9" s="33">
-        <v>100.0</v>
+        <v>-1000.0</v>
       </c>
       <c r="D9" s="33">
         <v>0.0</v>
@@ -37507,13 +37520,13 @@
     </row>
     <row r="10">
       <c r="A10" s="38">
-        <v>44140.0</v>
+        <v>44131.0</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C10" s="33">
-        <v>-1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="D10" s="33">
         <v>0.0</v>
@@ -37521,7 +37534,7 @@
     </row>
     <row r="11">
       <c r="A11" s="38">
-        <v>44131.0</v>
+        <v>44116.0</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>58</v>
@@ -37535,13 +37548,13 @@
     </row>
     <row r="12">
       <c r="A12" s="38">
-        <v>44116.0</v>
+        <v>44115.0</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C12" s="33">
-        <v>100.0</v>
+        <v>-300.0</v>
       </c>
       <c r="D12" s="33">
         <v>0.0</v>
@@ -37549,13 +37562,13 @@
     </row>
     <row r="13">
       <c r="A13" s="38">
-        <v>44115.0</v>
+        <v>44092.0</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C13" s="33">
-        <v>-300.0</v>
+        <v>40000.0</v>
       </c>
       <c r="D13" s="33">
         <v>0.0</v>
@@ -37563,13 +37576,13 @@
     </row>
     <row r="14">
       <c r="A14" s="38">
-        <v>44092.0</v>
+        <v>44091.0</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C14" s="33">
-        <v>40000.0</v>
+        <v>100.0</v>
       </c>
       <c r="D14" s="33">
         <v>0.0</v>
@@ -37577,13 +37590,13 @@
     </row>
     <row r="15">
       <c r="A15" s="38">
-        <v>44091.0</v>
+        <v>44054.0</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C15" s="33">
-        <v>100.0</v>
+        <v>-300.0</v>
       </c>
       <c r="D15" s="33">
         <v>0.0</v>
@@ -37591,7 +37604,7 @@
     </row>
     <row r="16">
       <c r="A16" s="38">
-        <v>44054.0</v>
+        <v>44053.0</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>50</v>
@@ -37605,13 +37618,13 @@
     </row>
     <row r="17">
       <c r="A17" s="38">
-        <v>44053.0</v>
+        <v>44048.0</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="33">
-        <v>-300.0</v>
+        <v>-1500.0</v>
       </c>
       <c r="D17" s="33">
         <v>0.0</v>
@@ -37619,13 +37632,13 @@
     </row>
     <row r="18">
       <c r="A18" s="38">
-        <v>44048.0</v>
+        <v>44046.0</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="33">
-        <v>-1500.0</v>
+        <v>-2200.0</v>
       </c>
       <c r="D18" s="33">
         <v>0.0</v>
@@ -37633,13 +37646,13 @@
     </row>
     <row r="19">
       <c r="A19" s="38">
-        <v>44046.0</v>
+        <v>44035.0</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="33">
-        <v>-2200.0</v>
+        <v>-500.0</v>
       </c>
       <c r="D19" s="33">
         <v>0.0</v>
@@ -37647,13 +37660,13 @@
     </row>
     <row r="20">
       <c r="A20" s="38">
-        <v>44035.0</v>
+        <v>44029.0</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="33">
-        <v>-500.0</v>
+        <v>-300.0</v>
       </c>
       <c r="D20" s="33">
         <v>0.0</v>
@@ -37661,7 +37674,7 @@
     </row>
     <row r="21">
       <c r="A21" s="38">
-        <v>44029.0</v>
+        <v>44014.0</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>50</v>
@@ -37675,13 +37688,13 @@
     </row>
     <row r="22">
       <c r="A22" s="38">
-        <v>44014.0</v>
+        <v>44008.0</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="33">
-        <v>-300.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D22" s="33">
         <v>0.0</v>
@@ -37689,13 +37702,13 @@
     </row>
     <row r="23">
       <c r="A23" s="38">
-        <v>44008.0</v>
+        <v>43990.0</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="33">
-        <v>3000.0</v>
+        <v>-300.0</v>
       </c>
       <c r="D23" s="33">
         <v>0.0</v>
@@ -37703,7 +37716,7 @@
     </row>
     <row r="24">
       <c r="A24" s="38">
-        <v>43990.0</v>
+        <v>43959.0</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>50</v>
@@ -37717,7 +37730,7 @@
     </row>
     <row r="25">
       <c r="A25" s="38">
-        <v>43959.0</v>
+        <v>43935.0</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>50</v>
@@ -37731,7 +37744,7 @@
     </row>
     <row r="26">
       <c r="A26" s="38">
-        <v>43935.0</v>
+        <v>43899.0</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>50</v>
@@ -37745,13 +37758,13 @@
     </row>
     <row r="27">
       <c r="A27" s="38">
-        <v>43899.0</v>
+        <v>43871.0</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C27" s="33">
-        <v>-300.0</v>
+        <v>100.0</v>
       </c>
       <c r="D27" s="33">
         <v>0.0</v>
@@ -37759,13 +37772,13 @@
     </row>
     <row r="28">
       <c r="A28" s="38">
-        <v>43871.0</v>
+        <v>43850.0</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C28" s="33">
-        <v>100.0</v>
+        <v>-1000.0</v>
       </c>
       <c r="D28" s="33">
         <v>0.0</v>
@@ -37773,41 +37786,41 @@
     </row>
     <row r="29">
       <c r="A29" s="38">
-        <v>43850.0</v>
+        <v>43844.0</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="33">
-        <v>-1000.0</v>
+        <v>-434.68</v>
       </c>
       <c r="D29" s="33">
-        <v>0.0</v>
+        <v>434.68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="38">
-        <v>43844.0</v>
+        <v>43804.0</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="33">
-        <v>-434.68</v>
+        <v>-700.0</v>
       </c>
       <c r="D30" s="33">
-        <v>434.68</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="38">
-        <v>43804.0</v>
+        <v>43775.0</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="33">
-        <v>-700.0</v>
+        <v>-300.0</v>
       </c>
       <c r="D31" s="33">
         <v>0.0</v>
@@ -37815,13 +37828,13 @@
     </row>
     <row r="32">
       <c r="A32" s="38">
-        <v>43775.0</v>
+        <v>43756.0</v>
       </c>
       <c r="B32" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="33">
-        <v>-300.0</v>
+        <v>-150.0</v>
       </c>
       <c r="D32" s="33">
         <v>0.0</v>
@@ -37829,13 +37842,13 @@
     </row>
     <row r="33">
       <c r="A33" s="38">
-        <v>43756.0</v>
+        <v>43706.0</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="33">
-        <v>-150.0</v>
+        <v>-1000.0</v>
       </c>
       <c r="D33" s="33">
         <v>0.0</v>
@@ -37843,13 +37856,13 @@
     </row>
     <row r="34">
       <c r="A34" s="38">
-        <v>43706.0</v>
+        <v>43675.0</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C34" s="33">
-        <v>-1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="D34" s="33">
         <v>0.0</v>
@@ -37857,13 +37870,13 @@
     </row>
     <row r="35">
       <c r="A35" s="38">
-        <v>43675.0</v>
+        <v>43601.0</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C35" s="33">
-        <v>100.0</v>
+        <v>-500.0</v>
       </c>
       <c r="D35" s="33">
         <v>0.0</v>
@@ -37871,13 +37884,13 @@
     </row>
     <row r="36">
       <c r="A36" s="38">
-        <v>43601.0</v>
+        <v>43474.0</v>
       </c>
       <c r="B36" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="33">
-        <v>-500.0</v>
+        <v>-1000.0</v>
       </c>
       <c r="D36" s="33">
         <v>0.0</v>
@@ -37885,7 +37898,7 @@
     </row>
     <row r="37">
       <c r="A37" s="38">
-        <v>43474.0</v>
+        <v>43444.0</v>
       </c>
       <c r="B37" s="32" t="s">
         <v>50</v>
@@ -37899,13 +37912,13 @@
     </row>
     <row r="38">
       <c r="A38" s="38">
-        <v>43444.0</v>
+        <v>43395.0</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="33">
-        <v>-1000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="D38" s="33">
         <v>0.0</v>
@@ -37913,29 +37926,15 @@
     </row>
     <row r="39">
       <c r="A39" s="38">
-        <v>43395.0</v>
+        <v>43068.0</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="33">
-        <v>7000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="D39" s="33">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="38">
-        <v>43068.0</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="33">
-        <v>10000.0</v>
-      </c>
-      <c r="D40" s="33">
         <v>0.0</v>
       </c>
     </row>
@@ -38064,8 +38063,8 @@
         <v>123</v>
       </c>
       <c r="B13" s="44" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""Au "" &amp; TO_TEXT(AllocationHistoric!A2) &amp; "", la capitalisation de l'entreprise est de "" &amp; TO_TEXT(AllocationHistoric!F2) &amp; "". J'en suis propriétaire de "" &amp; ROUNDUP(AllocationHistoric!B2/AllocationHistoric!F2*100,1) &amp; ""%, soit "" &amp; TO_TEXT(Allocation"&amp;"Historic!B2) &amp; "" dont "" &amp; TO_TEXT(-Dashboard!B30) &amp; "" de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ..."""),"Au 01/12/2020, la capitalisation de l'entreprise est de 1,218,985.61 €. J'en suis propriétaire de 31.5%, soit 383,352.10 € dont 79,230.89 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entrepr"&amp;"ises du CAC40, mais on s'en emproche ...")</f>
-        <v>Au 01/12/2020, la capitalisation de l'entreprise est de 1,218,985.61 €. J'en suis propriétaire de 31.5%, soit 383,352.10 € dont 79,230.89 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""Au "" &amp; TO_TEXT(AllocationHistoric!A2) &amp; "", la capitalisation de l'entreprise est de "" &amp; TO_TEXT(AllocationHistoric!F2) &amp; "". J'en suis propriétaire de "" &amp; ROUNDUP(AllocationHistoric!B2/AllocationHistoric!F2*100,1) &amp; ""%, soit "" &amp; TO_TEXT(Allocation"&amp;"Historic!B2) &amp; "" dont "" &amp; TO_TEXT(-Dashboard!B30) &amp; "" de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ..."""),"Au 01/12/2020, la capitalisation de l'entreprise est de 1,218,985.61 €. J'en suis propriétaire de 31.5%, soit 383,352.10 € dont 79,786.44 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entrepr"&amp;"ises du CAC40, mais on s'en emproche ...")</f>
+        <v>Au 01/12/2020, la capitalisation de l'entreprise est de 1,218,985.61 €. J'en suis propriétaire de 31.5%, soit 383,352.10 € dont 79,786.44 € de dettes (incluant l'argent prêté par les associés, c'est à dire, vous).&lt;br&gt;C'est pas encore du niveau des entreprises du CAC40, mais on s'en emproche ...</v>
       </c>
     </row>
     <row r="14">
@@ -38321,7 +38320,7 @@
       <c r="A45" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="48" t="s">
         <v>186</v>
       </c>
     </row>
@@ -38380,40 +38379,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="50" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="48" t="s">
         <v>200</v>
       </c>
     </row>
@@ -38427,7 +38426,7 @@
       <c r="C4" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="48" t="s">
         <v>203</v>
       </c>
     </row>
@@ -38441,7 +38440,7 @@
       <c r="C5" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="48" t="s">
         <v>207</v>
       </c>
     </row>
@@ -38455,7 +38454,7 @@
       <c r="C6" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="48" t="s">
         <v>211</v>
       </c>
     </row>
@@ -38467,7 +38466,7 @@
       <c r="C7" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="50"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="8">
       <c r="A8" s="51" t="s">
@@ -38477,7 +38476,7 @@
       <c r="C8" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9">
       <c r="A9" s="51" t="s">
@@ -38487,7 +38486,7 @@
       <c r="C9" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="50"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10">
       <c r="A10" s="51" t="s">
@@ -38499,7 +38498,7 @@
       <c r="C10" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="48" t="s">
         <v>220</v>
       </c>
     </row>
@@ -38535,13 +38534,13 @@
       <c r="A13" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="48" t="s">
         <v>231</v>
       </c>
     </row>
@@ -38549,13 +38548,13 @@
       <c r="A14" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="48" t="s">
         <v>235</v>
       </c>
     </row>
@@ -38563,13 +38562,13 @@
       <c r="A15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="48" t="s">
         <v>238</v>
       </c>
     </row>
@@ -38577,13 +38576,13 @@
       <c r="A16" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="48" t="s">
         <v>242</v>
       </c>
     </row>
@@ -38591,13 +38590,13 @@
       <c r="A17" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="48" t="s">
         <v>245</v>
       </c>
     </row>
@@ -38605,13 +38604,13 @@
       <c r="A18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="48" t="s">
         <v>248</v>
       </c>
     </row>
@@ -38619,10 +38618,10 @@
       <c r="A19" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="48" t="s">
         <v>250</v>
       </c>
       <c r="D19" s="53" t="s">
@@ -38633,48 +38632,48 @@
       <c r="A20" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="50"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21">
       <c r="A21" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="48"/>
     </row>
     <row r="22">
       <c r="A22" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="48"/>
     </row>
     <row r="23">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="48"/>
     </row>
     <row r="24">
       <c r="A24" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="48" t="s">
         <v>255</v>
       </c>
       <c r="D24" s="55"/>
@@ -38683,8 +38682,8 @@
       <c r="A25" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="48" t="s">
         <v>256</v>
       </c>
       <c r="D25" s="55"/>
@@ -38693,8 +38692,8 @@
       <c r="A26" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48" t="s">
         <v>257</v>
       </c>
       <c r="D26" s="55"/>
@@ -38703,8 +38702,8 @@
       <c r="A27" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48" t="s">
         <v>258</v>
       </c>
       <c r="D27" s="55"/>
@@ -38713,13 +38712,13 @@
       <c r="A28" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="48" t="s">
         <v>260</v>
       </c>
     </row>
@@ -38727,13 +38726,13 @@
       <c r="A29" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="48" t="s">
         <v>263</v>
       </c>
     </row>
@@ -38741,13 +38740,13 @@
       <c r="A30" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="48" t="s">
         <v>265</v>
       </c>
     </row>
@@ -38755,13 +38754,13 @@
       <c r="A31" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="48" t="s">
         <v>268</v>
       </c>
     </row>
@@ -38769,13 +38768,13 @@
       <c r="A32" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="48" t="s">
         <v>271</v>
       </c>
     </row>
@@ -38783,18 +38782,18 @@
       <c r="A33" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="48" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="48" t="s">
         <v>97</v>
       </c>
       <c r="B34" s="51" t="s">
@@ -38811,13 +38810,13 @@
       <c r="A35" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="48" t="s">
         <v>280</v>
       </c>
     </row>
@@ -38825,13 +38824,13 @@
       <c r="A36" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="48" t="s">
         <v>284</v>
       </c>
     </row>
@@ -38839,13 +38838,13 @@
       <c r="A37" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="48" t="s">
         <v>288</v>
       </c>
     </row>
@@ -38853,13 +38852,13 @@
       <c r="A38" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="48" t="s">
         <v>292</v>
       </c>
     </row>
@@ -38867,13 +38866,13 @@
       <c r="A39" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="48" t="s">
         <v>296</v>
       </c>
     </row>
@@ -38881,13 +38880,13 @@
       <c r="A40" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="48" t="s">
         <v>300</v>
       </c>
     </row>
@@ -38895,13 +38894,13 @@
       <c r="A41" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="48" t="s">
         <v>304</v>
       </c>
     </row>
@@ -38909,13 +38908,13 @@
       <c r="A42" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="48" t="s">
         <v>308</v>
       </c>
     </row>
@@ -38923,13 +38922,13 @@
       <c r="A43" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="48" t="s">
         <v>311</v>
       </c>
     </row>
@@ -38937,13 +38936,13 @@
       <c r="A44" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="48" t="s">
         <v>315</v>
       </c>
     </row>
@@ -38951,13 +38950,13 @@
       <c r="A45" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="48" t="s">
         <v>318</v>
       </c>
     </row>
@@ -38965,13 +38964,13 @@
       <c r="A46" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="48" t="s">
         <v>320</v>
       </c>
     </row>
@@ -38979,11 +38978,11 @@
       <c r="A47" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50" t="s">
+      <c r="B47" s="48"/>
+      <c r="C47" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="D47" s="50"/>
+      <c r="D47" s="48"/>
     </row>
     <row r="48">
       <c r="A48" s="51" t="s">
@@ -38993,7 +38992,7 @@
       <c r="C48" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="D48" s="50"/>
+      <c r="D48" s="48"/>
     </row>
     <row r="49">
       <c r="A49" s="51" t="s">
@@ -39003,84 +39002,80 @@
       <c r="C49" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="D49" s="50"/>
+      <c r="D49" s="48"/>
     </row>
     <row r="50">
       <c r="A50" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50" t="s">
+      <c r="B50" s="48"/>
+      <c r="C50" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="D50" s="50"/>
+      <c r="D50" s="48"/>
     </row>
     <row r="51">
       <c r="A51" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50" t="s">
+      <c r="B51" s="48"/>
+      <c r="C51" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="D51" s="50"/>
+      <c r="D51" s="48"/>
     </row>
     <row r="52">
       <c r="A52" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50" t="s">
+      <c r="B52" s="48"/>
+      <c r="C52" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="D52" s="50"/>
+      <c r="D52" s="48"/>
     </row>
     <row r="53">
       <c r="A53" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50" t="s">
+      <c r="B53" s="48"/>
+      <c r="C53" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="D53" s="50"/>
+      <c r="D53" s="48"/>
     </row>
     <row r="54">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="48" t="s">
         <v>335</v>
       </c>
       <c r="B54" s="51"/>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="D54" s="50"/>
+      <c r="D54" s="48"/>
     </row>
     <row r="55">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="51"/>
+      <c r="C55" s="56" t="s">
         <v>338</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="D55" s="48"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="B56" s="51" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="51" t="s">
+      <c r="C56" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="B56" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="C56" s="50" t="s">
+      <c r="D56" s="48" t="s">
         <v>342</v>
-      </c>
-      <c r="D56" s="50" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="57">
@@ -39088,281 +39083,295 @@
         <v>343</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="C57" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="C57" s="48" t="s">
         <v>344</v>
       </c>
-      <c r="D57" s="50" t="s">
-        <v>340</v>
+      <c r="D57" s="48" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50" t="s">
+      <c r="B58" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="C58" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="D58" s="50"/>
+      <c r="D58" s="48" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50" t="s">
+      <c r="B59" s="48"/>
+      <c r="C59" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="D59" s="50"/>
+      <c r="D59" s="48"/>
     </row>
     <row r="60">
       <c r="A60" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="48"/>
+      <c r="C60" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="C60" s="50" t="s">
-        <v>351</v>
-      </c>
-      <c r="D60" s="50" t="s">
-        <v>352</v>
-      </c>
+      <c r="D60" s="48"/>
     </row>
     <row r="61">
       <c r="A61" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="D61" s="48" t="s">
         <v>354</v>
-      </c>
-      <c r="C61" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="D61" s="50" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="B62" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="C62" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50" t="s">
+      <c r="D62" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="D62" s="50"/>
     </row>
     <row r="63">
       <c r="A63" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50" t="s">
+      <c r="B63" s="48"/>
+      <c r="C63" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="D63" s="50"/>
+      <c r="D63" s="48"/>
     </row>
     <row r="64">
       <c r="A64" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50" t="s">
+      <c r="B64" s="48"/>
+      <c r="C64" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="D64" s="50"/>
+      <c r="D64" s="48"/>
     </row>
     <row r="65">
       <c r="A65" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50" t="s">
+      <c r="B65" s="48"/>
+      <c r="C65" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="D65" s="50"/>
+      <c r="D65" s="48"/>
     </row>
     <row r="66">
       <c r="A66" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50" t="s">
+      <c r="B66" s="48"/>
+      <c r="C66" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="D66" s="50"/>
+      <c r="D66" s="48"/>
     </row>
     <row r="67">
-      <c r="A67" s="50" t="s">
+      <c r="A67" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51" t="s">
+      <c r="B67" s="48"/>
+      <c r="C67" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="D67" s="50"/>
+      <c r="D67" s="48"/>
     </row>
     <row r="68">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="48" t="s">
         <v>369</v>
       </c>
       <c r="B68" s="51"/>
       <c r="C68" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="D68" s="50"/>
+      <c r="D68" s="48"/>
     </row>
     <row r="69">
-      <c r="A69" s="50" t="s">
+      <c r="A69" s="48" t="s">
         <v>371</v>
       </c>
       <c r="B69" s="51"/>
       <c r="C69" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="D69" s="50"/>
+        <v>372</v>
+      </c>
+      <c r="D69" s="48"/>
     </row>
     <row r="70">
-      <c r="A70" s="50" t="s">
-        <v>372</v>
+      <c r="A70" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="B70" s="51"/>
       <c r="C70" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="D70" s="50"/>
+        <v>219</v>
+      </c>
+      <c r="D70" s="48"/>
     </row>
     <row r="71">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="48" t="s">
         <v>374</v>
       </c>
       <c r="B71" s="51"/>
       <c r="C71" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="D71" s="50"/>
+      <c r="D71" s="48"/>
     </row>
     <row r="72">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="51"/>
+      <c r="C72" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="D72" s="48"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="D72" s="50" t="s">
+      <c r="B73" s="51" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="50" t="s">
+      <c r="C73" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="D73" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="C73" s="51" t="s">
-        <v>376</v>
-      </c>
-      <c r="D73" s="50" t="s">
+    </row>
+    <row r="74">
+      <c r="A74" s="48" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="50" t="s">
+      <c r="B74" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="B74" s="51"/>
       <c r="C74" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="D74" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="D74" s="50"/>
     </row>
     <row r="75">
-      <c r="A75" s="50" t="s">
+      <c r="A75" s="48" t="s">
         <v>385</v>
       </c>
       <c r="B75" s="51"/>
       <c r="C75" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="D75" s="50"/>
+      <c r="D75" s="48"/>
     </row>
     <row r="76">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="48" t="s">
         <v>387</v>
       </c>
       <c r="B76" s="51"/>
-      <c r="C76" s="50" t="s">
+      <c r="C76" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="D76" s="50" t="s">
+      <c r="D76" s="48"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="58" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="50" t="s">
+      <c r="B77" s="51"/>
+      <c r="C77" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51" t="s">
+      <c r="D77" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="D77" s="50" t="s">
+    </row>
+    <row r="78">
+      <c r="A78" s="48" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="50" t="s">
-        <v>393</v>
       </c>
       <c r="B78" s="51"/>
       <c r="C78" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="D78" s="48" t="s">
         <v>394</v>
       </c>
-      <c r="D78" s="50" t="s">
+    </row>
+    <row r="79">
+      <c r="A79" s="48" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="56" t="s">
+      <c r="B79" s="51"/>
+      <c r="C79" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="B79" s="51"/>
-      <c r="C79" s="50" t="s">
+      <c r="D79" s="48" t="s">
         <v>397</v>
       </c>
-      <c r="D79" s="57" t="s">
+    </row>
+    <row r="80">
+      <c r="A80" s="58" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="56" t="s">
+      <c r="B80" s="51"/>
+      <c r="C80" s="48" t="s">
         <v>399</v>
       </c>
-      <c r="B80" s="51"/>
-      <c r="C80" s="50" t="s">
+      <c r="D80" s="59" t="s">
         <v>400</v>
       </c>
-      <c r="D80" s="57" t="s">
+    </row>
+    <row r="81">
+      <c r="A81" s="58" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="56" t="s">
+      <c r="B81" s="51"/>
+      <c r="C81" s="48" t="s">
         <v>402</v>
       </c>
-      <c r="B81" s="58"/>
-      <c r="C81" s="50" t="s">
+      <c r="D81" s="59" t="s">
         <v>403</v>
       </c>
-      <c r="D81" s="59" t="s">
+    </row>
+    <row r="82">
+      <c r="A82" s="58" t="s">
         <v>404</v>
+      </c>
+      <c r="B82" s="60"/>
+      <c r="C82" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="D82" s="61" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -39389,1803 +39398,1803 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>405</v>
+      <c r="O1" s="62" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>-5500</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f>$B2-$C2</f>
         <v>-5500</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>950</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.7360828898</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A38)*12,0)</f>
         <v>0.2453609633</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f>MAX($L2,$M2)-$E2-SUM($I3:$I38)</f>
         <v>596.982136</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f>$N2-$E2</f>
         <v>12048.70056</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-241.2682864</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>1386.25</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>13239.96884</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f>MAX($M2,$L2)+$K2</f>
         <v>12998.70056</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"Bloopsy",INDEX(O:O,ROW()-1))</f>
         <v>Bloopsy</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>44136.0</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="64">
         <v>0.0</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="64">
         <v>6450.0</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="65">
         <v>-0.016432831295333683</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="65">
         <v>0.703178597556773</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="65">
         <v>0.24108980487660792</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="64">
         <v>-319.8291698477624</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="64">
         <v>11484.552438769417</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="64">
         <v>-208.4342689230876</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="64">
         <v>6879.53124999999</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="64">
         <v>18142.986707692504</v>
       </c>
-      <c r="N3" s="64">
+      <c r="N3" s="66">
         <v>17934.552438769417</v>
       </c>
-      <c r="O3" s="65" t="s">
+      <c r="O3" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="61">
+      <c r="A4" s="63">
         <v>44105.0</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="64">
         <v>-300.0</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="64">
         <v>0.0</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="64">
         <v>-300.0</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="64">
         <v>7450.0</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="65">
         <v>-0.0030358834822477613</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="65">
         <v>0.7196114288521067</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="65">
         <v>0.25398050430074354</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="64">
         <v>-60.18030668434949</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="64">
         <v>11786.79100427555</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="64">
         <v>-226.02487326471453</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="64">
         <v>7871.770833333323</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="64">
         <v>19462.815877540266</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="66">
         <v>19236.79100427555</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="61">
+      <c r="A5" s="63">
         <v>44075.0</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="64">
         <v>0.0</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="64">
         <v>0.0</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="64">
         <v>0.0</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="64">
         <v>7750.0</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="65">
         <v>0.0695011442271417</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="65">
         <v>0.7226473123343545</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="65">
         <v>0.2627808408488562</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="64">
         <v>1288.1902223764919</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="64">
         <v>11843.661394092262</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="64">
         <v>-229.33479013235376</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="64">
         <v>8163.697916666656</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="64">
         <v>19822.996184224616</v>
       </c>
-      <c r="N5" s="64">
+      <c r="N5" s="66">
         <v>19593.66139409226</v>
       </c>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="61">
+      <c r="A6" s="63">
         <v>44044.0</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="64">
         <v>-2400.0</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="64">
         <v>0.0</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="64">
         <v>-2400.0</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="64">
         <v>7750.0</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="65">
         <v>-0.0011851593150153932</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="65">
         <v>0.6531461681072128</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="65">
         <v>0.2449298130402048</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="64">
         <v>-22.85900518998824</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="64">
         <v>10626.321633946478</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="64">
         <v>-158.4843279016467</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="64">
         <v>8155.624999999989</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="64">
         <v>18534.805961848124</v>
       </c>
-      <c r="N6" s="64">
+      <c r="N6" s="66">
         <v>18376.321633946478</v>
       </c>
-      <c r="O6" s="65" t="s">
+      <c r="O6" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="61">
+      <c r="A7" s="63">
         <v>44013.0</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="64">
         <v>1900.0</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="64">
         <v>1900.0</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="64">
         <v>0.0</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="64">
         <v>10150.0</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="65">
         <v>0.01670595001387467</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="65">
         <v>0.6543313274222282</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="65">
         <v>0.25328954609892707</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="64">
         <v>344.36476283245065</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="64">
         <v>10647.923393851015</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" s="64">
         <v>-159.74157318709607</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="64">
         <v>10543.072916666655</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="64">
         <v>20957.664967038112</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="66">
         <v>20797.923393851015</v>
       </c>
-      <c r="O7" s="65" t="s">
+      <c r="O7" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="61">
+      <c r="A8" s="63">
         <v>43983.0</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="64">
         <v>-300.0</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="64">
         <v>0.0</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="64">
         <v>-300.0</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="64">
         <v>10150.0</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="65">
         <v>-0.00659387295460559</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="65">
         <v>0.6376253774083536</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="65">
         <v>0.25505015096334144</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="64">
         <v>-138.8149729035831</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="64">
         <v>10322.49869297435</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="64">
         <v>-140.80151123131128</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L8" s="64">
         <v>10532.499999999989</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="64">
         <v>20613.30020420566</v>
       </c>
-      <c r="N8" s="64">
+      <c r="N8" s="66">
         <v>20472.49869297435</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="61">
+      <c r="A9" s="63">
         <v>43952.0</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="64">
         <v>-300.0</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="64">
         <v>0.0</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="64">
         <v>-300.0</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="64">
         <v>10450.0</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="65">
         <v>0.17167870410952307</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="65">
         <v>0.6442192503629591</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="65">
         <v>0.26657348290881067</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="64">
         <v>3128.591012831741</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="64">
         <v>10453.678842368237</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="64">
         <v>-148.43633474100835</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="64">
         <v>10821.614583333323</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="64">
         <v>21052.115177109245</v>
       </c>
-      <c r="N9" s="64">
+      <c r="N9" s="66">
         <v>20903.678842368237</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="O9" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="61">
+      <c r="A10" s="63">
         <v>43922.0</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="64">
         <v>-300.0</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="64">
         <v>0.0</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="64">
         <v>-300.0</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="64">
         <v>10750.0</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="65">
         <v>-0.09031985768405248</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="65">
         <v>0.4725405462534361</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="65">
         <v>0.20251737696575833</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="64">
         <v>-1839.1542131119495</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="64">
         <v>7497.160335242243</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="64">
         <v>23.63617096473739</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="64">
         <v>11110.416666666657</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="64">
         <v>18223.524164277504</v>
       </c>
-      <c r="N10" s="64">
+      <c r="N10" s="66">
         <v>18247.160335242243</v>
       </c>
-      <c r="O10" s="65" t="s">
+      <c r="O10" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="61">
+      <c r="A11" s="63">
         <v>43891.0</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="64">
         <v>-300.0</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="64">
         <v>0.0</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="64">
         <v>-300.0</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="64">
         <v>11050.0</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="65">
         <v>-6.988944889106389E-4</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="65">
         <v>0.5628604039374886</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="65">
         <v>0.2501601795277727</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="64">
         <v>-14.451131860507303</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="64">
         <v>9235.161066633034</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="64">
         <v>-77.51731075641983</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="64">
         <v>11398.90624999999</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="64">
         <v>20362.678377389453</v>
       </c>
-      <c r="N11" s="64">
+      <c r="N11" s="66">
         <v>20285.161066633034</v>
       </c>
-      <c r="O11" s="65" t="s">
+      <c r="O11" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="61">
+      <c r="A12" s="63">
         <v>43862.0</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="64">
         <v>0.0</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="64">
         <v>0.0</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="64">
         <v>0.0</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="64">
         <v>11350.0</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="65">
         <v>-0.013571483773815925</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="65">
         <v>0.5635592984263992</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="65">
         <v>0.260104291581415</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="64">
         <v>-284.48014529978536</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="64">
         <v>9248.817386241211</v>
       </c>
-      <c r="K12" s="62">
+      <c r="K12" s="64">
         <v>-78.31212300874773</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="64">
         <v>11687.083333333325</v>
       </c>
-      <c r="M12" s="62">
+      <c r="M12" s="64">
         <v>20677.12950924996</v>
       </c>
-      <c r="N12" s="64">
+      <c r="N12" s="66">
         <v>20598.81738624121</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="61">
+      <c r="A13" s="63">
         <v>43831.0</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="64">
         <v>0.0</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="64">
         <v>11350.0</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="65">
         <v>0.06953970791992178</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="65">
         <v>0.5771307822002151</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="65">
         <v>0.27702277545610327</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="64">
         <v>1427.907640567064</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="64">
         <v>9082.971123549509</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="64">
         <v>-528.638531000236</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="64">
         <v>11675.260416666659</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="64">
         <v>20961.609654549746</v>
       </c>
-      <c r="N13" s="64">
+      <c r="N13" s="66">
         <v>20432.97112354951</v>
       </c>
-      <c r="O13" s="65" t="s">
+      <c r="O13" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="61">
+      <c r="A14" s="63">
         <v>43800.0</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="64">
         <v>-700.0</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="64">
         <v>0.0</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="64">
         <v>-700.0</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="64">
         <v>12350.0</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="65">
         <v>0.02764486097227171</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="65">
         <v>0.5075910742802933</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="65">
         <v>0.25379553714014663</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="64">
         <v>571.2116728222863</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="64">
         <v>7733.598403213633</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="64">
         <v>-450.10361076904746</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="64">
         <v>12662.395833333325</v>
       </c>
-      <c r="M14" s="62">
+      <c r="M14" s="64">
         <v>20533.702013982682</v>
       </c>
-      <c r="N14" s="64">
+      <c r="N14" s="66">
         <v>20083.598403213633</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="61">
+      <c r="A15" s="63">
         <v>43770.0</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="64">
         <v>-300.0</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="64">
         <v>0.0</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="64">
         <v>-300.0</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="64">
         <v>13050.0</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="65">
         <v>-0.031204251937763165</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="65">
         <v>0.4799462133080215</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="65">
         <v>0.25040671998679387</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="64">
         <v>-675.1875523368581</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="64">
         <v>7193.803372396575</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="64">
         <v>-418.6869687638217</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="64">
         <v>13348.802083333325</v>
       </c>
-      <c r="M15" s="62">
+      <c r="M15" s="64">
         <v>20662.490341160395</v>
       </c>
-      <c r="N15" s="64">
+      <c r="N15" s="66">
         <v>20243.803372396575</v>
       </c>
-      <c r="O15" s="65" t="s">
+      <c r="O15" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="61">
+      <c r="A16" s="63">
         <v>43739.0</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="64">
         <v>-150.0</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="64">
         <v>0.0</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="64">
         <v>-150.0</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="64">
         <v>13350.0</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="65">
         <v>-0.0017577640676155197</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="65">
         <v>0.5111504652457847</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="65">
         <v>0.2788093446795189</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="64">
         <v>-38.36503399618232</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="64">
         <v>7831.855609354905</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="64">
         <v>-455.8222841423489</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="64">
         <v>13634.895833333325</v>
       </c>
-      <c r="M16" s="62">
+      <c r="M16" s="64">
         <v>21637.677893497254</v>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="66">
         <v>21181.855609354905</v>
       </c>
-      <c r="O16" s="65" t="s">
+      <c r="O16" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="61">
+      <c r="A17" s="63">
         <v>43709.0</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="64">
         <v>0.0</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="64">
         <v>0.0</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="64">
         <v>0.0</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="64">
         <v>13500.0</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="65">
         <v>0.09663855056374034</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="65">
         <v>0.5129082293134002</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="65">
         <v>0.2930904167505144</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="64">
         <v>1923.3658637758672</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="64">
         <v>7868.110566481297</v>
       </c>
-      <c r="K17" s="62">
+      <c r="K17" s="64">
         <v>-457.9323610121389</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="64">
         <v>13770.833333333325</v>
       </c>
-      <c r="M17" s="62">
+      <c r="M17" s="64">
         <v>21826.042927493436</v>
       </c>
-      <c r="N17" s="64">
+      <c r="N17" s="66">
         <v>21368.110566481297</v>
       </c>
-      <c r="O17" s="65" t="s">
+      <c r="O17" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="61">
+      <c r="A18" s="63">
         <v>43678.0</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="64">
         <v>0.0</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="64">
         <v>13500.0</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="65">
         <v>0.07804921004485675</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="65">
         <v>0.4162696787496598</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="65">
         <v>0.2497618072497959</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="64">
         <v>1513.323712354486</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="64">
         <v>6050.529825213103</v>
       </c>
-      <c r="K18" s="62">
+      <c r="K18" s="64">
         <v>-352.14723850446626</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="64">
         <v>13756.770833333325</v>
       </c>
-      <c r="M18" s="62">
+      <c r="M18" s="64">
         <v>19902.67706371757</v>
       </c>
-      <c r="N18" s="64">
+      <c r="N18" s="66">
         <v>19550.529825213103</v>
       </c>
-      <c r="O18" s="65" t="s">
+      <c r="O18" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="61">
+      <c r="A19" s="63">
         <v>43647.0</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="64">
         <v>0.0</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="64">
         <v>0.0</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="64">
         <v>0.0</v>
       </c>
-      <c r="E19" s="62">
+      <c r="E19" s="64">
         <v>14500.0</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="65">
         <v>0.05571063566313939</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="65">
         <v>0.33822046870480305</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="65">
         <v>0.21361292760303352</v>
       </c>
-      <c r="I19" s="62">
+      <c r="I19" s="64">
         <v>1023.1906014882006</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="64">
         <v>4620.438917038115</v>
       </c>
-      <c r="K19" s="62">
+      <c r="K19" s="64">
         <v>-268.91443432496953</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="64">
         <v>14741.666666666659</v>
       </c>
-      <c r="M19" s="62">
+      <c r="M19" s="64">
         <v>19389.353351363083</v>
       </c>
-      <c r="N19" s="64">
+      <c r="N19" s="66">
         <v>19120.438917038115</v>
       </c>
-      <c r="O19" s="65" t="s">
+      <c r="O19" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="61">
+      <c r="A20" s="63">
         <v>43617.0</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="64">
         <v>0.0</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="64">
         <v>0.0</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="64">
         <v>0.0</v>
       </c>
-      <c r="E20" s="62">
+      <c r="E20" s="64">
         <v>14500.0</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="65">
         <v>0.03999771844904346</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="65">
         <v>0.28250983304166366</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="65">
         <v>0.18833988869444246</v>
       </c>
-      <c r="I20" s="62">
+      <c r="I20" s="64">
         <v>706.3521329203759</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="64">
         <v>3653.5237986317625</v>
       </c>
-      <c r="K20" s="62">
+      <c r="K20" s="64">
         <v>-212.63895124311853</v>
       </c>
-      <c r="L20" s="62">
+      <c r="L20" s="64">
         <v>14726.562499999993</v>
       </c>
-      <c r="M20" s="62">
+      <c r="M20" s="64">
         <v>18366.162749874882</v>
       </c>
-      <c r="N20" s="64">
+      <c r="N20" s="66">
         <v>18153.523798631762</v>
       </c>
-      <c r="O20" s="65" t="s">
+      <c r="O20" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="61">
+      <c r="A21" s="63">
         <v>43586.0</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="64">
         <v>-500.0</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="64">
         <v>0.0</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="64">
         <v>-500.0</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="64">
         <v>14500.0</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="65">
         <v>0.026231385182183264</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="65">
         <v>0.24251211459262018</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="65">
         <v>0.17118502206537894</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="64">
         <v>464.18087967975225</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="64">
         <v>2986.021033022007</v>
       </c>
-      <c r="K21" s="62">
+      <c r="K21" s="64">
         <v>-173.78958393249786</v>
       </c>
-      <c r="L21" s="62">
+      <c r="L21" s="64">
         <v>14711.458333333327</v>
       </c>
-      <c r="M21" s="62">
+      <c r="M21" s="64">
         <v>17659.810616954506</v>
       </c>
-      <c r="N21" s="64">
+      <c r="N21" s="66">
         <v>17486.021033022007</v>
       </c>
-      <c r="O21" s="65" t="s">
+      <c r="O21" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="61">
+      <c r="A22" s="63">
         <v>43556.0</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B22" s="64">
         <v>0.0</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="64">
         <v>0.0</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="64">
         <v>0.0</v>
       </c>
-      <c r="E22" s="62">
+      <c r="E22" s="64">
         <v>15000.0</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="65">
         <v>0.10199738482836891</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="65">
         <v>0.2162807294104369</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="65">
         <v>0.16221054705782767</v>
       </c>
-      <c r="I22" s="62">
+      <c r="I22" s="64">
         <v>1637.8513968744555</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="64">
         <v>2547.370101724642</v>
       </c>
-      <c r="K22" s="62">
+      <c r="K22" s="64">
         <v>-148.25963555011148</v>
       </c>
-      <c r="L22" s="62">
+      <c r="L22" s="64">
         <v>15195.833333333327</v>
       </c>
-      <c r="M22" s="62">
+      <c r="M22" s="64">
         <v>17695.629737274754</v>
       </c>
-      <c r="N22" s="64">
+      <c r="N22" s="66">
         <v>17547.370101724642</v>
       </c>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="61">
+      <c r="A23" s="63">
         <v>43525.0</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="64">
         <v>0.0</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="64">
         <v>0.0</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="64">
         <v>0.0</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="64">
         <v>15000.0</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="65">
         <v>0.03449682927674902</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="65">
         <v>0.11428334458206801</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="65">
         <v>0.09142667566565442</v>
       </c>
-      <c r="I23" s="62">
+      <c r="I23" s="64">
         <v>535.4704067676521</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="64">
         <v>999.6005316782812</v>
       </c>
-      <c r="K23" s="62">
+      <c r="K23" s="64">
         <v>-58.17780872201642</v>
       </c>
-      <c r="L23" s="62">
+      <c r="L23" s="64">
         <v>15180.208333333327</v>
       </c>
-      <c r="M23" s="62">
+      <c r="M23" s="64">
         <v>16057.778340400298</v>
       </c>
-      <c r="N23" s="64">
+      <c r="N23" s="66">
         <v>15999.600531678281</v>
       </c>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="61">
+      <c r="A24" s="63">
         <v>43497.0</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="64">
         <v>0.0</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="64">
         <v>0.0</v>
       </c>
-      <c r="D24" s="62">
+      <c r="D24" s="64">
         <v>0.0</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="64">
         <v>15000.0</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="65">
         <v>0.04107233145116107</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="65">
         <v>0.079786515305319</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="65">
         <v>0.06838844169027342</v>
       </c>
-      <c r="I24" s="62">
+      <c r="I24" s="64">
         <v>373.3496002993197</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="64">
         <v>493.58099728285015</v>
       </c>
-      <c r="K24" s="62">
+      <c r="K24" s="64">
         <v>-28.726936349795555</v>
       </c>
-      <c r="L24" s="62">
+      <c r="L24" s="64">
         <v>15164.583333333327</v>
       </c>
-      <c r="M24" s="62">
+      <c r="M24" s="64">
         <v>15522.307933632646</v>
       </c>
-      <c r="N24" s="64">
+      <c r="N24" s="66">
         <v>15493.58099728285</v>
       </c>
-      <c r="O24" s="65" t="s">
+      <c r="O24" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="61">
+      <c r="A25" s="63">
         <v>43466.0</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="64">
         <v>0.0</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="64">
         <v>15000.0</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="65">
         <v>-0.024314741161841652</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="65">
         <v>0.038714183854157924</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="65">
         <v>0.035736169711530395</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="64">
         <v>-157.4504235641234</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="64">
         <v>140.76562499999454</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K25" s="64">
         <v>-8.19270833333297</v>
       </c>
-      <c r="L25" s="62">
+      <c r="L25" s="64">
         <v>15148.958333333327</v>
       </c>
-      <c r="M25" s="62">
+      <c r="M25" s="64">
         <v>14909.9226486943</v>
       </c>
-      <c r="N25" s="64">
+      <c r="N25" s="66">
         <v>15140.765624999995</v>
       </c>
-      <c r="O25" s="65" t="s">
+      <c r="O25" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="61">
+      <c r="A26" s="63">
         <v>43435.0</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="64">
         <v>6000.0</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="64">
         <v>0.0</v>
       </c>
-      <c r="D26" s="62">
+      <c r="D26" s="64">
         <v>6000.0</v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="64">
         <v>16000.0</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="65">
         <v>0.059176449934818486</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="65">
         <v>0.06302892501599958</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="65">
         <v>0.06302892501599958</v>
       </c>
-      <c r="I26" s="62">
+      <c r="I26" s="64">
         <v>191.8254235641234</v>
       </c>
-      <c r="J26" s="62">
+      <c r="J26" s="64">
         <v>289.55627526809076</v>
       </c>
-      <c r="K26" s="62">
+      <c r="K26" s="64">
         <v>-16.852481629359758</v>
       </c>
-      <c r="L26" s="62">
+      <c r="L26" s="64">
         <v>16132.29166666666</v>
       </c>
-      <c r="M26" s="62">
+      <c r="M26" s="64">
         <v>16306.40875689745</v>
       </c>
-      <c r="N26" s="64">
+      <c r="N26" s="66">
         <v>16289.55627526809</v>
       </c>
-      <c r="O26" s="65" t="s">
+      <c r="O26" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="61">
+      <c r="A27" s="63">
         <v>43405.0</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="64">
         <v>7000.0</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="64">
         <v>7000.0</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="64">
         <v>0.0</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="65">
         <v>-0.06412073646906129</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="65">
         <v>0.0038524750811810976</v>
       </c>
-      <c r="H27" s="63">
+      <c r="H27" s="65">
         <v>0.004202700088561198</v>
       </c>
-      <c r="I27" s="62">
+      <c r="I27" s="64">
         <v>-275.32832818211136</v>
       </c>
-      <c r="J27" s="62">
+      <c r="J27" s="64">
         <v>108.28124999999454</v>
       </c>
-      <c r="K27" s="62">
+      <c r="K27" s="64">
         <v>-6.302083333332968</v>
       </c>
-      <c r="L27" s="62">
+      <c r="L27" s="64">
         <v>10114.583333333327</v>
       </c>
-      <c r="M27" s="62">
+      <c r="M27" s="64">
         <v>9723.70287393058</v>
       </c>
-      <c r="N27" s="64">
+      <c r="N27" s="66">
         <v>10108.281249999995</v>
       </c>
-      <c r="O27" s="65" t="s">
+      <c r="O27" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="61">
+      <c r="A28" s="63">
         <v>43374.0</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="64">
         <v>0.0</v>
       </c>
-      <c r="C28" s="62">
+      <c r="C28" s="64">
         <v>0.0</v>
       </c>
-      <c r="D28" s="62">
+      <c r="D28" s="64">
         <v>0.0</v>
       </c>
-      <c r="E28" s="62">
+      <c r="E28" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="65">
         <v>-0.028896114427261484</v>
       </c>
-      <c r="G28" s="63">
+      <c r="G28" s="65">
         <v>0.06797321155024239</v>
       </c>
-      <c r="H28" s="63">
+      <c r="H28" s="65">
         <v>0.08156785386029086</v>
       </c>
-      <c r="I28" s="62">
+      <c r="I28" s="64">
         <v>-309.16164657627814</v>
       </c>
-      <c r="J28" s="62">
+      <c r="J28" s="64">
         <v>368.4665201320895</v>
       </c>
-      <c r="K28" s="62">
+      <c r="K28" s="64">
         <v>-21.445141383349092</v>
       </c>
-      <c r="L28" s="62">
+      <c r="L28" s="64">
         <v>10104.16666666666</v>
       </c>
-      <c r="M28" s="62">
+      <c r="M28" s="64">
         <v>10389.911661515438</v>
       </c>
-      <c r="N28" s="64">
+      <c r="N28" s="66">
         <v>10368.46652013209</v>
       </c>
-      <c r="O28" s="65" t="s">
+      <c r="O28" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="61">
+      <c r="A29" s="63">
         <v>43344.0</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="64">
         <v>0.0</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="64">
         <v>0.0</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="64">
         <v>0.0</v>
       </c>
-      <c r="E29" s="62">
+      <c r="E29" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="65">
         <v>0.08865378226331043</v>
       </c>
-      <c r="G29" s="63">
+      <c r="G29" s="65">
         <v>0.09686932597750388</v>
       </c>
-      <c r="H29" s="63">
+      <c r="H29" s="65">
         <v>0.1291591013033385</v>
       </c>
-      <c r="I29" s="62">
+      <c r="I29" s="64">
         <v>615.7399747583877</v>
       </c>
-      <c r="J29" s="62">
+      <c r="J29" s="64">
         <v>660.624276146671</v>
       </c>
-      <c r="K29" s="62">
+      <c r="K29" s="64">
         <v>-38.44903194504439</v>
       </c>
-      <c r="L29" s="62">
+      <c r="L29" s="64">
         <v>10093.749999999995</v>
       </c>
-      <c r="M29" s="62">
+      <c r="M29" s="64">
         <v>10699.073308091716</v>
       </c>
-      <c r="N29" s="64">
+      <c r="N29" s="66">
         <v>10660.624276146671</v>
       </c>
-      <c r="O29" s="65" t="s">
+      <c r="O29" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="61">
+      <c r="A30" s="63">
         <v>43313.0</v>
       </c>
-      <c r="B30" s="62">
+      <c r="B30" s="64">
         <v>0.0</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="64">
         <v>0.0</v>
       </c>
-      <c r="D30" s="62">
+      <c r="D30" s="64">
         <v>0.0</v>
       </c>
-      <c r="E30" s="62">
+      <c r="E30" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="65">
         <v>-0.02448824447309521</v>
       </c>
-      <c r="G30" s="63">
+      <c r="G30" s="65">
         <v>0.00821554371419345</v>
       </c>
-      <c r="H30" s="63">
+      <c r="H30" s="65">
         <v>0.012323315571290175</v>
       </c>
-      <c r="I30" s="62">
+      <c r="I30" s="64">
         <v>8.824773747366635</v>
       </c>
-      <c r="J30" s="62">
+      <c r="J30" s="64">
         <v>78.74999999999454</v>
       </c>
-      <c r="K30" s="62">
+      <c r="K30" s="64">
         <v>-4.583333333333067</v>
       </c>
-      <c r="L30" s="62">
+      <c r="L30" s="64">
         <v>10083.333333333328</v>
       </c>
-      <c r="M30" s="62">
+      <c r="M30" s="64">
         <v>9827.80153103253</v>
       </c>
-      <c r="N30" s="64">
+      <c r="N30" s="66">
         <v>10078.749999999995</v>
       </c>
-      <c r="O30" s="65" t="s">
+      <c r="O30" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="61">
+      <c r="A31" s="63">
         <v>43282.0</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="64">
         <v>0.0</v>
       </c>
-      <c r="C31" s="62">
+      <c r="C31" s="64">
         <v>0.0</v>
       </c>
-      <c r="D31" s="62">
+      <c r="D31" s="64">
         <v>0.0</v>
       </c>
-      <c r="E31" s="62">
+      <c r="E31" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="65">
         <v>0.010858996309905966</v>
       </c>
-      <c r="G31" s="63">
+      <c r="G31" s="65">
         <v>0.03270378818728866</v>
       </c>
-      <c r="H31" s="63">
+      <c r="H31" s="65">
         <v>0.056063636892494856</v>
       </c>
-      <c r="I31" s="62">
+      <c r="I31" s="64">
         <v>12.008559585965486</v>
       </c>
-      <c r="J31" s="62">
+      <c r="J31" s="64">
         <v>70.41058880873425</v>
       </c>
-      <c r="K31" s="62">
+      <c r="K31" s="64">
         <v>-4.097970777227902</v>
       </c>
-      <c r="L31" s="62">
+      <c r="L31" s="64">
         <v>10072.916666666662</v>
       </c>
-      <c r="M31" s="62">
+      <c r="M31" s="64">
         <v>10074.508559585962</v>
       </c>
-      <c r="N31" s="64">
+      <c r="N31" s="66">
         <v>10070.410588808734</v>
       </c>
-      <c r="O31" s="65" t="s">
+      <c r="O31" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="61">
+      <c r="A32" s="63">
         <v>43252.0</v>
       </c>
-      <c r="B32" s="62">
+      <c r="B32" s="64">
         <v>0.0</v>
       </c>
-      <c r="C32" s="62">
+      <c r="C32" s="64">
         <v>0.0</v>
       </c>
-      <c r="D32" s="62">
+      <c r="D32" s="64">
         <v>0.0</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="65">
         <v>0.12647428034130279</v>
       </c>
-      <c r="G32" s="63">
+      <c r="G32" s="65">
         <v>0.021844791877382697</v>
       </c>
-      <c r="H32" s="63">
+      <c r="H32" s="65">
         <v>0.04368958375476539</v>
       </c>
-      <c r="I32" s="62">
+      <c r="I32" s="64">
         <v>10.41666666666606</v>
       </c>
-      <c r="J32" s="62">
+      <c r="J32" s="64">
         <v>59.06249999999636</v>
       </c>
-      <c r="K32" s="62">
+      <c r="K32" s="64">
         <v>-3.4374999999997997</v>
       </c>
-      <c r="L32" s="62">
+      <c r="L32" s="64">
         <v>10062.499999999996</v>
       </c>
-      <c r="M32" s="62">
+      <c r="M32" s="64">
         <v>9966.284710689117</v>
       </c>
-      <c r="N32" s="64">
+      <c r="N32" s="66">
         <v>10059.062499999996</v>
       </c>
-      <c r="O32" s="65" t="s">
+      <c r="O32" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="61">
+      <c r="A33" s="63">
         <v>43221.0</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="64">
         <v>0.0</v>
       </c>
-      <c r="C33" s="62">
+      <c r="C33" s="64">
         <v>0.0</v>
       </c>
-      <c r="D33" s="62">
+      <c r="D33" s="64">
         <v>0.0</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F33" s="63">
+      <c r="F33" s="65">
         <v>0.07661146740532812</v>
       </c>
-      <c r="G33" s="63">
+      <c r="G33" s="65">
         <v>-0.10462948846392009</v>
       </c>
-      <c r="H33" s="63">
+      <c r="H33" s="65">
         <v>-0.25111077231340817</v>
       </c>
-      <c r="I33" s="62">
+      <c r="I33" s="64">
         <v>10.41666666666606</v>
       </c>
-      <c r="J33" s="62">
+      <c r="J33" s="64">
         <v>49.21874999999636</v>
       </c>
-      <c r="K33" s="62">
+      <c r="K33" s="64">
         <v>-2.8645833333331665</v>
       </c>
-      <c r="L33" s="62">
+      <c r="L33" s="64">
         <v>10052.08333333333</v>
       </c>
-      <c r="M33" s="62">
+      <c r="M33" s="64">
         <v>8847.325575573283</v>
       </c>
-      <c r="N33" s="64">
+      <c r="N33" s="66">
         <v>10049.218749999996</v>
       </c>
-      <c r="O33" s="65" t="s">
+      <c r="O33" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="61">
+      <c r="A34" s="63">
         <v>43191.0</v>
       </c>
-      <c r="B34" s="62">
+      <c r="B34" s="64">
         <v>0.0</v>
       </c>
-      <c r="C34" s="62">
+      <c r="C34" s="64">
         <v>0.0</v>
       </c>
-      <c r="D34" s="62">
+      <c r="D34" s="64">
         <v>0.0</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="65">
         <v>-0.0394470506102503</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="65">
         <v>-0.1812409558692482</v>
       </c>
-      <c r="H34" s="63">
+      <c r="H34" s="65">
         <v>-0.5437228676077446</v>
       </c>
-      <c r="I34" s="62">
+      <c r="I34" s="64">
         <v>10.41666666666606</v>
       </c>
-      <c r="J34" s="62">
+      <c r="J34" s="64">
         <v>39.37499999999818</v>
       </c>
-      <c r="K34" s="62">
+      <c r="K34" s="64">
         <v>-2.2916666666665333</v>
       </c>
-      <c r="L34" s="62">
+      <c r="L34" s="64">
         <v>10041.666666666664</v>
       </c>
-      <c r="M34" s="62">
+      <c r="M34" s="64">
         <v>8217.751569092656</v>
       </c>
-      <c r="N34" s="64">
+      <c r="N34" s="66">
         <v>10039.374999999998</v>
       </c>
-      <c r="O34" s="65" t="s">
+      <c r="O34" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="61">
+      <c r="A35" s="63">
         <v>43160.0</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="64">
         <v>0.0</v>
       </c>
-      <c r="C35" s="62">
+      <c r="C35" s="64">
         <v>0.0</v>
       </c>
-      <c r="D35" s="62">
+      <c r="D35" s="64">
         <v>0.0</v>
       </c>
-      <c r="E35" s="62">
+      <c r="E35" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="65">
         <v>-0.052153074609364886</v>
       </c>
-      <c r="G35" s="63">
+      <c r="G35" s="65">
         <v>-0.1417939052589979</v>
       </c>
-      <c r="H35" s="63">
+      <c r="H35" s="65">
         <v>-0.5671756210359916</v>
       </c>
-      <c r="I35" s="62">
+      <c r="I35" s="64">
         <v>10.41666666666606</v>
       </c>
-      <c r="J35" s="62">
+      <c r="J35" s="64">
         <v>29.53124999999818</v>
       </c>
-      <c r="K35" s="62">
+      <c r="K35" s="64">
         <v>-1.7187499999999</v>
       </c>
-      <c r="L35" s="62">
+      <c r="L35" s="64">
         <v>10031.249999999998</v>
       </c>
-      <c r="M35" s="62">
+      <c r="M35" s="64">
         <v>8555.230166450989</v>
       </c>
-      <c r="N35" s="64">
+      <c r="N35" s="66">
         <v>10029.531249999998</v>
       </c>
-      <c r="O35" s="65" t="s">
+      <c r="O35" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="61">
+      <c r="A36" s="63">
         <v>43132.0</v>
       </c>
-      <c r="B36" s="62">
+      <c r="B36" s="64">
         <v>0.0</v>
       </c>
-      <c r="C36" s="62">
+      <c r="C36" s="64">
         <v>0.0</v>
       </c>
-      <c r="D36" s="62">
+      <c r="D36" s="64">
         <v>0.0</v>
       </c>
-      <c r="E36" s="62">
+      <c r="E36" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F36" s="63">
+      <c r="F36" s="65">
         <v>-0.09834304329279307</v>
       </c>
-      <c r="G36" s="63">
+      <c r="G36" s="65">
         <v>-0.08964083064963302</v>
       </c>
-      <c r="H36" s="63">
+      <c r="H36" s="65">
         <v>-0.5378449838977981</v>
       </c>
-      <c r="I36" s="62">
+      <c r="I36" s="64">
         <v>10.41666666666606</v>
       </c>
-      <c r="J36" s="62">
+      <c r="J36" s="64">
         <v>19.68749999999818</v>
       </c>
-      <c r="K36" s="62">
+      <c r="K36" s="64">
         <v>-1.1458333333332666</v>
       </c>
-      <c r="L36" s="62">
+      <c r="L36" s="64">
         <v>10020.833333333332</v>
       </c>
-      <c r="M36" s="62">
+      <c r="M36" s="64">
         <v>9025.961827037769</v>
       </c>
-      <c r="N36" s="64">
+      <c r="N36" s="66">
         <v>10019.687499999998</v>
       </c>
-      <c r="O36" s="65" t="s">
+      <c r="O36" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="61">
+      <c r="A37" s="63">
         <v>43101.0</v>
       </c>
-      <c r="B37" s="62">
+      <c r="B37" s="64">
         <v>10000.0</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="64">
         <v>0.0</v>
       </c>
-      <c r="D37" s="62">
+      <c r="D37" s="64">
         <v>10000.0</v>
       </c>
-      <c r="E37" s="62">
+      <c r="E37" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="65">
         <v>0.008702212643160052</v>
       </c>
-      <c r="G37" s="63">
+      <c r="G37" s="65">
         <v>0.008702212643160052</v>
       </c>
-      <c r="H37" s="63">
+      <c r="H37" s="65">
         <v>0.10442655171792062</v>
       </c>
-      <c r="I37" s="62">
+      <c r="I37" s="64">
         <v>10.41666666666606</v>
       </c>
-      <c r="J37" s="62">
+      <c r="J37" s="64">
         <v>9.84375</v>
       </c>
-      <c r="K37" s="62">
+      <c r="K37" s="64">
         <v>-0.5729166666666333</v>
       </c>
-      <c r="L37" s="62">
+      <c r="L37" s="64">
         <v>10010.416666666666</v>
       </c>
-      <c r="M37" s="62">
+      <c r="M37" s="64">
         <v>10010.416666666666</v>
       </c>
-      <c r="N37" s="64">
+      <c r="N37" s="66">
         <v>10009.84375</v>
       </c>
-      <c r="O37" s="65" t="s">
+      <c r="O37" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="61">
+      <c r="A38" s="63">
         <v>43070.0</v>
       </c>
-      <c r="B38" s="62">
+      <c r="B38" s="64">
         <v>10000.0</v>
       </c>
-      <c r="C38" s="62">
+      <c r="C38" s="64">
         <v>10000.0</v>
       </c>
-      <c r="D38" s="62">
+      <c r="D38" s="64">
         <v>0.0</v>
       </c>
-      <c r="E38" s="62">
+      <c r="E38" s="64">
         <v>0.0</v>
       </c>
-      <c r="F38" s="63">
+      <c r="F38" s="65">
         <v>0.0</v>
       </c>
-      <c r="G38" s="63">
+      <c r="G38" s="65">
         <v>0.0</v>
       </c>
-      <c r="H38" s="63">
+      <c r="H38" s="65">
         <v>0.0</v>
       </c>
-      <c r="I38" s="62">
+      <c r="I38" s="64">
         <v>0.0</v>
       </c>
-      <c r="J38" s="62">
+      <c r="J38" s="64">
         <v>0.0</v>
       </c>
-      <c r="K38" s="62">
+      <c r="K38" s="64">
         <v>0.0</v>
       </c>
-      <c r="L38" s="62">
+      <c r="L38" s="64">
         <v>0.0</v>
       </c>
-      <c r="M38" s="62">
+      <c r="M38" s="64">
         <v>0.0</v>
       </c>
-      <c r="N38" s="64">
+      <c r="N38" s="66">
         <v>0.0</v>
       </c>
-      <c r="O38" s="65" t="s">
+      <c r="O38" s="67" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Data/FiMs Associate.xlsx
+++ b/Data/FiMs Associate.xlsx
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="412">
   <si>
     <t>DateTime</t>
   </si>
@@ -1808,6 +1808,12 @@
     <t>Télécharger</t>
   </si>
   <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>Imprimer</t>
+  </si>
+  <si>
     <t>Value has been updated !</t>
   </si>
   <si>
@@ -2071,7 +2077,7 @@
     <numFmt numFmtId="172" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="173" formatCode="#,##0.00##\ [$€-1]"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2124,6 +2130,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <color theme="1"/>
@@ -2178,7 +2185,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2307,6 +2314,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
@@ -2331,10 +2344,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2619,7 +2632,7 @@
       </c>
       <c r="B1" s="2">
         <f>NOW()</f>
-        <v>44184.96183</v>
+        <v>44185.14635</v>
       </c>
     </row>
     <row r="2">
@@ -2628,7 +2641,7 @@
       </c>
       <c r="B2" s="3">
         <f>DATEVALUE($B$1)</f>
-        <v>44184</v>
+        <v>44185</v>
       </c>
     </row>
     <row r="3">
@@ -2637,7 +2650,7 @@
       </c>
       <c r="B3" s="4">
         <f>TIMEVALUE($B$1)</f>
-        <v>0.9618287037</v>
+        <v>0.1463425926</v>
       </c>
     </row>
     <row r="4">
@@ -2664,7 +2677,7 @@
       </c>
       <c r="B6" s="5">
         <f>DAY($B$1)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -2673,7 +2686,7 @@
       </c>
       <c r="B7" s="5">
         <f>WEEKDAY($B$1,2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2751,1102 +2764,1102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>409</v>
+      <c r="O1" s="62" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>300</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f t="shared" ref="D2:D18" si="1">$B2-$C2</f>
         <v>300</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="shared" ref="E2:E18" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>600</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="shared" ref="G2:G18" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.319813211</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="shared" ref="H2:H18" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A18)*12,0)</f>
         <v>0.2398599083</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f t="shared" ref="I2:I18" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I18)</f>
         <v>11.04684281</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f t="shared" ref="J2:J18" si="6">$N2-$E2</f>
         <v>38.2175457</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.224301602</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>603.0208333</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>640.4418473</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f t="shared" ref="N2:N18" si="7">MAX($M2,$L2)+$K2</f>
         <v>638.2175457</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f t="shared" ref="O2:O18" si="8">IF(ROW()=2,"Paclone",INDEX(O:O,ROW()-1))</f>
         <v>Paclone</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="64">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>200</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="64">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>200</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="64">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="65">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="65">
         <f t="shared" si="3"/>
         <v>0.2869089188</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="65">
         <f t="shared" si="4"/>
         <v>0.229527135</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="64">
         <f t="shared" si="5"/>
         <v>-5.503327796</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="64">
         <f t="shared" si="6"/>
         <v>27.77827925</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="64">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.616725247</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="64">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>302.5</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="64">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>329.3950045</v>
       </c>
-      <c r="N3" s="64">
+      <c r="N3" s="66">
         <f t="shared" si="7"/>
         <v>327.7782792</v>
       </c>
-      <c r="O3" s="65" t="str">
+      <c r="O3" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="61">
+      <c r="A4" s="63">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="64">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="64">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="64">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="64">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="65">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>-0.003035883482</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="65">
         <f t="shared" si="3"/>
         <v>0.3033417501</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="65">
         <f t="shared" si="4"/>
         <v>0.2600072144</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="64">
         <f t="shared" si="5"/>
         <v>-0.7152955209</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="64">
         <f t="shared" si="6"/>
         <v>32.97892401</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="64">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.919408276</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="64">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>302.1875</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="64">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>334.8983323</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="66">
         <f t="shared" si="7"/>
         <v>332.978924</v>
       </c>
-      <c r="O4" s="65" t="str">
+      <c r="O4" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="61">
+      <c r="A5" s="63">
         <f t="array" ref="A5">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44075</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="64">
         <f t="array" ref="B5">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A5,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A5,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="64">
         <f>MAX($B5+IF($B5&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A5,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A5),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="65">
         <f t="array" ref="F5">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A5),0)</f>
         <v>0.06950114423</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="65">
         <f t="shared" si="3"/>
         <v>0.3063776336</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="65">
         <f t="shared" si="4"/>
         <v>0.2828101233</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="64">
         <f t="shared" si="5"/>
         <v>15.31126621</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="64">
         <f t="shared" si="6"/>
         <v>33.65487828</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="64">
         <f t="array" ref="K5">-$I5*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.95874953</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="64">
         <f t="array" ref="L5">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D5+INDEX($L:$L,ROW()+1)</f>
         <v>201.9791667</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="64">
         <f t="array" ref="M5">INDEX($M:$M,ROW()+1)+$D5+INDEX($M:$M,ROW()+1)*$F5+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>235.6136278</v>
       </c>
-      <c r="N5" s="64">
+      <c r="N5" s="66">
         <f t="shared" si="7"/>
         <v>233.6548783</v>
       </c>
-      <c r="O5" s="65" t="str">
+      <c r="O5" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="61">
+      <c r="A6" s="63">
         <f t="array" ref="A6">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44044</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="64">
         <f t="array" ref="B6">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A6,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A6,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="64">
         <f>MAX($B6+IF($B6&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A6,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A6),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="65">
         <f t="array" ref="F6">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A6),0)</f>
         <v>-0.001185159315</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="65">
         <f t="shared" si="3"/>
         <v>0.2368764894</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="65">
         <f t="shared" si="4"/>
         <v>0.2368764894</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="64">
         <f t="shared" si="5"/>
         <v>-0.2614032004</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="64">
         <f t="shared" si="6"/>
         <v>19.18573171</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="64">
         <f t="array" ref="K6">-$I6*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.116629888</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="64">
         <f t="array" ref="L6">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D6+INDEX($L:$L,ROW()+1)</f>
         <v>201.7708333</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="64">
         <f t="array" ref="M6">INDEX($M:$M,ROW()+1)+$D6+INDEX($M:$M,ROW()+1)*$F6+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.3023616</v>
       </c>
-      <c r="N6" s="64">
+      <c r="N6" s="66">
         <f t="shared" si="7"/>
         <v>219.1857317</v>
       </c>
-      <c r="O6" s="65" t="str">
+      <c r="O6" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="61">
+      <c r="A7" s="63">
         <f t="array" ref="A7">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44013</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="64">
         <f t="array" ref="B7">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A7,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A7,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="64">
         <f>MAX($B7+IF($B7&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A7,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A7),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="65">
         <f t="array" ref="F7">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A7),0)</f>
         <v>0.01670595001</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="65">
         <f t="shared" si="3"/>
         <v>0.2380616487</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="65">
         <f t="shared" si="4"/>
         <v>0.2597036167</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="64">
         <f t="shared" si="5"/>
         <v>3.624181829</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="64">
         <f t="shared" si="6"/>
         <v>19.43275774</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" s="64">
         <f t="array" ref="K7">-$I7*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.131007064</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="64">
         <f t="array" ref="L7">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D7+INDEX($L:$L,ROW()+1)</f>
         <v>201.5625</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="64">
         <f t="array" ref="M7">INDEX($M:$M,ROW()+1)+$D7+INDEX($M:$M,ROW()+1)*$F7+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.5637648</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="66">
         <f t="shared" si="7"/>
         <v>219.4327577</v>
       </c>
-      <c r="O7" s="65" t="str">
+      <c r="O7" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="61">
+      <c r="A8" s="63">
         <f t="array" ref="A8">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43983</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="64">
         <f t="array" ref="B8">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A8,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A8,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="64">
         <f>MAX($B8+IF($B8&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A8,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A8),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="65">
         <f t="array" ref="F8">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A8),0)</f>
         <v>-0.006593872955</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="65">
         <f t="shared" si="3"/>
         <v>0.2213556987</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="65">
         <f t="shared" si="4"/>
         <v>0.2656268384</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="64">
         <f t="shared" si="5"/>
         <v>-1.439967008</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="64">
         <f t="shared" si="6"/>
         <v>16.00790591</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="64">
         <f t="array" ref="K8">-$I8*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.9316770635</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L8" s="64">
         <f t="array" ref="L8">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D8+INDEX($L:$L,ROW()+1)</f>
         <v>201.3541667</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="64">
         <f t="array" ref="M8">INDEX($M:$M,ROW()+1)+$D8+INDEX($M:$M,ROW()+1)*$F8+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>216.939583</v>
       </c>
-      <c r="N8" s="64">
+      <c r="N8" s="66">
         <f t="shared" si="7"/>
         <v>216.0079059</v>
       </c>
-      <c r="O8" s="65" t="str">
+      <c r="O8" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="61">
+      <c r="A9" s="63">
         <f t="array" ref="A9">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43952</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="64">
         <f t="array" ref="B9">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A9,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A9,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="64">
         <f>MAX($B9+IF($B9&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A9,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A9),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="65">
         <f t="array" ref="F9">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A9),0)</f>
         <v>0.1716787041</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="65">
         <f t="shared" si="3"/>
         <v>0.2279495716</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="65">
         <f t="shared" si="4"/>
         <v>0.3039327622</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="64">
         <f t="shared" si="5"/>
         <v>17.44204998</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="64">
         <f t="shared" si="6"/>
         <v>17.36867473</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="64">
         <f t="array" ref="K9">-$I9*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.010875249</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="64">
         <f t="array" ref="L9">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D9+INDEX($L:$L,ROW()+1)</f>
         <v>201.1458333</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="64">
         <f t="array" ref="M9">INDEX($M:$M,ROW()+1)+$D9+INDEX($M:$M,ROW()+1)*$F9+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>218.37955</v>
       </c>
-      <c r="N9" s="64">
+      <c r="N9" s="66">
         <f t="shared" si="7"/>
         <v>217.3686747</v>
       </c>
-      <c r="O9" s="65" t="str">
+      <c r="O9" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="61">
+      <c r="A10" s="63">
         <f t="array" ref="A10">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43922</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="64">
         <f t="array" ref="B10">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A10,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A10,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="64">
         <f>MAX($B10+IF($B10&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A10,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A10),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="65">
         <f t="array" ref="F10">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A10),0)</f>
         <v>-0.09031985768</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="65">
         <f t="shared" si="3"/>
         <v>0.0562708675</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="65">
         <f t="shared" si="4"/>
         <v>0.08440630126</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="64">
         <f t="shared" si="5"/>
         <v>-3.949647339</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="64">
         <f t="shared" si="6"/>
         <v>0.8859375</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="64">
         <f t="array" ref="K10">-$I10*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0515625</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="64">
         <f t="array" ref="L10">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D10+INDEX($L:$L,ROW()+1)</f>
         <v>200.9375</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="64">
         <f t="array" ref="M10">INDEX($M:$M,ROW()+1)+$D10+INDEX($M:$M,ROW()+1)*$F10+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>186.3817694</v>
       </c>
-      <c r="N10" s="64">
+      <c r="N10" s="66">
         <f t="shared" si="7"/>
         <v>200.8859375</v>
       </c>
-      <c r="O10" s="65" t="str">
+      <c r="O10" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="61">
+      <c r="A11" s="63">
         <f t="array" ref="A11">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43891</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="64">
         <f t="array" ref="B11">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A11,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A11,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="64">
         <f>MAX($B11+IF($B11&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A11,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A11),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="64">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="64">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="65">
         <f t="array" ref="F11">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A11),0)</f>
         <v>-0.0006988944889</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="65">
         <f t="shared" si="3"/>
         <v>0.1465907252</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="65">
         <f t="shared" si="4"/>
         <v>0.251298386</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="64">
         <f t="shared" si="5"/>
         <v>-0.07335631756</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="64">
         <f t="shared" si="6"/>
         <v>4.618354235</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="64">
         <f t="array" ref="K11">-$I11*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2687931036</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="64">
         <f t="array" ref="L11">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D11+INDEX($L:$L,ROW()+1)</f>
         <v>200.7291667</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="64">
         <f t="array" ref="M11">INDEX($M:$M,ROW()+1)+$D11+INDEX($M:$M,ROW()+1)*$F11+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>204.8871473</v>
       </c>
-      <c r="N11" s="64">
+      <c r="N11" s="66">
         <f t="shared" si="7"/>
         <v>204.6183542</v>
       </c>
-      <c r="O11" s="65" t="str">
+      <c r="O11" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="61">
+      <c r="A12" s="63">
         <f t="array" ref="A12">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43862</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="64">
         <f t="array" ref="B12">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A12,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A12,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="64">
         <f>MAX($B12+IF($B12&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A12,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A12),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="64">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="65">
         <f t="array" ref="F12">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A12),0)</f>
         <v>-0.01357148377</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="65">
         <f t="shared" si="3"/>
         <v>0.1472896197</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="65">
         <f t="shared" si="4"/>
         <v>0.2945792394</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="64">
         <f t="shared" si="5"/>
         <v>-1.444067917</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="64">
         <f t="shared" si="6"/>
         <v>4.687675955</v>
       </c>
-      <c r="K12" s="62">
+      <c r="K12" s="64">
         <f t="array" ref="K12">-$I12*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2728277011</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="64">
         <f t="array" ref="L12">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D12+INDEX($L:$L,ROW()+1)</f>
         <v>100.625</v>
       </c>
-      <c r="M12" s="62">
+      <c r="M12" s="64">
         <f t="array" ref="M12">INDEX($M:$M,ROW()+1)+$D12+INDEX($M:$M,ROW()+1)*$F12+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>104.9605037</v>
       </c>
-      <c r="N12" s="64">
+      <c r="N12" s="66">
         <f t="shared" si="7"/>
         <v>104.687676</v>
       </c>
-      <c r="O12" s="65" t="str">
+      <c r="O12" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="61">
+      <c r="A13" s="63">
         <f t="array" ref="A13">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43831</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="64">
         <f t="array" ref="B13">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A13,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A13,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="64">
         <f>MAX($B13+IF($B13&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A13,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A13),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="64">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="65">
         <f t="array" ref="F13">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A13),0)</f>
         <v>0.06953970792</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="65">
         <f t="shared" si="3"/>
         <v>0.1608611035</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="65">
         <f t="shared" si="4"/>
         <v>0.3860666483</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="64">
         <f t="shared" si="5"/>
         <v>5.987904906</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="64">
         <f t="shared" si="6"/>
         <v>6.052320137</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="64">
         <f t="array" ref="K13">-$I13*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.3522514365</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="64">
         <f t="array" ref="L13">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D13+INDEX($L:$L,ROW()+1)</f>
         <v>100.5208333</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="64">
         <f t="array" ref="M13">INDEX($M:$M,ROW()+1)+$D13+INDEX($M:$M,ROW()+1)*$F13+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>106.4045716</v>
       </c>
-      <c r="N13" s="64">
+      <c r="N13" s="66">
         <f t="shared" si="7"/>
         <v>106.0523201</v>
       </c>
-      <c r="O13" s="65" t="str">
+      <c r="O13" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="61">
+      <c r="A14" s="63">
         <f t="array" ref="A14">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43800</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="64">
         <f t="array" ref="B14">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A14,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A14,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="64">
         <f>MAX($B14+IF($B14&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A14,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A14),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="64">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="65">
         <f t="array" ref="F14">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A14),0)</f>
         <v>0.02764486097</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="65">
         <f t="shared" si="3"/>
         <v>0.09132139553</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="65">
         <f t="shared" si="4"/>
         <v>0.2739641866</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="64">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="64">
         <f t="shared" si="6"/>
         <v>0.39375</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="64">
         <f t="array" ref="K14">-$I14*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.02291666667</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="64">
         <f t="array" ref="L14">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D14+INDEX($L:$L,ROW()+1)</f>
         <v>100.4166667</v>
       </c>
-      <c r="M14" s="62">
+      <c r="M14" s="64">
         <f t="array" ref="M14">INDEX($M:$M,ROW()+1)+$D14+INDEX($M:$M,ROW()+1)*$F14+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.48632181</v>
       </c>
-      <c r="N14" s="64">
+      <c r="N14" s="66">
         <f t="shared" si="7"/>
         <v>100.39375</v>
       </c>
-      <c r="O14" s="65" t="str">
+      <c r="O14" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="61">
+      <c r="A15" s="63">
         <f t="array" ref="A15">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43770</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="64">
         <f t="array" ref="B15">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A15,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A15,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="64">
         <f>MAX($B15+IF($B15&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A15,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A15),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="64">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="65">
         <f t="array" ref="F15">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A15),0)</f>
         <v>-0.03120425194</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="65">
         <f t="shared" si="3"/>
         <v>0.06367653456</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="65">
         <f t="shared" si="4"/>
         <v>0.2547061382</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="64">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="64">
         <f t="shared" si="6"/>
         <v>0.2953125</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="64">
         <f t="array" ref="K15">-$I15*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0171875</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="64">
         <f t="array" ref="L15">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D15+INDEX($L:$L,ROW()+1)</f>
         <v>100.3125</v>
       </c>
-      <c r="M15" s="62">
+      <c r="M15" s="64">
         <f t="array" ref="M15">INDEX($M:$M,ROW()+1)+$D15+INDEX($M:$M,ROW()+1)*$F15+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>96.81002221</v>
       </c>
-      <c r="N15" s="64">
+      <c r="N15" s="66">
         <f t="shared" si="7"/>
         <v>100.2953125</v>
       </c>
-      <c r="O15" s="65" t="str">
+      <c r="O15" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="61">
+      <c r="A16" s="63">
         <f t="array" ref="A16">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43739</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="64">
         <f t="array" ref="B16">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A16,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A16,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="64">
         <f>MAX($B16+IF($B16&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A16,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A16),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="64">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="65">
         <f t="array" ref="F16">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A16),0)</f>
         <v>-0.001757764068</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="65">
         <f t="shared" si="3"/>
         <v>0.0948807865</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="65">
         <f t="shared" si="4"/>
         <v>0.569284719</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="64">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="64">
         <f t="shared" si="6"/>
         <v>0.196875</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="64">
         <f t="array" ref="K16">-$I16*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.01145833333</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="64">
         <f t="array" ref="L16">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D16+INDEX($L:$L,ROW()+1)</f>
         <v>100.2083333</v>
       </c>
-      <c r="M16" s="62">
+      <c r="M16" s="64">
         <f t="array" ref="M16">INDEX($M:$M,ROW()+1)+$D16+INDEX($M:$M,ROW()+1)*$F16+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.92820716</v>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="66">
         <f t="shared" si="7"/>
         <v>100.196875</v>
       </c>
-      <c r="O16" s="65" t="str">
+      <c r="O16" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="61">
+      <c r="A17" s="63">
         <f t="array" ref="A17">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43709</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="64">
         <f t="array" ref="B17">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A17,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A17,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="64">
         <f>MAX($B17+IF($B17&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A17,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A17),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="64">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="64">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="65">
         <f t="array" ref="F17">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A17),0)</f>
         <v>0.09663855056</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="65">
         <f t="shared" si="3"/>
         <v>0.09663855056</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="65">
         <f t="shared" si="4"/>
         <v>1.159662607</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="64">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="64">
         <f t="shared" si="6"/>
         <v>0.0984375</v>
       </c>
-      <c r="K17" s="62">
+      <c r="K17" s="64">
         <f t="array" ref="K17">-$I17*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.005729166667</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="64">
         <f t="array" ref="L17">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D17+INDEX($L:$L,ROW()+1)</f>
         <v>100.1041667</v>
       </c>
-      <c r="M17" s="62">
+      <c r="M17" s="64">
         <f t="array" ref="M17">INDEX($M:$M,ROW()+1)+$D17+INDEX($M:$M,ROW()+1)*$F17+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>100.1041667</v>
       </c>
-      <c r="N17" s="64">
+      <c r="N17" s="66">
         <f t="shared" si="7"/>
         <v>100.0984375</v>
       </c>
-      <c r="O17" s="65" t="str">
+      <c r="O17" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="61">
+      <c r="A18" s="63">
         <f t="array" ref="A18">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43678</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="64">
         <f t="array" ref="B18">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A18,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A18,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="64">
         <f>MAX($B18+IF($B18&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A18,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A18),0),0)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="65">
         <f t="array" ref="F18">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A18),0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K18" s="62">
+      <c r="K18" s="64">
         <f t="array" ref="K18">-$I18*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="64">
         <f t="array" ref="L18">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D18+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="62">
+      <c r="M18" s="64">
         <f t="array" ref="M18">INDEX($M:$M,ROW()+1)+$D18+INDEX($M:$M,ROW()+1)*$F18+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N18" s="64">
+      <c r="N18" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O18" s="65" t="str">
+      <c r="O18" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
@@ -3875,234 +3888,234 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>409</v>
+      <c r="O1" s="62" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f t="shared" ref="D2:D4" si="1">$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="shared" ref="E2:E4" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>40000</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="shared" ref="G2:G4" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.0164714609</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="shared" ref="H2:H4" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A4)*12,0)</f>
         <v>0.09882876541</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f t="shared" ref="I2:I4" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I4)</f>
         <v>1145.025732</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f t="shared" ref="J2:J4" si="6">$N2-$E2</f>
         <v>1121.424317</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-65.26808195</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>40083.33333</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>41186.6924</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f t="shared" ref="N2:N4" si="7">MAX($M2,$L2)+$K2</f>
         <v>41121.42432</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f t="shared" ref="O2:O4" si="8">IF(ROW()=2,"Philo",INDEX(O:O,ROW()-1))</f>
         <v>Philo</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="64">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>30442</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="64">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="64">
         <f t="shared" si="1"/>
         <v>30442</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="64">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="65">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="65">
         <f t="shared" si="3"/>
         <v>-0.0164328313</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="65">
         <f t="shared" si="4"/>
         <v>-0.1971939755</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="64">
         <f t="shared" si="5"/>
         <v>41.66666667</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="64">
         <f t="shared" si="6"/>
         <v>39.375</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="64">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.291666667</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="64">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>40041.66667</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="64">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>39874.64542</v>
       </c>
-      <c r="N3" s="64">
+      <c r="N3" s="66">
         <f t="shared" si="7"/>
         <v>40039.375</v>
       </c>
-      <c r="O3" s="65" t="str">
+      <c r="O3" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="61">
+      <c r="A4" s="63">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="64">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>40000</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="64">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>30442</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="64">
         <f t="shared" si="1"/>
         <v>9558</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="64">
         <f t="shared" si="2"/>
         <v>9558</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="65">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="64">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="64">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>9558</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="64">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>9558</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="66">
         <f t="shared" si="7"/>
         <v>9558</v>
       </c>
-      <c r="O4" s="65" t="str">
+      <c r="O4" s="67" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
@@ -4131,171 +4144,171 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>409</v>
+      <c r="O1" s="62" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>555</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f t="shared" ref="D2:D3" si="1">$B2-$C2</f>
         <v>555</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="shared" ref="E2:E3" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>555</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="shared" ref="G2:G3" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="shared" ref="H2:H3" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3)*12,0)</f>
         <v>0.3948515064</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f t="shared" ref="I2:I3" si="5">MAX($L2,$M2)-$E2-SUM($I3)</f>
         <v>0.578125</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f t="shared" ref="J2:J3" si="6">$N2-$E2</f>
         <v>0.546328125</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.031796875</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>555.578125</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>555.578125</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f t="shared" ref="N2:N3" si="7">MAX($M2,$L2)+$K2</f>
         <v>555.5463281</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f t="shared" ref="O2:O3" si="8">IF(ROW()=2,"Tester",ROW()-1)</f>
         <v>Tester</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>44136.0</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="64">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>555</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="64">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>555</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="65">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="64">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="64">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="64">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N3" s="64">
+      <c r="N3" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O3" s="65">
+      <c r="O3" s="67">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -4324,110 +4337,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>409</v>
+      <c r="O1" s="62" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f>IF(ROW()=2,"Lizzz",ROW()-1)</f>
         <v>Lizzz</v>
       </c>
@@ -4456,110 +4469,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>409</v>
+      <c r="O1" s="62" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f>IF(ROW()=2,"Joséd",ROW()-1)</f>
         <v>Joséd</v>
       </c>
@@ -4585,110 +4598,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>409</v>
+      <c r="O1" s="62" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"SheetName",INDEX(O:O,ROW()-1))</f>
         <v>SheetName</v>
       </c>
@@ -4749,8 +4762,8 @@
         <v>Cumulated profit rate</v>
       </c>
       <c r="B4" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.09644004730309536)</f>
-        <v>0.0964400473</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.09641285044824395)</f>
+        <v>0.09641285045</v>
       </c>
     </row>
     <row r="5">
@@ -4769,8 +4782,8 @@
         <v>Cumulated dividend rate</v>
       </c>
       <c r="B6" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.023070124998209825)</f>
-        <v>0.023070125</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.02306361904079352)</f>
+        <v>0.02306361904</v>
       </c>
     </row>
     <row r="7">
@@ -4789,8 +4802,8 @@
         <v>Saving duration</v>
       </c>
       <c r="B8" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.705681040383299)</f>
-        <v>9.70568104</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.708418891170432)</f>
+        <v>9.708418891</v>
       </c>
     </row>
     <row r="9">
@@ -4819,8 +4832,8 @@
         <v>Since Independance duration</v>
       </c>
       <c r="B11" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1182 months (98.5 years)")</f>
-        <v>1182 months (98.5 years)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1181 months (98.5 years)")</f>
+        <v>1181 months (98.5 years)</v>
       </c>
     </row>
     <row r="12">
@@ -4829,8 +4842,8 @@
         <v>Since Independance gap</v>
       </c>
       <c r="B12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-363233.0527705993)</f>
-        <v>-363233.0528</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-363413.2944140471)</f>
+        <v>-363413.2944</v>
       </c>
     </row>
     <row r="13">
@@ -4839,8 +4852,8 @@
         <v>Monthly income</v>
       </c>
       <c r="B13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),920.9155511210531)</f>
-        <v>920.9155511</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),920.6558456638841)</f>
+        <v>920.6558457</v>
       </c>
     </row>
     <row r="14">
@@ -4859,8 +4872,8 @@
         <v>Income use</v>
       </c>
       <c r="B15" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3338907869841132)</f>
-        <v>1.333890787</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3342670608309353)</f>
+        <v>1.334267061</v>
       </c>
     </row>
     <row r="16">
@@ -4908,9 +4921,9 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Monthly payment")</f>
         <v>Monthly payment</v>
       </c>
-      <c r="B20" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-7600.0)</f>
-        <v>-7600</v>
+      <c r="B20" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Loading...")</f>
+        <v>Loading...</v>
       </c>
     </row>
     <row r="21">
@@ -5049,8 +5062,8 @@
         <v>Current portfolio duration</v>
       </c>
       <c r="B34" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.149897330595483)</f>
-        <v>5.149897331</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.152635181382615)</f>
+        <v>5.152635181</v>
       </c>
     </row>
     <row r="35">
@@ -5109,8 +5122,8 @@
         <v>Current portfolio total profit rate</v>
       </c>
       <c r="B40" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.19417836279166842)</f>
-        <v>0.1941783628</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.19407518619082267)</f>
+        <v>0.1940751862</v>
       </c>
     </row>
     <row r="41">
@@ -5129,8 +5142,8 @@
         <v>Current portfolio profit rate</v>
       </c>
       <c r="B42" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.17463558087887307)</f>
-        <v>0.1746355809</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.17454278832792788)</f>
+        <v>0.1745427883</v>
       </c>
     </row>
     <row r="43">
@@ -5149,8 +5162,8 @@
         <v>Current portfolio dividend rate</v>
       </c>
       <c r="B44" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.039808346828497716)</f>
-        <v>0.03980834683</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0397871946782169)</f>
+        <v>0.03978719468</v>
       </c>
     </row>
     <row r="45">
@@ -5169,8 +5182,8 @@
         <v>Current portfolio cost rate</v>
       </c>
       <c r="B46" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.020265564915702385)</f>
-        <v>-0.02026556492</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.020254796815322097)</f>
+        <v>-0.02025479682</v>
       </c>
     </row>
     <row r="47">
@@ -5238,9 +5251,9 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Next Allocation")</f>
         <v>Next Allocation</v>
       </c>
-      <c r="B53" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),831000.0)</f>
-        <v>831000</v>
+      <c r="B53" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Loading...")</f>
+        <v>Loading...</v>
       </c>
     </row>
     <row r="54">
@@ -5295,9 +5308,9 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Investment provision")</f>
         <v>Investment provision</v>
       </c>
-      <c r="B59" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2390.586449240567)</f>
-        <v>2390.586449</v>
+      <c r="B59" s="15" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Loading...")</f>
+        <v>Loading...</v>
       </c>
     </row>
     <row r="60">
@@ -5316,8 +5329,8 @@
         <v>Last year daily average progress</v>
       </c>
       <c r="B61" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),591.2706689187365)</f>
-        <v>591.2706689</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),591.3104721580103)</f>
+        <v>591.3104722</v>
       </c>
     </row>
     <row r="62">
@@ -5326,8 +5339,8 @@
         <v>Transaction per month</v>
       </c>
       <c r="B62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.93147233201581)</f>
-        <v>13.93147233</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.920468009478673)</f>
+        <v>13.92046801</v>
       </c>
     </row>
     <row r="63">
@@ -5336,8 +5349,8 @@
         <v>Average profit per transaction</v>
       </c>
       <c r="B63" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),370.4272484760786)</f>
-        <v>370.4272485</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0239869534653)</f>
+        <v>371.023987</v>
       </c>
     </row>
     <row r="64">
@@ -5346,8 +5359,8 @@
         <v>Average profit per month</v>
       </c>
       <c r="B64" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5160.596963169234)</f>
-        <v>5160.596963</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5164.827541134946)</f>
+        <v>5164.827541</v>
       </c>
     </row>
     <row r="65">
@@ -5356,8 +5369,8 @@
         <v>Total profit per month</v>
       </c>
       <c r="B65" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5651.5848486901605)</f>
-        <v>5651.584849</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5655.815426655872)</f>
+        <v>5655.815427</v>
       </c>
     </row>
     <row r="66">
@@ -5386,8 +5399,8 @@
         <v>Instant profit per month</v>
       </c>
       <c r="B68" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3670.6432319979663)</f>
-        <v>3670.643232</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3667.7438297610015)</f>
+        <v>3667.74383</v>
       </c>
     </row>
     <row r="69">
@@ -5396,8 +5409,8 @@
         <v>Last month stock average progress</v>
       </c>
       <c r="B69" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0020214085748617126)</f>
-        <v>0.002021408575</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0023717755477064614)</f>
+        <v>0.002371775548</v>
       </c>
     </row>
     <row r="70">
@@ -5406,8 +5419,8 @@
         <v>Last negative average profit in days</v>
       </c>
       <c r="B70" s="21" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"17d (0.6m)")</f>
-        <v>17d (0.6m)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"18d (0.6m)")</f>
+        <v>18d (0.6m)</v>
       </c>
     </row>
     <row r="71">
@@ -5416,8 +5429,8 @@
         <v>Last updated</v>
       </c>
       <c r="B71" s="22">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2119065509250504)</f>
-        <v>1.211906551</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3964206134260166)</f>
+        <v>1.396420613</v>
       </c>
     </row>
     <row r="72">
@@ -38227,8 +38240,8 @@
         <v>148</v>
       </c>
       <c r="B26" s="44" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""En date du "" &amp; TO_TEXT(DateTime!$B$6)&amp;""/""&amp;TO_TEXT(DateTime!$B$5)&amp;""/""&amp;TO_TEXT(DateTime!$B$4) &amp; "", "" &amp; COUNT(Associate!$A:$A)-1 &amp; "" personnes. Plus moi, "" &amp; COUNT(Associate!$A:$A) &amp; "" :-)"""),"En date du 19/12/2020, 5 personnes. Plus moi, 6 :-)")</f>
-        <v>En date du 19/12/2020, 5 personnes. Plus moi, 6 :-)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""En date du "" &amp; TO_TEXT(DateTime!$B$6)&amp;""/""&amp;TO_TEXT(DateTime!$B$5)&amp;""/""&amp;TO_TEXT(DateTime!$B$4) &amp; "", "" &amp; COUNT(Associate!$A:$A)-1 &amp; "" personnes. Plus moi, "" &amp; COUNT(Associate!$A:$A) &amp; "" :-)"""),"En date du 20/12/2020, 5 personnes. Plus moi, 6 :-)")</f>
+        <v>En date du 20/12/2020, 5 personnes. Plus moi, 6 :-)</v>
       </c>
     </row>
     <row r="27">
@@ -39084,11 +39097,11 @@
       <c r="D51" s="48"/>
     </row>
     <row r="52">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="56" t="s">
         <v>331</v>
       </c>
       <c r="B52" s="48"/>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="57" t="s">
         <v>332</v>
       </c>
       <c r="D52" s="48"/>
@@ -39114,11 +39127,11 @@
       <c r="D54" s="48"/>
     </row>
     <row r="55">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51" t="s">
+      <c r="B55" s="48"/>
+      <c r="C55" s="48" t="s">
         <v>338</v>
       </c>
       <c r="D55" s="48"/>
@@ -39137,28 +39150,24 @@
       <c r="A57" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="51"/>
+      <c r="C57" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="D57" s="48"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="B58" s="51" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="51" t="s">
+      <c r="C58" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="B58" s="51" t="s">
-        <v>342</v>
-      </c>
-      <c r="C58" s="48" t="s">
+      <c r="D58" s="48" t="s">
         <v>346</v>
-      </c>
-      <c r="D58" s="48" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="59">
@@ -39166,24 +39175,28 @@
         <v>347</v>
       </c>
       <c r="B59" s="51" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C59" s="48" t="s">
         <v>348</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="B60" s="48"/>
+      <c r="B60" s="51" t="s">
+        <v>344</v>
+      </c>
       <c r="C60" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="D60" s="48"/>
+      <c r="D60" s="48" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="51" t="s">
@@ -39199,39 +39212,39 @@
       <c r="A62" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="48"/>
+      <c r="C62" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="C62" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>356</v>
-      </c>
+      <c r="D62" s="48"/>
     </row>
     <row r="63">
       <c r="A63" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="C63" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="B63" s="48" t="s">
+      <c r="D63" s="48" t="s">
         <v>358</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="C64" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48" t="s">
+      <c r="D64" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="D64" s="48"/>
     </row>
     <row r="65">
       <c r="A65" s="51" t="s">
@@ -39274,11 +39287,11 @@
       <c r="D68" s="48"/>
     </row>
     <row r="69">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51" t="s">
+      <c r="B69" s="48"/>
+      <c r="C69" s="48" t="s">
         <v>372</v>
       </c>
       <c r="D69" s="48"/>
@@ -39299,17 +39312,17 @@
       </c>
       <c r="B71" s="51"/>
       <c r="C71" s="51" t="s">
-        <v>219</v>
+        <v>376</v>
       </c>
       <c r="D71" s="48"/>
     </row>
     <row r="72">
       <c r="A72" s="48" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B72" s="51"/>
       <c r="C72" s="51" t="s">
-        <v>377</v>
+        <v>219</v>
       </c>
       <c r="D72" s="48"/>
     </row>
@@ -39327,39 +39340,39 @@
       <c r="A74" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="51"/>
+      <c r="C74" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="C74" s="51" t="s">
-        <v>382</v>
-      </c>
-      <c r="D74" s="48" t="s">
-        <v>383</v>
-      </c>
+      <c r="D74" s="48"/>
     </row>
     <row r="75">
       <c r="A75" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="B75" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="C75" s="51" t="s">
         <v>384</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="D75" s="48" t="s">
         <v>385</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>380</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="B76" s="51" t="s">
         <v>387</v>
       </c>
-      <c r="B76" s="51"/>
       <c r="C76" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="D76" s="48" t="s">
         <v>388</v>
       </c>
-      <c r="D76" s="48"/>
     </row>
     <row r="77">
       <c r="A77" s="48" t="s">
@@ -39372,75 +39385,85 @@
       <c r="D77" s="48"/>
     </row>
     <row r="78">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="48" t="s">
         <v>391</v>
       </c>
       <c r="B78" s="51"/>
-      <c r="C78" s="48" t="s">
+      <c r="C78" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="D78" s="48" t="s">
+      <c r="D78" s="48"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="58" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="48" t="s">
+      <c r="B79" s="51"/>
+      <c r="C79" s="48" t="s">
         <v>394</v>
       </c>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51" t="s">
+      <c r="D79" s="48" t="s">
         <v>395</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B80" s="51"/>
       <c r="C80" s="51" t="s">
+        <v>397</v>
+      </c>
+      <c r="D80" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="D80" s="48" t="s">
+    </row>
+    <row r="81">
+      <c r="A81" s="48" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="56" t="s">
+      <c r="B81" s="51"/>
+      <c r="C81" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="B81" s="51"/>
-      <c r="C81" s="48" t="s">
+      <c r="D81" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="D81" s="57" t="s">
+    </row>
+    <row r="82">
+      <c r="A82" s="58" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="56" t="s">
-        <v>403</v>
       </c>
       <c r="B82" s="51"/>
       <c r="C82" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="D82" s="59" t="s">
         <v>404</v>
       </c>
-      <c r="D82" s="57" t="s">
+    </row>
+    <row r="83">
+      <c r="A83" s="58" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="56" t="s">
+      <c r="B83" s="51"/>
+      <c r="C83" s="48" t="s">
         <v>406</v>
       </c>
-      <c r="B83" s="58"/>
-      <c r="C83" s="48" t="s">
+      <c r="D83" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="D83" s="59" t="s">
+    </row>
+    <row r="84">
+      <c r="A84" s="58" t="s">
         <v>408</v>
+      </c>
+      <c r="B84" s="60"/>
+      <c r="C84" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="D84" s="61" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -39467,1803 +39490,1803 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>409</v>
+      <c r="O1" s="62" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>-5500</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="64">
         <f>$B2-$C2</f>
         <v>-5500</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="64">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>950</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="65">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="65">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.7360828898</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A38)*12,0)</f>
         <v>0.2453609633</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <f>MAX($L2,$M2)-$E2-SUM($I3:$I38)</f>
         <v>596.982136</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="64">
         <f>$N2-$E2</f>
         <v>12048.70056</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="64">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-241.2682864</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="64">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>1386.25</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="64">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>13239.96884</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="66">
         <f>MAX($M2,$L2)+$K2</f>
         <v>12998.70056</v>
       </c>
-      <c r="O2" s="65" t="str">
+      <c r="O2" s="67" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"Bloopsy",INDEX(O:O,ROW()-1))</f>
         <v>Bloopsy</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>44136.0</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="64">
         <v>0.0</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="64">
         <v>6450.0</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="65">
         <v>-0.016432831295333683</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="65">
         <v>0.703178597556773</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="65">
         <v>0.24108980487660792</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="64">
         <v>-319.8291698477624</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="64">
         <v>11484.552438769417</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="64">
         <v>-208.4342689230876</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="64">
         <v>6879.53124999999</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="64">
         <v>18142.986707692504</v>
       </c>
-      <c r="N3" s="64">
+      <c r="N3" s="66">
         <v>17934.552438769417</v>
       </c>
-      <c r="O3" s="65" t="s">
+      <c r="O3" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="61">
+      <c r="A4" s="63">
         <v>44105.0</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="64">
         <v>-300.0</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="64">
         <v>0.0</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="64">
         <v>-300.0</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="64">
         <v>7450.0</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="65">
         <v>-0.0030358834822477613</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="65">
         <v>0.7196114288521067</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="65">
         <v>0.25398050430074354</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="64">
         <v>-60.18030668434949</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="64">
         <v>11786.79100427555</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="64">
         <v>-226.02487326471453</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="64">
         <v>7871.770833333323</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="64">
         <v>19462.815877540266</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="66">
         <v>19236.79100427555</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="61">
+      <c r="A5" s="63">
         <v>44075.0</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="64">
         <v>0.0</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="64">
         <v>0.0</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="64">
         <v>0.0</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="64">
         <v>7750.0</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="65">
         <v>0.0695011442271417</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="65">
         <v>0.7226473123343545</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="65">
         <v>0.2627808408488562</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="64">
         <v>1288.1902223764919</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="64">
         <v>11843.661394092262</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="64">
         <v>-229.33479013235376</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="64">
         <v>8163.697916666656</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="64">
         <v>19822.996184224616</v>
       </c>
-      <c r="N5" s="64">
+      <c r="N5" s="66">
         <v>19593.66139409226</v>
       </c>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="61">
+      <c r="A6" s="63">
         <v>44044.0</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="64">
         <v>-2400.0</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="64">
         <v>0.0</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="64">
         <v>-2400.0</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="64">
         <v>7750.0</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="65">
         <v>-0.0011851593150153932</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="65">
         <v>0.6531461681072128</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="65">
         <v>0.2449298130402048</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="64">
         <v>-22.85900518998824</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="64">
         <v>10626.321633946478</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="64">
         <v>-158.4843279016467</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="64">
         <v>8155.624999999989</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="64">
         <v>18534.805961848124</v>
       </c>
-      <c r="N6" s="64">
+      <c r="N6" s="66">
         <v>18376.321633946478</v>
       </c>
-      <c r="O6" s="65" t="s">
+      <c r="O6" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="61">
+      <c r="A7" s="63">
         <v>44013.0</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="64">
         <v>1900.0</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="64">
         <v>1900.0</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="64">
         <v>0.0</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="64">
         <v>10150.0</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="65">
         <v>0.01670595001387467</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="65">
         <v>0.6543313274222282</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="65">
         <v>0.25328954609892707</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="64">
         <v>344.36476283245065</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="64">
         <v>10647.923393851015</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" s="64">
         <v>-159.74157318709607</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="64">
         <v>10543.072916666655</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="64">
         <v>20957.664967038112</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="66">
         <v>20797.923393851015</v>
       </c>
-      <c r="O7" s="65" t="s">
+      <c r="O7" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="61">
+      <c r="A8" s="63">
         <v>43983.0</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="64">
         <v>-300.0</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="64">
         <v>0.0</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="64">
         <v>-300.0</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="64">
         <v>10150.0</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="65">
         <v>-0.00659387295460559</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="65">
         <v>0.6376253774083536</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="65">
         <v>0.25505015096334144</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="64">
         <v>-138.8149729035831</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="64">
         <v>10322.49869297435</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="64">
         <v>-140.80151123131128</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L8" s="64">
         <v>10532.499999999989</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="64">
         <v>20613.30020420566</v>
       </c>
-      <c r="N8" s="64">
+      <c r="N8" s="66">
         <v>20472.49869297435</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="61">
+      <c r="A9" s="63">
         <v>43952.0</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="64">
         <v>-300.0</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="64">
         <v>0.0</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="64">
         <v>-300.0</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="64">
         <v>10450.0</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="65">
         <v>0.17167870410952307</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="65">
         <v>0.6442192503629591</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="65">
         <v>0.26657348290881067</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="64">
         <v>3128.591012831741</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="64">
         <v>10453.678842368237</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="64">
         <v>-148.43633474100835</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="64">
         <v>10821.614583333323</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="64">
         <v>21052.115177109245</v>
       </c>
-      <c r="N9" s="64">
+      <c r="N9" s="66">
         <v>20903.678842368237</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="O9" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="61">
+      <c r="A10" s="63">
         <v>43922.0</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="64">
         <v>-300.0</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="64">
         <v>0.0</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="64">
         <v>-300.0</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="64">
         <v>10750.0</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="65">
         <v>-0.09031985768405248</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="65">
         <v>0.4725405462534361</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="65">
         <v>0.20251737696575833</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="64">
         <v>-1839.1542131119495</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="64">
         <v>7497.160335242243</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="64">
         <v>23.63617096473739</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="64">
         <v>11110.416666666657</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="64">
         <v>18223.524164277504</v>
       </c>
-      <c r="N10" s="64">
+      <c r="N10" s="66">
         <v>18247.160335242243</v>
       </c>
-      <c r="O10" s="65" t="s">
+      <c r="O10" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="61">
+      <c r="A11" s="63">
         <v>43891.0</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="64">
         <v>-300.0</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="64">
         <v>0.0</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="64">
         <v>-300.0</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="64">
         <v>11050.0</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="65">
         <v>-6.988944889106389E-4</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="65">
         <v>0.5628604039374886</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="65">
         <v>0.2501601795277727</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="64">
         <v>-14.451131860507303</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="64">
         <v>9235.161066633034</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="64">
         <v>-77.51731075641983</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="64">
         <v>11398.90624999999</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="64">
         <v>20362.678377389453</v>
       </c>
-      <c r="N11" s="64">
+      <c r="N11" s="66">
         <v>20285.161066633034</v>
       </c>
-      <c r="O11" s="65" t="s">
+      <c r="O11" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="61">
+      <c r="A12" s="63">
         <v>43862.0</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="64">
         <v>0.0</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="64">
         <v>0.0</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="64">
         <v>0.0</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="64">
         <v>11350.0</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="65">
         <v>-0.013571483773815925</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="65">
         <v>0.5635592984263992</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="65">
         <v>0.260104291581415</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="64">
         <v>-284.48014529978536</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="64">
         <v>9248.817386241211</v>
       </c>
-      <c r="K12" s="62">
+      <c r="K12" s="64">
         <v>-78.31212300874773</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="64">
         <v>11687.083333333325</v>
       </c>
-      <c r="M12" s="62">
+      <c r="M12" s="64">
         <v>20677.12950924996</v>
       </c>
-      <c r="N12" s="64">
+      <c r="N12" s="66">
         <v>20598.81738624121</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="61">
+      <c r="A13" s="63">
         <v>43831.0</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="64">
         <v>0.0</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="64">
         <v>11350.0</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="65">
         <v>0.06953970791992178</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="65">
         <v>0.5771307822002151</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="65">
         <v>0.27702277545610327</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="64">
         <v>1427.907640567064</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="64">
         <v>9082.971123549509</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="64">
         <v>-528.638531000236</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="64">
         <v>11675.260416666659</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="64">
         <v>20961.609654549746</v>
       </c>
-      <c r="N13" s="64">
+      <c r="N13" s="66">
         <v>20432.97112354951</v>
       </c>
-      <c r="O13" s="65" t="s">
+      <c r="O13" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="61">
+      <c r="A14" s="63">
         <v>43800.0</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="64">
         <v>-700.0</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="64">
         <v>0.0</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="64">
         <v>-700.0</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="64">
         <v>12350.0</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="65">
         <v>0.02764486097227171</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="65">
         <v>0.5075910742802933</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="65">
         <v>0.25379553714014663</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="64">
         <v>571.2116728222863</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="64">
         <v>7733.598403213633</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="64">
         <v>-450.10361076904746</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="64">
         <v>12662.395833333325</v>
       </c>
-      <c r="M14" s="62">
+      <c r="M14" s="64">
         <v>20533.702013982682</v>
       </c>
-      <c r="N14" s="64">
+      <c r="N14" s="66">
         <v>20083.598403213633</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="61">
+      <c r="A15" s="63">
         <v>43770.0</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="64">
         <v>-300.0</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="64">
         <v>0.0</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="64">
         <v>-300.0</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="64">
         <v>13050.0</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="65">
         <v>-0.031204251937763165</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="65">
         <v>0.4799462133080215</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="65">
         <v>0.25040671998679387</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="64">
         <v>-675.1875523368581</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="64">
         <v>7193.803372396575</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="64">
         <v>-418.6869687638217</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="64">
         <v>13348.802083333325</v>
       </c>
-      <c r="M15" s="62">
+      <c r="M15" s="64">
         <v>20662.490341160395</v>
       </c>
-      <c r="N15" s="64">
+      <c r="N15" s="66">
         <v>20243.803372396575</v>
       </c>
-      <c r="O15" s="65" t="s">
+      <c r="O15" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="61">
+      <c r="A16" s="63">
         <v>43739.0</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="64">
         <v>-150.0</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="64">
         <v>0.0</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="64">
         <v>-150.0</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="64">
         <v>13350.0</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="65">
         <v>-0.0017577640676155197</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="65">
         <v>0.5111504652457847</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="65">
         <v>0.2788093446795189</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="64">
         <v>-38.36503399618232</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="64">
         <v>7831.855609354905</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="64">
         <v>-455.8222841423489</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="64">
         <v>13634.895833333325</v>
       </c>
-      <c r="M16" s="62">
+      <c r="M16" s="64">
         <v>21637.677893497254</v>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="66">
         <v>21181.855609354905</v>
       </c>
-      <c r="O16" s="65" t="s">
+      <c r="O16" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="61">
+      <c r="A17" s="63">
         <v>43709.0</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="64">
         <v>0.0</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="64">
         <v>0.0</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="64">
         <v>0.0</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="64">
         <v>13500.0</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="65">
         <v>0.09663855056374034</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="65">
         <v>0.5129082293134002</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="65">
         <v>0.2930904167505144</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="64">
         <v>1923.3658637758672</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="64">
         <v>7868.110566481297</v>
       </c>
-      <c r="K17" s="62">
+      <c r="K17" s="64">
         <v>-457.9323610121389</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="64">
         <v>13770.833333333325</v>
       </c>
-      <c r="M17" s="62">
+      <c r="M17" s="64">
         <v>21826.042927493436</v>
       </c>
-      <c r="N17" s="64">
+      <c r="N17" s="66">
         <v>21368.110566481297</v>
       </c>
-      <c r="O17" s="65" t="s">
+      <c r="O17" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="61">
+      <c r="A18" s="63">
         <v>43678.0</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="64">
         <v>0.0</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="64">
         <v>13500.0</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="65">
         <v>0.07804921004485675</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="65">
         <v>0.4162696787496598</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="65">
         <v>0.2497618072497959</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="64">
         <v>1513.323712354486</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="64">
         <v>6050.529825213103</v>
       </c>
-      <c r="K18" s="62">
+      <c r="K18" s="64">
         <v>-352.14723850446626</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="64">
         <v>13756.770833333325</v>
       </c>
-      <c r="M18" s="62">
+      <c r="M18" s="64">
         <v>19902.67706371757</v>
       </c>
-      <c r="N18" s="64">
+      <c r="N18" s="66">
         <v>19550.529825213103</v>
       </c>
-      <c r="O18" s="65" t="s">
+      <c r="O18" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="61">
+      <c r="A19" s="63">
         <v>43647.0</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="64">
         <v>0.0</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="64">
         <v>0.0</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="64">
         <v>0.0</v>
       </c>
-      <c r="E19" s="62">
+      <c r="E19" s="64">
         <v>14500.0</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="65">
         <v>0.05571063566313939</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="65">
         <v>0.33822046870480305</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="65">
         <v>0.21361292760303352</v>
       </c>
-      <c r="I19" s="62">
+      <c r="I19" s="64">
         <v>1023.1906014882006</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="64">
         <v>4620.438917038115</v>
       </c>
-      <c r="K19" s="62">
+      <c r="K19" s="64">
         <v>-268.91443432496953</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="64">
         <v>14741.666666666659</v>
       </c>
-      <c r="M19" s="62">
+      <c r="M19" s="64">
         <v>19389.353351363083</v>
       </c>
-      <c r="N19" s="64">
+      <c r="N19" s="66">
         <v>19120.438917038115</v>
       </c>
-      <c r="O19" s="65" t="s">
+      <c r="O19" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="61">
+      <c r="A20" s="63">
         <v>43617.0</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="64">
         <v>0.0</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="64">
         <v>0.0</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="64">
         <v>0.0</v>
       </c>
-      <c r="E20" s="62">
+      <c r="E20" s="64">
         <v>14500.0</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="65">
         <v>0.03999771844904346</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="65">
         <v>0.28250983304166366</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="65">
         <v>0.18833988869444246</v>
       </c>
-      <c r="I20" s="62">
+      <c r="I20" s="64">
         <v>706.3521329203759</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="64">
         <v>3653.5237986317625</v>
       </c>
-      <c r="K20" s="62">
+      <c r="K20" s="64">
         <v>-212.63895124311853</v>
       </c>
-      <c r="L20" s="62">
+      <c r="L20" s="64">
         <v>14726.562499999993</v>
       </c>
-      <c r="M20" s="62">
+      <c r="M20" s="64">
         <v>18366.162749874882</v>
       </c>
-      <c r="N20" s="64">
+      <c r="N20" s="66">
         <v>18153.523798631762</v>
       </c>
-      <c r="O20" s="65" t="s">
+      <c r="O20" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="61">
+      <c r="A21" s="63">
         <v>43586.0</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="64">
         <v>-500.0</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="64">
         <v>0.0</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="64">
         <v>-500.0</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="64">
         <v>14500.0</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="65">
         <v>0.026231385182183264</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="65">
         <v>0.24251211459262018</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="65">
         <v>0.17118502206537894</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="64">
         <v>464.18087967975225</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="64">
         <v>2986.021033022007</v>
       </c>
-      <c r="K21" s="62">
+      <c r="K21" s="64">
         <v>-173.78958393249786</v>
       </c>
-      <c r="L21" s="62">
+      <c r="L21" s="64">
         <v>14711.458333333327</v>
       </c>
-      <c r="M21" s="62">
+      <c r="M21" s="64">
         <v>17659.810616954506</v>
       </c>
-      <c r="N21" s="64">
+      <c r="N21" s="66">
         <v>17486.021033022007</v>
       </c>
-      <c r="O21" s="65" t="s">
+      <c r="O21" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="61">
+      <c r="A22" s="63">
         <v>43556.0</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B22" s="64">
         <v>0.0</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="64">
         <v>0.0</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="64">
         <v>0.0</v>
       </c>
-      <c r="E22" s="62">
+      <c r="E22" s="64">
         <v>15000.0</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="65">
         <v>0.10199738482836891</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="65">
         <v>0.2162807294104369</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="65">
         <v>0.16221054705782767</v>
       </c>
-      <c r="I22" s="62">
+      <c r="I22" s="64">
         <v>1637.8513968744555</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="64">
         <v>2547.370101724642</v>
       </c>
-      <c r="K22" s="62">
+      <c r="K22" s="64">
         <v>-148.25963555011148</v>
       </c>
-      <c r="L22" s="62">
+      <c r="L22" s="64">
         <v>15195.833333333327</v>
       </c>
-      <c r="M22" s="62">
+      <c r="M22" s="64">
         <v>17695.629737274754</v>
       </c>
-      <c r="N22" s="64">
+      <c r="N22" s="66">
         <v>17547.370101724642</v>
       </c>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="61">
+      <c r="A23" s="63">
         <v>43525.0</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="64">
         <v>0.0</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="64">
         <v>0.0</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="64">
         <v>0.0</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="64">
         <v>15000.0</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="65">
         <v>0.03449682927674902</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="65">
         <v>0.11428334458206801</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="65">
         <v>0.09142667566565442</v>
       </c>
-      <c r="I23" s="62">
+      <c r="I23" s="64">
         <v>535.4704067676521</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="64">
         <v>999.6005316782812</v>
       </c>
-      <c r="K23" s="62">
+      <c r="K23" s="64">
         <v>-58.17780872201642</v>
       </c>
-      <c r="L23" s="62">
+      <c r="L23" s="64">
         <v>15180.208333333327</v>
       </c>
-      <c r="M23" s="62">
+      <c r="M23" s="64">
         <v>16057.778340400298</v>
       </c>
-      <c r="N23" s="64">
+      <c r="N23" s="66">
         <v>15999.600531678281</v>
       </c>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="61">
+      <c r="A24" s="63">
         <v>43497.0</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="64">
         <v>0.0</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="64">
         <v>0.0</v>
       </c>
-      <c r="D24" s="62">
+      <c r="D24" s="64">
         <v>0.0</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="64">
         <v>15000.0</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="65">
         <v>0.04107233145116107</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="65">
         <v>0.079786515305319</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="65">
         <v>0.06838844169027342</v>
       </c>
-      <c r="I24" s="62">
+      <c r="I24" s="64">
         <v>373.3496002993197</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="64">
         <v>493.58099728285015</v>
       </c>
-      <c r="K24" s="62">
+      <c r="K24" s="64">
         <v>-28.726936349795555</v>
       </c>
-      <c r="L24" s="62">
+      <c r="L24" s="64">
         <v>15164.583333333327</v>
       </c>
-      <c r="M24" s="62">
+      <c r="M24" s="64">
         <v>15522.307933632646</v>
       </c>
-      <c r="N24" s="64">
+      <c r="N24" s="66">
         <v>15493.58099728285</v>
       </c>
-      <c r="O24" s="65" t="s">
+      <c r="O24" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="61">
+      <c r="A25" s="63">
         <v>43466.0</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="64">
         <v>0.0</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="64">
         <v>-1000.0</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="64">
         <v>15000.0</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="65">
         <v>-0.024314741161841652</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="65">
         <v>0.038714183854157924</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="65">
         <v>0.035736169711530395</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="64">
         <v>-157.4504235641234</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="64">
         <v>140.76562499999454</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K25" s="64">
         <v>-8.19270833333297</v>
       </c>
-      <c r="L25" s="62">
+      <c r="L25" s="64">
         <v>15148.958333333327</v>
       </c>
-      <c r="M25" s="62">
+      <c r="M25" s="64">
         <v>14909.9226486943</v>
       </c>
-      <c r="N25" s="64">
+      <c r="N25" s="66">
         <v>15140.765624999995</v>
       </c>
-      <c r="O25" s="65" t="s">
+      <c r="O25" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="61">
+      <c r="A26" s="63">
         <v>43435.0</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="64">
         <v>6000.0</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="64">
         <v>0.0</v>
       </c>
-      <c r="D26" s="62">
+      <c r="D26" s="64">
         <v>6000.0</v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="64">
         <v>16000.0</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="65">
         <v>0.059176449934818486</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="65">
         <v>0.06302892501599958</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="65">
         <v>0.06302892501599958</v>
       </c>
-      <c r="I26" s="62">
+      <c r="I26" s="64">
         <v>191.8254235641234</v>
       </c>
-      <c r="J26" s="62">
+      <c r="J26" s="64">
         <v>289.55627526809076</v>
       </c>
-      <c r="K26" s="62">
+      <c r="K26" s="64">
         <v>-16.852481629359758</v>
       </c>
-      <c r="L26" s="62">
+      <c r="L26" s="64">
         <v>16132.29166666666</v>
       </c>
-      <c r="M26" s="62">
+      <c r="M26" s="64">
         <v>16306.40875689745</v>
       </c>
-      <c r="N26" s="64">
+      <c r="N26" s="66">
         <v>16289.55627526809</v>
       </c>
-      <c r="O26" s="65" t="s">
+      <c r="O26" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="61">
+      <c r="A27" s="63">
         <v>43405.0</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="64">
         <v>7000.0</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="64">
         <v>7000.0</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="64">
         <v>0.0</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="65">
         <v>-0.06412073646906129</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="65">
         <v>0.0038524750811810976</v>
       </c>
-      <c r="H27" s="63">
+      <c r="H27" s="65">
         <v>0.004202700088561198</v>
       </c>
-      <c r="I27" s="62">
+      <c r="I27" s="64">
         <v>-275.32832818211136</v>
       </c>
-      <c r="J27" s="62">
+      <c r="J27" s="64">
         <v>108.28124999999454</v>
       </c>
-      <c r="K27" s="62">
+      <c r="K27" s="64">
         <v>-6.302083333332968</v>
       </c>
-      <c r="L27" s="62">
+      <c r="L27" s="64">
         <v>10114.583333333327</v>
       </c>
-      <c r="M27" s="62">
+      <c r="M27" s="64">
         <v>9723.70287393058</v>
       </c>
-      <c r="N27" s="64">
+      <c r="N27" s="66">
         <v>10108.281249999995</v>
       </c>
-      <c r="O27" s="65" t="s">
+      <c r="O27" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="61">
+      <c r="A28" s="63">
         <v>43374.0</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="64">
         <v>0.0</v>
       </c>
-      <c r="C28" s="62">
+      <c r="C28" s="64">
         <v>0.0</v>
       </c>
-      <c r="D28" s="62">
+      <c r="D28" s="64">
         <v>0.0</v>
       </c>
-      <c r="E28" s="62">
+      <c r="E28" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="65">
         <v>-0.028896114427261484</v>
       </c>
-      <c r="G28" s="63">
+      <c r="G28" s="65">
         <v>0.06797321155024239</v>
       </c>
-      <c r="H28" s="63">
+      <c r="H28" s="65">
         <v>0.08156785386029086</v>
       </c>
-      <c r="I28" s="62">
+      <c r="I28" s="64">
         <v>-309.16164657627814</v>
       </c>
-      <c r="J28" s="62">
+      <c r="J28" s="64">
         <v>368.4665201320895</v>
       </c>
-      <c r="K28" s="62">
+      <c r="K28" s="64">
         <v>-21.445141383349092</v>
       </c>
-      <c r="L28" s="62">
+      <c r="L28" s="64">
         <v>10104.16666666666</v>
       </c>
-      <c r="M28" s="62">
+      <c r="M28" s="64">
         <v>10389.911661515438</v>
       </c>
-      <c r="N28" s="64">
+      <c r="N28" s="66">
         <v>10368.46652013209</v>
       </c>
-      <c r="O28" s="65" t="s">
+      <c r="O28" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="61">
+      <c r="A29" s="63">
         <v>43344.0</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="64">
         <v>0.0</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="64">
         <v>0.0</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="64">
         <v>0.0</v>
       </c>
-      <c r="E29" s="62">
+      <c r="E29" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="65">
         <v>0.08865378226331043</v>
       </c>
-      <c r="G29" s="63">
+      <c r="G29" s="65">
         <v>0.09686932597750388</v>
       </c>
-      <c r="H29" s="63">
+      <c r="H29" s="65">
         <v>0.1291591013033385</v>
       </c>
-      <c r="I29" s="62">
+      <c r="I29" s="64">
         <v>615.7399747583877</v>
       </c>
-      <c r="J29" s="62">
+      <c r="J29" s="64">
         <v>660.624276146671</v>
       </c>
-      <c r="K29" s="62">
+      <c r="K29" s="64">
         <v>-38.44903194504439</v>
       </c>
-      <c r="L29" s="62">
+      <c r="L29" s="64">
         <v>10093.749999999995</v>
       </c>
-      <c r="M29" s="62">
+      <c r="M29" s="64">
         <v>10699.073308091716</v>
       </c>
-      <c r="N29" s="64">
+      <c r="N29" s="66">
         <v>10660.624276146671</v>
       </c>
-      <c r="O29" s="65" t="s">
+      <c r="O29" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="61">
+      <c r="A30" s="63">
         <v>43313.0</v>
       </c>
-      <c r="B30" s="62">
+      <c r="B30" s="64">
         <v>0.0</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="64">
         <v>0.0</v>
       </c>
-      <c r="D30" s="62">
+      <c r="D30" s="64">
         <v>0.0</v>
       </c>
-      <c r="E30" s="62">
+      <c r="E30" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="65">
         <v>-0.02448824447309521</v>
       </c>
-      <c r="G30" s="63">
+      <c r="G30" s="65">
         <v>0.00821554371419345</v>
       </c>
-      <c r="H30" s="63">
+      <c r="H30" s="65">
         <v>0.012323315571290175</v>
       </c>
-      <c r="I30" s="62">
+      <c r="I30" s="64">
         <v>8.824773747366635</v>
       </c>
-      <c r="J30" s="62">
+      <c r="J30" s="64">
         <v>78.74999999999454</v>
       </c>
-      <c r="K30" s="62">
+      <c r="K30" s="64">
         <v>-4.583333333333067</v>
       </c>
-      <c r="L30" s="62">
+      <c r="L30" s="64">
         <v>10083.333333333328</v>
       </c>
-      <c r="M30" s="62">
+      <c r="M30" s="64">
         <v>9827.80153103253</v>
       </c>
-      <c r="N30" s="64">
+      <c r="N30" s="66">
         <v>10078.749999999995</v>
       </c>
-      <c r="O30" s="65" t="s">
+      <c r="O30" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="61">
+      <c r="A31" s="63">
         <v>43282.0</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="64">
         <v>0.0</v>
       </c>
-      <c r="C31" s="62">
+      <c r="C31" s="64">
         <v>0.0</v>
       </c>
-      <c r="D31" s="62">
+      <c r="D31" s="64">
         <v>0.0</v>
       </c>
-      <c r="E31" s="62">
+      <c r="E31" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="65">
         <v>0.010858996309905966</v>
       </c>
-      <c r="G31" s="63">
+      <c r="G31" s="65">
         <v>0.03270378818728866</v>
       </c>
-      <c r="H31" s="63">
+      <c r="H31" s="65">
         <v>0.056063636892494856</v>
       </c>
-      <c r="I31" s="62">
+      <c r="I31" s="64">
         <v>12.008559585965486</v>
       </c>
-      <c r="J31" s="62">
+      <c r="J31" s="64">
         <v>70.41058880873425</v>
       </c>
-      <c r="K31" s="62">
+      <c r="K31" s="64">
         <v>-4.097970777227902</v>
       </c>
-      <c r="L31" s="62">
+      <c r="L31" s="64">
         <v>10072.916666666662</v>
       </c>
-      <c r="M31" s="62">
+      <c r="M31" s="64">
         <v>10074.508559585962</v>
       </c>
-      <c r="N31" s="64">
+      <c r="N31" s="66">
         <v>10070.410588808734</v>
       </c>
-      <c r="O31" s="65" t="s">
+      <c r="O31" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="61">
+      <c r="A32" s="63">
         <v>43252.0</v>
       </c>
-      <c r="B32" s="62">
+      <c r="B32" s="64">
         <v>0.0</v>
       </c>
-      <c r="C32" s="62">
+      <c r="C32" s="64">
         <v>0.0</v>
       </c>
-      <c r="D32" s="62">
+      <c r="D32" s="64">
         <v>0.0</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="65">
         <v>0.12647428034130279</v>
       </c>
-      <c r="G32" s="63">
+      <c r="G32" s="65">
         <v>0.021844791877382697</v>
       </c>
-      <c r="H32" s="63">
+      <c r="H32" s="65">
         <v>0.04368958375476539</v>
       </c>
-      <c r="I32" s="62">
+      <c r="I32" s="64">
         <v>10.41666666666606</v>
       </c>
-      <c r="J32" s="62">
+      <c r="J32" s="64">
         <v>59.06249999999636</v>
       </c>
-      <c r="K32" s="62">
+      <c r="K32" s="64">
         <v>-3.4374999999997997</v>
       </c>
-      <c r="L32" s="62">
+      <c r="L32" s="64">
         <v>10062.499999999996</v>
       </c>
-      <c r="M32" s="62">
+      <c r="M32" s="64">
         <v>9966.284710689117</v>
       </c>
-      <c r="N32" s="64">
+      <c r="N32" s="66">
         <v>10059.062499999996</v>
       </c>
-      <c r="O32" s="65" t="s">
+      <c r="O32" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="61">
+      <c r="A33" s="63">
         <v>43221.0</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="64">
         <v>0.0</v>
       </c>
-      <c r="C33" s="62">
+      <c r="C33" s="64">
         <v>0.0</v>
       </c>
-      <c r="D33" s="62">
+      <c r="D33" s="64">
         <v>0.0</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F33" s="63">
+      <c r="F33" s="65">
         <v>0.07661146740532812</v>
       </c>
-      <c r="G33" s="63">
+      <c r="G33" s="65">
         <v>-0.10462948846392009</v>
       </c>
-      <c r="H33" s="63">
+      <c r="H33" s="65">
         <v>-0.25111077231340817</v>
       </c>
-      <c r="I33" s="62">
+      <c r="I33" s="64">
         <v>10.41666666666606</v>
       </c>
-      <c r="J33" s="62">
+      <c r="J33" s="64">
         <v>49.21874999999636</v>
       </c>
-      <c r="K33" s="62">
+      <c r="K33" s="64">
         <v>-2.8645833333331665</v>
       </c>
-      <c r="L33" s="62">
+      <c r="L33" s="64">
         <v>10052.08333333333</v>
       </c>
-      <c r="M33" s="62">
+      <c r="M33" s="64">
         <v>8847.325575573283</v>
       </c>
-      <c r="N33" s="64">
+      <c r="N33" s="66">
         <v>10049.218749999996</v>
       </c>
-      <c r="O33" s="65" t="s">
+      <c r="O33" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="61">
+      <c r="A34" s="63">
         <v>43191.0</v>
       </c>
-      <c r="B34" s="62">
+      <c r="B34" s="64">
         <v>0.0</v>
       </c>
-      <c r="C34" s="62">
+      <c r="C34" s="64">
         <v>0.0</v>
       </c>
-      <c r="D34" s="62">
+      <c r="D34" s="64">
         <v>0.0</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="65">
         <v>-0.0394470506102503</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="65">
         <v>-0.1812409558692482</v>
       </c>
-      <c r="H34" s="63">
+      <c r="H34" s="65">
         <v>-0.5437228676077446</v>
       </c>
-      <c r="I34" s="62">
+      <c r="I34" s="64">
         <v>10.41666666666606</v>
       </c>
-      <c r="J34" s="62">
+      <c r="J34" s="64">
         <v>39.37499999999818</v>
       </c>
-      <c r="K34" s="62">
+      <c r="K34" s="64">
         <v>-2.2916666666665333</v>
       </c>
-      <c r="L34" s="62">
+      <c r="L34" s="64">
         <v>10041.666666666664</v>
       </c>
-      <c r="M34" s="62">
+      <c r="M34" s="64">
         <v>8217.751569092656</v>
       </c>
-      <c r="N34" s="64">
+      <c r="N34" s="66">
         <v>10039.374999999998</v>
       </c>
-      <c r="O34" s="65" t="s">
+      <c r="O34" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="61">
+      <c r="A35" s="63">
         <v>43160.0</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="64">
         <v>0.0</v>
       </c>
-      <c r="C35" s="62">
+      <c r="C35" s="64">
         <v>0.0</v>
       </c>
-      <c r="D35" s="62">
+      <c r="D35" s="64">
         <v>0.0</v>
       </c>
-      <c r="E35" s="62">
+      <c r="E35" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="65">
         <v>-0.052153074609364886</v>
       </c>
-      <c r="G35" s="63">
+      <c r="G35" s="65">
         <v>-0.1417939052589979</v>
       </c>
-      <c r="H35" s="63">
+      <c r="H35" s="65">
         <v>-0.5671756210359916</v>
       </c>
-      <c r="I35" s="62">
+      <c r="I35" s="64">
         <v>10.41666666666606</v>
       </c>
-      <c r="J35" s="62">
+      <c r="J35" s="64">
         <v>29.53124999999818</v>
       </c>
-      <c r="K35" s="62">
+      <c r="K35" s="64">
         <v>-1.7187499999999</v>
       </c>
-      <c r="L35" s="62">
+      <c r="L35" s="64">
         <v>10031.249999999998</v>
       </c>
-      <c r="M35" s="62">
+      <c r="M35" s="64">
         <v>8555.230166450989</v>
       </c>
-      <c r="N35" s="64">
+      <c r="N35" s="66">
         <v>10029.531249999998</v>
       </c>
-      <c r="O35" s="65" t="s">
+      <c r="O35" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="61">
+      <c r="A36" s="63">
         <v>43132.0</v>
       </c>
-      <c r="B36" s="62">
+      <c r="B36" s="64">
         <v>0.0</v>
       </c>
-      <c r="C36" s="62">
+      <c r="C36" s="64">
         <v>0.0</v>
       </c>
-      <c r="D36" s="62">
+      <c r="D36" s="64">
         <v>0.0</v>
       </c>
-      <c r="E36" s="62">
+      <c r="E36" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F36" s="63">
+      <c r="F36" s="65">
         <v>-0.09834304329279307</v>
       </c>
-      <c r="G36" s="63">
+      <c r="G36" s="65">
         <v>-0.08964083064963302</v>
       </c>
-      <c r="H36" s="63">
+      <c r="H36" s="65">
         <v>-0.5378449838977981</v>
       </c>
-      <c r="I36" s="62">
+      <c r="I36" s="64">
         <v>10.41666666666606</v>
       </c>
-      <c r="J36" s="62">
+      <c r="J36" s="64">
         <v>19.68749999999818</v>
       </c>
-      <c r="K36" s="62">
+      <c r="K36" s="64">
         <v>-1.1458333333332666</v>
       </c>
-      <c r="L36" s="62">
+      <c r="L36" s="64">
         <v>10020.833333333332</v>
       </c>
-      <c r="M36" s="62">
+      <c r="M36" s="64">
         <v>9025.961827037769</v>
       </c>
-      <c r="N36" s="64">
+      <c r="N36" s="66">
         <v>10019.687499999998</v>
       </c>
-      <c r="O36" s="65" t="s">
+      <c r="O36" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="61">
+      <c r="A37" s="63">
         <v>43101.0</v>
       </c>
-      <c r="B37" s="62">
+      <c r="B37" s="64">
         <v>10000.0</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="64">
         <v>0.0</v>
       </c>
-      <c r="D37" s="62">
+      <c r="D37" s="64">
         <v>10000.0</v>
       </c>
-      <c r="E37" s="62">
+      <c r="E37" s="64">
         <v>10000.0</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="65">
         <v>0.008702212643160052</v>
       </c>
-      <c r="G37" s="63">
+      <c r="G37" s="65">
         <v>0.008702212643160052</v>
       </c>
-      <c r="H37" s="63">
+      <c r="H37" s="65">
         <v>0.10442655171792062</v>
       </c>
-      <c r="I37" s="62">
+      <c r="I37" s="64">
         <v>10.41666666666606</v>
       </c>
-      <c r="J37" s="62">
+      <c r="J37" s="64">
         <v>9.84375</v>
       </c>
-      <c r="K37" s="62">
+      <c r="K37" s="64">
         <v>-0.5729166666666333</v>
       </c>
-      <c r="L37" s="62">
+      <c r="L37" s="64">
         <v>10010.416666666666</v>
       </c>
-      <c r="M37" s="62">
+      <c r="M37" s="64">
         <v>10010.416666666666</v>
       </c>
-      <c r="N37" s="64">
+      <c r="N37" s="66">
         <v>10009.84375</v>
       </c>
-      <c r="O37" s="65" t="s">
+      <c r="O37" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="61">
+      <c r="A38" s="63">
         <v>43070.0</v>
       </c>
-      <c r="B38" s="62">
+      <c r="B38" s="64">
         <v>10000.0</v>
       </c>
-      <c r="C38" s="62">
+      <c r="C38" s="64">
         <v>10000.0</v>
       </c>
-      <c r="D38" s="62">
+      <c r="D38" s="64">
         <v>0.0</v>
       </c>
-      <c r="E38" s="62">
+      <c r="E38" s="64">
         <v>0.0</v>
       </c>
-      <c r="F38" s="63">
+      <c r="F38" s="65">
         <v>0.0</v>
       </c>
-      <c r="G38" s="63">
+      <c r="G38" s="65">
         <v>0.0</v>
       </c>
-      <c r="H38" s="63">
+      <c r="H38" s="65">
         <v>0.0</v>
       </c>
-      <c r="I38" s="62">
+      <c r="I38" s="64">
         <v>0.0</v>
       </c>
-      <c r="J38" s="62">
+      <c r="J38" s="64">
         <v>0.0</v>
       </c>
-      <c r="K38" s="62">
+      <c r="K38" s="64">
         <v>0.0</v>
       </c>
-      <c r="L38" s="62">
+      <c r="L38" s="64">
         <v>0.0</v>
       </c>
-      <c r="M38" s="62">
+      <c r="M38" s="64">
         <v>0.0</v>
       </c>
-      <c r="N38" s="64">
+      <c r="N38" s="66">
         <v>0.0</v>
       </c>
-      <c r="O38" s="65" t="s">
+      <c r="O38" s="67" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Data/FiMs Associate.xlsx
+++ b/Data/FiMs Associate.xlsx
@@ -2077,7 +2077,7 @@
     <numFmt numFmtId="172" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="173" formatCode="#,##0.00##\ [$€-1]"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2130,7 +2130,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
       <color theme="1"/>
@@ -2185,7 +2184,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2314,12 +2313,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
@@ -2344,10 +2337,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2632,7 +2625,7 @@
       </c>
       <c r="B1" s="2">
         <f>NOW()</f>
-        <v>44185.14635</v>
+        <v>44186.76961</v>
       </c>
     </row>
     <row r="2">
@@ -2641,7 +2634,7 @@
       </c>
       <c r="B2" s="3">
         <f>DATEVALUE($B$1)</f>
-        <v>44185</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="3">
@@ -2650,7 +2643,7 @@
       </c>
       <c r="B3" s="4">
         <f>TIMEVALUE($B$1)</f>
-        <v>0.1463425926</v>
+        <v>0.7696064815</v>
       </c>
     </row>
     <row r="4">
@@ -2677,7 +2670,7 @@
       </c>
       <c r="B6" s="5">
         <f>DAY($B$1)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -2686,7 +2679,7 @@
       </c>
       <c r="B7" s="5">
         <f>WEEKDAY($B$1,2)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2764,1102 +2757,1102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="60" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="63">
+      <c r="A2" s="61">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="62">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>300</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="62">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="62">
         <f t="shared" ref="D2:D18" si="1">$B2-$C2</f>
         <v>300</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="62">
         <f t="shared" ref="E2:E18" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>600</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="63">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="63">
         <f t="shared" ref="G2:G18" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.319813211</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="63">
         <f t="shared" ref="H2:H18" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A18)*12,0)</f>
         <v>0.2398599083</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="62">
         <f t="shared" ref="I2:I18" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I18)</f>
         <v>11.04684281</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="62">
         <f t="shared" ref="J2:J18" si="6">$N2-$E2</f>
         <v>38.2175457</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="62">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.224301602</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="62">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>603.0208333</v>
       </c>
-      <c r="M2" s="64">
+      <c r="M2" s="62">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>640.4418473</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="64">
         <f t="shared" ref="N2:N18" si="7">MAX($M2,$L2)+$K2</f>
         <v>638.2175457</v>
       </c>
-      <c r="O2" s="67" t="str">
+      <c r="O2" s="65" t="str">
         <f t="shared" ref="O2:O18" si="8">IF(ROW()=2,"Paclone",INDEX(O:O,ROW()-1))</f>
         <v>Paclone</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="63">
+      <c r="A3" s="61">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="62">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>200</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="62">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>200</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="62">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="63">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="63">
         <f t="shared" si="3"/>
         <v>0.2869089188</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="63">
         <f t="shared" si="4"/>
         <v>0.229527135</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="62">
         <f t="shared" si="5"/>
         <v>-5.503327796</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="62">
         <f t="shared" si="6"/>
         <v>27.77827925</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="62">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.616725247</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="62">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>302.5</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="62">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>329.3950045</v>
       </c>
-      <c r="N3" s="66">
+      <c r="N3" s="64">
         <f t="shared" si="7"/>
         <v>327.7782792</v>
       </c>
-      <c r="O3" s="67" t="str">
+      <c r="O3" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="63">
+      <c r="A4" s="61">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="62">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="62">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="62">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="62">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="63">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>-0.003035883482</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="63">
         <f t="shared" si="3"/>
         <v>0.3033417501</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="63">
         <f t="shared" si="4"/>
         <v>0.2600072144</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="62">
         <f t="shared" si="5"/>
         <v>-0.7152955209</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="62">
         <f t="shared" si="6"/>
         <v>32.97892401</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="62">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.919408276</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="62">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>302.1875</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="62">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>334.8983323</v>
       </c>
-      <c r="N4" s="66">
+      <c r="N4" s="64">
         <f t="shared" si="7"/>
         <v>332.978924</v>
       </c>
-      <c r="O4" s="67" t="str">
+      <c r="O4" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="63">
+      <c r="A5" s="61">
         <f t="array" ref="A5">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44075</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="62">
         <f t="array" ref="B5">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A5,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A5,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="62">
         <f>MAX($B5+IF($B5&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A5,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A5),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="62">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="63">
         <f t="array" ref="F5">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A5),0)</f>
         <v>0.06950114423</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="63">
         <f t="shared" si="3"/>
         <v>0.3063776336</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="63">
         <f t="shared" si="4"/>
         <v>0.2828101233</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="62">
         <f t="shared" si="5"/>
         <v>15.31126621</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="62">
         <f t="shared" si="6"/>
         <v>33.65487828</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="62">
         <f t="array" ref="K5">-$I5*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A5,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A5,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.95874953</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="62">
         <f t="array" ref="L5">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D5+INDEX($L:$L,ROW()+1)</f>
         <v>201.9791667</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="62">
         <f t="array" ref="M5">INDEX($M:$M,ROW()+1)+$D5+INDEX($M:$M,ROW()+1)*$F5+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>235.6136278</v>
       </c>
-      <c r="N5" s="66">
+      <c r="N5" s="64">
         <f t="shared" si="7"/>
         <v>233.6548783</v>
       </c>
-      <c r="O5" s="67" t="str">
+      <c r="O5" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="63">
+      <c r="A6" s="61">
         <f t="array" ref="A6">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44044</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="62">
         <f t="array" ref="B6">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A6,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A6,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="62">
         <f>MAX($B6+IF($B6&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A6,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A6),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="62">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="63">
         <f t="array" ref="F6">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A6),0)</f>
         <v>-0.001185159315</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="63">
         <f t="shared" si="3"/>
         <v>0.2368764894</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="63">
         <f t="shared" si="4"/>
         <v>0.2368764894</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="62">
         <f t="shared" si="5"/>
         <v>-0.2614032004</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="62">
         <f t="shared" si="6"/>
         <v>19.18573171</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="62">
         <f t="array" ref="K6">-$I6*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A6,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A6,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.116629888</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="62">
         <f t="array" ref="L6">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D6+INDEX($L:$L,ROW()+1)</f>
         <v>201.7708333</v>
       </c>
-      <c r="M6" s="64">
+      <c r="M6" s="62">
         <f t="array" ref="M6">INDEX($M:$M,ROW()+1)+$D6+INDEX($M:$M,ROW()+1)*$F6+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.3023616</v>
       </c>
-      <c r="N6" s="66">
+      <c r="N6" s="64">
         <f t="shared" si="7"/>
         <v>219.1857317</v>
       </c>
-      <c r="O6" s="67" t="str">
+      <c r="O6" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="63">
+      <c r="A7" s="61">
         <f t="array" ref="A7">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44013</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="62">
         <f t="array" ref="B7">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A7,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A7,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="62">
         <f>MAX($B7+IF($B7&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A7,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A7),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="62">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="63">
         <f t="array" ref="F7">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A7),0)</f>
         <v>0.01670595001</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="63">
         <f t="shared" si="3"/>
         <v>0.2380616487</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="63">
         <f t="shared" si="4"/>
         <v>0.2597036167</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="62">
         <f t="shared" si="5"/>
         <v>3.624181829</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="62">
         <f t="shared" si="6"/>
         <v>19.43275774</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="62">
         <f t="array" ref="K7">-$I7*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A7,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A7,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.131007064</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="62">
         <f t="array" ref="L7">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D7+INDEX($L:$L,ROW()+1)</f>
         <v>201.5625</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="62">
         <f t="array" ref="M7">INDEX($M:$M,ROW()+1)+$D7+INDEX($M:$M,ROW()+1)*$F7+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>220.5637648</v>
       </c>
-      <c r="N7" s="66">
+      <c r="N7" s="64">
         <f t="shared" si="7"/>
         <v>219.4327577</v>
       </c>
-      <c r="O7" s="67" t="str">
+      <c r="O7" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="63">
+      <c r="A8" s="61">
         <f t="array" ref="A8">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43983</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="62">
         <f t="array" ref="B8">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A8,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A8,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="62">
         <f>MAX($B8+IF($B8&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A8,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A8),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="62">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="63">
         <f t="array" ref="F8">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A8),0)</f>
         <v>-0.006593872955</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="63">
         <f t="shared" si="3"/>
         <v>0.2213556987</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="63">
         <f t="shared" si="4"/>
         <v>0.2656268384</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="62">
         <f t="shared" si="5"/>
         <v>-1.439967008</v>
       </c>
-      <c r="J8" s="64">
+      <c r="J8" s="62">
         <f t="shared" si="6"/>
         <v>16.00790591</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="62">
         <f t="array" ref="K8">-$I8*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A8,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A8,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.9316770635</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="62">
         <f t="array" ref="L8">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D8+INDEX($L:$L,ROW()+1)</f>
         <v>201.3541667</v>
       </c>
-      <c r="M8" s="64">
+      <c r="M8" s="62">
         <f t="array" ref="M8">INDEX($M:$M,ROW()+1)+$D8+INDEX($M:$M,ROW()+1)*$F8+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>216.939583</v>
       </c>
-      <c r="N8" s="66">
+      <c r="N8" s="64">
         <f t="shared" si="7"/>
         <v>216.0079059</v>
       </c>
-      <c r="O8" s="67" t="str">
+      <c r="O8" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="63">
+      <c r="A9" s="61">
         <f t="array" ref="A9">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43952</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="62">
         <f t="array" ref="B9">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A9,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A9,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="62">
         <f>MAX($B9+IF($B9&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A9,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A9),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="62">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="63">
         <f t="array" ref="F9">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A9),0)</f>
         <v>0.1716787041</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="63">
         <f t="shared" si="3"/>
         <v>0.2279495716</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="63">
         <f t="shared" si="4"/>
         <v>0.3039327622</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="62">
         <f t="shared" si="5"/>
         <v>17.44204998</v>
       </c>
-      <c r="J9" s="64">
+      <c r="J9" s="62">
         <f t="shared" si="6"/>
         <v>17.36867473</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="62">
         <f t="array" ref="K9">-$I9*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A9,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A9,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-1.010875249</v>
       </c>
-      <c r="L9" s="64">
+      <c r="L9" s="62">
         <f t="array" ref="L9">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D9+INDEX($L:$L,ROW()+1)</f>
         <v>201.1458333</v>
       </c>
-      <c r="M9" s="64">
+      <c r="M9" s="62">
         <f t="array" ref="M9">INDEX($M:$M,ROW()+1)+$D9+INDEX($M:$M,ROW()+1)*$F9+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>218.37955</v>
       </c>
-      <c r="N9" s="66">
+      <c r="N9" s="64">
         <f t="shared" si="7"/>
         <v>217.3686747</v>
       </c>
-      <c r="O9" s="67" t="str">
+      <c r="O9" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="63">
+      <c r="A10" s="61">
         <f t="array" ref="A10">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43922</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="62">
         <f t="array" ref="B10">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A10,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A10,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="62">
         <f>MAX($B10+IF($B10&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A10,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A10),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="62">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="63">
         <f t="array" ref="F10">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A10),0)</f>
         <v>-0.09031985768</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G10" s="63">
         <f t="shared" si="3"/>
         <v>0.0562708675</v>
       </c>
-      <c r="H10" s="65">
+      <c r="H10" s="63">
         <f t="shared" si="4"/>
         <v>0.08440630126</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="62">
         <f t="shared" si="5"/>
         <v>-3.949647339</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="62">
         <f t="shared" si="6"/>
         <v>0.8859375</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="62">
         <f t="array" ref="K10">-$I10*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A10,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A10,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0515625</v>
       </c>
-      <c r="L10" s="64">
+      <c r="L10" s="62">
         <f t="array" ref="L10">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D10+INDEX($L:$L,ROW()+1)</f>
         <v>200.9375</v>
       </c>
-      <c r="M10" s="64">
+      <c r="M10" s="62">
         <f t="array" ref="M10">INDEX($M:$M,ROW()+1)+$D10+INDEX($M:$M,ROW()+1)*$F10+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>186.3817694</v>
       </c>
-      <c r="N10" s="66">
+      <c r="N10" s="64">
         <f t="shared" si="7"/>
         <v>200.8859375</v>
       </c>
-      <c r="O10" s="67" t="str">
+      <c r="O10" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="63">
+      <c r="A11" s="61">
         <f t="array" ref="A11">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43891</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="62">
         <f t="array" ref="B11">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A11,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A11,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="62">
         <f>MAX($B11+IF($B11&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A11,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A11),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="62">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="62">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="63">
         <f t="array" ref="F11">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A11),0)</f>
         <v>-0.0006988944889</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="63">
         <f t="shared" si="3"/>
         <v>0.1465907252</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="63">
         <f t="shared" si="4"/>
         <v>0.251298386</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="62">
         <f t="shared" si="5"/>
         <v>-0.07335631756</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="62">
         <f t="shared" si="6"/>
         <v>4.618354235</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="62">
         <f t="array" ref="K11">-$I11*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A11,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A11,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2687931036</v>
       </c>
-      <c r="L11" s="64">
+      <c r="L11" s="62">
         <f t="array" ref="L11">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D11+INDEX($L:$L,ROW()+1)</f>
         <v>200.7291667</v>
       </c>
-      <c r="M11" s="64">
+      <c r="M11" s="62">
         <f t="array" ref="M11">INDEX($M:$M,ROW()+1)+$D11+INDEX($M:$M,ROW()+1)*$F11+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>204.8871473</v>
       </c>
-      <c r="N11" s="66">
+      <c r="N11" s="64">
         <f t="shared" si="7"/>
         <v>204.6183542</v>
       </c>
-      <c r="O11" s="67" t="str">
+      <c r="O11" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="63">
+      <c r="A12" s="61">
         <f t="array" ref="A12">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43862</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="62">
         <f t="array" ref="B12">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A12,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A12,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="62">
         <f>MAX($B12+IF($B12&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A12,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A12),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="62">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="63">
         <f t="array" ref="F12">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A12),0)</f>
         <v>-0.01357148377</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="63">
         <f t="shared" si="3"/>
         <v>0.1472896197</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="63">
         <f t="shared" si="4"/>
         <v>0.2945792394</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="62">
         <f t="shared" si="5"/>
         <v>-1.444067917</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="62">
         <f t="shared" si="6"/>
         <v>4.687675955</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="62">
         <f t="array" ref="K12">-$I12*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A12,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A12,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.2728277011</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="62">
         <f t="array" ref="L12">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D12+INDEX($L:$L,ROW()+1)</f>
         <v>100.625</v>
       </c>
-      <c r="M12" s="64">
+      <c r="M12" s="62">
         <f t="array" ref="M12">INDEX($M:$M,ROW()+1)+$D12+INDEX($M:$M,ROW()+1)*$F12+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>104.9605037</v>
       </c>
-      <c r="N12" s="66">
+      <c r="N12" s="64">
         <f t="shared" si="7"/>
         <v>104.687676</v>
       </c>
-      <c r="O12" s="67" t="str">
+      <c r="O12" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="63">
+      <c r="A13" s="61">
         <f t="array" ref="A13">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43831</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="62">
         <f t="array" ref="B13">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A13,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A13,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="62">
         <f>MAX($B13+IF($B13&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A13,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A13),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="62">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="63">
         <f t="array" ref="F13">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A13),0)</f>
         <v>0.06953970792</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="63">
         <f t="shared" si="3"/>
         <v>0.1608611035</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="63">
         <f t="shared" si="4"/>
         <v>0.3860666483</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="62">
         <f t="shared" si="5"/>
         <v>5.987904906</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="62">
         <f t="shared" si="6"/>
         <v>6.052320137</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="62">
         <f t="array" ref="K13">-$I13*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A13,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A13,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.3522514365</v>
       </c>
-      <c r="L13" s="64">
+      <c r="L13" s="62">
         <f t="array" ref="L13">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D13+INDEX($L:$L,ROW()+1)</f>
         <v>100.5208333</v>
       </c>
-      <c r="M13" s="64">
+      <c r="M13" s="62">
         <f t="array" ref="M13">INDEX($M:$M,ROW()+1)+$D13+INDEX($M:$M,ROW()+1)*$F13+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>106.4045716</v>
       </c>
-      <c r="N13" s="66">
+      <c r="N13" s="64">
         <f t="shared" si="7"/>
         <v>106.0523201</v>
       </c>
-      <c r="O13" s="67" t="str">
+      <c r="O13" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="63">
+      <c r="A14" s="61">
         <f t="array" ref="A14">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43800</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="62">
         <f t="array" ref="B14">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A14,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A14,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="62">
         <f>MAX($B14+IF($B14&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A14,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A14),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="62">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="63">
         <f t="array" ref="F14">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A14),0)</f>
         <v>0.02764486097</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="63">
         <f t="shared" si="3"/>
         <v>0.09132139553</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="63">
         <f t="shared" si="4"/>
         <v>0.2739641866</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="62">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="62">
         <f t="shared" si="6"/>
         <v>0.39375</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="62">
         <f t="array" ref="K14">-$I14*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A14,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A14,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.02291666667</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="62">
         <f t="array" ref="L14">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D14+INDEX($L:$L,ROW()+1)</f>
         <v>100.4166667</v>
       </c>
-      <c r="M14" s="64">
+      <c r="M14" s="62">
         <f t="array" ref="M14">INDEX($M:$M,ROW()+1)+$D14+INDEX($M:$M,ROW()+1)*$F14+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.48632181</v>
       </c>
-      <c r="N14" s="66">
+      <c r="N14" s="64">
         <f t="shared" si="7"/>
         <v>100.39375</v>
       </c>
-      <c r="O14" s="67" t="str">
+      <c r="O14" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="63">
+      <c r="A15" s="61">
         <f t="array" ref="A15">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43770</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="62">
         <f t="array" ref="B15">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A15,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A15,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="62">
         <f>MAX($B15+IF($B15&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A15,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A15),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="62">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="63">
         <f t="array" ref="F15">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A15),0)</f>
         <v>-0.03120425194</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="63">
         <f t="shared" si="3"/>
         <v>0.06367653456</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="63">
         <f t="shared" si="4"/>
         <v>0.2547061382</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="62">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="62">
         <f t="shared" si="6"/>
         <v>0.2953125</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="62">
         <f t="array" ref="K15">-$I15*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A15,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A15,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.0171875</v>
       </c>
-      <c r="L15" s="64">
+      <c r="L15" s="62">
         <f t="array" ref="L15">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D15+INDEX($L:$L,ROW()+1)</f>
         <v>100.3125</v>
       </c>
-      <c r="M15" s="64">
+      <c r="M15" s="62">
         <f t="array" ref="M15">INDEX($M:$M,ROW()+1)+$D15+INDEX($M:$M,ROW()+1)*$F15+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>96.81002221</v>
       </c>
-      <c r="N15" s="66">
+      <c r="N15" s="64">
         <f t="shared" si="7"/>
         <v>100.2953125</v>
       </c>
-      <c r="O15" s="67" t="str">
+      <c r="O15" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="63">
+      <c r="A16" s="61">
         <f t="array" ref="A16">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43739</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="62">
         <f t="array" ref="B16">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A16,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A16,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="62">
         <f>MAX($B16+IF($B16&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A16,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A16),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="62">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="63">
         <f t="array" ref="F16">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A16),0)</f>
         <v>-0.001757764068</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="63">
         <f t="shared" si="3"/>
         <v>0.0948807865</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="63">
         <f t="shared" si="4"/>
         <v>0.569284719</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="62">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J16" s="64">
+      <c r="J16" s="62">
         <f t="shared" si="6"/>
         <v>0.196875</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="62">
         <f t="array" ref="K16">-$I16*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A16,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A16,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.01145833333</v>
       </c>
-      <c r="L16" s="64">
+      <c r="L16" s="62">
         <f t="array" ref="L16">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D16+INDEX($L:$L,ROW()+1)</f>
         <v>100.2083333</v>
       </c>
-      <c r="M16" s="64">
+      <c r="M16" s="62">
         <f t="array" ref="M16">INDEX($M:$M,ROW()+1)+$D16+INDEX($M:$M,ROW()+1)*$F16+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>99.92820716</v>
       </c>
-      <c r="N16" s="66">
+      <c r="N16" s="64">
         <f t="shared" si="7"/>
         <v>100.196875</v>
       </c>
-      <c r="O16" s="67" t="str">
+      <c r="O16" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="63">
+      <c r="A17" s="61">
         <f t="array" ref="A17">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43709</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B17" s="62">
         <f t="array" ref="B17">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A17,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A17,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="62">
         <f>MAX($B17+IF($B17&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A17,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A17),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="62">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="62">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="63">
         <f t="array" ref="F17">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A17),0)</f>
         <v>0.09663855056</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="63">
         <f t="shared" si="3"/>
         <v>0.09663855056</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="63">
         <f t="shared" si="4"/>
         <v>1.159662607</v>
       </c>
-      <c r="I17" s="64">
+      <c r="I17" s="62">
         <f t="shared" si="5"/>
         <v>0.1041666667</v>
       </c>
-      <c r="J17" s="64">
+      <c r="J17" s="62">
         <f t="shared" si="6"/>
         <v>0.0984375</v>
       </c>
-      <c r="K17" s="64">
+      <c r="K17" s="62">
         <f t="array" ref="K17">-$I17*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A17,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A17,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.005729166667</v>
       </c>
-      <c r="L17" s="64">
+      <c r="L17" s="62">
         <f t="array" ref="L17">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D17+INDEX($L:$L,ROW()+1)</f>
         <v>100.1041667</v>
       </c>
-      <c r="M17" s="64">
+      <c r="M17" s="62">
         <f t="array" ref="M17">INDEX($M:$M,ROW()+1)+$D17+INDEX($M:$M,ROW()+1)*$F17+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>100.1041667</v>
       </c>
-      <c r="N17" s="66">
+      <c r="N17" s="64">
         <f t="shared" si="7"/>
         <v>100.0984375</v>
       </c>
-      <c r="O17" s="67" t="str">
+      <c r="O17" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="63">
+      <c r="A18" s="61">
         <f t="array" ref="A18">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>43678</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="62">
         <f t="array" ref="B18">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A18,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A18,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>100</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="62">
         <f>MAX($B18+IF($B18&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A18,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A18),0),0)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="63">
         <f t="array" ref="F18">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A18),0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="62">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="64">
+      <c r="J18" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="62">
         <f t="array" ref="K18">-$I18*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A18,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A18,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="64">
+      <c r="L18" s="62">
         <f t="array" ref="L18">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D18+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="64">
+      <c r="M18" s="62">
         <f t="array" ref="M18">INDEX($M:$M,ROW()+1)+$D18+INDEX($M:$M,ROW()+1)*$F18+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N18" s="66">
+      <c r="N18" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O18" s="67" t="str">
+      <c r="O18" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Paclone</v>
       </c>
@@ -3888,234 +3881,234 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="60" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="63">
+      <c r="A2" s="61">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="62">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="62">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="62">
         <f t="shared" ref="D2:D4" si="1">$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="62">
         <f t="shared" ref="E2:E4" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>40000</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="63">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="63">
         <f t="shared" ref="G2:G4" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.0164714609</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="63">
         <f t="shared" ref="H2:H4" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A4)*12,0)</f>
         <v>0.09882876541</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="62">
         <f t="shared" ref="I2:I4" si="5">MAX($L2,$M2)-$E2-SUM($I3:$I4)</f>
         <v>1145.025732</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="62">
         <f t="shared" ref="J2:J4" si="6">$N2-$E2</f>
         <v>1121.424317</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="62">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-65.26808195</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="62">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>40083.33333</v>
       </c>
-      <c r="M2" s="64">
+      <c r="M2" s="62">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>41186.6924</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="64">
         <f t="shared" ref="N2:N4" si="7">MAX($M2,$L2)+$K2</f>
         <v>41121.42432</v>
       </c>
-      <c r="O2" s="67" t="str">
+      <c r="O2" s="65" t="str">
         <f t="shared" ref="O2:O4" si="8">IF(ROW()=2,"Philo",INDEX(O:O,ROW()-1))</f>
         <v>Philo</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="63">
+      <c r="A3" s="61">
         <f t="array" ref="A3">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44136</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="62">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>30442</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="62">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="62">
         <f t="shared" si="1"/>
         <v>30442</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="62">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="63">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>-0.0164328313</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="63">
         <f t="shared" si="3"/>
         <v>-0.0164328313</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="63">
         <f t="shared" si="4"/>
         <v>-0.1971939755</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="62">
         <f t="shared" si="5"/>
         <v>41.66666667</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="62">
         <f t="shared" si="6"/>
         <v>39.375</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="62">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-2.291666667</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="62">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>40041.66667</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="62">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>39874.64542</v>
       </c>
-      <c r="N3" s="66">
+      <c r="N3" s="64">
         <f t="shared" si="7"/>
         <v>40039.375</v>
       </c>
-      <c r="O3" s="67" t="str">
+      <c r="O3" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="63">
+      <c r="A4" s="61">
         <f t="array" ref="A4">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44105</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="62">
         <f t="array" ref="B4">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A4,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A4,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>40000</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="62">
         <f>MAX($B4+IF($B4&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A4,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A4),0),0)</f>
         <v>30442</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="62">
         <f t="shared" si="1"/>
         <v>9558</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="62">
         <f t="shared" si="2"/>
         <v>9558</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="63">
         <f t="array" ref="F4">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A4),0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="62">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="62">
         <f t="array" ref="K4">-$I4*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A4,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A4,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="62">
         <f t="array" ref="L4">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D4+INDEX($L:$L,ROW()+1)</f>
         <v>9558</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="62">
         <f t="array" ref="M4">INDEX($M:$M,ROW()+1)+$D4+INDEX($M:$M,ROW()+1)*$F4+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>9558</v>
       </c>
-      <c r="N4" s="66">
+      <c r="N4" s="64">
         <f t="shared" si="7"/>
         <v>9558</v>
       </c>
-      <c r="O4" s="67" t="str">
+      <c r="O4" s="65" t="str">
         <f t="shared" si="8"/>
         <v>Philo</v>
       </c>
@@ -4144,171 +4137,171 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="60" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="63">
+      <c r="A2" s="61">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="62">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>555</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="62">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="62">
         <f t="shared" ref="D2:D3" si="1">$B2-$C2</f>
         <v>555</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="62">
         <f t="shared" ref="E2:E3" si="2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>555</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="63">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="63">
         <f t="shared" ref="G2:G3" si="3">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="63">
         <f t="shared" ref="H2:H3" si="4">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3)*12,0)</f>
         <v>0.3948515064</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="62">
         <f t="shared" ref="I2:I3" si="5">MAX($L2,$M2)-$E2-SUM($I3)</f>
         <v>0.578125</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="62">
         <f t="shared" ref="J2:J3" si="6">$N2-$E2</f>
         <v>0.546328125</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="62">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-0.031796875</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="62">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>555.578125</v>
       </c>
-      <c r="M2" s="64">
+      <c r="M2" s="62">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>555.578125</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="64">
         <f t="shared" ref="N2:N3" si="7">MAX($M2,$L2)+$K2</f>
         <v>555.5463281</v>
       </c>
-      <c r="O2" s="67" t="str">
+      <c r="O2" s="65" t="str">
         <f t="shared" ref="O2:O3" si="8">IF(ROW()=2,"Tester",ROW()-1)</f>
         <v>Tester</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="63">
+      <c r="A3" s="61">
         <v>44136.0</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="62">
         <f t="array" ref="B3">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A3,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A3,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>555</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="62">
         <f>MAX($B3+IF($B3&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A3,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A3),0),0)</f>
         <v>555</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="63">
         <f t="array" ref="F3">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A3),0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="62">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="62">
         <f t="array" ref="K3">-$I3*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A3,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A3,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="62">
         <f t="array" ref="L3">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D3+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="62">
         <f t="array" ref="M3">INDEX($M:$M,ROW()+1)+$D3+INDEX($M:$M,ROW()+1)*$F3+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N3" s="66">
+      <c r="N3" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O3" s="67">
+      <c r="O3" s="65">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -4337,110 +4330,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="60" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="63">
+      <c r="A2" s="61">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="62">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="62">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="62">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="62">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="63">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="63">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="63">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="62">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="62">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="62">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="62">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="64">
+      <c r="M2" s="62">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="64">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="67" t="str">
+      <c r="O2" s="65" t="str">
         <f>IF(ROW()=2,"Lizzz",ROW()-1)</f>
         <v>Lizzz</v>
       </c>
@@ -4469,110 +4462,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="60" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="63">
+      <c r="A2" s="61">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="62">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>4999</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="62">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>4999</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="62">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="62">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="63">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="63">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="63">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="62">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="62">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="62">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="62">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="64">
+      <c r="M2" s="62">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="64">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="67" t="str">
+      <c r="O2" s="65" t="str">
         <f>IF(ROW()=2,"Joséd",ROW()-1)</f>
         <v>Joséd</v>
       </c>
@@ -4598,110 +4591,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="60" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="63">
+      <c r="A2" s="61">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="62">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="62">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="62">
         <f>$B2-$C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="62">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="63">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="63">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="63">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A2:$A3)*12,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="62">
         <f>MAX($L2,$M2)-$E2-SUM($I2:$I3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="62">
         <f>$N2-$E2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="62">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="62">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="64">
+      <c r="M2" s="62">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>0</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="64">
         <f>MAX($M2,$L2)+$K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="67" t="str">
+      <c r="O2" s="65" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"SheetName",INDEX(O:O,ROW()-1))</f>
         <v>SheetName</v>
       </c>
@@ -4732,8 +4725,8 @@
         <v>Cumulated saving</v>
       </c>
       <c r="B1" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275723.57325171673)</f>
-        <v>275723.5733</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276630.4852517165)</f>
+        <v>276630.4853</v>
       </c>
     </row>
     <row r="2">
@@ -4742,8 +4735,8 @@
         <v>Cumulated profit total rate</v>
       </c>
       <c r="B2" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.9360163386433211)</f>
-        <v>0.9360163386</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.9410516463430478)</f>
+        <v>0.9410516463</v>
       </c>
     </row>
     <row r="3">
@@ -4752,8 +4745,8 @@
         <v>Cumulated profit</v>
       </c>
       <c r="B3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168466.22199999986)</f>
-        <v>168466.222</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169373.13399999964)</f>
+        <v>169373.134</v>
       </c>
     </row>
     <row r="4">
@@ -4762,8 +4755,8 @@
         <v>Cumulated profit rate</v>
       </c>
       <c r="B4" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.09641285044824395)</f>
-        <v>0.09641285045</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.09690417643834176)</f>
+        <v>0.09690417644</v>
       </c>
     </row>
     <row r="5">
@@ -4782,8 +4775,8 @@
         <v>Cumulated dividend rate</v>
       </c>
       <c r="B6" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.02306361904079352)</f>
-        <v>0.02306361904</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.023057028735091335)</f>
+        <v>0.02305702874</v>
       </c>
     </row>
     <row r="7">
@@ -4792,8 +4785,8 @@
         <v>Average investment</v>
       </c>
       <c r="B7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179982.1381795299)</f>
-        <v>179982.1382</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179982.82523407534)</f>
+        <v>179982.8252</v>
       </c>
     </row>
     <row r="8">
@@ -4802,8 +4795,8 @@
         <v>Saving duration</v>
       </c>
       <c r="B8" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.708418891170432)</f>
-        <v>9.708418891</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.711156741957563)</f>
+        <v>9.711156742</v>
       </c>
     </row>
     <row r="9">
@@ -4822,8 +4815,8 @@
         <v>Working free duration</v>
       </c>
       <c r="B10" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"225 months (18.8 years)")</f>
-        <v>225 months (18.8 years)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"226 months (18.8 years)")</f>
+        <v>226 months (18.8 years)</v>
       </c>
     </row>
     <row r="11">
@@ -4832,8 +4825,8 @@
         <v>Since Independance duration</v>
       </c>
       <c r="B11" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1181 months (98.5 years)")</f>
-        <v>1181 months (98.5 years)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1178 months (98.2 years)")</f>
+        <v>1178 months (98.2 years)</v>
       </c>
     </row>
     <row r="12">
@@ -4842,8 +4835,8 @@
         <v>Since Independance gap</v>
       </c>
       <c r="B12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-363413.2944140471)</f>
-        <v>-363413.2944</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-362689.06455370405)</f>
+        <v>-362689.0646</v>
       </c>
     </row>
     <row r="13">
@@ -4852,8 +4845,8 @@
         <v>Monthly income</v>
       </c>
       <c r="B13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),920.6558456638841)</f>
-        <v>920.6558457</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),920.3962866433982)</f>
+        <v>920.3962866</v>
       </c>
     </row>
     <row r="14">
@@ -4872,8 +4865,8 @@
         <v>Income use</v>
       </c>
       <c r="B15" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3342670608309353)</f>
-        <v>1.334267061</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.334643334677757)</f>
+        <v>1.334643335</v>
       </c>
     </row>
     <row r="16">
@@ -4912,8 +4905,8 @@
         <v>Current monthly dividend / thousand</v>
       </c>
       <c r="B19" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.810937815087863)</f>
-        <v>2.810937815</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.4091130524646736)</f>
+        <v>2.409113052</v>
       </c>
     </row>
     <row r="20">
@@ -4921,9 +4914,9 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Monthly payment")</f>
         <v>Monthly payment</v>
       </c>
-      <c r="B20" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Loading...")</f>
-        <v>Loading...</v>
+      <c r="B20" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-7600.0)</f>
+        <v>-7600</v>
       </c>
     </row>
     <row r="21">
@@ -4932,8 +4925,8 @@
         <v>Current monthly dividend</v>
       </c>
       <c r="B21" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),490.9878855209264)</f>
-        <v>490.9878855</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.80095733940027)</f>
+        <v>420.8009573</v>
       </c>
     </row>
     <row r="22">
@@ -4972,8 +4965,8 @@
         <v>Monthly profit</v>
       </c>
       <c r="B25" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-32199.718000000106)</f>
-        <v>-32199.718</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-31292.806000000328)</f>
+        <v>-31292.806</v>
       </c>
     </row>
     <row r="26">
@@ -4982,8 +4975,8 @@
         <v>Monthly profit percentage</v>
       </c>
       <c r="B26" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.08323521573231761)</f>
-        <v>-0.08323521573</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.08089087793500495)</f>
+        <v>-0.08089087794</v>
       </c>
     </row>
     <row r="27">
@@ -5002,8 +4995,8 @@
         <v>Next portfolio objective spread</v>
       </c>
       <c r="B28" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-38484.713000000105)</f>
-        <v>-38484.713</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-37577.80100000033)</f>
+        <v>-37577.801</v>
       </c>
     </row>
     <row r="29">
@@ -5012,8 +5005,8 @@
         <v>Next portfolio objective ratio</v>
       </c>
       <c r="B29" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-5.123268674040332)</f>
-        <v>-5.123268674</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-4.9789707072162095)</f>
+        <v>-4.978970707</v>
       </c>
     </row>
     <row r="30">
@@ -5062,8 +5055,8 @@
         <v>Current portfolio duration</v>
       </c>
       <c r="B34" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.152635181382615)</f>
-        <v>5.152635181</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.155373032169747)</f>
+        <v>5.155373032</v>
       </c>
     </row>
     <row r="35">
@@ -5082,8 +5075,8 @@
         <v>Current portfolio stock</v>
       </c>
       <c r="B36" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1182929.6120000002)</f>
-        <v>1182929.612</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1183836.524)</f>
+        <v>1183836.524</v>
       </c>
     </row>
     <row r="37">
@@ -5102,8 +5095,8 @@
         <v>Current portfolio value</v>
       </c>
       <c r="B38" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),354652.38199999987)</f>
-        <v>354652.382</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),355559.29399999965)</f>
+        <v>355559.294</v>
       </c>
     </row>
     <row r="39">
@@ -5112,8 +5105,8 @@
         <v>Current portfolio total profit</v>
       </c>
       <c r="B39" s="17">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179981.89199999988)</f>
-        <v>179981.892</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),180888.80399999965)</f>
+        <v>180888.804</v>
       </c>
     </row>
     <row r="40">
@@ -5122,8 +5115,8 @@
         <v>Current portfolio total profit rate</v>
       </c>
       <c r="B40" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.19407518619082267)</f>
-        <v>0.1940751862</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.19494878244245525)</f>
+        <v>0.1949487824</v>
       </c>
     </row>
     <row r="41">
@@ -5132,8 +5125,8 @@
         <v>Current portfolio profit</v>
       </c>
       <c r="B41" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),161867.89199999988)</f>
-        <v>161867.892</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162774.80399999965)</f>
+        <v>162774.804</v>
       </c>
     </row>
     <row r="42">
@@ -5142,8 +5135,8 @@
         <v>Current portfolio profit rate</v>
       </c>
       <c r="B42" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.17454278832792788)</f>
-        <v>0.1745427883</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.1754268321222871)</f>
+        <v>0.1754268321</v>
       </c>
     </row>
     <row r="43">
@@ -5162,8 +5155,8 @@
         <v>Current portfolio dividend rate</v>
       </c>
       <c r="B44" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0397871946782169)</f>
-        <v>0.03978719468</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.039765913194023776)</f>
+        <v>0.03976591319</v>
       </c>
     </row>
     <row r="45">
@@ -5182,8 +5175,8 @@
         <v>Current portfolio cost rate</v>
       </c>
       <c r="B46" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.020254796815322097)</f>
-        <v>-0.02025479682</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-0.020243962873855596)</f>
+        <v>-0.02024396287</v>
       </c>
     </row>
     <row r="47">
@@ -5212,7 +5205,7 @@
         <v>Previous profit</v>
       </c>
       <c r="B49" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-11579.08999999988)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-11579.090000000026)</f>
         <v>-11579.09</v>
       </c>
     </row>
@@ -5232,8 +5225,8 @@
         <v>Current Allocation ratio (instant)</v>
       </c>
       <c r="B51" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"28.2% (30%)")</f>
-        <v>28.2% (30%)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"28.3% (30%)")</f>
+        <v>28.3% (30%)</v>
       </c>
     </row>
     <row r="52">
@@ -5242,8 +5235,8 @@
         <v>Margin</v>
       </c>
       <c r="B52" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-226.70460000028834)</f>
-        <v>-226.7046</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),408.13379999960307)</f>
+        <v>408.1338</v>
       </c>
     </row>
     <row r="53">
@@ -5251,9 +5244,9 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Next Allocation")</f>
         <v>Next Allocation</v>
       </c>
-      <c r="B53" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Loading...")</f>
-        <v>Loading...</v>
+      <c r="B53" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),837000.0)</f>
+        <v>837000</v>
       </c>
     </row>
     <row r="54">
@@ -5308,9 +5301,9 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Investment provision")</f>
         <v>Investment provision</v>
       </c>
-      <c r="B59" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Loading...")</f>
-        <v>Loading...</v>
+      <c r="B59" s="15">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-2743.1049354202114)</f>
+        <v>-2743.104935</v>
       </c>
     </row>
     <row r="60">
@@ -5319,8 +5312,8 @@
         <v>Today's result</v>
       </c>
       <c r="B60" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),906.9120000000099)</f>
+        <v>906.912</v>
       </c>
     </row>
     <row r="61">
@@ -5329,8 +5322,8 @@
         <v>Last year daily average progress</v>
       </c>
       <c r="B61" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),591.3104721580103)</f>
-        <v>591.3104722</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),591.176744358911)</f>
+        <v>591.1767444</v>
       </c>
     </row>
     <row r="62">
@@ -5339,8 +5332,8 @@
         <v>Transaction per month</v>
       </c>
       <c r="B62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.920468009478673)</f>
-        <v>13.92046801</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.909481057616416)</f>
+        <v>13.90948106</v>
       </c>
     </row>
     <row r="63">
@@ -5349,8 +5342,8 @@
         <v>Average profit per transaction</v>
       </c>
       <c r="B63" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0239869534653)</f>
-        <v>371.023987</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.59757254362535)</f>
+        <v>371.5975725</v>
       </c>
     </row>
     <row r="64">
@@ -5359,8 +5352,8 @@
         <v>Average profit per month</v>
       </c>
       <c r="B64" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5164.827541134946)</f>
-        <v>5164.827541</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5168.729396351799)</f>
+        <v>5168.729396</v>
       </c>
     </row>
     <row r="65">
@@ -5369,8 +5362,8 @@
         <v>Total profit per month</v>
       </c>
       <c r="B65" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5655.815426655872)</f>
-        <v>5655.815427</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5589.530353691199)</f>
+        <v>5589.530354</v>
       </c>
     </row>
     <row r="66">
@@ -5379,8 +5372,8 @@
         <v>Instant profit per trading day</v>
       </c>
       <c r="B66" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),131.63936467020469)</f>
-        <v>131.6393647</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.32694010614097)</f>
+        <v>132.3269401</v>
       </c>
     </row>
     <row r="67">
@@ -5389,8 +5382,8 @@
         <v>Instant profit per transaction</v>
       </c>
       <c r="B67" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.4784855842185)</f>
-        <v>263.4784856</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.85467981790583)</f>
+        <v>264.8546798</v>
       </c>
     </row>
     <row r="68">
@@ -5399,8 +5392,8 @@
         <v>Instant profit per month</v>
       </c>
       <c r="B68" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3667.7438297610015)</f>
-        <v>3667.74383</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3683.991151948222)</f>
+        <v>3683.991152</v>
       </c>
     </row>
     <row r="69">
@@ -5409,8 +5402,8 @@
         <v>Last month stock average progress</v>
       </c>
       <c r="B69" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0023717755477064614)</f>
-        <v>0.002371775548</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.002700692385806139)</f>
+        <v>0.002700692386</v>
       </c>
     </row>
     <row r="70">
@@ -5419,8 +5412,8 @@
         <v>Last negative average profit in days</v>
       </c>
       <c r="B70" s="21" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"18d (0.6m)")</f>
-        <v>18d (0.6m)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"19d (0.6m)")</f>
+        <v>19d (0.6m)</v>
       </c>
     </row>
     <row r="71">
@@ -5429,8 +5422,8 @@
         <v>Last updated</v>
       </c>
       <c r="B71" s="22">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3964206134260166)</f>
-        <v>1.396420613</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.019805196759989485)</f>
+        <v>0.01980519676</v>
       </c>
     </row>
     <row r="72">
@@ -38240,8 +38233,8 @@
         <v>148</v>
       </c>
       <c r="B26" s="44" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""En date du "" &amp; TO_TEXT(DateTime!$B$6)&amp;""/""&amp;TO_TEXT(DateTime!$B$5)&amp;""/""&amp;TO_TEXT(DateTime!$B$4) &amp; "", "" &amp; COUNT(Associate!$A:$A)-1 &amp; "" personnes. Plus moi, "" &amp; COUNT(Associate!$A:$A) &amp; "" :-)"""),"En date du 20/12/2020, 5 personnes. Plus moi, 6 :-)")</f>
-        <v>En date du 20/12/2020, 5 personnes. Plus moi, 6 :-)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""En date du "" &amp; TO_TEXT(DateTime!$B$6)&amp;""/""&amp;TO_TEXT(DateTime!$B$5)&amp;""/""&amp;TO_TEXT(DateTime!$B$4) &amp; "", "" &amp; COUNT(Associate!$A:$A)-1 &amp; "" personnes. Plus moi, "" &amp; COUNT(Associate!$A:$A) &amp; "" :-)"""),"En date du 21/12/2020, 5 personnes. Plus moi, 6 :-)")</f>
+        <v>En date du 21/12/2020, 5 personnes. Plus moi, 6 :-)</v>
       </c>
     </row>
     <row r="27">
@@ -39097,11 +39090,11 @@
       <c r="D51" s="48"/>
     </row>
     <row r="52">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="51" t="s">
         <v>331</v>
       </c>
       <c r="B52" s="48"/>
-      <c r="C52" s="57" t="s">
+      <c r="C52" s="48" t="s">
         <v>332</v>
       </c>
       <c r="D52" s="48"/>
@@ -39395,7 +39388,7 @@
       <c r="D78" s="48"/>
     </row>
     <row r="79">
-      <c r="A79" s="58" t="s">
+      <c r="A79" s="56" t="s">
         <v>393</v>
       </c>
       <c r="B79" s="51"/>
@@ -39431,38 +39424,38 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="58" t="s">
+      <c r="A82" s="56" t="s">
         <v>402</v>
       </c>
       <c r="B82" s="51"/>
       <c r="C82" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="D82" s="59" t="s">
+      <c r="D82" s="57" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="58" t="s">
+      <c r="A83" s="56" t="s">
         <v>405</v>
       </c>
       <c r="B83" s="51"/>
       <c r="C83" s="48" t="s">
         <v>406</v>
       </c>
-      <c r="D83" s="59" t="s">
+      <c r="D83" s="57" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="58" t="s">
+      <c r="A84" s="56" t="s">
         <v>408</v>
       </c>
-      <c r="B84" s="60"/>
+      <c r="B84" s="58"/>
       <c r="C84" s="48" t="s">
         <v>409</v>
       </c>
-      <c r="D84" s="61" t="s">
+      <c r="D84" s="59" t="s">
         <v>410</v>
       </c>
     </row>
@@ -39490,1803 +39483,1803 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="60" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="63">
+      <c r="A2" s="61">
         <f t="array" ref="A2">EOMONTH(IF(ROW()=2,DateTime!$B$1-TIME(3,0,0),INDEX($A:$A,ROW()-1)-1),-1)+1</f>
         <v>44166</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="62">
         <f t="array" ref="B2">SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")+SUMIFS(AssociateHistoric!$C:$C,AssociateHistoric!$A:$A,"&gt;="&amp;$A2,AssociateHistoric!$A:$A,"&lt;="&amp;EOMONTH($A2,0),AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$D:$D,"&lt;=0",AssociateHistoric!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
         <v>-5500</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="62">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(AssociateHistoric!$A:$A,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2,AssociateHistoric!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="62">
         <f>$B2-$C2</f>
         <v>-5500</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="62">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
         <v>950</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="63">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),MAXIFS(AllocationHistoric!$I:$I,AllocationHistoric!$A:$A,$A2),0)</f>
         <v>0.0329042922</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="63">
         <f t="array" ref="G2">$F2+INDEX($G:$G,ROW()+1)</f>
         <v>0.7360828898</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="63">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/ROWS($A3:$A38)*12,0)</f>
         <v>0.2453609633</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="62">
         <f>MAX($L2,$M2)-$E2-SUM($I3:$I38)</f>
         <v>596.982136</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="62">
         <f>$N2-$E2</f>
         <v>12048.70056</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="62">
         <f t="array" ref="K2">-$I2*5.5/100+INDEX($K:$K,ROW()+1)+SUMIFS(AssociateHistoric!$D:$D,AssociateHistoric!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),AssociateHistoric!$A:$A,"&lt;"&amp;$A2,AssociateHistoric!$B:$B,$O$2)</f>
         <v>-241.2682864</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="62">
         <f t="array" ref="L2">(INDEX($E:$E,ROW()+1)+INDEX($C:$C,ROW()+1))*Dashboard!$B$57/12+$D2+INDEX($L:$L,ROW()+1)</f>
         <v>1386.25</v>
       </c>
-      <c r="M2" s="64">
+      <c r="M2" s="62">
         <f t="array" ref="M2">INDEX($M:$M,ROW()+1)+$D2+INDEX($M:$M,ROW()+1)*$F2+INDEX($C:$C,ROW()+1)*Dashboard!$B$57/12</f>
         <v>13239.96884</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="64">
         <f>MAX($M2,$L2)+$K2</f>
         <v>12998.70056</v>
       </c>
-      <c r="O2" s="67" t="str">
+      <c r="O2" s="65" t="str">
         <f t="array" ref="O2">IF(ROW()=2,"Bloopsy",INDEX(O:O,ROW()-1))</f>
         <v>Bloopsy</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="63">
+      <c r="A3" s="61">
         <v>44136.0</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="62">
         <v>-1000.0</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="62">
         <v>0.0</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="62">
         <v>-1000.0</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="62">
         <v>6450.0</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="63">
         <v>-0.016432831295333683</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="63">
         <v>0.703178597556773</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="63">
         <v>0.24108980487660792</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="62">
         <v>-319.8291698477624</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="62">
         <v>11484.552438769417</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="62">
         <v>-208.4342689230876</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="62">
         <v>6879.53124999999</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="62">
         <v>18142.986707692504</v>
       </c>
-      <c r="N3" s="66">
+      <c r="N3" s="64">
         <v>17934.552438769417</v>
       </c>
-      <c r="O3" s="67" t="s">
+      <c r="O3" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="63">
+      <c r="A4" s="61">
         <v>44105.0</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="62">
         <v>-300.0</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="62">
         <v>0.0</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="62">
         <v>-300.0</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="62">
         <v>7450.0</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="63">
         <v>-0.0030358834822477613</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="63">
         <v>0.7196114288521067</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="63">
         <v>0.25398050430074354</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="62">
         <v>-60.18030668434949</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="62">
         <v>11786.79100427555</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="62">
         <v>-226.02487326471453</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="62">
         <v>7871.770833333323</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="62">
         <v>19462.815877540266</v>
       </c>
-      <c r="N4" s="66">
+      <c r="N4" s="64">
         <v>19236.79100427555</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="63">
+      <c r="A5" s="61">
         <v>44075.0</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="62">
         <v>0.0</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="62">
         <v>0.0</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="62">
         <v>0.0</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="62">
         <v>7750.0</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="63">
         <v>0.0695011442271417</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="63">
         <v>0.7226473123343545</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="63">
         <v>0.2627808408488562</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="62">
         <v>1288.1902223764919</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="62">
         <v>11843.661394092262</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="62">
         <v>-229.33479013235376</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="62">
         <v>8163.697916666656</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="62">
         <v>19822.996184224616</v>
       </c>
-      <c r="N5" s="66">
+      <c r="N5" s="64">
         <v>19593.66139409226</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="63">
+      <c r="A6" s="61">
         <v>44044.0</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="62">
         <v>-2400.0</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="62">
         <v>0.0</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="62">
         <v>-2400.0</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="62">
         <v>7750.0</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="63">
         <v>-0.0011851593150153932</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="63">
         <v>0.6531461681072128</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="63">
         <v>0.2449298130402048</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="62">
         <v>-22.85900518998824</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="62">
         <v>10626.321633946478</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="62">
         <v>-158.4843279016467</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="62">
         <v>8155.624999999989</v>
       </c>
-      <c r="M6" s="64">
+      <c r="M6" s="62">
         <v>18534.805961848124</v>
       </c>
-      <c r="N6" s="66">
+      <c r="N6" s="64">
         <v>18376.321633946478</v>
       </c>
-      <c r="O6" s="67" t="s">
+      <c r="O6" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="63">
+      <c r="A7" s="61">
         <v>44013.0</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="62">
         <v>1900.0</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="62">
         <v>1900.0</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="62">
         <v>0.0</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="62">
         <v>10150.0</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="63">
         <v>0.01670595001387467</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="63">
         <v>0.6543313274222282</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="63">
         <v>0.25328954609892707</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="62">
         <v>344.36476283245065</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="62">
         <v>10647.923393851015</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="62">
         <v>-159.74157318709607</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="62">
         <v>10543.072916666655</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="62">
         <v>20957.664967038112</v>
       </c>
-      <c r="N7" s="66">
+      <c r="N7" s="64">
         <v>20797.923393851015</v>
       </c>
-      <c r="O7" s="67" t="s">
+      <c r="O7" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="63">
+      <c r="A8" s="61">
         <v>43983.0</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="62">
         <v>-300.0</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="62">
         <v>0.0</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="62">
         <v>-300.0</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="62">
         <v>10150.0</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="63">
         <v>-0.00659387295460559</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="63">
         <v>0.6376253774083536</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="63">
         <v>0.25505015096334144</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="62">
         <v>-138.8149729035831</v>
       </c>
-      <c r="J8" s="64">
+      <c r="J8" s="62">
         <v>10322.49869297435</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="62">
         <v>-140.80151123131128</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="62">
         <v>10532.499999999989</v>
       </c>
-      <c r="M8" s="64">
+      <c r="M8" s="62">
         <v>20613.30020420566</v>
       </c>
-      <c r="N8" s="66">
+      <c r="N8" s="64">
         <v>20472.49869297435</v>
       </c>
-      <c r="O8" s="67" t="s">
+      <c r="O8" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="63">
+      <c r="A9" s="61">
         <v>43952.0</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="62">
         <v>-300.0</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="62">
         <v>0.0</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="62">
         <v>-300.0</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="62">
         <v>10450.0</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="63">
         <v>0.17167870410952307</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="63">
         <v>0.6442192503629591</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="63">
         <v>0.26657348290881067</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="62">
         <v>3128.591012831741</v>
       </c>
-      <c r="J9" s="64">
+      <c r="J9" s="62">
         <v>10453.678842368237</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="62">
         <v>-148.43633474100835</v>
       </c>
-      <c r="L9" s="64">
+      <c r="L9" s="62">
         <v>10821.614583333323</v>
       </c>
-      <c r="M9" s="64">
+      <c r="M9" s="62">
         <v>21052.115177109245</v>
       </c>
-      <c r="N9" s="66">
+      <c r="N9" s="64">
         <v>20903.678842368237</v>
       </c>
-      <c r="O9" s="67" t="s">
+      <c r="O9" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="63">
+      <c r="A10" s="61">
         <v>43922.0</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="62">
         <v>-300.0</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="62">
         <v>0.0</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="62">
         <v>-300.0</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="62">
         <v>10750.0</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="63">
         <v>-0.09031985768405248</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G10" s="63">
         <v>0.4725405462534361</v>
       </c>
-      <c r="H10" s="65">
+      <c r="H10" s="63">
         <v>0.20251737696575833</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="62">
         <v>-1839.1542131119495</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="62">
         <v>7497.160335242243</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="62">
         <v>23.63617096473739</v>
       </c>
-      <c r="L10" s="64">
+      <c r="L10" s="62">
         <v>11110.416666666657</v>
       </c>
-      <c r="M10" s="64">
+      <c r="M10" s="62">
         <v>18223.524164277504</v>
       </c>
-      <c r="N10" s="66">
+      <c r="N10" s="64">
         <v>18247.160335242243</v>
       </c>
-      <c r="O10" s="67" t="s">
+      <c r="O10" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="63">
+      <c r="A11" s="61">
         <v>43891.0</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="62">
         <v>-300.0</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="62">
         <v>0.0</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="62">
         <v>-300.0</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="62">
         <v>11050.0</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="63">
         <v>-6.988944889106389E-4</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="63">
         <v>0.5628604039374886</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="63">
         <v>0.2501601795277727</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="62">
         <v>-14.451131860507303</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="62">
         <v>9235.161066633034</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="62">
         <v>-77.51731075641983</v>
       </c>
-      <c r="L11" s="64">
+      <c r="L11" s="62">
         <v>11398.90624999999</v>
       </c>
-      <c r="M11" s="64">
+      <c r="M11" s="62">
         <v>20362.678377389453</v>
       </c>
-      <c r="N11" s="66">
+      <c r="N11" s="64">
         <v>20285.161066633034</v>
       </c>
-      <c r="O11" s="67" t="s">
+      <c r="O11" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="63">
+      <c r="A12" s="61">
         <v>43862.0</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="62">
         <v>0.0</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="62">
         <v>0.0</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="62">
         <v>0.0</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="62">
         <v>11350.0</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="63">
         <v>-0.013571483773815925</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="63">
         <v>0.5635592984263992</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="63">
         <v>0.260104291581415</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="62">
         <v>-284.48014529978536</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="62">
         <v>9248.817386241211</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="62">
         <v>-78.31212300874773</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="62">
         <v>11687.083333333325</v>
       </c>
-      <c r="M12" s="64">
+      <c r="M12" s="62">
         <v>20677.12950924996</v>
       </c>
-      <c r="N12" s="66">
+      <c r="N12" s="64">
         <v>20598.81738624121</v>
       </c>
-      <c r="O12" s="67" t="s">
+      <c r="O12" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="63">
+      <c r="A13" s="61">
         <v>43831.0</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="62">
         <v>-1000.0</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="62">
         <v>0.0</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="62">
         <v>-1000.0</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="62">
         <v>11350.0</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="63">
         <v>0.06953970791992178</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="63">
         <v>0.5771307822002151</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="63">
         <v>0.27702277545610327</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="62">
         <v>1427.907640567064</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="62">
         <v>9082.971123549509</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="62">
         <v>-528.638531000236</v>
       </c>
-      <c r="L13" s="64">
+      <c r="L13" s="62">
         <v>11675.260416666659</v>
       </c>
-      <c r="M13" s="64">
+      <c r="M13" s="62">
         <v>20961.609654549746</v>
       </c>
-      <c r="N13" s="66">
+      <c r="N13" s="64">
         <v>20432.97112354951</v>
       </c>
-      <c r="O13" s="67" t="s">
+      <c r="O13" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="63">
+      <c r="A14" s="61">
         <v>43800.0</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="62">
         <v>-700.0</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="62">
         <v>0.0</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="62">
         <v>-700.0</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="62">
         <v>12350.0</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="63">
         <v>0.02764486097227171</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="63">
         <v>0.5075910742802933</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="63">
         <v>0.25379553714014663</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="62">
         <v>571.2116728222863</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="62">
         <v>7733.598403213633</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="62">
         <v>-450.10361076904746</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="62">
         <v>12662.395833333325</v>
       </c>
-      <c r="M14" s="64">
+      <c r="M14" s="62">
         <v>20533.702013982682</v>
       </c>
-      <c r="N14" s="66">
+      <c r="N14" s="64">
         <v>20083.598403213633</v>
       </c>
-      <c r="O14" s="67" t="s">
+      <c r="O14" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="63">
+      <c r="A15" s="61">
         <v>43770.0</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="62">
         <v>-300.0</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="62">
         <v>0.0</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="62">
         <v>-300.0</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="62">
         <v>13050.0</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="63">
         <v>-0.031204251937763165</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="63">
         <v>0.4799462133080215</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="63">
         <v>0.25040671998679387</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="62">
         <v>-675.1875523368581</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="62">
         <v>7193.803372396575</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="62">
         <v>-418.6869687638217</v>
       </c>
-      <c r="L15" s="64">
+      <c r="L15" s="62">
         <v>13348.802083333325</v>
       </c>
-      <c r="M15" s="64">
+      <c r="M15" s="62">
         <v>20662.490341160395</v>
       </c>
-      <c r="N15" s="66">
+      <c r="N15" s="64">
         <v>20243.803372396575</v>
       </c>
-      <c r="O15" s="67" t="s">
+      <c r="O15" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="63">
+      <c r="A16" s="61">
         <v>43739.0</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="62">
         <v>-150.0</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="62">
         <v>0.0</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="62">
         <v>-150.0</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="62">
         <v>13350.0</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="63">
         <v>-0.0017577640676155197</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="63">
         <v>0.5111504652457847</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="63">
         <v>0.2788093446795189</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="62">
         <v>-38.36503399618232</v>
       </c>
-      <c r="J16" s="64">
+      <c r="J16" s="62">
         <v>7831.855609354905</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="62">
         <v>-455.8222841423489</v>
       </c>
-      <c r="L16" s="64">
+      <c r="L16" s="62">
         <v>13634.895833333325</v>
       </c>
-      <c r="M16" s="64">
+      <c r="M16" s="62">
         <v>21637.677893497254</v>
       </c>
-      <c r="N16" s="66">
+      <c r="N16" s="64">
         <v>21181.855609354905</v>
       </c>
-      <c r="O16" s="67" t="s">
+      <c r="O16" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="63">
+      <c r="A17" s="61">
         <v>43709.0</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B17" s="62">
         <v>0.0</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="62">
         <v>0.0</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="62">
         <v>0.0</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="62">
         <v>13500.0</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="63">
         <v>0.09663855056374034</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="63">
         <v>0.5129082293134002</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="63">
         <v>0.2930904167505144</v>
       </c>
-      <c r="I17" s="64">
+      <c r="I17" s="62">
         <v>1923.3658637758672</v>
       </c>
-      <c r="J17" s="64">
+      <c r="J17" s="62">
         <v>7868.110566481297</v>
       </c>
-      <c r="K17" s="64">
+      <c r="K17" s="62">
         <v>-457.9323610121389</v>
       </c>
-      <c r="L17" s="64">
+      <c r="L17" s="62">
         <v>13770.833333333325</v>
       </c>
-      <c r="M17" s="64">
+      <c r="M17" s="62">
         <v>21826.042927493436</v>
       </c>
-      <c r="N17" s="66">
+      <c r="N17" s="64">
         <v>21368.110566481297</v>
       </c>
-      <c r="O17" s="67" t="s">
+      <c r="O17" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="63">
+      <c r="A18" s="61">
         <v>43678.0</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="62">
         <v>-1000.0</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="62">
         <v>0.0</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="62">
         <v>-1000.0</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="62">
         <v>13500.0</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="63">
         <v>0.07804921004485675</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="63">
         <v>0.4162696787496598</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="63">
         <v>0.2497618072497959</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="62">
         <v>1513.323712354486</v>
       </c>
-      <c r="J18" s="64">
+      <c r="J18" s="62">
         <v>6050.529825213103</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="62">
         <v>-352.14723850446626</v>
       </c>
-      <c r="L18" s="64">
+      <c r="L18" s="62">
         <v>13756.770833333325</v>
       </c>
-      <c r="M18" s="64">
+      <c r="M18" s="62">
         <v>19902.67706371757</v>
       </c>
-      <c r="N18" s="66">
+      <c r="N18" s="64">
         <v>19550.529825213103</v>
       </c>
-      <c r="O18" s="67" t="s">
+      <c r="O18" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="63">
+      <c r="A19" s="61">
         <v>43647.0</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19" s="62">
         <v>0.0</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="62">
         <v>0.0</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="62">
         <v>0.0</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="62">
         <v>14500.0</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="63">
         <v>0.05571063566313939</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="63">
         <v>0.33822046870480305</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="63">
         <v>0.21361292760303352</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="62">
         <v>1023.1906014882006</v>
       </c>
-      <c r="J19" s="64">
+      <c r="J19" s="62">
         <v>4620.438917038115</v>
       </c>
-      <c r="K19" s="64">
+      <c r="K19" s="62">
         <v>-268.91443432496953</v>
       </c>
-      <c r="L19" s="64">
+      <c r="L19" s="62">
         <v>14741.666666666659</v>
       </c>
-      <c r="M19" s="64">
+      <c r="M19" s="62">
         <v>19389.353351363083</v>
       </c>
-      <c r="N19" s="66">
+      <c r="N19" s="64">
         <v>19120.438917038115</v>
       </c>
-      <c r="O19" s="67" t="s">
+      <c r="O19" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="63">
+      <c r="A20" s="61">
         <v>43617.0</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="62">
         <v>0.0</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="62">
         <v>0.0</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="62">
         <v>0.0</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="62">
         <v>14500.0</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="63">
         <v>0.03999771844904346</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="63">
         <v>0.28250983304166366</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="63">
         <v>0.18833988869444246</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="62">
         <v>706.3521329203759</v>
       </c>
-      <c r="J20" s="64">
+      <c r="J20" s="62">
         <v>3653.5237986317625</v>
       </c>
-      <c r="K20" s="64">
+      <c r="K20" s="62">
         <v>-212.63895124311853</v>
       </c>
-      <c r="L20" s="64">
+      <c r="L20" s="62">
         <v>14726.562499999993</v>
       </c>
-      <c r="M20" s="64">
+      <c r="M20" s="62">
         <v>18366.162749874882</v>
       </c>
-      <c r="N20" s="66">
+      <c r="N20" s="64">
         <v>18153.523798631762</v>
       </c>
-      <c r="O20" s="67" t="s">
+      <c r="O20" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="63">
+      <c r="A21" s="61">
         <v>43586.0</v>
       </c>
-      <c r="B21" s="64">
+      <c r="B21" s="62">
         <v>-500.0</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="62">
         <v>0.0</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="62">
         <v>-500.0</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="62">
         <v>14500.0</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="63">
         <v>0.026231385182183264</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="63">
         <v>0.24251211459262018</v>
       </c>
-      <c r="H21" s="65">
+      <c r="H21" s="63">
         <v>0.17118502206537894</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="62">
         <v>464.18087967975225</v>
       </c>
-      <c r="J21" s="64">
+      <c r="J21" s="62">
         <v>2986.021033022007</v>
       </c>
-      <c r="K21" s="64">
+      <c r="K21" s="62">
         <v>-173.78958393249786</v>
       </c>
-      <c r="L21" s="64">
+      <c r="L21" s="62">
         <v>14711.458333333327</v>
       </c>
-      <c r="M21" s="64">
+      <c r="M21" s="62">
         <v>17659.810616954506</v>
       </c>
-      <c r="N21" s="66">
+      <c r="N21" s="64">
         <v>17486.021033022007</v>
       </c>
-      <c r="O21" s="67" t="s">
+      <c r="O21" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="63">
+      <c r="A22" s="61">
         <v>43556.0</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="62">
         <v>0.0</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="62">
         <v>0.0</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="62">
         <v>0.0</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="62">
         <v>15000.0</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="63">
         <v>0.10199738482836891</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="63">
         <v>0.2162807294104369</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="63">
         <v>0.16221054705782767</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="62">
         <v>1637.8513968744555</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="62">
         <v>2547.370101724642</v>
       </c>
-      <c r="K22" s="64">
+      <c r="K22" s="62">
         <v>-148.25963555011148</v>
       </c>
-      <c r="L22" s="64">
+      <c r="L22" s="62">
         <v>15195.833333333327</v>
       </c>
-      <c r="M22" s="64">
+      <c r="M22" s="62">
         <v>17695.629737274754</v>
       </c>
-      <c r="N22" s="66">
+      <c r="N22" s="64">
         <v>17547.370101724642</v>
       </c>
-      <c r="O22" s="67" t="s">
+      <c r="O22" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="63">
+      <c r="A23" s="61">
         <v>43525.0</v>
       </c>
-      <c r="B23" s="64">
+      <c r="B23" s="62">
         <v>0.0</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="62">
         <v>0.0</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="62">
         <v>0.0</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="62">
         <v>15000.0</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="63">
         <v>0.03449682927674902</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="63">
         <v>0.11428334458206801</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="63">
         <v>0.09142667566565442</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="62">
         <v>535.4704067676521</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="62">
         <v>999.6005316782812</v>
       </c>
-      <c r="K23" s="64">
+      <c r="K23" s="62">
         <v>-58.17780872201642</v>
       </c>
-      <c r="L23" s="64">
+      <c r="L23" s="62">
         <v>15180.208333333327</v>
       </c>
-      <c r="M23" s="64">
+      <c r="M23" s="62">
         <v>16057.778340400298</v>
       </c>
-      <c r="N23" s="66">
+      <c r="N23" s="64">
         <v>15999.600531678281</v>
       </c>
-      <c r="O23" s="67" t="s">
+      <c r="O23" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="63">
+      <c r="A24" s="61">
         <v>43497.0</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="62">
         <v>0.0</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="62">
         <v>0.0</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="62">
         <v>0.0</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="62">
         <v>15000.0</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="63">
         <v>0.04107233145116107</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="63">
         <v>0.079786515305319</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="63">
         <v>0.06838844169027342</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="62">
         <v>373.3496002993197</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="62">
         <v>493.58099728285015</v>
       </c>
-      <c r="K24" s="64">
+      <c r="K24" s="62">
         <v>-28.726936349795555</v>
       </c>
-      <c r="L24" s="64">
+      <c r="L24" s="62">
         <v>15164.583333333327</v>
       </c>
-      <c r="M24" s="64">
+      <c r="M24" s="62">
         <v>15522.307933632646</v>
       </c>
-      <c r="N24" s="66">
+      <c r="N24" s="64">
         <v>15493.58099728285</v>
       </c>
-      <c r="O24" s="67" t="s">
+      <c r="O24" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="63">
+      <c r="A25" s="61">
         <v>43466.0</v>
       </c>
-      <c r="B25" s="64">
+      <c r="B25" s="62">
         <v>-1000.0</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="62">
         <v>0.0</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="62">
         <v>-1000.0</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="62">
         <v>15000.0</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="63">
         <v>-0.024314741161841652</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="63">
         <v>0.038714183854157924</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="63">
         <v>0.035736169711530395</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="62">
         <v>-157.4504235641234</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="62">
         <v>140.76562499999454</v>
       </c>
-      <c r="K25" s="64">
+      <c r="K25" s="62">
         <v>-8.19270833333297</v>
       </c>
-      <c r="L25" s="64">
+      <c r="L25" s="62">
         <v>15148.958333333327</v>
       </c>
-      <c r="M25" s="64">
+      <c r="M25" s="62">
         <v>14909.9226486943</v>
       </c>
-      <c r="N25" s="66">
+      <c r="N25" s="64">
         <v>15140.765624999995</v>
       </c>
-      <c r="O25" s="67" t="s">
+      <c r="O25" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="63">
+      <c r="A26" s="61">
         <v>43435.0</v>
       </c>
-      <c r="B26" s="64">
+      <c r="B26" s="62">
         <v>6000.0</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="62">
         <v>0.0</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="62">
         <v>6000.0</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="62">
         <v>16000.0</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="63">
         <v>0.059176449934818486</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="63">
         <v>0.06302892501599958</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="63">
         <v>0.06302892501599958</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="62">
         <v>191.8254235641234</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="62">
         <v>289.55627526809076</v>
       </c>
-      <c r="K26" s="64">
+      <c r="K26" s="62">
         <v>-16.852481629359758</v>
       </c>
-      <c r="L26" s="64">
+      <c r="L26" s="62">
         <v>16132.29166666666</v>
       </c>
-      <c r="M26" s="64">
+      <c r="M26" s="62">
         <v>16306.40875689745</v>
       </c>
-      <c r="N26" s="66">
+      <c r="N26" s="64">
         <v>16289.55627526809</v>
       </c>
-      <c r="O26" s="67" t="s">
+      <c r="O26" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="63">
+      <c r="A27" s="61">
         <v>43405.0</v>
       </c>
-      <c r="B27" s="64">
+      <c r="B27" s="62">
         <v>7000.0</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="62">
         <v>7000.0</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="62">
         <v>0.0</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="62">
         <v>10000.0</v>
       </c>
-      <c r="F27" s="65">
+      <c r="F27" s="63">
         <v>-0.06412073646906129</v>
       </c>
-      <c r="G27" s="65">
+      <c r="G27" s="63">
         <v>0.0038524750811810976</v>
       </c>
-      <c r="H27" s="65">
+      <c r="H27" s="63">
         <v>0.004202700088561198</v>
       </c>
-      <c r="I27" s="64">
+      <c r="I27" s="62">
         <v>-275.32832818211136</v>
       </c>
-      <c r="J27" s="64">
+      <c r="J27" s="62">
         <v>108.28124999999454</v>
       </c>
-      <c r="K27" s="64">
+      <c r="K27" s="62">
         <v>-6.302083333332968</v>
       </c>
-      <c r="L27" s="64">
+      <c r="L27" s="62">
         <v>10114.583333333327</v>
       </c>
-      <c r="M27" s="64">
+      <c r="M27" s="62">
         <v>9723.70287393058</v>
       </c>
-      <c r="N27" s="66">
+      <c r="N27" s="64">
         <v>10108.281249999995</v>
       </c>
-      <c r="O27" s="67" t="s">
+      <c r="O27" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="63">
+      <c r="A28" s="61">
         <v>43374.0</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28" s="62">
         <v>0.0</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="62">
         <v>0.0</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="62">
         <v>0.0</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="62">
         <v>10000.0</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="63">
         <v>-0.028896114427261484</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="63">
         <v>0.06797321155024239</v>
       </c>
-      <c r="H28" s="65">
+      <c r="H28" s="63">
         <v>0.08156785386029086</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="62">
         <v>-309.16164657627814</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="62">
         <v>368.4665201320895</v>
       </c>
-      <c r="K28" s="64">
+      <c r="K28" s="62">
         <v>-21.445141383349092</v>
       </c>
-      <c r="L28" s="64">
+      <c r="L28" s="62">
         <v>10104.16666666666</v>
       </c>
-      <c r="M28" s="64">
+      <c r="M28" s="62">
         <v>10389.911661515438</v>
       </c>
-      <c r="N28" s="66">
+      <c r="N28" s="64">
         <v>10368.46652013209</v>
       </c>
-      <c r="O28" s="67" t="s">
+      <c r="O28" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="63">
+      <c r="A29" s="61">
         <v>43344.0</v>
       </c>
-      <c r="B29" s="64">
+      <c r="B29" s="62">
         <v>0.0</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="62">
         <v>0.0</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="62">
         <v>0.0</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="62">
         <v>10000.0</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="63">
         <v>0.08865378226331043</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="63">
         <v>0.09686932597750388</v>
       </c>
-      <c r="H29" s="65">
+      <c r="H29" s="63">
         <v>0.1291591013033385</v>
       </c>
-      <c r="I29" s="64">
+      <c r="I29" s="62">
         <v>615.7399747583877</v>
       </c>
-      <c r="J29" s="64">
+      <c r="J29" s="62">
         <v>660.624276146671</v>
       </c>
-      <c r="K29" s="64">
+      <c r="K29" s="62">
         <v>-38.44903194504439</v>
       </c>
-      <c r="L29" s="64">
+      <c r="L29" s="62">
         <v>10093.749999999995</v>
       </c>
-      <c r="M29" s="64">
+      <c r="M29" s="62">
         <v>10699.073308091716</v>
       </c>
-      <c r="N29" s="66">
+      <c r="N29" s="64">
         <v>10660.624276146671</v>
       </c>
-      <c r="O29" s="67" t="s">
+      <c r="O29" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="63">
+      <c r="A30" s="61">
         <v>43313.0</v>
       </c>
-      <c r="B30" s="64">
+      <c r="B30" s="62">
         <v>0.0</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="62">
         <v>0.0</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="62">
         <v>0.0</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="62">
         <v>10000.0</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="63">
         <v>-0.02448824447309521</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="63">
         <v>0.00821554371419345</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="63">
         <v>0.012323315571290175</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="62">
         <v>8.824773747366635</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="62">
         <v>78.74999999999454</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="62">
         <v>-4.583333333333067</v>
       </c>
-      <c r="L30" s="64">
+      <c r="L30" s="62">
         <v>10083.333333333328</v>
       </c>
-      <c r="M30" s="64">
+      <c r="M30" s="62">
         <v>9827.80153103253</v>
       </c>
-      <c r="N30" s="66">
+      <c r="N30" s="64">
         <v>10078.749999999995</v>
       </c>
-      <c r="O30" s="67" t="s">
+      <c r="O30" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="63">
+      <c r="A31" s="61">
         <v>43282.0</v>
       </c>
-      <c r="B31" s="64">
+      <c r="B31" s="62">
         <v>0.0</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="62">
         <v>0.0</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="62">
         <v>0.0</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="62">
         <v>10000.0</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="63">
         <v>0.010858996309905966</v>
       </c>
-      <c r="G31" s="65">
+      <c r="G31" s="63">
         <v>0.03270378818728866</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="63">
         <v>0.056063636892494856</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="62">
         <v>12.008559585965486</v>
       </c>
-      <c r="J31" s="64">
+      <c r="J31" s="62">
         <v>70.41058880873425</v>
       </c>
-      <c r="K31" s="64">
+      <c r="K31" s="62">
         <v>-4.097970777227902</v>
       </c>
-      <c r="L31" s="64">
+      <c r="L31" s="62">
         <v>10072.916666666662</v>
       </c>
-      <c r="M31" s="64">
+      <c r="M31" s="62">
         <v>10074.508559585962</v>
       </c>
-      <c r="N31" s="66">
+      <c r="N31" s="64">
         <v>10070.410588808734</v>
       </c>
-      <c r="O31" s="67" t="s">
+      <c r="O31" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="63">
+      <c r="A32" s="61">
         <v>43252.0</v>
       </c>
-      <c r="B32" s="64">
+      <c r="B32" s="62">
         <v>0.0</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="62">
         <v>0.0</v>
       </c>
-      <c r="D32" s="64">
+      <c r="D32" s="62">
         <v>0.0</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="62">
         <v>10000.0</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="63">
         <v>0.12647428034130279</v>
       </c>
-      <c r="G32" s="65">
+      <c r="G32" s="63">
         <v>0.021844791877382697</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="63">
         <v>0.04368958375476539</v>
       </c>
-      <c r="I32" s="64">
+      <c r="I32" s="62">
         <v>10.41666666666606</v>
       </c>
-      <c r="J32" s="64">
+      <c r="J32" s="62">
         <v>59.06249999999636</v>
       </c>
-      <c r="K32" s="64">
+      <c r="K32" s="62">
         <v>-3.4374999999997997</v>
       </c>
-      <c r="L32" s="64">
+      <c r="L32" s="62">
         <v>10062.499999999996</v>
       </c>
-      <c r="M32" s="64">
+      <c r="M32" s="62">
         <v>9966.284710689117</v>
       </c>
-      <c r="N32" s="66">
+      <c r="N32" s="64">
         <v>10059.062499999996</v>
       </c>
-      <c r="O32" s="67" t="s">
+      <c r="O32" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="63">
+      <c r="A33" s="61">
         <v>43221.0</v>
       </c>
-      <c r="B33" s="64">
+      <c r="B33" s="62">
         <v>0.0</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="62">
         <v>0.0</v>
       </c>
-      <c r="D33" s="64">
+      <c r="D33" s="62">
         <v>0.0</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="62">
         <v>10000.0</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="63">
         <v>0.07661146740532812</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="63">
         <v>-0.10462948846392009</v>
       </c>
-      <c r="H33" s="65">
+      <c r="H33" s="63">
         <v>-0.25111077231340817</v>
       </c>
-      <c r="I33" s="64">
+      <c r="I33" s="62">
         <v>10.41666666666606</v>
       </c>
-      <c r="J33" s="64">
+      <c r="J33" s="62">
         <v>49.21874999999636</v>
       </c>
-      <c r="K33" s="64">
+      <c r="K33" s="62">
         <v>-2.8645833333331665</v>
       </c>
-      <c r="L33" s="64">
+      <c r="L33" s="62">
         <v>10052.08333333333</v>
       </c>
-      <c r="M33" s="64">
+      <c r="M33" s="62">
         <v>8847.325575573283</v>
       </c>
-      <c r="N33" s="66">
+      <c r="N33" s="64">
         <v>10049.218749999996</v>
       </c>
-      <c r="O33" s="67" t="s">
+      <c r="O33" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="63">
+      <c r="A34" s="61">
         <v>43191.0</v>
       </c>
-      <c r="B34" s="64">
+      <c r="B34" s="62">
         <v>0.0</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="62">
         <v>0.0</v>
       </c>
-      <c r="D34" s="64">
+      <c r="D34" s="62">
         <v>0.0</v>
       </c>
-      <c r="E34" s="64">
+      <c r="E34" s="62">
         <v>10000.0</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F34" s="63">
         <v>-0.0394470506102503</v>
       </c>
-      <c r="G34" s="65">
+      <c r="G34" s="63">
         <v>-0.1812409558692482</v>
       </c>
-      <c r="H34" s="65">
+      <c r="H34" s="63">
         <v>-0.5437228676077446</v>
       </c>
-      <c r="I34" s="64">
+      <c r="I34" s="62">
         <v>10.41666666666606</v>
       </c>
-      <c r="J34" s="64">
+      <c r="J34" s="62">
         <v>39.37499999999818</v>
       </c>
-      <c r="K34" s="64">
+      <c r="K34" s="62">
         <v>-2.2916666666665333</v>
       </c>
-      <c r="L34" s="64">
+      <c r="L34" s="62">
         <v>10041.666666666664</v>
       </c>
-      <c r="M34" s="64">
+      <c r="M34" s="62">
         <v>8217.751569092656</v>
       </c>
-      <c r="N34" s="66">
+      <c r="N34" s="64">
         <v>10039.374999999998</v>
       </c>
-      <c r="O34" s="67" t="s">
+      <c r="O34" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="63">
+      <c r="A35" s="61">
         <v>43160.0</v>
       </c>
-      <c r="B35" s="64">
+      <c r="B35" s="62">
         <v>0.0</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="62">
         <v>0.0</v>
       </c>
-      <c r="D35" s="64">
+      <c r="D35" s="62">
         <v>0.0</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="62">
         <v>10000.0</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="63">
         <v>-0.052153074609364886</v>
       </c>
-      <c r="G35" s="65">
+      <c r="G35" s="63">
         <v>-0.1417939052589979</v>
       </c>
-      <c r="H35" s="65">
+      <c r="H35" s="63">
         <v>-0.5671756210359916</v>
       </c>
-      <c r="I35" s="64">
+      <c r="I35" s="62">
         <v>10.41666666666606</v>
       </c>
-      <c r="J35" s="64">
+      <c r="J35" s="62">
         <v>29.53124999999818</v>
       </c>
-      <c r="K35" s="64">
+      <c r="K35" s="62">
         <v>-1.7187499999999</v>
       </c>
-      <c r="L35" s="64">
+      <c r="L35" s="62">
         <v>10031.249999999998</v>
       </c>
-      <c r="M35" s="64">
+      <c r="M35" s="62">
         <v>8555.230166450989</v>
       </c>
-      <c r="N35" s="66">
+      <c r="N35" s="64">
         <v>10029.531249999998</v>
       </c>
-      <c r="O35" s="67" t="s">
+      <c r="O35" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="63">
+      <c r="A36" s="61">
         <v>43132.0</v>
       </c>
-      <c r="B36" s="64">
+      <c r="B36" s="62">
         <v>0.0</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="62">
         <v>0.0</v>
       </c>
-      <c r="D36" s="64">
+      <c r="D36" s="62">
         <v>0.0</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="62">
         <v>10000.0</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="63">
         <v>-0.09834304329279307</v>
       </c>
-      <c r="G36" s="65">
+      <c r="G36" s="63">
         <v>-0.08964083064963302</v>
       </c>
-      <c r="H36" s="65">
+      <c r="H36" s="63">
         <v>-0.5378449838977981</v>
       </c>
-      <c r="I36" s="64">
+      <c r="I36" s="62">
         <v>10.41666666666606</v>
       </c>
-      <c r="J36" s="64">
+      <c r="J36" s="62">
         <v>19.68749999999818</v>
       </c>
-      <c r="K36" s="64">
+      <c r="K36" s="62">
         <v>-1.1458333333332666</v>
       </c>
-      <c r="L36" s="64">
+      <c r="L36" s="62">
         <v>10020.833333333332</v>
       </c>
-      <c r="M36" s="64">
+      <c r="M36" s="62">
         <v>9025.961827037769</v>
       </c>
-      <c r="N36" s="66">
+      <c r="N36" s="64">
         <v>10019.687499999998</v>
       </c>
-      <c r="O36" s="67" t="s">
+      <c r="O36" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="63">
+      <c r="A37" s="61">
         <v>43101.0</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="62">
         <v>10000.0</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="62">
         <v>0.0</v>
       </c>
-      <c r="D37" s="64">
+      <c r="D37" s="62">
         <v>10000.0</v>
       </c>
-      <c r="E37" s="64">
+      <c r="E37" s="62">
         <v>10000.0</v>
       </c>
-      <c r="F37" s="65">
+      <c r="F37" s="63">
         <v>0.008702212643160052</v>
       </c>
-      <c r="G37" s="65">
+      <c r="G37" s="63">
         <v>0.008702212643160052</v>
       </c>
-      <c r="H37" s="65">
+      <c r="H37" s="63">
         <v>0.10442655171792062</v>
       </c>
-      <c r="I37" s="64">
+      <c r="I37" s="62">
         <v>10.41666666666606</v>
       </c>
-      <c r="J37" s="64">
+      <c r="J37" s="62">
         <v>9.84375</v>
       </c>
-      <c r="K37" s="64">
+      <c r="K37" s="62">
         <v>-0.5729166666666333</v>
       </c>
-      <c r="L37" s="64">
+      <c r="L37" s="62">
         <v>10010.416666666666</v>
       </c>
-      <c r="M37" s="64">
+      <c r="M37" s="62">
         <v>10010.416666666666</v>
       </c>
-      <c r="N37" s="66">
+      <c r="N37" s="64">
         <v>10009.84375</v>
       </c>
-      <c r="O37" s="67" t="s">
+      <c r="O37" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="63">
+      <c r="A38" s="61">
         <v>43070.0</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="62">
         <v>10000.0</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="62">
         <v>10000.0</v>
       </c>
-      <c r="D38" s="64">
+      <c r="D38" s="62">
         <v>0.0</v>
       </c>
-      <c r="E38" s="64">
+      <c r="E38" s="62">
         <v>0.0</v>
       </c>
-      <c r="F38" s="65">
+      <c r="F38" s="63">
         <v>0.0</v>
       </c>
-      <c r="G38" s="65">
+      <c r="G38" s="63">
         <v>0.0</v>
       </c>
-      <c r="H38" s="65">
+      <c r="H38" s="63">
         <v>0.0</v>
       </c>
-      <c r="I38" s="64">
+      <c r="I38" s="62">
         <v>0.0</v>
       </c>
-      <c r="J38" s="64">
+      <c r="J38" s="62">
         <v>0.0</v>
       </c>
-      <c r="K38" s="64">
+      <c r="K38" s="62">
         <v>0.0</v>
       </c>
-      <c r="L38" s="64">
+      <c r="L38" s="62">
         <v>0.0</v>
       </c>
-      <c r="M38" s="64">
+      <c r="M38" s="62">
         <v>0.0</v>
       </c>
-      <c r="N38" s="66">
+      <c r="N38" s="64">
         <v>0.0</v>
       </c>
-      <c r="O38" s="67" t="s">
+      <c r="O38" s="65" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Data/FiMs Associate.xlsx
+++ b/Data/FiMs Associate.xlsx
@@ -690,12 +690,12 @@
         <t xml:space="preserve">Total amount saved</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A68">
+    <comment authorId="0" ref="A69">
       <text>
         <t xml:space="preserve">Sum own by / due to others</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A76">
+    <comment authorId="0" ref="A77">
       <text>
         <t xml:space="preserve">"Variation cumulée" DEGIRO</t>
       </text>
@@ -1105,7 +1105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="510">
   <si>
     <t>DateTime</t>
   </si>
@@ -1844,13 +1844,13 @@
     <t>Date à laquelle a été effectué l'opération</t>
   </si>
   <si>
-    <t>Cost if money is taken before the end of the month</t>
+    <t>Exchange cost for a withdraw (0.5%)</t>
   </si>
   <si>
     <t>Coût de l'opération</t>
   </si>
   <si>
-    <t>Coût si un retrait est effectué avant la fin du mois</t>
+    <t>Coût d'échange pour un retrait (0,5%)</t>
   </si>
   <si>
     <t>Current recurrent amount</t>
@@ -1907,22 +1907,34 @@
     <t>100% backed Security token</t>
   </si>
   <si>
-    <t>Jetons 100% sécurisé, 0% de risque, rendement faible</t>
+    <t>Jetons Sécurité</t>
   </si>
   <si>
-    <t>Jetons 90% sécurisé, 10% de risque, rendement moyen</t>
+    <t>100% sécurisé, 0% de risque, rendement faible</t>
   </si>
   <si>
-    <t>Jetons 10% sécurisé, 90% de risque, rendement important</t>
+    <t>Jetons Sécurité +</t>
   </si>
   <si>
-    <t>Jetons 0% sécurisé, 100% de risque, rendement extrême</t>
+    <t>90% sécurisé, 10% de risque, rendement moyen</t>
+  </si>
+  <si>
+    <t>Jetons Performance</t>
+  </si>
+  <si>
+    <t>10% sécurisé, 90% de risque, rendement important</t>
+  </si>
+  <si>
+    <t>Jetons Performance +</t>
+  </si>
+  <si>
+    <t>0% sécurisé, 100% de risque, rendement extrême</t>
   </si>
   <si>
     <t>Jetons FiMs</t>
   </si>
   <si>
-    <t>Jetons 100% sécurisé permettant la gouvernance de FiMs</t>
+    <t>100% sécurisé, permettant la gouvernance de FiMs</t>
   </si>
   <si>
     <t>Objectif</t>
@@ -2358,6 +2370,12 @@
   </si>
   <si>
     <t>Historique</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>Jetons</t>
   </si>
   <si>
     <t>personal</t>
@@ -3663,7 +3681,7 @@
       </c>
       <c r="B1" s="2">
         <f>NOW()</f>
-        <v>44869.10664</v>
+        <v>44869.70158</v>
       </c>
     </row>
     <row r="2">
@@ -3681,7 +3699,7 @@
       </c>
       <c r="B3" s="4">
         <f>TIMEVALUE($B$1)</f>
-        <v>0.1066319444</v>
+        <v>0.7015856481</v>
       </c>
     </row>
     <row r="4">
@@ -3760,7 +3778,7 @@
       </c>
       <c r="B12" s="8" t="b">
         <f>AND($B$7&gt;=$B$8,$B$7&lt;=$B$9,$B$3&gt;$B$10,$B$3&lt;$B$11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3916,10 +3934,10 @@
         <v>183</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
@@ -3928,10 +3946,10 @@
       </c>
       <c r="B12" s="78"/>
       <c r="C12" s="78" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
@@ -3940,10 +3958,10 @@
       </c>
       <c r="B13" s="78"/>
       <c r="C13" s="78" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
@@ -3952,10 +3970,10 @@
       </c>
       <c r="B14" s="78"/>
       <c r="C14" s="78" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
@@ -3964,10 +3982,10 @@
       </c>
       <c r="B15" s="78"/>
       <c r="C15" s="78" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
@@ -3976,10 +3994,10 @@
       </c>
       <c r="B16" s="78"/>
       <c r="C16" s="78" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
@@ -3991,7 +4009,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
@@ -4000,24 +4018,24 @@
       </c>
       <c r="B18" s="78"/>
       <c r="C18" s="78" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="76" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
@@ -4025,55 +4043,55 @@
         <v>24</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="76" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B21" s="78" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="76" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D22" s="77" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="76" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
@@ -4081,27 +4099,27 @@
         <v>26</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D24" s="77" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="76" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D25" s="77" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
@@ -4109,13 +4127,13 @@
         <v>30</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
@@ -4123,13 +4141,13 @@
         <v>31</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -4137,201 +4155,201 @@
         <v>32</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D28" s="79" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="76" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B29" s="77"/>
       <c r="C29" s="77" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D29" s="77"/>
     </row>
     <row r="30">
       <c r="A30" s="76" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B30" s="77"/>
       <c r="C30" s="77" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D30" s="77"/>
     </row>
     <row r="31">
       <c r="A31" s="76" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B31" s="77"/>
       <c r="C31" s="77" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D31" s="77"/>
     </row>
     <row r="32">
       <c r="A32" s="76" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B32" s="77"/>
       <c r="C32" s="77" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D32" s="77"/>
     </row>
     <row r="33">
       <c r="A33" s="76" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B33" s="77"/>
       <c r="C33" s="77" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D33" s="77"/>
     </row>
     <row r="34">
       <c r="A34" s="76" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B34" s="77"/>
       <c r="C34" s="77" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D34" s="80"/>
     </row>
     <row r="35">
       <c r="A35" s="76" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B35" s="77"/>
       <c r="C35" s="77" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D35" s="80"/>
     </row>
     <row r="36">
       <c r="A36" s="76" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B36" s="77"/>
       <c r="C36" s="77" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D36" s="80"/>
     </row>
     <row r="37">
       <c r="A37" s="76" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B37" s="77"/>
       <c r="C37" s="77" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D37" s="80"/>
     </row>
     <row r="38">
       <c r="A38" s="76" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B38" s="77" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C38" s="77" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D38" s="77" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="76" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B39" s="77" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C39" s="77" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D39" s="77" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="76" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B40" s="77" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C40" s="77" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D40" s="77" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="76" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B41" s="77" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C41" s="76" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="76" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B42" s="77" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C42" s="77" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D42" s="77" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="76" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B43" s="77" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C43" s="77" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D43" s="77" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="76" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B44" s="77" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C44" s="77" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D44" s="77" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45">
@@ -4339,13 +4357,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="77" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C45" s="77" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="77" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46">
@@ -4353,153 +4371,153 @@
         <v>37</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C46" s="76" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D46" s="76" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="76" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B47" s="77" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C47" s="77" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D47" s="77" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="76" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B48" s="77" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C48" s="77" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D48" s="77" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="76" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B49" s="77" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C49" s="77" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D49" s="77" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="76" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B50" s="77" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C50" s="77" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D50" s="77" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="76" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B51" s="77" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C51" s="77" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D51" s="77" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="76" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B52" s="77" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C52" s="77" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D52" s="77" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="76" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B53" s="77" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C53" s="77" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D53" s="77" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="76" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B54" s="77" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C54" s="77" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D54" s="77" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="76" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B55" s="77" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C55" s="77" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D55" s="77" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="76" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B56" s="77" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D56" s="77" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57">
@@ -4507,41 +4525,41 @@
         <v>25</v>
       </c>
       <c r="B57" s="77" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C57" s="77" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D57" s="77" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="76" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B58" s="77" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C58" s="77" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D58" s="77" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="76" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B59" s="77" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C59" s="77" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D59" s="77" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60">
@@ -4549,757 +4567,767 @@
         <v>16</v>
       </c>
       <c r="B60" s="77" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C60" s="77" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="77" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="76" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B61" s="77"/>
       <c r="C61" s="77" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D61" s="77"/>
     </row>
     <row r="62">
       <c r="A62" s="76" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B62" s="79"/>
       <c r="C62" s="79" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D62" s="77"/>
     </row>
     <row r="63">
       <c r="A63" s="76" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B63" s="79"/>
       <c r="C63" s="79" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D63" s="77"/>
     </row>
     <row r="64">
       <c r="A64" s="76" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B64" s="79"/>
       <c r="C64" s="79" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D64" s="77"/>
     </row>
     <row r="65">
       <c r="A65" s="76" t="s">
-        <v>337</v>
-      </c>
-      <c r="B65" s="77"/>
-      <c r="C65" s="77" t="s">
-        <v>338</v>
+        <v>341</v>
+      </c>
+      <c r="B65" s="79"/>
+      <c r="C65" s="79" t="s">
+        <v>342</v>
       </c>
       <c r="D65" s="77"/>
     </row>
     <row r="66">
       <c r="A66" s="76" t="s">
-        <v>339</v>
-      </c>
-      <c r="B66" s="77" t="s">
-        <v>340</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B66" s="77"/>
       <c r="C66" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="D66" s="77" t="s">
-        <v>342</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="D66" s="77"/>
     </row>
     <row r="67">
       <c r="A67" s="76" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B67" s="77" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C67" s="77" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D67" s="77" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="76" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B68" s="77" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C68" s="77" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D68" s="77" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="76" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B69" s="77" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C69" s="77" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D69" s="77" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="76" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B70" s="77" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C70" s="77" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D70" s="77" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="76" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B71" s="77" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C71" s="77" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D71" s="77" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="76" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B72" s="77" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C72" s="77" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D72" s="77" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="76" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C73" s="77" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D73" s="77" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="76" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B74" s="77" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C74" s="77" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D74" s="77" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="76" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B75" s="77" t="s">
-        <v>376</v>
-      </c>
-      <c r="C75" s="81" t="s">
-        <v>377</v>
+        <v>378</v>
+      </c>
+      <c r="C75" s="77" t="s">
+        <v>379</v>
       </c>
       <c r="D75" s="77" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="76" t="s">
-        <v>379</v>
-      </c>
-      <c r="B76" s="76" t="s">
-        <v>380</v>
-      </c>
-      <c r="C76" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="D76" s="76" t="s">
+      <c r="B76" s="77" t="s">
         <v>382</v>
+      </c>
+      <c r="C76" s="81" t="s">
+        <v>383</v>
+      </c>
+      <c r="D76" s="77" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="76" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B77" s="76" t="s">
-        <v>380</v>
-      </c>
-      <c r="C77" s="77" t="s">
-        <v>384</v>
+        <v>386</v>
+      </c>
+      <c r="C77" s="76" t="s">
+        <v>387</v>
       </c>
       <c r="D77" s="76" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="76" t="s">
-        <v>385</v>
-      </c>
-      <c r="B78" s="77" t="s">
+        <v>389</v>
+      </c>
+      <c r="B78" s="76" t="s">
         <v>386</v>
       </c>
       <c r="C78" s="77" t="s">
-        <v>387</v>
-      </c>
-      <c r="D78" s="77" t="s">
+        <v>390</v>
+      </c>
+      <c r="D78" s="76" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="76" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B79" s="77" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C79" s="77" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D79" s="77" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="76" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B80" s="77" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C80" s="77" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D80" s="77" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="76" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B81" s="77" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C81" s="77" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D81" s="77" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="76" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B82" s="77" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C82" s="77" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D82" s="77" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="76" t="s">
-        <v>403</v>
-      </c>
-      <c r="B83" s="76" t="s">
-        <v>403</v>
+        <v>407</v>
+      </c>
+      <c r="B83" s="77" t="s">
+        <v>404</v>
       </c>
       <c r="C83" s="77" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D83" s="77" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="76" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B84" s="76" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C84" s="77" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D84" s="77" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="76" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B85" s="76" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C85" s="77" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D85" s="77" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="76" t="s">
-        <v>409</v>
-      </c>
-      <c r="B86" s="77" t="s">
-        <v>410</v>
+        <v>413</v>
+      </c>
+      <c r="B86" s="76" t="s">
+        <v>413</v>
       </c>
       <c r="C86" s="77" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D86" s="77" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="76" t="s">
-        <v>413</v>
-      </c>
-      <c r="B87" s="77"/>
+        <v>415</v>
+      </c>
+      <c r="B87" s="77" t="s">
+        <v>416</v>
+      </c>
       <c r="C87" s="77" t="s">
-        <v>414</v>
-      </c>
-      <c r="D87" s="77"/>
+        <v>417</v>
+      </c>
+      <c r="D87" s="77" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="76" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B88" s="77"/>
       <c r="C88" s="77" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D88" s="77"/>
     </row>
     <row r="89">
       <c r="A89" s="76" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B89" s="77"/>
       <c r="C89" s="77" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D89" s="77"/>
     </row>
     <row r="90">
       <c r="A90" s="76" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B90" s="77"/>
       <c r="C90" s="77" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D90" s="77"/>
     </row>
     <row r="91">
       <c r="A91" s="76" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B91" s="77"/>
       <c r="C91" s="77" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D91" s="77"/>
     </row>
     <row r="92">
       <c r="A92" s="76" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B92" s="77"/>
       <c r="C92" s="77" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D92" s="77"/>
     </row>
     <row r="93">
       <c r="A93" s="76" t="s">
-        <v>425</v>
-      </c>
-      <c r="B93" s="76"/>
-      <c r="C93" s="76" t="s">
-        <v>426</v>
+        <v>429</v>
+      </c>
+      <c r="B93" s="77"/>
+      <c r="C93" s="77" t="s">
+        <v>430</v>
       </c>
       <c r="D93" s="77"/>
     </row>
     <row r="94">
       <c r="A94" s="76" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B94" s="76"/>
       <c r="C94" s="76" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D94" s="77"/>
     </row>
     <row r="95">
       <c r="A95" s="76" t="s">
-        <v>429</v>
-      </c>
-      <c r="B95" s="76" t="s">
-        <v>430</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="B95" s="76"/>
       <c r="C95" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="D95" s="77" t="s">
-        <v>432</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="D95" s="77"/>
     </row>
     <row r="96">
       <c r="A96" s="76" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B96" s="76" t="s">
-        <v>430</v>
-      </c>
-      <c r="C96" s="77" t="s">
-        <v>434</v>
+        <v>436</v>
+      </c>
+      <c r="C96" s="76" t="s">
+        <v>437</v>
       </c>
       <c r="D96" s="77" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="76" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B97" s="76" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C97" s="77" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D97" s="77" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="76" t="s">
-        <v>437</v>
-      </c>
-      <c r="B98" s="77"/>
+        <v>441</v>
+      </c>
+      <c r="B98" s="76" t="s">
+        <v>436</v>
+      </c>
       <c r="C98" s="77" t="s">
+        <v>442</v>
+      </c>
+      <c r="D98" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="D98" s="77"/>
     </row>
     <row r="99">
       <c r="A99" s="76" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B99" s="77"/>
       <c r="C99" s="77" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D99" s="77"/>
     </row>
     <row r="100">
       <c r="A100" s="76" t="s">
-        <v>441</v>
-      </c>
-      <c r="B100" s="77" t="s">
-        <v>442</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B100" s="77"/>
       <c r="C100" s="77" t="s">
-        <v>443</v>
-      </c>
-      <c r="D100" s="77" t="s">
-        <v>444</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="D100" s="77"/>
     </row>
     <row r="101">
       <c r="A101" s="76" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B101" s="77" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C101" s="77" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D101" s="77" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="76" t="s">
-        <v>449</v>
-      </c>
-      <c r="B102" s="77"/>
+        <v>451</v>
+      </c>
+      <c r="B102" s="77" t="s">
+        <v>452</v>
+      </c>
       <c r="C102" s="77" t="s">
-        <v>450</v>
-      </c>
-      <c r="D102" s="77"/>
+        <v>453</v>
+      </c>
+      <c r="D102" s="77" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="76" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B103" s="77"/>
       <c r="C103" s="77" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D103" s="77"/>
     </row>
     <row r="104">
       <c r="A104" s="76" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B104" s="77"/>
       <c r="C104" s="77" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D104" s="77"/>
     </row>
     <row r="105">
       <c r="A105" s="76" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B105" s="77"/>
       <c r="C105" s="77" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D105" s="77"/>
     </row>
     <row r="106">
       <c r="A106" s="76" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B106" s="77"/>
       <c r="C106" s="77" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D106" s="77"/>
     </row>
     <row r="107">
       <c r="A107" s="76" t="s">
-        <v>459</v>
-      </c>
-      <c r="B107" s="76"/>
-      <c r="C107" s="76" t="s">
-        <v>460</v>
+        <v>463</v>
+      </c>
+      <c r="B107" s="77"/>
+      <c r="C107" s="77" t="s">
+        <v>464</v>
       </c>
       <c r="D107" s="77"/>
     </row>
     <row r="108">
       <c r="A108" s="76" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B108" s="76"/>
       <c r="C108" s="76" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D108" s="77"/>
     </row>
     <row r="109">
       <c r="A109" s="76" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B109" s="76"/>
       <c r="C109" s="76" t="s">
-        <v>197</v>
+        <v>468</v>
       </c>
       <c r="D109" s="77"/>
     </row>
     <row r="110">
       <c r="A110" s="76" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B110" s="76"/>
       <c r="C110" s="76" t="s">
-        <v>465</v>
+        <v>201</v>
       </c>
       <c r="D110" s="77"/>
     </row>
     <row r="111">
       <c r="A111" s="76" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B111" s="76"/>
       <c r="C111" s="76" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D111" s="77"/>
     </row>
     <row r="112">
       <c r="A112" s="76" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B112" s="76"/>
       <c r="C112" s="76" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D112" s="77"/>
     </row>
     <row r="113">
       <c r="A113" s="76" t="s">
-        <v>470</v>
-      </c>
-      <c r="B113" s="76" t="s">
-        <v>471</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="B113" s="76"/>
       <c r="C113" s="76" t="s">
-        <v>472</v>
-      </c>
-      <c r="D113" s="77" t="s">
-        <v>473</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="D113" s="77"/>
     </row>
     <row r="114">
       <c r="A114" s="76" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B114" s="76" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C114" s="76" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D114" s="77" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="76" t="s">
-        <v>477</v>
-      </c>
-      <c r="B115" s="76"/>
+        <v>480</v>
+      </c>
+      <c r="B115" s="76" t="s">
+        <v>481</v>
+      </c>
       <c r="C115" s="76" t="s">
-        <v>478</v>
-      </c>
-      <c r="D115" s="77"/>
+        <v>476</v>
+      </c>
+      <c r="D115" s="77" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="76" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B116" s="76"/>
       <c r="C116" s="76" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D116" s="77"/>
     </row>
     <row r="117">
       <c r="A117" s="76" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B117" s="76"/>
-      <c r="C117" s="77" t="s">
-        <v>482</v>
-      </c>
-      <c r="D117" s="77" t="s">
-        <v>483</v>
-      </c>
+      <c r="C117" s="76" t="s">
+        <v>486</v>
+      </c>
+      <c r="D117" s="77"/>
     </row>
     <row r="118">
       <c r="A118" s="76" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B118" s="76"/>
-      <c r="C118" s="76" t="s">
-        <v>485</v>
+      <c r="C118" s="77" t="s">
+        <v>488</v>
       </c>
       <c r="D118" s="77" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="76" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B119" s="76"/>
       <c r="C119" s="76" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D119" s="77" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="76" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B120" s="76"/>
-      <c r="C120" s="77" t="s">
-        <v>491</v>
-      </c>
-      <c r="D120" s="82" t="s">
-        <v>492</v>
+      <c r="C120" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="D120" s="77" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="76" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B121" s="76"/>
       <c r="C121" s="77" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D121" s="82" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="76" t="s">
-        <v>496</v>
-      </c>
-      <c r="B122" s="83"/>
-      <c r="C122" s="73" t="s">
-        <v>497</v>
-      </c>
-      <c r="D122" s="84" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="B122" s="76"/>
+      <c r="C122" s="77" t="s">
+        <v>500</v>
+      </c>
+      <c r="D122" s="82" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="76" t="s">
+        <v>502</v>
+      </c>
+      <c r="B123" s="83"/>
+      <c r="C123" s="73" t="s">
+        <v>503</v>
+      </c>
+      <c r="D123" s="84" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -5332,53 +5360,53 @@
         <v>37</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K1" s="85" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="N1" s="85" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="86">
         <f t="array" ref="A2">IF(ROW()=2,DateTime!$B$1,EOMONTH(INDEX($A:$A,ROW()-1)-1,-1)+1)</f>
-        <v>44869.10664</v>
+        <v>44869.70158</v>
       </c>
       <c r="B2" s="87">
         <f t="array" ref="B2">SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),Transactions!$A:$A,"&lt;"&amp;$A2,Transactions!$B:$B,$O2,Transactions!$C:$C,"&gt;0")+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;="&amp;$A2,Transactions!$A:$A,"&lt;="&amp;EOMONTH($A2,0),Transactions!$B:$B,$O2,Transactions!$D:$D,"&lt;=0",Transactions!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
-        <v>-9781.59</v>
+        <v>0</v>
       </c>
       <c r="C2" s="87">
         <f>MAX($B2+IF($B2&gt;0,SUMIFS(Historic!$G:$G,Historic!$D:$D,"BUY",Historic!$A:$A,"&gt;"&amp;MAX(EOMONTH($A2,-2),MAXIFS(Transactions!$A:$A,Transactions!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),Transactions!$A:$A,"&lt;"&amp;$A2,Transactions!$B:$B,$O2,Transactions!$C:$C,"&gt;0")),Historic!$A:$A,"&lt;"&amp;$A2),0),0)</f>
@@ -5386,11 +5414,11 @@
       </c>
       <c r="D2" s="87">
         <f>$B2-$C2</f>
-        <v>-9781.59</v>
+        <v>0</v>
       </c>
       <c r="E2" s="87">
         <f t="array" ref="E2">INDEX($E:$E,ROW()+1)+$D2</f>
-        <v>-9781.59</v>
+        <v>0</v>
       </c>
       <c r="F2" s="88">
         <v>0.0</v>
@@ -5880,49 +5908,49 @@
         <v>37</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K1" s="85" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" s="85" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="86">
         <f t="array" ref="A2">IF(ROW()=2,DateTime!$B$1,EOMONTH(INDEX($A:$A,ROW()-1)-1,-1)+1)</f>
-        <v>44869.10664</v>
+        <v>44869.70158</v>
       </c>
       <c r="B2" s="87">
         <f t="array" ref="B2">SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),Transactions!$A:$A,"&lt;"&amp;$A2,Transactions!$B:$B,$O2,Transactions!$C:$C,"&gt;0")+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;="&amp;$A2,Transactions!$A:$A,"&lt;="&amp;EOMONTH($A2,0),Transactions!$B:$B,$O2,Transactions!$D:$D,"&lt;=0",Transactions!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
@@ -5942,23 +5970,23 @@
       </c>
       <c r="F2" s="89">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),$I2/$N2,0)</f>
-        <v>-0.005627953151</v>
+        <v>0.02566513692</v>
       </c>
       <c r="G2" s="89">
         <f>IF($E2&lt;&gt;0,J2/AVERAGEIF(E2:E62,"&lt;&gt;0"),0)</f>
-        <v>0.3257094478</v>
+        <v>0.3840290352</v>
       </c>
       <c r="H2" s="89">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/(ROWS($A2:$A62)-1)*12,0)</f>
-        <v>0.06514188956</v>
+        <v>0.07680580705</v>
       </c>
       <c r="I2" s="87">
         <f t="array" ref="I2">IF(VLOOKUP($O2,DeFi!$B:$C,2,0)&lt;&gt;"",INDEX($M:$M,ROW())-INDEX($M:$M,ROW()+1),INDEX($N:$N,ROW())-INDEX($N:$N,ROW()+1))</f>
-        <v>-151.2213315</v>
+        <v>711.7627637</v>
       </c>
       <c r="J2" s="87">
         <f>N2-E2</f>
-        <v>4819.685554</v>
+        <v>5682.669649</v>
       </c>
       <c r="K2" s="90">
         <v>0.0</v>
@@ -5968,11 +5996,11 @@
       </c>
       <c r="M2" s="90">
         <f>MAXIFS(DeFi!$I:$I,DeFi!$B:$B,$O2)</f>
-        <v>26869.68555</v>
+        <v>27732.66965</v>
       </c>
       <c r="N2" s="91">
         <f>$M2</f>
-        <v>26869.68555</v>
+        <v>27732.66965</v>
       </c>
       <c r="O2" s="100" t="s">
         <v>47</v>
@@ -8828,49 +8856,49 @@
         <v>37</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K1" s="85" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" s="85" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="86">
         <f t="array" ref="A2">IF(ROW()=2,DateTime!$B$1,EOMONTH(INDEX($A:$A,ROW()-1)-1,-1)+1)</f>
-        <v>44869.10664</v>
+        <v>44869.70158</v>
       </c>
       <c r="B2" s="87">
         <f t="array" ref="B2">SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),Transactions!$A:$A,"&lt;"&amp;$A2,Transactions!$B:$B,$O2,Transactions!$C:$C,"&gt;0")+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;="&amp;$A2,Transactions!$A:$A,"&lt;="&amp;EOMONTH($A2,0),Transactions!$B:$B,$O2,Transactions!$D:$D,"&lt;=0",Transactions!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
@@ -10836,49 +10864,49 @@
         <v>37</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K1" s="85" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" s="85" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="86">
         <f t="array" ref="A2">IF(ROW()=2,DateTime!$B$1,EOMONTH(INDEX($A:$A,ROW()-1)-1,-1)+1)</f>
-        <v>44869.10664</v>
+        <v>44869.70158</v>
       </c>
       <c r="B2" s="87">
         <f t="array" ref="B2">SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),Transactions!$A:$A,"&lt;"&amp;$A2,Transactions!$B:$B,$O2,Transactions!$C:$C,"&gt;0")+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;="&amp;$A2,Transactions!$A:$A,"&lt;="&amp;EOMONTH($A2,0),Transactions!$B:$B,$O2,Transactions!$D:$D,"&lt;=0",Transactions!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
@@ -10898,23 +10926,23 @@
       </c>
       <c r="F2" s="89">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),$I2/$N2,0)</f>
-        <v>-0.004871458368</v>
+        <v>0.0196588813</v>
       </c>
       <c r="G2" s="89">
         <f>IF($E2&lt;&gt;0,J2/AVERAGEIF(E2:E28,"&lt;&gt;0"),0)</f>
-        <v>-0.2891188052</v>
+        <v>-0.2668699101</v>
       </c>
       <c r="H2" s="89">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/(ROWS($A2:$A28)-1)*12,0)</f>
-        <v>-0.1334394485</v>
+        <v>-0.1231707277</v>
       </c>
       <c r="I2" s="87">
         <f t="array" ref="I2">IF(VLOOKUP($O2,DeFi!$B:$C,2,0)&lt;&gt;"",INDEX($M:$M,ROW())-INDEX($M:$M,ROW()+1),INDEX($N:$N,ROW())-INDEX($N:$N,ROW()+1))</f>
-        <v>-294.0907538</v>
+        <v>1216.506595</v>
       </c>
       <c r="J2" s="87">
         <f>N2-E2</f>
-        <v>-19629.83328</v>
+        <v>-18119.23593</v>
       </c>
       <c r="K2" s="87">
         <v>0.0</v>
@@ -10924,11 +10952,11 @@
       </c>
       <c r="M2" s="87">
         <f>MAXIFS(DeFi!$I:$I,DeFi!$B:$B,$O2)</f>
-        <v>60370.16672</v>
+        <v>61880.76407</v>
       </c>
       <c r="N2" s="91">
         <f>$M2</f>
-        <v>60370.16672</v>
+        <v>61880.76407</v>
       </c>
       <c r="O2" s="102" t="s">
         <v>46</v>
@@ -12186,49 +12214,49 @@
         <v>37</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K1" s="85" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" s="85" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="86">
         <f t="array" ref="A2">IF(ROW()=2,DateTime!$B$1,EOMONTH(INDEX($A:$A,ROW()-1)-1,-1)+1)</f>
-        <v>44869.10664</v>
+        <v>44869.70158</v>
       </c>
       <c r="B2" s="87">
         <f t="array" ref="B2">SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),Transactions!$A:$A,"&lt;"&amp;$A2,Transactions!$B:$B,$O2,Transactions!$C:$C,"&gt;0")+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;="&amp;$A2,Transactions!$A:$A,"&lt;="&amp;EOMONTH($A2,0),Transactions!$B:$B,$O2,Transactions!$D:$D,"&lt;=0",Transactions!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
@@ -12248,23 +12276,23 @@
       </c>
       <c r="F2" s="89">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),$I2/$N2,0)</f>
-        <v>-0.001634491999</v>
+        <v>-0.002448619896</v>
       </c>
       <c r="G2" s="89">
         <f>IF($E2&lt;&gt;0,J2/AVERAGEIF(E2:E26,"&lt;&gt;0"),0)</f>
-        <v>-0.2655417304</v>
+        <v>-0.2661382128</v>
       </c>
       <c r="H2" s="89">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/(ROWS($A2:$A26)-1)*12,0)</f>
-        <v>-0.1327708652</v>
+        <v>-0.1330691064</v>
       </c>
       <c r="I2" s="87">
         <f t="array" ref="I2">IF(VLOOKUP($O2,DeFi!$B:$C,2,0)&lt;&gt;"",INDEX($M:$M,ROW())-INDEX($M:$M,ROW()+1),INDEX($N:$N,ROW())-INDEX($N:$N,ROW()+1))</f>
-        <v>-6.001130362</v>
+        <v>-8.982945916</v>
       </c>
       <c r="J2" s="87">
         <f>N2-E2</f>
-        <v>-1327.44311</v>
+        <v>-1330.424926</v>
       </c>
       <c r="K2" s="87">
         <v>0.0</v>
@@ -12274,11 +12302,11 @@
       </c>
       <c r="M2" s="87">
         <f>MAXIFS(DeFi!$I:$I,DeFi!$B:$B,$O2)</f>
-        <v>3671.55689</v>
+        <v>3668.575074</v>
       </c>
       <c r="N2" s="91">
         <f>$M2</f>
-        <v>3671.55689</v>
+        <v>3668.575074</v>
       </c>
       <c r="O2" s="102" t="s">
         <v>45</v>
@@ -13442,49 +13470,49 @@
         <v>37</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K1" s="85" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" s="85" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="86">
         <f t="array" ref="A2">IF(ROW()=2,DateTime!$B$1,EOMONTH(INDEX($A:$A,ROW()-1)-1,-1)+1)</f>
-        <v>44869.10664</v>
+        <v>44869.70158</v>
       </c>
       <c r="B2" s="87">
         <f t="array" ref="B2">SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),Transactions!$A:$A,"&lt;"&amp;$A2,Transactions!$B:$B,$O2,Transactions!$C:$C,"&gt;0")+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;="&amp;$A2,Transactions!$A:$A,"&lt;="&amp;EOMONTH($A2,0),Transactions!$B:$B,$O2,Transactions!$D:$D,"&lt;=0",Transactions!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
@@ -13504,23 +13532,23 @@
       </c>
       <c r="F2" s="89">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),$I2/$N2,0)</f>
-        <v>-0.001634491999</v>
+        <v>-0.002448619896</v>
       </c>
       <c r="G2" s="89">
         <f>IF($E2&lt;&gt;0,J2/AVERAGEIF(E2:E26,"&lt;&gt;0"),0)</f>
-        <v>-0.2655417304</v>
+        <v>-0.2661382128</v>
       </c>
       <c r="H2" s="89">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/(ROWS($A2:$A26)-1)*12,0)</f>
-        <v>-0.1327708652</v>
+        <v>-0.1330691064</v>
       </c>
       <c r="I2" s="87">
         <f t="array" ref="I2">IF(VLOOKUP($O2,DeFi!$B:$C,2,0)&lt;&gt;"",INDEX($M:$M,ROW())-INDEX($M:$M,ROW()+1),INDEX($N:$N,ROW())-INDEX($N:$N,ROW()+1))</f>
-        <v>-6.001130362</v>
+        <v>-8.982945916</v>
       </c>
       <c r="J2" s="87">
         <f>N2-E2</f>
-        <v>-1327.44311</v>
+        <v>-1330.424926</v>
       </c>
       <c r="K2" s="87">
         <v>0.0</v>
@@ -13530,11 +13558,11 @@
       </c>
       <c r="M2" s="87">
         <f>MAXIFS(DeFi!$I:$I,DeFi!$B:$B,$O2)</f>
-        <v>3671.55689</v>
+        <v>3668.575074</v>
       </c>
       <c r="N2" s="91">
         <f>$M2</f>
-        <v>3671.55689</v>
+        <v>3668.575074</v>
       </c>
       <c r="O2" s="102" t="s">
         <v>44</v>
@@ -14698,49 +14726,49 @@
         <v>37</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K1" s="85" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" s="85" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="86">
         <f t="array" ref="A2">IF(ROW()=2,DateTime!$B$1,EOMONTH(INDEX($A:$A,ROW()-1)-1,-1)+1)</f>
-        <v>44869.10664</v>
+        <v>44869.70158</v>
       </c>
       <c r="B2" s="87">
         <f t="array" ref="B2">SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),Transactions!$A:$A,"&lt;"&amp;$A2,Transactions!$B:$B,$O2,Transactions!$C:$C,"&gt;0")+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;="&amp;$A2,Transactions!$A:$A,"&lt;="&amp;EOMONTH($A2,0),Transactions!$B:$B,$O2,Transactions!$D:$D,"&lt;=0",Transactions!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
@@ -14760,23 +14788,23 @@
       </c>
       <c r="F2" s="89">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),$I2/$N2,0)</f>
-        <v>-0.005830467574</v>
+        <v>0.02191566465</v>
       </c>
       <c r="G2" s="89">
         <f>IF($E2&lt;&gt;0,J2/AVERAGEIF(E2:E22,"&lt;&gt;0"),0)</f>
-        <v>-0.1716451387</v>
+        <v>-0.1481465071</v>
       </c>
       <c r="H2" s="89">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/(ROWS($A2:$A22)-1)*12,0)</f>
-        <v>-0.1029870832</v>
+        <v>-0.08888790427</v>
       </c>
       <c r="I2" s="87">
         <f t="array" ref="I2">IF(VLOOKUP($O2,DeFi!$B:$C,2,0)&lt;&gt;"",INDEX($M:$M,ROW())-INDEX($M:$M,ROW()+1),INDEX($N:$N,ROW())-INDEX($N:$N,ROW()+1))</f>
-        <v>-24.14848079</v>
+        <v>93.34467739</v>
       </c>
       <c r="J2" s="87">
         <f>N2-E2</f>
-        <v>-858.2256937</v>
+        <v>-740.7325356</v>
       </c>
       <c r="K2" s="87">
         <v>0.0</v>
@@ -14786,11 +14814,11 @@
       </c>
       <c r="M2" s="87">
         <f>MAXIFS(DeFi!$I:$I,DeFi!$B:$B,$O2)</f>
-        <v>4141.774306</v>
+        <v>4259.267464</v>
       </c>
       <c r="N2" s="91">
         <f>$M2</f>
-        <v>4141.774306</v>
+        <v>4259.267464</v>
       </c>
       <c r="O2" s="102" t="s">
         <v>43</v>
@@ -15766,49 +15794,49 @@
         <v>37</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K1" s="85" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" s="85" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="86">
         <f t="array" ref="A2">IF(ROW()=2,DateTime!$B$1,EOMONTH(INDEX($A:$A,ROW()-1)-1,-1)+1)</f>
-        <v>44869.10664</v>
+        <v>44869.70158</v>
       </c>
       <c r="B2" s="87">
         <f t="array" ref="B2">SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),Transactions!$A:$A,"&lt;"&amp;$A2,Transactions!$B:$B,$O2,Transactions!$C:$C,"&gt;0")+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;="&amp;$A2,Transactions!$A:$A,"&lt;="&amp;EOMONTH($A2,0),Transactions!$B:$B,$O2,Transactions!$D:$D,"&lt;=0",Transactions!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
@@ -16270,49 +16298,49 @@
         <v>37</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K1" s="85" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" s="85" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="86">
         <f t="array" ref="A2">IF(ROW()=2,DateTime!$B$1,EOMONTH(INDEX($A:$A,ROW()-1)-1,-1)+1)</f>
-        <v>44869.10664</v>
+        <v>44869.70158</v>
       </c>
       <c r="B2" s="87">
         <f t="array" ref="B2">SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),Transactions!$A:$A,"&lt;"&amp;$A2,Transactions!$B:$B,$O2,Transactions!$C:$C,"&gt;0")+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;="&amp;$A2,Transactions!$A:$A,"&lt;="&amp;EOMONTH($A2,0),Transactions!$B:$B,$O2,Transactions!$D:$D,"&lt;=0",Transactions!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
@@ -16331,23 +16359,23 @@
       </c>
       <c r="F2" s="89">
         <f t="array" ref="F2">IF(INDEX($A:$A,ROW()+1),$I2/$N2,0)</f>
-        <v>-0.09304708993</v>
+        <v>-0.02539418892</v>
       </c>
       <c r="G2" s="89">
         <f>IF($E2&lt;&gt;0,J2/AVERAGEIF(E2:E6,"&lt;&gt;0"),0)</f>
-        <v>-0.2588918561</v>
+        <v>-0.2099954254</v>
       </c>
       <c r="H2" s="89">
         <f t="array" ref="H2">IF(INDEX($A:$A,ROW()+1),$G2/(ROWS($A2:$A6)-1)*12,0)</f>
-        <v>-0.7766755683</v>
+        <v>-0.6299862762</v>
       </c>
       <c r="I2" s="87">
         <f t="array" ref="I2">IF(VLOOKUP($O2,DeFi!$B:$C,2,0)&lt;&gt;"",INDEX($M:$M,ROW())-INDEX($M:$M,ROW()+1),INDEX($N:$N,ROW())-INDEX($N:$N,ROW()+1))</f>
-        <v>-13791.59122</v>
+        <v>-4012.305083</v>
       </c>
       <c r="J2" s="87">
         <f>N2-E2</f>
-        <v>-51778.37122</v>
+        <v>-41999.08508</v>
       </c>
       <c r="K2" s="87">
         <v>0.0</v>
@@ -16357,11 +16385,11 @@
       </c>
       <c r="M2" s="87">
         <f>MAXIFS(DeFi!$I:$I,DeFi!$B:$B,$O2)</f>
-        <v>148221.6288</v>
+        <v>158000.9149</v>
       </c>
       <c r="N2" s="91">
         <f>$M2</f>
-        <v>148221.6288</v>
+        <v>158000.9149</v>
       </c>
       <c r="O2" s="101" t="s">
         <v>41</v>
@@ -16581,8 +16609,8 @@
         <v>Cumulated saving</v>
       </c>
       <c r="B1" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146265.65877786966)</f>
-        <v>146265.6588</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),156044.9449171155)</f>
+        <v>156044.9449</v>
       </c>
     </row>
     <row r="2">
@@ -16681,8 +16709,8 @@
         <v>Working free duration</v>
       </c>
       <c r="B11" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"252 months (21 years)")</f>
-        <v>252 months (21 years)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"269 months (22.4 years)")</f>
+        <v>269 months (22.4 years)</v>
       </c>
     </row>
     <row r="12">
@@ -16691,8 +16719,8 @@
         <v>Since Independance duration</v>
       </c>
       <c r="B12" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"80 months (6.7 years)")</f>
-        <v>80 months (6.7 years)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"72 months (6 years)")</f>
+        <v>72 months (6 years)</v>
       </c>
     </row>
     <row r="13">
@@ -16701,8 +16729,8 @@
         <v>Since Independance gap</v>
       </c>
       <c r="B13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-100343.82383643038)</f>
-        <v>-100343.8238</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-90564.53769718454)</f>
+        <v>-90564.5377</v>
       </c>
     </row>
     <row r="14">
@@ -16911,7 +16939,7 @@
         <v>Associates</v>
       </c>
       <c r="B34" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.9999999999999998)</f>
         <v>2</v>
       </c>
     </row>
@@ -17128,8 +17156,8 @@
         <v>Associates interest rate</v>
       </c>
       <c r="B56" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2888.776960922256)</f>
-        <v>2888.776961</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-12021.88886859223)</f>
+        <v>-12021.88887</v>
       </c>
     </row>
     <row r="57">
@@ -17138,8 +17166,8 @@
         <v>Associates interest</v>
       </c>
       <c r="B57" s="17">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),481.462826820376)</f>
-        <v>481.4628268</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-2003.6481447653714)</f>
+        <v>-2003.648145</v>
       </c>
     </row>
     <row r="58">
@@ -17298,8 +17326,8 @@
         <v>Last updated</v>
       </c>
       <c r="B73" s="22">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.35591016203398)</f>
-        <v>50.35591016</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.9517201504641)</f>
+        <v>50.95172015</v>
       </c>
     </row>
     <row r="74">
@@ -18839,49 +18867,49 @@
         <v>37</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K1" s="85" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" s="85" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="86">
         <f t="array" ref="A2">IF(ROW()=2,DateTime!$B$1,EOMONTH(INDEX($A:$A,ROW()-1)-1,-1)+1)</f>
-        <v>44869.10664</v>
+        <v>44869.70158</v>
       </c>
       <c r="B2" s="87">
         <f t="array" ref="B2">SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;EOMONTH($A2,-2),Transactions!$A:$A,"&lt;"&amp;$A2,Transactions!$B:$B,$O2,Transactions!$C:$C,"&gt;0")+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;="&amp;$A2,Transactions!$A:$A,"&lt;="&amp;EOMONTH($A2,0),Transactions!$B:$B,$O2,Transactions!$D:$D,"&lt;=0",Transactions!$C:$C,"&lt;0")+INDEX($C:$C,ROW()+1)</f>
@@ -18933,7 +18961,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -58287,19 +58315,19 @@
       </c>
       <c r="I2" s="36">
         <f t="array" ref="I2">SUMPRODUCT(OFFSET($A2,0,3,1,5),TRANSPOSE(OFFSET(Token!$C:$C,ROWS(Token!$C:$C)-5,0)))</f>
-        <v>148221.6288</v>
+        <v>158000.9149</v>
       </c>
       <c r="J2" s="36">
         <f>$I$2-SUM(OFFSET($L:$L,2,0))</f>
-        <v>170994.4151</v>
+        <v>180754.4649</v>
       </c>
       <c r="K2" s="36">
         <f>SUM(OFFSET($K:$K,2,0))</f>
-        <v>-1742.626814</v>
+        <v>-977.1598946</v>
       </c>
       <c r="L2" s="36">
         <f t="shared" ref="L2:L10" si="1">$I2-J2</f>
-        <v>-22772.78633</v>
+        <v>-22753.54996</v>
       </c>
       <c r="M2" s="37">
         <f t="shared" ref="M2:M10" si="2">IF(SUMIF(OFFSET($L:$L,2,0),"&lt;0")&lt;0,MAX($L2/SUMIF(OFFSET($L:$L,2,0),"&lt;0"),0),0)</f>
@@ -58348,15 +58376,15 @@
       </c>
       <c r="I3" s="41">
         <f t="array" ref="I3">SUMPRODUCT(OFFSET($A3,0,3,1,5),TRANSPOSE(OFFSET(Token!$C:$C,ROWS(Token!$C:$C)-5,0)))</f>
-        <v>26869.68555</v>
+        <v>27732.66965</v>
       </c>
       <c r="J3" s="41">
         <f>IF($I3=0,0,IF(ISREF(INDIRECT($B3&amp;"!$A$1")),MAXIFS(INDIRECT($B3&amp;"!$N:$N"),INDIRECT($B3&amp;"!$A:$A"),DATE(2022,8,1))+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B3)+MIN($K3,0),"#ERROR!"))</f>
-        <v>26869.68555</v>
+        <v>27732.66965</v>
       </c>
       <c r="K3" s="41">
-        <f>IF($I3=0,0,IF(ISREF(INDIRECT($B3&amp;"!$A$1")),$I3-MAXIFS(INDIRECT($B3&amp;"!$M:$M"),INDIRECT($B3&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B3),"#ERROR!"))</f>
-        <v>-1209.31571</v>
+        <f>IF($I3=0,0,IF(ISREF(INDIRECT($B3&amp;"!$A$1")),$I3-MAXIFS(INDIRECT($B3&amp;"!"&amp;IF($C3&lt;&gt;"","$M:$M","$N:$N")),INDIRECT($B3&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B3),"#ERROR!"))</f>
+        <v>-346.3316149</v>
       </c>
       <c r="L3" s="41">
         <f t="shared" si="1"/>
@@ -58416,7 +58444,7 @@
         <v>684.6</v>
       </c>
       <c r="K4" s="41">
-        <f>IF($I4=0,0,IF(ISREF(INDIRECT($B4&amp;"!$A$1")),$I4-MAXIFS(INDIRECT($B4&amp;"!$M:$M"),INDIRECT($B4&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B4),"#ERROR!"))</f>
+        <f>IF($I4=0,0,IF(ISREF(INDIRECT($B4&amp;"!$A$1")),$I4-MAXIFS(INDIRECT($B4&amp;"!"&amp;IF($C4&lt;&gt;"","$M:$M","$N:$N")),INDIRECT($B4&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B4),"#ERROR!"))</f>
         <v>50.6955456</v>
       </c>
       <c r="L4" s="41">
@@ -58425,7 +58453,7 @@
       </c>
       <c r="M4" s="42">
         <f t="shared" si="2"/>
-        <v>0.005691003205</v>
+        <v>0.005695814509</v>
       </c>
       <c r="N4" s="35">
         <f t="shared" si="3"/>
@@ -58470,15 +58498,15 @@
       </c>
       <c r="I5" s="41">
         <f t="array" ref="I5">SUMPRODUCT(OFFSET($A5,0,3,1,5),TRANSPOSE(OFFSET(Token!$C:$C,ROWS(Token!$C:$C)-5,0)))</f>
-        <v>60370.16672</v>
+        <v>61880.76407</v>
       </c>
       <c r="J5" s="41">
         <f>IF($I5=0,0,IF(ISREF(INDIRECT($B5&amp;"!$A$1")),MAXIFS(INDIRECT($B5&amp;"!$N:$N"),INDIRECT($B5&amp;"!$A:$A"),DATE(2022,8,1))+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B5)+MIN($K5,0),"#ERROR!"))</f>
-        <v>79366.05446</v>
+        <v>80876.65181</v>
       </c>
       <c r="K5" s="41">
-        <f>IF($I5=0,0,IF(ISREF(INDIRECT($B5&amp;"!$A$1")),$I5-MAXIFS(INDIRECT($B5&amp;"!$M:$M"),INDIRECT($B5&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B5),"#ERROR!"))</f>
-        <v>-2129.945536</v>
+        <f>IF($I5=0,0,IF(ISREF(INDIRECT($B5&amp;"!$A$1")),$I5-MAXIFS(INDIRECT($B5&amp;"!"&amp;IF($C5&lt;&gt;"","$M:$M","$N:$N")),INDIRECT($B5&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B5),"#ERROR!"))</f>
+        <v>-619.3481863</v>
       </c>
       <c r="L5" s="41">
         <f t="shared" si="1"/>
@@ -58486,7 +58514,7 @@
       </c>
       <c r="M5" s="42">
         <f t="shared" si="2"/>
-        <v>0.8341485961</v>
+        <v>0.8348538043</v>
       </c>
       <c r="N5" s="35">
         <f t="shared" si="3"/>
@@ -58531,23 +58559,23 @@
       </c>
       <c r="I6" s="41">
         <f t="array" ref="I6">SUMPRODUCT(OFFSET($A6,0,3,1,5),TRANSPOSE(OFFSET(Token!$C:$C,ROWS(Token!$C:$C)-5,0)))</f>
-        <v>3671.55689</v>
+        <v>3668.575074</v>
       </c>
       <c r="J6" s="41">
         <f>IF($I6=0,0,IF(ISREF(INDIRECT($B6&amp;"!$A$1")),MAXIFS(INDIRECT($B6&amp;"!$N:$N"),INDIRECT($B6&amp;"!$A:$A"),DATE(2022,8,1))+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B6)+MIN($K6,0),"#ERROR!"))</f>
         <v>5096.4805</v>
       </c>
       <c r="K6" s="41">
-        <f>IF($I6=0,0,IF(ISREF(INDIRECT($B6&amp;"!$A$1")),$I6-MAXIFS(INDIRECT($B6&amp;"!$M:$M"),INDIRECT($B6&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B6),"#ERROR!"))</f>
-        <v>8.234581688</v>
+        <f>IF($I6=0,0,IF(ISREF(INDIRECT($B6&amp;"!$A$1")),$I6-MAXIFS(INDIRECT($B6&amp;"!"&amp;IF($C6&lt;&gt;"","$M:$M","$N:$N")),INDIRECT($B6&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B6),"#ERROR!"))</f>
+        <v>5.252766134</v>
       </c>
       <c r="L6" s="41">
         <f t="shared" si="1"/>
-        <v>-1424.92361</v>
+        <v>-1427.905426</v>
       </c>
       <c r="M6" s="42">
         <f t="shared" si="2"/>
-        <v>0.06257133358</v>
+        <v>0.06275528118</v>
       </c>
       <c r="N6" s="35">
         <f t="shared" si="3"/>
@@ -58592,23 +58620,23 @@
       </c>
       <c r="I7" s="41">
         <f t="array" ref="I7">SUMPRODUCT(OFFSET($A7,0,3,1,5),TRANSPOSE(OFFSET(Token!$C:$C,ROWS(Token!$C:$C)-5,0)))</f>
-        <v>3671.55689</v>
+        <v>3668.575074</v>
       </c>
       <c r="J7" s="41">
         <f>IF($I7=0,0,IF(ISREF(INDIRECT($B7&amp;"!$A$1")),MAXIFS(INDIRECT($B7&amp;"!$N:$N"),INDIRECT($B7&amp;"!$A:$A"),DATE(2022,8,1))+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B7)+MIN($K7,0),"#ERROR!"))</f>
         <v>5096.4805</v>
       </c>
       <c r="K7" s="41">
-        <f>IF($I7=0,0,IF(ISREF(INDIRECT($B7&amp;"!$A$1")),$I7-MAXIFS(INDIRECT($B7&amp;"!$M:$M"),INDIRECT($B7&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B7),"#ERROR!"))</f>
-        <v>8.234581688</v>
+        <f>IF($I7=0,0,IF(ISREF(INDIRECT($B7&amp;"!$A$1")),$I7-MAXIFS(INDIRECT($B7&amp;"!"&amp;IF($C7&lt;&gt;"","$M:$M","$N:$N")),INDIRECT($B7&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B7),"#ERROR!"))</f>
+        <v>5.252766134</v>
       </c>
       <c r="L7" s="41">
         <f t="shared" si="1"/>
-        <v>-1424.92361</v>
+        <v>-1427.905426</v>
       </c>
       <c r="M7" s="42">
         <f t="shared" si="2"/>
-        <v>0.06257133358</v>
+        <v>0.06275528118</v>
       </c>
       <c r="N7" s="35">
         <f t="shared" si="3"/>
@@ -58653,15 +58681,15 @@
       </c>
       <c r="I8" s="41">
         <f t="array" ref="I8">SUMPRODUCT(OFFSET($A8,0,3,1,5),TRANSPOSE(OFFSET(Token!$C:$C,ROWS(Token!$C:$C)-5,0)))</f>
-        <v>4141.774306</v>
+        <v>4259.267464</v>
       </c>
       <c r="J8" s="41">
         <f>IF($I8=0,0,IF(ISREF(INDIRECT($B8&amp;"!$A$1")),MAXIFS(INDIRECT($B8&amp;"!$N:$N"),INDIRECT($B8&amp;"!$A:$A"),DATE(2022,8,1))+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B8)+MIN($K8,0),"#ERROR!"))</f>
-        <v>4914.025671</v>
+        <v>5031.518829</v>
       </c>
       <c r="K8" s="41">
-        <f>IF($I8=0,0,IF(ISREF(INDIRECT($B8&amp;"!$A$1")),$I8-MAXIFS(INDIRECT($B8&amp;"!$M:$M"),INDIRECT($B8&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B8),"#ERROR!"))</f>
-        <v>-164.9743295</v>
+        <f>IF($I8=0,0,IF(ISREF(INDIRECT($B8&amp;"!$A$1")),$I8-MAXIFS(INDIRECT($B8&amp;"!"&amp;IF($C8&lt;&gt;"","$M:$M","$N:$N")),INDIRECT($B8&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B8),"#ERROR!"))</f>
+        <v>-47.48117132</v>
       </c>
       <c r="L8" s="41">
         <f t="shared" si="1"/>
@@ -58669,7 +58697,7 @@
       </c>
       <c r="M8" s="42">
         <f t="shared" si="2"/>
-        <v>0.03391114961</v>
+        <v>0.03393981886</v>
       </c>
       <c r="N8" s="35">
         <f t="shared" si="3"/>
@@ -58718,7 +58746,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="47">
-        <f>IF($I9=0,0,IF(ISREF(INDIRECT($B9&amp;"!$A$1")),$I9-MAXIFS(INDIRECT($B9&amp;"!$M:$M"),INDIRECT($B9&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B9),"#ERROR!"))</f>
+        <f>IF($I9=0,0,IF(ISREF(INDIRECT($B9&amp;"!$A$1")),$I9-MAXIFS(INDIRECT($B9&amp;"!"&amp;IF($C9&lt;&gt;"","$M:$M","$N:$N")),INDIRECT($B9&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B9),"#ERROR!"))</f>
         <v>0</v>
       </c>
       <c r="L9" s="47">
@@ -58773,19 +58801,19 @@
       </c>
       <c r="J10" s="47">
         <f>IF($I10=0,0,IF(ISREF(INDIRECT($B10&amp;"!$A$1")),MAXIFS(INDIRECT($B10&amp;"!$N:$N"),INDIRECT($B10&amp;"!$A:$A"),DATE(2022,8,1))+SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B10)+MIN($K10,0),"#ERROR!"))</f>
-        <v>7525.2</v>
+        <v>7500</v>
       </c>
       <c r="K10" s="47">
-        <f>IF($I10=0,0,IF(ISREF(INDIRECT($B10&amp;"!$A$1")),$I10-MAXIFS(INDIRECT($B10&amp;"!$M:$M"),INDIRECT($B10&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B10),"#ERROR!"))</f>
-        <v>1694.444052</v>
+        <f>IF($I10=0,0,IF(ISREF(INDIRECT($B10&amp;"!$A$1")),$I10-MAXIFS(INDIRECT($B10&amp;"!"&amp;IF($C10&lt;&gt;"","$M:$M","$N:$N")),INDIRECT($B10&amp;"!$A:$A"),DATE(2022,8,1))-SUMIFS(Transactions!$C:$C,Transactions!$A:$A,"&gt;"&amp;DATE(2022,9,1),Transactions!$B:$B,$B10),"#ERROR!"))</f>
+        <v>-25.2</v>
       </c>
       <c r="L10" s="47">
         <f t="shared" si="1"/>
-        <v>-25.2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="48">
         <f t="shared" si="2"/>
-        <v>0.001106583957</v>
+        <v>0</v>
       </c>
       <c r="N10" s="46">
         <f t="shared" si="3"/>
@@ -58895,8 +58923,8 @@
         <v>Dollar (Circle)</v>
       </c>
       <c r="C3" s="52">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.02)</f>
-        <v>1.02</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.01)</f>
+        <v>1.01</v>
       </c>
       <c r="D3" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EPjFWdd5AufqSSqeM2qN1xzybapC8G4wEGGkZwyTDt1v")</f>
@@ -58905,8 +58933,8 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="51">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.802356)</f>
+        <v>169.802356</v>
       </c>
     </row>
     <row r="4">
@@ -58919,8 +58947,8 @@
         <v>Dollar (Tether)</v>
       </c>
       <c r="C4" s="52">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.02)</f>
-        <v>1.02</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.01)</f>
+        <v>1.01</v>
       </c>
       <c r="D4" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Es9vMFrzaCERmJfrF4H2FYD4KCoNkY11McCe8BenwNYB")</f>
@@ -58943,8 +58971,8 @@
         <v>Sol</v>
       </c>
       <c r="C5" s="52">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.969886561775624)</f>
-        <v>31.96988656</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.96482142676525)</f>
+        <v>33.96482143</v>
       </c>
       <c r="D5" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"So11111111111111111111111111111111111111112")</f>
@@ -58953,8 +58981,8 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="51">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.34895)</f>
-        <v>0.34895</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.9668552)</f>
+        <v>0.9668552</v>
       </c>
     </row>
     <row r="6">
@@ -58967,8 +58995,8 @@
         <v>Sécurité</v>
       </c>
       <c r="C6" s="52">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0250825478318137)</f>
-        <v>1.025082548</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0150327189315018)</f>
+        <v>1.015032719</v>
       </c>
       <c r="D6" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Je6yu7yHQ4YozsrXtQS5vKteX8rV73yPxMU2muLUX1U")</f>
@@ -58997,20 +59025,20 @@
         <v>Sécurité +</v>
       </c>
       <c r="C7" s="52">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.1530814946115753)</f>
-        <v>1.153081495</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.151545114476687)</f>
+        <v>1.151545114</v>
       </c>
       <c r="D7" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"86nx2WyrdC6VuWyfdG1gMLiiBduktBTJgToKZAYwcbct")</f>
         <v>86nx2WyrdC6VuWyfdG1gMLiiBduktBTJgToKZAYwcbct</v>
       </c>
       <c r="E7" s="28">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.22911018055655089)</f>
-        <v>0.2291101806</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.24609364557601823)</f>
+        <v>0.2460936456</v>
       </c>
       <c r="F7" s="28">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.13047205354075997)</f>
-        <v>0.1304720535</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.14014367769969005)</f>
+        <v>0.1401436777</v>
       </c>
       <c r="G7" s="51">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -59027,20 +59055,20 @@
         <v>Performance</v>
       </c>
       <c r="C8" s="52">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.37402579944174)</f>
-        <v>39.3740258</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),41.901346528223996)</f>
+        <v>41.90134653</v>
       </c>
       <c r="D8" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"4Hnh1UCC6HLzx9NaGKnTVHR2bANcRrhydumdHCnrT3i2")</f>
         <v>4Hnh1UCC6HLzx9NaGKnTVHR2bANcRrhydumdHCnrT3i2</v>
       </c>
       <c r="E8" s="28">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.2685425773567867)</f>
-        <v>0.2685425774</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.2709447432210813)</f>
+        <v>0.2709447432</v>
       </c>
       <c r="F8" s="28">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.23159729464034995)</f>
-        <v>0.2315972946</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.2336689777265999)</f>
+        <v>0.2336689777</v>
       </c>
       <c r="G8" s="51">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -59057,20 +59085,20 @@
         <v>Performance +</v>
       </c>
       <c r="C9" s="52">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.265221585603456)</f>
-        <v>38.26522159</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.78986359738478)</f>
+        <v>40.7898636</v>
       </c>
       <c r="D9" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DNa849drqW19uBV5X9ohpJ5brRGzq856gk3HDRqveFrA")</f>
         <v>DNa849drqW19uBV5X9ohpJ5brRGzq856gk3HDRqveFrA</v>
       </c>
       <c r="E9" s="28">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.2854088500968116)</f>
-        <v>0.2854088501</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.2912498345862459)</f>
+        <v>0.2912498346</v>
       </c>
       <c r="F9" s="28">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.19691452491278993)</f>
-        <v>0.1969145249</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.20094444439626002)</f>
+        <v>0.2009444444</v>
       </c>
       <c r="G9" s="51">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3873.533789587)</f>
@@ -59210,11 +59238,11 @@
       </c>
       <c r="G2" s="57">
         <f t="shared" ref="G2:G10" si="1">INDIRECT($B2&amp;"!$F2")</f>
-        <v>-0.09304708993</v>
+        <v>-0.02539418892</v>
       </c>
       <c r="H2" s="55">
         <f t="shared" ref="H2:H10" si="2">$G2*IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!$N$2"),0)</f>
-        <v>-13791.59122</v>
+        <v>-4012.305083</v>
       </c>
       <c r="I2" s="55" t="str">
         <f>IF(ISREF(INDIRECT($B2&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B2&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B2&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
@@ -59230,15 +59258,15 @@
       </c>
       <c r="L2" s="55">
         <f t="shared" ref="L2:L10" si="3">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!J2"),"#ERROR!")</f>
-        <v>-51778.37122</v>
+        <v>-41999.08508</v>
       </c>
       <c r="M2" s="57">
         <f t="shared" ref="M2:M10" si="4">IF(ISREF(INDIRECT($B2&amp;"!$A$1")),INDIRECT($B2&amp;"!H2"),"#ERROR!")</f>
-        <v>-0.7766755683</v>
+        <v>-0.6299862762</v>
       </c>
       <c r="N2" s="58">
         <f t="shared" ref="N2:N10" si="5">SUM($J2:$L2)</f>
-        <v>148221.6288</v>
+        <v>158000.9149</v>
       </c>
       <c r="O2" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"fdefroco@gmail.com")</f>
@@ -59271,11 +59299,11 @@
       </c>
       <c r="G3" s="57">
         <f t="shared" si="1"/>
-        <v>-0.005627953151</v>
+        <v>0.02566513692</v>
       </c>
       <c r="H3" s="55">
         <f t="shared" si="2"/>
-        <v>-151.2213315</v>
+        <v>711.7627637</v>
       </c>
       <c r="I3" s="55" t="str">
         <f>IF(ISREF(INDIRECT($B3&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B3&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B3&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
@@ -59291,15 +59319,15 @@
       </c>
       <c r="L3" s="55">
         <f t="shared" si="3"/>
-        <v>4819.685554</v>
+        <v>5682.669649</v>
       </c>
       <c r="M3" s="57">
         <f t="shared" si="4"/>
-        <v>0.06514188956</v>
+        <v>0.07680580705</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" si="5"/>
-        <v>26869.68555</v>
+        <v>27732.66965</v>
       </c>
       <c r="O3" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isadeloenzien@gmail.com")</f>
@@ -59393,11 +59421,11 @@
       </c>
       <c r="G5" s="57">
         <f t="shared" si="1"/>
-        <v>-0.004871458368</v>
+        <v>0.0196588813</v>
       </c>
       <c r="H5" s="55">
         <f t="shared" si="2"/>
-        <v>-294.0907538</v>
+        <v>1216.506595</v>
       </c>
       <c r="I5" s="55" t="str">
         <f>IF(ISREF(INDIRECT($B5&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B5&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B5&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
@@ -59413,15 +59441,15 @@
       </c>
       <c r="L5" s="55">
         <f t="shared" si="3"/>
-        <v>-19629.83328</v>
+        <v>-18119.23593</v>
       </c>
       <c r="M5" s="57">
         <f t="shared" si="4"/>
-        <v>-0.1334394485</v>
+        <v>-0.1231707277</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="5"/>
-        <v>60370.16672</v>
+        <v>61880.76407</v>
       </c>
       <c r="O5" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"philippe.deregel@live.fr")</f>
@@ -59454,11 +59482,11 @@
       </c>
       <c r="G6" s="57">
         <f t="shared" si="1"/>
-        <v>-0.001634491999</v>
+        <v>-0.002448619896</v>
       </c>
       <c r="H6" s="55">
         <f t="shared" si="2"/>
-        <v>-6.001130362</v>
+        <v>-8.982945916</v>
       </c>
       <c r="I6" s="55" t="str">
         <f>IF(ISREF(INDIRECT($B6&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B6&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B6&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
@@ -59474,15 +59502,15 @@
       </c>
       <c r="L6" s="55">
         <f t="shared" si="3"/>
-        <v>-1327.44311</v>
+        <v>-1330.424926</v>
       </c>
       <c r="M6" s="57">
         <f t="shared" si="4"/>
-        <v>-0.1327708652</v>
+        <v>-0.1330691064</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="5"/>
-        <v>3671.55689</v>
+        <v>3668.575074</v>
       </c>
       <c r="O6" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"futurlizd@yahoo.fr")</f>
@@ -59515,11 +59543,11 @@
       </c>
       <c r="G7" s="57">
         <f t="shared" si="1"/>
-        <v>-0.001634491999</v>
+        <v>-0.002448619896</v>
       </c>
       <c r="H7" s="55">
         <f t="shared" si="2"/>
-        <v>-6.001130362</v>
+        <v>-8.982945916</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>IF(ISREF(INDIRECT($B7&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B7&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B7&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
@@ -59535,15 +59563,15 @@
       </c>
       <c r="L7" s="55">
         <f t="shared" si="3"/>
-        <v>-1327.44311</v>
+        <v>-1330.424926</v>
       </c>
       <c r="M7" s="57">
         <f t="shared" si="4"/>
-        <v>-0.1327708652</v>
+        <v>-0.1330691064</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="5"/>
-        <v>3671.55689</v>
+        <v>3668.575074</v>
       </c>
       <c r="O7" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mezzo78000@gmail.com")</f>
@@ -59576,11 +59604,11 @@
       </c>
       <c r="G8" s="57">
         <f t="shared" si="1"/>
-        <v>-0.005830467574</v>
+        <v>0.02191566465</v>
       </c>
       <c r="H8" s="55">
         <f t="shared" si="2"/>
-        <v>-24.14848079</v>
+        <v>93.34467739</v>
       </c>
       <c r="I8" s="55" t="str">
         <f>IF(ISREF(INDIRECT($B8&amp;"!$A$1")),ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B8&amp;"!$A:$A")))/365.25*12) &amp; " months (" &amp; ROUNDUP((DateTime!$B$2-MIN(INDIRECT($B8&amp;"!$A:$A")))/365.25,1) &amp;  " years)",)</f>
@@ -59596,15 +59624,15 @@
       </c>
       <c r="L8" s="55">
         <f t="shared" si="3"/>
-        <v>-858.2256937</v>
+        <v>-740.7325356</v>
       </c>
       <c r="M8" s="57">
         <f t="shared" si="4"/>
-        <v>-0.1029870832</v>
+        <v>-0.08888790427</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="5"/>
-        <v>4141.774306</v>
+        <v>4259.267464</v>
       </c>
       <c r="O8" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"didier.villain245@orange.fr")</f>
@@ -59625,7 +59653,7 @@
       </c>
       <c r="D9" s="55">
         <f>IF(ISREF(INDIRECT($B9&amp;"!$A$1")),INDIRECT($B9&amp;"!$K$2")+SUMIFS(Transactions!$D:$D,Transactions!$A:$A,"&gt;"&amp;EOMONTH(DateTime!$B$2,-1),Transactions!$B:$B,$B9),0)</f>
-        <v>-48.90795</v>
+        <v>48.90795</v>
       </c>
       <c r="E9" s="55">
         <f>SUMIFS(Transactions!$C:$C,Transactions!$B:$B,$B9,Transactions!$D:$D,"&gt;0")</f>
@@ -59653,7 +59681,7 @@
       </c>
       <c r="K9" s="55">
         <f>SUMIFS(Transactions!$C:$C,Transactions!$B:$B,$B9,Transactions!$C:$C,"&lt;0",Transactions!$D:$D,"&lt;=0")</f>
-        <v>-33958.6</v>
+        <v>-24177.01</v>
       </c>
       <c r="L9" s="55">
         <f t="shared" si="3"/>
@@ -59665,7 +59693,7 @@
       </c>
       <c r="N9" s="58">
         <f t="shared" si="5"/>
-        <v>1041.4</v>
+        <v>10822.99</v>
       </c>
       <c r="O9" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lafalconiere@free.fr")</f>
@@ -59788,8 +59816,8 @@
         <v>-9781.59</v>
       </c>
       <c r="D2" s="55">
-        <f>C2*0.5%</f>
-        <v>-48.90795</v>
+        <f>-C2*0.5%</f>
+        <v>48.90795</v>
       </c>
     </row>
     <row r="3">
@@ -60926,8 +60954,8 @@
       <c r="B22" s="66" t="str">
         <f>"Non, la preuve : en ce moment, le taux d'intérêt moyen des associés est de &lt;b&gt;" &amp; SUBSTITUTE(AVERAGE(Associate!M3:M58),".",",") &amp; "&lt;/b&gt;.&lt;br&gt;
 L'intérêt le plus bas est de &lt;b&gt;" &amp; SUBSTITUTE(MAX(MIN(Associate!M3:M58),1.2%),".",",") &amp; "&lt;/b&gt; et le plus haut de &lt;b&gt;" &amp; SUBSTITUTE(MAX(Associate!M3:M58),".",",") &amp; "&lt;/b&gt;."</f>
-        <v>Non, la preuve : en ce moment, le taux d'intérêt moyen des associés est de &lt;b&gt;-5,84%&lt;/b&gt;.&lt;br&gt;
-L'intérêt le plus bas est de &lt;b&gt;1,20%&lt;/b&gt; et le plus haut de &lt;b&gt;6,51%&lt;/b&gt;.</v>
+        <v>Non, la preuve : en ce moment, le taux d'intérêt moyen des associés est de &lt;b&gt;-5,40%&lt;/b&gt;.&lt;br&gt;
+L'intérêt le plus bas est de &lt;b&gt;1,20%&lt;/b&gt; et le plus haut de &lt;b&gt;7,68%&lt;/b&gt;.</v>
       </c>
     </row>
     <row r="23">
@@ -60952,7 +60980,7 @@
       </c>
       <c r="B25" s="65" t="str">
         <f>"En effet, au pire tu gagnes 1,20% par an, en moyenne "&amp;ROUNDUP(AVERAGE(Associate!M3:M58),2)*100&amp;"% par an, au mieux, "&amp;ROUNDUP(MAX(Associate!M3:M58),2)*100&amp;"% par an."</f>
-        <v>En effet, au pire tu gagnes 1,20% par an, en moyenne -6% par an, au mieux, 7% par an.</v>
+        <v>En effet, au pire tu gagnes 1,20% par an, en moyenne -6% par an, au mieux, 8% par an.</v>
       </c>
     </row>
     <row r="26">
@@ -60990,7 +61018,7 @@
 Et dans les trois cas, 0 € pour moi."</f>
         <v>Au pire des cas, c’est à dire 1,20% de rendement au bout d’un an, cela fait 108 € pour toi et 12 € pour ton association.&lt;br&gt;
 Dans le cas courant, c’est à dire -6% de rendement au bout d’un an, cela fait -540 € pour toi et -60 € pour ton association.&lt;br&gt;
-Au meilleur des cas, c’est à dire 7% de rendement au bout d’un an, cela fait 630. € pour toi et 70 € pour ton association.&lt;br&gt;
+Au meilleur des cas, c’est à dire 8% de rendement au bout d’un an, cela fait 720 € pour toi et 80 € pour ton association.&lt;br&gt;
 Et dans les trois cas, 0 € pour moi.</v>
       </c>
     </row>
